--- a/Systematic Reviews/Analysis Task 4.1/Data_Extraction_Files/DataExtractionForm_WP4_Basurko.xlsx
+++ b/Systematic Reviews/Analysis Task 4.1/Data_Extraction_Files/DataExtractionForm_WP4_Basurko.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23801"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\use\Oihane_Cabezas\IM21_SEAWISE\Revision biblio WP4\Stage 2_papers\Instructions\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://share.dtu.dk/sites/SEAwise_517900/Shared Documents/WP4 Ecological effects of fisheries/Task 4.1/Data extraction/Data extraction files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57277244-FF97-45F9-9004-27C0D55354F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3821678-5F0E-41E3-B176-ECC09AAEECB1}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DataExtraction" sheetId="1" r:id="rId1"/>
@@ -18,6 +18,7 @@
     <sheet name="Drop-down overview" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">DataExtraction!$A$2:$AX$48</definedName>
     <definedName name="Benthic_epifauna">Validation!$AI$32:$AI$35</definedName>
     <definedName name="Benthos">Validation!$AN$24:$AN$25</definedName>
     <definedName name="Catch_and_bycatch">Validation!$AM$15:$AM$17</definedName>
@@ -42,7 +43,7 @@
     <definedName name="Reptiles">Validation!$AM$24</definedName>
     <definedName name="Seines">Validation!$AS$31:$AS$35</definedName>
   </definedNames>
-  <calcPr calcId="191029" refMode="R1C1" iterateCount="0" calcOnSave="0" concurrentCalc="0"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -54,7 +55,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -2335,7 +2335,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2229" uniqueCount="642">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2210" uniqueCount="636">
   <si>
     <t>SearchID</t>
   </si>
@@ -3902,15 +3902,6 @@
   </si>
   <si>
     <t>Relative and absolute growth _ linear regression _ modal progression _ software ELEFAN _ programme MIX _ mortality _ Yield per Recruit analysis _ sensitivity analysis _ Virtual population analysis (VPA) _ programme VIT _ programme MSFLA</t>
-  </si>
-  <si>
-    <t>Telephone survey and face-to-face interviews to anglers</t>
-  </si>
-  <si>
-    <t>Anglers motivation towards marine litter generation from angling</t>
-  </si>
-  <si>
-    <t>Considering the angling effort between 962,907 and 1,103,134 angling days distributed among different fishing platforms (boat, charter boat, shore) and a mean loss of 7.2 g lead per fishing day, the total deposition of lead by recreational anglers may be estimated to range between 6.9 and 7.9 t per year in German Baltic waters. The locally high number of marine anglers and angling effort indicates that angling related litter may be an environmental issue and should be considered in MRF and litter management.</t>
   </si>
   <si>
     <t>Phocoena phocoena</t>
@@ -4140,9 +4131,6 @@
     <t>Catch (in total number and weight per species caught)</t>
   </si>
   <si>
-    <t xml:space="preserve">Argentina sphyraena _ Arnoglossus laterna _ Arnoglossus thori _ Aspitrigla cuculus _ Belottia apoda _ Callionymus sp. _ Capros aper _ Cepola macrophthalma _ Citharus linguatula _ Conger conger _ Eutrigla gurnardus _ Gadiculus argenteus argenteus _ Gaidropsarus mediterraneus _ Galeus melastomus _ Gobiidae _ Gobius niger _ Lepidorhombus boscii _ Lepidotrigla cavillone _ Lophius budegassa _ Maurolicus muelleri _ Merluccius merluccius _ Microchirus variegatus _ Micromesistius poutassou _ Mullus barbatus _ Nephrops norvegicus _ Scyliorhinus canicula _ Serranus hepatus _ Solea vulgaris _ Symphurus ligulatus _ Torpedo marmorata _ Trachurus mediterraneus _ Trachurus trachurus _ Trigla lucerna _ Trigla lyra _ Trigloporus lastoviza _ Trisopterus minutus capelanus_ </t>
-  </si>
-  <si>
     <t>Argentina sphyraena _ Arnoglossus laterna _ Arnoglossus thori _ Aspitrigla cuculus _ Belottia apoda _ Callionymus sp. _ Capros aper _ Cepola macrophthalma _ Citharus linguatula _ Conger conger _ Eutrigla gurnardus _ Gadiculus argenteus argenteus _ Gaidropsarus mediterraneus _ Galeus melastomus _ Gobiidae _ Gobius niger _ Lepidorhombus boscii _ Lepidotrigla cavillone _ Lophius budegassa _ Maurolicus muelleri _ Merluccius merluccius _ Microchirus variegatus _ Micromesistius poutassou _ Mullus barbatus _ Nephrops norvegicus _ Scyliorhinus canicula _ Serranus hepatus _ Solea vulgaris _ Symphurus ligulatus _ Torpedo marmorata _ Trachurus mediterraneus _ Trachurus trachurus _ Trigla lucerna _ Trigla lyra _ Trigloporus lastoviza _ Trisopterus minutus capelanus _ Zeus faber</t>
   </si>
   <si>
@@ -4226,9 +4214,6 @@
     <t>Yiel for recruit (Y/R)</t>
   </si>
   <si>
-    <t>Release of marine litter into the environment</t>
-  </si>
-  <si>
     <t xml:space="preserve">Squalus acanthias _ Psetta maxima _ Trigla lucerna _ Raja clavata _ Phocoena phocoena </t>
   </si>
   <si>
@@ -4263,9 +4248,6 @@
   </si>
   <si>
     <t xml:space="preserve">Stomach fullness (%BW) _ mean partial fullness index for prey (PFIi) _ Chi-square test _ Mann–Whitney U-test _ Kruskal-Wallis non-parametric test </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Angler motivation _ EFA _ Tucker-Lewis Index _ root mean square residuals and root mean square error of approximation _ Multivariate fuzzy cluster analysis _ Spearman correlation _ Kruskal-Wallis non-parametric test  _ Dunn's post hoc test _  Poisson regression _ Chi-square test _ R _ </t>
   </si>
 </sst>
 </file>
@@ -4882,13 +4864,13 @@
   <dimension ref="A1:AX49"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="T3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="X36" sqref="X36"/>
+      <selection pane="bottomRight" activeCell="D41" sqref="D41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="13" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="13" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="5" customWidth="1"/>
     <col min="3" max="3" width="24.5546875" customWidth="1"/>
@@ -5308,7 +5290,7 @@
         <v>485</v>
       </c>
       <c r="Z4" s="37" t="s">
-        <v>539</v>
+        <v>536</v>
       </c>
       <c r="AA4" s="37">
         <v>2</v>
@@ -5340,14 +5322,14 @@
       </c>
       <c r="AK4" s="37"/>
       <c r="AL4" s="37" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
       <c r="AM4" s="37" t="s">
         <v>233</v>
       </c>
       <c r="AN4" s="37"/>
       <c r="AO4" s="37" t="s">
-        <v>544</v>
+        <v>541</v>
       </c>
       <c r="AP4" s="37"/>
       <c r="AQ4" s="37" t="s">
@@ -5361,7 +5343,7 @@
       </c>
       <c r="AT4" s="37"/>
       <c r="AU4" s="37" t="s">
-        <v>545</v>
+        <v>542</v>
       </c>
       <c r="AV4" s="37" t="s">
         <v>214</v>
@@ -5370,7 +5352,7 @@
         <v>211</v>
       </c>
       <c r="AX4" s="37" t="s">
-        <v>529</v>
+        <v>526</v>
       </c>
     </row>
     <row r="5" spans="1:50" s="15" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
@@ -5448,7 +5430,7 @@
         <v>486</v>
       </c>
       <c r="Z5" s="40" t="s">
-        <v>540</v>
+        <v>537</v>
       </c>
       <c r="AA5" s="40">
         <v>2</v>
@@ -5461,7 +5443,7 @@
       </c>
       <c r="AD5" s="40"/>
       <c r="AE5" s="40" t="s">
-        <v>546</v>
+        <v>543</v>
       </c>
       <c r="AF5" s="40" t="s">
         <v>280</v>
@@ -5480,17 +5462,17 @@
       </c>
       <c r="AK5" s="40"/>
       <c r="AL5" s="40" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
       <c r="AM5" s="40" t="s">
         <v>234</v>
       </c>
       <c r="AN5" s="40"/>
       <c r="AO5" s="40" t="s">
-        <v>550</v>
+        <v>547</v>
       </c>
       <c r="AP5" s="40" t="s">
-        <v>549</v>
+        <v>546</v>
       </c>
       <c r="AQ5" s="40" t="s">
         <v>166</v>
@@ -5503,7 +5485,7 @@
       </c>
       <c r="AT5" s="40"/>
       <c r="AU5" s="40" t="s">
-        <v>551</v>
+        <v>548</v>
       </c>
       <c r="AV5" s="40" t="s">
         <v>240</v>
@@ -5512,7 +5494,7 @@
         <v>210</v>
       </c>
       <c r="AX5" s="40" t="s">
-        <v>530</v>
+        <v>527</v>
       </c>
     </row>
     <row r="6" spans="1:50" s="15" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
@@ -5590,7 +5572,7 @@
         <v>486</v>
       </c>
       <c r="Z6" s="23" t="s">
-        <v>540</v>
+        <v>537</v>
       </c>
       <c r="AA6" s="23">
         <v>2</v>
@@ -5603,7 +5585,7 @@
       </c>
       <c r="AD6" s="23"/>
       <c r="AE6" s="23" t="s">
-        <v>546</v>
+        <v>543</v>
       </c>
       <c r="AF6" s="23" t="s">
         <v>280</v>
@@ -5622,17 +5604,17 @@
       </c>
       <c r="AK6" s="23"/>
       <c r="AL6" s="23" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
       <c r="AM6" s="23" t="s">
         <v>234</v>
       </c>
       <c r="AN6" s="23"/>
       <c r="AO6" s="23" t="s">
-        <v>550</v>
+        <v>547</v>
       </c>
       <c r="AP6" s="23" t="s">
-        <v>549</v>
+        <v>546</v>
       </c>
       <c r="AQ6" s="23" t="s">
         <v>166</v>
@@ -5645,7 +5627,7 @@
       </c>
       <c r="AT6" s="23"/>
       <c r="AU6" s="23" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
       <c r="AV6" s="23" t="s">
         <v>206</v>
@@ -5654,7 +5636,7 @@
         <v>210</v>
       </c>
       <c r="AX6" s="23" t="s">
-        <v>530</v>
+        <v>527</v>
       </c>
     </row>
     <row r="7" spans="1:50" s="15" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
@@ -5732,7 +5714,7 @@
         <v>486</v>
       </c>
       <c r="Z7" s="23" t="s">
-        <v>540</v>
+        <v>537</v>
       </c>
       <c r="AA7" s="23">
         <v>2</v>
@@ -5745,7 +5727,7 @@
       </c>
       <c r="AD7" s="23"/>
       <c r="AE7" s="23" t="s">
-        <v>546</v>
+        <v>543</v>
       </c>
       <c r="AF7" s="23" t="s">
         <v>280</v>
@@ -5764,17 +5746,17 @@
       </c>
       <c r="AK7" s="23"/>
       <c r="AL7" s="23" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
       <c r="AM7" s="23" t="s">
         <v>234</v>
       </c>
       <c r="AN7" s="23"/>
       <c r="AO7" s="23" t="s">
-        <v>550</v>
+        <v>547</v>
       </c>
       <c r="AP7" s="23" t="s">
-        <v>549</v>
+        <v>546</v>
       </c>
       <c r="AQ7" s="23" t="s">
         <v>166</v>
@@ -5786,10 +5768,10 @@
         <v>192</v>
       </c>
       <c r="AT7" s="23" t="s">
-        <v>556</v>
+        <v>553</v>
       </c>
       <c r="AU7" s="23" t="s">
-        <v>553</v>
+        <v>550</v>
       </c>
       <c r="AV7" s="23" t="s">
         <v>115</v>
@@ -5798,7 +5780,7 @@
         <v>212</v>
       </c>
       <c r="AX7" s="23" t="s">
-        <v>554</v>
+        <v>551</v>
       </c>
     </row>
     <row r="8" spans="1:50" s="16" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
@@ -5873,10 +5855,10 @@
         <v>75</v>
       </c>
       <c r="Y8" s="40" t="s">
-        <v>538</v>
+        <v>535</v>
       </c>
       <c r="Z8" s="40" t="s">
-        <v>542</v>
+        <v>539</v>
       </c>
       <c r="AA8" s="43">
         <v>2</v>
@@ -5904,14 +5886,14 @@
       <c r="AJ8" s="43"/>
       <c r="AK8" s="43"/>
       <c r="AL8" s="43" t="s">
-        <v>555</v>
+        <v>552</v>
       </c>
       <c r="AM8" s="43" t="s">
         <v>235</v>
       </c>
       <c r="AN8" s="43"/>
       <c r="AO8" s="43" t="s">
-        <v>557</v>
+        <v>554</v>
       </c>
       <c r="AP8" s="43"/>
       <c r="AQ8" s="43" t="s">
@@ -5924,10 +5906,10 @@
         <v>177</v>
       </c>
       <c r="AT8" s="43" t="s">
-        <v>558</v>
+        <v>555</v>
       </c>
       <c r="AU8" s="43" t="s">
-        <v>559</v>
+        <v>556</v>
       </c>
       <c r="AV8" s="43" t="s">
         <v>201</v>
@@ -5936,7 +5918,7 @@
         <v>210</v>
       </c>
       <c r="AX8" s="40" t="s">
-        <v>531</v>
+        <v>528</v>
       </c>
     </row>
     <row r="9" spans="1:50" s="16" customFormat="1" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -6011,10 +5993,10 @@
         <v>75</v>
       </c>
       <c r="Y9" s="23" t="s">
-        <v>538</v>
+        <v>535</v>
       </c>
       <c r="Z9" s="23" t="s">
-        <v>542</v>
+        <v>539</v>
       </c>
       <c r="AA9" s="26">
         <v>2</v>
@@ -6042,14 +6024,14 @@
       <c r="AJ9" s="26"/>
       <c r="AK9" s="26"/>
       <c r="AL9" s="26" t="s">
-        <v>555</v>
+        <v>552</v>
       </c>
       <c r="AM9" s="26" t="s">
         <v>235</v>
       </c>
       <c r="AN9" s="26"/>
       <c r="AO9" s="26" t="s">
-        <v>557</v>
+        <v>554</v>
       </c>
       <c r="AP9" s="26"/>
       <c r="AQ9" s="26" t="s">
@@ -6062,10 +6044,10 @@
         <v>177</v>
       </c>
       <c r="AT9" s="26" t="s">
-        <v>558</v>
+        <v>555</v>
       </c>
       <c r="AU9" s="26" t="s">
-        <v>560</v>
+        <v>557</v>
       </c>
       <c r="AV9" s="26" t="s">
         <v>115</v>
@@ -6074,7 +6056,7 @@
         <v>212</v>
       </c>
       <c r="AX9" s="23" t="s">
-        <v>561</v>
+        <v>558</v>
       </c>
     </row>
     <row r="10" spans="1:50" s="10" customFormat="1" x14ac:dyDescent="0.3">
@@ -6242,7 +6224,7 @@
         <v>487</v>
       </c>
       <c r="Z11" s="40" t="s">
-        <v>631</v>
+        <v>626</v>
       </c>
       <c r="AA11" s="43">
         <v>2</v>
@@ -6277,10 +6259,10 @@
       </c>
       <c r="AN11" s="43"/>
       <c r="AO11" s="43" t="s">
-        <v>543</v>
+        <v>540</v>
       </c>
       <c r="AP11" s="43" t="s">
-        <v>564</v>
+        <v>561</v>
       </c>
       <c r="AQ11" s="43" t="s">
         <v>166</v>
@@ -6304,7 +6286,7 @@
         <v>210</v>
       </c>
       <c r="AX11" s="40" t="s">
-        <v>562</v>
+        <v>559</v>
       </c>
     </row>
     <row r="12" spans="1:50" s="17" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
@@ -6382,7 +6364,7 @@
         <v>487</v>
       </c>
       <c r="Z12" s="23" t="s">
-        <v>631</v>
+        <v>626</v>
       </c>
       <c r="AA12" s="26">
         <v>2</v>
@@ -6417,10 +6399,10 @@
       </c>
       <c r="AN12" s="26"/>
       <c r="AO12" s="26" t="s">
-        <v>543</v>
+        <v>540</v>
       </c>
       <c r="AP12" s="26" t="s">
-        <v>564</v>
+        <v>561</v>
       </c>
       <c r="AQ12" s="26" t="s">
         <v>166</v>
@@ -6435,7 +6417,7 @@
         <v>490</v>
       </c>
       <c r="AU12" s="26" t="s">
-        <v>563</v>
+        <v>560</v>
       </c>
       <c r="AV12" s="26" t="s">
         <v>201</v>
@@ -6444,7 +6426,7 @@
         <v>210</v>
       </c>
       <c r="AX12" s="23" t="s">
-        <v>562</v>
+        <v>559</v>
       </c>
     </row>
     <row r="13" spans="1:50" s="16" customFormat="1" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
@@ -6518,7 +6500,7 @@
         <v>492</v>
       </c>
       <c r="Z13" s="40" t="s">
-        <v>541</v>
+        <v>538</v>
       </c>
       <c r="AA13" s="43">
         <v>2</v>
@@ -6552,7 +6534,7 @@
         <v>136</v>
       </c>
       <c r="AL13" s="43" t="s">
-        <v>565</v>
+        <v>562</v>
       </c>
       <c r="AM13" s="43" t="s">
         <v>234</v>
@@ -6575,7 +6557,7 @@
       </c>
       <c r="AT13" s="40"/>
       <c r="AU13" s="40" t="s">
-        <v>569</v>
+        <v>566</v>
       </c>
       <c r="AV13" s="43" t="s">
         <v>215</v>
@@ -6584,7 +6566,7 @@
         <v>210</v>
       </c>
       <c r="AX13" s="40" t="s">
-        <v>567</v>
+        <v>564</v>
       </c>
     </row>
     <row r="14" spans="1:50" s="16" customFormat="1" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
@@ -6658,7 +6640,7 @@
         <v>492</v>
       </c>
       <c r="Z14" s="23" t="s">
-        <v>541</v>
+        <v>538</v>
       </c>
       <c r="AA14" s="26">
         <v>2</v>
@@ -6692,7 +6674,7 @@
         <v>136</v>
       </c>
       <c r="AL14" s="26" t="s">
-        <v>565</v>
+        <v>562</v>
       </c>
       <c r="AM14" s="26" t="s">
         <v>234</v>
@@ -6715,7 +6697,7 @@
       </c>
       <c r="AT14" s="23"/>
       <c r="AU14" s="23" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
       <c r="AV14" s="26" t="s">
         <v>201</v>
@@ -6724,7 +6706,7 @@
         <v>210</v>
       </c>
       <c r="AX14" s="23" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
     </row>
     <row r="15" spans="1:50" s="16" customFormat="1" x14ac:dyDescent="0.3">
@@ -6982,7 +6964,7 @@
       </c>
       <c r="Y17" s="46"/>
       <c r="Z17" s="46" t="s">
-        <v>632</v>
+        <v>627</v>
       </c>
       <c r="AA17" s="46">
         <v>2</v>
@@ -7029,7 +7011,7 @@
       </c>
       <c r="AT17" s="46"/>
       <c r="AU17" s="46" t="s">
-        <v>570</v>
+        <v>567</v>
       </c>
       <c r="AV17" s="46" t="s">
         <v>201</v>
@@ -7241,10 +7223,10 @@
         <v>162</v>
       </c>
       <c r="AO19" s="54" t="s">
-        <v>573</v>
+        <v>570</v>
       </c>
       <c r="AP19" s="54" t="s">
-        <v>571</v>
+        <v>568</v>
       </c>
       <c r="AQ19" s="54" t="s">
         <v>166</v>
@@ -7259,7 +7241,7 @@
         <v>499</v>
       </c>
       <c r="AU19" s="54" t="s">
-        <v>572</v>
+        <v>569</v>
       </c>
       <c r="AV19" s="54" t="s">
         <v>201</v>
@@ -7397,7 +7379,7 @@
         <v>499</v>
       </c>
       <c r="AU20" s="28" t="s">
-        <v>572</v>
+        <v>569</v>
       </c>
       <c r="AV20" s="28" t="s">
         <v>201</v>
@@ -7484,7 +7466,7 @@
         <v>506</v>
       </c>
       <c r="Z21" s="54" t="s">
-        <v>634</v>
+        <v>629</v>
       </c>
       <c r="AA21" s="54">
         <v>1</v>
@@ -7514,14 +7496,14 @@
       <c r="AJ21" s="54"/>
       <c r="AK21" s="54"/>
       <c r="AL21" s="54" t="s">
-        <v>574</v>
+        <v>571</v>
       </c>
       <c r="AM21" s="54" t="s">
         <v>161</v>
       </c>
       <c r="AN21" s="54"/>
       <c r="AO21" s="54" t="s">
-        <v>543</v>
+        <v>540</v>
       </c>
       <c r="AP21" s="54"/>
       <c r="AQ21" s="54" t="s">
@@ -7534,10 +7516,10 @@
         <v>177</v>
       </c>
       <c r="AT21" s="54" t="s">
-        <v>577</v>
+        <v>574</v>
       </c>
       <c r="AU21" s="54" t="s">
-        <v>575</v>
+        <v>572</v>
       </c>
       <c r="AV21" s="54" t="s">
         <v>205</v>
@@ -7546,7 +7528,7 @@
         <v>209</v>
       </c>
       <c r="AX21" s="54" t="s">
-        <v>532</v>
+        <v>529</v>
       </c>
     </row>
     <row r="22" spans="1:50" s="10" customFormat="1" x14ac:dyDescent="0.3">
@@ -7624,7 +7606,7 @@
         <v>506</v>
       </c>
       <c r="Z22" s="28" t="s">
-        <v>634</v>
+        <v>629</v>
       </c>
       <c r="AA22" s="28">
         <v>1</v>
@@ -7654,14 +7636,14 @@
       <c r="AJ22" s="28"/>
       <c r="AK22" s="28"/>
       <c r="AL22" s="28" t="s">
-        <v>574</v>
+        <v>571</v>
       </c>
       <c r="AM22" s="28" t="s">
         <v>234</v>
       </c>
       <c r="AN22" s="28"/>
       <c r="AO22" s="28" t="s">
-        <v>543</v>
+        <v>540</v>
       </c>
       <c r="AP22" s="28"/>
       <c r="AQ22" s="28" t="s">
@@ -7674,10 +7656,10 @@
         <v>177</v>
       </c>
       <c r="AT22" s="28" t="s">
-        <v>577</v>
+        <v>574</v>
       </c>
       <c r="AU22" s="28" t="s">
-        <v>576</v>
+        <v>573</v>
       </c>
       <c r="AV22" s="28" t="s">
         <v>208</v>
@@ -7686,7 +7668,7 @@
         <v>209</v>
       </c>
       <c r="AX22" s="28" t="s">
-        <v>532</v>
+        <v>529</v>
       </c>
     </row>
     <row r="23" spans="1:50" s="10" customFormat="1" x14ac:dyDescent="0.3">
@@ -7854,7 +7836,7 @@
         <v>506</v>
       </c>
       <c r="Z24" s="54" t="s">
-        <v>639</v>
+        <v>634</v>
       </c>
       <c r="AA24" s="54">
         <v>2</v>
@@ -7884,14 +7866,14 @@
       <c r="AJ24" s="54"/>
       <c r="AK24" s="54"/>
       <c r="AL24" s="54" t="s">
-        <v>584</v>
+        <v>581</v>
       </c>
       <c r="AM24" s="54" t="s">
         <v>235</v>
       </c>
       <c r="AN24" s="54"/>
       <c r="AO24" s="54" t="s">
-        <v>581</v>
+        <v>578</v>
       </c>
       <c r="AP24" s="54"/>
       <c r="AQ24" s="54" t="s">
@@ -7907,7 +7889,7 @@
         <v>501</v>
       </c>
       <c r="AU24" s="54" t="s">
-        <v>582</v>
+        <v>579</v>
       </c>
       <c r="AV24" s="54" t="s">
         <v>205</v>
@@ -7916,7 +7898,7 @@
         <v>209</v>
       </c>
       <c r="AX24" s="54" t="s">
-        <v>580</v>
+        <v>577</v>
       </c>
     </row>
     <row r="25" spans="1:50" s="10" customFormat="1" x14ac:dyDescent="0.3">
@@ -7994,7 +7976,7 @@
         <v>506</v>
       </c>
       <c r="Z25" s="28" t="s">
-        <v>639</v>
+        <v>634</v>
       </c>
       <c r="AA25" s="28">
         <v>2</v>
@@ -8024,7 +8006,7 @@
       <c r="AJ25" s="28"/>
       <c r="AK25" s="28"/>
       <c r="AL25" s="28" t="s">
-        <v>584</v>
+        <v>581</v>
       </c>
       <c r="AM25" s="28" t="s">
         <v>234</v>
@@ -8033,7 +8015,7 @@
         <v>162</v>
       </c>
       <c r="AO25" s="28" t="s">
-        <v>578</v>
+        <v>575</v>
       </c>
       <c r="AP25" s="28"/>
       <c r="AQ25" s="28" t="s">
@@ -8049,7 +8031,7 @@
         <v>501</v>
       </c>
       <c r="AU25" s="28" t="s">
-        <v>583</v>
+        <v>580</v>
       </c>
       <c r="AV25" s="28" t="s">
         <v>205</v>
@@ -8058,7 +8040,7 @@
         <v>212</v>
       </c>
       <c r="AX25" s="28" t="s">
-        <v>579</v>
+        <v>576</v>
       </c>
     </row>
     <row r="26" spans="1:50" s="16" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
@@ -8134,7 +8116,7 @@
       </c>
       <c r="Y26" s="43"/>
       <c r="Z26" s="43" t="s">
-        <v>633</v>
+        <v>628</v>
       </c>
       <c r="AA26" s="43">
         <v>2</v>
@@ -8167,10 +8149,10 @@
       </c>
       <c r="AN26" s="43"/>
       <c r="AO26" s="43" t="s">
-        <v>587</v>
+        <v>584</v>
       </c>
       <c r="AP26" s="43" t="s">
-        <v>585</v>
+        <v>582</v>
       </c>
       <c r="AQ26" s="43" t="s">
         <v>166</v>
@@ -8182,7 +8164,7 @@
         <v>178</v>
       </c>
       <c r="AT26" s="43" t="s">
-        <v>586</v>
+        <v>583</v>
       </c>
       <c r="AU26" s="43" t="s">
         <v>495</v>
@@ -8194,7 +8176,7 @@
         <v>210</v>
       </c>
       <c r="AX26" s="40" t="s">
-        <v>533</v>
+        <v>530</v>
       </c>
     </row>
     <row r="27" spans="1:50" s="10" customFormat="1" x14ac:dyDescent="0.3">
@@ -8270,7 +8252,7 @@
       </c>
       <c r="Y27" s="54"/>
       <c r="Z27" s="54" t="s">
-        <v>635</v>
+        <v>630</v>
       </c>
       <c r="AA27" s="54">
         <v>2</v>
@@ -8309,7 +8291,7 @@
         <v>162</v>
       </c>
       <c r="AO27" s="54" t="s">
-        <v>588</v>
+        <v>585</v>
       </c>
       <c r="AP27" s="54"/>
       <c r="AQ27" s="54" t="s">
@@ -8323,7 +8305,7 @@
         <v>503</v>
       </c>
       <c r="AU27" s="54" t="s">
-        <v>590</v>
+        <v>587</v>
       </c>
       <c r="AV27" s="54" t="s">
         <v>201</v>
@@ -8332,7 +8314,7 @@
         <v>210</v>
       </c>
       <c r="AX27" s="54" t="s">
-        <v>589</v>
+        <v>586</v>
       </c>
     </row>
     <row r="28" spans="1:50" s="10" customFormat="1" x14ac:dyDescent="0.3">
@@ -8410,7 +8392,7 @@
         <v>507</v>
       </c>
       <c r="Z28" s="54" t="s">
-        <v>636</v>
+        <v>631</v>
       </c>
       <c r="AA28" s="54">
         <v>2</v>
@@ -8442,14 +8424,14 @@
         <v>143</v>
       </c>
       <c r="AL28" s="54" t="s">
-        <v>592</v>
+        <v>589</v>
       </c>
       <c r="AM28" s="54" t="s">
         <v>235</v>
       </c>
       <c r="AN28" s="54"/>
       <c r="AO28" s="54" t="s">
-        <v>610</v>
+        <v>606</v>
       </c>
       <c r="AP28" s="54"/>
       <c r="AQ28" s="54" t="s">
@@ -8460,10 +8442,10 @@
       </c>
       <c r="AS28" s="54"/>
       <c r="AT28" s="54" t="s">
-        <v>591</v>
+        <v>588</v>
       </c>
       <c r="AU28" s="54" t="s">
-        <v>593</v>
+        <v>590</v>
       </c>
       <c r="AV28" s="54" t="s">
         <v>201</v>
@@ -8472,7 +8454,7 @@
         <v>210</v>
       </c>
       <c r="AX28" s="54" t="s">
-        <v>534</v>
+        <v>531</v>
       </c>
     </row>
     <row r="29" spans="1:50" s="10" customFormat="1" x14ac:dyDescent="0.3">
@@ -8550,7 +8532,7 @@
         <v>507</v>
       </c>
       <c r="Z29" s="28" t="s">
-        <v>636</v>
+        <v>631</v>
       </c>
       <c r="AA29" s="28">
         <v>2</v>
@@ -8582,14 +8564,14 @@
         <v>143</v>
       </c>
       <c r="AL29" s="28" t="s">
-        <v>592</v>
+        <v>589</v>
       </c>
       <c r="AM29" s="28" t="s">
         <v>235</v>
       </c>
       <c r="AN29" s="28"/>
       <c r="AO29" s="28" t="s">
-        <v>611</v>
+        <v>607</v>
       </c>
       <c r="AP29" s="28"/>
       <c r="AQ29" s="28" t="s">
@@ -8600,10 +8582,10 @@
       </c>
       <c r="AS29" s="28"/>
       <c r="AT29" s="28" t="s">
-        <v>591</v>
+        <v>588</v>
       </c>
       <c r="AU29" s="28" t="s">
-        <v>593</v>
+        <v>590</v>
       </c>
       <c r="AV29" s="28" t="s">
         <v>201</v>
@@ -8612,7 +8594,7 @@
         <v>210</v>
       </c>
       <c r="AX29" s="28" t="s">
-        <v>534</v>
+        <v>531</v>
       </c>
     </row>
     <row r="30" spans="1:50" s="10" customFormat="1" x14ac:dyDescent="0.3">
@@ -8780,7 +8762,7 @@
         <v>509</v>
       </c>
       <c r="Z31" s="54" t="s">
-        <v>637</v>
+        <v>632</v>
       </c>
       <c r="AA31" s="54">
         <v>2</v>
@@ -8810,7 +8792,7 @@
       <c r="AJ31" s="54"/>
       <c r="AK31" s="54"/>
       <c r="AL31" s="54" t="s">
-        <v>597</v>
+        <v>594</v>
       </c>
       <c r="AM31" s="54" t="s">
         <v>234</v>
@@ -8819,10 +8801,10 @@
         <v>162</v>
       </c>
       <c r="AO31" s="54" t="s">
-        <v>596</v>
+        <v>593</v>
       </c>
       <c r="AP31" s="54" t="s">
-        <v>594</v>
+        <v>591</v>
       </c>
       <c r="AQ31" s="54" t="s">
         <v>166</v>
@@ -8834,7 +8816,7 @@
         <v>183</v>
       </c>
       <c r="AT31" s="54" t="s">
-        <v>595</v>
+        <v>592</v>
       </c>
       <c r="AU31" s="54" t="s">
         <v>510</v>
@@ -8924,7 +8906,7 @@
         <v>509</v>
       </c>
       <c r="Z32" s="28" t="s">
-        <v>637</v>
+        <v>632</v>
       </c>
       <c r="AA32" s="28">
         <v>2</v>
@@ -8954,7 +8936,7 @@
       <c r="AJ32" s="28"/>
       <c r="AK32" s="28"/>
       <c r="AL32" s="28" t="s">
-        <v>597</v>
+        <v>594</v>
       </c>
       <c r="AM32" s="28" t="s">
         <v>234</v>
@@ -8963,10 +8945,10 @@
         <v>162</v>
       </c>
       <c r="AO32" s="28" t="s">
-        <v>596</v>
+        <v>593</v>
       </c>
       <c r="AP32" s="28" t="s">
-        <v>594</v>
+        <v>591</v>
       </c>
       <c r="AQ32" s="28" t="s">
         <v>166</v>
@@ -8978,10 +8960,10 @@
         <v>183</v>
       </c>
       <c r="AT32" s="28" t="s">
-        <v>595</v>
+        <v>592</v>
       </c>
       <c r="AU32" s="28" t="s">
-        <v>543</v>
+        <v>540</v>
       </c>
       <c r="AV32" s="28" t="s">
         <v>201</v>
@@ -9105,7 +9087,7 @@
         <v>162</v>
       </c>
       <c r="AO33" s="54" t="s">
-        <v>598</v>
+        <v>595</v>
       </c>
       <c r="AP33" s="54"/>
       <c r="AQ33" s="54" t="s">
@@ -9118,10 +9100,10 @@
         <v>178</v>
       </c>
       <c r="AT33" s="54" t="s">
-        <v>601</v>
+        <v>597</v>
       </c>
       <c r="AU33" s="54" t="s">
-        <v>599</v>
+        <v>596</v>
       </c>
       <c r="AV33" s="54" t="s">
         <v>201</v>
@@ -9130,7 +9112,7 @@
         <v>211</v>
       </c>
       <c r="AX33" s="55" t="s">
-        <v>602</v>
+        <v>598</v>
       </c>
     </row>
     <row r="34" spans="1:50" s="10" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -9245,7 +9227,7 @@
         <v>162</v>
       </c>
       <c r="AO34" s="28" t="s">
-        <v>598</v>
+        <v>595</v>
       </c>
       <c r="AP34" s="28"/>
       <c r="AQ34" s="28" t="s">
@@ -9258,10 +9240,10 @@
         <v>178</v>
       </c>
       <c r="AT34" s="28" t="s">
+        <v>597</v>
+      </c>
+      <c r="AU34" s="28" t="s">
         <v>601</v>
-      </c>
-      <c r="AU34" s="28" t="s">
-        <v>605</v>
       </c>
       <c r="AV34" s="28" t="s">
         <v>201</v>
@@ -9270,7 +9252,7 @@
         <v>210</v>
       </c>
       <c r="AX34" s="31" t="s">
-        <v>603</v>
+        <v>599</v>
       </c>
     </row>
     <row r="35" spans="1:50" s="10" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -9385,7 +9367,7 @@
         <v>162</v>
       </c>
       <c r="AO35" s="28" t="s">
-        <v>598</v>
+        <v>595</v>
       </c>
       <c r="AP35" s="28"/>
       <c r="AQ35" s="28" t="s">
@@ -9398,10 +9380,10 @@
         <v>178</v>
       </c>
       <c r="AT35" s="28" t="s">
-        <v>601</v>
+        <v>597</v>
       </c>
       <c r="AU35" s="28" t="s">
-        <v>604</v>
+        <v>600</v>
       </c>
       <c r="AV35" s="28" t="s">
         <v>201</v>
@@ -9410,7 +9392,7 @@
         <v>210</v>
       </c>
       <c r="AX35" s="31" t="s">
-        <v>608</v>
+        <v>604</v>
       </c>
     </row>
     <row r="36" spans="1:50" s="10" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -9525,7 +9507,7 @@
         <v>162</v>
       </c>
       <c r="AO36" s="28" t="s">
-        <v>598</v>
+        <v>595</v>
       </c>
       <c r="AP36" s="28"/>
       <c r="AQ36" s="28" t="s">
@@ -9538,10 +9520,10 @@
         <v>178</v>
       </c>
       <c r="AT36" s="28" t="s">
-        <v>601</v>
+        <v>597</v>
       </c>
       <c r="AU36" s="28" t="s">
-        <v>606</v>
+        <v>602</v>
       </c>
       <c r="AV36" s="28" t="s">
         <v>201</v>
@@ -9550,7 +9532,7 @@
         <v>209</v>
       </c>
       <c r="AX36" s="31" t="s">
-        <v>607</v>
+        <v>603</v>
       </c>
     </row>
     <row r="37" spans="1:50" s="10" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -9665,7 +9647,7 @@
         <v>162</v>
       </c>
       <c r="AO37" s="28" t="s">
-        <v>598</v>
+        <v>595</v>
       </c>
       <c r="AP37" s="28"/>
       <c r="AQ37" s="28" t="s">
@@ -9678,10 +9660,10 @@
         <v>178</v>
       </c>
       <c r="AT37" s="28" t="s">
-        <v>601</v>
+        <v>597</v>
       </c>
       <c r="AU37" s="28" t="s">
-        <v>612</v>
+        <v>608</v>
       </c>
       <c r="AV37" s="28" t="s">
         <v>201</v>
@@ -9690,7 +9672,7 @@
         <v>212</v>
       </c>
       <c r="AX37" s="31" t="s">
-        <v>609</v>
+        <v>605</v>
       </c>
     </row>
     <row r="38" spans="1:50" s="10" customFormat="1" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
@@ -9768,7 +9750,7 @@
         <v>517</v>
       </c>
       <c r="Z38" s="54" t="s">
-        <v>638</v>
+        <v>633</v>
       </c>
       <c r="AA38" s="54">
         <v>2</v>
@@ -9803,7 +9785,7 @@
       </c>
       <c r="AN38" s="54"/>
       <c r="AO38" s="54" t="s">
-        <v>619</v>
+        <v>615</v>
       </c>
       <c r="AP38" s="54"/>
       <c r="AQ38" s="54" t="s">
@@ -9819,7 +9801,7 @@
         <v>515</v>
       </c>
       <c r="AU38" s="54" t="s">
-        <v>617</v>
+        <v>613</v>
       </c>
       <c r="AV38" s="54" t="s">
         <v>201</v>
@@ -9828,7 +9810,7 @@
         <v>210</v>
       </c>
       <c r="AX38" s="55" t="s">
-        <v>616</v>
+        <v>612</v>
       </c>
     </row>
     <row r="39" spans="1:50" s="10" customFormat="1" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
@@ -9906,7 +9888,7 @@
         <v>517</v>
       </c>
       <c r="Z39" s="28" t="s">
-        <v>638</v>
+        <v>633</v>
       </c>
       <c r="AA39" s="28">
         <v>2</v>
@@ -9941,7 +9923,7 @@
       </c>
       <c r="AN39" s="28"/>
       <c r="AO39" s="28" t="s">
-        <v>619</v>
+        <v>615</v>
       </c>
       <c r="AP39" s="28"/>
       <c r="AQ39" s="28" t="s">
@@ -9957,7 +9939,7 @@
         <v>515</v>
       </c>
       <c r="AU39" s="28" t="s">
-        <v>613</v>
+        <v>609</v>
       </c>
       <c r="AV39" s="28" t="s">
         <v>201</v>
@@ -9966,7 +9948,7 @@
         <v>210</v>
       </c>
       <c r="AX39" s="31" t="s">
-        <v>615</v>
+        <v>611</v>
       </c>
     </row>
     <row r="40" spans="1:50" s="10" customFormat="1" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
@@ -10044,7 +10026,7 @@
         <v>517</v>
       </c>
       <c r="Z40" s="28" t="s">
-        <v>638</v>
+        <v>633</v>
       </c>
       <c r="AA40" s="28">
         <v>2</v>
@@ -10079,7 +10061,7 @@
       </c>
       <c r="AN40" s="28"/>
       <c r="AO40" s="28" t="s">
-        <v>619</v>
+        <v>615</v>
       </c>
       <c r="AP40" s="28"/>
       <c r="AQ40" s="28" t="s">
@@ -10095,7 +10077,7 @@
         <v>515</v>
       </c>
       <c r="AU40" s="28" t="s">
-        <v>614</v>
+        <v>610</v>
       </c>
       <c r="AV40" s="28" t="s">
         <v>201</v>
@@ -10104,7 +10086,7 @@
         <v>209</v>
       </c>
       <c r="AX40" s="31" t="s">
-        <v>618</v>
+        <v>614</v>
       </c>
     </row>
     <row r="41" spans="1:50" s="10" customFormat="1" x14ac:dyDescent="0.3">
@@ -10182,7 +10164,7 @@
         <v>518</v>
       </c>
       <c r="Z41" s="54" t="s">
-        <v>640</v>
+        <v>635</v>
       </c>
       <c r="AA41" s="54">
         <v>2</v>
@@ -10217,7 +10199,7 @@
       </c>
       <c r="AN41" s="54"/>
       <c r="AO41" s="54" t="s">
-        <v>620</v>
+        <v>616</v>
       </c>
       <c r="AP41" s="54"/>
       <c r="AQ41" s="54" t="s">
@@ -10230,10 +10212,10 @@
         <v>177</v>
       </c>
       <c r="AT41" s="54" t="s">
-        <v>623</v>
+        <v>619</v>
       </c>
       <c r="AU41" s="54" t="s">
-        <v>621</v>
+        <v>617</v>
       </c>
       <c r="AV41" s="54" t="s">
         <v>205</v>
@@ -10242,7 +10224,7 @@
         <v>209</v>
       </c>
       <c r="AX41" s="54" t="s">
-        <v>535</v>
+        <v>532</v>
       </c>
     </row>
     <row r="42" spans="1:50" s="10" customFormat="1" x14ac:dyDescent="0.3">
@@ -10320,7 +10302,7 @@
         <v>518</v>
       </c>
       <c r="Z42" s="28" t="s">
-        <v>640</v>
+        <v>635</v>
       </c>
       <c r="AA42" s="28">
         <v>2</v>
@@ -10355,7 +10337,7 @@
       </c>
       <c r="AN42" s="28"/>
       <c r="AO42" s="28" t="s">
-        <v>620</v>
+        <v>616</v>
       </c>
       <c r="AP42" s="28"/>
       <c r="AQ42" s="28" t="s">
@@ -10368,10 +10350,10 @@
         <v>177</v>
       </c>
       <c r="AT42" s="28" t="s">
-        <v>623</v>
+        <v>619</v>
       </c>
       <c r="AU42" s="28" t="s">
-        <v>622</v>
+        <v>618</v>
       </c>
       <c r="AV42" s="28" t="s">
         <v>205</v>
@@ -10380,7 +10362,7 @@
         <v>209</v>
       </c>
       <c r="AX42" s="28" t="s">
-        <v>535</v>
+        <v>532</v>
       </c>
     </row>
     <row r="43" spans="1:50" s="10" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -10491,7 +10473,7 @@
         <v>162</v>
       </c>
       <c r="AO43" s="54" t="s">
-        <v>625</v>
+        <v>621</v>
       </c>
       <c r="AP43" s="54"/>
       <c r="AQ43" s="54" t="s">
@@ -10507,7 +10489,7 @@
         <v>520</v>
       </c>
       <c r="AU43" s="54" t="s">
-        <v>627</v>
+        <v>623</v>
       </c>
       <c r="AV43" s="54" t="s">
         <v>206</v>
@@ -10516,7 +10498,7 @@
         <v>209</v>
       </c>
       <c r="AX43" s="54" t="s">
-        <v>536</v>
+        <v>533</v>
       </c>
     </row>
     <row r="44" spans="1:50" s="10" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -10627,7 +10609,7 @@
         <v>162</v>
       </c>
       <c r="AO44" s="28" t="s">
-        <v>624</v>
+        <v>620</v>
       </c>
       <c r="AP44" s="28"/>
       <c r="AQ44" s="28" t="s">
@@ -10643,7 +10625,7 @@
         <v>520</v>
       </c>
       <c r="AU44" s="28" t="s">
-        <v>627</v>
+        <v>623</v>
       </c>
       <c r="AV44" s="28" t="s">
         <v>206</v>
@@ -10652,7 +10634,7 @@
         <v>209</v>
       </c>
       <c r="AX44" s="28" t="s">
-        <v>536</v>
+        <v>533</v>
       </c>
     </row>
     <row r="45" spans="1:50" s="10" customFormat="1" x14ac:dyDescent="0.3">
@@ -10763,7 +10745,7 @@
         <v>162</v>
       </c>
       <c r="AO45" s="28" t="s">
-        <v>626</v>
+        <v>622</v>
       </c>
       <c r="AP45" s="28"/>
       <c r="AQ45" s="28" t="s">
@@ -10779,7 +10761,7 @@
         <v>520</v>
       </c>
       <c r="AU45" s="28" t="s">
-        <v>627</v>
+        <v>623</v>
       </c>
       <c r="AV45" s="28" t="s">
         <v>206</v>
@@ -10788,7 +10770,7 @@
         <v>209</v>
       </c>
       <c r="AX45" s="28" t="s">
-        <v>536</v>
+        <v>533</v>
       </c>
     </row>
     <row r="46" spans="1:50" s="10" customFormat="1" x14ac:dyDescent="0.3">
@@ -10925,85 +10907,41 @@
       <c r="Q47" s="58" t="s">
         <v>22</v>
       </c>
-      <c r="R47" s="58"/>
-      <c r="S47" s="58" t="s">
-        <v>23</v>
-      </c>
-      <c r="T47" s="58" t="s">
-        <v>46</v>
-      </c>
-      <c r="U47" s="58" t="s">
-        <v>52</v>
-      </c>
-      <c r="V47" s="58" t="s">
-        <v>42</v>
-      </c>
-      <c r="W47" s="58" t="s">
-        <v>47</v>
-      </c>
-      <c r="X47" s="58" t="s">
-        <v>115</v>
-      </c>
-      <c r="Y47" s="58" t="s">
-        <v>522</v>
-      </c>
-      <c r="Z47" s="58" t="s">
-        <v>641</v>
-      </c>
-      <c r="AA47" s="58">
-        <v>2</v>
-      </c>
-      <c r="AB47" s="58">
-        <v>2</v>
-      </c>
-      <c r="AC47" s="58">
-        <v>3</v>
-      </c>
+      <c r="R47" s="58" t="s">
+        <v>84</v>
+      </c>
+      <c r="S47" s="58"/>
+      <c r="T47" s="58"/>
+      <c r="U47" s="58"/>
+      <c r="V47" s="58"/>
+      <c r="W47" s="58"/>
+      <c r="X47" s="58"/>
+      <c r="Y47" s="58"/>
+      <c r="Z47" s="58"/>
+      <c r="AA47" s="58"/>
+      <c r="AB47" s="58"/>
+      <c r="AC47" s="58"/>
       <c r="AD47" s="58"/>
       <c r="AE47" s="58"/>
-      <c r="AF47" s="58" t="s">
-        <v>269</v>
-      </c>
-      <c r="AG47" s="58" t="s">
-        <v>115</v>
-      </c>
+      <c r="AF47" s="58"/>
+      <c r="AG47" s="58"/>
       <c r="AH47" s="58"/>
       <c r="AI47" s="58"/>
       <c r="AJ47" s="58"/>
       <c r="AK47" s="58"/>
       <c r="AL47" s="58"/>
-      <c r="AM47" s="58" t="s">
-        <v>233</v>
-      </c>
+      <c r="AM47" s="58"/>
       <c r="AN47" s="58"/>
-      <c r="AO47" s="58" t="s">
-        <v>523</v>
-      </c>
+      <c r="AO47" s="58"/>
       <c r="AP47" s="58"/>
-      <c r="AQ47" s="58" t="s">
-        <v>167</v>
-      </c>
-      <c r="AR47" s="58" t="s">
-        <v>199</v>
-      </c>
-      <c r="AS47" s="58" t="s">
-        <v>198</v>
-      </c>
-      <c r="AT47" s="58" t="s">
-        <v>600</v>
-      </c>
-      <c r="AU47" s="58" t="s">
-        <v>628</v>
-      </c>
-      <c r="AV47" s="58" t="s">
-        <v>214</v>
-      </c>
-      <c r="AW47" s="58" t="s">
-        <v>209</v>
-      </c>
-      <c r="AX47" s="58" t="s">
-        <v>524</v>
-      </c>
+      <c r="AQ47" s="58"/>
+      <c r="AR47" s="58"/>
+      <c r="AS47" s="58"/>
+      <c r="AT47" s="58"/>
+      <c r="AU47" s="58"/>
+      <c r="AV47" s="58"/>
+      <c r="AW47" s="58"/>
+      <c r="AX47" s="58"/>
     </row>
     <row r="48" spans="1:50" s="16" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" s="41" t="s">
@@ -11071,10 +11009,10 @@
         <v>69</v>
       </c>
       <c r="Y48" s="43" t="s">
-        <v>527</v>
+        <v>524</v>
       </c>
       <c r="Z48" s="43" t="s">
-        <v>528</v>
+        <v>525</v>
       </c>
       <c r="AA48" s="43">
         <v>2</v>
@@ -11104,7 +11042,7 @@
       </c>
       <c r="AK48" s="43"/>
       <c r="AL48" s="43" t="s">
-        <v>629</v>
+        <v>624</v>
       </c>
       <c r="AM48" s="43" t="s">
         <v>234</v>
@@ -11113,7 +11051,7 @@
         <v>164</v>
       </c>
       <c r="AO48" s="43" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
       <c r="AP48" s="43"/>
       <c r="AQ48" s="43" t="s">
@@ -11126,10 +11064,10 @@
         <v>190</v>
       </c>
       <c r="AT48" s="43" t="s">
-        <v>525</v>
+        <v>522</v>
       </c>
       <c r="AU48" s="43" t="s">
-        <v>630</v>
+        <v>625</v>
       </c>
       <c r="AV48" s="43" t="s">
         <v>214</v>
@@ -11138,7 +11076,7 @@
         <v>212</v>
       </c>
       <c r="AX48" s="43" t="s">
-        <v>537</v>
+        <v>534</v>
       </c>
     </row>
     <row r="49" spans="1:50" x14ac:dyDescent="0.3">
@@ -11326,7 +11264,7 @@
       <selection activeCell="R4" sqref="R4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="18" max="18" width="24.44140625" customWidth="1"/>
     <col min="19" max="19" width="32.109375" customWidth="1"/>
@@ -12399,7 +12337,7 @@
       <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="25.109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="22.6640625" bestFit="1" customWidth="1"/>
@@ -13273,12 +13211,9 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -13396,15 +13331,25 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{66D459FE-C8DA-484C-BC8E-5EB6A351EBC9}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{495201D0-9695-4A45-BC3A-28D949F46F55}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -13426,16 +13371,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{495201D0-9695-4A45-BC3A-28D949F46F55}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{66D459FE-C8DA-484C-BC8E-5EB6A351EBC9}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/Systematic Reviews/Analysis Task 4.1/Data_Extraction_Files/DataExtractionForm_WP4_Basurko.xlsx
+++ b/Systematic Reviews/Analysis Task 4.1/Data_Extraction_Files/DataExtractionForm_WP4_Basurko.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://share.dtu.dk/sites/SEAwise_517900/Shared Documents/WP4 Ecological effects of fisheries/Task 4.1/Data extraction/Data extraction files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3821678-5F0E-41E3-B176-ECC09AAEECB1}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5129519-A413-44CD-847A-B77F2850CE60}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DataExtraction" sheetId="1" r:id="rId1"/>
@@ -2335,7 +2335,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2210" uniqueCount="636">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2191" uniqueCount="633">
   <si>
     <t>SearchID</t>
   </si>
@@ -3817,9 +3817,6 @@
   </si>
   <si>
     <t>Functional composition of benthic communities</t>
-  </si>
-  <si>
-    <t>Overfishing has affected the population structures and densities of the demersal fish communities, at least at depths up to 200m, where most of the fishing activity is focused.</t>
   </si>
   <si>
     <t>Abundance</t>
@@ -3893,9 +3890,6 @@
   </si>
   <si>
     <t>Discard sampling programme onboard commercial bottom-otter trawlers, and research vessels</t>
-  </si>
-  <si>
-    <t>Scyliorhinus canicula _ Micromesistius poutassou</t>
   </si>
   <si>
     <t>Mullus barbatus</t>
@@ -4041,9 +4035,6 @@
     <t>Damage incurred among species, sexes and, for females, maturity stage (presence of ovigerous females)</t>
   </si>
   <si>
-    <t>Abundance (species diversity, species richness, evenness, dominance)</t>
-  </si>
-  <si>
     <t>Climate</t>
   </si>
   <si>
@@ -4199,9 +4190,6 @@
     <t>Diet (% volume) in stomach content</t>
   </si>
   <si>
-    <t>Crustacea _ Mollusca _ Polychaeta _ Sipunculida _ Fish</t>
-  </si>
-  <si>
     <t>Changes in trawling effort and mesh size changes ('French' trawl)</t>
   </si>
   <si>
@@ -4223,9 +4211,6 @@
     <t xml:space="preserve">Bray–Curtis similarity index _ ANOSIM test _ ANOVA _ Tukey post-hoc comparison test _ Kolmogorov–Smirnov's test _ Levene’s test _ Kruskal-Wallis non-parametric test </t>
   </si>
   <si>
-    <t>Bray–Curtis similarity index, PRIMER algorithms, Multidimensional scaling (MDS), SIMPER procesure, graphical representations of species cumulative frequency distributions, ABC method of Warwick, _ Shannon-Wiener diversity index _ species richness, eveness, Simpson's index _ Tukey post-hoc comparison test</t>
-  </si>
-  <si>
     <t xml:space="preserve">Abundance _ Hierarchical cluster analysis _ Hill's diversity index _ Number of species per station _ PRIMER statistical package _ SIMPER _ Bray–Curtis similarity index _ correlation _ </t>
   </si>
   <si>
@@ -4248,6 +4233,12 @@
   </si>
   <si>
     <t xml:space="preserve">Stomach fullness (%BW) _ mean partial fullness index for prey (PFIi) _ Chi-square test _ Mann–Whitney U-test _ Kruskal-Wallis non-parametric test </t>
+  </si>
+  <si>
+    <t>Scyliorhinus canicula</t>
+  </si>
+  <si>
+    <t>Micromesistius poutassou</t>
   </si>
 </sst>
 </file>
@@ -4864,10 +4855,10 @@
   <dimension ref="A1:AX49"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="B21" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="D41" sqref="D41"/>
+      <selection pane="bottomRight" activeCell="AV41" sqref="AV41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5290,7 +5281,7 @@
         <v>485</v>
       </c>
       <c r="Z4" s="37" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="AA4" s="37">
         <v>2</v>
@@ -5322,14 +5313,14 @@
       </c>
       <c r="AK4" s="37"/>
       <c r="AL4" s="37" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="AM4" s="37" t="s">
         <v>233</v>
       </c>
       <c r="AN4" s="37"/>
       <c r="AO4" s="37" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="AP4" s="37"/>
       <c r="AQ4" s="37" t="s">
@@ -5343,7 +5334,7 @@
       </c>
       <c r="AT4" s="37"/>
       <c r="AU4" s="37" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="AV4" s="37" t="s">
         <v>214</v>
@@ -5352,7 +5343,7 @@
         <v>211</v>
       </c>
       <c r="AX4" s="37" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
     </row>
     <row r="5" spans="1:50" s="15" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
@@ -5430,7 +5421,7 @@
         <v>486</v>
       </c>
       <c r="Z5" s="40" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="AA5" s="40">
         <v>2</v>
@@ -5443,7 +5434,7 @@
       </c>
       <c r="AD5" s="40"/>
       <c r="AE5" s="40" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="AF5" s="40" t="s">
         <v>280</v>
@@ -5462,17 +5453,17 @@
       </c>
       <c r="AK5" s="40"/>
       <c r="AL5" s="40" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="AM5" s="40" t="s">
         <v>234</v>
       </c>
       <c r="AN5" s="40"/>
       <c r="AO5" s="40" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="AP5" s="40" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="AQ5" s="40" t="s">
         <v>166</v>
@@ -5485,7 +5476,7 @@
       </c>
       <c r="AT5" s="40"/>
       <c r="AU5" s="40" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="AV5" s="40" t="s">
         <v>240</v>
@@ -5494,7 +5485,7 @@
         <v>210</v>
       </c>
       <c r="AX5" s="40" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
     </row>
     <row r="6" spans="1:50" s="15" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
@@ -5572,7 +5563,7 @@
         <v>486</v>
       </c>
       <c r="Z6" s="23" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="AA6" s="23">
         <v>2</v>
@@ -5585,7 +5576,7 @@
       </c>
       <c r="AD6" s="23"/>
       <c r="AE6" s="23" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="AF6" s="23" t="s">
         <v>280</v>
@@ -5604,17 +5595,17 @@
       </c>
       <c r="AK6" s="23"/>
       <c r="AL6" s="23" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="AM6" s="23" t="s">
         <v>234</v>
       </c>
       <c r="AN6" s="23"/>
       <c r="AO6" s="23" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="AP6" s="23" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="AQ6" s="23" t="s">
         <v>166</v>
@@ -5627,7 +5618,7 @@
       </c>
       <c r="AT6" s="23"/>
       <c r="AU6" s="23" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="AV6" s="23" t="s">
         <v>206</v>
@@ -5636,7 +5627,7 @@
         <v>210</v>
       </c>
       <c r="AX6" s="23" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
     </row>
     <row r="7" spans="1:50" s="15" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
@@ -5714,7 +5705,7 @@
         <v>486</v>
       </c>
       <c r="Z7" s="23" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="AA7" s="23">
         <v>2</v>
@@ -5727,7 +5718,7 @@
       </c>
       <c r="AD7" s="23"/>
       <c r="AE7" s="23" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="AF7" s="23" t="s">
         <v>280</v>
@@ -5746,17 +5737,17 @@
       </c>
       <c r="AK7" s="23"/>
       <c r="AL7" s="23" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="AM7" s="23" t="s">
         <v>234</v>
       </c>
       <c r="AN7" s="23"/>
       <c r="AO7" s="23" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="AP7" s="23" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="AQ7" s="23" t="s">
         <v>166</v>
@@ -5768,10 +5759,10 @@
         <v>192</v>
       </c>
       <c r="AT7" s="23" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="AU7" s="23" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="AV7" s="23" t="s">
         <v>115</v>
@@ -5780,7 +5771,7 @@
         <v>212</v>
       </c>
       <c r="AX7" s="23" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
     </row>
     <row r="8" spans="1:50" s="16" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
@@ -5855,10 +5846,10 @@
         <v>75</v>
       </c>
       <c r="Y8" s="40" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="Z8" s="40" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="AA8" s="43">
         <v>2</v>
@@ -5886,14 +5877,14 @@
       <c r="AJ8" s="43"/>
       <c r="AK8" s="43"/>
       <c r="AL8" s="43" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="AM8" s="43" t="s">
         <v>235</v>
       </c>
       <c r="AN8" s="43"/>
       <c r="AO8" s="43" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="AP8" s="43"/>
       <c r="AQ8" s="43" t="s">
@@ -5906,10 +5897,10 @@
         <v>177</v>
       </c>
       <c r="AT8" s="43" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="AU8" s="43" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="AV8" s="43" t="s">
         <v>201</v>
@@ -5918,7 +5909,7 @@
         <v>210</v>
       </c>
       <c r="AX8" s="40" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
     </row>
     <row r="9" spans="1:50" s="16" customFormat="1" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -5993,10 +5984,10 @@
         <v>75</v>
       </c>
       <c r="Y9" s="23" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="Z9" s="23" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="AA9" s="26">
         <v>2</v>
@@ -6024,14 +6015,14 @@
       <c r="AJ9" s="26"/>
       <c r="AK9" s="26"/>
       <c r="AL9" s="26" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="AM9" s="26" t="s">
         <v>235</v>
       </c>
       <c r="AN9" s="26"/>
       <c r="AO9" s="26" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="AP9" s="26"/>
       <c r="AQ9" s="26" t="s">
@@ -6044,10 +6035,10 @@
         <v>177</v>
       </c>
       <c r="AT9" s="26" t="s">
+        <v>553</v>
+      </c>
+      <c r="AU9" s="26" t="s">
         <v>555</v>
-      </c>
-      <c r="AU9" s="26" t="s">
-        <v>557</v>
       </c>
       <c r="AV9" s="26" t="s">
         <v>115</v>
@@ -6056,7 +6047,7 @@
         <v>212</v>
       </c>
       <c r="AX9" s="23" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
     </row>
     <row r="10" spans="1:50" s="10" customFormat="1" x14ac:dyDescent="0.3">
@@ -6224,7 +6215,7 @@
         <v>487</v>
       </c>
       <c r="Z11" s="40" t="s">
-        <v>626</v>
+        <v>622</v>
       </c>
       <c r="AA11" s="43">
         <v>2</v>
@@ -6259,10 +6250,10 @@
       </c>
       <c r="AN11" s="43"/>
       <c r="AO11" s="43" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="AP11" s="43" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="AQ11" s="43" t="s">
         <v>166</v>
@@ -6286,7 +6277,7 @@
         <v>210</v>
       </c>
       <c r="AX11" s="40" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
     </row>
     <row r="12" spans="1:50" s="17" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
@@ -6364,7 +6355,7 @@
         <v>487</v>
       </c>
       <c r="Z12" s="23" t="s">
-        <v>626</v>
+        <v>622</v>
       </c>
       <c r="AA12" s="26">
         <v>2</v>
@@ -6399,10 +6390,10 @@
       </c>
       <c r="AN12" s="26"/>
       <c r="AO12" s="26" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="AP12" s="26" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="AQ12" s="26" t="s">
         <v>166</v>
@@ -6417,7 +6408,7 @@
         <v>490</v>
       </c>
       <c r="AU12" s="26" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="AV12" s="26" t="s">
         <v>201</v>
@@ -6426,7 +6417,7 @@
         <v>210</v>
       </c>
       <c r="AX12" s="23" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
     </row>
     <row r="13" spans="1:50" s="16" customFormat="1" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
@@ -6500,7 +6491,7 @@
         <v>492</v>
       </c>
       <c r="Z13" s="40" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="AA13" s="43">
         <v>2</v>
@@ -6534,7 +6525,7 @@
         <v>136</v>
       </c>
       <c r="AL13" s="43" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="AM13" s="43" t="s">
         <v>234</v>
@@ -6557,7 +6548,7 @@
       </c>
       <c r="AT13" s="40"/>
       <c r="AU13" s="40" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="AV13" s="43" t="s">
         <v>215</v>
@@ -6566,7 +6557,7 @@
         <v>210</v>
       </c>
       <c r="AX13" s="40" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
     </row>
     <row r="14" spans="1:50" s="16" customFormat="1" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
@@ -6640,7 +6631,7 @@
         <v>492</v>
       </c>
       <c r="Z14" s="23" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="AA14" s="26">
         <v>2</v>
@@ -6674,7 +6665,7 @@
         <v>136</v>
       </c>
       <c r="AL14" s="26" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="AM14" s="26" t="s">
         <v>234</v>
@@ -6697,7 +6688,7 @@
       </c>
       <c r="AT14" s="23"/>
       <c r="AU14" s="23" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="AV14" s="26" t="s">
         <v>201</v>
@@ -6706,7 +6697,7 @@
         <v>210</v>
       </c>
       <c r="AX14" s="23" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
     </row>
     <row r="15" spans="1:50" s="16" customFormat="1" x14ac:dyDescent="0.3">
@@ -6944,84 +6935,40 @@
       <c r="R17" s="46" t="s">
         <v>84</v>
       </c>
-      <c r="S17" s="46" t="s">
-        <v>26</v>
-      </c>
-      <c r="T17" s="46" t="s">
-        <v>46</v>
-      </c>
-      <c r="U17" s="46" t="s">
-        <v>56</v>
-      </c>
-      <c r="V17" s="46" t="s">
-        <v>41</v>
-      </c>
-      <c r="W17" s="46" t="s">
-        <v>53</v>
-      </c>
-      <c r="X17" s="46" t="s">
-        <v>218</v>
-      </c>
+      <c r="S17" s="46"/>
+      <c r="T17" s="46"/>
+      <c r="U17" s="46"/>
+      <c r="V17" s="46"/>
+      <c r="W17" s="46"/>
+      <c r="X17" s="46"/>
       <c r="Y17" s="46"/>
-      <c r="Z17" s="46" t="s">
-        <v>627</v>
-      </c>
-      <c r="AA17" s="46">
-        <v>2</v>
-      </c>
-      <c r="AB17" s="46">
-        <v>2</v>
-      </c>
-      <c r="AC17" s="46">
-        <v>2</v>
-      </c>
+      <c r="Z17" s="46"/>
+      <c r="AA17" s="46"/>
+      <c r="AB17" s="46"/>
+      <c r="AC17" s="46"/>
       <c r="AD17" s="46"/>
       <c r="AE17" s="46"/>
       <c r="AF17" s="46" t="s">
         <v>290</v>
       </c>
-      <c r="AG17" s="46" t="s">
-        <v>112</v>
-      </c>
-      <c r="AH17" s="46" t="s">
-        <v>119</v>
-      </c>
-      <c r="AI17" s="46" t="s">
-        <v>146</v>
-      </c>
+      <c r="AG17" s="46"/>
+      <c r="AH17" s="46"/>
+      <c r="AI17" s="46"/>
       <c r="AJ17" s="46"/>
       <c r="AK17" s="46"/>
       <c r="AL17" s="46"/>
-      <c r="AM17" s="46" t="s">
-        <v>234</v>
-      </c>
-      <c r="AN17" s="46" t="s">
-        <v>162</v>
-      </c>
+      <c r="AM17" s="46"/>
+      <c r="AN17" s="46"/>
       <c r="AO17" s="46"/>
       <c r="AP17" s="46"/>
-      <c r="AQ17" s="46" t="s">
-        <v>166</v>
-      </c>
-      <c r="AR17" s="46" t="s">
-        <v>241</v>
-      </c>
-      <c r="AS17" s="46" t="s">
-        <v>177</v>
-      </c>
+      <c r="AQ17" s="46"/>
+      <c r="AR17" s="46"/>
+      <c r="AS17" s="46"/>
       <c r="AT17" s="46"/>
-      <c r="AU17" s="46" t="s">
-        <v>567</v>
-      </c>
-      <c r="AV17" s="46" t="s">
-        <v>201</v>
-      </c>
-      <c r="AW17" s="46" t="s">
-        <v>210</v>
-      </c>
-      <c r="AX17" s="46" t="s">
-        <v>494</v>
-      </c>
+      <c r="AU17" s="46"/>
+      <c r="AV17" s="46"/>
+      <c r="AW17" s="46"/>
+      <c r="AX17" s="46"/>
     </row>
     <row r="18" spans="1:50" s="10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A18" s="44" t="s">
@@ -7186,7 +7133,7 @@
       </c>
       <c r="Y19" s="54"/>
       <c r="Z19" s="54" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="AA19" s="54">
         <v>2</v>
@@ -7214,7 +7161,7 @@
       <c r="AJ19" s="54"/>
       <c r="AK19" s="54"/>
       <c r="AL19" s="54" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="AM19" s="54" t="s">
         <v>234</v>
@@ -7223,10 +7170,10 @@
         <v>162</v>
       </c>
       <c r="AO19" s="54" t="s">
-        <v>570</v>
+        <v>567</v>
       </c>
       <c r="AP19" s="54" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
       <c r="AQ19" s="54" t="s">
         <v>166</v>
@@ -7238,10 +7185,10 @@
         <v>178</v>
       </c>
       <c r="AT19" s="54" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="AU19" s="54" t="s">
-        <v>569</v>
+        <v>566</v>
       </c>
       <c r="AV19" s="54" t="s">
         <v>201</v>
@@ -7250,7 +7197,7 @@
         <v>209</v>
       </c>
       <c r="AX19" s="54" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
     </row>
     <row r="20" spans="1:50" s="10" customFormat="1" x14ac:dyDescent="0.3">
@@ -7326,7 +7273,7 @@
       </c>
       <c r="Y20" s="28"/>
       <c r="Z20" s="28" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="AA20" s="28">
         <v>2</v>
@@ -7354,7 +7301,7 @@
       <c r="AJ20" s="28"/>
       <c r="AK20" s="28"/>
       <c r="AL20" s="28" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="AM20" s="28" t="s">
         <v>234</v>
@@ -7363,7 +7310,7 @@
         <v>162</v>
       </c>
       <c r="AO20" s="28" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="AP20" s="28"/>
       <c r="AQ20" s="28" t="s">
@@ -7376,10 +7323,10 @@
         <v>178</v>
       </c>
       <c r="AT20" s="28" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="AU20" s="28" t="s">
-        <v>569</v>
+        <v>566</v>
       </c>
       <c r="AV20" s="28" t="s">
         <v>201</v>
@@ -7388,7 +7335,7 @@
         <v>209</v>
       </c>
       <c r="AX20" s="28" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
     </row>
     <row r="21" spans="1:50" s="10" customFormat="1" x14ac:dyDescent="0.3">
@@ -7463,10 +7410,10 @@
         <v>75</v>
       </c>
       <c r="Y21" s="54" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="Z21" s="54" t="s">
-        <v>629</v>
+        <v>624</v>
       </c>
       <c r="AA21" s="54">
         <v>1</v>
@@ -7478,7 +7425,7 @@
         <v>3</v>
       </c>
       <c r="AD21" s="54" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="AE21" s="54"/>
       <c r="AF21" s="54" t="s">
@@ -7496,14 +7443,14 @@
       <c r="AJ21" s="54"/>
       <c r="AK21" s="54"/>
       <c r="AL21" s="54" t="s">
-        <v>571</v>
+        <v>568</v>
       </c>
       <c r="AM21" s="54" t="s">
         <v>161</v>
       </c>
       <c r="AN21" s="54"/>
       <c r="AO21" s="54" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="AP21" s="54"/>
       <c r="AQ21" s="54" t="s">
@@ -7516,10 +7463,10 @@
         <v>177</v>
       </c>
       <c r="AT21" s="54" t="s">
-        <v>574</v>
+        <v>571</v>
       </c>
       <c r="AU21" s="54" t="s">
-        <v>572</v>
+        <v>569</v>
       </c>
       <c r="AV21" s="54" t="s">
         <v>205</v>
@@ -7528,7 +7475,7 @@
         <v>209</v>
       </c>
       <c r="AX21" s="54" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
     </row>
     <row r="22" spans="1:50" s="10" customFormat="1" x14ac:dyDescent="0.3">
@@ -7603,10 +7550,10 @@
         <v>75</v>
       </c>
       <c r="Y22" s="28" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="Z22" s="28" t="s">
-        <v>629</v>
+        <v>624</v>
       </c>
       <c r="AA22" s="28">
         <v>1</v>
@@ -7618,7 +7565,7 @@
         <v>3</v>
       </c>
       <c r="AD22" s="28" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="AE22" s="28"/>
       <c r="AF22" s="28" t="s">
@@ -7636,14 +7583,14 @@
       <c r="AJ22" s="28"/>
       <c r="AK22" s="28"/>
       <c r="AL22" s="28" t="s">
-        <v>571</v>
+        <v>568</v>
       </c>
       <c r="AM22" s="28" t="s">
         <v>234</v>
       </c>
       <c r="AN22" s="28"/>
       <c r="AO22" s="28" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="AP22" s="28"/>
       <c r="AQ22" s="28" t="s">
@@ -7656,10 +7603,10 @@
         <v>177</v>
       </c>
       <c r="AT22" s="28" t="s">
-        <v>574</v>
+        <v>571</v>
       </c>
       <c r="AU22" s="28" t="s">
-        <v>573</v>
+        <v>570</v>
       </c>
       <c r="AV22" s="28" t="s">
         <v>208</v>
@@ -7668,7 +7615,7 @@
         <v>209</v>
       </c>
       <c r="AX22" s="28" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
     </row>
     <row r="23" spans="1:50" s="10" customFormat="1" x14ac:dyDescent="0.3">
@@ -7833,10 +7780,10 @@
         <v>75</v>
       </c>
       <c r="Y24" s="54" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="Z24" s="54" t="s">
-        <v>634</v>
+        <v>629</v>
       </c>
       <c r="AA24" s="54">
         <v>2</v>
@@ -7848,7 +7795,7 @@
         <v>3</v>
       </c>
       <c r="AD24" s="54" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="AE24" s="54"/>
       <c r="AF24" s="54" t="s">
@@ -7866,14 +7813,14 @@
       <c r="AJ24" s="54"/>
       <c r="AK24" s="54"/>
       <c r="AL24" s="54" t="s">
-        <v>581</v>
+        <v>578</v>
       </c>
       <c r="AM24" s="54" t="s">
         <v>235</v>
       </c>
       <c r="AN24" s="54"/>
       <c r="AO24" s="54" t="s">
-        <v>578</v>
+        <v>575</v>
       </c>
       <c r="AP24" s="54"/>
       <c r="AQ24" s="54" t="s">
@@ -7886,10 +7833,10 @@
         <v>178</v>
       </c>
       <c r="AT24" s="54" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="AU24" s="54" t="s">
-        <v>579</v>
+        <v>576</v>
       </c>
       <c r="AV24" s="54" t="s">
         <v>205</v>
@@ -7898,7 +7845,7 @@
         <v>209</v>
       </c>
       <c r="AX24" s="54" t="s">
-        <v>577</v>
+        <v>574</v>
       </c>
     </row>
     <row r="25" spans="1:50" s="10" customFormat="1" x14ac:dyDescent="0.3">
@@ -7973,10 +7920,10 @@
         <v>75</v>
       </c>
       <c r="Y25" s="28" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="Z25" s="28" t="s">
-        <v>634</v>
+        <v>629</v>
       </c>
       <c r="AA25" s="28">
         <v>2</v>
@@ -7988,7 +7935,7 @@
         <v>3</v>
       </c>
       <c r="AD25" s="28" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="AE25" s="28"/>
       <c r="AF25" s="28" t="s">
@@ -8006,7 +7953,7 @@
       <c r="AJ25" s="28"/>
       <c r="AK25" s="28"/>
       <c r="AL25" s="28" t="s">
-        <v>581</v>
+        <v>578</v>
       </c>
       <c r="AM25" s="28" t="s">
         <v>234</v>
@@ -8015,7 +7962,7 @@
         <v>162</v>
       </c>
       <c r="AO25" s="28" t="s">
-        <v>575</v>
+        <v>572</v>
       </c>
       <c r="AP25" s="28"/>
       <c r="AQ25" s="28" t="s">
@@ -8028,10 +7975,10 @@
         <v>178</v>
       </c>
       <c r="AT25" s="28" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="AU25" s="28" t="s">
-        <v>580</v>
+        <v>577</v>
       </c>
       <c r="AV25" s="28" t="s">
         <v>205</v>
@@ -8040,7 +7987,7 @@
         <v>212</v>
       </c>
       <c r="AX25" s="28" t="s">
-        <v>576</v>
+        <v>573</v>
       </c>
     </row>
     <row r="26" spans="1:50" s="16" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
@@ -8116,7 +8063,7 @@
       </c>
       <c r="Y26" s="43"/>
       <c r="Z26" s="43" t="s">
-        <v>628</v>
+        <v>623</v>
       </c>
       <c r="AA26" s="43">
         <v>2</v>
@@ -8149,10 +8096,10 @@
       </c>
       <c r="AN26" s="43"/>
       <c r="AO26" s="43" t="s">
-        <v>584</v>
+        <v>581</v>
       </c>
       <c r="AP26" s="43" t="s">
-        <v>582</v>
+        <v>579</v>
       </c>
       <c r="AQ26" s="43" t="s">
         <v>166</v>
@@ -8164,10 +8111,10 @@
         <v>178</v>
       </c>
       <c r="AT26" s="43" t="s">
-        <v>583</v>
+        <v>580</v>
       </c>
       <c r="AU26" s="43" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="AV26" s="43" t="s">
         <v>208</v>
@@ -8176,7 +8123,7 @@
         <v>210</v>
       </c>
       <c r="AX26" s="40" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
     </row>
     <row r="27" spans="1:50" s="10" customFormat="1" x14ac:dyDescent="0.3">
@@ -8252,7 +8199,7 @@
       </c>
       <c r="Y27" s="54"/>
       <c r="Z27" s="54" t="s">
-        <v>630</v>
+        <v>625</v>
       </c>
       <c r="AA27" s="54">
         <v>2</v>
@@ -8264,7 +8211,7 @@
         <v>3</v>
       </c>
       <c r="AD27" s="54" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="AE27" s="54"/>
       <c r="AF27" s="54" t="s">
@@ -8282,7 +8229,7 @@
       <c r="AJ27" s="54"/>
       <c r="AK27" s="54"/>
       <c r="AL27" s="54" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="AM27" s="54" t="s">
         <v>234</v>
@@ -8291,7 +8238,7 @@
         <v>162</v>
       </c>
       <c r="AO27" s="54" t="s">
-        <v>585</v>
+        <v>582</v>
       </c>
       <c r="AP27" s="54"/>
       <c r="AQ27" s="54" t="s">
@@ -8302,10 +8249,10 @@
       </c>
       <c r="AS27" s="54"/>
       <c r="AT27" s="54" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="AU27" s="54" t="s">
-        <v>587</v>
+        <v>584</v>
       </c>
       <c r="AV27" s="54" t="s">
         <v>201</v>
@@ -8314,7 +8261,7 @@
         <v>210</v>
       </c>
       <c r="AX27" s="54" t="s">
-        <v>586</v>
+        <v>583</v>
       </c>
     </row>
     <row r="28" spans="1:50" s="10" customFormat="1" x14ac:dyDescent="0.3">
@@ -8389,10 +8336,10 @@
         <v>218</v>
       </c>
       <c r="Y28" s="54" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="Z28" s="54" t="s">
-        <v>631</v>
+        <v>626</v>
       </c>
       <c r="AA28" s="54">
         <v>2</v>
@@ -8404,7 +8351,7 @@
         <v>3</v>
       </c>
       <c r="AD28" s="54" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="AE28" s="54"/>
       <c r="AF28" s="54" t="s">
@@ -8424,14 +8371,14 @@
         <v>143</v>
       </c>
       <c r="AL28" s="54" t="s">
-        <v>589</v>
+        <v>586</v>
       </c>
       <c r="AM28" s="54" t="s">
         <v>235</v>
       </c>
       <c r="AN28" s="54"/>
       <c r="AO28" s="54" t="s">
-        <v>606</v>
+        <v>603</v>
       </c>
       <c r="AP28" s="54"/>
       <c r="AQ28" s="54" t="s">
@@ -8442,10 +8389,10 @@
       </c>
       <c r="AS28" s="54"/>
       <c r="AT28" s="54" t="s">
-        <v>588</v>
+        <v>585</v>
       </c>
       <c r="AU28" s="54" t="s">
-        <v>590</v>
+        <v>587</v>
       </c>
       <c r="AV28" s="54" t="s">
         <v>201</v>
@@ -8454,7 +8401,7 @@
         <v>210</v>
       </c>
       <c r="AX28" s="54" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
     </row>
     <row r="29" spans="1:50" s="10" customFormat="1" x14ac:dyDescent="0.3">
@@ -8529,10 +8476,10 @@
         <v>218</v>
       </c>
       <c r="Y29" s="28" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="Z29" s="28" t="s">
-        <v>631</v>
+        <v>626</v>
       </c>
       <c r="AA29" s="28">
         <v>2</v>
@@ -8544,7 +8491,7 @@
         <v>3</v>
       </c>
       <c r="AD29" s="28" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="AE29" s="28"/>
       <c r="AF29" s="28" t="s">
@@ -8564,14 +8511,14 @@
         <v>143</v>
       </c>
       <c r="AL29" s="28" t="s">
-        <v>589</v>
+        <v>586</v>
       </c>
       <c r="AM29" s="28" t="s">
         <v>235</v>
       </c>
       <c r="AN29" s="28"/>
       <c r="AO29" s="28" t="s">
-        <v>607</v>
+        <v>604</v>
       </c>
       <c r="AP29" s="28"/>
       <c r="AQ29" s="28" t="s">
@@ -8582,10 +8529,10 @@
       </c>
       <c r="AS29" s="28"/>
       <c r="AT29" s="28" t="s">
-        <v>588</v>
+        <v>585</v>
       </c>
       <c r="AU29" s="28" t="s">
-        <v>590</v>
+        <v>587</v>
       </c>
       <c r="AV29" s="28" t="s">
         <v>201</v>
@@ -8594,7 +8541,7 @@
         <v>210</v>
       </c>
       <c r="AX29" s="28" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
     </row>
     <row r="30" spans="1:50" s="10" customFormat="1" x14ac:dyDescent="0.3">
@@ -8759,10 +8706,10 @@
         <v>218</v>
       </c>
       <c r="Y31" s="54" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="Z31" s="54" t="s">
-        <v>632</v>
+        <v>627</v>
       </c>
       <c r="AA31" s="54">
         <v>2</v>
@@ -8774,7 +8721,7 @@
         <v>3</v>
       </c>
       <c r="AD31" s="54" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="AE31" s="54"/>
       <c r="AF31" s="54" t="s">
@@ -8792,7 +8739,7 @@
       <c r="AJ31" s="54"/>
       <c r="AK31" s="54"/>
       <c r="AL31" s="54" t="s">
-        <v>594</v>
+        <v>591</v>
       </c>
       <c r="AM31" s="54" t="s">
         <v>234</v>
@@ -8801,10 +8748,10 @@
         <v>162</v>
       </c>
       <c r="AO31" s="54" t="s">
-        <v>593</v>
+        <v>590</v>
       </c>
       <c r="AP31" s="54" t="s">
-        <v>591</v>
+        <v>588</v>
       </c>
       <c r="AQ31" s="54" t="s">
         <v>166</v>
@@ -8816,10 +8763,10 @@
         <v>183</v>
       </c>
       <c r="AT31" s="54" t="s">
-        <v>592</v>
+        <v>589</v>
       </c>
       <c r="AU31" s="54" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="AV31" s="54" t="s">
         <v>208</v>
@@ -8828,7 +8775,7 @@
         <v>209</v>
       </c>
       <c r="AX31" s="54" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
     </row>
     <row r="32" spans="1:50" s="10" customFormat="1" x14ac:dyDescent="0.3">
@@ -8903,10 +8850,10 @@
         <v>218</v>
       </c>
       <c r="Y32" s="28" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="Z32" s="28" t="s">
-        <v>632</v>
+        <v>627</v>
       </c>
       <c r="AA32" s="28">
         <v>2</v>
@@ -8918,7 +8865,7 @@
         <v>3</v>
       </c>
       <c r="AD32" s="28" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="AE32" s="28"/>
       <c r="AF32" s="28" t="s">
@@ -8936,7 +8883,7 @@
       <c r="AJ32" s="28"/>
       <c r="AK32" s="28"/>
       <c r="AL32" s="28" t="s">
-        <v>594</v>
+        <v>591</v>
       </c>
       <c r="AM32" s="28" t="s">
         <v>234</v>
@@ -8945,10 +8892,10 @@
         <v>162</v>
       </c>
       <c r="AO32" s="28" t="s">
-        <v>593</v>
+        <v>590</v>
       </c>
       <c r="AP32" s="28" t="s">
-        <v>591</v>
+        <v>588</v>
       </c>
       <c r="AQ32" s="28" t="s">
         <v>166</v>
@@ -8960,10 +8907,10 @@
         <v>183</v>
       </c>
       <c r="AT32" s="28" t="s">
-        <v>592</v>
+        <v>589</v>
       </c>
       <c r="AU32" s="28" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="AV32" s="28" t="s">
         <v>201</v>
@@ -8972,7 +8919,7 @@
         <v>209</v>
       </c>
       <c r="AX32" s="28" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
     </row>
     <row r="33" spans="1:50" s="10" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -9047,10 +8994,10 @@
         <v>218</v>
       </c>
       <c r="Y33" s="54" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="Z33" s="54" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="AA33" s="54">
         <v>2</v>
@@ -9062,7 +9009,7 @@
         <v>3</v>
       </c>
       <c r="AD33" s="55" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="AE33" s="54"/>
       <c r="AF33" s="54" t="s">
@@ -9087,7 +9034,7 @@
         <v>162</v>
       </c>
       <c r="AO33" s="54" t="s">
-        <v>595</v>
+        <v>592</v>
       </c>
       <c r="AP33" s="54"/>
       <c r="AQ33" s="54" t="s">
@@ -9100,10 +9047,10 @@
         <v>178</v>
       </c>
       <c r="AT33" s="54" t="s">
-        <v>597</v>
+        <v>594</v>
       </c>
       <c r="AU33" s="54" t="s">
-        <v>596</v>
+        <v>593</v>
       </c>
       <c r="AV33" s="54" t="s">
         <v>201</v>
@@ -9112,7 +9059,7 @@
         <v>211</v>
       </c>
       <c r="AX33" s="55" t="s">
-        <v>598</v>
+        <v>595</v>
       </c>
     </row>
     <row r="34" spans="1:50" s="10" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -9187,10 +9134,10 @@
         <v>218</v>
       </c>
       <c r="Y34" s="28" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="Z34" s="28" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="AA34" s="28">
         <v>2</v>
@@ -9202,7 +9149,7 @@
         <v>3</v>
       </c>
       <c r="AD34" s="31" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="AE34" s="28"/>
       <c r="AF34" s="28" t="s">
@@ -9227,7 +9174,7 @@
         <v>162</v>
       </c>
       <c r="AO34" s="28" t="s">
-        <v>595</v>
+        <v>592</v>
       </c>
       <c r="AP34" s="28"/>
       <c r="AQ34" s="28" t="s">
@@ -9240,10 +9187,10 @@
         <v>178</v>
       </c>
       <c r="AT34" s="28" t="s">
-        <v>597</v>
+        <v>594</v>
       </c>
       <c r="AU34" s="28" t="s">
-        <v>601</v>
+        <v>598</v>
       </c>
       <c r="AV34" s="28" t="s">
         <v>201</v>
@@ -9252,7 +9199,7 @@
         <v>210</v>
       </c>
       <c r="AX34" s="31" t="s">
-        <v>599</v>
+        <v>596</v>
       </c>
     </row>
     <row r="35" spans="1:50" s="10" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -9327,10 +9274,10 @@
         <v>218</v>
       </c>
       <c r="Y35" s="28" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="Z35" s="28" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="AA35" s="28">
         <v>2</v>
@@ -9342,7 +9289,7 @@
         <v>3</v>
       </c>
       <c r="AD35" s="31" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="AE35" s="28"/>
       <c r="AF35" s="28" t="s">
@@ -9367,7 +9314,7 @@
         <v>162</v>
       </c>
       <c r="AO35" s="28" t="s">
-        <v>595</v>
+        <v>592</v>
       </c>
       <c r="AP35" s="28"/>
       <c r="AQ35" s="28" t="s">
@@ -9380,10 +9327,10 @@
         <v>178</v>
       </c>
       <c r="AT35" s="28" t="s">
+        <v>594</v>
+      </c>
+      <c r="AU35" s="28" t="s">
         <v>597</v>
-      </c>
-      <c r="AU35" s="28" t="s">
-        <v>600</v>
       </c>
       <c r="AV35" s="28" t="s">
         <v>201</v>
@@ -9392,7 +9339,7 @@
         <v>210</v>
       </c>
       <c r="AX35" s="31" t="s">
-        <v>604</v>
+        <v>601</v>
       </c>
     </row>
     <row r="36" spans="1:50" s="10" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -9467,10 +9414,10 @@
         <v>218</v>
       </c>
       <c r="Y36" s="28" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="Z36" s="28" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="AA36" s="28">
         <v>2</v>
@@ -9482,7 +9429,7 @@
         <v>3</v>
       </c>
       <c r="AD36" s="31" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="AE36" s="28"/>
       <c r="AF36" s="28" t="s">
@@ -9507,7 +9454,7 @@
         <v>162</v>
       </c>
       <c r="AO36" s="28" t="s">
-        <v>595</v>
+        <v>592</v>
       </c>
       <c r="AP36" s="28"/>
       <c r="AQ36" s="28" t="s">
@@ -9520,10 +9467,10 @@
         <v>178</v>
       </c>
       <c r="AT36" s="28" t="s">
-        <v>597</v>
+        <v>594</v>
       </c>
       <c r="AU36" s="28" t="s">
-        <v>602</v>
+        <v>599</v>
       </c>
       <c r="AV36" s="28" t="s">
         <v>201</v>
@@ -9532,7 +9479,7 @@
         <v>209</v>
       </c>
       <c r="AX36" s="31" t="s">
-        <v>603</v>
+        <v>600</v>
       </c>
     </row>
     <row r="37" spans="1:50" s="10" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -9607,10 +9554,10 @@
         <v>218</v>
       </c>
       <c r="Y37" s="28" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="Z37" s="28" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="AA37" s="28">
         <v>2</v>
@@ -9622,7 +9569,7 @@
         <v>3</v>
       </c>
       <c r="AD37" s="31" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="AE37" s="28"/>
       <c r="AF37" s="28" t="s">
@@ -9647,7 +9594,7 @@
         <v>162</v>
       </c>
       <c r="AO37" s="28" t="s">
-        <v>595</v>
+        <v>592</v>
       </c>
       <c r="AP37" s="28"/>
       <c r="AQ37" s="28" t="s">
@@ -9660,10 +9607,10 @@
         <v>178</v>
       </c>
       <c r="AT37" s="28" t="s">
-        <v>597</v>
+        <v>594</v>
       </c>
       <c r="AU37" s="28" t="s">
-        <v>608</v>
+        <v>605</v>
       </c>
       <c r="AV37" s="28" t="s">
         <v>201</v>
@@ -9672,7 +9619,7 @@
         <v>212</v>
       </c>
       <c r="AX37" s="31" t="s">
-        <v>605</v>
+        <v>602</v>
       </c>
     </row>
     <row r="38" spans="1:50" s="10" customFormat="1" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
@@ -9747,10 +9694,10 @@
         <v>218</v>
       </c>
       <c r="Y38" s="54" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="Z38" s="54" t="s">
-        <v>633</v>
+        <v>628</v>
       </c>
       <c r="AA38" s="54">
         <v>2</v>
@@ -9762,7 +9709,7 @@
         <v>3</v>
       </c>
       <c r="AD38" s="54" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="AE38" s="54"/>
       <c r="AF38" s="54" t="s">
@@ -9785,7 +9732,7 @@
       </c>
       <c r="AN38" s="54"/>
       <c r="AO38" s="54" t="s">
-        <v>615</v>
+        <v>612</v>
       </c>
       <c r="AP38" s="54"/>
       <c r="AQ38" s="54" t="s">
@@ -9798,10 +9745,10 @@
         <v>178</v>
       </c>
       <c r="AT38" s="54" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="AU38" s="54" t="s">
-        <v>613</v>
+        <v>610</v>
       </c>
       <c r="AV38" s="54" t="s">
         <v>201</v>
@@ -9810,7 +9757,7 @@
         <v>210</v>
       </c>
       <c r="AX38" s="55" t="s">
-        <v>612</v>
+        <v>609</v>
       </c>
     </row>
     <row r="39" spans="1:50" s="10" customFormat="1" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
@@ -9885,10 +9832,10 @@
         <v>218</v>
       </c>
       <c r="Y39" s="28" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="Z39" s="28" t="s">
-        <v>633</v>
+        <v>628</v>
       </c>
       <c r="AA39" s="28">
         <v>2</v>
@@ -9900,7 +9847,7 @@
         <v>3</v>
       </c>
       <c r="AD39" s="28" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="AE39" s="28"/>
       <c r="AF39" s="28" t="s">
@@ -9923,7 +9870,7 @@
       </c>
       <c r="AN39" s="28"/>
       <c r="AO39" s="28" t="s">
-        <v>615</v>
+        <v>612</v>
       </c>
       <c r="AP39" s="28"/>
       <c r="AQ39" s="28" t="s">
@@ -9936,10 +9883,10 @@
         <v>178</v>
       </c>
       <c r="AT39" s="28" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="AU39" s="28" t="s">
-        <v>609</v>
+        <v>606</v>
       </c>
       <c r="AV39" s="28" t="s">
         <v>201</v>
@@ -9948,7 +9895,7 @@
         <v>210</v>
       </c>
       <c r="AX39" s="31" t="s">
-        <v>611</v>
+        <v>608</v>
       </c>
     </row>
     <row r="40" spans="1:50" s="10" customFormat="1" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
@@ -10023,10 +9970,10 @@
         <v>218</v>
       </c>
       <c r="Y40" s="28" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="Z40" s="28" t="s">
-        <v>633</v>
+        <v>628</v>
       </c>
       <c r="AA40" s="28">
         <v>2</v>
@@ -10038,7 +9985,7 @@
         <v>3</v>
       </c>
       <c r="AD40" s="28" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="AE40" s="28"/>
       <c r="AF40" s="28" t="s">
@@ -10061,7 +10008,7 @@
       </c>
       <c r="AN40" s="28"/>
       <c r="AO40" s="28" t="s">
-        <v>615</v>
+        <v>612</v>
       </c>
       <c r="AP40" s="28"/>
       <c r="AQ40" s="28" t="s">
@@ -10074,10 +10021,10 @@
         <v>178</v>
       </c>
       <c r="AT40" s="28" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="AU40" s="28" t="s">
-        <v>610</v>
+        <v>607</v>
       </c>
       <c r="AV40" s="28" t="s">
         <v>201</v>
@@ -10086,7 +10033,7 @@
         <v>209</v>
       </c>
       <c r="AX40" s="31" t="s">
-        <v>614</v>
+        <v>611</v>
       </c>
     </row>
     <row r="41" spans="1:50" s="10" customFormat="1" x14ac:dyDescent="0.3">
@@ -10161,10 +10108,10 @@
         <v>69</v>
       </c>
       <c r="Y41" s="54" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="Z41" s="54" t="s">
-        <v>635</v>
+        <v>630</v>
       </c>
       <c r="AA41" s="54">
         <v>2</v>
@@ -10184,22 +10131,22 @@
         <v>111</v>
       </c>
       <c r="AH41" s="54" t="s">
-        <v>119</v>
+        <v>222</v>
       </c>
       <c r="AI41" s="54" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="AJ41" s="54"/>
       <c r="AK41" s="54"/>
       <c r="AL41" s="54" t="s">
-        <v>519</v>
+        <v>631</v>
       </c>
       <c r="AM41" s="54" t="s">
         <v>161</v>
       </c>
       <c r="AN41" s="54"/>
       <c r="AO41" s="54" t="s">
-        <v>616</v>
+        <v>613</v>
       </c>
       <c r="AP41" s="54"/>
       <c r="AQ41" s="54" t="s">
@@ -10212,10 +10159,10 @@
         <v>177</v>
       </c>
       <c r="AT41" s="54" t="s">
-        <v>619</v>
+        <v>632</v>
       </c>
       <c r="AU41" s="54" t="s">
-        <v>617</v>
+        <v>614</v>
       </c>
       <c r="AV41" s="54" t="s">
         <v>205</v>
@@ -10224,7 +10171,7 @@
         <v>209</v>
       </c>
       <c r="AX41" s="54" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
     </row>
     <row r="42" spans="1:50" s="10" customFormat="1" x14ac:dyDescent="0.3">
@@ -10299,10 +10246,10 @@
         <v>69</v>
       </c>
       <c r="Y42" s="28" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="Z42" s="28" t="s">
-        <v>635</v>
+        <v>630</v>
       </c>
       <c r="AA42" s="28">
         <v>2</v>
@@ -10322,22 +10269,22 @@
         <v>111</v>
       </c>
       <c r="AH42" s="28" t="s">
-        <v>119</v>
+        <v>222</v>
       </c>
       <c r="AI42" s="28" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="AJ42" s="28"/>
       <c r="AK42" s="28"/>
       <c r="AL42" s="28" t="s">
-        <v>519</v>
+        <v>631</v>
       </c>
       <c r="AM42" s="28" t="s">
         <v>161</v>
       </c>
       <c r="AN42" s="28"/>
       <c r="AO42" s="28" t="s">
-        <v>616</v>
+        <v>613</v>
       </c>
       <c r="AP42" s="28"/>
       <c r="AQ42" s="28" t="s">
@@ -10350,10 +10297,10 @@
         <v>177</v>
       </c>
       <c r="AT42" s="28" t="s">
-        <v>619</v>
+        <v>632</v>
       </c>
       <c r="AU42" s="28" t="s">
-        <v>618</v>
+        <v>615</v>
       </c>
       <c r="AV42" s="28" t="s">
         <v>205</v>
@@ -10362,7 +10309,7 @@
         <v>209</v>
       </c>
       <c r="AX42" s="28" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
     </row>
     <row r="43" spans="1:50" s="10" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -10438,7 +10385,7 @@
       </c>
       <c r="Y43" s="54"/>
       <c r="Z43" s="54" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="AA43" s="54">
         <v>2</v>
@@ -10473,7 +10420,7 @@
         <v>162</v>
       </c>
       <c r="AO43" s="54" t="s">
-        <v>621</v>
+        <v>617</v>
       </c>
       <c r="AP43" s="54"/>
       <c r="AQ43" s="54" t="s">
@@ -10486,10 +10433,10 @@
         <v>177</v>
       </c>
       <c r="AT43" s="54" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="AU43" s="54" t="s">
-        <v>623</v>
+        <v>619</v>
       </c>
       <c r="AV43" s="54" t="s">
         <v>206</v>
@@ -10498,7 +10445,7 @@
         <v>209</v>
       </c>
       <c r="AX43" s="54" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
     </row>
     <row r="44" spans="1:50" s="10" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -10574,7 +10521,7 @@
       </c>
       <c r="Y44" s="28"/>
       <c r="Z44" s="28" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="AA44" s="28">
         <v>2</v>
@@ -10609,7 +10556,7 @@
         <v>162</v>
       </c>
       <c r="AO44" s="28" t="s">
-        <v>620</v>
+        <v>616</v>
       </c>
       <c r="AP44" s="28"/>
       <c r="AQ44" s="28" t="s">
@@ -10622,10 +10569,10 @@
         <v>177</v>
       </c>
       <c r="AT44" s="28" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="AU44" s="28" t="s">
-        <v>623</v>
+        <v>619</v>
       </c>
       <c r="AV44" s="28" t="s">
         <v>206</v>
@@ -10634,7 +10581,7 @@
         <v>209</v>
       </c>
       <c r="AX44" s="28" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
     </row>
     <row r="45" spans="1:50" s="10" customFormat="1" x14ac:dyDescent="0.3">
@@ -10710,7 +10657,7 @@
       </c>
       <c r="Y45" s="28"/>
       <c r="Z45" s="28" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="AA45" s="28">
         <v>2</v>
@@ -10745,7 +10692,7 @@
         <v>162</v>
       </c>
       <c r="AO45" s="28" t="s">
-        <v>622</v>
+        <v>618</v>
       </c>
       <c r="AP45" s="28"/>
       <c r="AQ45" s="28" t="s">
@@ -10758,10 +10705,10 @@
         <v>191</v>
       </c>
       <c r="AT45" s="28" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="AU45" s="28" t="s">
-        <v>623</v>
+        <v>619</v>
       </c>
       <c r="AV45" s="28" t="s">
         <v>206</v>
@@ -10770,7 +10717,7 @@
         <v>209</v>
       </c>
       <c r="AX45" s="28" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
     </row>
     <row r="46" spans="1:50" s="10" customFormat="1" x14ac:dyDescent="0.3">
@@ -11009,10 +10956,10 @@
         <v>69</v>
       </c>
       <c r="Y48" s="43" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="Z48" s="43" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="AA48" s="43">
         <v>2</v>
@@ -11042,7 +10989,7 @@
       </c>
       <c r="AK48" s="43"/>
       <c r="AL48" s="43" t="s">
-        <v>624</v>
+        <v>620</v>
       </c>
       <c r="AM48" s="43" t="s">
         <v>234</v>
@@ -11051,7 +10998,7 @@
         <v>164</v>
       </c>
       <c r="AO48" s="43" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="AP48" s="43"/>
       <c r="AQ48" s="43" t="s">
@@ -11064,10 +11011,10 @@
         <v>190</v>
       </c>
       <c r="AT48" s="43" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="AU48" s="43" t="s">
-        <v>625</v>
+        <v>621</v>
       </c>
       <c r="AV48" s="43" t="s">
         <v>214</v>
@@ -11076,7 +11023,7 @@
         <v>212</v>
       </c>
       <c r="AX48" s="43" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
     </row>
     <row r="49" spans="1:50" x14ac:dyDescent="0.3">
@@ -13211,12 +13158,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101006AB0F5ECCA53DA47AEBDEAEE6167985F" ma:contentTypeVersion="0" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="abe771af6212f3f785694fa6f4ad1686">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="1b05d82d297216baf5b26c55225140df">
     <xsd:element name="properties">
@@ -13330,7 +13271,7 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
@@ -13339,22 +13280,13 @@
 </FormTemplates>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{495201D0-9695-4A45-BC3A-28D949F46F55}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{296C6747-B437-4BFD-90D3-AF1F913D3FA0}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -13370,10 +13302,25 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{66D459FE-C8DA-484C-BC8E-5EB6A351EBC9}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{495201D0-9695-4A45-BC3A-28D949F46F55}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/Systematic Reviews/Analysis Task 4.1/Data_Extraction_Files/DataExtractionForm_WP4_Basurko.xlsx
+++ b/Systematic Reviews/Analysis Task 4.1/Data_Extraction_Files/DataExtractionForm_WP4_Basurko.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://share.dtu.dk/sites/SEAwise_517900/Shared Documents/WP4 Ecological effects of fisheries/Task 4.1/Data extraction/Data extraction files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{720FBB0F-D27C-4E41-B8A2-53DBDEF11226}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F0A3A5E-C14A-4867-91F5-1DA54BBDDF0E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,7 +18,7 @@
     <sheet name="Drop-down overview" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">DataExtraction!$A$2:$AX$47</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">DataExtraction!$A$2:$AX$49</definedName>
     <definedName name="Benthic_epifauna">Validation!$AI$32:$AI$35</definedName>
     <definedName name="Benthos">Validation!$AN$24:$AN$25</definedName>
     <definedName name="Catch_and_bycatch">Validation!$AM$15:$AM$17</definedName>
@@ -2335,7 +2335,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2151" uniqueCount="634">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2233" uniqueCount="637">
   <si>
     <t>SearchID</t>
   </si>
@@ -3920,9 +3920,6 @@
   </si>
   <si>
     <t>Discards seem to be a relatively important food source for the bottom scavengers. 85% of the total stomach content were discards, implying that for those species at least, the additional food source provided by discarded material is important. However, under natural conditions, the influence of the discarded material might not be so considerable. Predators and scavenger species such as Pagellus acarne and P. bogaraveo may move to areas disturbed by bottom trawling in order to prey on discarded or damaged material. Planktophagous species such as P. bogaraveo can also take advantage of discards as a supplementary food resource to their tradictional one. Scyliorhinus canigula and skates beneftit most from discarding in the studied area, though it has to be borne in mind that such species have become very abundant in the area since the closure of the trawl fishery.</t>
-  </si>
-  <si>
-    <t>Beam-trawling effort was negatively correlated with the diversity of sessile fauna. Numbers of sessile species were negatively correlated with beam-trawling effort. Erect species, which potentially improve the structural complexhy of the habitat, also showed a negative correlation with beam-trawling effort. No correlation was found between numbers of free-living species and beam-trawling effort.</t>
   </si>
   <si>
     <t xml:space="preserve">The trawl did not change the sediment grain size, although it did disturb the upper 6 cm of sediment. Experimental trawling induced a modification in the macrobenthic community that was most evident immediately after the haul. Total biomass and total abundance of macrobethos values had decreased immediately after dreding (t0) but had increased again after 1 week. The macrobenthic community of the fishing ground (f) was similar to that of the control site, although biomass values were significantly lower in the fished area. The community in the exploited area was less diverse and dominated by only three phyla (Mollusca, Artropoda, and Echinodermata). For meiofauba: the data revealed some marked but complex effects of bottom disturbance. The common taxa showed quite different responses: Nemertini, Harpacticoida, and Copepoda decreased, Nematoda and Paraoida increased, Sididae showed an increase after 1 week. </t>
@@ -4242,6 +4239,18 @@
   </si>
   <si>
     <t>Caught fish in nets providing food source</t>
+  </si>
+  <si>
+    <t>No correlation was found between numbers of free-living species and beam-trawling effort.</t>
+  </si>
+  <si>
+    <t>Beam-trawling effort was negatively correlated with the diversity of sessile fauna. Numbers of sessile species were negatively correlated with beam-trawling effort. Erect species, which potentially improve the structural complexhy of the habitat, also showed a negative correlation with beam-trawling effort.</t>
+  </si>
+  <si>
+    <t>Sessile epifauna</t>
+  </si>
+  <si>
+    <t>Free-living epifauna</t>
   </si>
 </sst>
 </file>
@@ -4855,13 +4864,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AX48"/>
+  <dimension ref="A1:AX50"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="AL3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="AM3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="AX6" sqref="AX6"/>
+      <selection pane="bottomRight" activeCell="AW27" sqref="AW27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -5284,7 +5293,7 @@
         <v>485</v>
       </c>
       <c r="Z4" s="37" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="AA4" s="37">
         <v>2</v>
@@ -5316,14 +5325,14 @@
       </c>
       <c r="AK4" s="37"/>
       <c r="AL4" s="37" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="AM4" s="37" t="s">
         <v>233</v>
       </c>
       <c r="AN4" s="37"/>
       <c r="AO4" s="37" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="AP4" s="37"/>
       <c r="AQ4" s="37" t="s">
@@ -5337,7 +5346,7 @@
       </c>
       <c r="AT4" s="37"/>
       <c r="AU4" s="37" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="AV4" s="37" t="s">
         <v>214</v>
@@ -5424,7 +5433,7 @@
         <v>486</v>
       </c>
       <c r="Z5" s="40" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="AA5" s="40">
         <v>2</v>
@@ -5437,7 +5446,7 @@
       </c>
       <c r="AD5" s="40"/>
       <c r="AE5" s="40" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="AF5" s="40" t="s">
         <v>280</v>
@@ -5456,7 +5465,7 @@
       </c>
       <c r="AK5" s="40"/>
       <c r="AL5" s="40" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="AM5" s="40" t="s">
         <v>234</v>
@@ -5465,10 +5474,10 @@
         <v>164</v>
       </c>
       <c r="AO5" s="40" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="AP5" s="40" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="AQ5" s="40" t="s">
         <v>166</v>
@@ -5481,7 +5490,7 @@
       </c>
       <c r="AT5" s="40"/>
       <c r="AU5" s="40" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="AV5" s="40" t="s">
         <v>240</v>
@@ -5568,7 +5577,7 @@
         <v>486</v>
       </c>
       <c r="Z6" s="23" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="AA6" s="23">
         <v>2</v>
@@ -5581,7 +5590,7 @@
       </c>
       <c r="AD6" s="23"/>
       <c r="AE6" s="23" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="AF6" s="23" t="s">
         <v>280</v>
@@ -5600,17 +5609,17 @@
       </c>
       <c r="AK6" s="23"/>
       <c r="AL6" s="23" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="AM6" s="23" t="s">
         <v>161</v>
       </c>
       <c r="AN6" s="23"/>
       <c r="AO6" s="23" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="AP6" s="23" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="AQ6" s="23" t="s">
         <v>166</v>
@@ -5622,10 +5631,10 @@
         <v>192</v>
       </c>
       <c r="AT6" s="23" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="AU6" s="23" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="AV6" s="23" t="s">
         <v>205</v>
@@ -5634,7 +5643,7 @@
         <v>212</v>
       </c>
       <c r="AX6" s="23" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
     </row>
     <row r="7" spans="1:50" s="16" customFormat="1" ht="16.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -5709,10 +5718,10 @@
         <v>75</v>
       </c>
       <c r="Y7" s="40" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="Z7" s="40" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="AA7" s="43">
         <v>2</v>
@@ -5740,14 +5749,14 @@
       <c r="AJ7" s="43"/>
       <c r="AK7" s="43"/>
       <c r="AL7" s="43" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="AM7" s="43" t="s">
         <v>235</v>
       </c>
       <c r="AN7" s="43"/>
       <c r="AO7" s="43" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="AP7" s="43"/>
       <c r="AQ7" s="43" t="s">
@@ -5760,10 +5769,10 @@
         <v>177</v>
       </c>
       <c r="AT7" s="43" t="s">
+        <v>551</v>
+      </c>
+      <c r="AU7" s="43" t="s">
         <v>552</v>
-      </c>
-      <c r="AU7" s="43" t="s">
-        <v>553</v>
       </c>
       <c r="AV7" s="43" t="s">
         <v>201</v>
@@ -5847,10 +5856,10 @@
         <v>75</v>
       </c>
       <c r="Y8" s="23" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="Z8" s="23" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="AA8" s="26">
         <v>2</v>
@@ -5878,14 +5887,14 @@
       <c r="AJ8" s="26"/>
       <c r="AK8" s="26"/>
       <c r="AL8" s="26" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="AM8" s="26" t="s">
         <v>235</v>
       </c>
       <c r="AN8" s="26"/>
       <c r="AO8" s="26" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="AP8" s="26"/>
       <c r="AQ8" s="26" t="s">
@@ -5898,10 +5907,10 @@
         <v>177</v>
       </c>
       <c r="AT8" s="26" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="AU8" s="26" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="AV8" s="26" t="s">
         <v>115</v>
@@ -5910,7 +5919,7 @@
         <v>212</v>
       </c>
       <c r="AX8" s="23" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
     </row>
     <row r="9" spans="1:50" s="10" customFormat="1" x14ac:dyDescent="0.35">
@@ -6078,7 +6087,7 @@
         <v>487</v>
       </c>
       <c r="Z10" s="40" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="AA10" s="43">
         <v>2</v>
@@ -6113,10 +6122,10 @@
       </c>
       <c r="AN10" s="43"/>
       <c r="AO10" s="43" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="AP10" s="43" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="AQ10" s="43" t="s">
         <v>166</v>
@@ -6140,7 +6149,7 @@
         <v>210</v>
       </c>
       <c r="AX10" s="40" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
     </row>
     <row r="11" spans="1:50" s="17" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.35">
@@ -6218,7 +6227,7 @@
         <v>487</v>
       </c>
       <c r="Z11" s="23" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="AA11" s="26">
         <v>2</v>
@@ -6253,10 +6262,10 @@
       </c>
       <c r="AN11" s="26"/>
       <c r="AO11" s="26" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="AP11" s="26" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="AQ11" s="26" t="s">
         <v>166</v>
@@ -6271,7 +6280,7 @@
         <v>490</v>
       </c>
       <c r="AU11" s="26" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="AV11" s="26" t="s">
         <v>201</v>
@@ -6280,7 +6289,7 @@
         <v>210</v>
       </c>
       <c r="AX11" s="23" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
     </row>
     <row r="12" spans="1:50" s="16" customFormat="1" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.35">
@@ -6354,7 +6363,7 @@
         <v>492</v>
       </c>
       <c r="Z12" s="40" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="AA12" s="43">
         <v>2</v>
@@ -6388,7 +6397,7 @@
         <v>136</v>
       </c>
       <c r="AL12" s="43" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="AM12" s="43" t="s">
         <v>234</v>
@@ -6411,7 +6420,7 @@
       </c>
       <c r="AT12" s="40"/>
       <c r="AU12" s="40" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="AV12" s="43" t="s">
         <v>215</v>
@@ -6420,7 +6429,7 @@
         <v>210</v>
       </c>
       <c r="AX12" s="40" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
     </row>
     <row r="13" spans="1:50" s="16" customFormat="1" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.35">
@@ -6494,7 +6503,7 @@
         <v>492</v>
       </c>
       <c r="Z13" s="23" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="AA13" s="26">
         <v>2</v>
@@ -6528,7 +6537,7 @@
         <v>136</v>
       </c>
       <c r="AL13" s="26" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="AM13" s="26" t="s">
         <v>234</v>
@@ -6551,7 +6560,7 @@
       </c>
       <c r="AT13" s="23"/>
       <c r="AU13" s="23" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="AV13" s="26" t="s">
         <v>201</v>
@@ -6560,7 +6569,7 @@
         <v>210</v>
       </c>
       <c r="AX13" s="23" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
     </row>
     <row r="14" spans="1:50" s="16" customFormat="1" x14ac:dyDescent="0.35">
@@ -7033,10 +7042,10 @@
         <v>162</v>
       </c>
       <c r="AO18" s="54" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="AP18" s="54" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="AQ18" s="54" t="s">
         <v>166</v>
@@ -7051,7 +7060,7 @@
         <v>498</v>
       </c>
       <c r="AU18" s="54" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="AV18" s="54" t="s">
         <v>201</v>
@@ -7189,7 +7198,7 @@
         <v>498</v>
       </c>
       <c r="AU19" s="28" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="AV19" s="28" t="s">
         <v>201</v>
@@ -7276,7 +7285,7 @@
         <v>505</v>
       </c>
       <c r="Z20" s="54" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="AA20" s="54">
         <v>1</v>
@@ -7306,14 +7315,14 @@
       <c r="AJ20" s="54"/>
       <c r="AK20" s="54"/>
       <c r="AL20" s="54" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="AM20" s="54" t="s">
         <v>161</v>
       </c>
       <c r="AN20" s="54"/>
       <c r="AO20" s="54" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="AP20" s="54"/>
       <c r="AQ20" s="54" t="s">
@@ -7326,10 +7335,10 @@
         <v>177</v>
       </c>
       <c r="AT20" s="54" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="AU20" s="54" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="AV20" s="54" t="s">
         <v>205</v>
@@ -7416,7 +7425,7 @@
         <v>505</v>
       </c>
       <c r="Z21" s="28" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="AA21" s="28">
         <v>1</v>
@@ -7446,14 +7455,14 @@
       <c r="AJ21" s="28"/>
       <c r="AK21" s="28"/>
       <c r="AL21" s="28" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="AM21" s="28" t="s">
         <v>234</v>
       </c>
       <c r="AN21" s="28"/>
       <c r="AO21" s="28" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="AP21" s="28"/>
       <c r="AQ21" s="28" t="s">
@@ -7466,10 +7475,10 @@
         <v>177</v>
       </c>
       <c r="AT21" s="28" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="AU21" s="28" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="AV21" s="28" t="s">
         <v>208</v>
@@ -7646,7 +7655,7 @@
         <v>505</v>
       </c>
       <c r="Z23" s="54" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="AA23" s="54">
         <v>2</v>
@@ -7676,14 +7685,14 @@
       <c r="AJ23" s="54"/>
       <c r="AK23" s="54"/>
       <c r="AL23" s="54" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="AM23" s="54" t="s">
         <v>235</v>
       </c>
       <c r="AN23" s="54"/>
       <c r="AO23" s="54" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="AP23" s="54"/>
       <c r="AQ23" s="54" t="s">
@@ -7699,7 +7708,7 @@
         <v>500</v>
       </c>
       <c r="AU23" s="54" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="AV23" s="54" t="s">
         <v>205</v>
@@ -7708,7 +7717,7 @@
         <v>209</v>
       </c>
       <c r="AX23" s="54" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
     </row>
     <row r="24" spans="1:50" s="10" customFormat="1" x14ac:dyDescent="0.35">
@@ -7786,7 +7795,7 @@
         <v>505</v>
       </c>
       <c r="Z24" s="28" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="AA24" s="28">
         <v>2</v>
@@ -7816,7 +7825,7 @@
       <c r="AJ24" s="28"/>
       <c r="AK24" s="28"/>
       <c r="AL24" s="28" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="AM24" s="28" t="s">
         <v>234</v>
@@ -7825,7 +7834,7 @@
         <v>162</v>
       </c>
       <c r="AO24" s="28" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="AP24" s="28"/>
       <c r="AQ24" s="28" t="s">
@@ -7841,7 +7850,7 @@
         <v>500</v>
       </c>
       <c r="AU24" s="28" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="AV24" s="28" t="s">
         <v>205</v>
@@ -7850,7 +7859,7 @@
         <v>212</v>
       </c>
       <c r="AX24" s="28" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
     </row>
     <row r="25" spans="1:50" s="16" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.35">
@@ -7926,7 +7935,7 @@
       </c>
       <c r="Y25" s="43"/>
       <c r="Z25" s="43" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="AA25" s="43">
         <v>2</v>
@@ -7946,23 +7955,27 @@
         <v>111</v>
       </c>
       <c r="AH25" s="43" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="AI25" s="43" t="s">
-        <v>146</v>
-      </c>
-      <c r="AJ25" s="43"/>
+        <v>142</v>
+      </c>
+      <c r="AJ25" s="43" t="s">
+        <v>159</v>
+      </c>
       <c r="AK25" s="43"/>
-      <c r="AL25" s="43"/>
+      <c r="AL25" s="43" t="s">
+        <v>635</v>
+      </c>
       <c r="AM25" s="43" t="s">
         <v>235</v>
       </c>
       <c r="AN25" s="43"/>
       <c r="AO25" s="43" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="AP25" s="43" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="AQ25" s="43" t="s">
         <v>166</v>
@@ -7974,893 +7987,885 @@
         <v>178</v>
       </c>
       <c r="AT25" s="43" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="AU25" s="43" t="s">
         <v>494</v>
       </c>
       <c r="AV25" s="43" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="AW25" s="43" t="s">
         <v>210</v>
       </c>
       <c r="AX25" s="40" t="s">
-        <v>528</v>
+        <v>634</v>
       </c>
     </row>
-    <row r="26" spans="1:50" s="10" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="52" t="s">
-        <v>401</v>
-      </c>
-      <c r="B26" s="52" t="s">
+    <row r="26" spans="1:50" s="16" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A26" s="41" t="s">
+        <v>393</v>
+      </c>
+      <c r="B26" s="41" t="s">
         <v>245</v>
       </c>
-      <c r="C26" s="52" t="s">
-        <v>402</v>
-      </c>
-      <c r="D26" s="52" t="s">
-        <v>403</v>
-      </c>
-      <c r="E26" s="53">
+      <c r="C26" s="41" t="s">
+        <v>394</v>
+      </c>
+      <c r="D26" s="41" t="s">
+        <v>395</v>
+      </c>
+      <c r="E26" s="42">
         <v>2001</v>
       </c>
-      <c r="F26" s="54" t="s">
-        <v>404</v>
-      </c>
-      <c r="G26" s="54" t="s">
-        <v>405</v>
-      </c>
-      <c r="H26" s="52" t="s">
-        <v>275</v>
-      </c>
-      <c r="I26" s="54" t="s">
-        <v>275</v>
-      </c>
-      <c r="J26" s="54" t="s">
-        <v>406</v>
-      </c>
-      <c r="K26" s="52" t="s">
-        <v>407</v>
-      </c>
-      <c r="L26" s="52" t="s">
+      <c r="F26" s="43" t="s">
+        <v>396</v>
+      </c>
+      <c r="G26" s="43" t="s">
+        <v>295</v>
+      </c>
+      <c r="H26" s="41" t="s">
+        <v>265</v>
+      </c>
+      <c r="I26" s="43" t="s">
+        <v>397</v>
+      </c>
+      <c r="J26" s="43" t="s">
+        <v>398</v>
+      </c>
+      <c r="K26" s="41" t="s">
+        <v>399</v>
+      </c>
+      <c r="L26" s="41" t="s">
         <v>254</v>
       </c>
-      <c r="M26" s="54" t="s">
-        <v>408</v>
-      </c>
-      <c r="N26" s="54" t="s">
+      <c r="M26" s="43" t="s">
+        <v>400</v>
+      </c>
+      <c r="N26" s="43" t="s">
         <v>256</v>
       </c>
-      <c r="O26" s="54" t="s">
+      <c r="O26" s="43" t="s">
         <v>257</v>
       </c>
-      <c r="P26" s="54" t="s">
+      <c r="P26" s="43" t="s">
         <v>254</v>
       </c>
-      <c r="Q26" s="54" t="s">
+      <c r="Q26" s="43" t="s">
         <v>21</v>
       </c>
-      <c r="R26" s="54"/>
-      <c r="S26" s="54" t="s">
-        <v>31</v>
-      </c>
-      <c r="T26" s="54" t="s">
-        <v>41</v>
-      </c>
-      <c r="U26" s="54" t="s">
-        <v>49</v>
-      </c>
-      <c r="V26" s="54" t="s">
-        <v>40</v>
-      </c>
-      <c r="W26" s="54" t="s">
-        <v>48</v>
-      </c>
-      <c r="X26" s="54" t="s">
-        <v>72</v>
-      </c>
-      <c r="Y26" s="54"/>
-      <c r="Z26" s="54" t="s">
-        <v>624</v>
-      </c>
-      <c r="AA26" s="54">
+      <c r="R26" s="43"/>
+      <c r="S26" s="43" t="s">
+        <v>24</v>
+      </c>
+      <c r="T26" s="43" t="s">
+        <v>46</v>
+      </c>
+      <c r="U26" s="43" t="s">
+        <v>55</v>
+      </c>
+      <c r="V26" s="43" t="s">
+        <v>45</v>
+      </c>
+      <c r="W26" s="43" t="s">
+        <v>55</v>
+      </c>
+      <c r="X26" s="43" t="s">
+        <v>218</v>
+      </c>
+      <c r="Y26" s="43"/>
+      <c r="Z26" s="43" t="s">
+        <v>621</v>
+      </c>
+      <c r="AA26" s="43">
         <v>2</v>
       </c>
-      <c r="AB26" s="54">
+      <c r="AB26" s="43">
         <v>2</v>
       </c>
-      <c r="AC26" s="54">
+      <c r="AC26" s="43">
         <v>3</v>
       </c>
-      <c r="AD26" s="54" t="s">
-        <v>503</v>
-      </c>
-      <c r="AE26" s="54"/>
-      <c r="AF26" s="54" t="s">
-        <v>319</v>
-      </c>
-      <c r="AG26" s="54" t="s">
-        <v>109</v>
-      </c>
-      <c r="AH26" s="54" t="s">
-        <v>119</v>
-      </c>
-      <c r="AI26" s="54" t="s">
-        <v>149</v>
-      </c>
-      <c r="AJ26" s="54"/>
-      <c r="AK26" s="54"/>
-      <c r="AL26" s="54" t="s">
-        <v>502</v>
-      </c>
-      <c r="AM26" s="54" t="s">
-        <v>234</v>
-      </c>
-      <c r="AN26" s="54" t="s">
-        <v>162</v>
-      </c>
-      <c r="AO26" s="54" t="s">
-        <v>581</v>
-      </c>
-      <c r="AP26" s="54"/>
-      <c r="AQ26" s="54" t="s">
-        <v>167</v>
-      </c>
-      <c r="AR26" s="54" t="s">
-        <v>175</v>
-      </c>
-      <c r="AS26" s="54"/>
-      <c r="AT26" s="54" t="s">
-        <v>502</v>
-      </c>
-      <c r="AU26" s="54" t="s">
-        <v>583</v>
-      </c>
-      <c r="AV26" s="54" t="s">
-        <v>201</v>
-      </c>
-      <c r="AW26" s="54" t="s">
+      <c r="AD26" s="43"/>
+      <c r="AE26" s="43"/>
+      <c r="AF26" s="43" t="s">
+        <v>290</v>
+      </c>
+      <c r="AG26" s="43" t="s">
+        <v>111</v>
+      </c>
+      <c r="AH26" s="43" t="s">
+        <v>122</v>
+      </c>
+      <c r="AI26" s="43" t="s">
+        <v>142</v>
+      </c>
+      <c r="AJ26" s="43" t="s">
+        <v>115</v>
+      </c>
+      <c r="AK26" s="43"/>
+      <c r="AL26" s="43" t="s">
+        <v>635</v>
+      </c>
+      <c r="AM26" s="43" t="s">
+        <v>235</v>
+      </c>
+      <c r="AN26" s="43"/>
+      <c r="AO26" s="43" t="s">
+        <v>579</v>
+      </c>
+      <c r="AP26" s="43" t="s">
+        <v>577</v>
+      </c>
+      <c r="AQ26" s="43" t="s">
+        <v>166</v>
+      </c>
+      <c r="AR26" s="43" t="s">
+        <v>241</v>
+      </c>
+      <c r="AS26" s="43" t="s">
+        <v>178</v>
+      </c>
+      <c r="AT26" s="43" t="s">
+        <v>578</v>
+      </c>
+      <c r="AU26" s="43" t="s">
+        <v>494</v>
+      </c>
+      <c r="AV26" s="43" t="s">
+        <v>207</v>
+      </c>
+      <c r="AW26" s="43" t="s">
         <v>210</v>
       </c>
-      <c r="AX26" s="54" t="s">
-        <v>582</v>
+      <c r="AX26" s="40" t="s">
+        <v>634</v>
       </c>
     </row>
-    <row r="27" spans="1:50" s="10" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="52" t="s">
-        <v>409</v>
-      </c>
-      <c r="B27" s="52" t="s">
+    <row r="27" spans="1:50" s="16" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A27" s="41" t="s">
+        <v>393</v>
+      </c>
+      <c r="B27" s="41" t="s">
         <v>245</v>
       </c>
-      <c r="C27" s="52" t="s">
-        <v>410</v>
-      </c>
-      <c r="D27" s="52" t="s">
-        <v>411</v>
-      </c>
-      <c r="E27" s="53">
-        <v>2000</v>
-      </c>
-      <c r="F27" s="54" t="s">
-        <v>412</v>
-      </c>
-      <c r="G27" s="54" t="s">
-        <v>413</v>
-      </c>
-      <c r="H27" s="52" t="s">
-        <v>371</v>
-      </c>
-      <c r="I27" s="54" t="s">
-        <v>414</v>
-      </c>
-      <c r="J27" s="54" t="s">
-        <v>415</v>
-      </c>
-      <c r="K27" s="52" t="s">
-        <v>416</v>
-      </c>
-      <c r="L27" s="52" t="s">
+      <c r="C27" s="41" t="s">
+        <v>394</v>
+      </c>
+      <c r="D27" s="41" t="s">
+        <v>395</v>
+      </c>
+      <c r="E27" s="42">
+        <v>2001</v>
+      </c>
+      <c r="F27" s="43" t="s">
+        <v>396</v>
+      </c>
+      <c r="G27" s="43" t="s">
+        <v>295</v>
+      </c>
+      <c r="H27" s="41" t="s">
+        <v>265</v>
+      </c>
+      <c r="I27" s="43" t="s">
+        <v>397</v>
+      </c>
+      <c r="J27" s="43" t="s">
+        <v>398</v>
+      </c>
+      <c r="K27" s="41" t="s">
+        <v>399</v>
+      </c>
+      <c r="L27" s="41" t="s">
         <v>254</v>
       </c>
-      <c r="M27" s="54" t="s">
-        <v>417</v>
-      </c>
-      <c r="N27" s="54" t="s">
+      <c r="M27" s="43" t="s">
+        <v>400</v>
+      </c>
+      <c r="N27" s="43" t="s">
         <v>256</v>
       </c>
-      <c r="O27" s="54" t="s">
-        <v>318</v>
-      </c>
-      <c r="P27" s="54" t="s">
-        <v>258</v>
-      </c>
-      <c r="Q27" s="54" t="s">
+      <c r="O27" s="43" t="s">
+        <v>257</v>
+      </c>
+      <c r="P27" s="43" t="s">
+        <v>254</v>
+      </c>
+      <c r="Q27" s="43" t="s">
         <v>21</v>
       </c>
-      <c r="R27" s="54"/>
-      <c r="S27" s="54" t="s">
-        <v>26</v>
-      </c>
-      <c r="T27" s="54" t="s">
-        <v>39</v>
-      </c>
-      <c r="U27" s="54" t="s">
-        <v>49</v>
-      </c>
-      <c r="V27" s="54" t="s">
-        <v>38</v>
-      </c>
-      <c r="W27" s="54" t="s">
-        <v>48</v>
-      </c>
-      <c r="X27" s="54" t="s">
+      <c r="R27" s="43"/>
+      <c r="S27" s="43" t="s">
+        <v>24</v>
+      </c>
+      <c r="T27" s="43" t="s">
+        <v>46</v>
+      </c>
+      <c r="U27" s="43" t="s">
+        <v>55</v>
+      </c>
+      <c r="V27" s="43" t="s">
+        <v>45</v>
+      </c>
+      <c r="W27" s="43" t="s">
+        <v>55</v>
+      </c>
+      <c r="X27" s="43" t="s">
         <v>218</v>
       </c>
-      <c r="Y27" s="54" t="s">
-        <v>506</v>
-      </c>
-      <c r="Z27" s="54" t="s">
-        <v>625</v>
-      </c>
-      <c r="AA27" s="54">
+      <c r="Y27" s="43"/>
+      <c r="Z27" s="43" t="s">
+        <v>621</v>
+      </c>
+      <c r="AA27" s="43">
         <v>2</v>
       </c>
-      <c r="AB27" s="54">
+      <c r="AB27" s="43">
         <v>2</v>
       </c>
-      <c r="AC27" s="54">
+      <c r="AC27" s="43">
         <v>3</v>
       </c>
-      <c r="AD27" s="54" t="s">
-        <v>504</v>
-      </c>
-      <c r="AE27" s="54"/>
-      <c r="AF27" s="54" t="s">
-        <v>259</v>
-      </c>
-      <c r="AG27" s="54" t="s">
-        <v>109</v>
-      </c>
-      <c r="AH27" s="54" t="s">
+      <c r="AD27" s="43"/>
+      <c r="AE27" s="43"/>
+      <c r="AF27" s="43" t="s">
+        <v>290</v>
+      </c>
+      <c r="AG27" s="43" t="s">
+        <v>111</v>
+      </c>
+      <c r="AH27" s="43" t="s">
         <v>122</v>
       </c>
-      <c r="AI27" s="54" t="s">
+      <c r="AI27" s="43" t="s">
         <v>142</v>
       </c>
-      <c r="AJ27" s="54"/>
-      <c r="AK27" s="54" t="s">
-        <v>143</v>
-      </c>
-      <c r="AL27" s="54" t="s">
-        <v>585</v>
-      </c>
-      <c r="AM27" s="54" t="s">
+      <c r="AJ27" s="43" t="s">
+        <v>115</v>
+      </c>
+      <c r="AK27" s="43"/>
+      <c r="AL27" s="43" t="s">
+        <v>636</v>
+      </c>
+      <c r="AM27" s="43" t="s">
         <v>235</v>
       </c>
-      <c r="AN27" s="54"/>
-      <c r="AO27" s="54" t="s">
-        <v>602</v>
-      </c>
-      <c r="AP27" s="54"/>
-      <c r="AQ27" s="54" t="s">
+      <c r="AN27" s="43"/>
+      <c r="AO27" s="43" t="s">
+        <v>579</v>
+      </c>
+      <c r="AP27" s="43" t="s">
+        <v>577</v>
+      </c>
+      <c r="AQ27" s="43" t="s">
         <v>166</v>
       </c>
-      <c r="AR27" s="54" t="s">
+      <c r="AR27" s="43" t="s">
         <v>241</v>
       </c>
-      <c r="AS27" s="54"/>
-      <c r="AT27" s="54" t="s">
-        <v>584</v>
-      </c>
-      <c r="AU27" s="54" t="s">
-        <v>586</v>
-      </c>
-      <c r="AV27" s="54" t="s">
-        <v>201</v>
-      </c>
-      <c r="AW27" s="54" t="s">
-        <v>210</v>
-      </c>
-      <c r="AX27" s="54" t="s">
-        <v>529</v>
+      <c r="AS27" s="43" t="s">
+        <v>178</v>
+      </c>
+      <c r="AT27" s="43" t="s">
+        <v>578</v>
+      </c>
+      <c r="AU27" s="43" t="s">
+        <v>494</v>
+      </c>
+      <c r="AV27" s="43" t="s">
+        <v>207</v>
+      </c>
+      <c r="AW27" s="43" t="s">
+        <v>212</v>
+      </c>
+      <c r="AX27" s="40" t="s">
+        <v>633</v>
       </c>
     </row>
     <row r="28" spans="1:50" s="10" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="29" t="s">
-        <v>409</v>
-      </c>
-      <c r="B28" s="29" t="s">
+      <c r="A28" s="52" t="s">
+        <v>401</v>
+      </c>
+      <c r="B28" s="52" t="s">
         <v>245</v>
       </c>
-      <c r="C28" s="29" t="s">
-        <v>410</v>
-      </c>
-      <c r="D28" s="29" t="s">
-        <v>411</v>
-      </c>
-      <c r="E28" s="30">
-        <v>2000</v>
-      </c>
-      <c r="F28" s="28" t="s">
-        <v>412</v>
-      </c>
-      <c r="G28" s="28" t="s">
-        <v>413</v>
-      </c>
-      <c r="H28" s="29" t="s">
-        <v>371</v>
-      </c>
-      <c r="I28" s="28" t="s">
-        <v>414</v>
-      </c>
-      <c r="J28" s="28" t="s">
-        <v>415</v>
-      </c>
-      <c r="K28" s="29" t="s">
-        <v>416</v>
-      </c>
-      <c r="L28" s="29" t="s">
+      <c r="C28" s="52" t="s">
+        <v>402</v>
+      </c>
+      <c r="D28" s="52" t="s">
+        <v>403</v>
+      </c>
+      <c r="E28" s="53">
+        <v>2001</v>
+      </c>
+      <c r="F28" s="54" t="s">
+        <v>404</v>
+      </c>
+      <c r="G28" s="54" t="s">
+        <v>405</v>
+      </c>
+      <c r="H28" s="52" t="s">
+        <v>275</v>
+      </c>
+      <c r="I28" s="54" t="s">
+        <v>275</v>
+      </c>
+      <c r="J28" s="54" t="s">
+        <v>406</v>
+      </c>
+      <c r="K28" s="52" t="s">
+        <v>407</v>
+      </c>
+      <c r="L28" s="52" t="s">
         <v>254</v>
       </c>
-      <c r="M28" s="28" t="s">
-        <v>417</v>
-      </c>
-      <c r="N28" s="28" t="s">
+      <c r="M28" s="54" t="s">
+        <v>408</v>
+      </c>
+      <c r="N28" s="54" t="s">
         <v>256</v>
       </c>
-      <c r="O28" s="28" t="s">
-        <v>318</v>
-      </c>
-      <c r="P28" s="28" t="s">
-        <v>258</v>
-      </c>
-      <c r="Q28" s="28" t="s">
+      <c r="O28" s="54" t="s">
+        <v>257</v>
+      </c>
+      <c r="P28" s="54" t="s">
+        <v>254</v>
+      </c>
+      <c r="Q28" s="54" t="s">
         <v>21</v>
       </c>
-      <c r="R28" s="28"/>
-      <c r="S28" s="28" t="s">
-        <v>26</v>
-      </c>
-      <c r="T28" s="28" t="s">
-        <v>39</v>
-      </c>
-      <c r="U28" s="28" t="s">
+      <c r="R28" s="54"/>
+      <c r="S28" s="54" t="s">
+        <v>31</v>
+      </c>
+      <c r="T28" s="54" t="s">
+        <v>41</v>
+      </c>
+      <c r="U28" s="54" t="s">
         <v>49</v>
       </c>
-      <c r="V28" s="28" t="s">
-        <v>38</v>
-      </c>
-      <c r="W28" s="28" t="s">
+      <c r="V28" s="54" t="s">
+        <v>40</v>
+      </c>
+      <c r="W28" s="54" t="s">
         <v>48</v>
       </c>
-      <c r="X28" s="28" t="s">
-        <v>218</v>
-      </c>
-      <c r="Y28" s="28" t="s">
-        <v>506</v>
-      </c>
-      <c r="Z28" s="28" t="s">
-        <v>625</v>
-      </c>
-      <c r="AA28" s="28">
+      <c r="X28" s="54" t="s">
+        <v>72</v>
+      </c>
+      <c r="Y28" s="54"/>
+      <c r="Z28" s="54" t="s">
+        <v>623</v>
+      </c>
+      <c r="AA28" s="54">
         <v>2</v>
       </c>
-      <c r="AB28" s="28">
+      <c r="AB28" s="54">
         <v>2</v>
       </c>
-      <c r="AC28" s="28">
+      <c r="AC28" s="54">
         <v>3</v>
       </c>
-      <c r="AD28" s="28" t="s">
-        <v>504</v>
-      </c>
-      <c r="AE28" s="28"/>
-      <c r="AF28" s="28" t="s">
-        <v>259</v>
-      </c>
-      <c r="AG28" s="28" t="s">
+      <c r="AD28" s="54" t="s">
+        <v>503</v>
+      </c>
+      <c r="AE28" s="54"/>
+      <c r="AF28" s="54" t="s">
+        <v>319</v>
+      </c>
+      <c r="AG28" s="54" t="s">
         <v>109</v>
       </c>
-      <c r="AH28" s="28" t="s">
-        <v>122</v>
-      </c>
-      <c r="AI28" s="28" t="s">
-        <v>142</v>
-      </c>
-      <c r="AJ28" s="28"/>
-      <c r="AK28" s="28" t="s">
-        <v>143</v>
-      </c>
-      <c r="AL28" s="28" t="s">
-        <v>585</v>
-      </c>
-      <c r="AM28" s="28" t="s">
-        <v>235</v>
-      </c>
-      <c r="AN28" s="28"/>
-      <c r="AO28" s="28" t="s">
-        <v>603</v>
-      </c>
-      <c r="AP28" s="28"/>
-      <c r="AQ28" s="28" t="s">
-        <v>166</v>
-      </c>
-      <c r="AR28" s="28" t="s">
-        <v>241</v>
-      </c>
-      <c r="AS28" s="28"/>
-      <c r="AT28" s="28" t="s">
-        <v>584</v>
-      </c>
-      <c r="AU28" s="28" t="s">
-        <v>586</v>
-      </c>
-      <c r="AV28" s="28" t="s">
+      <c r="AH28" s="54" t="s">
+        <v>119</v>
+      </c>
+      <c r="AI28" s="54" t="s">
+        <v>149</v>
+      </c>
+      <c r="AJ28" s="54"/>
+      <c r="AK28" s="54"/>
+      <c r="AL28" s="54" t="s">
+        <v>502</v>
+      </c>
+      <c r="AM28" s="54" t="s">
+        <v>234</v>
+      </c>
+      <c r="AN28" s="54" t="s">
+        <v>162</v>
+      </c>
+      <c r="AO28" s="54" t="s">
+        <v>580</v>
+      </c>
+      <c r="AP28" s="54"/>
+      <c r="AQ28" s="54" t="s">
+        <v>167</v>
+      </c>
+      <c r="AR28" s="54" t="s">
+        <v>175</v>
+      </c>
+      <c r="AS28" s="54"/>
+      <c r="AT28" s="54" t="s">
+        <v>502</v>
+      </c>
+      <c r="AU28" s="54" t="s">
+        <v>582</v>
+      </c>
+      <c r="AV28" s="54" t="s">
         <v>201</v>
       </c>
-      <c r="AW28" s="28" t="s">
+      <c r="AW28" s="54" t="s">
         <v>210</v>
       </c>
-      <c r="AX28" s="28" t="s">
-        <v>529</v>
+      <c r="AX28" s="54" t="s">
+        <v>581</v>
       </c>
     </row>
     <row r="29" spans="1:50" s="10" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="44" t="s">
-        <v>418</v>
-      </c>
-      <c r="B29" s="44" t="s">
+      <c r="A29" s="52" t="s">
+        <v>409</v>
+      </c>
+      <c r="B29" s="52" t="s">
         <v>245</v>
       </c>
-      <c r="C29" s="44" t="s">
-        <v>419</v>
-      </c>
-      <c r="D29" s="44" t="s">
-        <v>420</v>
-      </c>
-      <c r="E29" s="45">
+      <c r="C29" s="52" t="s">
+        <v>410</v>
+      </c>
+      <c r="D29" s="52" t="s">
+        <v>411</v>
+      </c>
+      <c r="E29" s="53">
         <v>2000</v>
       </c>
-      <c r="F29" s="46" t="s">
+      <c r="F29" s="54" t="s">
         <v>412</v>
       </c>
-      <c r="G29" s="46" t="s">
+      <c r="G29" s="54" t="s">
         <v>413</v>
       </c>
-      <c r="H29" s="44" t="s">
+      <c r="H29" s="52" t="s">
         <v>371</v>
       </c>
-      <c r="I29" s="46" t="s">
-        <v>421</v>
-      </c>
-      <c r="J29" s="46" t="s">
-        <v>422</v>
-      </c>
-      <c r="K29" s="44" t="s">
-        <v>423</v>
-      </c>
-      <c r="L29" s="44" t="s">
+      <c r="I29" s="54" t="s">
+        <v>414</v>
+      </c>
+      <c r="J29" s="54" t="s">
+        <v>415</v>
+      </c>
+      <c r="K29" s="52" t="s">
+        <v>416</v>
+      </c>
+      <c r="L29" s="52" t="s">
         <v>254</v>
       </c>
-      <c r="M29" s="46" t="s">
-        <v>424</v>
-      </c>
-      <c r="N29" s="46" t="s">
+      <c r="M29" s="54" t="s">
+        <v>417</v>
+      </c>
+      <c r="N29" s="54" t="s">
         <v>256</v>
       </c>
-      <c r="O29" s="46" t="s">
+      <c r="O29" s="54" t="s">
         <v>318</v>
       </c>
-      <c r="P29" s="46" t="s">
+      <c r="P29" s="54" t="s">
         <v>258</v>
       </c>
-      <c r="Q29" s="46" t="s">
+      <c r="Q29" s="54" t="s">
         <v>21</v>
       </c>
-      <c r="R29" s="46" t="s">
-        <v>84</v>
-      </c>
-      <c r="S29" s="46"/>
-      <c r="T29" s="46"/>
-      <c r="U29" s="46"/>
-      <c r="V29" s="46"/>
-      <c r="W29" s="46"/>
-      <c r="X29" s="46"/>
-      <c r="Y29" s="46"/>
-      <c r="Z29" s="46"/>
-      <c r="AA29" s="46"/>
-      <c r="AB29" s="46"/>
-      <c r="AC29" s="46"/>
-      <c r="AD29" s="46"/>
-      <c r="AE29" s="46"/>
-      <c r="AF29" s="46" t="s">
-        <v>290</v>
-      </c>
-      <c r="AG29" s="46"/>
-      <c r="AH29" s="46"/>
-      <c r="AI29" s="46"/>
-      <c r="AJ29" s="46"/>
-      <c r="AK29" s="46"/>
-      <c r="AL29" s="46"/>
-      <c r="AM29" s="46"/>
-      <c r="AN29" s="46"/>
-      <c r="AO29" s="46"/>
-      <c r="AP29" s="46"/>
-      <c r="AQ29" s="46"/>
-      <c r="AR29" s="46"/>
-      <c r="AS29" s="46"/>
-      <c r="AT29" s="46"/>
-      <c r="AU29" s="46"/>
-      <c r="AV29" s="46"/>
-      <c r="AW29" s="46"/>
-      <c r="AX29" s="46"/>
+      <c r="R29" s="54"/>
+      <c r="S29" s="54" t="s">
+        <v>26</v>
+      </c>
+      <c r="T29" s="54" t="s">
+        <v>39</v>
+      </c>
+      <c r="U29" s="54" t="s">
+        <v>49</v>
+      </c>
+      <c r="V29" s="54" t="s">
+        <v>38</v>
+      </c>
+      <c r="W29" s="54" t="s">
+        <v>48</v>
+      </c>
+      <c r="X29" s="54" t="s">
+        <v>218</v>
+      </c>
+      <c r="Y29" s="54" t="s">
+        <v>506</v>
+      </c>
+      <c r="Z29" s="54" t="s">
+        <v>624</v>
+      </c>
+      <c r="AA29" s="54">
+        <v>2</v>
+      </c>
+      <c r="AB29" s="54">
+        <v>2</v>
+      </c>
+      <c r="AC29" s="54">
+        <v>3</v>
+      </c>
+      <c r="AD29" s="54" t="s">
+        <v>504</v>
+      </c>
+      <c r="AE29" s="54"/>
+      <c r="AF29" s="54" t="s">
+        <v>259</v>
+      </c>
+      <c r="AG29" s="54" t="s">
+        <v>109</v>
+      </c>
+      <c r="AH29" s="54" t="s">
+        <v>122</v>
+      </c>
+      <c r="AI29" s="54" t="s">
+        <v>142</v>
+      </c>
+      <c r="AJ29" s="54"/>
+      <c r="AK29" s="54" t="s">
+        <v>143</v>
+      </c>
+      <c r="AL29" s="54" t="s">
+        <v>584</v>
+      </c>
+      <c r="AM29" s="54" t="s">
+        <v>235</v>
+      </c>
+      <c r="AN29" s="54"/>
+      <c r="AO29" s="54" t="s">
+        <v>601</v>
+      </c>
+      <c r="AP29" s="54"/>
+      <c r="AQ29" s="54" t="s">
+        <v>166</v>
+      </c>
+      <c r="AR29" s="54" t="s">
+        <v>241</v>
+      </c>
+      <c r="AS29" s="54"/>
+      <c r="AT29" s="54" t="s">
+        <v>583</v>
+      </c>
+      <c r="AU29" s="54" t="s">
+        <v>585</v>
+      </c>
+      <c r="AV29" s="54" t="s">
+        <v>201</v>
+      </c>
+      <c r="AW29" s="54" t="s">
+        <v>210</v>
+      </c>
+      <c r="AX29" s="54" t="s">
+        <v>528</v>
+      </c>
     </row>
     <row r="30" spans="1:50" s="10" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A30" s="52" t="s">
-        <v>425</v>
-      </c>
-      <c r="B30" s="52" t="s">
+      <c r="A30" s="29" t="s">
+        <v>409</v>
+      </c>
+      <c r="B30" s="29" t="s">
         <v>245</v>
       </c>
-      <c r="C30" s="52" t="s">
-        <v>426</v>
-      </c>
-      <c r="D30" s="52" t="s">
-        <v>427</v>
-      </c>
-      <c r="E30" s="53">
-        <v>1999</v>
-      </c>
-      <c r="F30" s="54" t="s">
-        <v>342</v>
-      </c>
-      <c r="G30" s="54" t="s">
-        <v>249</v>
-      </c>
-      <c r="H30" s="52" t="s">
-        <v>388</v>
-      </c>
-      <c r="I30" s="54" t="s">
-        <v>428</v>
-      </c>
-      <c r="J30" s="54" t="s">
-        <v>429</v>
-      </c>
-      <c r="K30" s="52" t="s">
-        <v>430</v>
-      </c>
-      <c r="L30" s="52" t="s">
+      <c r="C30" s="29" t="s">
+        <v>410</v>
+      </c>
+      <c r="D30" s="29" t="s">
+        <v>411</v>
+      </c>
+      <c r="E30" s="30">
+        <v>2000</v>
+      </c>
+      <c r="F30" s="28" t="s">
+        <v>412</v>
+      </c>
+      <c r="G30" s="28" t="s">
+        <v>413</v>
+      </c>
+      <c r="H30" s="29" t="s">
+        <v>371</v>
+      </c>
+      <c r="I30" s="28" t="s">
+        <v>414</v>
+      </c>
+      <c r="J30" s="28" t="s">
+        <v>415</v>
+      </c>
+      <c r="K30" s="29" t="s">
+        <v>416</v>
+      </c>
+      <c r="L30" s="29" t="s">
         <v>254</v>
       </c>
-      <c r="M30" s="54" t="s">
-        <v>431</v>
-      </c>
-      <c r="N30" s="54" t="s">
+      <c r="M30" s="28" t="s">
+        <v>417</v>
+      </c>
+      <c r="N30" s="28" t="s">
         <v>256</v>
       </c>
-      <c r="O30" s="54" t="s">
+      <c r="O30" s="28" t="s">
         <v>318</v>
       </c>
-      <c r="P30" s="54" t="s">
-        <v>350</v>
-      </c>
-      <c r="Q30" s="54" t="s">
+      <c r="P30" s="28" t="s">
+        <v>258</v>
+      </c>
+      <c r="Q30" s="28" t="s">
         <v>21</v>
       </c>
-      <c r="R30" s="54"/>
-      <c r="S30" s="54" t="s">
-        <v>31</v>
-      </c>
-      <c r="T30" s="54" t="s">
-        <v>44</v>
-      </c>
-      <c r="U30" s="54" t="s">
-        <v>56</v>
-      </c>
-      <c r="V30" s="54" t="s">
-        <v>40</v>
-      </c>
-      <c r="W30" s="54" t="s">
-        <v>50</v>
-      </c>
-      <c r="X30" s="54" t="s">
+      <c r="R30" s="28"/>
+      <c r="S30" s="28" t="s">
+        <v>26</v>
+      </c>
+      <c r="T30" s="28" t="s">
+        <v>39</v>
+      </c>
+      <c r="U30" s="28" t="s">
+        <v>49</v>
+      </c>
+      <c r="V30" s="28" t="s">
+        <v>38</v>
+      </c>
+      <c r="W30" s="28" t="s">
+        <v>48</v>
+      </c>
+      <c r="X30" s="28" t="s">
         <v>218</v>
       </c>
-      <c r="Y30" s="54" t="s">
-        <v>508</v>
-      </c>
-      <c r="Z30" s="54" t="s">
-        <v>626</v>
-      </c>
-      <c r="AA30" s="54">
+      <c r="Y30" s="28" t="s">
+        <v>506</v>
+      </c>
+      <c r="Z30" s="28" t="s">
+        <v>624</v>
+      </c>
+      <c r="AA30" s="28">
         <v>2</v>
       </c>
-      <c r="AB30" s="54">
+      <c r="AB30" s="28">
         <v>2</v>
       </c>
-      <c r="AC30" s="54">
+      <c r="AC30" s="28">
         <v>3</v>
       </c>
-      <c r="AD30" s="54" t="s">
-        <v>507</v>
-      </c>
-      <c r="AE30" s="54"/>
-      <c r="AF30" s="54" t="s">
-        <v>290</v>
-      </c>
-      <c r="AG30" s="54" t="s">
+      <c r="AD30" s="28" t="s">
+        <v>504</v>
+      </c>
+      <c r="AE30" s="28"/>
+      <c r="AF30" s="28" t="s">
+        <v>259</v>
+      </c>
+      <c r="AG30" s="28" t="s">
         <v>109</v>
       </c>
-      <c r="AH30" s="54" t="s">
-        <v>119</v>
-      </c>
-      <c r="AI30" s="54" t="s">
-        <v>149</v>
-      </c>
-      <c r="AJ30" s="54"/>
-      <c r="AK30" s="54"/>
-      <c r="AL30" s="54" t="s">
-        <v>590</v>
-      </c>
-      <c r="AM30" s="54" t="s">
-        <v>234</v>
-      </c>
-      <c r="AN30" s="54" t="s">
-        <v>162</v>
-      </c>
-      <c r="AO30" s="54" t="s">
-        <v>589</v>
-      </c>
-      <c r="AP30" s="54" t="s">
-        <v>587</v>
-      </c>
-      <c r="AQ30" s="54" t="s">
+      <c r="AH30" s="28" t="s">
+        <v>122</v>
+      </c>
+      <c r="AI30" s="28" t="s">
+        <v>142</v>
+      </c>
+      <c r="AJ30" s="28"/>
+      <c r="AK30" s="28" t="s">
+        <v>143</v>
+      </c>
+      <c r="AL30" s="28" t="s">
+        <v>584</v>
+      </c>
+      <c r="AM30" s="28" t="s">
+        <v>235</v>
+      </c>
+      <c r="AN30" s="28"/>
+      <c r="AO30" s="28" t="s">
+        <v>602</v>
+      </c>
+      <c r="AP30" s="28"/>
+      <c r="AQ30" s="28" t="s">
         <v>166</v>
       </c>
-      <c r="AR30" s="54" t="s">
-        <v>171</v>
-      </c>
-      <c r="AS30" s="54" t="s">
-        <v>183</v>
-      </c>
-      <c r="AT30" s="54" t="s">
-        <v>588</v>
-      </c>
-      <c r="AU30" s="54" t="s">
-        <v>509</v>
-      </c>
-      <c r="AV30" s="54" t="s">
-        <v>208</v>
-      </c>
-      <c r="AW30" s="54" t="s">
-        <v>209</v>
-      </c>
-      <c r="AX30" s="54" t="s">
-        <v>510</v>
+      <c r="AR30" s="28" t="s">
+        <v>241</v>
+      </c>
+      <c r="AS30" s="28"/>
+      <c r="AT30" s="28" t="s">
+        <v>583</v>
+      </c>
+      <c r="AU30" s="28" t="s">
+        <v>585</v>
+      </c>
+      <c r="AV30" s="28" t="s">
+        <v>201</v>
+      </c>
+      <c r="AW30" s="28" t="s">
+        <v>210</v>
+      </c>
+      <c r="AX30" s="28" t="s">
+        <v>528</v>
       </c>
     </row>
     <row r="31" spans="1:50" s="10" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A31" s="29" t="s">
+      <c r="A31" s="44" t="s">
+        <v>418</v>
+      </c>
+      <c r="B31" s="44" t="s">
+        <v>245</v>
+      </c>
+      <c r="C31" s="44" t="s">
+        <v>419</v>
+      </c>
+      <c r="D31" s="44" t="s">
+        <v>420</v>
+      </c>
+      <c r="E31" s="45">
+        <v>2000</v>
+      </c>
+      <c r="F31" s="46" t="s">
+        <v>412</v>
+      </c>
+      <c r="G31" s="46" t="s">
+        <v>413</v>
+      </c>
+      <c r="H31" s="44" t="s">
+        <v>371</v>
+      </c>
+      <c r="I31" s="46" t="s">
+        <v>421</v>
+      </c>
+      <c r="J31" s="46" t="s">
+        <v>422</v>
+      </c>
+      <c r="K31" s="44" t="s">
+        <v>423</v>
+      </c>
+      <c r="L31" s="44" t="s">
+        <v>254</v>
+      </c>
+      <c r="M31" s="46" t="s">
+        <v>424</v>
+      </c>
+      <c r="N31" s="46" t="s">
+        <v>256</v>
+      </c>
+      <c r="O31" s="46" t="s">
+        <v>318</v>
+      </c>
+      <c r="P31" s="46" t="s">
+        <v>258</v>
+      </c>
+      <c r="Q31" s="46" t="s">
+        <v>21</v>
+      </c>
+      <c r="R31" s="46" t="s">
+        <v>84</v>
+      </c>
+      <c r="S31" s="46"/>
+      <c r="T31" s="46"/>
+      <c r="U31" s="46"/>
+      <c r="V31" s="46"/>
+      <c r="W31" s="46"/>
+      <c r="X31" s="46"/>
+      <c r="Y31" s="46"/>
+      <c r="Z31" s="46"/>
+      <c r="AA31" s="46"/>
+      <c r="AB31" s="46"/>
+      <c r="AC31" s="46"/>
+      <c r="AD31" s="46"/>
+      <c r="AE31" s="46"/>
+      <c r="AF31" s="46" t="s">
+        <v>290</v>
+      </c>
+      <c r="AG31" s="46"/>
+      <c r="AH31" s="46"/>
+      <c r="AI31" s="46"/>
+      <c r="AJ31" s="46"/>
+      <c r="AK31" s="46"/>
+      <c r="AL31" s="46"/>
+      <c r="AM31" s="46"/>
+      <c r="AN31" s="46"/>
+      <c r="AO31" s="46"/>
+      <c r="AP31" s="46"/>
+      <c r="AQ31" s="46"/>
+      <c r="AR31" s="46"/>
+      <c r="AS31" s="46"/>
+      <c r="AT31" s="46"/>
+      <c r="AU31" s="46"/>
+      <c r="AV31" s="46"/>
+      <c r="AW31" s="46"/>
+      <c r="AX31" s="46"/>
+    </row>
+    <row r="32" spans="1:50" s="10" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A32" s="52" t="s">
         <v>425</v>
-      </c>
-      <c r="B31" s="29" t="s">
-        <v>245</v>
-      </c>
-      <c r="C31" s="29" t="s">
-        <v>426</v>
-      </c>
-      <c r="D31" s="29" t="s">
-        <v>427</v>
-      </c>
-      <c r="E31" s="30">
-        <v>1999</v>
-      </c>
-      <c r="F31" s="28" t="s">
-        <v>342</v>
-      </c>
-      <c r="G31" s="28" t="s">
-        <v>249</v>
-      </c>
-      <c r="H31" s="29" t="s">
-        <v>388</v>
-      </c>
-      <c r="I31" s="28" t="s">
-        <v>428</v>
-      </c>
-      <c r="J31" s="28" t="s">
-        <v>429</v>
-      </c>
-      <c r="K31" s="29" t="s">
-        <v>430</v>
-      </c>
-      <c r="L31" s="29" t="s">
-        <v>254</v>
-      </c>
-      <c r="M31" s="28" t="s">
-        <v>431</v>
-      </c>
-      <c r="N31" s="28" t="s">
-        <v>256</v>
-      </c>
-      <c r="O31" s="28" t="s">
-        <v>318</v>
-      </c>
-      <c r="P31" s="28" t="s">
-        <v>350</v>
-      </c>
-      <c r="Q31" s="28" t="s">
-        <v>21</v>
-      </c>
-      <c r="R31" s="28"/>
-      <c r="S31" s="28" t="s">
-        <v>31</v>
-      </c>
-      <c r="T31" s="28" t="s">
-        <v>44</v>
-      </c>
-      <c r="U31" s="28" t="s">
-        <v>56</v>
-      </c>
-      <c r="V31" s="28" t="s">
-        <v>40</v>
-      </c>
-      <c r="W31" s="28" t="s">
-        <v>50</v>
-      </c>
-      <c r="X31" s="28" t="s">
-        <v>218</v>
-      </c>
-      <c r="Y31" s="28" t="s">
-        <v>508</v>
-      </c>
-      <c r="Z31" s="28" t="s">
-        <v>626</v>
-      </c>
-      <c r="AA31" s="28">
-        <v>2</v>
-      </c>
-      <c r="AB31" s="28">
-        <v>2</v>
-      </c>
-      <c r="AC31" s="28">
-        <v>3</v>
-      </c>
-      <c r="AD31" s="28" t="s">
-        <v>507</v>
-      </c>
-      <c r="AE31" s="28"/>
-      <c r="AF31" s="28" t="s">
-        <v>290</v>
-      </c>
-      <c r="AG31" s="28" t="s">
-        <v>109</v>
-      </c>
-      <c r="AH31" s="28" t="s">
-        <v>119</v>
-      </c>
-      <c r="AI31" s="28" t="s">
-        <v>149</v>
-      </c>
-      <c r="AJ31" s="28"/>
-      <c r="AK31" s="28"/>
-      <c r="AL31" s="28" t="s">
-        <v>590</v>
-      </c>
-      <c r="AM31" s="28" t="s">
-        <v>234</v>
-      </c>
-      <c r="AN31" s="28" t="s">
-        <v>162</v>
-      </c>
-      <c r="AO31" s="28" t="s">
-        <v>589</v>
-      </c>
-      <c r="AP31" s="28" t="s">
-        <v>587</v>
-      </c>
-      <c r="AQ31" s="28" t="s">
-        <v>166</v>
-      </c>
-      <c r="AR31" s="28" t="s">
-        <v>171</v>
-      </c>
-      <c r="AS31" s="28" t="s">
-        <v>183</v>
-      </c>
-      <c r="AT31" s="28" t="s">
-        <v>588</v>
-      </c>
-      <c r="AU31" s="28" t="s">
-        <v>538</v>
-      </c>
-      <c r="AV31" s="28" t="s">
-        <v>201</v>
-      </c>
-      <c r="AW31" s="28" t="s">
-        <v>209</v>
-      </c>
-      <c r="AX31" s="28" t="s">
-        <v>510</v>
-      </c>
-    </row>
-    <row r="32" spans="1:50" s="10" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A32" s="52" t="s">
-        <v>432</v>
       </c>
       <c r="B32" s="52" t="s">
         <v>245</v>
       </c>
       <c r="C32" s="52" t="s">
-        <v>433</v>
+        <v>426</v>
       </c>
       <c r="D32" s="52" t="s">
-        <v>434</v>
+        <v>427</v>
       </c>
       <c r="E32" s="53">
         <v>1999</v>
       </c>
       <c r="F32" s="54" t="s">
-        <v>412</v>
+        <v>342</v>
       </c>
       <c r="G32" s="54" t="s">
-        <v>435</v>
+        <v>249</v>
       </c>
       <c r="H32" s="52" t="s">
-        <v>275</v>
+        <v>388</v>
       </c>
       <c r="I32" s="54" t="s">
-        <v>436</v>
+        <v>428</v>
       </c>
       <c r="J32" s="54" t="s">
-        <v>437</v>
+        <v>429</v>
       </c>
       <c r="K32" s="52" t="s">
-        <v>438</v>
+        <v>430</v>
       </c>
       <c r="L32" s="52" t="s">
         <v>254</v>
       </c>
       <c r="M32" s="54" t="s">
-        <v>439</v>
+        <v>431</v>
       </c>
       <c r="N32" s="54" t="s">
         <v>256</v>
       </c>
       <c r="O32" s="54" t="s">
-        <v>257</v>
+        <v>318</v>
       </c>
       <c r="P32" s="54" t="s">
-        <v>258</v>
+        <v>350</v>
       </c>
       <c r="Q32" s="54" t="s">
         <v>21</v>
       </c>
       <c r="R32" s="54"/>
       <c r="S32" s="54" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="T32" s="54" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="U32" s="54" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="V32" s="54" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="W32" s="54" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="X32" s="54" t="s">
         <v>218</v>
       </c>
       <c r="Y32" s="54" t="s">
-        <v>512</v>
+        <v>508</v>
       </c>
       <c r="Z32" s="54" t="s">
-        <v>511</v>
+        <v>625</v>
       </c>
       <c r="AA32" s="54">
         <v>2</v>
@@ -8871,25 +8876,27 @@
       <c r="AC32" s="54">
         <v>3</v>
       </c>
-      <c r="AD32" s="55" t="s">
-        <v>513</v>
+      <c r="AD32" s="54" t="s">
+        <v>507</v>
       </c>
       <c r="AE32" s="54"/>
       <c r="AF32" s="54" t="s">
-        <v>319</v>
+        <v>290</v>
       </c>
       <c r="AG32" s="54" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="AH32" s="54" t="s">
         <v>119</v>
       </c>
       <c r="AI32" s="54" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="AJ32" s="54"/>
       <c r="AK32" s="54"/>
-      <c r="AL32" s="54"/>
+      <c r="AL32" s="54" t="s">
+        <v>589</v>
+      </c>
       <c r="AM32" s="54" t="s">
         <v>234</v>
       </c>
@@ -8897,110 +8904,112 @@
         <v>162</v>
       </c>
       <c r="AO32" s="54" t="s">
-        <v>591</v>
-      </c>
-      <c r="AP32" s="54"/>
+        <v>588</v>
+      </c>
+      <c r="AP32" s="54" t="s">
+        <v>586</v>
+      </c>
       <c r="AQ32" s="54" t="s">
         <v>166</v>
       </c>
       <c r="AR32" s="54" t="s">
-        <v>241</v>
+        <v>171</v>
       </c>
       <c r="AS32" s="54" t="s">
-        <v>178</v>
+        <v>183</v>
       </c>
       <c r="AT32" s="54" t="s">
-        <v>593</v>
+        <v>587</v>
       </c>
       <c r="AU32" s="54" t="s">
-        <v>592</v>
+        <v>509</v>
       </c>
       <c r="AV32" s="54" t="s">
-        <v>201</v>
+        <v>208</v>
       </c>
       <c r="AW32" s="54" t="s">
-        <v>211</v>
-      </c>
-      <c r="AX32" s="55" t="s">
-        <v>594</v>
+        <v>209</v>
+      </c>
+      <c r="AX32" s="54" t="s">
+        <v>510</v>
       </c>
     </row>
-    <row r="33" spans="1:50" s="10" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:50" s="10" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A33" s="29" t="s">
-        <v>432</v>
+        <v>425</v>
       </c>
       <c r="B33" s="29" t="s">
         <v>245</v>
       </c>
       <c r="C33" s="29" t="s">
-        <v>433</v>
+        <v>426</v>
       </c>
       <c r="D33" s="29" t="s">
-        <v>434</v>
+        <v>427</v>
       </c>
       <c r="E33" s="30">
         <v>1999</v>
       </c>
       <c r="F33" s="28" t="s">
-        <v>412</v>
+        <v>342</v>
       </c>
       <c r="G33" s="28" t="s">
-        <v>435</v>
+        <v>249</v>
       </c>
       <c r="H33" s="29" t="s">
-        <v>275</v>
+        <v>388</v>
       </c>
       <c r="I33" s="28" t="s">
-        <v>436</v>
+        <v>428</v>
       </c>
       <c r="J33" s="28" t="s">
-        <v>437</v>
+        <v>429</v>
       </c>
       <c r="K33" s="29" t="s">
-        <v>438</v>
+        <v>430</v>
       </c>
       <c r="L33" s="29" t="s">
         <v>254</v>
       </c>
       <c r="M33" s="28" t="s">
-        <v>439</v>
+        <v>431</v>
       </c>
       <c r="N33" s="28" t="s">
         <v>256</v>
       </c>
       <c r="O33" s="28" t="s">
-        <v>257</v>
+        <v>318</v>
       </c>
       <c r="P33" s="28" t="s">
-        <v>258</v>
+        <v>350</v>
       </c>
       <c r="Q33" s="28" t="s">
         <v>21</v>
       </c>
       <c r="R33" s="28"/>
       <c r="S33" s="28" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="T33" s="28" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="U33" s="28" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="V33" s="28" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="W33" s="28" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="X33" s="28" t="s">
         <v>218</v>
       </c>
       <c r="Y33" s="28" t="s">
-        <v>512</v>
+        <v>508</v>
       </c>
       <c r="Z33" s="28" t="s">
-        <v>511</v>
+        <v>625</v>
       </c>
       <c r="AA33" s="28">
         <v>2</v>
@@ -9011,25 +9020,27 @@
       <c r="AC33" s="28">
         <v>3</v>
       </c>
-      <c r="AD33" s="31" t="s">
-        <v>513</v>
+      <c r="AD33" s="28" t="s">
+        <v>507</v>
       </c>
       <c r="AE33" s="28"/>
       <c r="AF33" s="28" t="s">
-        <v>319</v>
+        <v>290</v>
       </c>
       <c r="AG33" s="28" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="AH33" s="28" t="s">
         <v>119</v>
       </c>
       <c r="AI33" s="28" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="AJ33" s="28"/>
       <c r="AK33" s="28"/>
-      <c r="AL33" s="28"/>
+      <c r="AL33" s="28" t="s">
+        <v>589</v>
+      </c>
       <c r="AM33" s="28" t="s">
         <v>234</v>
       </c>
@@ -9037,172 +9048,174 @@
         <v>162</v>
       </c>
       <c r="AO33" s="28" t="s">
-        <v>591</v>
-      </c>
-      <c r="AP33" s="28"/>
+        <v>588</v>
+      </c>
+      <c r="AP33" s="28" t="s">
+        <v>586</v>
+      </c>
       <c r="AQ33" s="28" t="s">
         <v>166</v>
       </c>
       <c r="AR33" s="28" t="s">
-        <v>241</v>
+        <v>171</v>
       </c>
       <c r="AS33" s="28" t="s">
-        <v>178</v>
+        <v>183</v>
       </c>
       <c r="AT33" s="28" t="s">
-        <v>593</v>
+        <v>587</v>
       </c>
       <c r="AU33" s="28" t="s">
-        <v>597</v>
+        <v>537</v>
       </c>
       <c r="AV33" s="28" t="s">
         <v>201</v>
       </c>
       <c r="AW33" s="28" t="s">
-        <v>210</v>
-      </c>
-      <c r="AX33" s="31" t="s">
-        <v>595</v>
+        <v>209</v>
+      </c>
+      <c r="AX33" s="28" t="s">
+        <v>510</v>
       </c>
     </row>
     <row r="34" spans="1:50" s="10" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A34" s="29" t="s">
+      <c r="A34" s="52" t="s">
         <v>432</v>
       </c>
-      <c r="B34" s="29" t="s">
+      <c r="B34" s="52" t="s">
         <v>245</v>
       </c>
-      <c r="C34" s="29" t="s">
+      <c r="C34" s="52" t="s">
         <v>433</v>
       </c>
-      <c r="D34" s="29" t="s">
+      <c r="D34" s="52" t="s">
         <v>434</v>
       </c>
-      <c r="E34" s="30">
+      <c r="E34" s="53">
         <v>1999</v>
       </c>
-      <c r="F34" s="28" t="s">
+      <c r="F34" s="54" t="s">
         <v>412</v>
       </c>
-      <c r="G34" s="28" t="s">
+      <c r="G34" s="54" t="s">
         <v>435</v>
       </c>
-      <c r="H34" s="29" t="s">
+      <c r="H34" s="52" t="s">
         <v>275</v>
       </c>
-      <c r="I34" s="28" t="s">
+      <c r="I34" s="54" t="s">
         <v>436</v>
       </c>
-      <c r="J34" s="28" t="s">
+      <c r="J34" s="54" t="s">
         <v>437</v>
       </c>
-      <c r="K34" s="29" t="s">
+      <c r="K34" s="52" t="s">
         <v>438</v>
       </c>
-      <c r="L34" s="29" t="s">
+      <c r="L34" s="52" t="s">
         <v>254</v>
       </c>
-      <c r="M34" s="28" t="s">
+      <c r="M34" s="54" t="s">
         <v>439</v>
       </c>
-      <c r="N34" s="28" t="s">
+      <c r="N34" s="54" t="s">
         <v>256</v>
       </c>
-      <c r="O34" s="28" t="s">
+      <c r="O34" s="54" t="s">
         <v>257</v>
       </c>
-      <c r="P34" s="28" t="s">
+      <c r="P34" s="54" t="s">
         <v>258</v>
       </c>
-      <c r="Q34" s="28" t="s">
+      <c r="Q34" s="54" t="s">
         <v>21</v>
       </c>
-      <c r="R34" s="28"/>
-      <c r="S34" s="28" t="s">
+      <c r="R34" s="54"/>
+      <c r="S34" s="54" t="s">
         <v>26</v>
       </c>
-      <c r="T34" s="28" t="s">
+      <c r="T34" s="54" t="s">
         <v>45</v>
       </c>
-      <c r="U34" s="28" t="s">
+      <c r="U34" s="54" t="s">
         <v>53</v>
       </c>
-      <c r="V34" s="28" t="s">
+      <c r="V34" s="54" t="s">
         <v>44</v>
       </c>
-      <c r="W34" s="28" t="s">
+      <c r="W34" s="54" t="s">
         <v>48</v>
       </c>
-      <c r="X34" s="28" t="s">
+      <c r="X34" s="54" t="s">
         <v>218</v>
       </c>
-      <c r="Y34" s="28" t="s">
+      <c r="Y34" s="54" t="s">
         <v>512</v>
       </c>
-      <c r="Z34" s="28" t="s">
+      <c r="Z34" s="54" t="s">
         <v>511</v>
       </c>
-      <c r="AA34" s="28">
+      <c r="AA34" s="54">
         <v>2</v>
       </c>
-      <c r="AB34" s="28">
+      <c r="AB34" s="54">
         <v>2</v>
       </c>
-      <c r="AC34" s="28">
+      <c r="AC34" s="54">
         <v>3</v>
       </c>
-      <c r="AD34" s="31" t="s">
+      <c r="AD34" s="55" t="s">
         <v>513</v>
       </c>
-      <c r="AE34" s="28"/>
-      <c r="AF34" s="28" t="s">
+      <c r="AE34" s="54"/>
+      <c r="AF34" s="54" t="s">
         <v>319</v>
       </c>
-      <c r="AG34" s="28" t="s">
+      <c r="AG34" s="54" t="s">
         <v>112</v>
       </c>
-      <c r="AH34" s="28" t="s">
+      <c r="AH34" s="54" t="s">
         <v>119</v>
       </c>
-      <c r="AI34" s="28" t="s">
+      <c r="AI34" s="54" t="s">
         <v>146</v>
       </c>
-      <c r="AJ34" s="28"/>
-      <c r="AK34" s="28"/>
-      <c r="AL34" s="28"/>
-      <c r="AM34" s="28" t="s">
+      <c r="AJ34" s="54"/>
+      <c r="AK34" s="54"/>
+      <c r="AL34" s="54"/>
+      <c r="AM34" s="54" t="s">
         <v>234</v>
       </c>
-      <c r="AN34" s="28" t="s">
+      <c r="AN34" s="54" t="s">
         <v>162</v>
       </c>
-      <c r="AO34" s="28" t="s">
+      <c r="AO34" s="54" t="s">
+        <v>590</v>
+      </c>
+      <c r="AP34" s="54"/>
+      <c r="AQ34" s="54" t="s">
+        <v>166</v>
+      </c>
+      <c r="AR34" s="54" t="s">
+        <v>241</v>
+      </c>
+      <c r="AS34" s="54" t="s">
+        <v>178</v>
+      </c>
+      <c r="AT34" s="54" t="s">
+        <v>592</v>
+      </c>
+      <c r="AU34" s="54" t="s">
         <v>591</v>
       </c>
-      <c r="AP34" s="28"/>
-      <c r="AQ34" s="28" t="s">
-        <v>166</v>
-      </c>
-      <c r="AR34" s="28" t="s">
-        <v>241</v>
-      </c>
-      <c r="AS34" s="28" t="s">
-        <v>178</v>
-      </c>
-      <c r="AT34" s="28" t="s">
+      <c r="AV34" s="54" t="s">
+        <v>201</v>
+      </c>
+      <c r="AW34" s="54" t="s">
+        <v>211</v>
+      </c>
+      <c r="AX34" s="55" t="s">
         <v>593</v>
-      </c>
-      <c r="AU34" s="28" t="s">
-        <v>596</v>
-      </c>
-      <c r="AV34" s="28" t="s">
-        <v>201</v>
-      </c>
-      <c r="AW34" s="28" t="s">
-        <v>210</v>
-      </c>
-      <c r="AX34" s="31" t="s">
-        <v>600</v>
       </c>
     </row>
     <row r="35" spans="1:50" s="10" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -9317,7 +9330,7 @@
         <v>162</v>
       </c>
       <c r="AO35" s="28" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="AP35" s="28"/>
       <c r="AQ35" s="28" t="s">
@@ -9330,19 +9343,19 @@
         <v>178</v>
       </c>
       <c r="AT35" s="28" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="AU35" s="28" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
       <c r="AV35" s="28" t="s">
         <v>201</v>
       </c>
       <c r="AW35" s="28" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="AX35" s="31" t="s">
-        <v>599</v>
+        <v>594</v>
       </c>
     </row>
     <row r="36" spans="1:50" s="10" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -9457,7 +9470,7 @@
         <v>162</v>
       </c>
       <c r="AO36" s="28" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="AP36" s="28"/>
       <c r="AQ36" s="28" t="s">
@@ -9470,171 +9483,173 @@
         <v>178</v>
       </c>
       <c r="AT36" s="28" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="AU36" s="28" t="s">
-        <v>604</v>
+        <v>595</v>
       </c>
       <c r="AV36" s="28" t="s">
         <v>201</v>
       </c>
       <c r="AW36" s="28" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="AX36" s="31" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
     </row>
-    <row r="37" spans="1:50" s="10" customFormat="1" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A37" s="52" t="s">
-        <v>440</v>
-      </c>
-      <c r="B37" s="52" t="s">
+    <row r="37" spans="1:50" s="10" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A37" s="29" t="s">
+        <v>432</v>
+      </c>
+      <c r="B37" s="29" t="s">
         <v>245</v>
       </c>
-      <c r="C37" s="52" t="s">
-        <v>441</v>
-      </c>
-      <c r="D37" s="52" t="s">
-        <v>442</v>
-      </c>
-      <c r="E37" s="53">
+      <c r="C37" s="29" t="s">
+        <v>433</v>
+      </c>
+      <c r="D37" s="29" t="s">
+        <v>434</v>
+      </c>
+      <c r="E37" s="30">
         <v>1999</v>
       </c>
-      <c r="F37" s="54" t="s">
+      <c r="F37" s="28" t="s">
         <v>412</v>
       </c>
-      <c r="G37" s="54" t="s">
+      <c r="G37" s="28" t="s">
         <v>435</v>
       </c>
-      <c r="H37" s="52" t="s">
+      <c r="H37" s="29" t="s">
         <v>275</v>
       </c>
-      <c r="I37" s="54" t="s">
-        <v>443</v>
-      </c>
-      <c r="J37" s="54" t="s">
-        <v>444</v>
-      </c>
-      <c r="K37" s="52" t="s">
-        <v>445</v>
-      </c>
-      <c r="L37" s="52" t="s">
+      <c r="I37" s="28" t="s">
+        <v>436</v>
+      </c>
+      <c r="J37" s="28" t="s">
+        <v>437</v>
+      </c>
+      <c r="K37" s="29" t="s">
+        <v>438</v>
+      </c>
+      <c r="L37" s="29" t="s">
         <v>254</v>
       </c>
-      <c r="M37" s="54" t="s">
-        <v>446</v>
-      </c>
-      <c r="N37" s="54" t="s">
+      <c r="M37" s="28" t="s">
+        <v>439</v>
+      </c>
+      <c r="N37" s="28" t="s">
         <v>256</v>
       </c>
-      <c r="O37" s="54" t="s">
+      <c r="O37" s="28" t="s">
         <v>257</v>
       </c>
-      <c r="P37" s="54" t="s">
-        <v>308</v>
-      </c>
-      <c r="Q37" s="54" t="s">
+      <c r="P37" s="28" t="s">
+        <v>258</v>
+      </c>
+      <c r="Q37" s="28" t="s">
         <v>21</v>
       </c>
-      <c r="R37" s="54"/>
-      <c r="S37" s="54" t="s">
+      <c r="R37" s="28"/>
+      <c r="S37" s="28" t="s">
         <v>26</v>
       </c>
-      <c r="T37" s="54" t="s">
-        <v>41</v>
-      </c>
-      <c r="U37" s="54" t="s">
+      <c r="T37" s="28" t="s">
+        <v>45</v>
+      </c>
+      <c r="U37" s="28" t="s">
+        <v>53</v>
+      </c>
+      <c r="V37" s="28" t="s">
+        <v>44</v>
+      </c>
+      <c r="W37" s="28" t="s">
         <v>48</v>
       </c>
-      <c r="V37" s="54" t="s">
-        <v>42</v>
-      </c>
-      <c r="W37" s="54" t="s">
-        <v>47</v>
-      </c>
-      <c r="X37" s="54" t="s">
+      <c r="X37" s="28" t="s">
         <v>218</v>
       </c>
-      <c r="Y37" s="54" t="s">
-        <v>516</v>
-      </c>
-      <c r="Z37" s="54" t="s">
-        <v>627</v>
-      </c>
-      <c r="AA37" s="54">
+      <c r="Y37" s="28" t="s">
+        <v>512</v>
+      </c>
+      <c r="Z37" s="28" t="s">
+        <v>511</v>
+      </c>
+      <c r="AA37" s="28">
         <v>2</v>
       </c>
-      <c r="AB37" s="54">
+      <c r="AB37" s="28">
         <v>2</v>
       </c>
-      <c r="AC37" s="54">
+      <c r="AC37" s="28">
         <v>3</v>
       </c>
-      <c r="AD37" s="54" t="s">
-        <v>515</v>
-      </c>
-      <c r="AE37" s="54"/>
-      <c r="AF37" s="54" t="s">
-        <v>259</v>
-      </c>
-      <c r="AG37" s="54" t="s">
-        <v>109</v>
-      </c>
-      <c r="AH37" s="54" t="s">
-        <v>122</v>
-      </c>
-      <c r="AI37" s="54"/>
-      <c r="AJ37" s="54"/>
-      <c r="AK37" s="54" t="s">
-        <v>143</v>
-      </c>
-      <c r="AL37" s="54"/>
-      <c r="AM37" s="54" t="s">
-        <v>235</v>
-      </c>
-      <c r="AN37" s="54"/>
-      <c r="AO37" s="54" t="s">
-        <v>611</v>
-      </c>
-      <c r="AP37" s="54"/>
-      <c r="AQ37" s="54" t="s">
+      <c r="AD37" s="31" t="s">
+        <v>513</v>
+      </c>
+      <c r="AE37" s="28"/>
+      <c r="AF37" s="28" t="s">
+        <v>319</v>
+      </c>
+      <c r="AG37" s="28" t="s">
+        <v>112</v>
+      </c>
+      <c r="AH37" s="28" t="s">
+        <v>119</v>
+      </c>
+      <c r="AI37" s="28" t="s">
+        <v>146</v>
+      </c>
+      <c r="AJ37" s="28"/>
+      <c r="AK37" s="28"/>
+      <c r="AL37" s="28"/>
+      <c r="AM37" s="28" t="s">
+        <v>234</v>
+      </c>
+      <c r="AN37" s="28" t="s">
+        <v>162</v>
+      </c>
+      <c r="AO37" s="28" t="s">
+        <v>590</v>
+      </c>
+      <c r="AP37" s="28"/>
+      <c r="AQ37" s="28" t="s">
         <v>166</v>
       </c>
-      <c r="AR37" s="54" t="s">
+      <c r="AR37" s="28" t="s">
         <v>241</v>
       </c>
-      <c r="AS37" s="54" t="s">
+      <c r="AS37" s="28" t="s">
         <v>178</v>
       </c>
-      <c r="AT37" s="54" t="s">
-        <v>514</v>
-      </c>
-      <c r="AU37" s="54" t="s">
-        <v>609</v>
-      </c>
-      <c r="AV37" s="54" t="s">
+      <c r="AT37" s="28" t="s">
+        <v>592</v>
+      </c>
+      <c r="AU37" s="28" t="s">
+        <v>597</v>
+      </c>
+      <c r="AV37" s="28" t="s">
         <v>201</v>
       </c>
-      <c r="AW37" s="54" t="s">
-        <v>210</v>
-      </c>
-      <c r="AX37" s="55" t="s">
-        <v>608</v>
+      <c r="AW37" s="28" t="s">
+        <v>209</v>
+      </c>
+      <c r="AX37" s="31" t="s">
+        <v>598</v>
       </c>
     </row>
-    <row r="38" spans="1:50" s="10" customFormat="1" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:50" s="10" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A38" s="29" t="s">
-        <v>440</v>
+        <v>432</v>
       </c>
       <c r="B38" s="29" t="s">
         <v>245</v>
       </c>
       <c r="C38" s="29" t="s">
-        <v>441</v>
+        <v>433</v>
       </c>
       <c r="D38" s="29" t="s">
-        <v>442</v>
+        <v>434</v>
       </c>
       <c r="E38" s="30">
         <v>1999</v>
@@ -9649,19 +9664,19 @@
         <v>275</v>
       </c>
       <c r="I38" s="28" t="s">
-        <v>443</v>
+        <v>436</v>
       </c>
       <c r="J38" s="28" t="s">
-        <v>444</v>
+        <v>437</v>
       </c>
       <c r="K38" s="29" t="s">
-        <v>445</v>
+        <v>438</v>
       </c>
       <c r="L38" s="29" t="s">
         <v>254</v>
       </c>
       <c r="M38" s="28" t="s">
-        <v>446</v>
+        <v>439</v>
       </c>
       <c r="N38" s="28" t="s">
         <v>256</v>
@@ -9670,7 +9685,7 @@
         <v>257</v>
       </c>
       <c r="P38" s="28" t="s">
-        <v>308</v>
+        <v>258</v>
       </c>
       <c r="Q38" s="28" t="s">
         <v>21</v>
@@ -9680,25 +9695,25 @@
         <v>26</v>
       </c>
       <c r="T38" s="28" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="U38" s="28" t="s">
+        <v>53</v>
+      </c>
+      <c r="V38" s="28" t="s">
+        <v>44</v>
+      </c>
+      <c r="W38" s="28" t="s">
         <v>48</v>
-      </c>
-      <c r="V38" s="28" t="s">
-        <v>42</v>
-      </c>
-      <c r="W38" s="28" t="s">
-        <v>47</v>
       </c>
       <c r="X38" s="28" t="s">
         <v>218</v>
       </c>
       <c r="Y38" s="28" t="s">
-        <v>516</v>
+        <v>512</v>
       </c>
       <c r="Z38" s="28" t="s">
-        <v>627</v>
+        <v>511</v>
       </c>
       <c r="AA38" s="28">
         <v>2</v>
@@ -9709,31 +9724,33 @@
       <c r="AC38" s="28">
         <v>3</v>
       </c>
-      <c r="AD38" s="28" t="s">
-        <v>515</v>
+      <c r="AD38" s="31" t="s">
+        <v>513</v>
       </c>
       <c r="AE38" s="28"/>
       <c r="AF38" s="28" t="s">
-        <v>259</v>
+        <v>319</v>
       </c>
       <c r="AG38" s="28" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="AH38" s="28" t="s">
-        <v>122</v>
-      </c>
-      <c r="AI38" s="28"/>
+        <v>119</v>
+      </c>
+      <c r="AI38" s="28" t="s">
+        <v>146</v>
+      </c>
       <c r="AJ38" s="28"/>
-      <c r="AK38" s="28" t="s">
-        <v>143</v>
-      </c>
+      <c r="AK38" s="28"/>
       <c r="AL38" s="28"/>
       <c r="AM38" s="28" t="s">
-        <v>235</v>
-      </c>
-      <c r="AN38" s="28"/>
+        <v>234</v>
+      </c>
+      <c r="AN38" s="28" t="s">
+        <v>162</v>
+      </c>
       <c r="AO38" s="28" t="s">
-        <v>611</v>
+        <v>590</v>
       </c>
       <c r="AP38" s="28"/>
       <c r="AQ38" s="28" t="s">
@@ -9746,373 +9763,373 @@
         <v>178</v>
       </c>
       <c r="AT38" s="28" t="s">
-        <v>514</v>
+        <v>592</v>
       </c>
       <c r="AU38" s="28" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
       <c r="AV38" s="28" t="s">
         <v>201</v>
       </c>
       <c r="AW38" s="28" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="AX38" s="31" t="s">
-        <v>607</v>
+        <v>600</v>
       </c>
     </row>
     <row r="39" spans="1:50" s="10" customFormat="1" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A39" s="29" t="s">
+      <c r="A39" s="52" t="s">
         <v>440</v>
       </c>
-      <c r="B39" s="29" t="s">
+      <c r="B39" s="52" t="s">
         <v>245</v>
       </c>
-      <c r="C39" s="29" t="s">
+      <c r="C39" s="52" t="s">
         <v>441</v>
       </c>
-      <c r="D39" s="29" t="s">
+      <c r="D39" s="52" t="s">
         <v>442</v>
       </c>
-      <c r="E39" s="30">
+      <c r="E39" s="53">
         <v>1999</v>
       </c>
-      <c r="F39" s="28" t="s">
+      <c r="F39" s="54" t="s">
         <v>412</v>
       </c>
-      <c r="G39" s="28" t="s">
+      <c r="G39" s="54" t="s">
         <v>435</v>
       </c>
-      <c r="H39" s="29" t="s">
+      <c r="H39" s="52" t="s">
         <v>275</v>
       </c>
-      <c r="I39" s="28" t="s">
+      <c r="I39" s="54" t="s">
         <v>443</v>
       </c>
-      <c r="J39" s="28" t="s">
+      <c r="J39" s="54" t="s">
         <v>444</v>
       </c>
-      <c r="K39" s="29" t="s">
+      <c r="K39" s="52" t="s">
         <v>445</v>
       </c>
-      <c r="L39" s="29" t="s">
+      <c r="L39" s="52" t="s">
         <v>254</v>
       </c>
-      <c r="M39" s="28" t="s">
+      <c r="M39" s="54" t="s">
         <v>446</v>
       </c>
-      <c r="N39" s="28" t="s">
+      <c r="N39" s="54" t="s">
         <v>256</v>
       </c>
-      <c r="O39" s="28" t="s">
+      <c r="O39" s="54" t="s">
         <v>257</v>
       </c>
-      <c r="P39" s="28" t="s">
+      <c r="P39" s="54" t="s">
         <v>308</v>
       </c>
-      <c r="Q39" s="28" t="s">
+      <c r="Q39" s="54" t="s">
         <v>21</v>
       </c>
-      <c r="R39" s="28"/>
-      <c r="S39" s="28" t="s">
+      <c r="R39" s="54"/>
+      <c r="S39" s="54" t="s">
         <v>26</v>
       </c>
-      <c r="T39" s="28" t="s">
+      <c r="T39" s="54" t="s">
         <v>41</v>
       </c>
-      <c r="U39" s="28" t="s">
+      <c r="U39" s="54" t="s">
         <v>48</v>
       </c>
-      <c r="V39" s="28" t="s">
+      <c r="V39" s="54" t="s">
         <v>42</v>
       </c>
-      <c r="W39" s="28" t="s">
+      <c r="W39" s="54" t="s">
         <v>47</v>
       </c>
-      <c r="X39" s="28" t="s">
+      <c r="X39" s="54" t="s">
         <v>218</v>
       </c>
-      <c r="Y39" s="28" t="s">
+      <c r="Y39" s="54" t="s">
         <v>516</v>
       </c>
-      <c r="Z39" s="28" t="s">
-        <v>627</v>
-      </c>
-      <c r="AA39" s="28">
+      <c r="Z39" s="54" t="s">
+        <v>626</v>
+      </c>
+      <c r="AA39" s="54">
         <v>2</v>
       </c>
-      <c r="AB39" s="28">
+      <c r="AB39" s="54">
         <v>2</v>
       </c>
-      <c r="AC39" s="28">
+      <c r="AC39" s="54">
         <v>3</v>
       </c>
-      <c r="AD39" s="28" t="s">
+      <c r="AD39" s="54" t="s">
         <v>515</v>
       </c>
-      <c r="AE39" s="28"/>
-      <c r="AF39" s="28" t="s">
+      <c r="AE39" s="54"/>
+      <c r="AF39" s="54" t="s">
         <v>259</v>
       </c>
-      <c r="AG39" s="28" t="s">
+      <c r="AG39" s="54" t="s">
         <v>109</v>
       </c>
-      <c r="AH39" s="28" t="s">
+      <c r="AH39" s="54" t="s">
         <v>122</v>
       </c>
-      <c r="AI39" s="28"/>
-      <c r="AJ39" s="28"/>
-      <c r="AK39" s="28" t="s">
+      <c r="AI39" s="54"/>
+      <c r="AJ39" s="54"/>
+      <c r="AK39" s="54" t="s">
         <v>143</v>
       </c>
-      <c r="AL39" s="28"/>
-      <c r="AM39" s="28" t="s">
+      <c r="AL39" s="54"/>
+      <c r="AM39" s="54" t="s">
         <v>235</v>
       </c>
-      <c r="AN39" s="28"/>
-      <c r="AO39" s="28" t="s">
-        <v>611</v>
-      </c>
-      <c r="AP39" s="28"/>
-      <c r="AQ39" s="28" t="s">
+      <c r="AN39" s="54"/>
+      <c r="AO39" s="54" t="s">
+        <v>610</v>
+      </c>
+      <c r="AP39" s="54"/>
+      <c r="AQ39" s="54" t="s">
         <v>166</v>
       </c>
-      <c r="AR39" s="28" t="s">
+      <c r="AR39" s="54" t="s">
         <v>241</v>
       </c>
-      <c r="AS39" s="28" t="s">
+      <c r="AS39" s="54" t="s">
         <v>178</v>
       </c>
-      <c r="AT39" s="28" t="s">
+      <c r="AT39" s="54" t="s">
         <v>514</v>
       </c>
-      <c r="AU39" s="28" t="s">
+      <c r="AU39" s="54" t="s">
+        <v>608</v>
+      </c>
+      <c r="AV39" s="54" t="s">
+        <v>201</v>
+      </c>
+      <c r="AW39" s="54" t="s">
+        <v>210</v>
+      </c>
+      <c r="AX39" s="55" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="40" spans="1:50" s="10" customFormat="1" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A40" s="29" t="s">
+        <v>440</v>
+      </c>
+      <c r="B40" s="29" t="s">
+        <v>245</v>
+      </c>
+      <c r="C40" s="29" t="s">
+        <v>441</v>
+      </c>
+      <c r="D40" s="29" t="s">
+        <v>442</v>
+      </c>
+      <c r="E40" s="30">
+        <v>1999</v>
+      </c>
+      <c r="F40" s="28" t="s">
+        <v>412</v>
+      </c>
+      <c r="G40" s="28" t="s">
+        <v>435</v>
+      </c>
+      <c r="H40" s="29" t="s">
+        <v>275</v>
+      </c>
+      <c r="I40" s="28" t="s">
+        <v>443</v>
+      </c>
+      <c r="J40" s="28" t="s">
+        <v>444</v>
+      </c>
+      <c r="K40" s="29" t="s">
+        <v>445</v>
+      </c>
+      <c r="L40" s="29" t="s">
+        <v>254</v>
+      </c>
+      <c r="M40" s="28" t="s">
+        <v>446</v>
+      </c>
+      <c r="N40" s="28" t="s">
+        <v>256</v>
+      </c>
+      <c r="O40" s="28" t="s">
+        <v>257</v>
+      </c>
+      <c r="P40" s="28" t="s">
+        <v>308</v>
+      </c>
+      <c r="Q40" s="28" t="s">
+        <v>21</v>
+      </c>
+      <c r="R40" s="28"/>
+      <c r="S40" s="28" t="s">
+        <v>26</v>
+      </c>
+      <c r="T40" s="28" t="s">
+        <v>41</v>
+      </c>
+      <c r="U40" s="28" t="s">
+        <v>48</v>
+      </c>
+      <c r="V40" s="28" t="s">
+        <v>42</v>
+      </c>
+      <c r="W40" s="28" t="s">
+        <v>47</v>
+      </c>
+      <c r="X40" s="28" t="s">
+        <v>218</v>
+      </c>
+      <c r="Y40" s="28" t="s">
+        <v>516</v>
+      </c>
+      <c r="Z40" s="28" t="s">
+        <v>626</v>
+      </c>
+      <c r="AA40" s="28">
+        <v>2</v>
+      </c>
+      <c r="AB40" s="28">
+        <v>2</v>
+      </c>
+      <c r="AC40" s="28">
+        <v>3</v>
+      </c>
+      <c r="AD40" s="28" t="s">
+        <v>515</v>
+      </c>
+      <c r="AE40" s="28"/>
+      <c r="AF40" s="28" t="s">
+        <v>259</v>
+      </c>
+      <c r="AG40" s="28" t="s">
+        <v>109</v>
+      </c>
+      <c r="AH40" s="28" t="s">
+        <v>122</v>
+      </c>
+      <c r="AI40" s="28"/>
+      <c r="AJ40" s="28"/>
+      <c r="AK40" s="28" t="s">
+        <v>143</v>
+      </c>
+      <c r="AL40" s="28"/>
+      <c r="AM40" s="28" t="s">
+        <v>235</v>
+      </c>
+      <c r="AN40" s="28"/>
+      <c r="AO40" s="28" t="s">
+        <v>610</v>
+      </c>
+      <c r="AP40" s="28"/>
+      <c r="AQ40" s="28" t="s">
+        <v>166</v>
+      </c>
+      <c r="AR40" s="28" t="s">
+        <v>241</v>
+      </c>
+      <c r="AS40" s="28" t="s">
+        <v>178</v>
+      </c>
+      <c r="AT40" s="28" t="s">
+        <v>514</v>
+      </c>
+      <c r="AU40" s="28" t="s">
+        <v>604</v>
+      </c>
+      <c r="AV40" s="28" t="s">
+        <v>201</v>
+      </c>
+      <c r="AW40" s="28" t="s">
+        <v>210</v>
+      </c>
+      <c r="AX40" s="31" t="s">
         <v>606</v>
       </c>
-      <c r="AV39" s="28" t="s">
-        <v>201</v>
-      </c>
-      <c r="AW39" s="28" t="s">
-        <v>209</v>
-      </c>
-      <c r="AX39" s="31" t="s">
-        <v>610</v>
-      </c>
     </row>
-    <row r="40" spans="1:50" s="10" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A40" s="52" t="s">
-        <v>447</v>
-      </c>
-      <c r="B40" s="52" t="s">
-        <v>245</v>
-      </c>
-      <c r="C40" s="52" t="s">
-        <v>448</v>
-      </c>
-      <c r="D40" s="52" t="s">
-        <v>449</v>
-      </c>
-      <c r="E40" s="53">
-        <v>1998</v>
-      </c>
-      <c r="F40" s="54" t="s">
-        <v>412</v>
-      </c>
-      <c r="G40" s="54" t="s">
-        <v>450</v>
-      </c>
-      <c r="H40" s="52" t="s">
-        <v>371</v>
-      </c>
-      <c r="I40" s="54" t="s">
-        <v>451</v>
-      </c>
-      <c r="J40" s="54" t="s">
-        <v>335</v>
-      </c>
-      <c r="K40" s="52" t="s">
-        <v>452</v>
-      </c>
-      <c r="L40" s="52" t="s">
-        <v>254</v>
-      </c>
-      <c r="M40" s="54" t="s">
-        <v>453</v>
-      </c>
-      <c r="N40" s="54" t="s">
-        <v>256</v>
-      </c>
-      <c r="O40" s="54" t="s">
-        <v>318</v>
-      </c>
-      <c r="P40" s="54" t="s">
-        <v>258</v>
-      </c>
-      <c r="Q40" s="54" t="s">
-        <v>21</v>
-      </c>
-      <c r="R40" s="54"/>
-      <c r="S40" s="54" t="s">
-        <v>29</v>
-      </c>
-      <c r="T40" s="54" t="s">
-        <v>46</v>
-      </c>
-      <c r="U40" s="54" t="s">
-        <v>55</v>
-      </c>
-      <c r="V40" s="54" t="s">
-        <v>41</v>
-      </c>
-      <c r="W40" s="54" t="s">
-        <v>51</v>
-      </c>
-      <c r="X40" s="54" t="s">
-        <v>69</v>
-      </c>
-      <c r="Y40" s="54" t="s">
-        <v>517</v>
-      </c>
-      <c r="Z40" s="54" t="s">
-        <v>629</v>
-      </c>
-      <c r="AA40" s="54">
-        <v>2</v>
-      </c>
-      <c r="AB40" s="54">
-        <v>2</v>
-      </c>
-      <c r="AC40" s="54">
-        <v>3</v>
-      </c>
-      <c r="AD40" s="54"/>
-      <c r="AE40" s="54"/>
-      <c r="AF40" s="54" t="s">
-        <v>290</v>
-      </c>
-      <c r="AG40" s="54" t="s">
-        <v>111</v>
-      </c>
-      <c r="AH40" s="54" t="s">
-        <v>222</v>
-      </c>
-      <c r="AI40" s="54" t="s">
-        <v>147</v>
-      </c>
-      <c r="AJ40" s="54"/>
-      <c r="AK40" s="54"/>
-      <c r="AL40" s="54" t="s">
-        <v>630</v>
-      </c>
-      <c r="AM40" s="54" t="s">
-        <v>161</v>
-      </c>
-      <c r="AN40" s="54"/>
-      <c r="AO40" s="54" t="s">
-        <v>612</v>
-      </c>
-      <c r="AP40" s="54"/>
-      <c r="AQ40" s="54" t="s">
-        <v>166</v>
-      </c>
-      <c r="AR40" s="54" t="s">
-        <v>241</v>
-      </c>
-      <c r="AS40" s="54" t="s">
-        <v>177</v>
-      </c>
-      <c r="AT40" s="54" t="s">
-        <v>631</v>
-      </c>
-      <c r="AU40" s="54" t="s">
-        <v>613</v>
-      </c>
-      <c r="AV40" s="54" t="s">
-        <v>205</v>
-      </c>
-      <c r="AW40" s="54" t="s">
-        <v>209</v>
-      </c>
-      <c r="AX40" s="54" t="s">
-        <v>530</v>
-      </c>
-    </row>
-    <row r="41" spans="1:50" s="10" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:50" s="10" customFormat="1" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A41" s="29" t="s">
-        <v>447</v>
+        <v>440</v>
       </c>
       <c r="B41" s="29" t="s">
         <v>245</v>
       </c>
       <c r="C41" s="29" t="s">
-        <v>448</v>
+        <v>441</v>
       </c>
       <c r="D41" s="29" t="s">
-        <v>449</v>
+        <v>442</v>
       </c>
       <c r="E41" s="30">
-        <v>1998</v>
+        <v>1999</v>
       </c>
       <c r="F41" s="28" t="s">
         <v>412</v>
       </c>
       <c r="G41" s="28" t="s">
-        <v>450</v>
+        <v>435</v>
       </c>
       <c r="H41" s="29" t="s">
-        <v>371</v>
+        <v>275</v>
       </c>
       <c r="I41" s="28" t="s">
-        <v>451</v>
+        <v>443</v>
       </c>
       <c r="J41" s="28" t="s">
-        <v>335</v>
+        <v>444</v>
       </c>
       <c r="K41" s="29" t="s">
-        <v>452</v>
+        <v>445</v>
       </c>
       <c r="L41" s="29" t="s">
         <v>254</v>
       </c>
       <c r="M41" s="28" t="s">
-        <v>453</v>
+        <v>446</v>
       </c>
       <c r="N41" s="28" t="s">
         <v>256</v>
       </c>
       <c r="O41" s="28" t="s">
-        <v>318</v>
+        <v>257</v>
       </c>
       <c r="P41" s="28" t="s">
-        <v>258</v>
+        <v>308</v>
       </c>
       <c r="Q41" s="28" t="s">
         <v>21</v>
       </c>
       <c r="R41" s="28"/>
       <c r="S41" s="28" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="T41" s="28" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="U41" s="28" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="V41" s="28" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="W41" s="28" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="X41" s="28" t="s">
-        <v>69</v>
+        <v>218</v>
       </c>
       <c r="Y41" s="28" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="Z41" s="28" t="s">
-        <v>629</v>
+        <v>626</v>
       </c>
       <c r="AA41" s="28">
         <v>2</v>
@@ -10123,31 +10140,31 @@
       <c r="AC41" s="28">
         <v>3</v>
       </c>
-      <c r="AD41" s="28"/>
+      <c r="AD41" s="28" t="s">
+        <v>515</v>
+      </c>
       <c r="AE41" s="28"/>
       <c r="AF41" s="28" t="s">
-        <v>290</v>
+        <v>259</v>
       </c>
       <c r="AG41" s="28" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="AH41" s="28" t="s">
-        <v>222</v>
-      </c>
-      <c r="AI41" s="28" t="s">
-        <v>147</v>
-      </c>
+        <v>122</v>
+      </c>
+      <c r="AI41" s="28"/>
       <c r="AJ41" s="28"/>
-      <c r="AK41" s="28"/>
-      <c r="AL41" s="28" t="s">
-        <v>630</v>
-      </c>
+      <c r="AK41" s="28" t="s">
+        <v>143</v>
+      </c>
+      <c r="AL41" s="28"/>
       <c r="AM41" s="28" t="s">
-        <v>161</v>
+        <v>235</v>
       </c>
       <c r="AN41" s="28"/>
       <c r="AO41" s="28" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
       <c r="AP41" s="28"/>
       <c r="AQ41" s="28" t="s">
@@ -10157,79 +10174,79 @@
         <v>241</v>
       </c>
       <c r="AS41" s="28" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="AT41" s="28" t="s">
-        <v>631</v>
+        <v>514</v>
       </c>
       <c r="AU41" s="28" t="s">
-        <v>614</v>
+        <v>605</v>
       </c>
       <c r="AV41" s="28" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="AW41" s="28" t="s">
         <v>209</v>
       </c>
-      <c r="AX41" s="28" t="s">
-        <v>530</v>
+      <c r="AX41" s="31" t="s">
+        <v>609</v>
       </c>
     </row>
-    <row r="42" spans="1:50" s="10" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:50" s="10" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A42" s="52" t="s">
-        <v>454</v>
+        <v>447</v>
       </c>
       <c r="B42" s="52" t="s">
         <v>245</v>
       </c>
       <c r="C42" s="52" t="s">
-        <v>455</v>
+        <v>448</v>
       </c>
       <c r="D42" s="52" t="s">
-        <v>456</v>
+        <v>449</v>
       </c>
       <c r="E42" s="53">
-        <v>1997</v>
+        <v>1998</v>
       </c>
       <c r="F42" s="54" t="s">
-        <v>457</v>
+        <v>412</v>
       </c>
       <c r="G42" s="54" t="s">
-        <v>458</v>
+        <v>450</v>
       </c>
       <c r="H42" s="52" t="s">
-        <v>265</v>
+        <v>371</v>
       </c>
       <c r="I42" s="54" t="s">
-        <v>459</v>
+        <v>451</v>
       </c>
       <c r="J42" s="54" t="s">
-        <v>435</v>
+        <v>335</v>
       </c>
       <c r="K42" s="52" t="s">
-        <v>460</v>
+        <v>452</v>
       </c>
       <c r="L42" s="52" t="s">
         <v>254</v>
       </c>
       <c r="M42" s="54" t="s">
-        <v>461</v>
+        <v>453</v>
       </c>
       <c r="N42" s="54" t="s">
         <v>256</v>
       </c>
       <c r="O42" s="54" t="s">
-        <v>257</v>
+        <v>318</v>
       </c>
       <c r="P42" s="54" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="Q42" s="54" t="s">
         <v>21</v>
       </c>
       <c r="R42" s="54"/>
       <c r="S42" s="54" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="T42" s="54" t="s">
         <v>46</v>
@@ -10238,17 +10255,19 @@
         <v>55</v>
       </c>
       <c r="V42" s="54" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="W42" s="54" t="s">
         <v>51</v>
       </c>
       <c r="X42" s="54" t="s">
-        <v>80</v>
-      </c>
-      <c r="Y42" s="54"/>
+        <v>69</v>
+      </c>
+      <c r="Y42" s="54" t="s">
+        <v>517</v>
+      </c>
       <c r="Z42" s="54" t="s">
-        <v>519</v>
+        <v>628</v>
       </c>
       <c r="AA42" s="54">
         <v>2</v>
@@ -10262,28 +10281,28 @@
       <c r="AD42" s="54"/>
       <c r="AE42" s="54"/>
       <c r="AF42" s="54" t="s">
-        <v>319</v>
+        <v>290</v>
       </c>
       <c r="AG42" s="54" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="AH42" s="54" t="s">
-        <v>119</v>
+        <v>222</v>
       </c>
       <c r="AI42" s="54" t="s">
-        <v>132</v>
+        <v>147</v>
       </c>
       <c r="AJ42" s="54"/>
       <c r="AK42" s="54"/>
-      <c r="AL42" s="54"/>
+      <c r="AL42" s="54" t="s">
+        <v>629</v>
+      </c>
       <c r="AM42" s="54" t="s">
-        <v>234</v>
-      </c>
-      <c r="AN42" s="54" t="s">
-        <v>162</v>
-      </c>
+        <v>161</v>
+      </c>
+      <c r="AN42" s="54"/>
       <c r="AO42" s="54" t="s">
-        <v>616</v>
+        <v>611</v>
       </c>
       <c r="AP42" s="54"/>
       <c r="AQ42" s="54" t="s">
@@ -10296,76 +10315,76 @@
         <v>177</v>
       </c>
       <c r="AT42" s="54" t="s">
-        <v>518</v>
+        <v>630</v>
       </c>
       <c r="AU42" s="54" t="s">
-        <v>618</v>
+        <v>612</v>
       </c>
       <c r="AV42" s="54" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="AW42" s="54" t="s">
         <v>209</v>
       </c>
       <c r="AX42" s="54" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
     </row>
-    <row r="43" spans="1:50" s="10" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:50" s="10" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A43" s="29" t="s">
-        <v>454</v>
+        <v>447</v>
       </c>
       <c r="B43" s="29" t="s">
         <v>245</v>
       </c>
       <c r="C43" s="29" t="s">
-        <v>455</v>
+        <v>448</v>
       </c>
       <c r="D43" s="29" t="s">
-        <v>456</v>
+        <v>449</v>
       </c>
       <c r="E43" s="30">
-        <v>1997</v>
+        <v>1998</v>
       </c>
       <c r="F43" s="28" t="s">
-        <v>457</v>
+        <v>412</v>
       </c>
       <c r="G43" s="28" t="s">
-        <v>458</v>
+        <v>450</v>
       </c>
       <c r="H43" s="29" t="s">
-        <v>265</v>
+        <v>371</v>
       </c>
       <c r="I43" s="28" t="s">
-        <v>459</v>
+        <v>451</v>
       </c>
       <c r="J43" s="28" t="s">
-        <v>435</v>
+        <v>335</v>
       </c>
       <c r="K43" s="29" t="s">
-        <v>460</v>
+        <v>452</v>
       </c>
       <c r="L43" s="29" t="s">
         <v>254</v>
       </c>
       <c r="M43" s="28" t="s">
-        <v>461</v>
+        <v>453</v>
       </c>
       <c r="N43" s="28" t="s">
         <v>256</v>
       </c>
       <c r="O43" s="28" t="s">
-        <v>257</v>
+        <v>318</v>
       </c>
       <c r="P43" s="28" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="Q43" s="28" t="s">
         <v>21</v>
       </c>
       <c r="R43" s="28"/>
       <c r="S43" s="28" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="T43" s="28" t="s">
         <v>46</v>
@@ -10374,17 +10393,19 @@
         <v>55</v>
       </c>
       <c r="V43" s="28" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="W43" s="28" t="s">
         <v>51</v>
       </c>
       <c r="X43" s="28" t="s">
-        <v>80</v>
-      </c>
-      <c r="Y43" s="28"/>
+        <v>69</v>
+      </c>
+      <c r="Y43" s="28" t="s">
+        <v>517</v>
+      </c>
       <c r="Z43" s="28" t="s">
-        <v>519</v>
+        <v>628</v>
       </c>
       <c r="AA43" s="28">
         <v>2</v>
@@ -10398,28 +10419,28 @@
       <c r="AD43" s="28"/>
       <c r="AE43" s="28"/>
       <c r="AF43" s="28" t="s">
-        <v>319</v>
+        <v>290</v>
       </c>
       <c r="AG43" s="28" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="AH43" s="28" t="s">
-        <v>119</v>
+        <v>222</v>
       </c>
       <c r="AI43" s="28" t="s">
-        <v>132</v>
+        <v>147</v>
       </c>
       <c r="AJ43" s="28"/>
       <c r="AK43" s="28"/>
-      <c r="AL43" s="28"/>
+      <c r="AL43" s="28" t="s">
+        <v>629</v>
+      </c>
       <c r="AM43" s="28" t="s">
-        <v>234</v>
-      </c>
-      <c r="AN43" s="28" t="s">
-        <v>162</v>
-      </c>
+        <v>161</v>
+      </c>
+      <c r="AN43" s="28"/>
       <c r="AO43" s="28" t="s">
-        <v>615</v>
+        <v>611</v>
       </c>
       <c r="AP43" s="28"/>
       <c r="AQ43" s="28" t="s">
@@ -10432,514 +10453,786 @@
         <v>177</v>
       </c>
       <c r="AT43" s="28" t="s">
-        <v>518</v>
+        <v>630</v>
       </c>
       <c r="AU43" s="28" t="s">
-        <v>618</v>
+        <v>613</v>
       </c>
       <c r="AV43" s="28" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="AW43" s="28" t="s">
         <v>209</v>
       </c>
       <c r="AX43" s="28" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
     </row>
-    <row r="44" spans="1:50" s="10" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A44" s="29" t="s">
+    <row r="44" spans="1:50" s="10" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A44" s="52" t="s">
         <v>454</v>
       </c>
-      <c r="B44" s="29" t="s">
+      <c r="B44" s="52" t="s">
         <v>245</v>
       </c>
-      <c r="C44" s="29" t="s">
+      <c r="C44" s="52" t="s">
         <v>455</v>
       </c>
-      <c r="D44" s="29" t="s">
+      <c r="D44" s="52" t="s">
         <v>456</v>
       </c>
-      <c r="E44" s="30">
+      <c r="E44" s="53">
         <v>1997</v>
       </c>
-      <c r="F44" s="28" t="s">
+      <c r="F44" s="54" t="s">
         <v>457</v>
       </c>
-      <c r="G44" s="28" t="s">
+      <c r="G44" s="54" t="s">
         <v>458</v>
       </c>
-      <c r="H44" s="29" t="s">
+      <c r="H44" s="52" t="s">
         <v>265</v>
       </c>
-      <c r="I44" s="28" t="s">
+      <c r="I44" s="54" t="s">
         <v>459</v>
       </c>
-      <c r="J44" s="28" t="s">
+      <c r="J44" s="54" t="s">
         <v>435</v>
       </c>
-      <c r="K44" s="29" t="s">
+      <c r="K44" s="52" t="s">
         <v>460</v>
       </c>
-      <c r="L44" s="29" t="s">
+      <c r="L44" s="52" t="s">
         <v>254</v>
       </c>
-      <c r="M44" s="28" t="s">
+      <c r="M44" s="54" t="s">
         <v>461</v>
       </c>
-      <c r="N44" s="28" t="s">
+      <c r="N44" s="54" t="s">
         <v>256</v>
       </c>
-      <c r="O44" s="28" t="s">
+      <c r="O44" s="54" t="s">
         <v>257</v>
       </c>
-      <c r="P44" s="28" t="s">
+      <c r="P44" s="54" t="s">
         <v>254</v>
       </c>
-      <c r="Q44" s="28" t="s">
+      <c r="Q44" s="54" t="s">
         <v>21</v>
       </c>
-      <c r="R44" s="28"/>
-      <c r="S44" s="28" t="s">
+      <c r="R44" s="54"/>
+      <c r="S44" s="54" t="s">
         <v>31</v>
       </c>
-      <c r="T44" s="28" t="s">
+      <c r="T44" s="54" t="s">
         <v>46</v>
       </c>
-      <c r="U44" s="28" t="s">
+      <c r="U44" s="54" t="s">
         <v>55</v>
       </c>
-      <c r="V44" s="28" t="s">
+      <c r="V44" s="54" t="s">
         <v>42</v>
       </c>
-      <c r="W44" s="28" t="s">
+      <c r="W44" s="54" t="s">
         <v>51</v>
       </c>
-      <c r="X44" s="28" t="s">
+      <c r="X44" s="54" t="s">
         <v>80</v>
       </c>
-      <c r="Y44" s="28"/>
-      <c r="Z44" s="28" t="s">
+      <c r="Y44" s="54"/>
+      <c r="Z44" s="54" t="s">
         <v>519</v>
       </c>
-      <c r="AA44" s="28">
+      <c r="AA44" s="54">
         <v>2</v>
       </c>
-      <c r="AB44" s="28">
+      <c r="AB44" s="54">
         <v>2</v>
       </c>
-      <c r="AC44" s="28">
+      <c r="AC44" s="54">
         <v>3</v>
       </c>
-      <c r="AD44" s="28"/>
-      <c r="AE44" s="28"/>
-      <c r="AF44" s="28" t="s">
+      <c r="AD44" s="54"/>
+      <c r="AE44" s="54"/>
+      <c r="AF44" s="54" t="s">
         <v>319</v>
       </c>
-      <c r="AG44" s="28" t="s">
+      <c r="AG44" s="54" t="s">
         <v>113</v>
       </c>
-      <c r="AH44" s="28" t="s">
+      <c r="AH44" s="54" t="s">
         <v>119</v>
       </c>
-      <c r="AI44" s="28" t="s">
+      <c r="AI44" s="54" t="s">
         <v>132</v>
       </c>
-      <c r="AJ44" s="28"/>
-      <c r="AK44" s="28"/>
-      <c r="AL44" s="28"/>
-      <c r="AM44" s="28" t="s">
+      <c r="AJ44" s="54"/>
+      <c r="AK44" s="54"/>
+      <c r="AL44" s="54"/>
+      <c r="AM44" s="54" t="s">
         <v>234</v>
       </c>
-      <c r="AN44" s="28" t="s">
+      <c r="AN44" s="54" t="s">
         <v>162</v>
       </c>
-      <c r="AO44" s="28" t="s">
+      <c r="AO44" s="54" t="s">
+        <v>615</v>
+      </c>
+      <c r="AP44" s="54"/>
+      <c r="AQ44" s="54" t="s">
+        <v>166</v>
+      </c>
+      <c r="AR44" s="54" t="s">
+        <v>241</v>
+      </c>
+      <c r="AS44" s="54" t="s">
+        <v>177</v>
+      </c>
+      <c r="AT44" s="54" t="s">
+        <v>518</v>
+      </c>
+      <c r="AU44" s="54" t="s">
         <v>617</v>
       </c>
-      <c r="AP44" s="28"/>
-      <c r="AQ44" s="28" t="s">
+      <c r="AV44" s="54" t="s">
+        <v>206</v>
+      </c>
+      <c r="AW44" s="54" t="s">
+        <v>209</v>
+      </c>
+      <c r="AX44" s="54" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="45" spans="1:50" s="10" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A45" s="29" t="s">
+        <v>454</v>
+      </c>
+      <c r="B45" s="29" t="s">
+        <v>245</v>
+      </c>
+      <c r="C45" s="29" t="s">
+        <v>455</v>
+      </c>
+      <c r="D45" s="29" t="s">
+        <v>456</v>
+      </c>
+      <c r="E45" s="30">
+        <v>1997</v>
+      </c>
+      <c r="F45" s="28" t="s">
+        <v>457</v>
+      </c>
+      <c r="G45" s="28" t="s">
+        <v>458</v>
+      </c>
+      <c r="H45" s="29" t="s">
+        <v>265</v>
+      </c>
+      <c r="I45" s="28" t="s">
+        <v>459</v>
+      </c>
+      <c r="J45" s="28" t="s">
+        <v>435</v>
+      </c>
+      <c r="K45" s="29" t="s">
+        <v>460</v>
+      </c>
+      <c r="L45" s="29" t="s">
+        <v>254</v>
+      </c>
+      <c r="M45" s="28" t="s">
+        <v>461</v>
+      </c>
+      <c r="N45" s="28" t="s">
+        <v>256</v>
+      </c>
+      <c r="O45" s="28" t="s">
+        <v>257</v>
+      </c>
+      <c r="P45" s="28" t="s">
+        <v>254</v>
+      </c>
+      <c r="Q45" s="28" t="s">
+        <v>21</v>
+      </c>
+      <c r="R45" s="28"/>
+      <c r="S45" s="28" t="s">
+        <v>31</v>
+      </c>
+      <c r="T45" s="28" t="s">
+        <v>46</v>
+      </c>
+      <c r="U45" s="28" t="s">
+        <v>55</v>
+      </c>
+      <c r="V45" s="28" t="s">
+        <v>42</v>
+      </c>
+      <c r="W45" s="28" t="s">
+        <v>51</v>
+      </c>
+      <c r="X45" s="28" t="s">
+        <v>80</v>
+      </c>
+      <c r="Y45" s="28"/>
+      <c r="Z45" s="28" t="s">
+        <v>519</v>
+      </c>
+      <c r="AA45" s="28">
+        <v>2</v>
+      </c>
+      <c r="AB45" s="28">
+        <v>2</v>
+      </c>
+      <c r="AC45" s="28">
+        <v>3</v>
+      </c>
+      <c r="AD45" s="28"/>
+      <c r="AE45" s="28"/>
+      <c r="AF45" s="28" t="s">
+        <v>319</v>
+      </c>
+      <c r="AG45" s="28" t="s">
+        <v>113</v>
+      </c>
+      <c r="AH45" s="28" t="s">
+        <v>119</v>
+      </c>
+      <c r="AI45" s="28" t="s">
+        <v>132</v>
+      </c>
+      <c r="AJ45" s="28"/>
+      <c r="AK45" s="28"/>
+      <c r="AL45" s="28"/>
+      <c r="AM45" s="28" t="s">
+        <v>234</v>
+      </c>
+      <c r="AN45" s="28" t="s">
+        <v>162</v>
+      </c>
+      <c r="AO45" s="28" t="s">
+        <v>614</v>
+      </c>
+      <c r="AP45" s="28"/>
+      <c r="AQ45" s="28" t="s">
         <v>166</v>
       </c>
-      <c r="AR44" s="28" t="s">
-        <v>172</v>
-      </c>
-      <c r="AS44" s="28" t="s">
-        <v>191</v>
-      </c>
-      <c r="AT44" s="28" t="s">
+      <c r="AR45" s="28" t="s">
+        <v>241</v>
+      </c>
+      <c r="AS45" s="28" t="s">
+        <v>177</v>
+      </c>
+      <c r="AT45" s="28" t="s">
         <v>518</v>
       </c>
-      <c r="AU44" s="28" t="s">
-        <v>618</v>
-      </c>
-      <c r="AV44" s="28" t="s">
+      <c r="AU45" s="28" t="s">
+        <v>617</v>
+      </c>
+      <c r="AV45" s="28" t="s">
         <v>206</v>
       </c>
-      <c r="AW44" s="28" t="s">
+      <c r="AW45" s="28" t="s">
         <v>209</v>
       </c>
-      <c r="AX44" s="28" t="s">
-        <v>531</v>
-      </c>
-    </row>
-    <row r="45" spans="1:50" s="10" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A45" s="44" t="s">
-        <v>462</v>
-      </c>
-      <c r="B45" s="44" t="s">
-        <v>245</v>
-      </c>
-      <c r="C45" s="44" t="s">
-        <v>463</v>
-      </c>
-      <c r="D45" s="44" t="s">
-        <v>464</v>
-      </c>
-      <c r="E45" s="45">
-        <v>1984</v>
-      </c>
-      <c r="F45" s="46" t="s">
-        <v>465</v>
-      </c>
-      <c r="G45" s="46" t="s">
-        <v>406</v>
-      </c>
-      <c r="H45" s="44" t="s">
-        <v>388</v>
-      </c>
-      <c r="I45" s="46" t="s">
-        <v>466</v>
-      </c>
-      <c r="J45" s="46" t="s">
-        <v>467</v>
-      </c>
-      <c r="K45" s="44" t="s">
-        <v>468</v>
-      </c>
-      <c r="L45" s="44" t="s">
-        <v>254</v>
-      </c>
-      <c r="M45" s="46" t="s">
-        <v>469</v>
-      </c>
-      <c r="N45" s="46" t="s">
-        <v>256</v>
-      </c>
-      <c r="O45" s="46" t="s">
-        <v>257</v>
-      </c>
-      <c r="P45" s="46" t="s">
-        <v>254</v>
-      </c>
-      <c r="Q45" s="46" t="s">
-        <v>21</v>
-      </c>
-      <c r="R45" s="46" t="s">
-        <v>84</v>
-      </c>
-      <c r="S45" s="46"/>
-      <c r="T45" s="46"/>
-      <c r="U45" s="46"/>
-      <c r="V45" s="46"/>
-      <c r="W45" s="46"/>
-      <c r="X45" s="46"/>
-      <c r="Y45" s="46"/>
-      <c r="Z45" s="46"/>
-      <c r="AA45" s="46"/>
-      <c r="AB45" s="46"/>
-      <c r="AC45" s="46"/>
-      <c r="AD45" s="46"/>
-      <c r="AE45" s="46"/>
-      <c r="AF45" s="46" t="s">
-        <v>259</v>
-      </c>
-      <c r="AG45" s="46"/>
-      <c r="AH45" s="46"/>
-      <c r="AI45" s="46"/>
-      <c r="AJ45" s="46"/>
-      <c r="AK45" s="46"/>
-      <c r="AL45" s="46"/>
-      <c r="AM45" s="46"/>
-      <c r="AN45" s="46"/>
-      <c r="AO45" s="46"/>
-      <c r="AP45" s="46"/>
-      <c r="AQ45" s="46"/>
-      <c r="AR45" s="46"/>
-      <c r="AS45" s="46"/>
-      <c r="AT45" s="46"/>
-      <c r="AU45" s="46"/>
-      <c r="AV45" s="46"/>
-      <c r="AW45" s="46"/>
-      <c r="AX45" s="46"/>
+      <c r="AX45" s="28" t="s">
+        <v>530</v>
+      </c>
     </row>
     <row r="46" spans="1:50" s="10" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A46" s="56" t="s">
+      <c r="A46" s="29" t="s">
+        <v>454</v>
+      </c>
+      <c r="B46" s="29" t="s">
+        <v>245</v>
+      </c>
+      <c r="C46" s="29" t="s">
+        <v>455</v>
+      </c>
+      <c r="D46" s="29" t="s">
+        <v>456</v>
+      </c>
+      <c r="E46" s="30">
+        <v>1997</v>
+      </c>
+      <c r="F46" s="28" t="s">
+        <v>457</v>
+      </c>
+      <c r="G46" s="28" t="s">
+        <v>458</v>
+      </c>
+      <c r="H46" s="29" t="s">
+        <v>265</v>
+      </c>
+      <c r="I46" s="28" t="s">
+        <v>459</v>
+      </c>
+      <c r="J46" s="28" t="s">
+        <v>435</v>
+      </c>
+      <c r="K46" s="29" t="s">
+        <v>460</v>
+      </c>
+      <c r="L46" s="29" t="s">
+        <v>254</v>
+      </c>
+      <c r="M46" s="28" t="s">
+        <v>461</v>
+      </c>
+      <c r="N46" s="28" t="s">
+        <v>256</v>
+      </c>
+      <c r="O46" s="28" t="s">
+        <v>257</v>
+      </c>
+      <c r="P46" s="28" t="s">
+        <v>254</v>
+      </c>
+      <c r="Q46" s="28" t="s">
+        <v>21</v>
+      </c>
+      <c r="R46" s="28"/>
+      <c r="S46" s="28" t="s">
+        <v>31</v>
+      </c>
+      <c r="T46" s="28" t="s">
+        <v>46</v>
+      </c>
+      <c r="U46" s="28" t="s">
+        <v>55</v>
+      </c>
+      <c r="V46" s="28" t="s">
+        <v>42</v>
+      </c>
+      <c r="W46" s="28" t="s">
+        <v>51</v>
+      </c>
+      <c r="X46" s="28" t="s">
+        <v>80</v>
+      </c>
+      <c r="Y46" s="28"/>
+      <c r="Z46" s="28" t="s">
+        <v>519</v>
+      </c>
+      <c r="AA46" s="28">
+        <v>2</v>
+      </c>
+      <c r="AB46" s="28">
+        <v>2</v>
+      </c>
+      <c r="AC46" s="28">
+        <v>3</v>
+      </c>
+      <c r="AD46" s="28"/>
+      <c r="AE46" s="28"/>
+      <c r="AF46" s="28" t="s">
+        <v>319</v>
+      </c>
+      <c r="AG46" s="28" t="s">
+        <v>113</v>
+      </c>
+      <c r="AH46" s="28" t="s">
+        <v>119</v>
+      </c>
+      <c r="AI46" s="28" t="s">
+        <v>132</v>
+      </c>
+      <c r="AJ46" s="28"/>
+      <c r="AK46" s="28"/>
+      <c r="AL46" s="28"/>
+      <c r="AM46" s="28" t="s">
+        <v>234</v>
+      </c>
+      <c r="AN46" s="28" t="s">
+        <v>162</v>
+      </c>
+      <c r="AO46" s="28" t="s">
+        <v>616</v>
+      </c>
+      <c r="AP46" s="28"/>
+      <c r="AQ46" s="28" t="s">
+        <v>166</v>
+      </c>
+      <c r="AR46" s="28" t="s">
+        <v>172</v>
+      </c>
+      <c r="AS46" s="28" t="s">
+        <v>191</v>
+      </c>
+      <c r="AT46" s="28" t="s">
+        <v>518</v>
+      </c>
+      <c r="AU46" s="28" t="s">
+        <v>617</v>
+      </c>
+      <c r="AV46" s="28" t="s">
+        <v>206</v>
+      </c>
+      <c r="AW46" s="28" t="s">
+        <v>209</v>
+      </c>
+      <c r="AX46" s="28" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="47" spans="1:50" s="10" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A47" s="44" t="s">
+        <v>462</v>
+      </c>
+      <c r="B47" s="44" t="s">
+        <v>245</v>
+      </c>
+      <c r="C47" s="44" t="s">
+        <v>463</v>
+      </c>
+      <c r="D47" s="44" t="s">
+        <v>464</v>
+      </c>
+      <c r="E47" s="45">
+        <v>1984</v>
+      </c>
+      <c r="F47" s="46" t="s">
+        <v>465</v>
+      </c>
+      <c r="G47" s="46" t="s">
+        <v>406</v>
+      </c>
+      <c r="H47" s="44" t="s">
+        <v>388</v>
+      </c>
+      <c r="I47" s="46" t="s">
+        <v>466</v>
+      </c>
+      <c r="J47" s="46" t="s">
+        <v>467</v>
+      </c>
+      <c r="K47" s="44" t="s">
+        <v>468</v>
+      </c>
+      <c r="L47" s="44" t="s">
+        <v>254</v>
+      </c>
+      <c r="M47" s="46" t="s">
+        <v>469</v>
+      </c>
+      <c r="N47" s="46" t="s">
+        <v>256</v>
+      </c>
+      <c r="O47" s="46" t="s">
+        <v>257</v>
+      </c>
+      <c r="P47" s="46" t="s">
+        <v>254</v>
+      </c>
+      <c r="Q47" s="46" t="s">
+        <v>21</v>
+      </c>
+      <c r="R47" s="46" t="s">
+        <v>84</v>
+      </c>
+      <c r="S47" s="46"/>
+      <c r="T47" s="46"/>
+      <c r="U47" s="46"/>
+      <c r="V47" s="46"/>
+      <c r="W47" s="46"/>
+      <c r="X47" s="46"/>
+      <c r="Y47" s="46"/>
+      <c r="Z47" s="46"/>
+      <c r="AA47" s="46"/>
+      <c r="AB47" s="46"/>
+      <c r="AC47" s="46"/>
+      <c r="AD47" s="46"/>
+      <c r="AE47" s="46"/>
+      <c r="AF47" s="46" t="s">
+        <v>259</v>
+      </c>
+      <c r="AG47" s="46"/>
+      <c r="AH47" s="46"/>
+      <c r="AI47" s="46"/>
+      <c r="AJ47" s="46"/>
+      <c r="AK47" s="46"/>
+      <c r="AL47" s="46"/>
+      <c r="AM47" s="46"/>
+      <c r="AN47" s="46"/>
+      <c r="AO47" s="46"/>
+      <c r="AP47" s="46"/>
+      <c r="AQ47" s="46"/>
+      <c r="AR47" s="46"/>
+      <c r="AS47" s="46"/>
+      <c r="AT47" s="46"/>
+      <c r="AU47" s="46"/>
+      <c r="AV47" s="46"/>
+      <c r="AW47" s="46"/>
+      <c r="AX47" s="46"/>
+    </row>
+    <row r="48" spans="1:50" s="10" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A48" s="56" t="s">
         <v>470</v>
       </c>
-      <c r="B46" s="56" t="s">
+      <c r="B48" s="56" t="s">
         <v>245</v>
       </c>
-      <c r="C46" s="56" t="s">
+      <c r="C48" s="56" t="s">
         <v>471</v>
       </c>
-      <c r="D46" s="56" t="s">
+      <c r="D48" s="56" t="s">
         <v>472</v>
       </c>
-      <c r="E46" s="57">
+      <c r="E48" s="57">
         <v>2020</v>
       </c>
-      <c r="F46" s="58" t="s">
+      <c r="F48" s="58" t="s">
         <v>473</v>
       </c>
-      <c r="G46" s="58" t="s">
+      <c r="G48" s="58" t="s">
         <v>474</v>
       </c>
-      <c r="H46" s="56"/>
-      <c r="I46" s="58"/>
-      <c r="J46" s="58"/>
-      <c r="K46" s="56" t="s">
+      <c r="H48" s="56"/>
+      <c r="I48" s="58"/>
+      <c r="J48" s="58"/>
+      <c r="K48" s="56" t="s">
         <v>475</v>
       </c>
-      <c r="L46" s="56" t="s">
+      <c r="L48" s="56" t="s">
         <v>254</v>
       </c>
-      <c r="M46" s="58" t="s">
+      <c r="M48" s="58" t="s">
         <v>476</v>
       </c>
-      <c r="N46" s="58" t="s">
+      <c r="N48" s="58" t="s">
         <v>256</v>
       </c>
-      <c r="O46" s="58" t="s">
+      <c r="O48" s="58" t="s">
         <v>257</v>
       </c>
-      <c r="P46" s="58"/>
-      <c r="Q46" s="58" t="s">
+      <c r="P48" s="58"/>
+      <c r="Q48" s="58" t="s">
         <v>22</v>
       </c>
-      <c r="R46" s="58" t="s">
+      <c r="R48" s="58" t="s">
         <v>84</v>
       </c>
-      <c r="S46" s="58"/>
-      <c r="T46" s="58"/>
-      <c r="U46" s="58"/>
-      <c r="V46" s="58"/>
-      <c r="W46" s="58"/>
-      <c r="X46" s="58"/>
-      <c r="Y46" s="58"/>
-      <c r="Z46" s="58"/>
-      <c r="AA46" s="58"/>
-      <c r="AB46" s="58"/>
-      <c r="AC46" s="58"/>
-      <c r="AD46" s="58"/>
-      <c r="AE46" s="58"/>
-      <c r="AF46" s="58"/>
-      <c r="AG46" s="58"/>
-      <c r="AH46" s="58"/>
-      <c r="AI46" s="58"/>
-      <c r="AJ46" s="58"/>
-      <c r="AK46" s="58"/>
-      <c r="AL46" s="58"/>
-      <c r="AM46" s="58"/>
-      <c r="AN46" s="58"/>
-      <c r="AO46" s="58"/>
-      <c r="AP46" s="58"/>
-      <c r="AQ46" s="58"/>
-      <c r="AR46" s="58"/>
-      <c r="AS46" s="58"/>
-      <c r="AT46" s="58"/>
-      <c r="AU46" s="58"/>
-      <c r="AV46" s="58"/>
-      <c r="AW46" s="58"/>
-      <c r="AX46" s="58"/>
+      <c r="S48" s="58"/>
+      <c r="T48" s="58"/>
+      <c r="U48" s="58"/>
+      <c r="V48" s="58"/>
+      <c r="W48" s="58"/>
+      <c r="X48" s="58"/>
+      <c r="Y48" s="58"/>
+      <c r="Z48" s="58"/>
+      <c r="AA48" s="58"/>
+      <c r="AB48" s="58"/>
+      <c r="AC48" s="58"/>
+      <c r="AD48" s="58"/>
+      <c r="AE48" s="58"/>
+      <c r="AF48" s="58"/>
+      <c r="AG48" s="58"/>
+      <c r="AH48" s="58"/>
+      <c r="AI48" s="58"/>
+      <c r="AJ48" s="58"/>
+      <c r="AK48" s="58"/>
+      <c r="AL48" s="58"/>
+      <c r="AM48" s="58"/>
+      <c r="AN48" s="58"/>
+      <c r="AO48" s="58"/>
+      <c r="AP48" s="58"/>
+      <c r="AQ48" s="58"/>
+      <c r="AR48" s="58"/>
+      <c r="AS48" s="58"/>
+      <c r="AT48" s="58"/>
+      <c r="AU48" s="58"/>
+      <c r="AV48" s="58"/>
+      <c r="AW48" s="58"/>
+      <c r="AX48" s="58"/>
     </row>
-    <row r="47" spans="1:50" s="16" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A47" s="41" t="s">
+    <row r="49" spans="1:50" s="16" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A49" s="41" t="s">
         <v>477</v>
       </c>
-      <c r="B47" s="41" t="s">
+      <c r="B49" s="41" t="s">
         <v>245</v>
       </c>
-      <c r="C47" s="41" t="s">
+      <c r="C49" s="41" t="s">
         <v>478</v>
       </c>
-      <c r="D47" s="41" t="s">
+      <c r="D49" s="41" t="s">
         <v>479</v>
       </c>
-      <c r="E47" s="42">
+      <c r="E49" s="42">
         <v>2018</v>
       </c>
-      <c r="F47" s="43" t="s">
+      <c r="F49" s="43" t="s">
         <v>480</v>
       </c>
-      <c r="G47" s="43" t="s">
+      <c r="G49" s="43" t="s">
         <v>380</v>
       </c>
-      <c r="H47" s="41" t="s">
+      <c r="H49" s="41" t="s">
         <v>334</v>
       </c>
-      <c r="I47" s="43" t="s">
+      <c r="I49" s="43" t="s">
         <v>481</v>
       </c>
-      <c r="J47" s="43" t="s">
+      <c r="J49" s="43" t="s">
         <v>482</v>
       </c>
-      <c r="K47" s="41" t="s">
+      <c r="K49" s="41" t="s">
         <v>483</v>
       </c>
-      <c r="L47" s="41" t="s">
+      <c r="L49" s="41" t="s">
         <v>254</v>
       </c>
-      <c r="M47" s="43" t="s">
+      <c r="M49" s="43" t="s">
         <v>484</v>
       </c>
-      <c r="N47" s="43" t="s">
+      <c r="N49" s="43" t="s">
         <v>256</v>
       </c>
-      <c r="O47" s="43" t="s">
+      <c r="O49" s="43" t="s">
         <v>257</v>
       </c>
-      <c r="P47" s="43"/>
-      <c r="Q47" s="43" t="s">
+      <c r="P49" s="43"/>
+      <c r="Q49" s="43" t="s">
         <v>22</v>
       </c>
-      <c r="R47" s="43"/>
-      <c r="S47" s="43" t="s">
+      <c r="R49" s="43"/>
+      <c r="S49" s="43" t="s">
         <v>35</v>
       </c>
-      <c r="T47" s="43"/>
-      <c r="U47" s="43" t="s">
+      <c r="T49" s="43"/>
+      <c r="U49" s="43" t="s">
         <v>53</v>
       </c>
-      <c r="V47" s="43"/>
-      <c r="W47" s="43" t="s">
+      <c r="V49" s="43"/>
+      <c r="W49" s="43" t="s">
         <v>48</v>
       </c>
-      <c r="X47" s="43" t="s">
+      <c r="X49" s="43" t="s">
         <v>69</v>
       </c>
-      <c r="Y47" s="43" t="s">
+      <c r="Y49" s="43" t="s">
         <v>522</v>
       </c>
-      <c r="Z47" s="43" t="s">
+      <c r="Z49" s="43" t="s">
         <v>523</v>
       </c>
-      <c r="AA47" s="43">
+      <c r="AA49" s="43">
         <v>2</v>
       </c>
-      <c r="AB47" s="43">
+      <c r="AB49" s="43">
         <v>2</v>
       </c>
-      <c r="AC47" s="43">
+      <c r="AC49" s="43">
         <v>3</v>
       </c>
-      <c r="AD47" s="43"/>
-      <c r="AE47" s="43"/>
-      <c r="AF47" s="43" t="s">
+      <c r="AD49" s="43"/>
+      <c r="AE49" s="43"/>
+      <c r="AF49" s="43" t="s">
         <v>280</v>
       </c>
-      <c r="AG47" s="43" t="s">
+      <c r="AG49" s="43" t="s">
         <v>109</v>
       </c>
-      <c r="AH47" s="43" t="s">
+      <c r="AH49" s="43" t="s">
         <v>117</v>
       </c>
-      <c r="AI47" s="43" t="s">
+      <c r="AI49" s="43" t="s">
         <v>131</v>
       </c>
-      <c r="AJ47" s="43" t="s">
+      <c r="AJ49" s="43" t="s">
         <v>157</v>
       </c>
-      <c r="AK47" s="43"/>
-      <c r="AL47" s="43" t="s">
+      <c r="AK49" s="43"/>
+      <c r="AL49" s="43" t="s">
+        <v>618</v>
+      </c>
+      <c r="AM49" s="43" t="s">
+        <v>234</v>
+      </c>
+      <c r="AN49" s="43" t="s">
+        <v>164</v>
+      </c>
+      <c r="AO49" s="43" t="s">
+        <v>521</v>
+      </c>
+      <c r="AP49" s="43"/>
+      <c r="AQ49" s="43" t="s">
+        <v>166</v>
+      </c>
+      <c r="AR49" s="43" t="s">
+        <v>172</v>
+      </c>
+      <c r="AS49" s="43" t="s">
+        <v>190</v>
+      </c>
+      <c r="AT49" s="43" t="s">
+        <v>520</v>
+      </c>
+      <c r="AU49" s="43" t="s">
         <v>619</v>
       </c>
-      <c r="AM47" s="43" t="s">
-        <v>234</v>
-      </c>
-      <c r="AN47" s="43" t="s">
-        <v>164</v>
-      </c>
-      <c r="AO47" s="43" t="s">
-        <v>521</v>
-      </c>
-      <c r="AP47" s="43"/>
-      <c r="AQ47" s="43" t="s">
-        <v>166</v>
-      </c>
-      <c r="AR47" s="43" t="s">
-        <v>172</v>
-      </c>
-      <c r="AS47" s="43" t="s">
-        <v>190</v>
-      </c>
-      <c r="AT47" s="43" t="s">
-        <v>520</v>
-      </c>
-      <c r="AU47" s="43" t="s">
-        <v>620</v>
-      </c>
-      <c r="AV47" s="43" t="s">
+      <c r="AV49" s="43" t="s">
         <v>214</v>
       </c>
-      <c r="AW47" s="43" t="s">
+      <c r="AW49" s="43" t="s">
         <v>212</v>
       </c>
-      <c r="AX47" s="43" t="s">
-        <v>532</v>
+      <c r="AX49" s="43" t="s">
+        <v>531</v>
       </c>
     </row>
-    <row r="48" spans="1:50" x14ac:dyDescent="0.35">
-      <c r="A48" s="32"/>
-      <c r="B48" s="32"/>
-      <c r="C48" s="32"/>
-      <c r="D48" s="32"/>
-      <c r="E48" s="33"/>
-      <c r="F48" s="34"/>
-      <c r="G48" s="34"/>
-      <c r="H48" s="32"/>
-      <c r="I48" s="34"/>
-      <c r="J48" s="34"/>
-      <c r="K48" s="32"/>
-      <c r="L48" s="32"/>
-      <c r="M48" s="34"/>
-      <c r="N48" s="34"/>
-      <c r="O48" s="34"/>
-      <c r="P48" s="34"/>
-      <c r="Q48" s="34"/>
-      <c r="R48" s="34"/>
-      <c r="S48" s="34"/>
-      <c r="T48" s="34"/>
-      <c r="U48" s="34"/>
-      <c r="V48" s="34"/>
-      <c r="W48" s="34"/>
-      <c r="X48" s="34"/>
-      <c r="Y48" s="34"/>
-      <c r="Z48" s="34"/>
-      <c r="AA48" s="34"/>
-      <c r="AB48" s="34"/>
-      <c r="AC48" s="34"/>
-      <c r="AD48" s="34"/>
-      <c r="AE48" s="34"/>
-      <c r="AF48" s="34"/>
-      <c r="AG48" s="34"/>
-      <c r="AH48" s="34"/>
-      <c r="AI48" s="34"/>
-      <c r="AJ48" s="34"/>
-      <c r="AK48" s="34"/>
-      <c r="AL48" s="34"/>
-      <c r="AM48" s="34"/>
-      <c r="AN48" s="34"/>
-      <c r="AO48" s="34"/>
-      <c r="AP48" s="34"/>
-      <c r="AQ48" s="34"/>
-      <c r="AR48" s="34"/>
-      <c r="AS48" s="34"/>
-      <c r="AT48" s="34"/>
-      <c r="AU48" s="34"/>
-      <c r="AV48" s="34"/>
-      <c r="AW48" s="34"/>
-      <c r="AX48" s="34"/>
+    <row r="50" spans="1:50" x14ac:dyDescent="0.35">
+      <c r="A50" s="32"/>
+      <c r="B50" s="32"/>
+      <c r="C50" s="32"/>
+      <c r="D50" s="32"/>
+      <c r="E50" s="33"/>
+      <c r="F50" s="34"/>
+      <c r="G50" s="34"/>
+      <c r="H50" s="32"/>
+      <c r="I50" s="34"/>
+      <c r="J50" s="34"/>
+      <c r="K50" s="32"/>
+      <c r="L50" s="32"/>
+      <c r="M50" s="34"/>
+      <c r="N50" s="34"/>
+      <c r="O50" s="34"/>
+      <c r="P50" s="34"/>
+      <c r="Q50" s="34"/>
+      <c r="R50" s="34"/>
+      <c r="S50" s="34"/>
+      <c r="T50" s="34"/>
+      <c r="U50" s="34"/>
+      <c r="V50" s="34"/>
+      <c r="W50" s="34"/>
+      <c r="X50" s="34"/>
+      <c r="Y50" s="34"/>
+      <c r="Z50" s="34"/>
+      <c r="AA50" s="34"/>
+      <c r="AB50" s="34"/>
+      <c r="AC50" s="34"/>
+      <c r="AD50" s="34"/>
+      <c r="AE50" s="34"/>
+      <c r="AF50" s="34"/>
+      <c r="AG50" s="34"/>
+      <c r="AH50" s="34"/>
+      <c r="AI50" s="34"/>
+      <c r="AJ50" s="34"/>
+      <c r="AK50" s="34"/>
+      <c r="AL50" s="34"/>
+      <c r="AM50" s="34"/>
+      <c r="AN50" s="34"/>
+      <c r="AO50" s="34"/>
+      <c r="AP50" s="34"/>
+      <c r="AQ50" s="34"/>
+      <c r="AR50" s="34"/>
+      <c r="AS50" s="34"/>
+      <c r="AT50" s="34"/>
+      <c r="AU50" s="34"/>
+      <c r="AV50" s="34"/>
+      <c r="AW50" s="34"/>
+      <c r="AX50" s="34"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -10953,14 +11246,14 @@
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
   <dataValidations count="4">
-    <dataValidation showInputMessage="1" showErrorMessage="1" sqref="P7:Q9 P10:P47 P49:P1048576 Q3:Q13" xr:uid="{00000000-0002-0000-0000-000000000000}"/>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AH49:AH1048576 AH3:AH47" xr:uid="{AF359FC3-11D6-40D8-822F-0719E91CF390}">
+    <dataValidation showInputMessage="1" showErrorMessage="1" sqref="P7:Q9 Q3:Q13 P51:P1048576 P10:P49" xr:uid="{00000000-0002-0000-0000-000000000000}"/>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AH51:AH1048576 AH3:AH49" xr:uid="{AF359FC3-11D6-40D8-822F-0719E91CF390}">
       <formula1>Ecosystem_component</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AQ49:AQ1048576 AQ3:AQ47" xr:uid="{5FFD7ACF-9A7A-47E4-8F02-C092CA18B67C}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AQ51:AQ1048576 AQ3:AQ49" xr:uid="{5FFD7ACF-9A7A-47E4-8F02-C092CA18B67C}">
       <formula1>Fishery_type</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AR49:AS1048576 AI49:AJ1048576 AN49:AO1048576 AN3:AN47 AI3:AJ47 AR3:AS47" xr:uid="{E3465DE4-B915-4C62-9316-EABEC40DC1E6}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AR51:AS1048576 AI51:AJ1048576 AN51:AO1048576 AN3:AN49 AI3:AJ49 AR3:AS49" xr:uid="{E3465DE4-B915-4C62-9316-EABEC40DC1E6}">
       <formula1>INDIRECT(AH3)</formula1>
     </dataValidation>
   </dataValidations>
@@ -10974,91 +11267,91 @@
           <x14:formula1>
             <xm:f>Validation!$R$3:$R$9</xm:f>
           </x14:formula1>
-          <xm:sqref>R49:R1048576 Q3:Q47</xm:sqref>
+          <xm:sqref>R51:R1048576 Q3:Q49</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000003000000}">
           <x14:formula1>
             <xm:f>Validation!$T$3:$T$13</xm:f>
           </x14:formula1>
-          <xm:sqref>T49:T1048576 T3:T47</xm:sqref>
+          <xm:sqref>T51:T1048576 T3:T49</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{29748323-CD5F-4931-861D-B58814ED75B7}">
           <x14:formula1>
             <xm:f>Validation!$AM$5:$AM$11</xm:f>
           </x14:formula1>
-          <xm:sqref>AM49:AM1048576 AM3:AM47</xm:sqref>
+          <xm:sqref>AM51:AM1048576 AM3:AM49</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000002000000}">
           <x14:formula1>
             <xm:f>Validation!$S$3:$S$16</xm:f>
           </x14:formula1>
-          <xm:sqref>S49:S1048576 S3:S47</xm:sqref>
+          <xm:sqref>S51:S1048576 S3:S49</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000004000000}">
           <x14:formula1>
             <xm:f>Validation!$U$3:$U$15</xm:f>
           </x14:formula1>
-          <xm:sqref>U49:U1048576 U3:U47</xm:sqref>
+          <xm:sqref>U51:U1048576 U3:U49</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000005000000}">
           <x14:formula1>
             <xm:f>Validation!$V$3:$V$13</xm:f>
           </x14:formula1>
-          <xm:sqref>V49:V1048576 V3:V47</xm:sqref>
+          <xm:sqref>V51:V1048576 V3:V49</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000006000000}">
           <x14:formula1>
             <xm:f>Validation!$W$3:$W$16</xm:f>
           </x14:formula1>
-          <xm:sqref>W49:W1048576 W3:W47</xm:sqref>
+          <xm:sqref>W51:W1048576 W3:W49</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000008000000}">
           <x14:formula1>
             <xm:f>Validation!$AA$3:$AA$5</xm:f>
           </x14:formula1>
-          <xm:sqref>AA49:AA1048576 AA3:AA47</xm:sqref>
+          <xm:sqref>AA51:AA1048576 AA3:AA49</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000009000000}">
           <x14:formula1>
             <xm:f>Validation!$AB$3:$AB$5</xm:f>
           </x14:formula1>
-          <xm:sqref>AB49:AB1048576 AB3:AB47</xm:sqref>
+          <xm:sqref>AB51:AB1048576 AB3:AB49</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-00000A000000}">
           <x14:formula1>
             <xm:f>Validation!$AC$3:$AC$5</xm:f>
           </x14:formula1>
-          <xm:sqref>AC49:AC1048576 AC3:AC47</xm:sqref>
+          <xm:sqref>AC51:AC1048576 AC3:AC49</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{6E0E886C-57EB-4CC0-93EF-80FA3E3ACE94}">
           <x14:formula1>
             <xm:f>Validation!$AG$3:$AG$9</xm:f>
           </x14:formula1>
-          <xm:sqref>AG49:AG1048576 AG3:AG47</xm:sqref>
+          <xm:sqref>AG51:AG1048576 AG3:AG49</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{FD092EEC-9635-4A23-B39A-38C3C681ED3E}">
           <x14:formula1>
             <xm:f>Validation!$AK$3:$AK$7</xm:f>
           </x14:formula1>
-          <xm:sqref>AK49:AK1048576 AK3:AK47</xm:sqref>
+          <xm:sqref>AK51:AK1048576 AK3:AK49</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{16FDFCD7-4CD9-4F70-9E07-7559EBA53348}">
           <x14:formula1>
             <xm:f>Validation!$X$3:$X$16</xm:f>
           </x14:formula1>
-          <xm:sqref>X49:X1048576 X3:X47</xm:sqref>
+          <xm:sqref>X51:X1048576 X3:X49</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{1AED246B-78BD-4B6C-B85A-7398E223C347}">
           <x14:formula1>
             <xm:f>Validation!$AV$3:$AV$6</xm:f>
           </x14:formula1>
-          <xm:sqref>AW49:AW1048576 AW3:AW47</xm:sqref>
+          <xm:sqref>AW51:AW1048576 AW3:AW49</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{6F97DC8F-A365-45BB-9124-070E7CE8EC23}">
           <x14:formula1>
             <xm:f>Validation!$AU$3:$AU$15</xm:f>
           </x14:formula1>
-          <xm:sqref>AV49:AV1048576 AV3:AV47</xm:sqref>
+          <xm:sqref>AV51:AV1048576 AV3:AV49</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -13135,18 +13428,18 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -13166,24 +13459,24 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{495201D0-9695-4A45-BC3A-28D949F46F55}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{66D459FE-C8DA-484C-BC8E-5EB6A351EBC9}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{66D459FE-C8DA-484C-BC8E-5EB6A351EBC9}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{495201D0-9695-4A45-BC3A-28D949F46F55}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/Systematic Reviews/Analysis Task 4.1/Data_Extraction_Files/DataExtractionForm_WP4_Basurko.xlsx
+++ b/Systematic Reviews/Analysis Task 4.1/Data_Extraction_Files/DataExtractionForm_WP4_Basurko.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://dtudk-my.sharepoint.com/personal/estb_dtu_dk/Documents/Projects/SEAwise/T4.1/Data extraction/Read only SP files to be uploaded_SP issues Nov22/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://share.dtu.dk/sites/SEAwise_517900/Shared Documents/WP4 Ecological effects of fisheries/Task 4.1/Data extraction/Data extraction files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="41" documentId="13_ncr:1_{0F0A3A5E-C14A-4867-91F5-1DA54BBDDF0E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{28CA6207-BD50-4EB8-BE06-FA64466F2CB8}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2EB2FCAC-8067-4DC9-ABBC-C6E030287984}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DataExtraction" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
     <sheet name="Drop-down overview" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">DataExtraction!$A$2:$AX$53</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">DataExtraction!$A$2:$AX$55</definedName>
     <definedName name="Benthic_epifauna">Validation!$AI$32:$AI$35</definedName>
     <definedName name="Benthos">Validation!$AN$24:$AN$25</definedName>
     <definedName name="Catch_and_bycatch">Validation!$AM$15:$AM$17</definedName>
@@ -2335,7 +2335,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2395" uniqueCount="639">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2474" uniqueCount="644">
   <si>
     <t>SearchID</t>
   </si>
@@ -3919,9 +3919,6 @@
     <t>Discards seem to be a relatively important food source for the bottom scavengers. 85% of the total stomach content were discards, implying that for those species at least, the additional food source provided by discarded material is important. However, under natural conditions, the influence of the discarded material might not be so considerable. Predators and scavenger species such as Pagellus acarne and P. bogaraveo may move to areas disturbed by bottom trawling in order to prey on discarded or damaged material. Planktophagous species such as P. bogaraveo can also take advantage of discards as a supplementary food resource to their tradictional one. Scyliorhinus canigula and skates beneftit most from discarding in the studied area, though it has to be borne in mind that such species have become very abundant in the area since the closure of the trawl fishery.</t>
   </si>
   <si>
-    <t xml:space="preserve">The trawl did not change the sediment grain size, although it did disturb the upper 6 cm of sediment. Experimental trawling induced a modification in the macrobenthic community that was most evident immediately after the haul. Total biomass and total abundance of macrobethos values had decreased immediately after dreding (t0) but had increased again after 1 week. The macrobenthic community of the fishing ground (f) was similar to that of the control site, although biomass values were significantly lower in the fished area. The community in the exploited area was less diverse and dominated by only three phyla (Mollusca, Artropoda, and Echinodermata). For meiofauba: the data revealed some marked but complex effects of bottom disturbance. The common taxa showed quite different responses: Nemertini, Harpacticoida, and Copepoda decreased, Nematoda and Paraoida increased, Sididae showed an increase after 1 week. </t>
-  </si>
-  <si>
     <t>Although bottom otter trawling fishing activity tends to have a negative impact on the majority of species, in this case, we find a certain benefit. Although the lesser spotted dogfish is indeed affected by fishing mortality because of the fishing activity, this effect is not as severe as it is for other species, since nearly all specimens caught are discarded, and their survival rate can be as high as 90% in half-hour hauls; meanwhile, they take advantage of the food provided by discards and prey killed or damaged by fishing.</t>
   </si>
   <si>
@@ -4000,15 +3997,9 @@
     <t>Crustaceans (Liocarcinus depurator, Medorippe lanata, Goneplax rhomboides)</t>
   </si>
   <si>
-    <t>Discard biomass and catch composition</t>
-  </si>
-  <si>
     <t>Specimens with longer and thin appendages, like males of G. rhomboides, seemed to be particularly vulnerable to the fishing and sorting operations; this could also explain the positive correlation between damage level and size found in this species. The severity and frequency of damage was mainly correlated with interspecific and intraspecific (sexual dimorphism) morphological and behavioural characteristics. Males of G. rhomboides, seemed to be particularly vulnerable to the fishing and sorting operations; this could also explain the positive correlation between damage level and size found in this species. In M. lanata, small individuals proved to be more vulnerable, while for L. depurator no significant correlation was found between damage and size.</t>
   </si>
   <si>
-    <t>The three species represented from 7 to 31% of the discarded biomass, varying with season.</t>
-  </si>
-  <si>
     <t>Damage incurred among species, sexes and, for females, maturity stage (presence of ovigerous females)</t>
   </si>
   <si>
@@ -4076,9 +4067,6 @@
   </si>
   <si>
     <t>Nemertini _ Nematoda _ Cirratulidae _ Paraonidae _ Harpacticoida _ Copepoda _ Sididae</t>
-  </si>
-  <si>
-    <t>Abundance and biomass, No. of taxa, Total no. of individuals, Shannon index, Eveness after dredging and after 1 week</t>
   </si>
   <si>
     <t>Seasonal variability</t>
@@ -4128,12 +4116,6 @@
     <t>The results of the present study suggested that:  Small-sized roundfish species are not favourably affected by square meshes, a fact suggesting that other factors (e.g. behaviour, swimming performance) may also be implicated.</t>
   </si>
   <si>
-    <t>Evidence of Rapido trawl disturbance from sidescan sonar image</t>
-  </si>
-  <si>
-    <t>Evidence of Rapido trawl disturbance from scuba diving observations</t>
-  </si>
-  <si>
     <t>Catch (in total number and weight per species caught) 1 and 15 h after fishing by Rapido trawl</t>
   </si>
   <si>
@@ -4255,6 +4237,39 @@
   </si>
   <si>
     <t>Their diet composition was similar at both disturbed and undisturbed sites, and the only detectable change was a shift of ingested abundance of selected prey. This indicates that the analysed species do not opportunistically prey upon fauna damaged by the trawling gear. Nevertheless, the ingestion of prey was generally dependent on their availability in the environment. This suggests that changes in prey ingestion are adaptations to changes in the relative abundance of potential prey species that may be caused by trawling activities.</t>
+  </si>
+  <si>
+    <t>Grain size</t>
+  </si>
+  <si>
+    <t>The trawl did not change the sediment grain size, although it did disturb the upper 6 cm of sediment.</t>
+  </si>
+  <si>
+    <t>total abundance _ total biomass</t>
+  </si>
+  <si>
+    <t>community composition</t>
+  </si>
+  <si>
+    <t>Shannon index</t>
+  </si>
+  <si>
+    <t>Evenness</t>
+  </si>
+  <si>
+    <t>Total biomass and total abundance of macrobethos values had decreased immediately after dreding (t0) but had increased again after 1 week. For meiofauna, compared with the control area, the fishing ground showed a significantly higher total number of individuals.</t>
+  </si>
+  <si>
+    <t>The macrobenthic community of the fishing ground (f) was similar to that of the control site, although biomass values were significantly lower in the fished area. The MDS ordination of meiobenthos data from the experimental area showed significant differences (ANOSIM, p&lt;0.001) among the three treatments.</t>
+  </si>
+  <si>
+    <t>For the macrobenthic community, no significant variations among treatments were detected in total biomass and in the Shannon index. For meiofauna, diversity was  significantly reduced after trawling.</t>
+  </si>
+  <si>
+    <t>Macrobenthos: Evenness was significantly higher just after trawling than before or later. Meiofauna: significantly lower evenness at fishing ground compared to control.</t>
+  </si>
+  <si>
+    <t>Evidence of Rapido trawl disturbance from sidescan sonar observations</t>
   </si>
 </sst>
 </file>
@@ -4547,6 +4562,9 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -4582,9 +4600,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -4871,119 +4886,119 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AX54"/>
+  <dimension ref="A1:AX56"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="AN6" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="AL27" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="AO8" sqref="AO8"/>
+      <selection pane="bottomRight" activeCell="AQ34" sqref="AQ34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="13" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="13" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="2" max="2" width="5" customWidth="1"/>
-    <col min="3" max="3" width="24.5703125" customWidth="1"/>
-    <col min="4" max="4" width="39.85546875" customWidth="1"/>
-    <col min="5" max="5" width="8.140625" style="12" customWidth="1"/>
-    <col min="6" max="6" width="35.85546875" style="8" customWidth="1"/>
+    <col min="3" max="3" width="24.54296875" customWidth="1"/>
+    <col min="4" max="4" width="39.81640625" customWidth="1"/>
+    <col min="5" max="5" width="8.1796875" style="12" customWidth="1"/>
+    <col min="6" max="6" width="35.81640625" style="8" customWidth="1"/>
     <col min="7" max="7" width="13" style="8"/>
     <col min="9" max="10" width="13" style="8"/>
     <col min="13" max="17" width="13" style="8"/>
-    <col min="18" max="18" width="20.140625" style="8" customWidth="1"/>
-    <col min="19" max="19" width="18.140625" style="8" customWidth="1"/>
+    <col min="18" max="18" width="20.1796875" style="8" customWidth="1"/>
+    <col min="19" max="19" width="18.1796875" style="8" customWidth="1"/>
     <col min="20" max="20" width="13" style="8" customWidth="1"/>
     <col min="21" max="23" width="13" style="8"/>
-    <col min="24" max="25" width="32.5703125" style="8" customWidth="1"/>
-    <col min="26" max="26" width="16.42578125" style="8" customWidth="1"/>
+    <col min="24" max="25" width="32.54296875" style="8" customWidth="1"/>
+    <col min="26" max="26" width="16.453125" style="8" customWidth="1"/>
     <col min="27" max="27" width="13" style="8"/>
     <col min="28" max="28" width="13" style="8" customWidth="1"/>
     <col min="29" max="32" width="13" style="8"/>
-    <col min="33" max="33" width="21.140625" style="8" customWidth="1"/>
-    <col min="34" max="35" width="17.5703125" style="8" customWidth="1"/>
-    <col min="36" max="36" width="18.5703125" style="8" customWidth="1"/>
-    <col min="37" max="37" width="19.140625" style="8" customWidth="1"/>
-    <col min="38" max="38" width="22.140625" style="8" customWidth="1"/>
-    <col min="39" max="39" width="36.42578125" style="8" customWidth="1"/>
-    <col min="40" max="40" width="15.85546875" style="8" customWidth="1"/>
-    <col min="41" max="41" width="16.85546875" style="8" customWidth="1"/>
-    <col min="42" max="42" width="15.42578125" style="8" customWidth="1"/>
+    <col min="33" max="33" width="21.1796875" style="8" customWidth="1"/>
+    <col min="34" max="35" width="17.54296875" style="8" customWidth="1"/>
+    <col min="36" max="36" width="18.54296875" style="8" customWidth="1"/>
+    <col min="37" max="37" width="19.1796875" style="8" customWidth="1"/>
+    <col min="38" max="38" width="22.1796875" style="8" customWidth="1"/>
+    <col min="39" max="39" width="36.453125" style="8" customWidth="1"/>
+    <col min="40" max="40" width="15.81640625" style="8" customWidth="1"/>
+    <col min="41" max="41" width="16.81640625" style="8" customWidth="1"/>
+    <col min="42" max="42" width="15.453125" style="8" customWidth="1"/>
     <col min="43" max="45" width="13" style="8"/>
-    <col min="46" max="46" width="15.140625" style="8" customWidth="1"/>
-    <col min="47" max="47" width="18.5703125" style="8" customWidth="1"/>
-    <col min="48" max="48" width="20.140625" style="8" customWidth="1"/>
+    <col min="46" max="46" width="15.1796875" style="8" customWidth="1"/>
+    <col min="47" max="47" width="18.54296875" style="8" customWidth="1"/>
+    <col min="48" max="48" width="20.1796875" style="8" customWidth="1"/>
     <col min="49" max="49" width="13" style="8"/>
-    <col min="50" max="50" width="37.5703125" style="8" customWidth="1"/>
-    <col min="51" max="51" width="34.140625" customWidth="1"/>
+    <col min="50" max="50" width="37.54296875" style="8" customWidth="1"/>
+    <col min="51" max="51" width="34.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A1" s="61" t="s">
+    <row r="1" spans="1:50" x14ac:dyDescent="0.35">
+      <c r="A1" s="62" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="61"/>
-      <c r="C1" s="61"/>
-      <c r="D1" s="61"/>
-      <c r="E1" s="61"/>
-      <c r="F1" s="61"/>
-      <c r="G1" s="61"/>
-      <c r="H1" s="61"/>
-      <c r="I1" s="61"/>
-      <c r="J1" s="61"/>
-      <c r="K1" s="61"/>
-      <c r="L1" s="61"/>
-      <c r="M1" s="61"/>
-      <c r="N1" s="61"/>
-      <c r="O1" s="61"/>
-      <c r="P1" s="61"/>
-      <c r="Q1" s="61"/>
-      <c r="R1" s="64" t="s">
+      <c r="B1" s="62"/>
+      <c r="C1" s="62"/>
+      <c r="D1" s="62"/>
+      <c r="E1" s="62"/>
+      <c r="F1" s="62"/>
+      <c r="G1" s="62"/>
+      <c r="H1" s="62"/>
+      <c r="I1" s="62"/>
+      <c r="J1" s="62"/>
+      <c r="K1" s="62"/>
+      <c r="L1" s="62"/>
+      <c r="M1" s="62"/>
+      <c r="N1" s="62"/>
+      <c r="O1" s="62"/>
+      <c r="P1" s="62"/>
+      <c r="Q1" s="62"/>
+      <c r="R1" s="65" t="s">
         <v>12</v>
       </c>
-      <c r="S1" s="64"/>
-      <c r="T1" s="64"/>
-      <c r="U1" s="64"/>
-      <c r="V1" s="64"/>
-      <c r="W1" s="64"/>
-      <c r="X1" s="64"/>
-      <c r="Y1" s="64"/>
-      <c r="Z1" s="64"/>
-      <c r="AA1" s="64"/>
-      <c r="AB1" s="64"/>
-      <c r="AC1" s="64"/>
-      <c r="AD1" s="64"/>
-      <c r="AE1" s="64"/>
-      <c r="AF1" s="62" t="s">
+      <c r="S1" s="65"/>
+      <c r="T1" s="65"/>
+      <c r="U1" s="65"/>
+      <c r="V1" s="65"/>
+      <c r="W1" s="65"/>
+      <c r="X1" s="65"/>
+      <c r="Y1" s="65"/>
+      <c r="Z1" s="65"/>
+      <c r="AA1" s="65"/>
+      <c r="AB1" s="65"/>
+      <c r="AC1" s="65"/>
+      <c r="AD1" s="65"/>
+      <c r="AE1" s="65"/>
+      <c r="AF1" s="63" t="s">
         <v>88</v>
       </c>
-      <c r="AG1" s="62"/>
-      <c r="AH1" s="63" t="s">
+      <c r="AG1" s="63"/>
+      <c r="AH1" s="64" t="s">
         <v>91</v>
       </c>
-      <c r="AI1" s="63"/>
-      <c r="AJ1" s="63"/>
-      <c r="AK1" s="63"/>
-      <c r="AL1" s="63"/>
-      <c r="AM1" s="65" t="s">
+      <c r="AI1" s="64"/>
+      <c r="AJ1" s="64"/>
+      <c r="AK1" s="64"/>
+      <c r="AL1" s="64"/>
+      <c r="AM1" s="66" t="s">
         <v>97</v>
       </c>
-      <c r="AN1" s="65"/>
-      <c r="AO1" s="65"/>
-      <c r="AP1" s="65"/>
-      <c r="AQ1" s="59" t="s">
+      <c r="AN1" s="66"/>
+      <c r="AO1" s="66"/>
+      <c r="AP1" s="66"/>
+      <c r="AQ1" s="60" t="s">
         <v>101</v>
       </c>
-      <c r="AR1" s="59"/>
-      <c r="AS1" s="59"/>
-      <c r="AT1" s="59"/>
-      <c r="AU1" s="60" t="s">
+      <c r="AR1" s="60"/>
+      <c r="AS1" s="60"/>
+      <c r="AT1" s="60"/>
+      <c r="AU1" s="61" t="s">
         <v>104</v>
       </c>
-      <c r="AV1" s="60"/>
-      <c r="AW1" s="60"/>
-      <c r="AX1" s="60"/>
+      <c r="AV1" s="61"/>
+      <c r="AW1" s="61"/>
+      <c r="AX1" s="61"/>
     </row>
-    <row r="2" spans="1:50" s="2" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:50" s="2" customFormat="1" ht="58" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
         <v>68</v>
       </c>
@@ -5135,7 +5150,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="3" spans="1:50" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:50" s="10" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A3" s="18" t="s">
         <v>244</v>
       </c>
@@ -5225,7 +5240,7 @@
       <c r="AW3" s="20"/>
       <c r="AX3" s="20"/>
     </row>
-    <row r="4" spans="1:50" s="14" customFormat="1" ht="13.7" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:50" s="14" customFormat="1" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="35" t="s">
         <v>260</v>
       </c>
@@ -5300,7 +5315,7 @@
         <v>485</v>
       </c>
       <c r="Z4" s="37" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="AA4" s="37">
         <v>2</v>
@@ -5332,14 +5347,14 @@
       </c>
       <c r="AK4" s="37"/>
       <c r="AL4" s="37" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="AM4" s="37" t="s">
         <v>233</v>
       </c>
       <c r="AN4" s="37"/>
       <c r="AO4" s="37" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="AP4" s="37"/>
       <c r="AQ4" s="37" t="s">
@@ -5353,7 +5368,7 @@
       </c>
       <c r="AT4" s="37"/>
       <c r="AU4" s="37" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="AV4" s="37" t="s">
         <v>214</v>
@@ -5365,7 +5380,7 @@
         <v>524</v>
       </c>
     </row>
-    <row r="5" spans="1:50" s="15" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:50" s="15" customFormat="1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="38" t="s">
         <v>270</v>
       </c>
@@ -5440,7 +5455,7 @@
         <v>486</v>
       </c>
       <c r="Z5" s="40" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="AA5" s="40">
         <v>2</v>
@@ -5453,7 +5468,7 @@
       </c>
       <c r="AD5" s="40"/>
       <c r="AE5" s="40" t="s">
-        <v>626</v>
+        <v>620</v>
       </c>
       <c r="AF5" s="40" t="s">
         <v>280</v>
@@ -5472,7 +5487,7 @@
       </c>
       <c r="AK5" s="40"/>
       <c r="AL5" s="40" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="AM5" s="40" t="s">
         <v>234</v>
@@ -5481,10 +5496,10 @@
         <v>164</v>
       </c>
       <c r="AO5" s="40" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="AP5" s="40" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="AQ5" s="40" t="s">
         <v>166</v>
@@ -5497,7 +5512,7 @@
       </c>
       <c r="AT5" s="40"/>
       <c r="AU5" s="40" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="AV5" s="40" t="s">
         <v>240</v>
@@ -5509,7 +5524,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="6" spans="1:50" s="15" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:50" s="15" customFormat="1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="21" t="s">
         <v>270</v>
       </c>
@@ -5584,7 +5599,7 @@
         <v>486</v>
       </c>
       <c r="Z6" s="23" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="AA6" s="23">
         <v>2</v>
@@ -5597,7 +5612,7 @@
       </c>
       <c r="AD6" s="23"/>
       <c r="AE6" s="23" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="AF6" s="23" t="s">
         <v>280</v>
@@ -5616,17 +5631,17 @@
       </c>
       <c r="AK6" s="23"/>
       <c r="AL6" s="23" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="AM6" s="23" t="s">
         <v>161</v>
       </c>
       <c r="AN6" s="23"/>
       <c r="AO6" s="23" t="s">
-        <v>627</v>
+        <v>621</v>
       </c>
       <c r="AP6" s="23" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="AQ6" s="23" t="s">
         <v>166</v>
@@ -5638,10 +5653,10 @@
         <v>192</v>
       </c>
       <c r="AT6" s="23" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="AU6" s="23" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="AV6" s="23" t="s">
         <v>205</v>
@@ -5650,10 +5665,10 @@
         <v>212</v>
       </c>
       <c r="AX6" s="23" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
     </row>
-    <row r="7" spans="1:50" s="16" customFormat="1" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:50" s="16" customFormat="1" ht="16.399999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="41" t="s">
         <v>281</v>
       </c>
@@ -5725,10 +5740,10 @@
         <v>75</v>
       </c>
       <c r="Y7" s="40" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="Z7" s="40" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="AA7" s="43">
         <v>2</v>
@@ -5756,14 +5771,14 @@
       <c r="AJ7" s="43"/>
       <c r="AK7" s="43"/>
       <c r="AL7" s="43" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="AM7" s="43" t="s">
         <v>235</v>
       </c>
       <c r="AN7" s="43"/>
       <c r="AO7" s="43" t="s">
-        <v>635</v>
+        <v>629</v>
       </c>
       <c r="AP7" s="43"/>
       <c r="AQ7" s="43" t="s">
@@ -5776,10 +5791,10 @@
         <v>177</v>
       </c>
       <c r="AT7" s="43" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="AU7" s="43" t="s">
-        <v>632</v>
+        <v>626</v>
       </c>
       <c r="AV7" s="43" t="s">
         <v>205</v>
@@ -5787,11 +5802,11 @@
       <c r="AW7" s="43" t="s">
         <v>212</v>
       </c>
-      <c r="AX7" s="71" t="s">
-        <v>638</v>
+      <c r="AX7" s="59" t="s">
+        <v>632</v>
       </c>
     </row>
-    <row r="8" spans="1:50" s="16" customFormat="1" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:50" s="16" customFormat="1" ht="16.399999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="41" t="s">
         <v>281</v>
       </c>
@@ -5863,10 +5878,10 @@
         <v>75</v>
       </c>
       <c r="Y8" s="40" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="Z8" s="40" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="AA8" s="43">
         <v>2</v>
@@ -5896,14 +5911,14 @@
       <c r="AJ8" s="43"/>
       <c r="AK8" s="43"/>
       <c r="AL8" s="43" t="s">
-        <v>634</v>
+        <v>628</v>
       </c>
       <c r="AM8" s="43" t="s">
         <v>235</v>
       </c>
       <c r="AN8" s="43"/>
       <c r="AO8" s="43" t="s">
-        <v>635</v>
+        <v>629</v>
       </c>
       <c r="AP8" s="43"/>
       <c r="AQ8" s="43" t="s">
@@ -5916,10 +5931,10 @@
         <v>177</v>
       </c>
       <c r="AT8" s="43" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="AU8" s="43" t="s">
-        <v>632</v>
+        <v>626</v>
       </c>
       <c r="AV8" s="43" t="s">
         <v>205</v>
@@ -5927,11 +5942,11 @@
       <c r="AW8" s="43" t="s">
         <v>212</v>
       </c>
-      <c r="AX8" s="71" t="s">
-        <v>638</v>
+      <c r="AX8" s="59" t="s">
+        <v>632</v>
       </c>
     </row>
-    <row r="9" spans="1:50" s="16" customFormat="1" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:50" s="16" customFormat="1" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="24" t="s">
         <v>281</v>
       </c>
@@ -6003,10 +6018,10 @@
         <v>75</v>
       </c>
       <c r="Y9" s="23" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="Z9" s="23" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="AA9" s="26">
         <v>2</v>
@@ -6038,14 +6053,14 @@
       </c>
       <c r="AK9" s="26"/>
       <c r="AL9" s="26" t="s">
-        <v>633</v>
+        <v>627</v>
       </c>
       <c r="AM9" s="26" t="s">
         <v>235</v>
       </c>
       <c r="AN9" s="26"/>
       <c r="AO9" s="43" t="s">
-        <v>635</v>
+        <v>629</v>
       </c>
       <c r="AP9" s="26"/>
       <c r="AQ9" s="26" t="s">
@@ -6058,10 +6073,10 @@
         <v>177</v>
       </c>
       <c r="AT9" s="26" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="AU9" s="43" t="s">
-        <v>632</v>
+        <v>626</v>
       </c>
       <c r="AV9" s="43" t="s">
         <v>205</v>
@@ -6069,11 +6084,11 @@
       <c r="AW9" s="43" t="s">
         <v>212</v>
       </c>
-      <c r="AX9" s="71" t="s">
-        <v>638</v>
+      <c r="AX9" s="59" t="s">
+        <v>632</v>
       </c>
     </row>
-    <row r="10" spans="1:50" s="16" customFormat="1" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:50" s="16" customFormat="1" ht="16.399999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="41" t="s">
         <v>281</v>
       </c>
@@ -6145,10 +6160,10 @@
         <v>75</v>
       </c>
       <c r="Y10" s="40" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="Z10" s="40" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="AA10" s="43">
         <v>2</v>
@@ -6176,14 +6191,14 @@
       <c r="AJ10" s="43"/>
       <c r="AK10" s="43"/>
       <c r="AL10" s="43" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="AM10" s="43" t="s">
         <v>235</v>
       </c>
       <c r="AN10" s="43"/>
       <c r="AO10" s="43" t="s">
-        <v>635</v>
+        <v>629</v>
       </c>
       <c r="AP10" s="43"/>
       <c r="AQ10" s="43" t="s">
@@ -6196,10 +6211,10 @@
         <v>177</v>
       </c>
       <c r="AT10" s="43" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="AU10" s="43" t="s">
-        <v>636</v>
+        <v>630</v>
       </c>
       <c r="AV10" s="43" t="s">
         <v>205</v>
@@ -6207,11 +6222,11 @@
       <c r="AW10" s="43" t="s">
         <v>211</v>
       </c>
-      <c r="AX10" s="71" t="s">
-        <v>637</v>
+      <c r="AX10" s="59" t="s">
+        <v>631</v>
       </c>
     </row>
-    <row r="11" spans="1:50" s="16" customFormat="1" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:50" s="16" customFormat="1" ht="16.399999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="41" t="s">
         <v>281</v>
       </c>
@@ -6283,10 +6298,10 @@
         <v>75</v>
       </c>
       <c r="Y11" s="40" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="Z11" s="40" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="AA11" s="43">
         <v>2</v>
@@ -6316,14 +6331,14 @@
       <c r="AJ11" s="43"/>
       <c r="AK11" s="43"/>
       <c r="AL11" s="43" t="s">
-        <v>634</v>
+        <v>628</v>
       </c>
       <c r="AM11" s="43" t="s">
         <v>235</v>
       </c>
       <c r="AN11" s="43"/>
       <c r="AO11" s="43" t="s">
-        <v>635</v>
+        <v>629</v>
       </c>
       <c r="AP11" s="43"/>
       <c r="AQ11" s="43" t="s">
@@ -6336,10 +6351,10 @@
         <v>177</v>
       </c>
       <c r="AT11" s="43" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="AU11" s="43" t="s">
-        <v>636</v>
+        <v>630</v>
       </c>
       <c r="AV11" s="43" t="s">
         <v>205</v>
@@ -6347,11 +6362,11 @@
       <c r="AW11" s="43" t="s">
         <v>211</v>
       </c>
-      <c r="AX11" s="71" t="s">
-        <v>637</v>
+      <c r="AX11" s="59" t="s">
+        <v>631</v>
       </c>
     </row>
-    <row r="12" spans="1:50" s="16" customFormat="1" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:50" s="16" customFormat="1" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="24" t="s">
         <v>281</v>
       </c>
@@ -6423,10 +6438,10 @@
         <v>75</v>
       </c>
       <c r="Y12" s="23" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="Z12" s="23" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="AA12" s="26">
         <v>2</v>
@@ -6458,14 +6473,14 @@
       </c>
       <c r="AK12" s="26"/>
       <c r="AL12" s="26" t="s">
-        <v>633</v>
+        <v>627</v>
       </c>
       <c r="AM12" s="26" t="s">
         <v>235</v>
       </c>
       <c r="AN12" s="26"/>
       <c r="AO12" s="43" t="s">
-        <v>635</v>
+        <v>629</v>
       </c>
       <c r="AP12" s="26"/>
       <c r="AQ12" s="26" t="s">
@@ -6478,10 +6493,10 @@
         <v>177</v>
       </c>
       <c r="AT12" s="26" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="AU12" s="43" t="s">
-        <v>636</v>
+        <v>630</v>
       </c>
       <c r="AV12" s="43" t="s">
         <v>205</v>
@@ -6489,11 +6504,11 @@
       <c r="AW12" s="43" t="s">
         <v>211</v>
       </c>
-      <c r="AX12" s="71" t="s">
-        <v>637</v>
+      <c r="AX12" s="59" t="s">
+        <v>631</v>
       </c>
     </row>
-    <row r="13" spans="1:50" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:50" s="10" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A13" s="44" t="s">
         <v>291</v>
       </c>
@@ -6583,7 +6598,7 @@
       <c r="AW13" s="46"/>
       <c r="AX13" s="46"/>
     </row>
-    <row r="14" spans="1:50" s="17" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:50" s="17" customFormat="1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="43" t="s">
         <v>299</v>
       </c>
@@ -6658,7 +6673,7 @@
         <v>487</v>
       </c>
       <c r="Z14" s="40" t="s">
-        <v>615</v>
+        <v>609</v>
       </c>
       <c r="AA14" s="43">
         <v>2</v>
@@ -6693,10 +6708,10 @@
       </c>
       <c r="AN14" s="43"/>
       <c r="AO14" s="43" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="AP14" s="43" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="AQ14" s="43" t="s">
         <v>166</v>
@@ -6720,10 +6735,10 @@
         <v>210</v>
       </c>
       <c r="AX14" s="40" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
     </row>
-    <row r="15" spans="1:50" s="17" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:50" s="17" customFormat="1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="26" t="s">
         <v>299</v>
       </c>
@@ -6798,7 +6813,7 @@
         <v>487</v>
       </c>
       <c r="Z15" s="23" t="s">
-        <v>615</v>
+        <v>609</v>
       </c>
       <c r="AA15" s="26">
         <v>2</v>
@@ -6833,10 +6848,10 @@
       </c>
       <c r="AN15" s="26"/>
       <c r="AO15" s="26" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="AP15" s="26" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="AQ15" s="26" t="s">
         <v>166</v>
@@ -6851,7 +6866,7 @@
         <v>490</v>
       </c>
       <c r="AU15" s="26" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="AV15" s="26" t="s">
         <v>201</v>
@@ -6860,10 +6875,10 @@
         <v>210</v>
       </c>
       <c r="AX15" s="23" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
     </row>
-    <row r="16" spans="1:50" s="16" customFormat="1" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:50" s="16" customFormat="1" ht="17.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="41" t="s">
         <v>309</v>
       </c>
@@ -6934,7 +6949,7 @@
         <v>492</v>
       </c>
       <c r="Z16" s="40" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="AA16" s="43">
         <v>2</v>
@@ -6968,7 +6983,7 @@
         <v>136</v>
       </c>
       <c r="AL16" s="43" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="AM16" s="43" t="s">
         <v>234</v>
@@ -6991,7 +7006,7 @@
       </c>
       <c r="AT16" s="40"/>
       <c r="AU16" s="40" t="s">
-        <v>557</v>
+        <v>554</v>
       </c>
       <c r="AV16" s="43" t="s">
         <v>215</v>
@@ -7000,188 +7015,138 @@
         <v>210</v>
       </c>
       <c r="AX16" s="40" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
     </row>
-    <row r="17" spans="1:50" s="16" customFormat="1" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="24" t="s">
-        <v>309</v>
-      </c>
-      <c r="B17" s="24" t="s">
+    <row r="17" spans="1:50" s="16" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="48" t="s">
+        <v>320</v>
+      </c>
+      <c r="B17" s="48" t="s">
         <v>245</v>
       </c>
-      <c r="C17" s="26" t="s">
-        <v>310</v>
-      </c>
-      <c r="D17" s="24" t="s">
-        <v>311</v>
-      </c>
-      <c r="E17" s="25">
-        <v>2006</v>
-      </c>
-      <c r="F17" s="26" t="s">
-        <v>312</v>
-      </c>
-      <c r="G17" s="26" t="s">
-        <v>313</v>
-      </c>
-      <c r="H17" s="24" t="s">
-        <v>275</v>
-      </c>
-      <c r="I17" s="26" t="s">
-        <v>314</v>
-      </c>
-      <c r="J17" s="26" t="s">
-        <v>315</v>
-      </c>
-      <c r="K17" s="24" t="s">
-        <v>316</v>
-      </c>
-      <c r="L17" s="24" t="s">
+      <c r="C17" s="48" t="s">
+        <v>321</v>
+      </c>
+      <c r="D17" s="48" t="s">
+        <v>322</v>
+      </c>
+      <c r="E17" s="49">
+        <v>2005</v>
+      </c>
+      <c r="F17" s="50" t="s">
+        <v>323</v>
+      </c>
+      <c r="G17" s="50" t="s">
+        <v>324</v>
+      </c>
+      <c r="H17" s="48" t="s">
+        <v>325</v>
+      </c>
+      <c r="I17" s="50" t="s">
+        <v>326</v>
+      </c>
+      <c r="J17" s="50" t="s">
+        <v>327</v>
+      </c>
+      <c r="K17" s="48" t="s">
+        <v>328</v>
+      </c>
+      <c r="L17" s="48" t="s">
         <v>254</v>
       </c>
-      <c r="M17" s="26" t="s">
-        <v>317</v>
-      </c>
-      <c r="N17" s="26" t="s">
+      <c r="M17" s="50" t="s">
+        <v>329</v>
+      </c>
+      <c r="N17" s="50" t="s">
         <v>256</v>
       </c>
-      <c r="O17" s="26" t="s">
-        <v>318</v>
-      </c>
-      <c r="P17" s="26" t="s">
+      <c r="O17" s="50" t="s">
+        <v>257</v>
+      </c>
+      <c r="P17" s="50" t="s">
         <v>254</v>
       </c>
-      <c r="Q17" s="26" t="s">
+      <c r="Q17" s="50" t="s">
         <v>21</v>
       </c>
-      <c r="R17" s="26"/>
-      <c r="S17" s="26" t="s">
-        <v>31</v>
-      </c>
-      <c r="T17" s="26"/>
-      <c r="U17" s="26" t="s">
-        <v>55</v>
-      </c>
-      <c r="V17" s="26"/>
-      <c r="W17" s="26" t="s">
-        <v>51</v>
-      </c>
-      <c r="X17" s="26" t="s">
-        <v>218</v>
-      </c>
-      <c r="Y17" s="26" t="s">
-        <v>492</v>
-      </c>
-      <c r="Z17" s="23" t="s">
-        <v>534</v>
-      </c>
-      <c r="AA17" s="26">
-        <v>2</v>
-      </c>
-      <c r="AB17" s="26">
-        <v>2</v>
-      </c>
-      <c r="AC17" s="26">
-        <v>3</v>
-      </c>
-      <c r="AD17" s="26" t="s">
-        <v>491</v>
-      </c>
-      <c r="AE17" s="26"/>
-      <c r="AF17" s="26" t="s">
-        <v>319</v>
-      </c>
-      <c r="AG17" s="26" t="s">
-        <v>109</v>
-      </c>
-      <c r="AH17" s="26" t="s">
-        <v>122</v>
-      </c>
-      <c r="AI17" s="26" t="s">
-        <v>142</v>
-      </c>
-      <c r="AJ17" s="26" t="s">
-        <v>115</v>
-      </c>
-      <c r="AK17" s="26" t="s">
-        <v>136</v>
-      </c>
-      <c r="AL17" s="26" t="s">
-        <v>553</v>
-      </c>
-      <c r="AM17" s="26" t="s">
-        <v>234</v>
-      </c>
-      <c r="AN17" s="26" t="s">
-        <v>163</v>
-      </c>
-      <c r="AO17" s="26" t="s">
-        <v>161</v>
-      </c>
-      <c r="AP17" s="26"/>
-      <c r="AQ17" s="26" t="s">
-        <v>166</v>
-      </c>
-      <c r="AR17" s="26" t="s">
-        <v>241</v>
-      </c>
-      <c r="AS17" s="26" t="s">
-        <v>178</v>
-      </c>
-      <c r="AT17" s="23"/>
-      <c r="AU17" s="23" t="s">
-        <v>554</v>
-      </c>
-      <c r="AV17" s="26" t="s">
-        <v>201</v>
-      </c>
-      <c r="AW17" s="26" t="s">
-        <v>210</v>
-      </c>
-      <c r="AX17" s="23" t="s">
-        <v>556</v>
-      </c>
+      <c r="R17" s="46" t="s">
+        <v>84</v>
+      </c>
+      <c r="S17" s="50"/>
+      <c r="T17" s="50"/>
+      <c r="U17" s="50"/>
+      <c r="V17" s="50"/>
+      <c r="W17" s="50"/>
+      <c r="X17" s="50"/>
+      <c r="Y17" s="51"/>
+      <c r="Z17" s="50"/>
+      <c r="AA17" s="50"/>
+      <c r="AB17" s="50"/>
+      <c r="AC17" s="50"/>
+      <c r="AD17" s="50"/>
+      <c r="AE17" s="50"/>
+      <c r="AF17" s="50" t="s">
+        <v>259</v>
+      </c>
+      <c r="AG17" s="50"/>
+      <c r="AH17" s="50"/>
+      <c r="AI17" s="50"/>
+      <c r="AJ17" s="50"/>
+      <c r="AK17" s="50"/>
+      <c r="AL17" s="50"/>
+      <c r="AM17" s="50"/>
+      <c r="AN17" s="50"/>
+      <c r="AO17" s="50"/>
+      <c r="AP17" s="50"/>
+      <c r="AQ17" s="50"/>
+      <c r="AR17" s="50"/>
+      <c r="AS17" s="50"/>
+      <c r="AT17" s="50"/>
+      <c r="AU17" s="50"/>
+      <c r="AV17" s="50"/>
+      <c r="AW17" s="50"/>
+      <c r="AX17" s="50"/>
     </row>
-    <row r="18" spans="1:50" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:50" s="16" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A18" s="48" t="s">
-        <v>320</v>
+        <v>330</v>
       </c>
       <c r="B18" s="48" t="s">
         <v>245</v>
       </c>
       <c r="C18" s="48" t="s">
-        <v>321</v>
+        <v>331</v>
       </c>
       <c r="D18" s="48" t="s">
-        <v>322</v>
+        <v>332</v>
       </c>
       <c r="E18" s="49">
         <v>2005</v>
       </c>
       <c r="F18" s="50" t="s">
-        <v>323</v>
+        <v>333</v>
       </c>
       <c r="G18" s="50" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="H18" s="48" t="s">
-        <v>325</v>
+        <v>334</v>
       </c>
       <c r="I18" s="50" t="s">
-        <v>326</v>
+        <v>335</v>
       </c>
       <c r="J18" s="50" t="s">
-        <v>327</v>
+        <v>336</v>
       </c>
       <c r="K18" s="48" t="s">
-        <v>328</v>
+        <v>337</v>
       </c>
       <c r="L18" s="48" t="s">
         <v>254</v>
       </c>
       <c r="M18" s="50" t="s">
-        <v>329</v>
+        <v>338</v>
       </c>
       <c r="N18" s="50" t="s">
         <v>256</v>
@@ -7195,8 +7160,8 @@
       <c r="Q18" s="50" t="s">
         <v>21</v>
       </c>
-      <c r="R18" s="46" t="s">
-        <v>84</v>
+      <c r="R18" s="44" t="s">
+        <v>82</v>
       </c>
       <c r="S18" s="50"/>
       <c r="T18" s="50"/>
@@ -7204,7 +7169,7 @@
       <c r="V18" s="50"/>
       <c r="W18" s="50"/>
       <c r="X18" s="50"/>
-      <c r="Y18" s="51"/>
+      <c r="Y18" s="50"/>
       <c r="Z18" s="50"/>
       <c r="AA18" s="50"/>
       <c r="AB18" s="50"/>
@@ -7212,7 +7177,7 @@
       <c r="AD18" s="50"/>
       <c r="AE18" s="50"/>
       <c r="AF18" s="50" t="s">
-        <v>259</v>
+        <v>319</v>
       </c>
       <c r="AG18" s="50"/>
       <c r="AH18" s="50"/>
@@ -7231,152 +7196,152 @@
       <c r="AU18" s="50"/>
       <c r="AV18" s="50"/>
       <c r="AW18" s="50"/>
-      <c r="AX18" s="50"/>
+      <c r="AX18" s="51"/>
     </row>
-    <row r="19" spans="1:50" s="16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="48" t="s">
-        <v>330</v>
-      </c>
-      <c r="B19" s="48" t="s">
+    <row r="19" spans="1:50" s="10" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="44" t="s">
+        <v>339</v>
+      </c>
+      <c r="B19" s="44" t="s">
         <v>245</v>
       </c>
-      <c r="C19" s="48" t="s">
-        <v>331</v>
-      </c>
-      <c r="D19" s="48" t="s">
-        <v>332</v>
-      </c>
-      <c r="E19" s="49">
-        <v>2005</v>
-      </c>
-      <c r="F19" s="50" t="s">
-        <v>333</v>
-      </c>
-      <c r="G19" s="50" t="s">
-        <v>325</v>
-      </c>
-      <c r="H19" s="48" t="s">
-        <v>334</v>
-      </c>
-      <c r="I19" s="50" t="s">
-        <v>335</v>
-      </c>
-      <c r="J19" s="50" t="s">
-        <v>336</v>
-      </c>
-      <c r="K19" s="48" t="s">
-        <v>337</v>
-      </c>
-      <c r="L19" s="48" t="s">
+      <c r="C19" s="44" t="s">
+        <v>340</v>
+      </c>
+      <c r="D19" s="44" t="s">
+        <v>341</v>
+      </c>
+      <c r="E19" s="45">
+        <v>2004</v>
+      </c>
+      <c r="F19" s="46" t="s">
+        <v>342</v>
+      </c>
+      <c r="G19" s="46" t="s">
+        <v>343</v>
+      </c>
+      <c r="H19" s="44" t="s">
+        <v>344</v>
+      </c>
+      <c r="I19" s="46" t="s">
+        <v>345</v>
+      </c>
+      <c r="J19" s="46" t="s">
+        <v>346</v>
+      </c>
+      <c r="K19" s="44" t="s">
+        <v>347</v>
+      </c>
+      <c r="L19" s="44" t="s">
         <v>254</v>
       </c>
-      <c r="M19" s="50" t="s">
-        <v>338</v>
-      </c>
-      <c r="N19" s="50" t="s">
-        <v>256</v>
-      </c>
-      <c r="O19" s="50" t="s">
+      <c r="M19" s="46" t="s">
+        <v>348</v>
+      </c>
+      <c r="N19" s="46" t="s">
+        <v>349</v>
+      </c>
+      <c r="O19" s="46" t="s">
         <v>257</v>
       </c>
-      <c r="P19" s="50" t="s">
-        <v>254</v>
-      </c>
-      <c r="Q19" s="50" t="s">
+      <c r="P19" s="46" t="s">
+        <v>350</v>
+      </c>
+      <c r="Q19" s="46" t="s">
         <v>21</v>
       </c>
-      <c r="R19" s="44" t="s">
-        <v>82</v>
-      </c>
-      <c r="S19" s="50"/>
-      <c r="T19" s="50"/>
-      <c r="U19" s="50"/>
-      <c r="V19" s="50"/>
-      <c r="W19" s="50"/>
-      <c r="X19" s="50"/>
-      <c r="Y19" s="50"/>
-      <c r="Z19" s="50"/>
-      <c r="AA19" s="50"/>
-      <c r="AB19" s="50"/>
-      <c r="AC19" s="50"/>
-      <c r="AD19" s="50"/>
-      <c r="AE19" s="50"/>
-      <c r="AF19" s="50" t="s">
-        <v>319</v>
-      </c>
-      <c r="AG19" s="50"/>
-      <c r="AH19" s="50"/>
-      <c r="AI19" s="50"/>
-      <c r="AJ19" s="50"/>
-      <c r="AK19" s="50"/>
-      <c r="AL19" s="50"/>
-      <c r="AM19" s="50"/>
-      <c r="AN19" s="50"/>
-      <c r="AO19" s="50"/>
-      <c r="AP19" s="50"/>
-      <c r="AQ19" s="50"/>
-      <c r="AR19" s="50"/>
-      <c r="AS19" s="50"/>
-      <c r="AT19" s="50"/>
-      <c r="AU19" s="50"/>
-      <c r="AV19" s="50"/>
-      <c r="AW19" s="50"/>
-      <c r="AX19" s="51"/>
+      <c r="R19" s="46" t="s">
+        <v>84</v>
+      </c>
+      <c r="S19" s="46"/>
+      <c r="T19" s="46"/>
+      <c r="U19" s="46"/>
+      <c r="V19" s="46"/>
+      <c r="W19" s="46"/>
+      <c r="X19" s="46"/>
+      <c r="Y19" s="46"/>
+      <c r="Z19" s="46"/>
+      <c r="AA19" s="46"/>
+      <c r="AB19" s="46"/>
+      <c r="AC19" s="46"/>
+      <c r="AD19" s="46"/>
+      <c r="AE19" s="46"/>
+      <c r="AF19" s="46" t="s">
+        <v>290</v>
+      </c>
+      <c r="AG19" s="46"/>
+      <c r="AH19" s="46"/>
+      <c r="AI19" s="46"/>
+      <c r="AJ19" s="46"/>
+      <c r="AK19" s="46"/>
+      <c r="AL19" s="46"/>
+      <c r="AM19" s="46"/>
+      <c r="AN19" s="46"/>
+      <c r="AO19" s="46"/>
+      <c r="AP19" s="46"/>
+      <c r="AQ19" s="46"/>
+      <c r="AR19" s="46"/>
+      <c r="AS19" s="46"/>
+      <c r="AT19" s="46"/>
+      <c r="AU19" s="46"/>
+      <c r="AV19" s="46"/>
+      <c r="AW19" s="46"/>
+      <c r="AX19" s="46"/>
     </row>
-    <row r="20" spans="1:50" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:50" s="10" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A20" s="44" t="s">
-        <v>339</v>
+        <v>351</v>
       </c>
       <c r="B20" s="44" t="s">
         <v>245</v>
       </c>
       <c r="C20" s="44" t="s">
-        <v>340</v>
+        <v>352</v>
       </c>
       <c r="D20" s="44" t="s">
-        <v>341</v>
+        <v>353</v>
       </c>
       <c r="E20" s="45">
-        <v>2004</v>
+        <v>2003</v>
       </c>
       <c r="F20" s="46" t="s">
-        <v>342</v>
+        <v>354</v>
       </c>
       <c r="G20" s="46" t="s">
-        <v>343</v>
+        <v>355</v>
       </c>
       <c r="H20" s="44" t="s">
-        <v>344</v>
+        <v>275</v>
       </c>
       <c r="I20" s="46" t="s">
-        <v>345</v>
+        <v>334</v>
       </c>
       <c r="J20" s="46" t="s">
-        <v>346</v>
+        <v>356</v>
       </c>
       <c r="K20" s="44" t="s">
-        <v>347</v>
+        <v>357</v>
       </c>
       <c r="L20" s="44" t="s">
         <v>254</v>
       </c>
       <c r="M20" s="46" t="s">
-        <v>348</v>
+        <v>358</v>
       </c>
       <c r="N20" s="46" t="s">
-        <v>349</v>
+        <v>256</v>
       </c>
       <c r="O20" s="46" t="s">
         <v>257</v>
       </c>
       <c r="P20" s="46" t="s">
-        <v>350</v>
+        <v>254</v>
       </c>
       <c r="Q20" s="46" t="s">
         <v>21</v>
       </c>
-      <c r="R20" s="46" t="s">
-        <v>84</v>
+      <c r="R20" s="44" t="s">
+        <v>82</v>
       </c>
       <c r="S20" s="46"/>
       <c r="T20" s="46"/>
@@ -7392,7 +7357,7 @@
       <c r="AD20" s="46"/>
       <c r="AE20" s="46"/>
       <c r="AF20" s="46" t="s">
-        <v>290</v>
+        <v>319</v>
       </c>
       <c r="AG20" s="46"/>
       <c r="AH20" s="46"/>
@@ -7413,1027 +7378,1077 @@
       <c r="AW20" s="46"/>
       <c r="AX20" s="46"/>
     </row>
-    <row r="21" spans="1:50" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="44" t="s">
-        <v>351</v>
-      </c>
-      <c r="B21" s="44" t="s">
+    <row r="21" spans="1:50" s="10" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="52" t="s">
+        <v>359</v>
+      </c>
+      <c r="B21" s="52" t="s">
         <v>245</v>
       </c>
-      <c r="C21" s="44" t="s">
-        <v>352</v>
-      </c>
-      <c r="D21" s="44" t="s">
-        <v>353</v>
-      </c>
-      <c r="E21" s="45">
+      <c r="C21" s="52" t="s">
+        <v>360</v>
+      </c>
+      <c r="D21" s="52" t="s">
+        <v>361</v>
+      </c>
+      <c r="E21" s="53">
         <v>2003</v>
       </c>
-      <c r="F21" s="46" t="s">
-        <v>354</v>
-      </c>
-      <c r="G21" s="46" t="s">
-        <v>355</v>
-      </c>
-      <c r="H21" s="44" t="s">
+      <c r="F21" s="54" t="s">
+        <v>342</v>
+      </c>
+      <c r="G21" s="54" t="s">
+        <v>362</v>
+      </c>
+      <c r="H21" s="52" t="s">
+        <v>344</v>
+      </c>
+      <c r="I21" s="54" t="s">
+        <v>363</v>
+      </c>
+      <c r="J21" s="54" t="s">
+        <v>364</v>
+      </c>
+      <c r="K21" s="52" t="s">
+        <v>365</v>
+      </c>
+      <c r="L21" s="52" t="s">
+        <v>254</v>
+      </c>
+      <c r="M21" s="54" t="s">
+        <v>366</v>
+      </c>
+      <c r="N21" s="54" t="s">
+        <v>256</v>
+      </c>
+      <c r="O21" s="54" t="s">
+        <v>257</v>
+      </c>
+      <c r="P21" s="54" t="s">
+        <v>350</v>
+      </c>
+      <c r="Q21" s="54" t="s">
+        <v>21</v>
+      </c>
+      <c r="R21" s="54"/>
+      <c r="S21" s="54" t="s">
+        <v>27</v>
+      </c>
+      <c r="T21" s="54" t="s">
+        <v>46</v>
+      </c>
+      <c r="U21" s="54" t="s">
+        <v>58</v>
+      </c>
+      <c r="V21" s="54" t="s">
+        <v>46</v>
+      </c>
+      <c r="W21" s="54" t="s">
+        <v>55</v>
+      </c>
+      <c r="X21" s="54" t="s">
+        <v>217</v>
+      </c>
+      <c r="Y21" s="54"/>
+      <c r="Z21" s="54" t="s">
+        <v>497</v>
+      </c>
+      <c r="AA21" s="54">
+        <v>2</v>
+      </c>
+      <c r="AB21" s="54">
+        <v>2</v>
+      </c>
+      <c r="AC21" s="54">
+        <v>3</v>
+      </c>
+      <c r="AD21" s="54"/>
+      <c r="AE21" s="54"/>
+      <c r="AF21" s="54" t="s">
+        <v>319</v>
+      </c>
+      <c r="AG21" s="54" t="s">
+        <v>113</v>
+      </c>
+      <c r="AH21" s="54" t="s">
+        <v>119</v>
+      </c>
+      <c r="AI21" s="54" t="s">
+        <v>146</v>
+      </c>
+      <c r="AJ21" s="54"/>
+      <c r="AK21" s="54"/>
+      <c r="AL21" s="54" t="s">
+        <v>498</v>
+      </c>
+      <c r="AM21" s="54" t="s">
+        <v>234</v>
+      </c>
+      <c r="AN21" s="54" t="s">
+        <v>162</v>
+      </c>
+      <c r="AO21" s="54" t="s">
+        <v>557</v>
+      </c>
+      <c r="AP21" s="54" t="s">
+        <v>555</v>
+      </c>
+      <c r="AQ21" s="54" t="s">
+        <v>166</v>
+      </c>
+      <c r="AR21" s="54" t="s">
+        <v>241</v>
+      </c>
+      <c r="AS21" s="54" t="s">
+        <v>178</v>
+      </c>
+      <c r="AT21" s="54" t="s">
+        <v>498</v>
+      </c>
+      <c r="AU21" s="54" t="s">
+        <v>556</v>
+      </c>
+      <c r="AV21" s="54" t="s">
+        <v>201</v>
+      </c>
+      <c r="AW21" s="54" t="s">
+        <v>209</v>
+      </c>
+      <c r="AX21" s="54" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="22" spans="1:50" s="10" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="29" t="s">
+        <v>359</v>
+      </c>
+      <c r="B22" s="29" t="s">
+        <v>245</v>
+      </c>
+      <c r="C22" s="29" t="s">
+        <v>360</v>
+      </c>
+      <c r="D22" s="29" t="s">
+        <v>361</v>
+      </c>
+      <c r="E22" s="30">
+        <v>2003</v>
+      </c>
+      <c r="F22" s="28" t="s">
+        <v>342</v>
+      </c>
+      <c r="G22" s="28" t="s">
+        <v>362</v>
+      </c>
+      <c r="H22" s="29" t="s">
+        <v>344</v>
+      </c>
+      <c r="I22" s="28" t="s">
+        <v>363</v>
+      </c>
+      <c r="J22" s="28" t="s">
+        <v>364</v>
+      </c>
+      <c r="K22" s="29" t="s">
+        <v>365</v>
+      </c>
+      <c r="L22" s="29" t="s">
+        <v>254</v>
+      </c>
+      <c r="M22" s="28" t="s">
+        <v>366</v>
+      </c>
+      <c r="N22" s="28" t="s">
+        <v>256</v>
+      </c>
+      <c r="O22" s="28" t="s">
+        <v>257</v>
+      </c>
+      <c r="P22" s="28" t="s">
+        <v>350</v>
+      </c>
+      <c r="Q22" s="28" t="s">
+        <v>21</v>
+      </c>
+      <c r="R22" s="28"/>
+      <c r="S22" s="28" t="s">
+        <v>27</v>
+      </c>
+      <c r="T22" s="28" t="s">
+        <v>46</v>
+      </c>
+      <c r="U22" s="28" t="s">
+        <v>58</v>
+      </c>
+      <c r="V22" s="28" t="s">
+        <v>46</v>
+      </c>
+      <c r="W22" s="28" t="s">
+        <v>55</v>
+      </c>
+      <c r="X22" s="28" t="s">
+        <v>217</v>
+      </c>
+      <c r="Y22" s="28"/>
+      <c r="Z22" s="28" t="s">
+        <v>497</v>
+      </c>
+      <c r="AA22" s="28">
+        <v>2</v>
+      </c>
+      <c r="AB22" s="28">
+        <v>2</v>
+      </c>
+      <c r="AC22" s="28">
+        <v>3</v>
+      </c>
+      <c r="AD22" s="28"/>
+      <c r="AE22" s="28"/>
+      <c r="AF22" s="28" t="s">
+        <v>319</v>
+      </c>
+      <c r="AG22" s="28" t="s">
+        <v>113</v>
+      </c>
+      <c r="AH22" s="28" t="s">
+        <v>119</v>
+      </c>
+      <c r="AI22" s="28" t="s">
+        <v>146</v>
+      </c>
+      <c r="AJ22" s="28"/>
+      <c r="AK22" s="28"/>
+      <c r="AL22" s="28" t="s">
+        <v>498</v>
+      </c>
+      <c r="AM22" s="28" t="s">
+        <v>234</v>
+      </c>
+      <c r="AN22" s="28" t="s">
+        <v>162</v>
+      </c>
+      <c r="AO22" s="28" t="s">
+        <v>496</v>
+      </c>
+      <c r="AP22" s="28"/>
+      <c r="AQ22" s="28" t="s">
+        <v>166</v>
+      </c>
+      <c r="AR22" s="28" t="s">
+        <v>241</v>
+      </c>
+      <c r="AS22" s="28" t="s">
+        <v>178</v>
+      </c>
+      <c r="AT22" s="28" t="s">
+        <v>498</v>
+      </c>
+      <c r="AU22" s="28" t="s">
+        <v>556</v>
+      </c>
+      <c r="AV22" s="28" t="s">
+        <v>201</v>
+      </c>
+      <c r="AW22" s="28" t="s">
+        <v>209</v>
+      </c>
+      <c r="AX22" s="28" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="23" spans="1:50" s="10" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A23" s="52" t="s">
+        <v>367</v>
+      </c>
+      <c r="B23" s="52" t="s">
+        <v>245</v>
+      </c>
+      <c r="C23" s="52" t="s">
+        <v>368</v>
+      </c>
+      <c r="D23" s="52" t="s">
+        <v>369</v>
+      </c>
+      <c r="E23" s="53">
+        <v>2002</v>
+      </c>
+      <c r="F23" s="54" t="s">
+        <v>342</v>
+      </c>
+      <c r="G23" s="54" t="s">
+        <v>370</v>
+      </c>
+      <c r="H23" s="52" t="s">
+        <v>371</v>
+      </c>
+      <c r="I23" s="54" t="s">
+        <v>372</v>
+      </c>
+      <c r="J23" s="54" t="s">
+        <v>373</v>
+      </c>
+      <c r="K23" s="52" t="s">
+        <v>374</v>
+      </c>
+      <c r="L23" s="52" t="s">
+        <v>254</v>
+      </c>
+      <c r="M23" s="54" t="s">
+        <v>375</v>
+      </c>
+      <c r="N23" s="54" t="s">
+        <v>256</v>
+      </c>
+      <c r="O23" s="54" t="s">
+        <v>257</v>
+      </c>
+      <c r="P23" s="54" t="s">
+        <v>376</v>
+      </c>
+      <c r="Q23" s="54" t="s">
+        <v>21</v>
+      </c>
+      <c r="R23" s="54"/>
+      <c r="S23" s="54" t="s">
+        <v>29</v>
+      </c>
+      <c r="T23" s="54" t="s">
+        <v>45</v>
+      </c>
+      <c r="U23" s="54" t="s">
+        <v>48</v>
+      </c>
+      <c r="V23" s="54" t="s">
+        <v>44</v>
+      </c>
+      <c r="W23" s="54" t="s">
+        <v>48</v>
+      </c>
+      <c r="X23" s="54" t="s">
+        <v>75</v>
+      </c>
+      <c r="Y23" s="54" t="s">
+        <v>505</v>
+      </c>
+      <c r="Z23" s="54" t="s">
+        <v>611</v>
+      </c>
+      <c r="AA23" s="54">
+        <v>1</v>
+      </c>
+      <c r="AB23" s="54">
+        <v>1</v>
+      </c>
+      <c r="AC23" s="54">
+        <v>3</v>
+      </c>
+      <c r="AD23" s="54" t="s">
+        <v>499</v>
+      </c>
+      <c r="AE23" s="54"/>
+      <c r="AF23" s="54" t="s">
+        <v>290</v>
+      </c>
+      <c r="AG23" s="54" t="s">
+        <v>109</v>
+      </c>
+      <c r="AH23" s="54" t="s">
+        <v>119</v>
+      </c>
+      <c r="AI23" s="54" t="s">
+        <v>146</v>
+      </c>
+      <c r="AJ23" s="54"/>
+      <c r="AK23" s="54"/>
+      <c r="AL23" s="54" t="s">
+        <v>558</v>
+      </c>
+      <c r="AM23" s="54" t="s">
+        <v>161</v>
+      </c>
+      <c r="AN23" s="54"/>
+      <c r="AO23" s="54" t="s">
+        <v>535</v>
+      </c>
+      <c r="AP23" s="54"/>
+      <c r="AQ23" s="54" t="s">
+        <v>166</v>
+      </c>
+      <c r="AR23" s="54" t="s">
+        <v>241</v>
+      </c>
+      <c r="AS23" s="54" t="s">
+        <v>177</v>
+      </c>
+      <c r="AT23" s="54" t="s">
+        <v>561</v>
+      </c>
+      <c r="AU23" s="54" t="s">
+        <v>559</v>
+      </c>
+      <c r="AV23" s="54" t="s">
+        <v>205</v>
+      </c>
+      <c r="AW23" s="54" t="s">
+        <v>209</v>
+      </c>
+      <c r="AX23" s="54" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="24" spans="1:50" s="10" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="29" t="s">
+        <v>367</v>
+      </c>
+      <c r="B24" s="29" t="s">
+        <v>245</v>
+      </c>
+      <c r="C24" s="29" t="s">
+        <v>368</v>
+      </c>
+      <c r="D24" s="29" t="s">
+        <v>369</v>
+      </c>
+      <c r="E24" s="30">
+        <v>2002</v>
+      </c>
+      <c r="F24" s="28" t="s">
+        <v>342</v>
+      </c>
+      <c r="G24" s="28" t="s">
+        <v>370</v>
+      </c>
+      <c r="H24" s="29" t="s">
+        <v>371</v>
+      </c>
+      <c r="I24" s="28" t="s">
+        <v>372</v>
+      </c>
+      <c r="J24" s="28" t="s">
+        <v>373</v>
+      </c>
+      <c r="K24" s="29" t="s">
+        <v>374</v>
+      </c>
+      <c r="L24" s="29" t="s">
+        <v>254</v>
+      </c>
+      <c r="M24" s="28" t="s">
+        <v>375</v>
+      </c>
+      <c r="N24" s="28" t="s">
+        <v>256</v>
+      </c>
+      <c r="O24" s="28" t="s">
+        <v>257</v>
+      </c>
+      <c r="P24" s="28" t="s">
+        <v>376</v>
+      </c>
+      <c r="Q24" s="28" t="s">
+        <v>21</v>
+      </c>
+      <c r="R24" s="28"/>
+      <c r="S24" s="28" t="s">
+        <v>29</v>
+      </c>
+      <c r="T24" s="28" t="s">
+        <v>45</v>
+      </c>
+      <c r="U24" s="28" t="s">
+        <v>48</v>
+      </c>
+      <c r="V24" s="28" t="s">
+        <v>44</v>
+      </c>
+      <c r="W24" s="28" t="s">
+        <v>48</v>
+      </c>
+      <c r="X24" s="28" t="s">
+        <v>75</v>
+      </c>
+      <c r="Y24" s="28" t="s">
+        <v>505</v>
+      </c>
+      <c r="Z24" s="28" t="s">
+        <v>611</v>
+      </c>
+      <c r="AA24" s="28">
+        <v>1</v>
+      </c>
+      <c r="AB24" s="28">
+        <v>1</v>
+      </c>
+      <c r="AC24" s="28">
+        <v>3</v>
+      </c>
+      <c r="AD24" s="28" t="s">
+        <v>499</v>
+      </c>
+      <c r="AE24" s="28"/>
+      <c r="AF24" s="28" t="s">
+        <v>290</v>
+      </c>
+      <c r="AG24" s="28" t="s">
+        <v>109</v>
+      </c>
+      <c r="AH24" s="28" t="s">
+        <v>119</v>
+      </c>
+      <c r="AI24" s="28" t="s">
+        <v>146</v>
+      </c>
+      <c r="AJ24" s="28"/>
+      <c r="AK24" s="28"/>
+      <c r="AL24" s="28" t="s">
+        <v>558</v>
+      </c>
+      <c r="AM24" s="28" t="s">
+        <v>234</v>
+      </c>
+      <c r="AN24" s="28"/>
+      <c r="AO24" s="28" t="s">
+        <v>535</v>
+      </c>
+      <c r="AP24" s="28"/>
+      <c r="AQ24" s="28" t="s">
+        <v>166</v>
+      </c>
+      <c r="AR24" s="28" t="s">
+        <v>241</v>
+      </c>
+      <c r="AS24" s="28" t="s">
+        <v>177</v>
+      </c>
+      <c r="AT24" s="28" t="s">
+        <v>561</v>
+      </c>
+      <c r="AU24" s="28" t="s">
+        <v>560</v>
+      </c>
+      <c r="AV24" s="28" t="s">
+        <v>208</v>
+      </c>
+      <c r="AW24" s="28" t="s">
+        <v>209</v>
+      </c>
+      <c r="AX24" s="28" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="25" spans="1:50" s="10" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A25" s="44" t="s">
+        <v>377</v>
+      </c>
+      <c r="B25" s="44" t="s">
+        <v>245</v>
+      </c>
+      <c r="C25" s="44" t="s">
+        <v>378</v>
+      </c>
+      <c r="D25" s="44" t="s">
+        <v>379</v>
+      </c>
+      <c r="E25" s="45">
+        <v>2002</v>
+      </c>
+      <c r="F25" s="46" t="s">
+        <v>342</v>
+      </c>
+      <c r="G25" s="46" t="s">
+        <v>370</v>
+      </c>
+      <c r="H25" s="44" t="s">
         <v>275</v>
       </c>
-      <c r="I21" s="46" t="s">
-        <v>334</v>
-      </c>
-      <c r="J21" s="46" t="s">
-        <v>356</v>
-      </c>
-      <c r="K21" s="44" t="s">
-        <v>357</v>
-      </c>
-      <c r="L21" s="44" t="s">
+      <c r="I25" s="46" t="s">
+        <v>380</v>
+      </c>
+      <c r="J25" s="46" t="s">
+        <v>343</v>
+      </c>
+      <c r="K25" s="44" t="s">
+        <v>381</v>
+      </c>
+      <c r="L25" s="44" t="s">
         <v>254</v>
       </c>
-      <c r="M21" s="46" t="s">
-        <v>358</v>
-      </c>
-      <c r="N21" s="46" t="s">
+      <c r="M25" s="46" t="s">
+        <v>382</v>
+      </c>
+      <c r="N25" s="46" t="s">
         <v>256</v>
       </c>
-      <c r="O21" s="46" t="s">
+      <c r="O25" s="46" t="s">
         <v>257</v>
       </c>
-      <c r="P21" s="46" t="s">
+      <c r="P25" s="46" t="s">
+        <v>350</v>
+      </c>
+      <c r="Q25" s="46" t="s">
+        <v>21</v>
+      </c>
+      <c r="R25" s="46" t="s">
+        <v>84</v>
+      </c>
+      <c r="S25" s="46"/>
+      <c r="T25" s="46"/>
+      <c r="U25" s="46"/>
+      <c r="V25" s="46"/>
+      <c r="W25" s="46"/>
+      <c r="X25" s="46"/>
+      <c r="Y25" s="46"/>
+      <c r="Z25" s="46"/>
+      <c r="AA25" s="46"/>
+      <c r="AB25" s="46"/>
+      <c r="AC25" s="46"/>
+      <c r="AD25" s="46"/>
+      <c r="AE25" s="46"/>
+      <c r="AF25" s="46" t="s">
+        <v>319</v>
+      </c>
+      <c r="AG25" s="46"/>
+      <c r="AH25" s="46"/>
+      <c r="AI25" s="46"/>
+      <c r="AJ25" s="46"/>
+      <c r="AK25" s="46"/>
+      <c r="AL25" s="46"/>
+      <c r="AM25" s="46"/>
+      <c r="AN25" s="46"/>
+      <c r="AO25" s="46"/>
+      <c r="AP25" s="46"/>
+      <c r="AQ25" s="46"/>
+      <c r="AR25" s="46"/>
+      <c r="AS25" s="46"/>
+      <c r="AT25" s="46"/>
+      <c r="AU25" s="46"/>
+      <c r="AV25" s="46"/>
+      <c r="AW25" s="46"/>
+      <c r="AX25" s="46"/>
+    </row>
+    <row r="26" spans="1:50" s="10" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A26" s="52" t="s">
+        <v>383</v>
+      </c>
+      <c r="B26" s="52" t="s">
+        <v>245</v>
+      </c>
+      <c r="C26" s="52" t="s">
+        <v>384</v>
+      </c>
+      <c r="D26" s="52" t="s">
+        <v>385</v>
+      </c>
+      <c r="E26" s="53">
+        <v>2001</v>
+      </c>
+      <c r="F26" s="54" t="s">
+        <v>386</v>
+      </c>
+      <c r="G26" s="54" t="s">
+        <v>387</v>
+      </c>
+      <c r="H26" s="52" t="s">
+        <v>388</v>
+      </c>
+      <c r="I26" s="54" t="s">
+        <v>389</v>
+      </c>
+      <c r="J26" s="54" t="s">
+        <v>390</v>
+      </c>
+      <c r="K26" s="52" t="s">
+        <v>391</v>
+      </c>
+      <c r="L26" s="52" t="s">
         <v>254</v>
       </c>
-      <c r="Q21" s="46" t="s">
+      <c r="M26" s="54" t="s">
+        <v>392</v>
+      </c>
+      <c r="N26" s="54" t="s">
+        <v>256</v>
+      </c>
+      <c r="O26" s="54" t="s">
+        <v>318</v>
+      </c>
+      <c r="P26" s="54" t="s">
+        <v>254</v>
+      </c>
+      <c r="Q26" s="54" t="s">
         <v>21</v>
       </c>
-      <c r="R21" s="44" t="s">
-        <v>82</v>
-      </c>
-      <c r="S21" s="46"/>
-      <c r="T21" s="46"/>
-      <c r="U21" s="46"/>
-      <c r="V21" s="46"/>
-      <c r="W21" s="46"/>
-      <c r="X21" s="46"/>
-      <c r="Y21" s="46"/>
-      <c r="Z21" s="46"/>
-      <c r="AA21" s="46"/>
-      <c r="AB21" s="46"/>
-      <c r="AC21" s="46"/>
-      <c r="AD21" s="46"/>
-      <c r="AE21" s="46"/>
-      <c r="AF21" s="46" t="s">
-        <v>319</v>
-      </c>
-      <c r="AG21" s="46"/>
-      <c r="AH21" s="46"/>
-      <c r="AI21" s="46"/>
-      <c r="AJ21" s="46"/>
-      <c r="AK21" s="46"/>
-      <c r="AL21" s="46"/>
-      <c r="AM21" s="46"/>
-      <c r="AN21" s="46"/>
-      <c r="AO21" s="46"/>
-      <c r="AP21" s="46"/>
-      <c r="AQ21" s="46"/>
-      <c r="AR21" s="46"/>
-      <c r="AS21" s="46"/>
-      <c r="AT21" s="46"/>
-      <c r="AU21" s="46"/>
-      <c r="AV21" s="46"/>
-      <c r="AW21" s="46"/>
-      <c r="AX21" s="46"/>
+      <c r="R26" s="54"/>
+      <c r="S26" s="54" t="s">
+        <v>24</v>
+      </c>
+      <c r="T26" s="54" t="s">
+        <v>46</v>
+      </c>
+      <c r="U26" s="54" t="s">
+        <v>52</v>
+      </c>
+      <c r="V26" s="54" t="s">
+        <v>45</v>
+      </c>
+      <c r="W26" s="54" t="s">
+        <v>51</v>
+      </c>
+      <c r="X26" s="54" t="s">
+        <v>75</v>
+      </c>
+      <c r="Y26" s="54" t="s">
+        <v>505</v>
+      </c>
+      <c r="Z26" s="54" t="s">
+        <v>616</v>
+      </c>
+      <c r="AA26" s="54">
+        <v>2</v>
+      </c>
+      <c r="AB26" s="54">
+        <v>2</v>
+      </c>
+      <c r="AC26" s="54">
+        <v>3</v>
+      </c>
+      <c r="AD26" s="54" t="s">
+        <v>501</v>
+      </c>
+      <c r="AE26" s="54"/>
+      <c r="AF26" s="54" t="s">
+        <v>290</v>
+      </c>
+      <c r="AG26" s="54" t="s">
+        <v>109</v>
+      </c>
+      <c r="AH26" s="54" t="s">
+        <v>119</v>
+      </c>
+      <c r="AI26" s="54" t="s">
+        <v>132</v>
+      </c>
+      <c r="AJ26" s="54"/>
+      <c r="AK26" s="54"/>
+      <c r="AL26" s="54" t="s">
+        <v>568</v>
+      </c>
+      <c r="AM26" s="54" t="s">
+        <v>235</v>
+      </c>
+      <c r="AN26" s="54"/>
+      <c r="AO26" s="54" t="s">
+        <v>565</v>
+      </c>
+      <c r="AP26" s="54"/>
+      <c r="AQ26" s="54" t="s">
+        <v>166</v>
+      </c>
+      <c r="AR26" s="54" t="s">
+        <v>241</v>
+      </c>
+      <c r="AS26" s="54" t="s">
+        <v>178</v>
+      </c>
+      <c r="AT26" s="54" t="s">
+        <v>500</v>
+      </c>
+      <c r="AU26" s="54" t="s">
+        <v>566</v>
+      </c>
+      <c r="AV26" s="54" t="s">
+        <v>205</v>
+      </c>
+      <c r="AW26" s="54" t="s">
+        <v>209</v>
+      </c>
+      <c r="AX26" s="54" t="s">
+        <v>564</v>
+      </c>
     </row>
-    <row r="22" spans="1:50" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="52" t="s">
-        <v>359</v>
-      </c>
-      <c r="B22" s="52" t="s">
+    <row r="27" spans="1:50" s="10" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A27" s="29" t="s">
+        <v>383</v>
+      </c>
+      <c r="B27" s="29" t="s">
         <v>245</v>
       </c>
-      <c r="C22" s="52" t="s">
-        <v>360</v>
-      </c>
-      <c r="D22" s="52" t="s">
-        <v>361</v>
-      </c>
-      <c r="E22" s="53">
-        <v>2003</v>
-      </c>
-      <c r="F22" s="54" t="s">
-        <v>342</v>
-      </c>
-      <c r="G22" s="54" t="s">
-        <v>362</v>
-      </c>
-      <c r="H22" s="52" t="s">
-        <v>344</v>
-      </c>
-      <c r="I22" s="54" t="s">
-        <v>363</v>
-      </c>
-      <c r="J22" s="54" t="s">
-        <v>364</v>
-      </c>
-      <c r="K22" s="52" t="s">
-        <v>365</v>
-      </c>
-      <c r="L22" s="52" t="s">
+      <c r="C27" s="29" t="s">
+        <v>384</v>
+      </c>
+      <c r="D27" s="29" t="s">
+        <v>385</v>
+      </c>
+      <c r="E27" s="30">
+        <v>2001</v>
+      </c>
+      <c r="F27" s="28" t="s">
+        <v>386</v>
+      </c>
+      <c r="G27" s="28" t="s">
+        <v>387</v>
+      </c>
+      <c r="H27" s="29" t="s">
+        <v>388</v>
+      </c>
+      <c r="I27" s="28" t="s">
+        <v>389</v>
+      </c>
+      <c r="J27" s="28" t="s">
+        <v>390</v>
+      </c>
+      <c r="K27" s="29" t="s">
+        <v>391</v>
+      </c>
+      <c r="L27" s="29" t="s">
         <v>254</v>
       </c>
-      <c r="M22" s="54" t="s">
-        <v>366</v>
-      </c>
-      <c r="N22" s="54" t="s">
+      <c r="M27" s="28" t="s">
+        <v>392</v>
+      </c>
+      <c r="N27" s="28" t="s">
         <v>256</v>
       </c>
-      <c r="O22" s="54" t="s">
+      <c r="O27" s="28" t="s">
+        <v>318</v>
+      </c>
+      <c r="P27" s="28" t="s">
+        <v>254</v>
+      </c>
+      <c r="Q27" s="28" t="s">
+        <v>21</v>
+      </c>
+      <c r="R27" s="28"/>
+      <c r="S27" s="28" t="s">
+        <v>24</v>
+      </c>
+      <c r="T27" s="28" t="s">
+        <v>46</v>
+      </c>
+      <c r="U27" s="28" t="s">
+        <v>52</v>
+      </c>
+      <c r="V27" s="28" t="s">
+        <v>45</v>
+      </c>
+      <c r="W27" s="28" t="s">
+        <v>51</v>
+      </c>
+      <c r="X27" s="28" t="s">
+        <v>75</v>
+      </c>
+      <c r="Y27" s="28" t="s">
+        <v>505</v>
+      </c>
+      <c r="Z27" s="28" t="s">
+        <v>616</v>
+      </c>
+      <c r="AA27" s="28">
+        <v>2</v>
+      </c>
+      <c r="AB27" s="28">
+        <v>2</v>
+      </c>
+      <c r="AC27" s="28">
+        <v>3</v>
+      </c>
+      <c r="AD27" s="28" t="s">
+        <v>501</v>
+      </c>
+      <c r="AE27" s="28"/>
+      <c r="AF27" s="28" t="s">
+        <v>290</v>
+      </c>
+      <c r="AG27" s="28" t="s">
+        <v>109</v>
+      </c>
+      <c r="AH27" s="28" t="s">
+        <v>119</v>
+      </c>
+      <c r="AI27" s="28" t="s">
+        <v>132</v>
+      </c>
+      <c r="AJ27" s="28"/>
+      <c r="AK27" s="28"/>
+      <c r="AL27" s="28" t="s">
+        <v>568</v>
+      </c>
+      <c r="AM27" s="28" t="s">
+        <v>234</v>
+      </c>
+      <c r="AN27" s="28" t="s">
+        <v>162</v>
+      </c>
+      <c r="AO27" s="28" t="s">
+        <v>562</v>
+      </c>
+      <c r="AP27" s="28"/>
+      <c r="AQ27" s="28" t="s">
+        <v>166</v>
+      </c>
+      <c r="AR27" s="28" t="s">
+        <v>241</v>
+      </c>
+      <c r="AS27" s="28" t="s">
+        <v>178</v>
+      </c>
+      <c r="AT27" s="28" t="s">
+        <v>500</v>
+      </c>
+      <c r="AU27" s="28" t="s">
+        <v>567</v>
+      </c>
+      <c r="AV27" s="28" t="s">
+        <v>205</v>
+      </c>
+      <c r="AW27" s="28" t="s">
+        <v>212</v>
+      </c>
+      <c r="AX27" s="28" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="28" spans="1:50" s="16" customFormat="1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A28" s="41" t="s">
+        <v>393</v>
+      </c>
+      <c r="B28" s="41" t="s">
+        <v>245</v>
+      </c>
+      <c r="C28" s="41" t="s">
+        <v>394</v>
+      </c>
+      <c r="D28" s="41" t="s">
+        <v>395</v>
+      </c>
+      <c r="E28" s="42">
+        <v>2001</v>
+      </c>
+      <c r="F28" s="43" t="s">
+        <v>396</v>
+      </c>
+      <c r="G28" s="43" t="s">
+        <v>295</v>
+      </c>
+      <c r="H28" s="41" t="s">
+        <v>265</v>
+      </c>
+      <c r="I28" s="43" t="s">
+        <v>397</v>
+      </c>
+      <c r="J28" s="43" t="s">
+        <v>398</v>
+      </c>
+      <c r="K28" s="41" t="s">
+        <v>399</v>
+      </c>
+      <c r="L28" s="41" t="s">
+        <v>254</v>
+      </c>
+      <c r="M28" s="43" t="s">
+        <v>400</v>
+      </c>
+      <c r="N28" s="43" t="s">
+        <v>256</v>
+      </c>
+      <c r="O28" s="43" t="s">
         <v>257</v>
       </c>
-      <c r="P22" s="54" t="s">
-        <v>350</v>
-      </c>
-      <c r="Q22" s="54" t="s">
+      <c r="P28" s="43" t="s">
+        <v>254</v>
+      </c>
+      <c r="Q28" s="43" t="s">
         <v>21</v>
       </c>
-      <c r="R22" s="54"/>
-      <c r="S22" s="54" t="s">
-        <v>27</v>
-      </c>
-      <c r="T22" s="54" t="s">
+      <c r="R28" s="43"/>
+      <c r="S28" s="43" t="s">
+        <v>24</v>
+      </c>
+      <c r="T28" s="43" t="s">
         <v>46</v>
       </c>
-      <c r="U22" s="54" t="s">
-        <v>58</v>
-      </c>
-      <c r="V22" s="54" t="s">
-        <v>46</v>
-      </c>
-      <c r="W22" s="54" t="s">
+      <c r="U28" s="43" t="s">
         <v>55</v>
       </c>
-      <c r="X22" s="54" t="s">
-        <v>217</v>
-      </c>
-      <c r="Y22" s="54"/>
-      <c r="Z22" s="54" t="s">
-        <v>497</v>
-      </c>
-      <c r="AA22" s="54">
+      <c r="V28" s="43" t="s">
+        <v>45</v>
+      </c>
+      <c r="W28" s="43" t="s">
+        <v>55</v>
+      </c>
+      <c r="X28" s="43" t="s">
+        <v>218</v>
+      </c>
+      <c r="Y28" s="43"/>
+      <c r="Z28" s="43" t="s">
+        <v>610</v>
+      </c>
+      <c r="AA28" s="43">
         <v>2</v>
       </c>
-      <c r="AB22" s="54">
+      <c r="AB28" s="43">
         <v>2</v>
       </c>
-      <c r="AC22" s="54">
+      <c r="AC28" s="43">
         <v>3</v>
       </c>
-      <c r="AD22" s="54"/>
-      <c r="AE22" s="54"/>
-      <c r="AF22" s="54" t="s">
-        <v>319</v>
-      </c>
-      <c r="AG22" s="54" t="s">
-        <v>113</v>
-      </c>
-      <c r="AH22" s="54" t="s">
-        <v>119</v>
-      </c>
-      <c r="AI22" s="54" t="s">
-        <v>146</v>
-      </c>
-      <c r="AJ22" s="54"/>
-      <c r="AK22" s="54"/>
-      <c r="AL22" s="54" t="s">
-        <v>498</v>
-      </c>
-      <c r="AM22" s="54" t="s">
-        <v>234</v>
-      </c>
-      <c r="AN22" s="54" t="s">
-        <v>162</v>
-      </c>
-      <c r="AO22" s="54" t="s">
-        <v>560</v>
-      </c>
-      <c r="AP22" s="54" t="s">
-        <v>558</v>
-      </c>
-      <c r="AQ22" s="54" t="s">
+      <c r="AD28" s="43"/>
+      <c r="AE28" s="43"/>
+      <c r="AF28" s="43" t="s">
+        <v>290</v>
+      </c>
+      <c r="AG28" s="43" t="s">
+        <v>111</v>
+      </c>
+      <c r="AH28" s="43" t="s">
+        <v>122</v>
+      </c>
+      <c r="AI28" s="43" t="s">
+        <v>142</v>
+      </c>
+      <c r="AJ28" s="43" t="s">
+        <v>159</v>
+      </c>
+      <c r="AK28" s="43"/>
+      <c r="AL28" s="43" t="s">
+        <v>624</v>
+      </c>
+      <c r="AM28" s="43" t="s">
+        <v>235</v>
+      </c>
+      <c r="AN28" s="43"/>
+      <c r="AO28" s="43" t="s">
+        <v>571</v>
+      </c>
+      <c r="AP28" s="43" t="s">
+        <v>569</v>
+      </c>
+      <c r="AQ28" s="43" t="s">
         <v>166</v>
       </c>
-      <c r="AR22" s="54" t="s">
+      <c r="AR28" s="43" t="s">
         <v>241</v>
       </c>
-      <c r="AS22" s="54" t="s">
+      <c r="AS28" s="43" t="s">
         <v>178</v>
       </c>
-      <c r="AT22" s="54" t="s">
-        <v>498</v>
-      </c>
-      <c r="AU22" s="54" t="s">
-        <v>559</v>
-      </c>
-      <c r="AV22" s="54" t="s">
-        <v>201</v>
-      </c>
-      <c r="AW22" s="54" t="s">
-        <v>209</v>
-      </c>
-      <c r="AX22" s="54" t="s">
-        <v>495</v>
+      <c r="AT28" s="43" t="s">
+        <v>570</v>
+      </c>
+      <c r="AU28" s="43" t="s">
+        <v>494</v>
+      </c>
+      <c r="AV28" s="43" t="s">
+        <v>207</v>
+      </c>
+      <c r="AW28" s="43" t="s">
+        <v>210</v>
+      </c>
+      <c r="AX28" s="40" t="s">
+        <v>623</v>
       </c>
     </row>
-    <row r="23" spans="1:50" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="29" t="s">
-        <v>359</v>
-      </c>
-      <c r="B23" s="29" t="s">
-        <v>245</v>
-      </c>
-      <c r="C23" s="29" t="s">
-        <v>360</v>
-      </c>
-      <c r="D23" s="29" t="s">
-        <v>361</v>
-      </c>
-      <c r="E23" s="30">
-        <v>2003</v>
-      </c>
-      <c r="F23" s="28" t="s">
-        <v>342</v>
-      </c>
-      <c r="G23" s="28" t="s">
-        <v>362</v>
-      </c>
-      <c r="H23" s="29" t="s">
-        <v>344</v>
-      </c>
-      <c r="I23" s="28" t="s">
-        <v>363</v>
-      </c>
-      <c r="J23" s="28" t="s">
-        <v>364</v>
-      </c>
-      <c r="K23" s="29" t="s">
-        <v>365</v>
-      </c>
-      <c r="L23" s="29" t="s">
-        <v>254</v>
-      </c>
-      <c r="M23" s="28" t="s">
-        <v>366</v>
-      </c>
-      <c r="N23" s="28" t="s">
-        <v>256</v>
-      </c>
-      <c r="O23" s="28" t="s">
-        <v>257</v>
-      </c>
-      <c r="P23" s="28" t="s">
-        <v>350</v>
-      </c>
-      <c r="Q23" s="28" t="s">
-        <v>21</v>
-      </c>
-      <c r="R23" s="28"/>
-      <c r="S23" s="28" t="s">
-        <v>27</v>
-      </c>
-      <c r="T23" s="28" t="s">
-        <v>46</v>
-      </c>
-      <c r="U23" s="28" t="s">
-        <v>58</v>
-      </c>
-      <c r="V23" s="28" t="s">
-        <v>46</v>
-      </c>
-      <c r="W23" s="28" t="s">
-        <v>55</v>
-      </c>
-      <c r="X23" s="28" t="s">
-        <v>217</v>
-      </c>
-      <c r="Y23" s="28"/>
-      <c r="Z23" s="28" t="s">
-        <v>497</v>
-      </c>
-      <c r="AA23" s="28">
-        <v>2</v>
-      </c>
-      <c r="AB23" s="28">
-        <v>2</v>
-      </c>
-      <c r="AC23" s="28">
-        <v>3</v>
-      </c>
-      <c r="AD23" s="28"/>
-      <c r="AE23" s="28"/>
-      <c r="AF23" s="28" t="s">
-        <v>319</v>
-      </c>
-      <c r="AG23" s="28" t="s">
-        <v>113</v>
-      </c>
-      <c r="AH23" s="28" t="s">
-        <v>119</v>
-      </c>
-      <c r="AI23" s="28" t="s">
-        <v>146</v>
-      </c>
-      <c r="AJ23" s="28"/>
-      <c r="AK23" s="28"/>
-      <c r="AL23" s="28" t="s">
-        <v>498</v>
-      </c>
-      <c r="AM23" s="28" t="s">
-        <v>234</v>
-      </c>
-      <c r="AN23" s="28" t="s">
-        <v>162</v>
-      </c>
-      <c r="AO23" s="28" t="s">
-        <v>496</v>
-      </c>
-      <c r="AP23" s="28"/>
-      <c r="AQ23" s="28" t="s">
-        <v>166</v>
-      </c>
-      <c r="AR23" s="28" t="s">
-        <v>241</v>
-      </c>
-      <c r="AS23" s="28" t="s">
-        <v>178</v>
-      </c>
-      <c r="AT23" s="28" t="s">
-        <v>498</v>
-      </c>
-      <c r="AU23" s="28" t="s">
-        <v>559</v>
-      </c>
-      <c r="AV23" s="28" t="s">
-        <v>201</v>
-      </c>
-      <c r="AW23" s="28" t="s">
-        <v>209</v>
-      </c>
-      <c r="AX23" s="28" t="s">
-        <v>495</v>
-      </c>
-    </row>
-    <row r="24" spans="1:50" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="52" t="s">
-        <v>367</v>
-      </c>
-      <c r="B24" s="52" t="s">
-        <v>245</v>
-      </c>
-      <c r="C24" s="52" t="s">
-        <v>368</v>
-      </c>
-      <c r="D24" s="52" t="s">
-        <v>369</v>
-      </c>
-      <c r="E24" s="53">
-        <v>2002</v>
-      </c>
-      <c r="F24" s="54" t="s">
-        <v>342</v>
-      </c>
-      <c r="G24" s="54" t="s">
-        <v>370</v>
-      </c>
-      <c r="H24" s="52" t="s">
-        <v>371</v>
-      </c>
-      <c r="I24" s="54" t="s">
-        <v>372</v>
-      </c>
-      <c r="J24" s="54" t="s">
-        <v>373</v>
-      </c>
-      <c r="K24" s="52" t="s">
-        <v>374</v>
-      </c>
-      <c r="L24" s="52" t="s">
-        <v>254</v>
-      </c>
-      <c r="M24" s="54" t="s">
-        <v>375</v>
-      </c>
-      <c r="N24" s="54" t="s">
-        <v>256</v>
-      </c>
-      <c r="O24" s="54" t="s">
-        <v>257</v>
-      </c>
-      <c r="P24" s="54" t="s">
-        <v>376</v>
-      </c>
-      <c r="Q24" s="54" t="s">
-        <v>21</v>
-      </c>
-      <c r="R24" s="54"/>
-      <c r="S24" s="54" t="s">
-        <v>29</v>
-      </c>
-      <c r="T24" s="54" t="s">
-        <v>45</v>
-      </c>
-      <c r="U24" s="54" t="s">
-        <v>48</v>
-      </c>
-      <c r="V24" s="54" t="s">
-        <v>44</v>
-      </c>
-      <c r="W24" s="54" t="s">
-        <v>48</v>
-      </c>
-      <c r="X24" s="54" t="s">
-        <v>75</v>
-      </c>
-      <c r="Y24" s="54" t="s">
-        <v>505</v>
-      </c>
-      <c r="Z24" s="54" t="s">
-        <v>617</v>
-      </c>
-      <c r="AA24" s="54">
-        <v>1</v>
-      </c>
-      <c r="AB24" s="54">
-        <v>1</v>
-      </c>
-      <c r="AC24" s="54">
-        <v>3</v>
-      </c>
-      <c r="AD24" s="54" t="s">
-        <v>499</v>
-      </c>
-      <c r="AE24" s="54"/>
-      <c r="AF24" s="54" t="s">
-        <v>290</v>
-      </c>
-      <c r="AG24" s="54" t="s">
-        <v>109</v>
-      </c>
-      <c r="AH24" s="54" t="s">
-        <v>119</v>
-      </c>
-      <c r="AI24" s="54" t="s">
-        <v>146</v>
-      </c>
-      <c r="AJ24" s="54"/>
-      <c r="AK24" s="54"/>
-      <c r="AL24" s="54" t="s">
-        <v>561</v>
-      </c>
-      <c r="AM24" s="54" t="s">
-        <v>161</v>
-      </c>
-      <c r="AN24" s="54"/>
-      <c r="AO24" s="54" t="s">
-        <v>536</v>
-      </c>
-      <c r="AP24" s="54"/>
-      <c r="AQ24" s="54" t="s">
-        <v>166</v>
-      </c>
-      <c r="AR24" s="54" t="s">
-        <v>241</v>
-      </c>
-      <c r="AS24" s="54" t="s">
-        <v>177</v>
-      </c>
-      <c r="AT24" s="54" t="s">
-        <v>564</v>
-      </c>
-      <c r="AU24" s="54" t="s">
-        <v>562</v>
-      </c>
-      <c r="AV24" s="54" t="s">
-        <v>205</v>
-      </c>
-      <c r="AW24" s="54" t="s">
-        <v>209</v>
-      </c>
-      <c r="AX24" s="54" t="s">
-        <v>526</v>
-      </c>
-    </row>
-    <row r="25" spans="1:50" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="29" t="s">
-        <v>367</v>
-      </c>
-      <c r="B25" s="29" t="s">
-        <v>245</v>
-      </c>
-      <c r="C25" s="29" t="s">
-        <v>368</v>
-      </c>
-      <c r="D25" s="29" t="s">
-        <v>369</v>
-      </c>
-      <c r="E25" s="30">
-        <v>2002</v>
-      </c>
-      <c r="F25" s="28" t="s">
-        <v>342</v>
-      </c>
-      <c r="G25" s="28" t="s">
-        <v>370</v>
-      </c>
-      <c r="H25" s="29" t="s">
-        <v>371</v>
-      </c>
-      <c r="I25" s="28" t="s">
-        <v>372</v>
-      </c>
-      <c r="J25" s="28" t="s">
-        <v>373</v>
-      </c>
-      <c r="K25" s="29" t="s">
-        <v>374</v>
-      </c>
-      <c r="L25" s="29" t="s">
-        <v>254</v>
-      </c>
-      <c r="M25" s="28" t="s">
-        <v>375</v>
-      </c>
-      <c r="N25" s="28" t="s">
-        <v>256</v>
-      </c>
-      <c r="O25" s="28" t="s">
-        <v>257</v>
-      </c>
-      <c r="P25" s="28" t="s">
-        <v>376</v>
-      </c>
-      <c r="Q25" s="28" t="s">
-        <v>21</v>
-      </c>
-      <c r="R25" s="28"/>
-      <c r="S25" s="28" t="s">
-        <v>29</v>
-      </c>
-      <c r="T25" s="28" t="s">
-        <v>45</v>
-      </c>
-      <c r="U25" s="28" t="s">
-        <v>48</v>
-      </c>
-      <c r="V25" s="28" t="s">
-        <v>44</v>
-      </c>
-      <c r="W25" s="28" t="s">
-        <v>48</v>
-      </c>
-      <c r="X25" s="28" t="s">
-        <v>75</v>
-      </c>
-      <c r="Y25" s="28" t="s">
-        <v>505</v>
-      </c>
-      <c r="Z25" s="28" t="s">
-        <v>617</v>
-      </c>
-      <c r="AA25" s="28">
-        <v>1</v>
-      </c>
-      <c r="AB25" s="28">
-        <v>1</v>
-      </c>
-      <c r="AC25" s="28">
-        <v>3</v>
-      </c>
-      <c r="AD25" s="28" t="s">
-        <v>499</v>
-      </c>
-      <c r="AE25" s="28"/>
-      <c r="AF25" s="28" t="s">
-        <v>290</v>
-      </c>
-      <c r="AG25" s="28" t="s">
-        <v>109</v>
-      </c>
-      <c r="AH25" s="28" t="s">
-        <v>119</v>
-      </c>
-      <c r="AI25" s="28" t="s">
-        <v>146</v>
-      </c>
-      <c r="AJ25" s="28"/>
-      <c r="AK25" s="28"/>
-      <c r="AL25" s="28" t="s">
-        <v>561</v>
-      </c>
-      <c r="AM25" s="28" t="s">
-        <v>234</v>
-      </c>
-      <c r="AN25" s="28"/>
-      <c r="AO25" s="28" t="s">
-        <v>536</v>
-      </c>
-      <c r="AP25" s="28"/>
-      <c r="AQ25" s="28" t="s">
-        <v>166</v>
-      </c>
-      <c r="AR25" s="28" t="s">
-        <v>241</v>
-      </c>
-      <c r="AS25" s="28" t="s">
-        <v>177</v>
-      </c>
-      <c r="AT25" s="28" t="s">
-        <v>564</v>
-      </c>
-      <c r="AU25" s="28" t="s">
-        <v>563</v>
-      </c>
-      <c r="AV25" s="28" t="s">
-        <v>208</v>
-      </c>
-      <c r="AW25" s="28" t="s">
-        <v>209</v>
-      </c>
-      <c r="AX25" s="28" t="s">
-        <v>526</v>
-      </c>
-    </row>
-    <row r="26" spans="1:50" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="44" t="s">
-        <v>377</v>
-      </c>
-      <c r="B26" s="44" t="s">
-        <v>245</v>
-      </c>
-      <c r="C26" s="44" t="s">
-        <v>378</v>
-      </c>
-      <c r="D26" s="44" t="s">
-        <v>379</v>
-      </c>
-      <c r="E26" s="45">
-        <v>2002</v>
-      </c>
-      <c r="F26" s="46" t="s">
-        <v>342</v>
-      </c>
-      <c r="G26" s="46" t="s">
-        <v>370</v>
-      </c>
-      <c r="H26" s="44" t="s">
-        <v>275</v>
-      </c>
-      <c r="I26" s="46" t="s">
-        <v>380</v>
-      </c>
-      <c r="J26" s="46" t="s">
-        <v>343</v>
-      </c>
-      <c r="K26" s="44" t="s">
-        <v>381</v>
-      </c>
-      <c r="L26" s="44" t="s">
-        <v>254</v>
-      </c>
-      <c r="M26" s="46" t="s">
-        <v>382</v>
-      </c>
-      <c r="N26" s="46" t="s">
-        <v>256</v>
-      </c>
-      <c r="O26" s="46" t="s">
-        <v>257</v>
-      </c>
-      <c r="P26" s="46" t="s">
-        <v>350</v>
-      </c>
-      <c r="Q26" s="46" t="s">
-        <v>21</v>
-      </c>
-      <c r="R26" s="46" t="s">
-        <v>84</v>
-      </c>
-      <c r="S26" s="46"/>
-      <c r="T26" s="46"/>
-      <c r="U26" s="46"/>
-      <c r="V26" s="46"/>
-      <c r="W26" s="46"/>
-      <c r="X26" s="46"/>
-      <c r="Y26" s="46"/>
-      <c r="Z26" s="46"/>
-      <c r="AA26" s="46"/>
-      <c r="AB26" s="46"/>
-      <c r="AC26" s="46"/>
-      <c r="AD26" s="46"/>
-      <c r="AE26" s="46"/>
-      <c r="AF26" s="46" t="s">
-        <v>319</v>
-      </c>
-      <c r="AG26" s="46"/>
-      <c r="AH26" s="46"/>
-      <c r="AI26" s="46"/>
-      <c r="AJ26" s="46"/>
-      <c r="AK26" s="46"/>
-      <c r="AL26" s="46"/>
-      <c r="AM26" s="46"/>
-      <c r="AN26" s="46"/>
-      <c r="AO26" s="46"/>
-      <c r="AP26" s="46"/>
-      <c r="AQ26" s="46"/>
-      <c r="AR26" s="46"/>
-      <c r="AS26" s="46"/>
-      <c r="AT26" s="46"/>
-      <c r="AU26" s="46"/>
-      <c r="AV26" s="46"/>
-      <c r="AW26" s="46"/>
-      <c r="AX26" s="46"/>
-    </row>
-    <row r="27" spans="1:50" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="52" t="s">
-        <v>383</v>
-      </c>
-      <c r="B27" s="52" t="s">
-        <v>245</v>
-      </c>
-      <c r="C27" s="52" t="s">
-        <v>384</v>
-      </c>
-      <c r="D27" s="52" t="s">
-        <v>385</v>
-      </c>
-      <c r="E27" s="53">
-        <v>2001</v>
-      </c>
-      <c r="F27" s="54" t="s">
-        <v>386</v>
-      </c>
-      <c r="G27" s="54" t="s">
-        <v>387</v>
-      </c>
-      <c r="H27" s="52" t="s">
-        <v>388</v>
-      </c>
-      <c r="I27" s="54" t="s">
-        <v>389</v>
-      </c>
-      <c r="J27" s="54" t="s">
-        <v>390</v>
-      </c>
-      <c r="K27" s="52" t="s">
-        <v>391</v>
-      </c>
-      <c r="L27" s="52" t="s">
-        <v>254</v>
-      </c>
-      <c r="M27" s="54" t="s">
-        <v>392</v>
-      </c>
-      <c r="N27" s="54" t="s">
-        <v>256</v>
-      </c>
-      <c r="O27" s="54" t="s">
-        <v>318</v>
-      </c>
-      <c r="P27" s="54" t="s">
-        <v>254</v>
-      </c>
-      <c r="Q27" s="54" t="s">
-        <v>21</v>
-      </c>
-      <c r="R27" s="54"/>
-      <c r="S27" s="54" t="s">
-        <v>24</v>
-      </c>
-      <c r="T27" s="54" t="s">
-        <v>46</v>
-      </c>
-      <c r="U27" s="54" t="s">
-        <v>52</v>
-      </c>
-      <c r="V27" s="54" t="s">
-        <v>45</v>
-      </c>
-      <c r="W27" s="54" t="s">
-        <v>51</v>
-      </c>
-      <c r="X27" s="54" t="s">
-        <v>75</v>
-      </c>
-      <c r="Y27" s="54" t="s">
-        <v>505</v>
-      </c>
-      <c r="Z27" s="54" t="s">
-        <v>622</v>
-      </c>
-      <c r="AA27" s="54">
-        <v>2</v>
-      </c>
-      <c r="AB27" s="54">
-        <v>2</v>
-      </c>
-      <c r="AC27" s="54">
-        <v>3</v>
-      </c>
-      <c r="AD27" s="54" t="s">
-        <v>501</v>
-      </c>
-      <c r="AE27" s="54"/>
-      <c r="AF27" s="54" t="s">
-        <v>290</v>
-      </c>
-      <c r="AG27" s="54" t="s">
-        <v>109</v>
-      </c>
-      <c r="AH27" s="54" t="s">
-        <v>119</v>
-      </c>
-      <c r="AI27" s="54" t="s">
-        <v>132</v>
-      </c>
-      <c r="AJ27" s="54"/>
-      <c r="AK27" s="54"/>
-      <c r="AL27" s="54" t="s">
-        <v>571</v>
-      </c>
-      <c r="AM27" s="54" t="s">
-        <v>235</v>
-      </c>
-      <c r="AN27" s="54"/>
-      <c r="AO27" s="54" t="s">
-        <v>568</v>
-      </c>
-      <c r="AP27" s="54"/>
-      <c r="AQ27" s="54" t="s">
-        <v>166</v>
-      </c>
-      <c r="AR27" s="54" t="s">
-        <v>241</v>
-      </c>
-      <c r="AS27" s="54" t="s">
-        <v>178</v>
-      </c>
-      <c r="AT27" s="54" t="s">
-        <v>500</v>
-      </c>
-      <c r="AU27" s="54" t="s">
-        <v>569</v>
-      </c>
-      <c r="AV27" s="54" t="s">
-        <v>205</v>
-      </c>
-      <c r="AW27" s="54" t="s">
-        <v>209</v>
-      </c>
-      <c r="AX27" s="54" t="s">
-        <v>567</v>
-      </c>
-    </row>
-    <row r="28" spans="1:50" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="29" t="s">
-        <v>383</v>
-      </c>
-      <c r="B28" s="29" t="s">
-        <v>245</v>
-      </c>
-      <c r="C28" s="29" t="s">
-        <v>384</v>
-      </c>
-      <c r="D28" s="29" t="s">
-        <v>385</v>
-      </c>
-      <c r="E28" s="30">
-        <v>2001</v>
-      </c>
-      <c r="F28" s="28" t="s">
-        <v>386</v>
-      </c>
-      <c r="G28" s="28" t="s">
-        <v>387</v>
-      </c>
-      <c r="H28" s="29" t="s">
-        <v>388</v>
-      </c>
-      <c r="I28" s="28" t="s">
-        <v>389</v>
-      </c>
-      <c r="J28" s="28" t="s">
-        <v>390</v>
-      </c>
-      <c r="K28" s="29" t="s">
-        <v>391</v>
-      </c>
-      <c r="L28" s="29" t="s">
-        <v>254</v>
-      </c>
-      <c r="M28" s="28" t="s">
-        <v>392</v>
-      </c>
-      <c r="N28" s="28" t="s">
-        <v>256</v>
-      </c>
-      <c r="O28" s="28" t="s">
-        <v>318</v>
-      </c>
-      <c r="P28" s="28" t="s">
-        <v>254</v>
-      </c>
-      <c r="Q28" s="28" t="s">
-        <v>21</v>
-      </c>
-      <c r="R28" s="28"/>
-      <c r="S28" s="28" t="s">
-        <v>24</v>
-      </c>
-      <c r="T28" s="28" t="s">
-        <v>46</v>
-      </c>
-      <c r="U28" s="28" t="s">
-        <v>52</v>
-      </c>
-      <c r="V28" s="28" t="s">
-        <v>45</v>
-      </c>
-      <c r="W28" s="28" t="s">
-        <v>51</v>
-      </c>
-      <c r="X28" s="28" t="s">
-        <v>75</v>
-      </c>
-      <c r="Y28" s="28" t="s">
-        <v>505</v>
-      </c>
-      <c r="Z28" s="28" t="s">
-        <v>622</v>
-      </c>
-      <c r="AA28" s="28">
-        <v>2</v>
-      </c>
-      <c r="AB28" s="28">
-        <v>2</v>
-      </c>
-      <c r="AC28" s="28">
-        <v>3</v>
-      </c>
-      <c r="AD28" s="28" t="s">
-        <v>501</v>
-      </c>
-      <c r="AE28" s="28"/>
-      <c r="AF28" s="28" t="s">
-        <v>290</v>
-      </c>
-      <c r="AG28" s="28" t="s">
-        <v>109</v>
-      </c>
-      <c r="AH28" s="28" t="s">
-        <v>119</v>
-      </c>
-      <c r="AI28" s="28" t="s">
-        <v>132</v>
-      </c>
-      <c r="AJ28" s="28"/>
-      <c r="AK28" s="28"/>
-      <c r="AL28" s="28" t="s">
-        <v>571</v>
-      </c>
-      <c r="AM28" s="28" t="s">
-        <v>234</v>
-      </c>
-      <c r="AN28" s="28" t="s">
-        <v>162</v>
-      </c>
-      <c r="AO28" s="28" t="s">
-        <v>565</v>
-      </c>
-      <c r="AP28" s="28"/>
-      <c r="AQ28" s="28" t="s">
-        <v>166</v>
-      </c>
-      <c r="AR28" s="28" t="s">
-        <v>241</v>
-      </c>
-      <c r="AS28" s="28" t="s">
-        <v>178</v>
-      </c>
-      <c r="AT28" s="28" t="s">
-        <v>500</v>
-      </c>
-      <c r="AU28" s="28" t="s">
-        <v>570</v>
-      </c>
-      <c r="AV28" s="28" t="s">
-        <v>205</v>
-      </c>
-      <c r="AW28" s="28" t="s">
-        <v>212</v>
-      </c>
-      <c r="AX28" s="28" t="s">
-        <v>566</v>
-      </c>
-    </row>
-    <row r="29" spans="1:50" s="16" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:50" s="16" customFormat="1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A29" s="41" t="s">
         <v>393</v>
       </c>
@@ -8506,7 +8521,7 @@
       </c>
       <c r="Y29" s="43"/>
       <c r="Z29" s="43" t="s">
-        <v>616</v>
+        <v>610</v>
       </c>
       <c r="AA29" s="43">
         <v>2</v>
@@ -8532,21 +8547,21 @@
         <v>142</v>
       </c>
       <c r="AJ29" s="43" t="s">
-        <v>159</v>
+        <v>115</v>
       </c>
       <c r="AK29" s="43"/>
       <c r="AL29" s="43" t="s">
-        <v>630</v>
+        <v>624</v>
       </c>
       <c r="AM29" s="43" t="s">
         <v>235</v>
       </c>
       <c r="AN29" s="43"/>
       <c r="AO29" s="43" t="s">
-        <v>574</v>
+        <v>571</v>
       </c>
       <c r="AP29" s="43" t="s">
-        <v>572</v>
+        <v>569</v>
       </c>
       <c r="AQ29" s="43" t="s">
         <v>166</v>
@@ -8558,7 +8573,7 @@
         <v>178</v>
       </c>
       <c r="AT29" s="43" t="s">
-        <v>573</v>
+        <v>570</v>
       </c>
       <c r="AU29" s="43" t="s">
         <v>494</v>
@@ -8570,10 +8585,10 @@
         <v>210</v>
       </c>
       <c r="AX29" s="40" t="s">
-        <v>629</v>
+        <v>623</v>
       </c>
     </row>
-    <row r="30" spans="1:50" s="16" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:50" s="16" customFormat="1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A30" s="41" t="s">
         <v>393</v>
       </c>
@@ -8646,7 +8661,7 @@
       </c>
       <c r="Y30" s="43"/>
       <c r="Z30" s="43" t="s">
-        <v>616</v>
+        <v>610</v>
       </c>
       <c r="AA30" s="43">
         <v>2</v>
@@ -8676,17 +8691,17 @@
       </c>
       <c r="AK30" s="43"/>
       <c r="AL30" s="43" t="s">
-        <v>630</v>
+        <v>625</v>
       </c>
       <c r="AM30" s="43" t="s">
         <v>235</v>
       </c>
       <c r="AN30" s="43"/>
       <c r="AO30" s="43" t="s">
-        <v>574</v>
+        <v>571</v>
       </c>
       <c r="AP30" s="43" t="s">
-        <v>572</v>
+        <v>569</v>
       </c>
       <c r="AQ30" s="43" t="s">
         <v>166</v>
@@ -8698,7 +8713,7 @@
         <v>178</v>
       </c>
       <c r="AT30" s="43" t="s">
-        <v>573</v>
+        <v>570</v>
       </c>
       <c r="AU30" s="43" t="s">
         <v>494</v>
@@ -8707,431 +8722,429 @@
         <v>207</v>
       </c>
       <c r="AW30" s="43" t="s">
+        <v>212</v>
+      </c>
+      <c r="AX30" s="40" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="31" spans="1:50" s="10" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A31" s="52" t="s">
+        <v>401</v>
+      </c>
+      <c r="B31" s="52" t="s">
+        <v>245</v>
+      </c>
+      <c r="C31" s="52" t="s">
+        <v>402</v>
+      </c>
+      <c r="D31" s="52" t="s">
+        <v>403</v>
+      </c>
+      <c r="E31" s="53">
+        <v>2001</v>
+      </c>
+      <c r="F31" s="54" t="s">
+        <v>404</v>
+      </c>
+      <c r="G31" s="54" t="s">
+        <v>405</v>
+      </c>
+      <c r="H31" s="52" t="s">
+        <v>275</v>
+      </c>
+      <c r="I31" s="54" t="s">
+        <v>275</v>
+      </c>
+      <c r="J31" s="54" t="s">
+        <v>406</v>
+      </c>
+      <c r="K31" s="52" t="s">
+        <v>407</v>
+      </c>
+      <c r="L31" s="52" t="s">
+        <v>254</v>
+      </c>
+      <c r="M31" s="54" t="s">
+        <v>408</v>
+      </c>
+      <c r="N31" s="54" t="s">
+        <v>256</v>
+      </c>
+      <c r="O31" s="54" t="s">
+        <v>257</v>
+      </c>
+      <c r="P31" s="54" t="s">
+        <v>254</v>
+      </c>
+      <c r="Q31" s="54" t="s">
+        <v>21</v>
+      </c>
+      <c r="R31" s="54"/>
+      <c r="S31" s="54" t="s">
+        <v>31</v>
+      </c>
+      <c r="T31" s="54" t="s">
+        <v>41</v>
+      </c>
+      <c r="U31" s="54" t="s">
+        <v>49</v>
+      </c>
+      <c r="V31" s="54" t="s">
+        <v>40</v>
+      </c>
+      <c r="W31" s="54" t="s">
+        <v>48</v>
+      </c>
+      <c r="X31" s="54" t="s">
+        <v>72</v>
+      </c>
+      <c r="Y31" s="54"/>
+      <c r="Z31" s="54" t="s">
+        <v>612</v>
+      </c>
+      <c r="AA31" s="54">
+        <v>2</v>
+      </c>
+      <c r="AB31" s="54">
+        <v>2</v>
+      </c>
+      <c r="AC31" s="54">
+        <v>3</v>
+      </c>
+      <c r="AD31" s="54" t="s">
+        <v>503</v>
+      </c>
+      <c r="AE31" s="54"/>
+      <c r="AF31" s="54" t="s">
+        <v>319</v>
+      </c>
+      <c r="AG31" s="54" t="s">
+        <v>109</v>
+      </c>
+      <c r="AH31" s="54" t="s">
+        <v>119</v>
+      </c>
+      <c r="AI31" s="54" t="s">
+        <v>149</v>
+      </c>
+      <c r="AJ31" s="54"/>
+      <c r="AK31" s="54"/>
+      <c r="AL31" s="54" t="s">
+        <v>502</v>
+      </c>
+      <c r="AM31" s="54" t="s">
+        <v>234</v>
+      </c>
+      <c r="AN31" s="54" t="s">
+        <v>162</v>
+      </c>
+      <c r="AO31" s="54" t="s">
+        <v>572</v>
+      </c>
+      <c r="AP31" s="54"/>
+      <c r="AQ31" s="54" t="s">
+        <v>167</v>
+      </c>
+      <c r="AR31" s="54" t="s">
+        <v>175</v>
+      </c>
+      <c r="AS31" s="54"/>
+      <c r="AT31" s="54" t="s">
+        <v>502</v>
+      </c>
+      <c r="AU31" s="54" t="s">
+        <v>574</v>
+      </c>
+      <c r="AV31" s="54" t="s">
+        <v>201</v>
+      </c>
+      <c r="AW31" s="54" t="s">
         <v>210</v>
       </c>
-      <c r="AX30" s="40" t="s">
-        <v>629</v>
+      <c r="AX31" s="54" t="s">
+        <v>573</v>
       </c>
     </row>
-    <row r="31" spans="1:50" s="16" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="41" t="s">
-        <v>393</v>
-      </c>
-      <c r="B31" s="41" t="s">
+    <row r="32" spans="1:50" s="10" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A32" s="29" t="s">
+        <v>409</v>
+      </c>
+      <c r="B32" s="29" t="s">
         <v>245</v>
       </c>
-      <c r="C31" s="41" t="s">
-        <v>394</v>
-      </c>
-      <c r="D31" s="41" t="s">
-        <v>395</v>
-      </c>
-      <c r="E31" s="42">
-        <v>2001</v>
-      </c>
-      <c r="F31" s="43" t="s">
-        <v>396</v>
-      </c>
-      <c r="G31" s="43" t="s">
-        <v>295</v>
-      </c>
-      <c r="H31" s="41" t="s">
-        <v>265</v>
-      </c>
-      <c r="I31" s="43" t="s">
-        <v>397</v>
-      </c>
-      <c r="J31" s="43" t="s">
-        <v>398</v>
-      </c>
-      <c r="K31" s="41" t="s">
-        <v>399</v>
-      </c>
-      <c r="L31" s="41" t="s">
+      <c r="C32" s="29" t="s">
+        <v>410</v>
+      </c>
+      <c r="D32" s="29" t="s">
+        <v>411</v>
+      </c>
+      <c r="E32" s="30">
+        <v>2000</v>
+      </c>
+      <c r="F32" s="28" t="s">
+        <v>412</v>
+      </c>
+      <c r="G32" s="28" t="s">
+        <v>413</v>
+      </c>
+      <c r="H32" s="29" t="s">
+        <v>371</v>
+      </c>
+      <c r="I32" s="28" t="s">
+        <v>414</v>
+      </c>
+      <c r="J32" s="28" t="s">
+        <v>415</v>
+      </c>
+      <c r="K32" s="29" t="s">
+        <v>416</v>
+      </c>
+      <c r="L32" s="29" t="s">
         <v>254</v>
       </c>
-      <c r="M31" s="43" t="s">
-        <v>400</v>
-      </c>
-      <c r="N31" s="43" t="s">
+      <c r="M32" s="28" t="s">
+        <v>417</v>
+      </c>
+      <c r="N32" s="28" t="s">
         <v>256</v>
       </c>
-      <c r="O31" s="43" t="s">
-        <v>257</v>
-      </c>
-      <c r="P31" s="43" t="s">
+      <c r="O32" s="28" t="s">
+        <v>318</v>
+      </c>
+      <c r="P32" s="28" t="s">
+        <v>258</v>
+      </c>
+      <c r="Q32" s="28" t="s">
+        <v>21</v>
+      </c>
+      <c r="R32" s="28"/>
+      <c r="S32" s="28" t="s">
+        <v>26</v>
+      </c>
+      <c r="T32" s="28" t="s">
+        <v>39</v>
+      </c>
+      <c r="U32" s="28" t="s">
+        <v>49</v>
+      </c>
+      <c r="V32" s="28" t="s">
+        <v>38</v>
+      </c>
+      <c r="W32" s="28" t="s">
+        <v>48</v>
+      </c>
+      <c r="X32" s="28" t="s">
+        <v>218</v>
+      </c>
+      <c r="Y32" s="28" t="s">
+        <v>506</v>
+      </c>
+      <c r="Z32" s="28" t="s">
+        <v>613</v>
+      </c>
+      <c r="AA32" s="28">
+        <v>2</v>
+      </c>
+      <c r="AB32" s="28">
+        <v>2</v>
+      </c>
+      <c r="AC32" s="28">
+        <v>3</v>
+      </c>
+      <c r="AD32" s="28" t="s">
+        <v>504</v>
+      </c>
+      <c r="AE32" s="28"/>
+      <c r="AF32" s="28" t="s">
+        <v>259</v>
+      </c>
+      <c r="AG32" s="28" t="s">
+        <v>109</v>
+      </c>
+      <c r="AH32" s="28" t="s">
+        <v>123</v>
+      </c>
+      <c r="AI32" s="28" t="s">
+        <v>143</v>
+      </c>
+      <c r="AJ32" s="28"/>
+      <c r="AK32" s="28"/>
+      <c r="AL32" s="28" t="s">
+        <v>576</v>
+      </c>
+      <c r="AM32" s="28" t="s">
+        <v>235</v>
+      </c>
+      <c r="AN32" s="28"/>
+      <c r="AO32" s="28" t="s">
+        <v>643</v>
+      </c>
+      <c r="AP32" s="28"/>
+      <c r="AQ32" s="28" t="s">
+        <v>166</v>
+      </c>
+      <c r="AR32" s="28" t="s">
+        <v>241</v>
+      </c>
+      <c r="AS32" s="28"/>
+      <c r="AT32" s="28" t="s">
+        <v>575</v>
+      </c>
+      <c r="AU32" s="28" t="s">
+        <v>633</v>
+      </c>
+      <c r="AV32" s="28" t="s">
+        <v>115</v>
+      </c>
+      <c r="AW32" s="28" t="s">
+        <v>212</v>
+      </c>
+      <c r="AX32" s="28" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="33" spans="1:50" s="10" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A33" s="29" t="s">
+        <v>409</v>
+      </c>
+      <c r="B33" s="29" t="s">
+        <v>245</v>
+      </c>
+      <c r="C33" s="29" t="s">
+        <v>410</v>
+      </c>
+      <c r="D33" s="29" t="s">
+        <v>411</v>
+      </c>
+      <c r="E33" s="30">
+        <v>2000</v>
+      </c>
+      <c r="F33" s="28" t="s">
+        <v>412</v>
+      </c>
+      <c r="G33" s="28" t="s">
+        <v>413</v>
+      </c>
+      <c r="H33" s="29" t="s">
+        <v>371</v>
+      </c>
+      <c r="I33" s="28" t="s">
+        <v>414</v>
+      </c>
+      <c r="J33" s="28" t="s">
+        <v>415</v>
+      </c>
+      <c r="K33" s="29" t="s">
+        <v>416</v>
+      </c>
+      <c r="L33" s="29" t="s">
         <v>254</v>
       </c>
-      <c r="Q31" s="43" t="s">
+      <c r="M33" s="28" t="s">
+        <v>417</v>
+      </c>
+      <c r="N33" s="28" t="s">
+        <v>256</v>
+      </c>
+      <c r="O33" s="28" t="s">
+        <v>318</v>
+      </c>
+      <c r="P33" s="28" t="s">
+        <v>258</v>
+      </c>
+      <c r="Q33" s="28" t="s">
         <v>21</v>
       </c>
-      <c r="R31" s="43"/>
-      <c r="S31" s="43" t="s">
-        <v>24</v>
-      </c>
-      <c r="T31" s="43" t="s">
-        <v>46</v>
-      </c>
-      <c r="U31" s="43" t="s">
-        <v>55</v>
-      </c>
-      <c r="V31" s="43" t="s">
-        <v>45</v>
-      </c>
-      <c r="W31" s="43" t="s">
-        <v>55</v>
-      </c>
-      <c r="X31" s="43" t="s">
+      <c r="R33" s="28"/>
+      <c r="S33" s="28" t="s">
+        <v>26</v>
+      </c>
+      <c r="T33" s="28" t="s">
+        <v>39</v>
+      </c>
+      <c r="U33" s="28" t="s">
+        <v>49</v>
+      </c>
+      <c r="V33" s="28" t="s">
+        <v>38</v>
+      </c>
+      <c r="W33" s="28" t="s">
+        <v>48</v>
+      </c>
+      <c r="X33" s="28" t="s">
         <v>218</v>
       </c>
-      <c r="Y31" s="43"/>
-      <c r="Z31" s="43" t="s">
-        <v>616</v>
-      </c>
-      <c r="AA31" s="43">
+      <c r="Y33" s="28" t="s">
+        <v>506</v>
+      </c>
+      <c r="Z33" s="28" t="s">
+        <v>613</v>
+      </c>
+      <c r="AA33" s="28">
         <v>2</v>
       </c>
-      <c r="AB31" s="43">
+      <c r="AB33" s="28">
         <v>2</v>
       </c>
-      <c r="AC31" s="43">
+      <c r="AC33" s="28">
         <v>3</v>
       </c>
-      <c r="AD31" s="43"/>
-      <c r="AE31" s="43"/>
-      <c r="AF31" s="43" t="s">
-        <v>290</v>
-      </c>
-      <c r="AG31" s="43" t="s">
-        <v>111</v>
-      </c>
-      <c r="AH31" s="43" t="s">
+      <c r="AD33" s="28" t="s">
+        <v>504</v>
+      </c>
+      <c r="AE33" s="28"/>
+      <c r="AF33" s="28" t="s">
+        <v>259</v>
+      </c>
+      <c r="AG33" s="28" t="s">
+        <v>109</v>
+      </c>
+      <c r="AH33" s="28" t="s">
         <v>122</v>
       </c>
-      <c r="AI31" s="43" t="s">
+      <c r="AI33" s="28" t="s">
         <v>142</v>
       </c>
-      <c r="AJ31" s="43" t="s">
-        <v>115</v>
-      </c>
-      <c r="AK31" s="43"/>
-      <c r="AL31" s="43" t="s">
-        <v>631</v>
-      </c>
-      <c r="AM31" s="43" t="s">
+      <c r="AJ33" s="28"/>
+      <c r="AK33" s="28" t="s">
+        <v>143</v>
+      </c>
+      <c r="AL33" s="28" t="s">
+        <v>576</v>
+      </c>
+      <c r="AM33" s="28" t="s">
         <v>235</v>
       </c>
-      <c r="AN31" s="43"/>
-      <c r="AO31" s="43" t="s">
-        <v>574</v>
-      </c>
-      <c r="AP31" s="43" t="s">
-        <v>572</v>
-      </c>
-      <c r="AQ31" s="43" t="s">
+      <c r="AN33" s="28"/>
+      <c r="AO33" s="28" t="s">
+        <v>643</v>
+      </c>
+      <c r="AP33" s="28"/>
+      <c r="AQ33" s="28" t="s">
         <v>166</v>
       </c>
-      <c r="AR31" s="43" t="s">
+      <c r="AR33" s="28" t="s">
         <v>241</v>
       </c>
-      <c r="AS31" s="43" t="s">
-        <v>178</v>
-      </c>
-      <c r="AT31" s="43" t="s">
-        <v>573</v>
-      </c>
-      <c r="AU31" s="43" t="s">
-        <v>494</v>
-      </c>
-      <c r="AV31" s="43" t="s">
-        <v>207</v>
-      </c>
-      <c r="AW31" s="43" t="s">
-        <v>212</v>
-      </c>
-      <c r="AX31" s="40" t="s">
-        <v>628</v>
+      <c r="AS33" s="28"/>
+      <c r="AT33" s="28" t="s">
+        <v>575</v>
+      </c>
+      <c r="AU33" s="28" t="s">
+        <v>635</v>
+      </c>
+      <c r="AV33" s="28" t="s">
+        <v>201</v>
+      </c>
+      <c r="AW33" s="28" t="s">
+        <v>211</v>
+      </c>
+      <c r="AX33" s="54" t="s">
+        <v>639</v>
       </c>
     </row>
-    <row r="32" spans="1:50" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="52" t="s">
-        <v>401</v>
-      </c>
-      <c r="B32" s="52" t="s">
-        <v>245</v>
-      </c>
-      <c r="C32" s="52" t="s">
-        <v>402</v>
-      </c>
-      <c r="D32" s="52" t="s">
-        <v>403</v>
-      </c>
-      <c r="E32" s="53">
-        <v>2001</v>
-      </c>
-      <c r="F32" s="54" t="s">
-        <v>404</v>
-      </c>
-      <c r="G32" s="54" t="s">
-        <v>405</v>
-      </c>
-      <c r="H32" s="52" t="s">
-        <v>275</v>
-      </c>
-      <c r="I32" s="54" t="s">
-        <v>275</v>
-      </c>
-      <c r="J32" s="54" t="s">
-        <v>406</v>
-      </c>
-      <c r="K32" s="52" t="s">
-        <v>407</v>
-      </c>
-      <c r="L32" s="52" t="s">
-        <v>254</v>
-      </c>
-      <c r="M32" s="54" t="s">
-        <v>408</v>
-      </c>
-      <c r="N32" s="54" t="s">
-        <v>256</v>
-      </c>
-      <c r="O32" s="54" t="s">
-        <v>257</v>
-      </c>
-      <c r="P32" s="54" t="s">
-        <v>254</v>
-      </c>
-      <c r="Q32" s="54" t="s">
-        <v>21</v>
-      </c>
-      <c r="R32" s="54"/>
-      <c r="S32" s="54" t="s">
-        <v>31</v>
-      </c>
-      <c r="T32" s="54" t="s">
-        <v>41</v>
-      </c>
-      <c r="U32" s="54" t="s">
-        <v>49</v>
-      </c>
-      <c r="V32" s="54" t="s">
-        <v>40</v>
-      </c>
-      <c r="W32" s="54" t="s">
-        <v>48</v>
-      </c>
-      <c r="X32" s="54" t="s">
-        <v>72</v>
-      </c>
-      <c r="Y32" s="54"/>
-      <c r="Z32" s="54" t="s">
-        <v>618</v>
-      </c>
-      <c r="AA32" s="54">
-        <v>2</v>
-      </c>
-      <c r="AB32" s="54">
-        <v>2</v>
-      </c>
-      <c r="AC32" s="54">
-        <v>3</v>
-      </c>
-      <c r="AD32" s="54" t="s">
-        <v>503</v>
-      </c>
-      <c r="AE32" s="54"/>
-      <c r="AF32" s="54" t="s">
-        <v>319</v>
-      </c>
-      <c r="AG32" s="54" t="s">
-        <v>109</v>
-      </c>
-      <c r="AH32" s="54" t="s">
-        <v>119</v>
-      </c>
-      <c r="AI32" s="54" t="s">
-        <v>149</v>
-      </c>
-      <c r="AJ32" s="54"/>
-      <c r="AK32" s="54"/>
-      <c r="AL32" s="54" t="s">
-        <v>502</v>
-      </c>
-      <c r="AM32" s="54" t="s">
-        <v>234</v>
-      </c>
-      <c r="AN32" s="54" t="s">
-        <v>162</v>
-      </c>
-      <c r="AO32" s="54" t="s">
-        <v>575</v>
-      </c>
-      <c r="AP32" s="54"/>
-      <c r="AQ32" s="54" t="s">
-        <v>167</v>
-      </c>
-      <c r="AR32" s="54" t="s">
-        <v>175</v>
-      </c>
-      <c r="AS32" s="54"/>
-      <c r="AT32" s="54" t="s">
-        <v>502</v>
-      </c>
-      <c r="AU32" s="54" t="s">
-        <v>577</v>
-      </c>
-      <c r="AV32" s="54" t="s">
-        <v>201</v>
-      </c>
-      <c r="AW32" s="54" t="s">
-        <v>210</v>
-      </c>
-      <c r="AX32" s="54" t="s">
-        <v>576</v>
-      </c>
-    </row>
-    <row r="33" spans="1:50" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="52" t="s">
-        <v>409</v>
-      </c>
-      <c r="B33" s="52" t="s">
-        <v>245</v>
-      </c>
-      <c r="C33" s="52" t="s">
-        <v>410</v>
-      </c>
-      <c r="D33" s="52" t="s">
-        <v>411</v>
-      </c>
-      <c r="E33" s="53">
-        <v>2000</v>
-      </c>
-      <c r="F33" s="54" t="s">
-        <v>412</v>
-      </c>
-      <c r="G33" s="54" t="s">
-        <v>413</v>
-      </c>
-      <c r="H33" s="52" t="s">
-        <v>371</v>
-      </c>
-      <c r="I33" s="54" t="s">
-        <v>414</v>
-      </c>
-      <c r="J33" s="54" t="s">
-        <v>415</v>
-      </c>
-      <c r="K33" s="52" t="s">
-        <v>416</v>
-      </c>
-      <c r="L33" s="52" t="s">
-        <v>254</v>
-      </c>
-      <c r="M33" s="54" t="s">
-        <v>417</v>
-      </c>
-      <c r="N33" s="54" t="s">
-        <v>256</v>
-      </c>
-      <c r="O33" s="54" t="s">
-        <v>318</v>
-      </c>
-      <c r="P33" s="54" t="s">
-        <v>258</v>
-      </c>
-      <c r="Q33" s="54" t="s">
-        <v>21</v>
-      </c>
-      <c r="R33" s="54"/>
-      <c r="S33" s="54" t="s">
-        <v>26</v>
-      </c>
-      <c r="T33" s="54" t="s">
-        <v>39</v>
-      </c>
-      <c r="U33" s="54" t="s">
-        <v>49</v>
-      </c>
-      <c r="V33" s="54" t="s">
-        <v>38</v>
-      </c>
-      <c r="W33" s="54" t="s">
-        <v>48</v>
-      </c>
-      <c r="X33" s="54" t="s">
-        <v>218</v>
-      </c>
-      <c r="Y33" s="54" t="s">
-        <v>506</v>
-      </c>
-      <c r="Z33" s="54" t="s">
-        <v>619</v>
-      </c>
-      <c r="AA33" s="54">
-        <v>2</v>
-      </c>
-      <c r="AB33" s="54">
-        <v>2</v>
-      </c>
-      <c r="AC33" s="54">
-        <v>3</v>
-      </c>
-      <c r="AD33" s="54" t="s">
-        <v>504</v>
-      </c>
-      <c r="AE33" s="54"/>
-      <c r="AF33" s="54" t="s">
-        <v>259</v>
-      </c>
-      <c r="AG33" s="54" t="s">
-        <v>109</v>
-      </c>
-      <c r="AH33" s="54" t="s">
-        <v>122</v>
-      </c>
-      <c r="AI33" s="54" t="s">
-        <v>142</v>
-      </c>
-      <c r="AJ33" s="54"/>
-      <c r="AK33" s="54" t="s">
-        <v>143</v>
-      </c>
-      <c r="AL33" s="54" t="s">
-        <v>579</v>
-      </c>
-      <c r="AM33" s="54" t="s">
-        <v>235</v>
-      </c>
-      <c r="AN33" s="54"/>
-      <c r="AO33" s="54" t="s">
-        <v>596</v>
-      </c>
-      <c r="AP33" s="54"/>
-      <c r="AQ33" s="54" t="s">
-        <v>166</v>
-      </c>
-      <c r="AR33" s="54" t="s">
-        <v>241</v>
-      </c>
-      <c r="AS33" s="54"/>
-      <c r="AT33" s="54" t="s">
-        <v>578</v>
-      </c>
-      <c r="AU33" s="54" t="s">
-        <v>580</v>
-      </c>
-      <c r="AV33" s="54" t="s">
-        <v>201</v>
-      </c>
-      <c r="AW33" s="54" t="s">
-        <v>210</v>
-      </c>
-      <c r="AX33" s="54" t="s">
-        <v>527</v>
-      </c>
-    </row>
-    <row r="34" spans="1:50" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:50" s="10" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A34" s="29" t="s">
         <v>409</v>
       </c>
@@ -9206,7 +9219,7 @@
         <v>506</v>
       </c>
       <c r="Z34" s="28" t="s">
-        <v>619</v>
+        <v>613</v>
       </c>
       <c r="AA34" s="28">
         <v>2</v>
@@ -9238,14 +9251,14 @@
         <v>143</v>
       </c>
       <c r="AL34" s="28" t="s">
-        <v>579</v>
+        <v>576</v>
       </c>
       <c r="AM34" s="28" t="s">
         <v>235</v>
       </c>
       <c r="AN34" s="28"/>
       <c r="AO34" s="28" t="s">
-        <v>597</v>
+        <v>643</v>
       </c>
       <c r="AP34" s="28"/>
       <c r="AQ34" s="28" t="s">
@@ -9256,475 +9269,467 @@
       </c>
       <c r="AS34" s="28"/>
       <c r="AT34" s="28" t="s">
-        <v>578</v>
+        <v>575</v>
       </c>
       <c r="AU34" s="28" t="s">
-        <v>580</v>
+        <v>636</v>
       </c>
       <c r="AV34" s="28" t="s">
-        <v>201</v>
+        <v>208</v>
       </c>
       <c r="AW34" s="28" t="s">
-        <v>210</v>
-      </c>
-      <c r="AX34" s="28" t="s">
-        <v>527</v>
+        <v>211</v>
+      </c>
+      <c r="AX34" s="54" t="s">
+        <v>640</v>
       </c>
     </row>
-    <row r="35" spans="1:50" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="44" t="s">
+    <row r="35" spans="1:50" s="10" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A35" s="29" t="s">
+        <v>409</v>
+      </c>
+      <c r="B35" s="29" t="s">
+        <v>245</v>
+      </c>
+      <c r="C35" s="29" t="s">
+        <v>410</v>
+      </c>
+      <c r="D35" s="29" t="s">
+        <v>411</v>
+      </c>
+      <c r="E35" s="30">
+        <v>2000</v>
+      </c>
+      <c r="F35" s="28" t="s">
+        <v>412</v>
+      </c>
+      <c r="G35" s="28" t="s">
+        <v>413</v>
+      </c>
+      <c r="H35" s="29" t="s">
+        <v>371</v>
+      </c>
+      <c r="I35" s="28" t="s">
+        <v>414</v>
+      </c>
+      <c r="J35" s="28" t="s">
+        <v>415</v>
+      </c>
+      <c r="K35" s="29" t="s">
+        <v>416</v>
+      </c>
+      <c r="L35" s="29" t="s">
+        <v>254</v>
+      </c>
+      <c r="M35" s="28" t="s">
+        <v>417</v>
+      </c>
+      <c r="N35" s="28" t="s">
+        <v>256</v>
+      </c>
+      <c r="O35" s="28" t="s">
+        <v>318</v>
+      </c>
+      <c r="P35" s="28" t="s">
+        <v>258</v>
+      </c>
+      <c r="Q35" s="28" t="s">
+        <v>21</v>
+      </c>
+      <c r="R35" s="28"/>
+      <c r="S35" s="28" t="s">
+        <v>26</v>
+      </c>
+      <c r="T35" s="28" t="s">
+        <v>39</v>
+      </c>
+      <c r="U35" s="28" t="s">
+        <v>49</v>
+      </c>
+      <c r="V35" s="28" t="s">
+        <v>38</v>
+      </c>
+      <c r="W35" s="28" t="s">
+        <v>48</v>
+      </c>
+      <c r="X35" s="28" t="s">
+        <v>218</v>
+      </c>
+      <c r="Y35" s="28" t="s">
+        <v>506</v>
+      </c>
+      <c r="Z35" s="28" t="s">
+        <v>613</v>
+      </c>
+      <c r="AA35" s="28">
+        <v>2</v>
+      </c>
+      <c r="AB35" s="28">
+        <v>2</v>
+      </c>
+      <c r="AC35" s="28">
+        <v>3</v>
+      </c>
+      <c r="AD35" s="28" t="s">
+        <v>504</v>
+      </c>
+      <c r="AE35" s="28"/>
+      <c r="AF35" s="28" t="s">
+        <v>259</v>
+      </c>
+      <c r="AG35" s="28" t="s">
+        <v>109</v>
+      </c>
+      <c r="AH35" s="28" t="s">
+        <v>122</v>
+      </c>
+      <c r="AI35" s="28" t="s">
+        <v>142</v>
+      </c>
+      <c r="AJ35" s="28"/>
+      <c r="AK35" s="28" t="s">
+        <v>143</v>
+      </c>
+      <c r="AL35" s="28" t="s">
+        <v>576</v>
+      </c>
+      <c r="AM35" s="28" t="s">
+        <v>235</v>
+      </c>
+      <c r="AN35" s="28"/>
+      <c r="AO35" s="28" t="s">
+        <v>643</v>
+      </c>
+      <c r="AP35" s="28"/>
+      <c r="AQ35" s="28" t="s">
+        <v>166</v>
+      </c>
+      <c r="AR35" s="28" t="s">
+        <v>241</v>
+      </c>
+      <c r="AS35" s="28"/>
+      <c r="AT35" s="28" t="s">
+        <v>575</v>
+      </c>
+      <c r="AU35" s="28" t="s">
+        <v>637</v>
+      </c>
+      <c r="AV35" s="28" t="s">
+        <v>207</v>
+      </c>
+      <c r="AW35" s="28" t="s">
+        <v>211</v>
+      </c>
+      <c r="AX35" s="54" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="36" spans="1:50" s="10" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A36" s="29" t="s">
+        <v>409</v>
+      </c>
+      <c r="B36" s="29" t="s">
+        <v>245</v>
+      </c>
+      <c r="C36" s="29" t="s">
+        <v>410</v>
+      </c>
+      <c r="D36" s="29" t="s">
+        <v>411</v>
+      </c>
+      <c r="E36" s="30">
+        <v>2000</v>
+      </c>
+      <c r="F36" s="28" t="s">
+        <v>412</v>
+      </c>
+      <c r="G36" s="28" t="s">
+        <v>413</v>
+      </c>
+      <c r="H36" s="29" t="s">
+        <v>371</v>
+      </c>
+      <c r="I36" s="28" t="s">
+        <v>414</v>
+      </c>
+      <c r="J36" s="28" t="s">
+        <v>415</v>
+      </c>
+      <c r="K36" s="29" t="s">
+        <v>416</v>
+      </c>
+      <c r="L36" s="29" t="s">
+        <v>254</v>
+      </c>
+      <c r="M36" s="28" t="s">
+        <v>417</v>
+      </c>
+      <c r="N36" s="28" t="s">
+        <v>256</v>
+      </c>
+      <c r="O36" s="28" t="s">
+        <v>318</v>
+      </c>
+      <c r="P36" s="28" t="s">
+        <v>258</v>
+      </c>
+      <c r="Q36" s="28" t="s">
+        <v>21</v>
+      </c>
+      <c r="R36" s="28"/>
+      <c r="S36" s="28" t="s">
+        <v>26</v>
+      </c>
+      <c r="T36" s="28" t="s">
+        <v>39</v>
+      </c>
+      <c r="U36" s="28" t="s">
+        <v>49</v>
+      </c>
+      <c r="V36" s="28" t="s">
+        <v>38</v>
+      </c>
+      <c r="W36" s="28" t="s">
+        <v>48</v>
+      </c>
+      <c r="X36" s="28" t="s">
+        <v>218</v>
+      </c>
+      <c r="Y36" s="28" t="s">
+        <v>506</v>
+      </c>
+      <c r="Z36" s="28" t="s">
+        <v>613</v>
+      </c>
+      <c r="AA36" s="28">
+        <v>2</v>
+      </c>
+      <c r="AB36" s="28">
+        <v>2</v>
+      </c>
+      <c r="AC36" s="28">
+        <v>3</v>
+      </c>
+      <c r="AD36" s="28" t="s">
+        <v>504</v>
+      </c>
+      <c r="AE36" s="28"/>
+      <c r="AF36" s="28" t="s">
+        <v>259</v>
+      </c>
+      <c r="AG36" s="28" t="s">
+        <v>109</v>
+      </c>
+      <c r="AH36" s="28" t="s">
+        <v>122</v>
+      </c>
+      <c r="AI36" s="28" t="s">
+        <v>142</v>
+      </c>
+      <c r="AJ36" s="28"/>
+      <c r="AK36" s="28" t="s">
+        <v>143</v>
+      </c>
+      <c r="AL36" s="28" t="s">
+        <v>576</v>
+      </c>
+      <c r="AM36" s="28" t="s">
+        <v>235</v>
+      </c>
+      <c r="AN36" s="28"/>
+      <c r="AO36" s="28" t="s">
+        <v>643</v>
+      </c>
+      <c r="AP36" s="28"/>
+      <c r="AQ36" s="28" t="s">
+        <v>166</v>
+      </c>
+      <c r="AR36" s="28" t="s">
+        <v>241</v>
+      </c>
+      <c r="AS36" s="28"/>
+      <c r="AT36" s="28" t="s">
+        <v>575</v>
+      </c>
+      <c r="AU36" s="28" t="s">
+        <v>638</v>
+      </c>
+      <c r="AV36" s="28" t="s">
+        <v>207</v>
+      </c>
+      <c r="AW36" s="28" t="s">
+        <v>211</v>
+      </c>
+      <c r="AX36" s="54" t="s">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="37" spans="1:50" s="10" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A37" s="44" t="s">
         <v>418</v>
       </c>
-      <c r="B35" s="44" t="s">
+      <c r="B37" s="44" t="s">
         <v>245</v>
       </c>
-      <c r="C35" s="44" t="s">
+      <c r="C37" s="44" t="s">
         <v>419</v>
       </c>
-      <c r="D35" s="44" t="s">
+      <c r="D37" s="44" t="s">
         <v>420</v>
       </c>
-      <c r="E35" s="45">
+      <c r="E37" s="45">
         <v>2000</v>
       </c>
-      <c r="F35" s="46" t="s">
+      <c r="F37" s="46" t="s">
         <v>412</v>
       </c>
-      <c r="G35" s="46" t="s">
+      <c r="G37" s="46" t="s">
         <v>413</v>
       </c>
-      <c r="H35" s="44" t="s">
+      <c r="H37" s="44" t="s">
         <v>371</v>
       </c>
-      <c r="I35" s="46" t="s">
+      <c r="I37" s="46" t="s">
         <v>421</v>
       </c>
-      <c r="J35" s="46" t="s">
+      <c r="J37" s="46" t="s">
         <v>422</v>
       </c>
-      <c r="K35" s="44" t="s">
+      <c r="K37" s="44" t="s">
         <v>423</v>
       </c>
-      <c r="L35" s="44" t="s">
+      <c r="L37" s="44" t="s">
         <v>254</v>
       </c>
-      <c r="M35" s="46" t="s">
+      <c r="M37" s="46" t="s">
         <v>424</v>
       </c>
-      <c r="N35" s="46" t="s">
+      <c r="N37" s="46" t="s">
         <v>256</v>
       </c>
-      <c r="O35" s="46" t="s">
+      <c r="O37" s="46" t="s">
         <v>318</v>
       </c>
-      <c r="P35" s="46" t="s">
+      <c r="P37" s="46" t="s">
         <v>258</v>
       </c>
-      <c r="Q35" s="46" t="s">
+      <c r="Q37" s="46" t="s">
         <v>21</v>
       </c>
-      <c r="R35" s="46" t="s">
+      <c r="R37" s="46" t="s">
         <v>84</v>
       </c>
-      <c r="S35" s="46"/>
-      <c r="T35" s="46"/>
-      <c r="U35" s="46"/>
-      <c r="V35" s="46"/>
-      <c r="W35" s="46"/>
-      <c r="X35" s="46"/>
-      <c r="Y35" s="46"/>
-      <c r="Z35" s="46"/>
-      <c r="AA35" s="46"/>
-      <c r="AB35" s="46"/>
-      <c r="AC35" s="46"/>
-      <c r="AD35" s="46"/>
-      <c r="AE35" s="46"/>
-      <c r="AF35" s="46" t="s">
+      <c r="S37" s="46"/>
+      <c r="T37" s="46"/>
+      <c r="U37" s="46"/>
+      <c r="V37" s="46"/>
+      <c r="W37" s="46"/>
+      <c r="X37" s="46"/>
+      <c r="Y37" s="46"/>
+      <c r="Z37" s="46"/>
+      <c r="AA37" s="46"/>
+      <c r="AB37" s="46"/>
+      <c r="AC37" s="46"/>
+      <c r="AD37" s="46"/>
+      <c r="AE37" s="46"/>
+      <c r="AF37" s="46" t="s">
         <v>290</v>
       </c>
-      <c r="AG35" s="46"/>
-      <c r="AH35" s="46"/>
-      <c r="AI35" s="46"/>
-      <c r="AJ35" s="46"/>
-      <c r="AK35" s="46"/>
-      <c r="AL35" s="46"/>
-      <c r="AM35" s="46"/>
-      <c r="AN35" s="46"/>
-      <c r="AO35" s="46"/>
-      <c r="AP35" s="46"/>
-      <c r="AQ35" s="46"/>
-      <c r="AR35" s="46"/>
-      <c r="AS35" s="46"/>
-      <c r="AT35" s="46"/>
-      <c r="AU35" s="46"/>
-      <c r="AV35" s="46"/>
-      <c r="AW35" s="46"/>
-      <c r="AX35" s="46"/>
+      <c r="AG37" s="46"/>
+      <c r="AH37" s="46"/>
+      <c r="AI37" s="46"/>
+      <c r="AJ37" s="46"/>
+      <c r="AK37" s="46"/>
+      <c r="AL37" s="46"/>
+      <c r="AM37" s="46"/>
+      <c r="AN37" s="46"/>
+      <c r="AO37" s="46"/>
+      <c r="AP37" s="46"/>
+      <c r="AQ37" s="46"/>
+      <c r="AR37" s="46"/>
+      <c r="AS37" s="46"/>
+      <c r="AT37" s="46"/>
+      <c r="AU37" s="46"/>
+      <c r="AV37" s="46"/>
+      <c r="AW37" s="46"/>
+      <c r="AX37" s="46"/>
     </row>
-    <row r="36" spans="1:50" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="52" t="s">
+    <row r="38" spans="1:50" s="10" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A38" s="52" t="s">
         <v>425</v>
-      </c>
-      <c r="B36" s="52" t="s">
-        <v>245</v>
-      </c>
-      <c r="C36" s="52" t="s">
-        <v>426</v>
-      </c>
-      <c r="D36" s="52" t="s">
-        <v>427</v>
-      </c>
-      <c r="E36" s="53">
-        <v>1999</v>
-      </c>
-      <c r="F36" s="54" t="s">
-        <v>342</v>
-      </c>
-      <c r="G36" s="54" t="s">
-        <v>249</v>
-      </c>
-      <c r="H36" s="52" t="s">
-        <v>388</v>
-      </c>
-      <c r="I36" s="54" t="s">
-        <v>428</v>
-      </c>
-      <c r="J36" s="54" t="s">
-        <v>429</v>
-      </c>
-      <c r="K36" s="52" t="s">
-        <v>430</v>
-      </c>
-      <c r="L36" s="52" t="s">
-        <v>254</v>
-      </c>
-      <c r="M36" s="54" t="s">
-        <v>431</v>
-      </c>
-      <c r="N36" s="54" t="s">
-        <v>256</v>
-      </c>
-      <c r="O36" s="54" t="s">
-        <v>318</v>
-      </c>
-      <c r="P36" s="54" t="s">
-        <v>350</v>
-      </c>
-      <c r="Q36" s="54" t="s">
-        <v>21</v>
-      </c>
-      <c r="R36" s="54"/>
-      <c r="S36" s="54" t="s">
-        <v>31</v>
-      </c>
-      <c r="T36" s="54" t="s">
-        <v>44</v>
-      </c>
-      <c r="U36" s="54" t="s">
-        <v>56</v>
-      </c>
-      <c r="V36" s="54" t="s">
-        <v>40</v>
-      </c>
-      <c r="W36" s="54" t="s">
-        <v>50</v>
-      </c>
-      <c r="X36" s="54" t="s">
-        <v>218</v>
-      </c>
-      <c r="Y36" s="54" t="s">
-        <v>508</v>
-      </c>
-      <c r="Z36" s="54" t="s">
-        <v>620</v>
-      </c>
-      <c r="AA36" s="54">
-        <v>2</v>
-      </c>
-      <c r="AB36" s="54">
-        <v>2</v>
-      </c>
-      <c r="AC36" s="54">
-        <v>3</v>
-      </c>
-      <c r="AD36" s="54" t="s">
-        <v>507</v>
-      </c>
-      <c r="AE36" s="54"/>
-      <c r="AF36" s="54" t="s">
-        <v>290</v>
-      </c>
-      <c r="AG36" s="54" t="s">
-        <v>109</v>
-      </c>
-      <c r="AH36" s="54" t="s">
-        <v>119</v>
-      </c>
-      <c r="AI36" s="54" t="s">
-        <v>149</v>
-      </c>
-      <c r="AJ36" s="54"/>
-      <c r="AK36" s="54"/>
-      <c r="AL36" s="54" t="s">
-        <v>584</v>
-      </c>
-      <c r="AM36" s="54" t="s">
-        <v>234</v>
-      </c>
-      <c r="AN36" s="54" t="s">
-        <v>162</v>
-      </c>
-      <c r="AO36" s="54" t="s">
-        <v>583</v>
-      </c>
-      <c r="AP36" s="54" t="s">
-        <v>581</v>
-      </c>
-      <c r="AQ36" s="54" t="s">
-        <v>166</v>
-      </c>
-      <c r="AR36" s="54" t="s">
-        <v>171</v>
-      </c>
-      <c r="AS36" s="54" t="s">
-        <v>183</v>
-      </c>
-      <c r="AT36" s="54" t="s">
-        <v>582</v>
-      </c>
-      <c r="AU36" s="54" t="s">
-        <v>509</v>
-      </c>
-      <c r="AV36" s="54" t="s">
-        <v>208</v>
-      </c>
-      <c r="AW36" s="54" t="s">
-        <v>209</v>
-      </c>
-      <c r="AX36" s="54" t="s">
-        <v>510</v>
-      </c>
-    </row>
-    <row r="37" spans="1:50" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="29" t="s">
-        <v>425</v>
-      </c>
-      <c r="B37" s="29" t="s">
-        <v>245</v>
-      </c>
-      <c r="C37" s="29" t="s">
-        <v>426</v>
-      </c>
-      <c r="D37" s="29" t="s">
-        <v>427</v>
-      </c>
-      <c r="E37" s="30">
-        <v>1999</v>
-      </c>
-      <c r="F37" s="28" t="s">
-        <v>342</v>
-      </c>
-      <c r="G37" s="28" t="s">
-        <v>249</v>
-      </c>
-      <c r="H37" s="29" t="s">
-        <v>388</v>
-      </c>
-      <c r="I37" s="28" t="s">
-        <v>428</v>
-      </c>
-      <c r="J37" s="28" t="s">
-        <v>429</v>
-      </c>
-      <c r="K37" s="29" t="s">
-        <v>430</v>
-      </c>
-      <c r="L37" s="29" t="s">
-        <v>254</v>
-      </c>
-      <c r="M37" s="28" t="s">
-        <v>431</v>
-      </c>
-      <c r="N37" s="28" t="s">
-        <v>256</v>
-      </c>
-      <c r="O37" s="28" t="s">
-        <v>318</v>
-      </c>
-      <c r="P37" s="28" t="s">
-        <v>350</v>
-      </c>
-      <c r="Q37" s="28" t="s">
-        <v>21</v>
-      </c>
-      <c r="R37" s="28"/>
-      <c r="S37" s="28" t="s">
-        <v>31</v>
-      </c>
-      <c r="T37" s="28" t="s">
-        <v>44</v>
-      </c>
-      <c r="U37" s="28" t="s">
-        <v>56</v>
-      </c>
-      <c r="V37" s="28" t="s">
-        <v>40</v>
-      </c>
-      <c r="W37" s="28" t="s">
-        <v>50</v>
-      </c>
-      <c r="X37" s="28" t="s">
-        <v>218</v>
-      </c>
-      <c r="Y37" s="28" t="s">
-        <v>508</v>
-      </c>
-      <c r="Z37" s="28" t="s">
-        <v>620</v>
-      </c>
-      <c r="AA37" s="28">
-        <v>2</v>
-      </c>
-      <c r="AB37" s="28">
-        <v>2</v>
-      </c>
-      <c r="AC37" s="28">
-        <v>3</v>
-      </c>
-      <c r="AD37" s="28" t="s">
-        <v>507</v>
-      </c>
-      <c r="AE37" s="28"/>
-      <c r="AF37" s="28" t="s">
-        <v>290</v>
-      </c>
-      <c r="AG37" s="28" t="s">
-        <v>109</v>
-      </c>
-      <c r="AH37" s="28" t="s">
-        <v>119</v>
-      </c>
-      <c r="AI37" s="28" t="s">
-        <v>149</v>
-      </c>
-      <c r="AJ37" s="28"/>
-      <c r="AK37" s="28"/>
-      <c r="AL37" s="28" t="s">
-        <v>584</v>
-      </c>
-      <c r="AM37" s="28" t="s">
-        <v>234</v>
-      </c>
-      <c r="AN37" s="28" t="s">
-        <v>162</v>
-      </c>
-      <c r="AO37" s="28" t="s">
-        <v>583</v>
-      </c>
-      <c r="AP37" s="28" t="s">
-        <v>581</v>
-      </c>
-      <c r="AQ37" s="28" t="s">
-        <v>166</v>
-      </c>
-      <c r="AR37" s="28" t="s">
-        <v>171</v>
-      </c>
-      <c r="AS37" s="28" t="s">
-        <v>183</v>
-      </c>
-      <c r="AT37" s="28" t="s">
-        <v>582</v>
-      </c>
-      <c r="AU37" s="28" t="s">
-        <v>536</v>
-      </c>
-      <c r="AV37" s="28" t="s">
-        <v>201</v>
-      </c>
-      <c r="AW37" s="28" t="s">
-        <v>209</v>
-      </c>
-      <c r="AX37" s="28" t="s">
-        <v>510</v>
-      </c>
-    </row>
-    <row r="38" spans="1:50" s="10" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="52" t="s">
-        <v>432</v>
       </c>
       <c r="B38" s="52" t="s">
         <v>245</v>
       </c>
       <c r="C38" s="52" t="s">
-        <v>433</v>
+        <v>426</v>
       </c>
       <c r="D38" s="52" t="s">
-        <v>434</v>
+        <v>427</v>
       </c>
       <c r="E38" s="53">
         <v>1999</v>
       </c>
       <c r="F38" s="54" t="s">
-        <v>412</v>
+        <v>342</v>
       </c>
       <c r="G38" s="54" t="s">
-        <v>435</v>
+        <v>249</v>
       </c>
       <c r="H38" s="52" t="s">
-        <v>275</v>
+        <v>388</v>
       </c>
       <c r="I38" s="54" t="s">
-        <v>436</v>
+        <v>428</v>
       </c>
       <c r="J38" s="54" t="s">
-        <v>437</v>
+        <v>429</v>
       </c>
       <c r="K38" s="52" t="s">
-        <v>438</v>
+        <v>430</v>
       </c>
       <c r="L38" s="52" t="s">
         <v>254</v>
       </c>
       <c r="M38" s="54" t="s">
-        <v>439</v>
+        <v>431</v>
       </c>
       <c r="N38" s="54" t="s">
         <v>256</v>
       </c>
       <c r="O38" s="54" t="s">
-        <v>257</v>
+        <v>318</v>
       </c>
       <c r="P38" s="54" t="s">
-        <v>258</v>
+        <v>350</v>
       </c>
       <c r="Q38" s="54" t="s">
         <v>21</v>
       </c>
       <c r="R38" s="54"/>
       <c r="S38" s="54" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="T38" s="54" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="U38" s="54" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="V38" s="54" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="W38" s="54" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="X38" s="54" t="s">
         <v>218</v>
       </c>
       <c r="Y38" s="54" t="s">
-        <v>512</v>
+        <v>508</v>
       </c>
       <c r="Z38" s="54" t="s">
-        <v>511</v>
+        <v>614</v>
       </c>
       <c r="AA38" s="54">
         <v>2</v>
@@ -9735,25 +9740,27 @@
       <c r="AC38" s="54">
         <v>3</v>
       </c>
-      <c r="AD38" s="55" t="s">
-        <v>513</v>
+      <c r="AD38" s="54" t="s">
+        <v>507</v>
       </c>
       <c r="AE38" s="54"/>
       <c r="AF38" s="54" t="s">
-        <v>319</v>
+        <v>290</v>
       </c>
       <c r="AG38" s="54" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="AH38" s="54" t="s">
         <v>119</v>
       </c>
       <c r="AI38" s="54" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="AJ38" s="54"/>
       <c r="AK38" s="54"/>
-      <c r="AL38" s="54"/>
+      <c r="AL38" s="54" t="s">
+        <v>580</v>
+      </c>
       <c r="AM38" s="54" t="s">
         <v>234</v>
       </c>
@@ -9761,110 +9768,112 @@
         <v>162</v>
       </c>
       <c r="AO38" s="54" t="s">
-        <v>585</v>
-      </c>
-      <c r="AP38" s="54"/>
+        <v>579</v>
+      </c>
+      <c r="AP38" s="54" t="s">
+        <v>577</v>
+      </c>
       <c r="AQ38" s="54" t="s">
         <v>166</v>
       </c>
       <c r="AR38" s="54" t="s">
-        <v>241</v>
+        <v>171</v>
       </c>
       <c r="AS38" s="54" t="s">
-        <v>178</v>
+        <v>183</v>
       </c>
       <c r="AT38" s="54" t="s">
-        <v>587</v>
+        <v>578</v>
       </c>
       <c r="AU38" s="54" t="s">
-        <v>586</v>
+        <v>509</v>
       </c>
       <c r="AV38" s="54" t="s">
-        <v>201</v>
+        <v>208</v>
       </c>
       <c r="AW38" s="54" t="s">
-        <v>211</v>
-      </c>
-      <c r="AX38" s="55" t="s">
-        <v>588</v>
+        <v>209</v>
+      </c>
+      <c r="AX38" s="54" t="s">
+        <v>510</v>
       </c>
     </row>
-    <row r="39" spans="1:50" s="10" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:50" s="10" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A39" s="29" t="s">
-        <v>432</v>
+        <v>425</v>
       </c>
       <c r="B39" s="29" t="s">
         <v>245</v>
       </c>
       <c r="C39" s="29" t="s">
-        <v>433</v>
+        <v>426</v>
       </c>
       <c r="D39" s="29" t="s">
-        <v>434</v>
+        <v>427</v>
       </c>
       <c r="E39" s="30">
         <v>1999</v>
       </c>
       <c r="F39" s="28" t="s">
-        <v>412</v>
+        <v>342</v>
       </c>
       <c r="G39" s="28" t="s">
-        <v>435</v>
+        <v>249</v>
       </c>
       <c r="H39" s="29" t="s">
-        <v>275</v>
+        <v>388</v>
       </c>
       <c r="I39" s="28" t="s">
-        <v>436</v>
+        <v>428</v>
       </c>
       <c r="J39" s="28" t="s">
-        <v>437</v>
+        <v>429</v>
       </c>
       <c r="K39" s="29" t="s">
-        <v>438</v>
+        <v>430</v>
       </c>
       <c r="L39" s="29" t="s">
         <v>254</v>
       </c>
       <c r="M39" s="28" t="s">
-        <v>439</v>
+        <v>431</v>
       </c>
       <c r="N39" s="28" t="s">
         <v>256</v>
       </c>
       <c r="O39" s="28" t="s">
-        <v>257</v>
+        <v>318</v>
       </c>
       <c r="P39" s="28" t="s">
-        <v>258</v>
+        <v>350</v>
       </c>
       <c r="Q39" s="28" t="s">
         <v>21</v>
       </c>
       <c r="R39" s="28"/>
       <c r="S39" s="28" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="T39" s="28" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="U39" s="28" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="V39" s="28" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="W39" s="28" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="X39" s="28" t="s">
         <v>218</v>
       </c>
       <c r="Y39" s="28" t="s">
-        <v>512</v>
+        <v>508</v>
       </c>
       <c r="Z39" s="28" t="s">
-        <v>511</v>
+        <v>614</v>
       </c>
       <c r="AA39" s="28">
         <v>2</v>
@@ -9875,25 +9884,27 @@
       <c r="AC39" s="28">
         <v>3</v>
       </c>
-      <c r="AD39" s="31" t="s">
-        <v>513</v>
+      <c r="AD39" s="28" t="s">
+        <v>507</v>
       </c>
       <c r="AE39" s="28"/>
       <c r="AF39" s="28" t="s">
-        <v>319</v>
+        <v>290</v>
       </c>
       <c r="AG39" s="28" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="AH39" s="28" t="s">
         <v>119</v>
       </c>
       <c r="AI39" s="28" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="AJ39" s="28"/>
       <c r="AK39" s="28"/>
-      <c r="AL39" s="28"/>
+      <c r="AL39" s="28" t="s">
+        <v>580</v>
+      </c>
       <c r="AM39" s="28" t="s">
         <v>234</v>
       </c>
@@ -9901,175 +9912,177 @@
         <v>162</v>
       </c>
       <c r="AO39" s="28" t="s">
-        <v>585</v>
-      </c>
-      <c r="AP39" s="28"/>
+        <v>579</v>
+      </c>
+      <c r="AP39" s="28" t="s">
+        <v>577</v>
+      </c>
       <c r="AQ39" s="28" t="s">
         <v>166</v>
       </c>
       <c r="AR39" s="28" t="s">
-        <v>241</v>
+        <v>171</v>
       </c>
       <c r="AS39" s="28" t="s">
-        <v>178</v>
+        <v>183</v>
       </c>
       <c r="AT39" s="28" t="s">
-        <v>587</v>
+        <v>578</v>
       </c>
       <c r="AU39" s="28" t="s">
-        <v>591</v>
+        <v>535</v>
       </c>
       <c r="AV39" s="28" t="s">
         <v>201</v>
       </c>
       <c r="AW39" s="28" t="s">
-        <v>210</v>
-      </c>
-      <c r="AX39" s="31" t="s">
-        <v>589</v>
+        <v>209</v>
+      </c>
+      <c r="AX39" s="28" t="s">
+        <v>510</v>
       </c>
     </row>
-    <row r="40" spans="1:50" s="10" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="29" t="s">
+    <row r="40" spans="1:50" s="10" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A40" s="52" t="s">
         <v>432</v>
       </c>
-      <c r="B40" s="29" t="s">
+      <c r="B40" s="52" t="s">
         <v>245</v>
       </c>
-      <c r="C40" s="29" t="s">
+      <c r="C40" s="52" t="s">
         <v>433</v>
       </c>
-      <c r="D40" s="29" t="s">
+      <c r="D40" s="52" t="s">
         <v>434</v>
       </c>
-      <c r="E40" s="30">
+      <c r="E40" s="53">
         <v>1999</v>
       </c>
-      <c r="F40" s="28" t="s">
+      <c r="F40" s="54" t="s">
         <v>412</v>
       </c>
-      <c r="G40" s="28" t="s">
+      <c r="G40" s="54" t="s">
         <v>435</v>
       </c>
-      <c r="H40" s="29" t="s">
+      <c r="H40" s="52" t="s">
         <v>275</v>
       </c>
-      <c r="I40" s="28" t="s">
+      <c r="I40" s="54" t="s">
         <v>436</v>
       </c>
-      <c r="J40" s="28" t="s">
+      <c r="J40" s="54" t="s">
         <v>437</v>
       </c>
-      <c r="K40" s="29" t="s">
+      <c r="K40" s="52" t="s">
         <v>438</v>
       </c>
-      <c r="L40" s="29" t="s">
+      <c r="L40" s="52" t="s">
         <v>254</v>
       </c>
-      <c r="M40" s="28" t="s">
+      <c r="M40" s="54" t="s">
         <v>439</v>
       </c>
-      <c r="N40" s="28" t="s">
+      <c r="N40" s="54" t="s">
         <v>256</v>
       </c>
-      <c r="O40" s="28" t="s">
+      <c r="O40" s="54" t="s">
         <v>257</v>
       </c>
-      <c r="P40" s="28" t="s">
+      <c r="P40" s="54" t="s">
         <v>258</v>
       </c>
-      <c r="Q40" s="28" t="s">
+      <c r="Q40" s="54" t="s">
         <v>21</v>
       </c>
-      <c r="R40" s="28"/>
-      <c r="S40" s="28" t="s">
+      <c r="R40" s="54"/>
+      <c r="S40" s="54" t="s">
         <v>26</v>
       </c>
-      <c r="T40" s="28" t="s">
+      <c r="T40" s="54" t="s">
         <v>45</v>
       </c>
-      <c r="U40" s="28" t="s">
+      <c r="U40" s="54" t="s">
         <v>53</v>
       </c>
-      <c r="V40" s="28" t="s">
+      <c r="V40" s="54" t="s">
         <v>44</v>
       </c>
-      <c r="W40" s="28" t="s">
+      <c r="W40" s="54" t="s">
         <v>48</v>
       </c>
-      <c r="X40" s="28" t="s">
+      <c r="X40" s="54" t="s">
         <v>218</v>
       </c>
-      <c r="Y40" s="28" t="s">
+      <c r="Y40" s="54" t="s">
         <v>512</v>
       </c>
-      <c r="Z40" s="28" t="s">
+      <c r="Z40" s="54" t="s">
         <v>511</v>
       </c>
-      <c r="AA40" s="28">
+      <c r="AA40" s="54">
         <v>2</v>
       </c>
-      <c r="AB40" s="28">
+      <c r="AB40" s="54">
         <v>2</v>
       </c>
-      <c r="AC40" s="28">
+      <c r="AC40" s="54">
         <v>3</v>
       </c>
-      <c r="AD40" s="31" t="s">
+      <c r="AD40" s="55" t="s">
         <v>513</v>
       </c>
-      <c r="AE40" s="28"/>
-      <c r="AF40" s="28" t="s">
+      <c r="AE40" s="54"/>
+      <c r="AF40" s="54" t="s">
         <v>319</v>
       </c>
-      <c r="AG40" s="28" t="s">
+      <c r="AG40" s="54" t="s">
         <v>112</v>
       </c>
-      <c r="AH40" s="28" t="s">
+      <c r="AH40" s="54" t="s">
         <v>119</v>
       </c>
-      <c r="AI40" s="28" t="s">
+      <c r="AI40" s="54" t="s">
         <v>146</v>
       </c>
-      <c r="AJ40" s="28"/>
-      <c r="AK40" s="28"/>
-      <c r="AL40" s="28"/>
-      <c r="AM40" s="28" t="s">
+      <c r="AJ40" s="54"/>
+      <c r="AK40" s="54"/>
+      <c r="AL40" s="54"/>
+      <c r="AM40" s="54" t="s">
         <v>234</v>
       </c>
-      <c r="AN40" s="28" t="s">
+      <c r="AN40" s="54" t="s">
         <v>162</v>
       </c>
-      <c r="AO40" s="28" t="s">
-        <v>585</v>
-      </c>
-      <c r="AP40" s="28"/>
-      <c r="AQ40" s="28" t="s">
+      <c r="AO40" s="54" t="s">
+        <v>581</v>
+      </c>
+      <c r="AP40" s="54"/>
+      <c r="AQ40" s="54" t="s">
         <v>166</v>
       </c>
-      <c r="AR40" s="28" t="s">
+      <c r="AR40" s="54" t="s">
         <v>241</v>
       </c>
-      <c r="AS40" s="28" t="s">
+      <c r="AS40" s="54" t="s">
         <v>178</v>
       </c>
-      <c r="AT40" s="28" t="s">
-        <v>587</v>
-      </c>
-      <c r="AU40" s="28" t="s">
-        <v>590</v>
-      </c>
-      <c r="AV40" s="28" t="s">
+      <c r="AT40" s="54" t="s">
+        <v>583</v>
+      </c>
+      <c r="AU40" s="54" t="s">
+        <v>582</v>
+      </c>
+      <c r="AV40" s="54" t="s">
         <v>201</v>
       </c>
-      <c r="AW40" s="28" t="s">
-        <v>210</v>
-      </c>
-      <c r="AX40" s="31" t="s">
-        <v>594</v>
+      <c r="AW40" s="54" t="s">
+        <v>211</v>
+      </c>
+      <c r="AX40" s="55" t="s">
+        <v>584</v>
       </c>
     </row>
-    <row r="41" spans="1:50" s="10" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:50" s="10" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A41" s="29" t="s">
         <v>432</v>
       </c>
@@ -10181,7 +10194,7 @@
         <v>162</v>
       </c>
       <c r="AO41" s="28" t="s">
-        <v>585</v>
+        <v>581</v>
       </c>
       <c r="AP41" s="28"/>
       <c r="AQ41" s="28" t="s">
@@ -10194,22 +10207,22 @@
         <v>178</v>
       </c>
       <c r="AT41" s="28" t="s">
+        <v>583</v>
+      </c>
+      <c r="AU41" s="28" t="s">
         <v>587</v>
-      </c>
-      <c r="AU41" s="28" t="s">
-        <v>592</v>
       </c>
       <c r="AV41" s="28" t="s">
         <v>201</v>
       </c>
       <c r="AW41" s="28" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="AX41" s="31" t="s">
-        <v>593</v>
+        <v>585</v>
       </c>
     </row>
-    <row r="42" spans="1:50" s="10" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:50" s="10" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A42" s="29" t="s">
         <v>432</v>
       </c>
@@ -10321,7 +10334,7 @@
         <v>162</v>
       </c>
       <c r="AO42" s="28" t="s">
-        <v>585</v>
+        <v>581</v>
       </c>
       <c r="AP42" s="28"/>
       <c r="AQ42" s="28" t="s">
@@ -10334,171 +10347,173 @@
         <v>178</v>
       </c>
       <c r="AT42" s="28" t="s">
-        <v>587</v>
+        <v>583</v>
       </c>
       <c r="AU42" s="28" t="s">
-        <v>598</v>
+        <v>586</v>
       </c>
       <c r="AV42" s="28" t="s">
         <v>201</v>
       </c>
       <c r="AW42" s="28" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="AX42" s="31" t="s">
-        <v>595</v>
+        <v>590</v>
       </c>
     </row>
-    <row r="43" spans="1:50" s="10" customFormat="1" ht="13.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="52" t="s">
-        <v>440</v>
-      </c>
-      <c r="B43" s="52" t="s">
+    <row r="43" spans="1:50" s="10" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A43" s="29" t="s">
+        <v>432</v>
+      </c>
+      <c r="B43" s="29" t="s">
         <v>245</v>
       </c>
-      <c r="C43" s="52" t="s">
-        <v>441</v>
-      </c>
-      <c r="D43" s="52" t="s">
-        <v>442</v>
-      </c>
-      <c r="E43" s="53">
+      <c r="C43" s="29" t="s">
+        <v>433</v>
+      </c>
+      <c r="D43" s="29" t="s">
+        <v>434</v>
+      </c>
+      <c r="E43" s="30">
         <v>1999</v>
       </c>
-      <c r="F43" s="54" t="s">
+      <c r="F43" s="28" t="s">
         <v>412</v>
       </c>
-      <c r="G43" s="54" t="s">
+      <c r="G43" s="28" t="s">
         <v>435</v>
       </c>
-      <c r="H43" s="52" t="s">
+      <c r="H43" s="29" t="s">
         <v>275</v>
       </c>
-      <c r="I43" s="54" t="s">
-        <v>443</v>
-      </c>
-      <c r="J43" s="54" t="s">
-        <v>444</v>
-      </c>
-      <c r="K43" s="52" t="s">
-        <v>445</v>
-      </c>
-      <c r="L43" s="52" t="s">
+      <c r="I43" s="28" t="s">
+        <v>436</v>
+      </c>
+      <c r="J43" s="28" t="s">
+        <v>437</v>
+      </c>
+      <c r="K43" s="29" t="s">
+        <v>438</v>
+      </c>
+      <c r="L43" s="29" t="s">
         <v>254</v>
       </c>
-      <c r="M43" s="54" t="s">
-        <v>446</v>
-      </c>
-      <c r="N43" s="54" t="s">
+      <c r="M43" s="28" t="s">
+        <v>439</v>
+      </c>
+      <c r="N43" s="28" t="s">
         <v>256</v>
       </c>
-      <c r="O43" s="54" t="s">
+      <c r="O43" s="28" t="s">
         <v>257</v>
       </c>
-      <c r="P43" s="54" t="s">
-        <v>308</v>
-      </c>
-      <c r="Q43" s="54" t="s">
+      <c r="P43" s="28" t="s">
+        <v>258</v>
+      </c>
+      <c r="Q43" s="28" t="s">
         <v>21</v>
       </c>
-      <c r="R43" s="54"/>
-      <c r="S43" s="54" t="s">
+      <c r="R43" s="28"/>
+      <c r="S43" s="28" t="s">
         <v>26</v>
       </c>
-      <c r="T43" s="54" t="s">
-        <v>41</v>
-      </c>
-      <c r="U43" s="54" t="s">
+      <c r="T43" s="28" t="s">
+        <v>45</v>
+      </c>
+      <c r="U43" s="28" t="s">
+        <v>53</v>
+      </c>
+      <c r="V43" s="28" t="s">
+        <v>44</v>
+      </c>
+      <c r="W43" s="28" t="s">
         <v>48</v>
       </c>
-      <c r="V43" s="54" t="s">
-        <v>42</v>
-      </c>
-      <c r="W43" s="54" t="s">
-        <v>47</v>
-      </c>
-      <c r="X43" s="54" t="s">
+      <c r="X43" s="28" t="s">
         <v>218</v>
       </c>
-      <c r="Y43" s="54" t="s">
-        <v>516</v>
-      </c>
-      <c r="Z43" s="54" t="s">
-        <v>621</v>
-      </c>
-      <c r="AA43" s="54">
+      <c r="Y43" s="28" t="s">
+        <v>512</v>
+      </c>
+      <c r="Z43" s="28" t="s">
+        <v>511</v>
+      </c>
+      <c r="AA43" s="28">
         <v>2</v>
       </c>
-      <c r="AB43" s="54">
+      <c r="AB43" s="28">
         <v>2</v>
       </c>
-      <c r="AC43" s="54">
+      <c r="AC43" s="28">
         <v>3</v>
       </c>
-      <c r="AD43" s="54" t="s">
-        <v>515</v>
-      </c>
-      <c r="AE43" s="54"/>
-      <c r="AF43" s="54" t="s">
-        <v>259</v>
-      </c>
-      <c r="AG43" s="54" t="s">
-        <v>109</v>
-      </c>
-      <c r="AH43" s="54" t="s">
-        <v>122</v>
-      </c>
-      <c r="AI43" s="54"/>
-      <c r="AJ43" s="54"/>
-      <c r="AK43" s="54" t="s">
-        <v>143</v>
-      </c>
-      <c r="AL43" s="54"/>
-      <c r="AM43" s="54" t="s">
-        <v>235</v>
-      </c>
-      <c r="AN43" s="54"/>
-      <c r="AO43" s="54" t="s">
-        <v>605</v>
-      </c>
-      <c r="AP43" s="54"/>
-      <c r="AQ43" s="54" t="s">
+      <c r="AD43" s="31" t="s">
+        <v>513</v>
+      </c>
+      <c r="AE43" s="28"/>
+      <c r="AF43" s="28" t="s">
+        <v>319</v>
+      </c>
+      <c r="AG43" s="28" t="s">
+        <v>112</v>
+      </c>
+      <c r="AH43" s="28" t="s">
+        <v>119</v>
+      </c>
+      <c r="AI43" s="28" t="s">
+        <v>146</v>
+      </c>
+      <c r="AJ43" s="28"/>
+      <c r="AK43" s="28"/>
+      <c r="AL43" s="28"/>
+      <c r="AM43" s="28" t="s">
+        <v>234</v>
+      </c>
+      <c r="AN43" s="28" t="s">
+        <v>162</v>
+      </c>
+      <c r="AO43" s="28" t="s">
+        <v>581</v>
+      </c>
+      <c r="AP43" s="28"/>
+      <c r="AQ43" s="28" t="s">
         <v>166</v>
       </c>
-      <c r="AR43" s="54" t="s">
+      <c r="AR43" s="28" t="s">
         <v>241</v>
       </c>
-      <c r="AS43" s="54" t="s">
+      <c r="AS43" s="28" t="s">
         <v>178</v>
       </c>
-      <c r="AT43" s="54" t="s">
-        <v>514</v>
-      </c>
-      <c r="AU43" s="54" t="s">
-        <v>603</v>
-      </c>
-      <c r="AV43" s="54" t="s">
+      <c r="AT43" s="28" t="s">
+        <v>583</v>
+      </c>
+      <c r="AU43" s="28" t="s">
+        <v>588</v>
+      </c>
+      <c r="AV43" s="28" t="s">
         <v>201</v>
       </c>
-      <c r="AW43" s="54" t="s">
-        <v>210</v>
-      </c>
-      <c r="AX43" s="55" t="s">
-        <v>602</v>
+      <c r="AW43" s="28" t="s">
+        <v>209</v>
+      </c>
+      <c r="AX43" s="31" t="s">
+        <v>589</v>
       </c>
     </row>
-    <row r="44" spans="1:50" s="10" customFormat="1" ht="13.7" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:50" s="10" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A44" s="29" t="s">
-        <v>440</v>
+        <v>432</v>
       </c>
       <c r="B44" s="29" t="s">
         <v>245</v>
       </c>
       <c r="C44" s="29" t="s">
-        <v>441</v>
+        <v>433</v>
       </c>
       <c r="D44" s="29" t="s">
-        <v>442</v>
+        <v>434</v>
       </c>
       <c r="E44" s="30">
         <v>1999</v>
@@ -10513,19 +10528,19 @@
         <v>275</v>
       </c>
       <c r="I44" s="28" t="s">
-        <v>443</v>
+        <v>436</v>
       </c>
       <c r="J44" s="28" t="s">
-        <v>444</v>
+        <v>437</v>
       </c>
       <c r="K44" s="29" t="s">
-        <v>445</v>
+        <v>438</v>
       </c>
       <c r="L44" s="29" t="s">
         <v>254</v>
       </c>
       <c r="M44" s="28" t="s">
-        <v>446</v>
+        <v>439</v>
       </c>
       <c r="N44" s="28" t="s">
         <v>256</v>
@@ -10534,7 +10549,7 @@
         <v>257</v>
       </c>
       <c r="P44" s="28" t="s">
-        <v>308</v>
+        <v>258</v>
       </c>
       <c r="Q44" s="28" t="s">
         <v>21</v>
@@ -10544,25 +10559,25 @@
         <v>26</v>
       </c>
       <c r="T44" s="28" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="U44" s="28" t="s">
+        <v>53</v>
+      </c>
+      <c r="V44" s="28" t="s">
+        <v>44</v>
+      </c>
+      <c r="W44" s="28" t="s">
         <v>48</v>
-      </c>
-      <c r="V44" s="28" t="s">
-        <v>42</v>
-      </c>
-      <c r="W44" s="28" t="s">
-        <v>47</v>
       </c>
       <c r="X44" s="28" t="s">
         <v>218</v>
       </c>
       <c r="Y44" s="28" t="s">
-        <v>516</v>
+        <v>512</v>
       </c>
       <c r="Z44" s="28" t="s">
-        <v>621</v>
+        <v>511</v>
       </c>
       <c r="AA44" s="28">
         <v>2</v>
@@ -10573,31 +10588,33 @@
       <c r="AC44" s="28">
         <v>3</v>
       </c>
-      <c r="AD44" s="28" t="s">
-        <v>515</v>
+      <c r="AD44" s="31" t="s">
+        <v>513</v>
       </c>
       <c r="AE44" s="28"/>
       <c r="AF44" s="28" t="s">
-        <v>259</v>
+        <v>319</v>
       </c>
       <c r="AG44" s="28" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="AH44" s="28" t="s">
-        <v>122</v>
-      </c>
-      <c r="AI44" s="28"/>
+        <v>119</v>
+      </c>
+      <c r="AI44" s="28" t="s">
+        <v>146</v>
+      </c>
       <c r="AJ44" s="28"/>
-      <c r="AK44" s="28" t="s">
-        <v>143</v>
-      </c>
+      <c r="AK44" s="28"/>
       <c r="AL44" s="28"/>
       <c r="AM44" s="28" t="s">
-        <v>235</v>
-      </c>
-      <c r="AN44" s="28"/>
+        <v>234</v>
+      </c>
+      <c r="AN44" s="28" t="s">
+        <v>162</v>
+      </c>
       <c r="AO44" s="28" t="s">
-        <v>605</v>
+        <v>581</v>
       </c>
       <c r="AP44" s="28"/>
       <c r="AQ44" s="28" t="s">
@@ -10610,373 +10627,373 @@
         <v>178</v>
       </c>
       <c r="AT44" s="28" t="s">
-        <v>514</v>
+        <v>583</v>
       </c>
       <c r="AU44" s="28" t="s">
-        <v>599</v>
+        <v>592</v>
       </c>
       <c r="AV44" s="28" t="s">
         <v>201</v>
       </c>
       <c r="AW44" s="28" t="s">
+        <v>212</v>
+      </c>
+      <c r="AX44" s="31" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="45" spans="1:50" s="10" customFormat="1" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A45" s="52" t="s">
+        <v>440</v>
+      </c>
+      <c r="B45" s="52" t="s">
+        <v>245</v>
+      </c>
+      <c r="C45" s="52" t="s">
+        <v>441</v>
+      </c>
+      <c r="D45" s="52" t="s">
+        <v>442</v>
+      </c>
+      <c r="E45" s="53">
+        <v>1999</v>
+      </c>
+      <c r="F45" s="54" t="s">
+        <v>412</v>
+      </c>
+      <c r="G45" s="54" t="s">
+        <v>435</v>
+      </c>
+      <c r="H45" s="52" t="s">
+        <v>275</v>
+      </c>
+      <c r="I45" s="54" t="s">
+        <v>443</v>
+      </c>
+      <c r="J45" s="54" t="s">
+        <v>444</v>
+      </c>
+      <c r="K45" s="52" t="s">
+        <v>445</v>
+      </c>
+      <c r="L45" s="52" t="s">
+        <v>254</v>
+      </c>
+      <c r="M45" s="54" t="s">
+        <v>446</v>
+      </c>
+      <c r="N45" s="54" t="s">
+        <v>256</v>
+      </c>
+      <c r="O45" s="54" t="s">
+        <v>257</v>
+      </c>
+      <c r="P45" s="54" t="s">
+        <v>308</v>
+      </c>
+      <c r="Q45" s="54" t="s">
+        <v>21</v>
+      </c>
+      <c r="R45" s="54"/>
+      <c r="S45" s="54" t="s">
+        <v>26</v>
+      </c>
+      <c r="T45" s="54" t="s">
+        <v>41</v>
+      </c>
+      <c r="U45" s="54" t="s">
+        <v>48</v>
+      </c>
+      <c r="V45" s="54" t="s">
+        <v>42</v>
+      </c>
+      <c r="W45" s="54" t="s">
+        <v>47</v>
+      </c>
+      <c r="X45" s="54" t="s">
+        <v>218</v>
+      </c>
+      <c r="Y45" s="54" t="s">
+        <v>516</v>
+      </c>
+      <c r="Z45" s="54" t="s">
+        <v>615</v>
+      </c>
+      <c r="AA45" s="54">
+        <v>2</v>
+      </c>
+      <c r="AB45" s="54">
+        <v>2</v>
+      </c>
+      <c r="AC45" s="54">
+        <v>3</v>
+      </c>
+      <c r="AD45" s="54" t="s">
+        <v>515</v>
+      </c>
+      <c r="AE45" s="54"/>
+      <c r="AF45" s="54" t="s">
+        <v>259</v>
+      </c>
+      <c r="AG45" s="54" t="s">
+        <v>109</v>
+      </c>
+      <c r="AH45" s="54" t="s">
+        <v>122</v>
+      </c>
+      <c r="AI45" s="54"/>
+      <c r="AJ45" s="54"/>
+      <c r="AK45" s="54" t="s">
+        <v>143</v>
+      </c>
+      <c r="AL45" s="54"/>
+      <c r="AM45" s="54" t="s">
+        <v>235</v>
+      </c>
+      <c r="AN45" s="54"/>
+      <c r="AO45" s="54" t="s">
+        <v>599</v>
+      </c>
+      <c r="AP45" s="54"/>
+      <c r="AQ45" s="54" t="s">
+        <v>166</v>
+      </c>
+      <c r="AR45" s="54" t="s">
+        <v>241</v>
+      </c>
+      <c r="AS45" s="54" t="s">
+        <v>178</v>
+      </c>
+      <c r="AT45" s="54" t="s">
+        <v>514</v>
+      </c>
+      <c r="AU45" s="54" t="s">
+        <v>597</v>
+      </c>
+      <c r="AV45" s="54" t="s">
+        <v>201</v>
+      </c>
+      <c r="AW45" s="54" t="s">
         <v>210</v>
       </c>
-      <c r="AX44" s="31" t="s">
-        <v>601</v>
+      <c r="AX45" s="55" t="s">
+        <v>596</v>
       </c>
     </row>
-    <row r="45" spans="1:50" s="10" customFormat="1" ht="13.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="29" t="s">
+    <row r="46" spans="1:50" s="10" customFormat="1" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A46" s="29" t="s">
         <v>440</v>
       </c>
-      <c r="B45" s="29" t="s">
+      <c r="B46" s="29" t="s">
         <v>245</v>
       </c>
-      <c r="C45" s="29" t="s">
+      <c r="C46" s="29" t="s">
         <v>441</v>
       </c>
-      <c r="D45" s="29" t="s">
+      <c r="D46" s="29" t="s">
         <v>442</v>
       </c>
-      <c r="E45" s="30">
+      <c r="E46" s="30">
         <v>1999</v>
       </c>
-      <c r="F45" s="28" t="s">
+      <c r="F46" s="28" t="s">
         <v>412</v>
       </c>
-      <c r="G45" s="28" t="s">
+      <c r="G46" s="28" t="s">
         <v>435</v>
       </c>
-      <c r="H45" s="29" t="s">
+      <c r="H46" s="29" t="s">
         <v>275</v>
       </c>
-      <c r="I45" s="28" t="s">
+      <c r="I46" s="28" t="s">
         <v>443</v>
       </c>
-      <c r="J45" s="28" t="s">
+      <c r="J46" s="28" t="s">
         <v>444</v>
       </c>
-      <c r="K45" s="29" t="s">
+      <c r="K46" s="29" t="s">
         <v>445</v>
       </c>
-      <c r="L45" s="29" t="s">
+      <c r="L46" s="29" t="s">
         <v>254</v>
       </c>
-      <c r="M45" s="28" t="s">
+      <c r="M46" s="28" t="s">
         <v>446</v>
       </c>
-      <c r="N45" s="28" t="s">
+      <c r="N46" s="28" t="s">
         <v>256</v>
       </c>
-      <c r="O45" s="28" t="s">
+      <c r="O46" s="28" t="s">
         <v>257</v>
       </c>
-      <c r="P45" s="28" t="s">
+      <c r="P46" s="28" t="s">
         <v>308</v>
       </c>
-      <c r="Q45" s="28" t="s">
+      <c r="Q46" s="28" t="s">
         <v>21</v>
       </c>
-      <c r="R45" s="28"/>
-      <c r="S45" s="28" t="s">
+      <c r="R46" s="28"/>
+      <c r="S46" s="28" t="s">
         <v>26</v>
       </c>
-      <c r="T45" s="28" t="s">
+      <c r="T46" s="28" t="s">
         <v>41</v>
       </c>
-      <c r="U45" s="28" t="s">
+      <c r="U46" s="28" t="s">
         <v>48</v>
       </c>
-      <c r="V45" s="28" t="s">
+      <c r="V46" s="28" t="s">
         <v>42</v>
       </c>
-      <c r="W45" s="28" t="s">
+      <c r="W46" s="28" t="s">
         <v>47</v>
       </c>
-      <c r="X45" s="28" t="s">
+      <c r="X46" s="28" t="s">
         <v>218</v>
       </c>
-      <c r="Y45" s="28" t="s">
+      <c r="Y46" s="28" t="s">
         <v>516</v>
       </c>
-      <c r="Z45" s="28" t="s">
-        <v>621</v>
-      </c>
-      <c r="AA45" s="28">
+      <c r="Z46" s="28" t="s">
+        <v>615</v>
+      </c>
+      <c r="AA46" s="28">
         <v>2</v>
       </c>
-      <c r="AB45" s="28">
+      <c r="AB46" s="28">
         <v>2</v>
       </c>
-      <c r="AC45" s="28">
+      <c r="AC46" s="28">
         <v>3</v>
       </c>
-      <c r="AD45" s="28" t="s">
+      <c r="AD46" s="28" t="s">
         <v>515</v>
       </c>
-      <c r="AE45" s="28"/>
-      <c r="AF45" s="28" t="s">
+      <c r="AE46" s="28"/>
+      <c r="AF46" s="28" t="s">
         <v>259</v>
       </c>
-      <c r="AG45" s="28" t="s">
+      <c r="AG46" s="28" t="s">
         <v>109</v>
       </c>
-      <c r="AH45" s="28" t="s">
+      <c r="AH46" s="28" t="s">
         <v>122</v>
       </c>
-      <c r="AI45" s="28"/>
-      <c r="AJ45" s="28"/>
-      <c r="AK45" s="28" t="s">
+      <c r="AI46" s="28"/>
+      <c r="AJ46" s="28"/>
+      <c r="AK46" s="28" t="s">
         <v>143</v>
       </c>
-      <c r="AL45" s="28"/>
-      <c r="AM45" s="28" t="s">
+      <c r="AL46" s="28"/>
+      <c r="AM46" s="28" t="s">
         <v>235</v>
       </c>
-      <c r="AN45" s="28"/>
-      <c r="AO45" s="28" t="s">
-        <v>605</v>
-      </c>
-      <c r="AP45" s="28"/>
-      <c r="AQ45" s="28" t="s">
+      <c r="AN46" s="28"/>
+      <c r="AO46" s="28" t="s">
+        <v>599</v>
+      </c>
+      <c r="AP46" s="28"/>
+      <c r="AQ46" s="28" t="s">
         <v>166</v>
       </c>
-      <c r="AR45" s="28" t="s">
+      <c r="AR46" s="28" t="s">
         <v>241</v>
       </c>
-      <c r="AS45" s="28" t="s">
+      <c r="AS46" s="28" t="s">
         <v>178</v>
       </c>
-      <c r="AT45" s="28" t="s">
+      <c r="AT46" s="28" t="s">
         <v>514</v>
       </c>
-      <c r="AU45" s="28" t="s">
-        <v>600</v>
-      </c>
-      <c r="AV45" s="28" t="s">
+      <c r="AU46" s="28" t="s">
+        <v>593</v>
+      </c>
+      <c r="AV46" s="28" t="s">
         <v>201</v>
       </c>
-      <c r="AW45" s="28" t="s">
-        <v>209</v>
-      </c>
-      <c r="AX45" s="31" t="s">
-        <v>604</v>
+      <c r="AW46" s="28" t="s">
+        <v>210</v>
+      </c>
+      <c r="AX46" s="31" t="s">
+        <v>595</v>
       </c>
     </row>
-    <row r="46" spans="1:50" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="52" t="s">
-        <v>447</v>
-      </c>
-      <c r="B46" s="52" t="s">
-        <v>245</v>
-      </c>
-      <c r="C46" s="52" t="s">
-        <v>448</v>
-      </c>
-      <c r="D46" s="52" t="s">
-        <v>449</v>
-      </c>
-      <c r="E46" s="53">
-        <v>1998</v>
-      </c>
-      <c r="F46" s="54" t="s">
-        <v>412</v>
-      </c>
-      <c r="G46" s="54" t="s">
-        <v>450</v>
-      </c>
-      <c r="H46" s="52" t="s">
-        <v>371</v>
-      </c>
-      <c r="I46" s="54" t="s">
-        <v>451</v>
-      </c>
-      <c r="J46" s="54" t="s">
-        <v>335</v>
-      </c>
-      <c r="K46" s="52" t="s">
-        <v>452</v>
-      </c>
-      <c r="L46" s="52" t="s">
-        <v>254</v>
-      </c>
-      <c r="M46" s="54" t="s">
-        <v>453</v>
-      </c>
-      <c r="N46" s="54" t="s">
-        <v>256</v>
-      </c>
-      <c r="O46" s="54" t="s">
-        <v>318</v>
-      </c>
-      <c r="P46" s="54" t="s">
-        <v>258</v>
-      </c>
-      <c r="Q46" s="54" t="s">
-        <v>21</v>
-      </c>
-      <c r="R46" s="54"/>
-      <c r="S46" s="54" t="s">
-        <v>29</v>
-      </c>
-      <c r="T46" s="54" t="s">
-        <v>46</v>
-      </c>
-      <c r="U46" s="54" t="s">
-        <v>55</v>
-      </c>
-      <c r="V46" s="54" t="s">
-        <v>41</v>
-      </c>
-      <c r="W46" s="54" t="s">
-        <v>51</v>
-      </c>
-      <c r="X46" s="54" t="s">
-        <v>69</v>
-      </c>
-      <c r="Y46" s="54" t="s">
-        <v>517</v>
-      </c>
-      <c r="Z46" s="54" t="s">
-        <v>623</v>
-      </c>
-      <c r="AA46" s="54">
-        <v>2</v>
-      </c>
-      <c r="AB46" s="54">
-        <v>2</v>
-      </c>
-      <c r="AC46" s="54">
-        <v>3</v>
-      </c>
-      <c r="AD46" s="54"/>
-      <c r="AE46" s="54"/>
-      <c r="AF46" s="54" t="s">
-        <v>290</v>
-      </c>
-      <c r="AG46" s="54" t="s">
-        <v>111</v>
-      </c>
-      <c r="AH46" s="54" t="s">
-        <v>222</v>
-      </c>
-      <c r="AI46" s="54" t="s">
-        <v>147</v>
-      </c>
-      <c r="AJ46" s="54"/>
-      <c r="AK46" s="54"/>
-      <c r="AL46" s="54" t="s">
-        <v>624</v>
-      </c>
-      <c r="AM46" s="54" t="s">
-        <v>161</v>
-      </c>
-      <c r="AN46" s="54"/>
-      <c r="AO46" s="54" t="s">
-        <v>606</v>
-      </c>
-      <c r="AP46" s="54"/>
-      <c r="AQ46" s="54" t="s">
-        <v>166</v>
-      </c>
-      <c r="AR46" s="54" t="s">
-        <v>241</v>
-      </c>
-      <c r="AS46" s="54" t="s">
-        <v>177</v>
-      </c>
-      <c r="AT46" s="54" t="s">
-        <v>625</v>
-      </c>
-      <c r="AU46" s="54" t="s">
-        <v>607</v>
-      </c>
-      <c r="AV46" s="54" t="s">
-        <v>205</v>
-      </c>
-      <c r="AW46" s="54" t="s">
-        <v>209</v>
-      </c>
-      <c r="AX46" s="54" t="s">
-        <v>528</v>
-      </c>
-    </row>
-    <row r="47" spans="1:50" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:50" s="10" customFormat="1" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A47" s="29" t="s">
-        <v>447</v>
+        <v>440</v>
       </c>
       <c r="B47" s="29" t="s">
         <v>245</v>
       </c>
       <c r="C47" s="29" t="s">
-        <v>448</v>
+        <v>441</v>
       </c>
       <c r="D47" s="29" t="s">
-        <v>449</v>
+        <v>442</v>
       </c>
       <c r="E47" s="30">
-        <v>1998</v>
+        <v>1999</v>
       </c>
       <c r="F47" s="28" t="s">
         <v>412</v>
       </c>
       <c r="G47" s="28" t="s">
-        <v>450</v>
+        <v>435</v>
       </c>
       <c r="H47" s="29" t="s">
-        <v>371</v>
+        <v>275</v>
       </c>
       <c r="I47" s="28" t="s">
-        <v>451</v>
+        <v>443</v>
       </c>
       <c r="J47" s="28" t="s">
-        <v>335</v>
+        <v>444</v>
       </c>
       <c r="K47" s="29" t="s">
-        <v>452</v>
+        <v>445</v>
       </c>
       <c r="L47" s="29" t="s">
         <v>254</v>
       </c>
       <c r="M47" s="28" t="s">
-        <v>453</v>
+        <v>446</v>
       </c>
       <c r="N47" s="28" t="s">
         <v>256</v>
       </c>
       <c r="O47" s="28" t="s">
-        <v>318</v>
+        <v>257</v>
       </c>
       <c r="P47" s="28" t="s">
-        <v>258</v>
+        <v>308</v>
       </c>
       <c r="Q47" s="28" t="s">
         <v>21</v>
       </c>
       <c r="R47" s="28"/>
       <c r="S47" s="28" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="T47" s="28" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="U47" s="28" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="V47" s="28" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="W47" s="28" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="X47" s="28" t="s">
-        <v>69</v>
+        <v>218</v>
       </c>
       <c r="Y47" s="28" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="Z47" s="28" t="s">
-        <v>623</v>
+        <v>615</v>
       </c>
       <c r="AA47" s="28">
         <v>2</v>
@@ -10987,31 +11004,31 @@
       <c r="AC47" s="28">
         <v>3</v>
       </c>
-      <c r="AD47" s="28"/>
+      <c r="AD47" s="28" t="s">
+        <v>515</v>
+      </c>
       <c r="AE47" s="28"/>
       <c r="AF47" s="28" t="s">
-        <v>290</v>
+        <v>259</v>
       </c>
       <c r="AG47" s="28" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="AH47" s="28" t="s">
-        <v>222</v>
-      </c>
-      <c r="AI47" s="28" t="s">
-        <v>147</v>
-      </c>
+        <v>122</v>
+      </c>
+      <c r="AI47" s="28"/>
       <c r="AJ47" s="28"/>
-      <c r="AK47" s="28"/>
-      <c r="AL47" s="28" t="s">
-        <v>624</v>
-      </c>
+      <c r="AK47" s="28" t="s">
+        <v>143</v>
+      </c>
+      <c r="AL47" s="28"/>
       <c r="AM47" s="28" t="s">
-        <v>161</v>
+        <v>235</v>
       </c>
       <c r="AN47" s="28"/>
       <c r="AO47" s="28" t="s">
-        <v>606</v>
+        <v>599</v>
       </c>
       <c r="AP47" s="28"/>
       <c r="AQ47" s="28" t="s">
@@ -11021,79 +11038,79 @@
         <v>241</v>
       </c>
       <c r="AS47" s="28" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="AT47" s="28" t="s">
-        <v>625</v>
+        <v>514</v>
       </c>
       <c r="AU47" s="28" t="s">
-        <v>608</v>
+        <v>594</v>
       </c>
       <c r="AV47" s="28" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="AW47" s="28" t="s">
         <v>209</v>
       </c>
-      <c r="AX47" s="28" t="s">
-        <v>528</v>
+      <c r="AX47" s="31" t="s">
+        <v>598</v>
       </c>
     </row>
-    <row r="48" spans="1:50" s="10" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:50" s="10" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A48" s="52" t="s">
-        <v>454</v>
+        <v>447</v>
       </c>
       <c r="B48" s="52" t="s">
         <v>245</v>
       </c>
       <c r="C48" s="52" t="s">
-        <v>455</v>
+        <v>448</v>
       </c>
       <c r="D48" s="52" t="s">
-        <v>456</v>
+        <v>449</v>
       </c>
       <c r="E48" s="53">
-        <v>1997</v>
+        <v>1998</v>
       </c>
       <c r="F48" s="54" t="s">
-        <v>457</v>
+        <v>412</v>
       </c>
       <c r="G48" s="54" t="s">
-        <v>458</v>
+        <v>450</v>
       </c>
       <c r="H48" s="52" t="s">
-        <v>265</v>
+        <v>371</v>
       </c>
       <c r="I48" s="54" t="s">
-        <v>459</v>
+        <v>451</v>
       </c>
       <c r="J48" s="54" t="s">
-        <v>435</v>
+        <v>335</v>
       </c>
       <c r="K48" s="52" t="s">
-        <v>460</v>
+        <v>452</v>
       </c>
       <c r="L48" s="52" t="s">
         <v>254</v>
       </c>
       <c r="M48" s="54" t="s">
-        <v>461</v>
+        <v>453</v>
       </c>
       <c r="N48" s="54" t="s">
         <v>256</v>
       </c>
       <c r="O48" s="54" t="s">
-        <v>257</v>
+        <v>318</v>
       </c>
       <c r="P48" s="54" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="Q48" s="54" t="s">
         <v>21</v>
       </c>
       <c r="R48" s="54"/>
       <c r="S48" s="54" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="T48" s="54" t="s">
         <v>46</v>
@@ -11102,17 +11119,19 @@
         <v>55</v>
       </c>
       <c r="V48" s="54" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="W48" s="54" t="s">
         <v>51</v>
       </c>
       <c r="X48" s="54" t="s">
-        <v>80</v>
-      </c>
-      <c r="Y48" s="54"/>
+        <v>69</v>
+      </c>
+      <c r="Y48" s="54" t="s">
+        <v>517</v>
+      </c>
       <c r="Z48" s="54" t="s">
-        <v>519</v>
+        <v>617</v>
       </c>
       <c r="AA48" s="54">
         <v>2</v>
@@ -11126,28 +11145,28 @@
       <c r="AD48" s="54"/>
       <c r="AE48" s="54"/>
       <c r="AF48" s="54" t="s">
-        <v>319</v>
+        <v>290</v>
       </c>
       <c r="AG48" s="54" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="AH48" s="54" t="s">
-        <v>119</v>
+        <v>222</v>
       </c>
       <c r="AI48" s="54" t="s">
-        <v>132</v>
+        <v>147</v>
       </c>
       <c r="AJ48" s="54"/>
       <c r="AK48" s="54"/>
-      <c r="AL48" s="54"/>
+      <c r="AL48" s="54" t="s">
+        <v>618</v>
+      </c>
       <c r="AM48" s="54" t="s">
-        <v>234</v>
-      </c>
-      <c r="AN48" s="54" t="s">
-        <v>162</v>
-      </c>
+        <v>161</v>
+      </c>
+      <c r="AN48" s="54"/>
       <c r="AO48" s="54" t="s">
-        <v>610</v>
+        <v>600</v>
       </c>
       <c r="AP48" s="54"/>
       <c r="AQ48" s="54" t="s">
@@ -11160,76 +11179,76 @@
         <v>177</v>
       </c>
       <c r="AT48" s="54" t="s">
-        <v>518</v>
+        <v>619</v>
       </c>
       <c r="AU48" s="54" t="s">
-        <v>612</v>
+        <v>601</v>
       </c>
       <c r="AV48" s="54" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="AW48" s="54" t="s">
         <v>209</v>
       </c>
       <c r="AX48" s="54" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
     </row>
-    <row r="49" spans="1:50" s="10" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:50" s="10" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A49" s="29" t="s">
-        <v>454</v>
+        <v>447</v>
       </c>
       <c r="B49" s="29" t="s">
         <v>245</v>
       </c>
       <c r="C49" s="29" t="s">
-        <v>455</v>
+        <v>448</v>
       </c>
       <c r="D49" s="29" t="s">
-        <v>456</v>
+        <v>449</v>
       </c>
       <c r="E49" s="30">
-        <v>1997</v>
+        <v>1998</v>
       </c>
       <c r="F49" s="28" t="s">
-        <v>457</v>
+        <v>412</v>
       </c>
       <c r="G49" s="28" t="s">
-        <v>458</v>
+        <v>450</v>
       </c>
       <c r="H49" s="29" t="s">
-        <v>265</v>
+        <v>371</v>
       </c>
       <c r="I49" s="28" t="s">
-        <v>459</v>
+        <v>451</v>
       </c>
       <c r="J49" s="28" t="s">
-        <v>435</v>
+        <v>335</v>
       </c>
       <c r="K49" s="29" t="s">
-        <v>460</v>
+        <v>452</v>
       </c>
       <c r="L49" s="29" t="s">
         <v>254</v>
       </c>
       <c r="M49" s="28" t="s">
-        <v>461</v>
+        <v>453</v>
       </c>
       <c r="N49" s="28" t="s">
         <v>256</v>
       </c>
       <c r="O49" s="28" t="s">
-        <v>257</v>
+        <v>318</v>
       </c>
       <c r="P49" s="28" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="Q49" s="28" t="s">
         <v>21</v>
       </c>
       <c r="R49" s="28"/>
       <c r="S49" s="28" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="T49" s="28" t="s">
         <v>46</v>
@@ -11238,17 +11257,19 @@
         <v>55</v>
       </c>
       <c r="V49" s="28" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="W49" s="28" t="s">
         <v>51</v>
       </c>
       <c r="X49" s="28" t="s">
-        <v>80</v>
-      </c>
-      <c r="Y49" s="28"/>
+        <v>69</v>
+      </c>
+      <c r="Y49" s="28" t="s">
+        <v>517</v>
+      </c>
       <c r="Z49" s="28" t="s">
-        <v>519</v>
+        <v>617</v>
       </c>
       <c r="AA49" s="28">
         <v>2</v>
@@ -11262,28 +11283,28 @@
       <c r="AD49" s="28"/>
       <c r="AE49" s="28"/>
       <c r="AF49" s="28" t="s">
-        <v>319</v>
+        <v>290</v>
       </c>
       <c r="AG49" s="28" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="AH49" s="28" t="s">
-        <v>119</v>
+        <v>222</v>
       </c>
       <c r="AI49" s="28" t="s">
-        <v>132</v>
+        <v>147</v>
       </c>
       <c r="AJ49" s="28"/>
       <c r="AK49" s="28"/>
-      <c r="AL49" s="28"/>
+      <c r="AL49" s="28" t="s">
+        <v>618</v>
+      </c>
       <c r="AM49" s="28" t="s">
-        <v>234</v>
-      </c>
-      <c r="AN49" s="28" t="s">
-        <v>162</v>
-      </c>
+        <v>161</v>
+      </c>
+      <c r="AN49" s="28"/>
       <c r="AO49" s="28" t="s">
-        <v>609</v>
+        <v>600</v>
       </c>
       <c r="AP49" s="28"/>
       <c r="AQ49" s="28" t="s">
@@ -11296,514 +11317,786 @@
         <v>177</v>
       </c>
       <c r="AT49" s="28" t="s">
-        <v>518</v>
+        <v>619</v>
       </c>
       <c r="AU49" s="28" t="s">
-        <v>612</v>
+        <v>602</v>
       </c>
       <c r="AV49" s="28" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="AW49" s="28" t="s">
         <v>209</v>
       </c>
       <c r="AX49" s="28" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="50" spans="1:50" s="10" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A50" s="52" t="s">
+        <v>454</v>
+      </c>
+      <c r="B50" s="52" t="s">
+        <v>245</v>
+      </c>
+      <c r="C50" s="52" t="s">
+        <v>455</v>
+      </c>
+      <c r="D50" s="52" t="s">
+        <v>456</v>
+      </c>
+      <c r="E50" s="53">
+        <v>1997</v>
+      </c>
+      <c r="F50" s="54" t="s">
+        <v>457</v>
+      </c>
+      <c r="G50" s="54" t="s">
+        <v>458</v>
+      </c>
+      <c r="H50" s="52" t="s">
+        <v>265</v>
+      </c>
+      <c r="I50" s="54" t="s">
+        <v>459</v>
+      </c>
+      <c r="J50" s="54" t="s">
+        <v>435</v>
+      </c>
+      <c r="K50" s="52" t="s">
+        <v>460</v>
+      </c>
+      <c r="L50" s="52" t="s">
+        <v>254</v>
+      </c>
+      <c r="M50" s="54" t="s">
+        <v>461</v>
+      </c>
+      <c r="N50" s="54" t="s">
+        <v>256</v>
+      </c>
+      <c r="O50" s="54" t="s">
+        <v>257</v>
+      </c>
+      <c r="P50" s="54" t="s">
+        <v>254</v>
+      </c>
+      <c r="Q50" s="54" t="s">
+        <v>21</v>
+      </c>
+      <c r="R50" s="54"/>
+      <c r="S50" s="54" t="s">
+        <v>31</v>
+      </c>
+      <c r="T50" s="54" t="s">
+        <v>46</v>
+      </c>
+      <c r="U50" s="54" t="s">
+        <v>55</v>
+      </c>
+      <c r="V50" s="54" t="s">
+        <v>42</v>
+      </c>
+      <c r="W50" s="54" t="s">
+        <v>51</v>
+      </c>
+      <c r="X50" s="54" t="s">
+        <v>80</v>
+      </c>
+      <c r="Y50" s="54"/>
+      <c r="Z50" s="54" t="s">
+        <v>519</v>
+      </c>
+      <c r="AA50" s="54">
+        <v>2</v>
+      </c>
+      <c r="AB50" s="54">
+        <v>2</v>
+      </c>
+      <c r="AC50" s="54">
+        <v>3</v>
+      </c>
+      <c r="AD50" s="54"/>
+      <c r="AE50" s="54"/>
+      <c r="AF50" s="54" t="s">
+        <v>319</v>
+      </c>
+      <c r="AG50" s="54" t="s">
+        <v>113</v>
+      </c>
+      <c r="AH50" s="54" t="s">
+        <v>119</v>
+      </c>
+      <c r="AI50" s="54" t="s">
+        <v>132</v>
+      </c>
+      <c r="AJ50" s="54"/>
+      <c r="AK50" s="54"/>
+      <c r="AL50" s="54"/>
+      <c r="AM50" s="54" t="s">
+        <v>234</v>
+      </c>
+      <c r="AN50" s="54" t="s">
+        <v>162</v>
+      </c>
+      <c r="AO50" s="54" t="s">
+        <v>604</v>
+      </c>
+      <c r="AP50" s="54"/>
+      <c r="AQ50" s="54" t="s">
+        <v>166</v>
+      </c>
+      <c r="AR50" s="54" t="s">
+        <v>241</v>
+      </c>
+      <c r="AS50" s="54" t="s">
+        <v>177</v>
+      </c>
+      <c r="AT50" s="54" t="s">
+        <v>518</v>
+      </c>
+      <c r="AU50" s="54" t="s">
+        <v>606</v>
+      </c>
+      <c r="AV50" s="54" t="s">
+        <v>206</v>
+      </c>
+      <c r="AW50" s="54" t="s">
+        <v>209</v>
+      </c>
+      <c r="AX50" s="54" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="51" spans="1:50" s="10" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A51" s="29" t="s">
+        <v>454</v>
+      </c>
+      <c r="B51" s="29" t="s">
+        <v>245</v>
+      </c>
+      <c r="C51" s="29" t="s">
+        <v>455</v>
+      </c>
+      <c r="D51" s="29" t="s">
+        <v>456</v>
+      </c>
+      <c r="E51" s="30">
+        <v>1997</v>
+      </c>
+      <c r="F51" s="28" t="s">
+        <v>457</v>
+      </c>
+      <c r="G51" s="28" t="s">
+        <v>458</v>
+      </c>
+      <c r="H51" s="29" t="s">
+        <v>265</v>
+      </c>
+      <c r="I51" s="28" t="s">
+        <v>459</v>
+      </c>
+      <c r="J51" s="28" t="s">
+        <v>435</v>
+      </c>
+      <c r="K51" s="29" t="s">
+        <v>460</v>
+      </c>
+      <c r="L51" s="29" t="s">
+        <v>254</v>
+      </c>
+      <c r="M51" s="28" t="s">
+        <v>461</v>
+      </c>
+      <c r="N51" s="28" t="s">
+        <v>256</v>
+      </c>
+      <c r="O51" s="28" t="s">
+        <v>257</v>
+      </c>
+      <c r="P51" s="28" t="s">
+        <v>254</v>
+      </c>
+      <c r="Q51" s="28" t="s">
+        <v>21</v>
+      </c>
+      <c r="R51" s="28"/>
+      <c r="S51" s="28" t="s">
+        <v>31</v>
+      </c>
+      <c r="T51" s="28" t="s">
+        <v>46</v>
+      </c>
+      <c r="U51" s="28" t="s">
+        <v>55</v>
+      </c>
+      <c r="V51" s="28" t="s">
+        <v>42</v>
+      </c>
+      <c r="W51" s="28" t="s">
+        <v>51</v>
+      </c>
+      <c r="X51" s="28" t="s">
+        <v>80</v>
+      </c>
+      <c r="Y51" s="28"/>
+      <c r="Z51" s="28" t="s">
+        <v>519</v>
+      </c>
+      <c r="AA51" s="28">
+        <v>2</v>
+      </c>
+      <c r="AB51" s="28">
+        <v>2</v>
+      </c>
+      <c r="AC51" s="28">
+        <v>3</v>
+      </c>
+      <c r="AD51" s="28"/>
+      <c r="AE51" s="28"/>
+      <c r="AF51" s="28" t="s">
+        <v>319</v>
+      </c>
+      <c r="AG51" s="28" t="s">
+        <v>113</v>
+      </c>
+      <c r="AH51" s="28" t="s">
+        <v>119</v>
+      </c>
+      <c r="AI51" s="28" t="s">
+        <v>132</v>
+      </c>
+      <c r="AJ51" s="28"/>
+      <c r="AK51" s="28"/>
+      <c r="AL51" s="28"/>
+      <c r="AM51" s="28" t="s">
+        <v>234</v>
+      </c>
+      <c r="AN51" s="28" t="s">
+        <v>162</v>
+      </c>
+      <c r="AO51" s="28" t="s">
+        <v>603</v>
+      </c>
+      <c r="AP51" s="28"/>
+      <c r="AQ51" s="28" t="s">
+        <v>166</v>
+      </c>
+      <c r="AR51" s="28" t="s">
+        <v>241</v>
+      </c>
+      <c r="AS51" s="28" t="s">
+        <v>177</v>
+      </c>
+      <c r="AT51" s="28" t="s">
+        <v>518</v>
+      </c>
+      <c r="AU51" s="28" t="s">
+        <v>606</v>
+      </c>
+      <c r="AV51" s="28" t="s">
+        <v>206</v>
+      </c>
+      <c r="AW51" s="28" t="s">
+        <v>209</v>
+      </c>
+      <c r="AX51" s="28" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="52" spans="1:50" s="10" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A52" s="29" t="s">
+        <v>454</v>
+      </c>
+      <c r="B52" s="29" t="s">
+        <v>245</v>
+      </c>
+      <c r="C52" s="29" t="s">
+        <v>455</v>
+      </c>
+      <c r="D52" s="29" t="s">
+        <v>456</v>
+      </c>
+      <c r="E52" s="30">
+        <v>1997</v>
+      </c>
+      <c r="F52" s="28" t="s">
+        <v>457</v>
+      </c>
+      <c r="G52" s="28" t="s">
+        <v>458</v>
+      </c>
+      <c r="H52" s="29" t="s">
+        <v>265</v>
+      </c>
+      <c r="I52" s="28" t="s">
+        <v>459</v>
+      </c>
+      <c r="J52" s="28" t="s">
+        <v>435</v>
+      </c>
+      <c r="K52" s="29" t="s">
+        <v>460</v>
+      </c>
+      <c r="L52" s="29" t="s">
+        <v>254</v>
+      </c>
+      <c r="M52" s="28" t="s">
+        <v>461</v>
+      </c>
+      <c r="N52" s="28" t="s">
+        <v>256</v>
+      </c>
+      <c r="O52" s="28" t="s">
+        <v>257</v>
+      </c>
+      <c r="P52" s="28" t="s">
+        <v>254</v>
+      </c>
+      <c r="Q52" s="28" t="s">
+        <v>21</v>
+      </c>
+      <c r="R52" s="28"/>
+      <c r="S52" s="28" t="s">
+        <v>31</v>
+      </c>
+      <c r="T52" s="28" t="s">
+        <v>46</v>
+      </c>
+      <c r="U52" s="28" t="s">
+        <v>55</v>
+      </c>
+      <c r="V52" s="28" t="s">
+        <v>42</v>
+      </c>
+      <c r="W52" s="28" t="s">
+        <v>51</v>
+      </c>
+      <c r="X52" s="28" t="s">
+        <v>80</v>
+      </c>
+      <c r="Y52" s="28"/>
+      <c r="Z52" s="28" t="s">
+        <v>519</v>
+      </c>
+      <c r="AA52" s="28">
+        <v>2</v>
+      </c>
+      <c r="AB52" s="28">
+        <v>2</v>
+      </c>
+      <c r="AC52" s="28">
+        <v>3</v>
+      </c>
+      <c r="AD52" s="28"/>
+      <c r="AE52" s="28"/>
+      <c r="AF52" s="28" t="s">
+        <v>319</v>
+      </c>
+      <c r="AG52" s="28" t="s">
+        <v>113</v>
+      </c>
+      <c r="AH52" s="28" t="s">
+        <v>119</v>
+      </c>
+      <c r="AI52" s="28" t="s">
+        <v>132</v>
+      </c>
+      <c r="AJ52" s="28"/>
+      <c r="AK52" s="28"/>
+      <c r="AL52" s="28"/>
+      <c r="AM52" s="28" t="s">
+        <v>234</v>
+      </c>
+      <c r="AN52" s="28" t="s">
+        <v>162</v>
+      </c>
+      <c r="AO52" s="28" t="s">
+        <v>605</v>
+      </c>
+      <c r="AP52" s="28"/>
+      <c r="AQ52" s="28" t="s">
+        <v>166</v>
+      </c>
+      <c r="AR52" s="28" t="s">
+        <v>172</v>
+      </c>
+      <c r="AS52" s="28" t="s">
+        <v>191</v>
+      </c>
+      <c r="AT52" s="28" t="s">
+        <v>518</v>
+      </c>
+      <c r="AU52" s="28" t="s">
+        <v>606</v>
+      </c>
+      <c r="AV52" s="28" t="s">
+        <v>206</v>
+      </c>
+      <c r="AW52" s="28" t="s">
+        <v>209</v>
+      </c>
+      <c r="AX52" s="28" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="53" spans="1:50" s="10" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A53" s="44" t="s">
+        <v>462</v>
+      </c>
+      <c r="B53" s="44" t="s">
+        <v>245</v>
+      </c>
+      <c r="C53" s="44" t="s">
+        <v>463</v>
+      </c>
+      <c r="D53" s="44" t="s">
+        <v>464</v>
+      </c>
+      <c r="E53" s="45">
+        <v>1984</v>
+      </c>
+      <c r="F53" s="46" t="s">
+        <v>465</v>
+      </c>
+      <c r="G53" s="46" t="s">
+        <v>406</v>
+      </c>
+      <c r="H53" s="44" t="s">
+        <v>388</v>
+      </c>
+      <c r="I53" s="46" t="s">
+        <v>466</v>
+      </c>
+      <c r="J53" s="46" t="s">
+        <v>467</v>
+      </c>
+      <c r="K53" s="44" t="s">
+        <v>468</v>
+      </c>
+      <c r="L53" s="44" t="s">
+        <v>254</v>
+      </c>
+      <c r="M53" s="46" t="s">
+        <v>469</v>
+      </c>
+      <c r="N53" s="46" t="s">
+        <v>256</v>
+      </c>
+      <c r="O53" s="46" t="s">
+        <v>257</v>
+      </c>
+      <c r="P53" s="46" t="s">
+        <v>254</v>
+      </c>
+      <c r="Q53" s="46" t="s">
+        <v>21</v>
+      </c>
+      <c r="R53" s="46" t="s">
+        <v>84</v>
+      </c>
+      <c r="S53" s="46"/>
+      <c r="T53" s="46"/>
+      <c r="U53" s="46"/>
+      <c r="V53" s="46"/>
+      <c r="W53" s="46"/>
+      <c r="X53" s="46"/>
+      <c r="Y53" s="46"/>
+      <c r="Z53" s="46"/>
+      <c r="AA53" s="46"/>
+      <c r="AB53" s="46"/>
+      <c r="AC53" s="46"/>
+      <c r="AD53" s="46"/>
+      <c r="AE53" s="46"/>
+      <c r="AF53" s="46" t="s">
+        <v>259</v>
+      </c>
+      <c r="AG53" s="46"/>
+      <c r="AH53" s="46"/>
+      <c r="AI53" s="46"/>
+      <c r="AJ53" s="46"/>
+      <c r="AK53" s="46"/>
+      <c r="AL53" s="46"/>
+      <c r="AM53" s="46"/>
+      <c r="AN53" s="46"/>
+      <c r="AO53" s="46"/>
+      <c r="AP53" s="46"/>
+      <c r="AQ53" s="46"/>
+      <c r="AR53" s="46"/>
+      <c r="AS53" s="46"/>
+      <c r="AT53" s="46"/>
+      <c r="AU53" s="46"/>
+      <c r="AV53" s="46"/>
+      <c r="AW53" s="46"/>
+      <c r="AX53" s="46"/>
+    </row>
+    <row r="54" spans="1:50" s="10" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A54" s="56" t="s">
+        <v>470</v>
+      </c>
+      <c r="B54" s="56" t="s">
+        <v>245</v>
+      </c>
+      <c r="C54" s="56" t="s">
+        <v>471</v>
+      </c>
+      <c r="D54" s="56" t="s">
+        <v>472</v>
+      </c>
+      <c r="E54" s="57">
+        <v>2020</v>
+      </c>
+      <c r="F54" s="58" t="s">
+        <v>473</v>
+      </c>
+      <c r="G54" s="58" t="s">
+        <v>474</v>
+      </c>
+      <c r="H54" s="56"/>
+      <c r="I54" s="58"/>
+      <c r="J54" s="58"/>
+      <c r="K54" s="56" t="s">
+        <v>475</v>
+      </c>
+      <c r="L54" s="56" t="s">
+        <v>254</v>
+      </c>
+      <c r="M54" s="58" t="s">
+        <v>476</v>
+      </c>
+      <c r="N54" s="58" t="s">
+        <v>256</v>
+      </c>
+      <c r="O54" s="58" t="s">
+        <v>257</v>
+      </c>
+      <c r="P54" s="58"/>
+      <c r="Q54" s="58" t="s">
+        <v>22</v>
+      </c>
+      <c r="R54" s="58" t="s">
+        <v>84</v>
+      </c>
+      <c r="S54" s="58"/>
+      <c r="T54" s="58"/>
+      <c r="U54" s="58"/>
+      <c r="V54" s="58"/>
+      <c r="W54" s="58"/>
+      <c r="X54" s="58"/>
+      <c r="Y54" s="58"/>
+      <c r="Z54" s="58"/>
+      <c r="AA54" s="58"/>
+      <c r="AB54" s="58"/>
+      <c r="AC54" s="58"/>
+      <c r="AD54" s="58"/>
+      <c r="AE54" s="58"/>
+      <c r="AF54" s="58"/>
+      <c r="AG54" s="58"/>
+      <c r="AH54" s="58"/>
+      <c r="AI54" s="58"/>
+      <c r="AJ54" s="58"/>
+      <c r="AK54" s="58"/>
+      <c r="AL54" s="58"/>
+      <c r="AM54" s="58"/>
+      <c r="AN54" s="58"/>
+      <c r="AO54" s="58"/>
+      <c r="AP54" s="58"/>
+      <c r="AQ54" s="58"/>
+      <c r="AR54" s="58"/>
+      <c r="AS54" s="58"/>
+      <c r="AT54" s="58"/>
+      <c r="AU54" s="58"/>
+      <c r="AV54" s="58"/>
+      <c r="AW54" s="58"/>
+      <c r="AX54" s="58"/>
+    </row>
+    <row r="55" spans="1:50" s="16" customFormat="1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A55" s="41" t="s">
+        <v>477</v>
+      </c>
+      <c r="B55" s="41" t="s">
+        <v>245</v>
+      </c>
+      <c r="C55" s="41" t="s">
+        <v>478</v>
+      </c>
+      <c r="D55" s="41" t="s">
+        <v>479</v>
+      </c>
+      <c r="E55" s="42">
+        <v>2018</v>
+      </c>
+      <c r="F55" s="43" t="s">
+        <v>480</v>
+      </c>
+      <c r="G55" s="43" t="s">
+        <v>380</v>
+      </c>
+      <c r="H55" s="41" t="s">
+        <v>334</v>
+      </c>
+      <c r="I55" s="43" t="s">
+        <v>481</v>
+      </c>
+      <c r="J55" s="43" t="s">
+        <v>482</v>
+      </c>
+      <c r="K55" s="41" t="s">
+        <v>483</v>
+      </c>
+      <c r="L55" s="41" t="s">
+        <v>254</v>
+      </c>
+      <c r="M55" s="43" t="s">
+        <v>484</v>
+      </c>
+      <c r="N55" s="43" t="s">
+        <v>256</v>
+      </c>
+      <c r="O55" s="43" t="s">
+        <v>257</v>
+      </c>
+      <c r="P55" s="43"/>
+      <c r="Q55" s="43" t="s">
+        <v>22</v>
+      </c>
+      <c r="R55" s="43"/>
+      <c r="S55" s="43" t="s">
+        <v>35</v>
+      </c>
+      <c r="T55" s="43"/>
+      <c r="U55" s="43" t="s">
+        <v>53</v>
+      </c>
+      <c r="V55" s="43"/>
+      <c r="W55" s="43" t="s">
+        <v>48</v>
+      </c>
+      <c r="X55" s="43" t="s">
+        <v>69</v>
+      </c>
+      <c r="Y55" s="43" t="s">
+        <v>522</v>
+      </c>
+      <c r="Z55" s="43" t="s">
+        <v>523</v>
+      </c>
+      <c r="AA55" s="43">
+        <v>2</v>
+      </c>
+      <c r="AB55" s="43">
+        <v>2</v>
+      </c>
+      <c r="AC55" s="43">
+        <v>3</v>
+      </c>
+      <c r="AD55" s="43"/>
+      <c r="AE55" s="43"/>
+      <c r="AF55" s="43" t="s">
+        <v>280</v>
+      </c>
+      <c r="AG55" s="43" t="s">
+        <v>109</v>
+      </c>
+      <c r="AH55" s="43" t="s">
+        <v>117</v>
+      </c>
+      <c r="AI55" s="43" t="s">
+        <v>131</v>
+      </c>
+      <c r="AJ55" s="43" t="s">
+        <v>157</v>
+      </c>
+      <c r="AK55" s="43"/>
+      <c r="AL55" s="43" t="s">
+        <v>607</v>
+      </c>
+      <c r="AM55" s="43" t="s">
+        <v>234</v>
+      </c>
+      <c r="AN55" s="43" t="s">
+        <v>164</v>
+      </c>
+      <c r="AO55" s="43" t="s">
+        <v>521</v>
+      </c>
+      <c r="AP55" s="43"/>
+      <c r="AQ55" s="43" t="s">
+        <v>166</v>
+      </c>
+      <c r="AR55" s="43" t="s">
+        <v>172</v>
+      </c>
+      <c r="AS55" s="43" t="s">
+        <v>190</v>
+      </c>
+      <c r="AT55" s="43" t="s">
+        <v>520</v>
+      </c>
+      <c r="AU55" s="43" t="s">
+        <v>608</v>
+      </c>
+      <c r="AV55" s="43" t="s">
+        <v>214</v>
+      </c>
+      <c r="AW55" s="43" t="s">
+        <v>212</v>
+      </c>
+      <c r="AX55" s="43" t="s">
         <v>529</v>
       </c>
     </row>
-    <row r="50" spans="1:50" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="29" t="s">
-        <v>454</v>
-      </c>
-      <c r="B50" s="29" t="s">
-        <v>245</v>
-      </c>
-      <c r="C50" s="29" t="s">
-        <v>455</v>
-      </c>
-      <c r="D50" s="29" t="s">
-        <v>456</v>
-      </c>
-      <c r="E50" s="30">
-        <v>1997</v>
-      </c>
-      <c r="F50" s="28" t="s">
-        <v>457</v>
-      </c>
-      <c r="G50" s="28" t="s">
-        <v>458</v>
-      </c>
-      <c r="H50" s="29" t="s">
-        <v>265</v>
-      </c>
-      <c r="I50" s="28" t="s">
-        <v>459</v>
-      </c>
-      <c r="J50" s="28" t="s">
-        <v>435</v>
-      </c>
-      <c r="K50" s="29" t="s">
-        <v>460</v>
-      </c>
-      <c r="L50" s="29" t="s">
-        <v>254</v>
-      </c>
-      <c r="M50" s="28" t="s">
-        <v>461</v>
-      </c>
-      <c r="N50" s="28" t="s">
-        <v>256</v>
-      </c>
-      <c r="O50" s="28" t="s">
-        <v>257</v>
-      </c>
-      <c r="P50" s="28" t="s">
-        <v>254</v>
-      </c>
-      <c r="Q50" s="28" t="s">
-        <v>21</v>
-      </c>
-      <c r="R50" s="28"/>
-      <c r="S50" s="28" t="s">
-        <v>31</v>
-      </c>
-      <c r="T50" s="28" t="s">
-        <v>46</v>
-      </c>
-      <c r="U50" s="28" t="s">
-        <v>55</v>
-      </c>
-      <c r="V50" s="28" t="s">
-        <v>42</v>
-      </c>
-      <c r="W50" s="28" t="s">
-        <v>51</v>
-      </c>
-      <c r="X50" s="28" t="s">
-        <v>80</v>
-      </c>
-      <c r="Y50" s="28"/>
-      <c r="Z50" s="28" t="s">
-        <v>519</v>
-      </c>
-      <c r="AA50" s="28">
-        <v>2</v>
-      </c>
-      <c r="AB50" s="28">
-        <v>2</v>
-      </c>
-      <c r="AC50" s="28">
-        <v>3</v>
-      </c>
-      <c r="AD50" s="28"/>
-      <c r="AE50" s="28"/>
-      <c r="AF50" s="28" t="s">
-        <v>319</v>
-      </c>
-      <c r="AG50" s="28" t="s">
-        <v>113</v>
-      </c>
-      <c r="AH50" s="28" t="s">
-        <v>119</v>
-      </c>
-      <c r="AI50" s="28" t="s">
-        <v>132</v>
-      </c>
-      <c r="AJ50" s="28"/>
-      <c r="AK50" s="28"/>
-      <c r="AL50" s="28"/>
-      <c r="AM50" s="28" t="s">
-        <v>234</v>
-      </c>
-      <c r="AN50" s="28" t="s">
-        <v>162</v>
-      </c>
-      <c r="AO50" s="28" t="s">
-        <v>611</v>
-      </c>
-      <c r="AP50" s="28"/>
-      <c r="AQ50" s="28" t="s">
-        <v>166</v>
-      </c>
-      <c r="AR50" s="28" t="s">
-        <v>172</v>
-      </c>
-      <c r="AS50" s="28" t="s">
-        <v>191</v>
-      </c>
-      <c r="AT50" s="28" t="s">
-        <v>518</v>
-      </c>
-      <c r="AU50" s="28" t="s">
-        <v>612</v>
-      </c>
-      <c r="AV50" s="28" t="s">
-        <v>206</v>
-      </c>
-      <c r="AW50" s="28" t="s">
-        <v>209</v>
-      </c>
-      <c r="AX50" s="28" t="s">
-        <v>529</v>
-      </c>
-    </row>
-    <row r="51" spans="1:50" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="44" t="s">
-        <v>462</v>
-      </c>
-      <c r="B51" s="44" t="s">
-        <v>245</v>
-      </c>
-      <c r="C51" s="44" t="s">
-        <v>463</v>
-      </c>
-      <c r="D51" s="44" t="s">
-        <v>464</v>
-      </c>
-      <c r="E51" s="45">
-        <v>1984</v>
-      </c>
-      <c r="F51" s="46" t="s">
-        <v>465</v>
-      </c>
-      <c r="G51" s="46" t="s">
-        <v>406</v>
-      </c>
-      <c r="H51" s="44" t="s">
-        <v>388</v>
-      </c>
-      <c r="I51" s="46" t="s">
-        <v>466</v>
-      </c>
-      <c r="J51" s="46" t="s">
-        <v>467</v>
-      </c>
-      <c r="K51" s="44" t="s">
-        <v>468</v>
-      </c>
-      <c r="L51" s="44" t="s">
-        <v>254</v>
-      </c>
-      <c r="M51" s="46" t="s">
-        <v>469</v>
-      </c>
-      <c r="N51" s="46" t="s">
-        <v>256</v>
-      </c>
-      <c r="O51" s="46" t="s">
-        <v>257</v>
-      </c>
-      <c r="P51" s="46" t="s">
-        <v>254</v>
-      </c>
-      <c r="Q51" s="46" t="s">
-        <v>21</v>
-      </c>
-      <c r="R51" s="46" t="s">
-        <v>84</v>
-      </c>
-      <c r="S51" s="46"/>
-      <c r="T51" s="46"/>
-      <c r="U51" s="46"/>
-      <c r="V51" s="46"/>
-      <c r="W51" s="46"/>
-      <c r="X51" s="46"/>
-      <c r="Y51" s="46"/>
-      <c r="Z51" s="46"/>
-      <c r="AA51" s="46"/>
-      <c r="AB51" s="46"/>
-      <c r="AC51" s="46"/>
-      <c r="AD51" s="46"/>
-      <c r="AE51" s="46"/>
-      <c r="AF51" s="46" t="s">
-        <v>259</v>
-      </c>
-      <c r="AG51" s="46"/>
-      <c r="AH51" s="46"/>
-      <c r="AI51" s="46"/>
-      <c r="AJ51" s="46"/>
-      <c r="AK51" s="46"/>
-      <c r="AL51" s="46"/>
-      <c r="AM51" s="46"/>
-      <c r="AN51" s="46"/>
-      <c r="AO51" s="46"/>
-      <c r="AP51" s="46"/>
-      <c r="AQ51" s="46"/>
-      <c r="AR51" s="46"/>
-      <c r="AS51" s="46"/>
-      <c r="AT51" s="46"/>
-      <c r="AU51" s="46"/>
-      <c r="AV51" s="46"/>
-      <c r="AW51" s="46"/>
-      <c r="AX51" s="46"/>
-    </row>
-    <row r="52" spans="1:50" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="56" t="s">
-        <v>470</v>
-      </c>
-      <c r="B52" s="56" t="s">
-        <v>245</v>
-      </c>
-      <c r="C52" s="56" t="s">
-        <v>471</v>
-      </c>
-      <c r="D52" s="56" t="s">
-        <v>472</v>
-      </c>
-      <c r="E52" s="57">
-        <v>2020</v>
-      </c>
-      <c r="F52" s="58" t="s">
-        <v>473</v>
-      </c>
-      <c r="G52" s="58" t="s">
-        <v>474</v>
-      </c>
-      <c r="H52" s="56"/>
-      <c r="I52" s="58"/>
-      <c r="J52" s="58"/>
-      <c r="K52" s="56" t="s">
-        <v>475</v>
-      </c>
-      <c r="L52" s="56" t="s">
-        <v>254</v>
-      </c>
-      <c r="M52" s="58" t="s">
-        <v>476</v>
-      </c>
-      <c r="N52" s="58" t="s">
-        <v>256</v>
-      </c>
-      <c r="O52" s="58" t="s">
-        <v>257</v>
-      </c>
-      <c r="P52" s="58"/>
-      <c r="Q52" s="58" t="s">
-        <v>22</v>
-      </c>
-      <c r="R52" s="58" t="s">
-        <v>84</v>
-      </c>
-      <c r="S52" s="58"/>
-      <c r="T52" s="58"/>
-      <c r="U52" s="58"/>
-      <c r="V52" s="58"/>
-      <c r="W52" s="58"/>
-      <c r="X52" s="58"/>
-      <c r="Y52" s="58"/>
-      <c r="Z52" s="58"/>
-      <c r="AA52" s="58"/>
-      <c r="AB52" s="58"/>
-      <c r="AC52" s="58"/>
-      <c r="AD52" s="58"/>
-      <c r="AE52" s="58"/>
-      <c r="AF52" s="58"/>
-      <c r="AG52" s="58"/>
-      <c r="AH52" s="58"/>
-      <c r="AI52" s="58"/>
-      <c r="AJ52" s="58"/>
-      <c r="AK52" s="58"/>
-      <c r="AL52" s="58"/>
-      <c r="AM52" s="58"/>
-      <c r="AN52" s="58"/>
-      <c r="AO52" s="58"/>
-      <c r="AP52" s="58"/>
-      <c r="AQ52" s="58"/>
-      <c r="AR52" s="58"/>
-      <c r="AS52" s="58"/>
-      <c r="AT52" s="58"/>
-      <c r="AU52" s="58"/>
-      <c r="AV52" s="58"/>
-      <c r="AW52" s="58"/>
-      <c r="AX52" s="58"/>
-    </row>
-    <row r="53" spans="1:50" s="16" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="41" t="s">
-        <v>477</v>
-      </c>
-      <c r="B53" s="41" t="s">
-        <v>245</v>
-      </c>
-      <c r="C53" s="41" t="s">
-        <v>478</v>
-      </c>
-      <c r="D53" s="41" t="s">
-        <v>479</v>
-      </c>
-      <c r="E53" s="42">
-        <v>2018</v>
-      </c>
-      <c r="F53" s="43" t="s">
-        <v>480</v>
-      </c>
-      <c r="G53" s="43" t="s">
-        <v>380</v>
-      </c>
-      <c r="H53" s="41" t="s">
-        <v>334</v>
-      </c>
-      <c r="I53" s="43" t="s">
-        <v>481</v>
-      </c>
-      <c r="J53" s="43" t="s">
-        <v>482</v>
-      </c>
-      <c r="K53" s="41" t="s">
-        <v>483</v>
-      </c>
-      <c r="L53" s="41" t="s">
-        <v>254</v>
-      </c>
-      <c r="M53" s="43" t="s">
-        <v>484</v>
-      </c>
-      <c r="N53" s="43" t="s">
-        <v>256</v>
-      </c>
-      <c r="O53" s="43" t="s">
-        <v>257</v>
-      </c>
-      <c r="P53" s="43"/>
-      <c r="Q53" s="43" t="s">
-        <v>22</v>
-      </c>
-      <c r="R53" s="43"/>
-      <c r="S53" s="43" t="s">
-        <v>35</v>
-      </c>
-      <c r="T53" s="43"/>
-      <c r="U53" s="43" t="s">
-        <v>53</v>
-      </c>
-      <c r="V53" s="43"/>
-      <c r="W53" s="43" t="s">
-        <v>48</v>
-      </c>
-      <c r="X53" s="43" t="s">
-        <v>69</v>
-      </c>
-      <c r="Y53" s="43" t="s">
-        <v>522</v>
-      </c>
-      <c r="Z53" s="43" t="s">
-        <v>523</v>
-      </c>
-      <c r="AA53" s="43">
-        <v>2</v>
-      </c>
-      <c r="AB53" s="43">
-        <v>2</v>
-      </c>
-      <c r="AC53" s="43">
-        <v>3</v>
-      </c>
-      <c r="AD53" s="43"/>
-      <c r="AE53" s="43"/>
-      <c r="AF53" s="43" t="s">
-        <v>280</v>
-      </c>
-      <c r="AG53" s="43" t="s">
-        <v>109</v>
-      </c>
-      <c r="AH53" s="43" t="s">
-        <v>117</v>
-      </c>
-      <c r="AI53" s="43" t="s">
-        <v>131</v>
-      </c>
-      <c r="AJ53" s="43" t="s">
-        <v>157</v>
-      </c>
-      <c r="AK53" s="43"/>
-      <c r="AL53" s="43" t="s">
-        <v>613</v>
-      </c>
-      <c r="AM53" s="43" t="s">
-        <v>234</v>
-      </c>
-      <c r="AN53" s="43" t="s">
-        <v>164</v>
-      </c>
-      <c r="AO53" s="43" t="s">
-        <v>521</v>
-      </c>
-      <c r="AP53" s="43"/>
-      <c r="AQ53" s="43" t="s">
-        <v>166</v>
-      </c>
-      <c r="AR53" s="43" t="s">
-        <v>172</v>
-      </c>
-      <c r="AS53" s="43" t="s">
-        <v>190</v>
-      </c>
-      <c r="AT53" s="43" t="s">
-        <v>520</v>
-      </c>
-      <c r="AU53" s="43" t="s">
-        <v>614</v>
-      </c>
-      <c r="AV53" s="43" t="s">
-        <v>214</v>
-      </c>
-      <c r="AW53" s="43" t="s">
-        <v>212</v>
-      </c>
-      <c r="AX53" s="43" t="s">
-        <v>530</v>
-      </c>
-    </row>
-    <row r="54" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A54" s="32"/>
-      <c r="B54" s="32"/>
-      <c r="C54" s="32"/>
-      <c r="D54" s="32"/>
-      <c r="E54" s="33"/>
-      <c r="F54" s="34"/>
-      <c r="G54" s="34"/>
-      <c r="H54" s="32"/>
-      <c r="I54" s="34"/>
-      <c r="J54" s="34"/>
-      <c r="K54" s="32"/>
-      <c r="L54" s="32"/>
-      <c r="M54" s="34"/>
-      <c r="N54" s="34"/>
-      <c r="O54" s="34"/>
-      <c r="P54" s="34"/>
-      <c r="Q54" s="34"/>
-      <c r="R54" s="34"/>
-      <c r="S54" s="34"/>
-      <c r="T54" s="34"/>
-      <c r="U54" s="34"/>
-      <c r="V54" s="34"/>
-      <c r="W54" s="34"/>
-      <c r="X54" s="34"/>
-      <c r="Y54" s="34"/>
-      <c r="Z54" s="34"/>
-      <c r="AA54" s="34"/>
-      <c r="AB54" s="34"/>
-      <c r="AC54" s="34"/>
-      <c r="AD54" s="34"/>
-      <c r="AE54" s="34"/>
-      <c r="AF54" s="34"/>
-      <c r="AG54" s="34"/>
-      <c r="AH54" s="34"/>
-      <c r="AI54" s="34"/>
-      <c r="AJ54" s="34"/>
-      <c r="AK54" s="34"/>
-      <c r="AL54" s="34"/>
-      <c r="AM54" s="34"/>
-      <c r="AN54" s="34"/>
-      <c r="AO54" s="34"/>
-      <c r="AP54" s="34"/>
-      <c r="AQ54" s="34"/>
-      <c r="AR54" s="34"/>
-      <c r="AS54" s="34"/>
-      <c r="AT54" s="34"/>
-      <c r="AU54" s="34"/>
-      <c r="AV54" s="34"/>
-      <c r="AW54" s="34"/>
-      <c r="AX54" s="34"/>
+    <row r="56" spans="1:50" x14ac:dyDescent="0.35">
+      <c r="A56" s="32"/>
+      <c r="B56" s="32"/>
+      <c r="C56" s="32"/>
+      <c r="D56" s="32"/>
+      <c r="E56" s="33"/>
+      <c r="F56" s="34"/>
+      <c r="G56" s="34"/>
+      <c r="H56" s="32"/>
+      <c r="I56" s="34"/>
+      <c r="J56" s="34"/>
+      <c r="K56" s="32"/>
+      <c r="L56" s="32"/>
+      <c r="M56" s="34"/>
+      <c r="N56" s="34"/>
+      <c r="O56" s="34"/>
+      <c r="P56" s="34"/>
+      <c r="Q56" s="34"/>
+      <c r="R56" s="34"/>
+      <c r="S56" s="34"/>
+      <c r="T56" s="34"/>
+      <c r="U56" s="34"/>
+      <c r="V56" s="34"/>
+      <c r="W56" s="34"/>
+      <c r="X56" s="34"/>
+      <c r="Y56" s="34"/>
+      <c r="Z56" s="34"/>
+      <c r="AA56" s="34"/>
+      <c r="AB56" s="34"/>
+      <c r="AC56" s="34"/>
+      <c r="AD56" s="34"/>
+      <c r="AE56" s="34"/>
+      <c r="AF56" s="34"/>
+      <c r="AG56" s="34"/>
+      <c r="AH56" s="34"/>
+      <c r="AI56" s="34"/>
+      <c r="AJ56" s="34"/>
+      <c r="AK56" s="34"/>
+      <c r="AL56" s="34"/>
+      <c r="AM56" s="34"/>
+      <c r="AN56" s="34"/>
+      <c r="AO56" s="34"/>
+      <c r="AP56" s="34"/>
+      <c r="AQ56" s="34"/>
+      <c r="AR56" s="34"/>
+      <c r="AS56" s="34"/>
+      <c r="AT56" s="34"/>
+      <c r="AU56" s="34"/>
+      <c r="AV56" s="34"/>
+      <c r="AW56" s="34"/>
+      <c r="AX56" s="34"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -11817,14 +12110,14 @@
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
   <dataValidations count="4">
-    <dataValidation showInputMessage="1" showErrorMessage="1" sqref="P7:Q13 P14:P53 P55:P1048576 Q3:Q17" xr:uid="{00000000-0002-0000-0000-000000000000}"/>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AH55:AH1048576 AH3:AH53" xr:uid="{AF359FC3-11D6-40D8-822F-0719E91CF390}">
+    <dataValidation showInputMessage="1" showErrorMessage="1" sqref="P7:Q13 P57:P1048576 Q3:Q16 P14:P55" xr:uid="{00000000-0002-0000-0000-000000000000}"/>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AH57:AH1048576 AH3:AH55" xr:uid="{AF359FC3-11D6-40D8-822F-0719E91CF390}">
       <formula1>Ecosystem_component</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AQ55:AQ1048576 AQ3:AQ53" xr:uid="{5FFD7ACF-9A7A-47E4-8F02-C092CA18B67C}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AQ57:AQ1048576 AQ3:AQ55" xr:uid="{5FFD7ACF-9A7A-47E4-8F02-C092CA18B67C}">
       <formula1>Fishery_type</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AR55:AS1048576 AI55:AJ1048576 AN55:AO1048576 AN3:AN53 AI3:AJ53 AR3:AS53" xr:uid="{E3465DE4-B915-4C62-9316-EABEC40DC1E6}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AN3:AN55 AI3:AJ55 AR3:AS55 AR57:AS1048576 AN57:AO1048576 AI57:AJ1048576" xr:uid="{E3465DE4-B915-4C62-9316-EABEC40DC1E6}">
       <formula1>INDIRECT(AH3)</formula1>
     </dataValidation>
   </dataValidations>
@@ -11838,91 +12131,91 @@
           <x14:formula1>
             <xm:f>Validation!$R$3:$R$9</xm:f>
           </x14:formula1>
-          <xm:sqref>R55:R1048576 Q3:Q53</xm:sqref>
+          <xm:sqref>R57:R1048576 Q3:Q55</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000003000000}">
           <x14:formula1>
             <xm:f>Validation!$T$3:$T$13</xm:f>
           </x14:formula1>
-          <xm:sqref>T55:T1048576 T3:T53</xm:sqref>
+          <xm:sqref>T57:T1048576 T3:T55</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{29748323-CD5F-4931-861D-B58814ED75B7}">
           <x14:formula1>
             <xm:f>Validation!$AM$5:$AM$11</xm:f>
           </x14:formula1>
-          <xm:sqref>AM55:AM1048576 AM3:AM53</xm:sqref>
+          <xm:sqref>AM57:AM1048576 AM3:AM55</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000002000000}">
           <x14:formula1>
             <xm:f>Validation!$S$3:$S$16</xm:f>
           </x14:formula1>
-          <xm:sqref>S55:S1048576 S3:S53</xm:sqref>
+          <xm:sqref>S57:S1048576 S3:S55</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000004000000}">
           <x14:formula1>
             <xm:f>Validation!$U$3:$U$15</xm:f>
           </x14:formula1>
-          <xm:sqref>U55:U1048576 U3:U53</xm:sqref>
+          <xm:sqref>U57:U1048576 U3:U55</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000005000000}">
           <x14:formula1>
             <xm:f>Validation!$V$3:$V$13</xm:f>
           </x14:formula1>
-          <xm:sqref>V55:V1048576 V3:V53</xm:sqref>
+          <xm:sqref>V57:V1048576 V3:V55</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000006000000}">
           <x14:formula1>
             <xm:f>Validation!$W$3:$W$16</xm:f>
           </x14:formula1>
-          <xm:sqref>W55:W1048576 W3:W53</xm:sqref>
+          <xm:sqref>W57:W1048576 W3:W55</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000008000000}">
           <x14:formula1>
             <xm:f>Validation!$AA$3:$AA$5</xm:f>
           </x14:formula1>
-          <xm:sqref>AA55:AA1048576 AA3:AA53</xm:sqref>
+          <xm:sqref>AA57:AA1048576 AA3:AA55</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000009000000}">
           <x14:formula1>
             <xm:f>Validation!$AB$3:$AB$5</xm:f>
           </x14:formula1>
-          <xm:sqref>AB55:AB1048576 AB3:AB53</xm:sqref>
+          <xm:sqref>AB57:AB1048576 AB3:AB55</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-00000A000000}">
           <x14:formula1>
             <xm:f>Validation!$AC$3:$AC$5</xm:f>
           </x14:formula1>
-          <xm:sqref>AC55:AC1048576 AC3:AC53</xm:sqref>
+          <xm:sqref>AC57:AC1048576 AC3:AC55</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{6E0E886C-57EB-4CC0-93EF-80FA3E3ACE94}">
           <x14:formula1>
             <xm:f>Validation!$AG$3:$AG$9</xm:f>
           </x14:formula1>
-          <xm:sqref>AG55:AG1048576 AG3:AG53</xm:sqref>
+          <xm:sqref>AG57:AG1048576 AG3:AG55</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{FD092EEC-9635-4A23-B39A-38C3C681ED3E}">
           <x14:formula1>
             <xm:f>Validation!$AK$3:$AK$7</xm:f>
           </x14:formula1>
-          <xm:sqref>AK55:AK1048576 AK3:AK53</xm:sqref>
+          <xm:sqref>AK57:AK1048576 AK3:AK55</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{16FDFCD7-4CD9-4F70-9E07-7559EBA53348}">
           <x14:formula1>
             <xm:f>Validation!$X$3:$X$16</xm:f>
           </x14:formula1>
-          <xm:sqref>X55:X1048576 X3:X53</xm:sqref>
+          <xm:sqref>X57:X1048576 X3:X55</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{1AED246B-78BD-4B6C-B85A-7398E223C347}">
           <x14:formula1>
             <xm:f>Validation!$AV$3:$AV$6</xm:f>
           </x14:formula1>
-          <xm:sqref>AW55:AW1048576 AW3:AW53</xm:sqref>
+          <xm:sqref>AW57:AW1048576 AW3:AW55</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{6F97DC8F-A365-45BB-9124-070E7CE8EC23}">
           <x14:formula1>
             <xm:f>Validation!$AU$3:$AU$15</xm:f>
           </x14:formula1>
-          <xm:sqref>AV55:AV1048576 AV3:AV53</xm:sqref>
+          <xm:sqref>AV57:AV1048576 AV3:AV55</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -11938,76 +12231,76 @@
       <selection activeCell="R4" sqref="R4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="18" max="18" width="24.42578125" customWidth="1"/>
-    <col min="19" max="19" width="32.140625" customWidth="1"/>
-    <col min="23" max="23" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="24.453125" customWidth="1"/>
+    <col min="19" max="19" width="32.1796875" customWidth="1"/>
+    <col min="23" max="23" width="11.453125" bestFit="1" customWidth="1"/>
     <col min="24" max="24" width="25" bestFit="1" customWidth="1"/>
     <col min="25" max="25" width="25" customWidth="1"/>
-    <col min="32" max="32" width="14.5703125" customWidth="1"/>
-    <col min="33" max="33" width="26.42578125" customWidth="1"/>
+    <col min="32" max="32" width="14.54296875" customWidth="1"/>
+    <col min="33" max="33" width="26.453125" customWidth="1"/>
     <col min="42" max="42" width="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:49" x14ac:dyDescent="0.25">
-      <c r="A1" s="61" t="s">
+    <row r="1" spans="1:49" x14ac:dyDescent="0.35">
+      <c r="A1" s="62" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="61"/>
-      <c r="C1" s="61"/>
-      <c r="D1" s="61"/>
-      <c r="E1" s="61"/>
-      <c r="F1" s="61"/>
-      <c r="G1" s="61"/>
-      <c r="H1" s="61"/>
-      <c r="I1" s="61"/>
-      <c r="J1" s="61"/>
-      <c r="K1" s="61"/>
-      <c r="L1" s="61"/>
-      <c r="M1" s="61"/>
-      <c r="N1" s="61"/>
-      <c r="O1" s="61"/>
-      <c r="P1" s="61"/>
-      <c r="Q1" s="61"/>
-      <c r="R1" s="64" t="s">
+      <c r="B1" s="62"/>
+      <c r="C1" s="62"/>
+      <c r="D1" s="62"/>
+      <c r="E1" s="62"/>
+      <c r="F1" s="62"/>
+      <c r="G1" s="62"/>
+      <c r="H1" s="62"/>
+      <c r="I1" s="62"/>
+      <c r="J1" s="62"/>
+      <c r="K1" s="62"/>
+      <c r="L1" s="62"/>
+      <c r="M1" s="62"/>
+      <c r="N1" s="62"/>
+      <c r="O1" s="62"/>
+      <c r="P1" s="62"/>
+      <c r="Q1" s="62"/>
+      <c r="R1" s="65" t="s">
         <v>12</v>
       </c>
-      <c r="S1" s="64"/>
-      <c r="T1" s="64"/>
-      <c r="U1" s="64"/>
-      <c r="V1" s="64"/>
-      <c r="W1" s="64"/>
-      <c r="X1" s="64"/>
-      <c r="Y1" s="64"/>
-      <c r="Z1" s="64"/>
-      <c r="AA1" s="64"/>
-      <c r="AB1" s="64"/>
-      <c r="AC1" s="64"/>
-      <c r="AD1" s="64"/>
-      <c r="AE1" s="64"/>
-      <c r="AF1" s="68" t="s">
+      <c r="S1" s="65"/>
+      <c r="T1" s="65"/>
+      <c r="U1" s="65"/>
+      <c r="V1" s="65"/>
+      <c r="W1" s="65"/>
+      <c r="X1" s="65"/>
+      <c r="Y1" s="65"/>
+      <c r="Z1" s="65"/>
+      <c r="AA1" s="65"/>
+      <c r="AB1" s="65"/>
+      <c r="AC1" s="65"/>
+      <c r="AD1" s="65"/>
+      <c r="AE1" s="65"/>
+      <c r="AF1" s="69" t="s">
         <v>88</v>
       </c>
-      <c r="AG1" s="68"/>
-      <c r="AH1" s="69" t="s">
+      <c r="AG1" s="69"/>
+      <c r="AH1" s="70" t="s">
         <v>91</v>
       </c>
-      <c r="AI1" s="69"/>
-      <c r="AJ1" s="69"/>
-      <c r="AK1" s="69"/>
-      <c r="AL1" s="69"/>
-      <c r="AM1" s="67" t="s">
+      <c r="AI1" s="70"/>
+      <c r="AJ1" s="70"/>
+      <c r="AK1" s="70"/>
+      <c r="AL1" s="70"/>
+      <c r="AM1" s="68" t="s">
         <v>97</v>
       </c>
-      <c r="AN1" s="67"/>
-      <c r="AO1" s="67"/>
-      <c r="AP1" s="66" t="s">
+      <c r="AN1" s="68"/>
+      <c r="AO1" s="68"/>
+      <c r="AP1" s="67" t="s">
         <v>101</v>
       </c>
-      <c r="AQ1" s="66"/>
-      <c r="AR1" s="66"/>
-      <c r="AS1" s="66"/>
+      <c r="AQ1" s="67"/>
+      <c r="AR1" s="67"/>
+      <c r="AS1" s="67"/>
       <c r="AT1" s="9" t="s">
         <v>104</v>
       </c>
@@ -12015,7 +12308,7 @@
       <c r="AV1" s="9"/>
       <c r="AW1" s="9"/>
     </row>
-    <row r="2" spans="1:49" ht="90" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:49" ht="87" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
         <v>68</v>
       </c>
@@ -12164,7 +12457,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="3" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:49" x14ac:dyDescent="0.35">
       <c r="Q3" t="s">
         <v>21</v>
       </c>
@@ -12221,7 +12514,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="4" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:49" x14ac:dyDescent="0.35">
       <c r="Q4" t="s">
         <v>22</v>
       </c>
@@ -12278,7 +12571,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="5" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:49" x14ac:dyDescent="0.35">
       <c r="R5" t="s">
         <v>83</v>
       </c>
@@ -12334,7 +12627,7 @@
       </c>
       <c r="AW5" s="8"/>
     </row>
-    <row r="6" spans="1:49" ht="30" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:49" x14ac:dyDescent="0.35">
       <c r="R6" t="s">
         <v>84</v>
       </c>
@@ -12379,7 +12672,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="7" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:49" x14ac:dyDescent="0.35">
       <c r="R7" t="s">
         <v>85</v>
       </c>
@@ -12421,7 +12714,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="8" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:49" x14ac:dyDescent="0.35">
       <c r="R8" t="s">
         <v>86</v>
       </c>
@@ -12459,7 +12752,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="9" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:49" x14ac:dyDescent="0.35">
       <c r="R9" t="s">
         <v>87</v>
       </c>
@@ -12494,7 +12787,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="10" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:49" x14ac:dyDescent="0.35">
       <c r="S10" t="s">
         <v>33</v>
       </c>
@@ -12526,7 +12819,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="11" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:49" x14ac:dyDescent="0.35">
       <c r="S11" t="s">
         <v>32</v>
       </c>
@@ -12561,7 +12854,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="12" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:49" x14ac:dyDescent="0.35">
       <c r="S12" t="s">
         <v>30</v>
       </c>
@@ -12593,7 +12886,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="13" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:49" x14ac:dyDescent="0.35">
       <c r="S13" t="s">
         <v>79</v>
       </c>
@@ -12628,7 +12921,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="14" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:49" x14ac:dyDescent="0.35">
       <c r="S14" t="s">
         <v>31</v>
       </c>
@@ -12657,7 +12950,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="15" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:49" x14ac:dyDescent="0.35">
       <c r="S15" t="s">
         <v>35</v>
       </c>
@@ -12686,7 +12979,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="16" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:49" x14ac:dyDescent="0.35">
       <c r="S16" t="s">
         <v>34</v>
       </c>
@@ -12706,7 +12999,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="17" spans="34:47" x14ac:dyDescent="0.25">
+    <row r="17" spans="34:47" x14ac:dyDescent="0.35">
       <c r="AM17" t="s">
         <v>164</v>
       </c>
@@ -12714,22 +13007,22 @@
         <v>173</v>
       </c>
     </row>
-    <row r="18" spans="34:47" x14ac:dyDescent="0.25">
+    <row r="18" spans="34:47" x14ac:dyDescent="0.35">
       <c r="AP18" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="19" spans="34:47" x14ac:dyDescent="0.25">
+    <row r="19" spans="34:47" x14ac:dyDescent="0.35">
       <c r="AP19" s="7" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="22" spans="34:47" x14ac:dyDescent="0.25">
+    <row r="22" spans="34:47" x14ac:dyDescent="0.35">
       <c r="AH22" s="5" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="23" spans="34:47" x14ac:dyDescent="0.25">
+    <row r="23" spans="34:47" x14ac:dyDescent="0.35">
       <c r="AH23" s="6" t="s">
         <v>117</v>
       </c>
@@ -12764,7 +13057,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="24" spans="34:47" x14ac:dyDescent="0.25">
+    <row r="24" spans="34:47" x14ac:dyDescent="0.35">
       <c r="AH24" t="s">
         <v>131</v>
       </c>
@@ -12790,7 +13083,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="25" spans="34:47" x14ac:dyDescent="0.25">
+    <row r="25" spans="34:47" x14ac:dyDescent="0.35">
       <c r="AH25" t="s">
         <v>139</v>
       </c>
@@ -12813,7 +13106,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="26" spans="34:47" x14ac:dyDescent="0.25">
+    <row r="26" spans="34:47" x14ac:dyDescent="0.35">
       <c r="AJ26" t="s">
         <v>146</v>
       </c>
@@ -12824,7 +13117,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="27" spans="34:47" x14ac:dyDescent="0.25">
+    <row r="27" spans="34:47" x14ac:dyDescent="0.35">
       <c r="AJ27" t="s">
         <v>149</v>
       </c>
@@ -12835,7 +13128,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="28" spans="34:47" x14ac:dyDescent="0.25">
+    <row r="28" spans="34:47" x14ac:dyDescent="0.35">
       <c r="AJ28" t="s">
         <v>151</v>
       </c>
@@ -12843,12 +13136,12 @@
         <v>152</v>
       </c>
     </row>
-    <row r="29" spans="34:47" x14ac:dyDescent="0.25">
+    <row r="29" spans="34:47" x14ac:dyDescent="0.35">
       <c r="AP29" s="5" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="30" spans="34:47" x14ac:dyDescent="0.25">
+    <row r="30" spans="34:47" x14ac:dyDescent="0.35">
       <c r="AH30" s="5" t="s">
         <v>153</v>
       </c>
@@ -12871,7 +13164,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="31" spans="34:47" x14ac:dyDescent="0.25">
+    <row r="31" spans="34:47" x14ac:dyDescent="0.35">
       <c r="AH31" s="6" t="s">
         <v>131</v>
       </c>
@@ -12897,7 +13190,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="32" spans="34:47" x14ac:dyDescent="0.25">
+    <row r="32" spans="34:47" x14ac:dyDescent="0.35">
       <c r="AH32" t="s">
         <v>155</v>
       </c>
@@ -12923,7 +13216,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="33" spans="34:50" x14ac:dyDescent="0.25">
+    <row r="33" spans="34:50" x14ac:dyDescent="0.35">
       <c r="AH33" t="s">
         <v>157</v>
       </c>
@@ -12943,7 +13236,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="34" spans="34:50" x14ac:dyDescent="0.25">
+    <row r="34" spans="34:50" x14ac:dyDescent="0.35">
       <c r="AI34" t="s">
         <v>159</v>
       </c>
@@ -12958,7 +13251,7 @@
       </c>
       <c r="AX34" s="7"/>
     </row>
-    <row r="35" spans="34:50" x14ac:dyDescent="0.25">
+    <row r="35" spans="34:50" x14ac:dyDescent="0.35">
       <c r="AI35" t="s">
         <v>115</v>
       </c>
@@ -12972,7 +13265,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="36" spans="34:50" x14ac:dyDescent="0.25">
+    <row r="36" spans="34:50" x14ac:dyDescent="0.35">
       <c r="AT36" t="s">
         <v>213</v>
       </c>
@@ -12980,10 +13273,10 @@
         <v>198</v>
       </c>
     </row>
-    <row r="37" spans="34:50" x14ac:dyDescent="0.25">
+    <row r="37" spans="34:50" x14ac:dyDescent="0.35">
       <c r="AL37" s="5"/>
     </row>
-    <row r="38" spans="34:50" x14ac:dyDescent="0.25">
+    <row r="38" spans="34:50" x14ac:dyDescent="0.35">
       <c r="AL38" s="6"/>
       <c r="AM38" s="6"/>
       <c r="AN38" s="6"/>
@@ -13011,84 +13304,84 @@
       <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="25.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="26.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="35.140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16.5703125" customWidth="1"/>
-    <col min="9" max="9" width="17.42578125" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" customWidth="1"/>
+    <col min="1" max="1" width="25.1796875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.54296875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.54296875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.1796875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.54296875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="26.54296875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="35.1796875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.54296875" customWidth="1"/>
+    <col min="9" max="9" width="17.453125" customWidth="1"/>
+    <col min="10" max="10" width="14.81640625" customWidth="1"/>
+    <col min="13" max="13" width="14.453125" customWidth="1"/>
     <col min="15" max="15" width="25" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="26.5703125" customWidth="1"/>
-    <col min="17" max="17" width="17.42578125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="16.85546875" customWidth="1"/>
-    <col min="19" max="19" width="17.85546875" customWidth="1"/>
-    <col min="20" max="20" width="19.42578125" customWidth="1"/>
-    <col min="21" max="21" width="17.85546875" customWidth="1"/>
-    <col min="26" max="26" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="26.54296875" customWidth="1"/>
+    <col min="17" max="17" width="17.453125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="16.81640625" customWidth="1"/>
+    <col min="19" max="19" width="17.81640625" customWidth="1"/>
+    <col min="20" max="20" width="19.453125" customWidth="1"/>
+    <col min="21" max="21" width="17.81640625" customWidth="1"/>
+    <col min="26" max="26" width="11.81640625" bestFit="1" customWidth="1"/>
     <col min="27" max="27" width="15" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="28.5703125" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="14.42578125" customWidth="1"/>
-    <col min="30" max="30" width="15.140625" customWidth="1"/>
-    <col min="31" max="31" width="26.42578125" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="14.85546875" customWidth="1"/>
-    <col min="33" max="33" width="12.5703125" customWidth="1"/>
+    <col min="28" max="28" width="28.54296875" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="14.453125" customWidth="1"/>
+    <col min="30" max="30" width="15.1796875" customWidth="1"/>
+    <col min="31" max="31" width="26.453125" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="14.81640625" customWidth="1"/>
+    <col min="33" max="33" width="12.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A1" s="64" t="s">
+    <row r="1" spans="1:33" x14ac:dyDescent="0.35">
+      <c r="A1" s="65" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="64"/>
-      <c r="C1" s="64"/>
-      <c r="D1" s="64"/>
-      <c r="E1" s="64"/>
-      <c r="F1" s="64"/>
-      <c r="G1" s="64"/>
-      <c r="H1" s="64"/>
-      <c r="I1" s="64"/>
-      <c r="J1" s="64"/>
-      <c r="K1" s="64"/>
-      <c r="L1" s="64"/>
-      <c r="M1" s="64"/>
-      <c r="N1" s="64"/>
-      <c r="O1" s="68" t="s">
+      <c r="B1" s="65"/>
+      <c r="C1" s="65"/>
+      <c r="D1" s="65"/>
+      <c r="E1" s="65"/>
+      <c r="F1" s="65"/>
+      <c r="G1" s="65"/>
+      <c r="H1" s="65"/>
+      <c r="I1" s="65"/>
+      <c r="J1" s="65"/>
+      <c r="K1" s="65"/>
+      <c r="L1" s="65"/>
+      <c r="M1" s="65"/>
+      <c r="N1" s="65"/>
+      <c r="O1" s="69" t="s">
         <v>88</v>
       </c>
-      <c r="P1" s="68"/>
-      <c r="Q1" s="69" t="s">
+      <c r="P1" s="69"/>
+      <c r="Q1" s="70" t="s">
         <v>91</v>
       </c>
-      <c r="R1" s="69"/>
-      <c r="S1" s="69"/>
-      <c r="T1" s="69"/>
-      <c r="U1" s="69"/>
-      <c r="V1" s="67" t="s">
+      <c r="R1" s="70"/>
+      <c r="S1" s="70"/>
+      <c r="T1" s="70"/>
+      <c r="U1" s="70"/>
+      <c r="V1" s="68" t="s">
         <v>97</v>
       </c>
-      <c r="W1" s="67"/>
-      <c r="X1" s="67"/>
-      <c r="Y1" s="67"/>
-      <c r="Z1" s="66" t="s">
+      <c r="W1" s="68"/>
+      <c r="X1" s="68"/>
+      <c r="Y1" s="68"/>
+      <c r="Z1" s="67" t="s">
         <v>101</v>
       </c>
-      <c r="AA1" s="66"/>
-      <c r="AB1" s="66"/>
-      <c r="AC1" s="66"/>
-      <c r="AD1" s="70" t="s">
+      <c r="AA1" s="67"/>
+      <c r="AB1" s="67"/>
+      <c r="AC1" s="67"/>
+      <c r="AD1" s="71" t="s">
         <v>104</v>
       </c>
-      <c r="AE1" s="70"/>
-      <c r="AF1" s="70"/>
-      <c r="AG1" s="70"/>
+      <c r="AE1" s="71"/>
+      <c r="AF1" s="71"/>
+      <c r="AG1" s="71"/>
     </row>
-    <row r="2" spans="1:33" ht="60" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:33" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
         <v>66</v>
       </c>
@@ -13189,7 +13482,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="3" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>81</v>
       </c>
@@ -13249,7 +13542,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="4" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>82</v>
       </c>
@@ -13297,7 +13590,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="5" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>83</v>
       </c>
@@ -13348,7 +13641,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="6" spans="1:33" ht="30" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>84</v>
       </c>
@@ -13387,7 +13680,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="7" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>85</v>
       </c>
@@ -13429,7 +13722,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="8" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>86</v>
       </c>
@@ -13464,7 +13757,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="9" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>87</v>
       </c>
@@ -13499,7 +13792,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="10" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:33" x14ac:dyDescent="0.35">
       <c r="B10" t="s">
         <v>33</v>
       </c>
@@ -13531,7 +13824,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="11" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:33" x14ac:dyDescent="0.35">
       <c r="B11" t="s">
         <v>32</v>
       </c>
@@ -13560,7 +13853,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="12" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:33" x14ac:dyDescent="0.35">
       <c r="B12" t="s">
         <v>30</v>
       </c>
@@ -13592,7 +13885,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="13" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:33" x14ac:dyDescent="0.35">
       <c r="B13" t="s">
         <v>79</v>
       </c>
@@ -13621,7 +13914,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="14" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:33" x14ac:dyDescent="0.35">
       <c r="B14" t="s">
         <v>31</v>
       </c>
@@ -13644,7 +13937,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="15" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:33" x14ac:dyDescent="0.35">
       <c r="B15" t="s">
         <v>35</v>
       </c>
@@ -13670,7 +13963,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="16" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:33" x14ac:dyDescent="0.35">
       <c r="B16" t="s">
         <v>34</v>
       </c>
@@ -13687,7 +13980,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="17" spans="17:28" x14ac:dyDescent="0.25">
+    <row r="17" spans="17:28" x14ac:dyDescent="0.35">
       <c r="Q17" t="s">
         <v>121</v>
       </c>
@@ -13698,7 +13991,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="18" spans="17:28" x14ac:dyDescent="0.25">
+    <row r="18" spans="17:28" x14ac:dyDescent="0.35">
       <c r="Q18" t="s">
         <v>122</v>
       </c>
@@ -13712,7 +14005,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="19" spans="17:28" x14ac:dyDescent="0.25">
+    <row r="19" spans="17:28" x14ac:dyDescent="0.35">
       <c r="R19" t="s">
         <v>154</v>
       </c>
@@ -13726,7 +14019,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="20" spans="17:28" x14ac:dyDescent="0.25">
+    <row r="20" spans="17:28" x14ac:dyDescent="0.35">
       <c r="S20" t="s">
         <v>158</v>
       </c>
@@ -13737,7 +14030,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="21" spans="17:28" x14ac:dyDescent="0.25">
+    <row r="21" spans="17:28" x14ac:dyDescent="0.35">
       <c r="S21" t="s">
         <v>230</v>
       </c>
@@ -13751,7 +14044,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="22" spans="17:28" x14ac:dyDescent="0.25">
+    <row r="22" spans="17:28" x14ac:dyDescent="0.35">
       <c r="S22" t="s">
         <v>115</v>
       </c>
@@ -13762,7 +14055,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="23" spans="17:28" x14ac:dyDescent="0.25">
+    <row r="23" spans="17:28" x14ac:dyDescent="0.35">
       <c r="Q23" t="s">
         <v>129</v>
       </c>
@@ -13773,7 +14066,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="24" spans="17:28" x14ac:dyDescent="0.25">
+    <row r="24" spans="17:28" x14ac:dyDescent="0.35">
       <c r="R24" t="s">
         <v>143</v>
       </c>
@@ -13781,7 +14074,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="25" spans="17:28" x14ac:dyDescent="0.25">
+    <row r="25" spans="17:28" x14ac:dyDescent="0.35">
       <c r="R25" t="s">
         <v>148</v>
       </c>
@@ -13789,7 +14082,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="26" spans="17:28" x14ac:dyDescent="0.25">
+    <row r="26" spans="17:28" x14ac:dyDescent="0.35">
       <c r="R26" t="s">
         <v>150</v>
       </c>
@@ -13797,7 +14090,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="27" spans="17:28" x14ac:dyDescent="0.25">
+    <row r="27" spans="17:28" x14ac:dyDescent="0.35">
       <c r="R27" t="s">
         <v>152</v>
       </c>
@@ -13811,7 +14104,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="28" spans="17:28" x14ac:dyDescent="0.25">
+    <row r="28" spans="17:28" x14ac:dyDescent="0.35">
       <c r="Q28" t="s">
         <v>124</v>
       </c>
@@ -13822,7 +14115,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="29" spans="17:28" x14ac:dyDescent="0.25">
+    <row r="29" spans="17:28" x14ac:dyDescent="0.35">
       <c r="R29" t="s">
         <v>144</v>
       </c>
@@ -13833,7 +14126,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="30" spans="17:28" x14ac:dyDescent="0.25">
+    <row r="30" spans="17:28" x14ac:dyDescent="0.35">
       <c r="Q30" t="s">
         <v>125</v>
       </c>
@@ -13844,7 +14137,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="31" spans="17:28" x14ac:dyDescent="0.25">
+    <row r="31" spans="17:28" x14ac:dyDescent="0.35">
       <c r="R31" t="s">
         <v>145</v>
       </c>
@@ -13852,7 +14145,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="32" spans="17:28" x14ac:dyDescent="0.25">
+    <row r="32" spans="17:28" x14ac:dyDescent="0.35">
       <c r="Q32" t="s">
         <v>130</v>
       </c>
@@ -13860,12 +14153,12 @@
         <v>115</v>
       </c>
     </row>
-    <row r="33" spans="26:26" x14ac:dyDescent="0.25">
+    <row r="33" spans="26:26" x14ac:dyDescent="0.35">
       <c r="Z33" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="34" spans="26:26" x14ac:dyDescent="0.25">
+    <row r="34" spans="26:26" x14ac:dyDescent="0.35">
       <c r="Z34" t="s">
         <v>152</v>
       </c>
@@ -13891,6 +14184,15 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101006AB0F5ECCA53DA47AEBDEAEE6167985F" ma:contentTypeVersion="0" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="125e2131eddd38cce17ebc9527d7a9d7">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="553f2d8843fd2aa64b81f9e8c63a6619">
     <xsd:element name="properties">
@@ -14004,25 +14306,30 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{495201D0-9695-4A45-BC3A-28D949F46F55}">
   <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{66D459FE-C8DA-484C-BC8E-5EB6A351EBC9}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0A255394-17D8-4AFD-BEE7-8B5EDCA285C5}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -14036,12 +14343,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{66D459FE-C8DA-484C-BC8E-5EB6A351EBC9}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/Systematic Reviews/Analysis Task 4.1/Data_Extraction_Files/DataExtractionForm_WP4_Basurko.xlsx
+++ b/Systematic Reviews/Analysis Task 4.1/Data_Extraction_Files/DataExtractionForm_WP4_Basurko.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://share.dtu.dk/sites/SEAwise_517900/Shared Documents/WP4 Ecological effects of fisheries/Task 4.1/Data extraction/Data extraction files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2EB2FCAC-8067-4DC9-ABBC-C6E030287984}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A58041C6-9DC6-4165-B9DE-F1DC87AD890F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DataExtraction" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
     <sheet name="Drop-down overview" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">DataExtraction!$A$2:$AX$55</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">DataExtraction!$A$2:$AX$57</definedName>
     <definedName name="Benthic_epifauna">Validation!$AI$32:$AI$35</definedName>
     <definedName name="Benthos">Validation!$AN$24:$AN$25</definedName>
     <definedName name="Catch_and_bycatch">Validation!$AM$15:$AM$17</definedName>
@@ -2335,7 +2335,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2474" uniqueCount="644">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2552" uniqueCount="649">
   <si>
     <t>SearchID</t>
   </si>
@@ -4052,15 +4052,6 @@
   </si>
   <si>
     <t>Fishing effort (trawling hours)</t>
-  </si>
-  <si>
-    <t>Fishing density (individuals/400 m)</t>
-  </si>
-  <si>
-    <t>Prohibition of spearfishing has favoured the persistence of Dicentrarchus labrax and Sparus aurata during summer (the main spearfishing season) in the shallower inshore waters inside the area of the Cerbère/Banyuls-sur-Mer marine reserve. Spearfishing may also strongly affect the behaviour of these important target-fish species along these Alberian rocky shores.</t>
-  </si>
-  <si>
-    <t>Catch inand outside marine reserve area (spearfishing prohibition area)</t>
   </si>
   <si>
     <t>Pecten jacobaeus</t>
@@ -4270,6 +4261,31 @@
   </si>
   <si>
     <t>Evidence of Rapido trawl disturbance from sidescan sonar observations</t>
+  </si>
+  <si>
+    <t>MPA</t>
+  </si>
+  <si>
+    <t>Mean density</t>
+  </si>
+  <si>
+    <t>Mean density in the marine reserve was 3.92 per 400 m, compared to 0.69 per 400 m outside the protected area; this difference was highly significant (p=0.0002).</t>
+  </si>
+  <si>
+    <t>Dicentrarchus labrax</t>
+  </si>
+  <si>
+    <t>Mean size</t>
+  </si>
+  <si>
+    <t>The demographic structure of D. labrax also varied between the protected and unprotected areas, with the larger modal size distribution occurring inside the marine reserve (mode 350 mm) compared with the unprotected area (mode 200 mm). A chi-square test on the two size distributions showed
+a highly significant difference at the p=0.0001 level, with fish of this species being significantly larger within the area of the Cerbe`re/Banyuls-sur-Mer marine reserve.</t>
+  </si>
+  <si>
+    <t>Sparus aurata</t>
+  </si>
+  <si>
+    <t>For the gilthead seabream (S. aurata) (Table 2), the data showed a much greater difference in abundance (0.68 fish per 400 m in the marine reserve versus 0.05 per 400 m in the unprotected area). Since only two individuals of this species were censused outside the marine reserve, whereas 17 specimens were censused inside it, this difference was also significant (p=0.0085).</t>
   </si>
 </sst>
 </file>
@@ -4886,13 +4902,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AX56"/>
+  <dimension ref="A1:AX59"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="AL27" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="AS3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="AQ34" sqref="AQ34"/>
+      <selection pane="bottomRight" activeCell="AV33" sqref="AV33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -5468,7 +5484,7 @@
       </c>
       <c r="AD5" s="40"/>
       <c r="AE5" s="40" t="s">
-        <v>620</v>
+        <v>617</v>
       </c>
       <c r="AF5" s="40" t="s">
         <v>280</v>
@@ -5638,7 +5654,7 @@
       </c>
       <c r="AN6" s="23"/>
       <c r="AO6" s="23" t="s">
-        <v>621</v>
+        <v>618</v>
       </c>
       <c r="AP6" s="23" t="s">
         <v>541</v>
@@ -5778,7 +5794,7 @@
       </c>
       <c r="AN7" s="43"/>
       <c r="AO7" s="43" t="s">
-        <v>629</v>
+        <v>626</v>
       </c>
       <c r="AP7" s="43"/>
       <c r="AQ7" s="43" t="s">
@@ -5794,7 +5810,7 @@
         <v>548</v>
       </c>
       <c r="AU7" s="43" t="s">
-        <v>626</v>
+        <v>623</v>
       </c>
       <c r="AV7" s="43" t="s">
         <v>205</v>
@@ -5803,7 +5819,7 @@
         <v>212</v>
       </c>
       <c r="AX7" s="59" t="s">
-        <v>632</v>
+        <v>629</v>
       </c>
     </row>
     <row r="8" spans="1:50" s="16" customFormat="1" ht="16.399999999999999" customHeight="1" x14ac:dyDescent="0.35">
@@ -5911,14 +5927,14 @@
       <c r="AJ8" s="43"/>
       <c r="AK8" s="43"/>
       <c r="AL8" s="43" t="s">
-        <v>628</v>
+        <v>625</v>
       </c>
       <c r="AM8" s="43" t="s">
         <v>235</v>
       </c>
       <c r="AN8" s="43"/>
       <c r="AO8" s="43" t="s">
-        <v>629</v>
+        <v>626</v>
       </c>
       <c r="AP8" s="43"/>
       <c r="AQ8" s="43" t="s">
@@ -5934,7 +5950,7 @@
         <v>548</v>
       </c>
       <c r="AU8" s="43" t="s">
-        <v>626</v>
+        <v>623</v>
       </c>
       <c r="AV8" s="43" t="s">
         <v>205</v>
@@ -5943,7 +5959,7 @@
         <v>212</v>
       </c>
       <c r="AX8" s="59" t="s">
-        <v>632</v>
+        <v>629</v>
       </c>
     </row>
     <row r="9" spans="1:50" s="16" customFormat="1" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
@@ -6053,14 +6069,14 @@
       </c>
       <c r="AK9" s="26"/>
       <c r="AL9" s="26" t="s">
-        <v>627</v>
+        <v>624</v>
       </c>
       <c r="AM9" s="26" t="s">
         <v>235</v>
       </c>
       <c r="AN9" s="26"/>
       <c r="AO9" s="43" t="s">
-        <v>629</v>
+        <v>626</v>
       </c>
       <c r="AP9" s="26"/>
       <c r="AQ9" s="26" t="s">
@@ -6076,7 +6092,7 @@
         <v>548</v>
       </c>
       <c r="AU9" s="43" t="s">
-        <v>626</v>
+        <v>623</v>
       </c>
       <c r="AV9" s="43" t="s">
         <v>205</v>
@@ -6085,7 +6101,7 @@
         <v>212</v>
       </c>
       <c r="AX9" s="59" t="s">
-        <v>632</v>
+        <v>629</v>
       </c>
     </row>
     <row r="10" spans="1:50" s="16" customFormat="1" ht="16.399999999999999" customHeight="1" x14ac:dyDescent="0.35">
@@ -6198,7 +6214,7 @@
       </c>
       <c r="AN10" s="43"/>
       <c r="AO10" s="43" t="s">
-        <v>629</v>
+        <v>626</v>
       </c>
       <c r="AP10" s="43"/>
       <c r="AQ10" s="43" t="s">
@@ -6214,7 +6230,7 @@
         <v>548</v>
       </c>
       <c r="AU10" s="43" t="s">
-        <v>630</v>
+        <v>627</v>
       </c>
       <c r="AV10" s="43" t="s">
         <v>205</v>
@@ -6223,7 +6239,7 @@
         <v>211</v>
       </c>
       <c r="AX10" s="59" t="s">
-        <v>631</v>
+        <v>628</v>
       </c>
     </row>
     <row r="11" spans="1:50" s="16" customFormat="1" ht="16.399999999999999" customHeight="1" x14ac:dyDescent="0.35">
@@ -6331,14 +6347,14 @@
       <c r="AJ11" s="43"/>
       <c r="AK11" s="43"/>
       <c r="AL11" s="43" t="s">
-        <v>628</v>
+        <v>625</v>
       </c>
       <c r="AM11" s="43" t="s">
         <v>235</v>
       </c>
       <c r="AN11" s="43"/>
       <c r="AO11" s="43" t="s">
-        <v>629</v>
+        <v>626</v>
       </c>
       <c r="AP11" s="43"/>
       <c r="AQ11" s="43" t="s">
@@ -6354,7 +6370,7 @@
         <v>548</v>
       </c>
       <c r="AU11" s="43" t="s">
-        <v>630</v>
+        <v>627</v>
       </c>
       <c r="AV11" s="43" t="s">
         <v>205</v>
@@ -6363,7 +6379,7 @@
         <v>211</v>
       </c>
       <c r="AX11" s="59" t="s">
-        <v>631</v>
+        <v>628</v>
       </c>
     </row>
     <row r="12" spans="1:50" s="16" customFormat="1" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
@@ -6473,14 +6489,14 @@
       </c>
       <c r="AK12" s="26"/>
       <c r="AL12" s="26" t="s">
-        <v>627</v>
+        <v>624</v>
       </c>
       <c r="AM12" s="26" t="s">
         <v>235</v>
       </c>
       <c r="AN12" s="26"/>
       <c r="AO12" s="43" t="s">
-        <v>629</v>
+        <v>626</v>
       </c>
       <c r="AP12" s="26"/>
       <c r="AQ12" s="26" t="s">
@@ -6496,7 +6512,7 @@
         <v>548</v>
       </c>
       <c r="AU12" s="43" t="s">
-        <v>630</v>
+        <v>627</v>
       </c>
       <c r="AV12" s="43" t="s">
         <v>205</v>
@@ -6505,7 +6521,7 @@
         <v>211</v>
       </c>
       <c r="AX12" s="59" t="s">
-        <v>631</v>
+        <v>628</v>
       </c>
     </row>
     <row r="13" spans="1:50" s="10" customFormat="1" x14ac:dyDescent="0.35">
@@ -6673,7 +6689,7 @@
         <v>487</v>
       </c>
       <c r="Z14" s="40" t="s">
-        <v>609</v>
+        <v>606</v>
       </c>
       <c r="AA14" s="43">
         <v>2</v>
@@ -6813,7 +6829,7 @@
         <v>487</v>
       </c>
       <c r="Z15" s="23" t="s">
-        <v>609</v>
+        <v>606</v>
       </c>
       <c r="AA15" s="26">
         <v>2</v>
@@ -7731,7 +7747,7 @@
         <v>505</v>
       </c>
       <c r="Z23" s="54" t="s">
-        <v>611</v>
+        <v>608</v>
       </c>
       <c r="AA23" s="54">
         <v>1</v>
@@ -7871,7 +7887,7 @@
         <v>505</v>
       </c>
       <c r="Z24" s="28" t="s">
-        <v>611</v>
+        <v>608</v>
       </c>
       <c r="AA24" s="28">
         <v>1</v>
@@ -8101,7 +8117,7 @@
         <v>505</v>
       </c>
       <c r="Z26" s="54" t="s">
-        <v>616</v>
+        <v>613</v>
       </c>
       <c r="AA26" s="54">
         <v>2</v>
@@ -8241,7 +8257,7 @@
         <v>505</v>
       </c>
       <c r="Z27" s="28" t="s">
-        <v>616</v>
+        <v>613</v>
       </c>
       <c r="AA27" s="28">
         <v>2</v>
@@ -8381,7 +8397,7 @@
       </c>
       <c r="Y28" s="43"/>
       <c r="Z28" s="43" t="s">
-        <v>610</v>
+        <v>607</v>
       </c>
       <c r="AA28" s="43">
         <v>2</v>
@@ -8411,7 +8427,7 @@
       </c>
       <c r="AK28" s="43"/>
       <c r="AL28" s="43" t="s">
-        <v>624</v>
+        <v>621</v>
       </c>
       <c r="AM28" s="43" t="s">
         <v>235</v>
@@ -8445,7 +8461,7 @@
         <v>210</v>
       </c>
       <c r="AX28" s="40" t="s">
-        <v>623</v>
+        <v>620</v>
       </c>
     </row>
     <row r="29" spans="1:50" s="16" customFormat="1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -8521,7 +8537,7 @@
       </c>
       <c r="Y29" s="43"/>
       <c r="Z29" s="43" t="s">
-        <v>610</v>
+        <v>607</v>
       </c>
       <c r="AA29" s="43">
         <v>2</v>
@@ -8551,7 +8567,7 @@
       </c>
       <c r="AK29" s="43"/>
       <c r="AL29" s="43" t="s">
-        <v>624</v>
+        <v>621</v>
       </c>
       <c r="AM29" s="43" t="s">
         <v>235</v>
@@ -8585,7 +8601,7 @@
         <v>210</v>
       </c>
       <c r="AX29" s="40" t="s">
-        <v>623</v>
+        <v>620</v>
       </c>
     </row>
     <row r="30" spans="1:50" s="16" customFormat="1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -8661,7 +8677,7 @@
       </c>
       <c r="Y30" s="43"/>
       <c r="Z30" s="43" t="s">
-        <v>610</v>
+        <v>607</v>
       </c>
       <c r="AA30" s="43">
         <v>2</v>
@@ -8691,7 +8707,7 @@
       </c>
       <c r="AK30" s="43"/>
       <c r="AL30" s="43" t="s">
-        <v>625</v>
+        <v>622</v>
       </c>
       <c r="AM30" s="43" t="s">
         <v>235</v>
@@ -8725,7 +8741,7 @@
         <v>212</v>
       </c>
       <c r="AX30" s="40" t="s">
-        <v>622</v>
+        <v>619</v>
       </c>
     </row>
     <row r="31" spans="1:50" s="10" customFormat="1" x14ac:dyDescent="0.35">
@@ -8801,7 +8817,7 @@
       </c>
       <c r="Y31" s="54"/>
       <c r="Z31" s="54" t="s">
-        <v>612</v>
+        <v>609</v>
       </c>
       <c r="AA31" s="54">
         <v>2</v>
@@ -8840,7 +8856,7 @@
         <v>162</v>
       </c>
       <c r="AO31" s="54" t="s">
-        <v>572</v>
+        <v>641</v>
       </c>
       <c r="AP31" s="54"/>
       <c r="AQ31" s="54" t="s">
@@ -8851,297 +8867,295 @@
       </c>
       <c r="AS31" s="54"/>
       <c r="AT31" s="54" t="s">
-        <v>502</v>
+        <v>644</v>
       </c>
       <c r="AU31" s="54" t="s">
-        <v>574</v>
+        <v>642</v>
       </c>
       <c r="AV31" s="54" t="s">
         <v>201</v>
       </c>
       <c r="AW31" s="54" t="s">
-        <v>210</v>
-      </c>
-      <c r="AX31" s="54" t="s">
-        <v>573</v>
+        <v>209</v>
+      </c>
+      <c r="AX31" s="28" t="s">
+        <v>643</v>
       </c>
     </row>
     <row r="32" spans="1:50" s="10" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A32" s="29" t="s">
-        <v>409</v>
-      </c>
-      <c r="B32" s="29" t="s">
+      <c r="A32" s="52" t="s">
+        <v>401</v>
+      </c>
+      <c r="B32" s="52" t="s">
         <v>245</v>
       </c>
-      <c r="C32" s="29" t="s">
-        <v>410</v>
-      </c>
-      <c r="D32" s="29" t="s">
-        <v>411</v>
-      </c>
-      <c r="E32" s="30">
-        <v>2000</v>
-      </c>
-      <c r="F32" s="28" t="s">
-        <v>412</v>
-      </c>
-      <c r="G32" s="28" t="s">
-        <v>413</v>
-      </c>
-      <c r="H32" s="29" t="s">
-        <v>371</v>
-      </c>
-      <c r="I32" s="28" t="s">
-        <v>414</v>
-      </c>
-      <c r="J32" s="28" t="s">
-        <v>415</v>
-      </c>
-      <c r="K32" s="29" t="s">
-        <v>416</v>
-      </c>
-      <c r="L32" s="29" t="s">
+      <c r="C32" s="52" t="s">
+        <v>402</v>
+      </c>
+      <c r="D32" s="52" t="s">
+        <v>403</v>
+      </c>
+      <c r="E32" s="53">
+        <v>2001</v>
+      </c>
+      <c r="F32" s="54" t="s">
+        <v>404</v>
+      </c>
+      <c r="G32" s="54" t="s">
+        <v>405</v>
+      </c>
+      <c r="H32" s="52" t="s">
+        <v>275</v>
+      </c>
+      <c r="I32" s="54" t="s">
+        <v>275</v>
+      </c>
+      <c r="J32" s="54" t="s">
+        <v>406</v>
+      </c>
+      <c r="K32" s="52" t="s">
+        <v>407</v>
+      </c>
+      <c r="L32" s="52" t="s">
         <v>254</v>
       </c>
-      <c r="M32" s="28" t="s">
-        <v>417</v>
-      </c>
-      <c r="N32" s="28" t="s">
+      <c r="M32" s="54" t="s">
+        <v>408</v>
+      </c>
+      <c r="N32" s="54" t="s">
         <v>256</v>
       </c>
-      <c r="O32" s="28" t="s">
-        <v>318</v>
-      </c>
-      <c r="P32" s="28" t="s">
-        <v>258</v>
-      </c>
-      <c r="Q32" s="28" t="s">
+      <c r="O32" s="54" t="s">
+        <v>257</v>
+      </c>
+      <c r="P32" s="54" t="s">
+        <v>254</v>
+      </c>
+      <c r="Q32" s="54" t="s">
         <v>21</v>
       </c>
-      <c r="R32" s="28"/>
-      <c r="S32" s="28" t="s">
-        <v>26</v>
-      </c>
-      <c r="T32" s="28" t="s">
-        <v>39</v>
-      </c>
-      <c r="U32" s="28" t="s">
+      <c r="R32" s="54"/>
+      <c r="S32" s="54" t="s">
+        <v>31</v>
+      </c>
+      <c r="T32" s="54" t="s">
+        <v>41</v>
+      </c>
+      <c r="U32" s="54" t="s">
         <v>49</v>
       </c>
-      <c r="V32" s="28" t="s">
-        <v>38</v>
-      </c>
-      <c r="W32" s="28" t="s">
+      <c r="V32" s="54" t="s">
+        <v>40</v>
+      </c>
+      <c r="W32" s="54" t="s">
         <v>48</v>
       </c>
-      <c r="X32" s="28" t="s">
-        <v>218</v>
-      </c>
-      <c r="Y32" s="28" t="s">
-        <v>506</v>
-      </c>
-      <c r="Z32" s="28" t="s">
-        <v>613</v>
-      </c>
-      <c r="AA32" s="28">
+      <c r="X32" s="54" t="s">
+        <v>72</v>
+      </c>
+      <c r="Y32" s="54"/>
+      <c r="Z32" s="54" t="s">
+        <v>609</v>
+      </c>
+      <c r="AA32" s="54">
         <v>2</v>
       </c>
-      <c r="AB32" s="28">
+      <c r="AB32" s="54">
         <v>2</v>
       </c>
-      <c r="AC32" s="28">
+      <c r="AC32" s="54">
         <v>3</v>
       </c>
-      <c r="AD32" s="28" t="s">
-        <v>504</v>
-      </c>
-      <c r="AE32" s="28"/>
-      <c r="AF32" s="28" t="s">
-        <v>259</v>
-      </c>
-      <c r="AG32" s="28" t="s">
+      <c r="AD32" s="54" t="s">
+        <v>503</v>
+      </c>
+      <c r="AE32" s="54"/>
+      <c r="AF32" s="54" t="s">
+        <v>319</v>
+      </c>
+      <c r="AG32" s="54" t="s">
         <v>109</v>
       </c>
-      <c r="AH32" s="28" t="s">
-        <v>123</v>
-      </c>
-      <c r="AI32" s="28" t="s">
-        <v>143</v>
-      </c>
-      <c r="AJ32" s="28"/>
-      <c r="AK32" s="28"/>
-      <c r="AL32" s="28" t="s">
-        <v>576</v>
-      </c>
-      <c r="AM32" s="28" t="s">
-        <v>235</v>
-      </c>
-      <c r="AN32" s="28"/>
-      <c r="AO32" s="28" t="s">
-        <v>643</v>
-      </c>
-      <c r="AP32" s="28"/>
-      <c r="AQ32" s="28" t="s">
-        <v>166</v>
-      </c>
-      <c r="AR32" s="28" t="s">
-        <v>241</v>
-      </c>
-      <c r="AS32" s="28"/>
-      <c r="AT32" s="28" t="s">
-        <v>575</v>
-      </c>
-      <c r="AU32" s="28" t="s">
-        <v>633</v>
-      </c>
-      <c r="AV32" s="28" t="s">
-        <v>115</v>
-      </c>
-      <c r="AW32" s="28" t="s">
-        <v>212</v>
+      <c r="AH32" s="54" t="s">
+        <v>119</v>
+      </c>
+      <c r="AI32" s="54" t="s">
+        <v>149</v>
+      </c>
+      <c r="AJ32" s="54"/>
+      <c r="AK32" s="54"/>
+      <c r="AL32" s="54" t="s">
+        <v>502</v>
+      </c>
+      <c r="AM32" s="54" t="s">
+        <v>234</v>
+      </c>
+      <c r="AN32" s="54" t="s">
+        <v>162</v>
+      </c>
+      <c r="AO32" s="54" t="s">
+        <v>641</v>
+      </c>
+      <c r="AP32" s="54"/>
+      <c r="AQ32" s="54" t="s">
+        <v>167</v>
+      </c>
+      <c r="AR32" s="54" t="s">
+        <v>175</v>
+      </c>
+      <c r="AS32" s="54"/>
+      <c r="AT32" s="54" t="s">
+        <v>644</v>
+      </c>
+      <c r="AU32" s="54" t="s">
+        <v>645</v>
+      </c>
+      <c r="AV32" s="54" t="s">
+        <v>202</v>
+      </c>
+      <c r="AW32" s="54" t="s">
+        <v>209</v>
       </c>
       <c r="AX32" s="28" t="s">
-        <v>634</v>
+        <v>646</v>
       </c>
     </row>
     <row r="33" spans="1:50" s="10" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A33" s="29" t="s">
-        <v>409</v>
-      </c>
-      <c r="B33" s="29" t="s">
+      <c r="A33" s="52" t="s">
+        <v>401</v>
+      </c>
+      <c r="B33" s="52" t="s">
         <v>245</v>
       </c>
-      <c r="C33" s="29" t="s">
-        <v>410</v>
-      </c>
-      <c r="D33" s="29" t="s">
-        <v>411</v>
-      </c>
-      <c r="E33" s="30">
-        <v>2000</v>
-      </c>
-      <c r="F33" s="28" t="s">
-        <v>412</v>
-      </c>
-      <c r="G33" s="28" t="s">
-        <v>413</v>
-      </c>
-      <c r="H33" s="29" t="s">
-        <v>371</v>
-      </c>
-      <c r="I33" s="28" t="s">
-        <v>414</v>
-      </c>
-      <c r="J33" s="28" t="s">
-        <v>415</v>
-      </c>
-      <c r="K33" s="29" t="s">
-        <v>416</v>
-      </c>
-      <c r="L33" s="29" t="s">
+      <c r="C33" s="52" t="s">
+        <v>402</v>
+      </c>
+      <c r="D33" s="52" t="s">
+        <v>403</v>
+      </c>
+      <c r="E33" s="53">
+        <v>2001</v>
+      </c>
+      <c r="F33" s="54" t="s">
+        <v>404</v>
+      </c>
+      <c r="G33" s="54" t="s">
+        <v>405</v>
+      </c>
+      <c r="H33" s="52" t="s">
+        <v>275</v>
+      </c>
+      <c r="I33" s="54" t="s">
+        <v>275</v>
+      </c>
+      <c r="J33" s="54" t="s">
+        <v>406</v>
+      </c>
+      <c r="K33" s="52" t="s">
+        <v>407</v>
+      </c>
+      <c r="L33" s="52" t="s">
         <v>254</v>
       </c>
-      <c r="M33" s="28" t="s">
-        <v>417</v>
-      </c>
-      <c r="N33" s="28" t="s">
+      <c r="M33" s="54" t="s">
+        <v>408</v>
+      </c>
+      <c r="N33" s="54" t="s">
         <v>256</v>
       </c>
-      <c r="O33" s="28" t="s">
-        <v>318</v>
-      </c>
-      <c r="P33" s="28" t="s">
-        <v>258</v>
-      </c>
-      <c r="Q33" s="28" t="s">
+      <c r="O33" s="54" t="s">
+        <v>257</v>
+      </c>
+      <c r="P33" s="54" t="s">
+        <v>254</v>
+      </c>
+      <c r="Q33" s="54" t="s">
         <v>21</v>
       </c>
-      <c r="R33" s="28"/>
-      <c r="S33" s="28" t="s">
-        <v>26</v>
-      </c>
-      <c r="T33" s="28" t="s">
-        <v>39</v>
-      </c>
-      <c r="U33" s="28" t="s">
+      <c r="R33" s="54"/>
+      <c r="S33" s="54" t="s">
+        <v>31</v>
+      </c>
+      <c r="T33" s="54" t="s">
+        <v>41</v>
+      </c>
+      <c r="U33" s="54" t="s">
         <v>49</v>
       </c>
-      <c r="V33" s="28" t="s">
-        <v>38</v>
-      </c>
-      <c r="W33" s="28" t="s">
+      <c r="V33" s="54" t="s">
+        <v>40</v>
+      </c>
+      <c r="W33" s="54" t="s">
         <v>48</v>
       </c>
-      <c r="X33" s="28" t="s">
-        <v>218</v>
-      </c>
-      <c r="Y33" s="28" t="s">
-        <v>506</v>
-      </c>
-      <c r="Z33" s="28" t="s">
-        <v>613</v>
-      </c>
-      <c r="AA33" s="28">
+      <c r="X33" s="54" t="s">
+        <v>72</v>
+      </c>
+      <c r="Y33" s="54"/>
+      <c r="Z33" s="54" t="s">
+        <v>609</v>
+      </c>
+      <c r="AA33" s="54">
         <v>2</v>
       </c>
-      <c r="AB33" s="28">
+      <c r="AB33" s="54">
         <v>2</v>
       </c>
-      <c r="AC33" s="28">
+      <c r="AC33" s="54">
         <v>3</v>
       </c>
-      <c r="AD33" s="28" t="s">
-        <v>504</v>
-      </c>
-      <c r="AE33" s="28"/>
-      <c r="AF33" s="28" t="s">
-        <v>259</v>
-      </c>
-      <c r="AG33" s="28" t="s">
+      <c r="AD33" s="54" t="s">
+        <v>503</v>
+      </c>
+      <c r="AE33" s="54"/>
+      <c r="AF33" s="54" t="s">
+        <v>319</v>
+      </c>
+      <c r="AG33" s="54" t="s">
         <v>109</v>
       </c>
-      <c r="AH33" s="28" t="s">
-        <v>122</v>
-      </c>
-      <c r="AI33" s="28" t="s">
-        <v>142</v>
-      </c>
-      <c r="AJ33" s="28"/>
-      <c r="AK33" s="28" t="s">
-        <v>143</v>
-      </c>
-      <c r="AL33" s="28" t="s">
-        <v>576</v>
-      </c>
-      <c r="AM33" s="28" t="s">
-        <v>235</v>
-      </c>
-      <c r="AN33" s="28"/>
-      <c r="AO33" s="28" t="s">
-        <v>643</v>
-      </c>
-      <c r="AP33" s="28"/>
-      <c r="AQ33" s="28" t="s">
-        <v>166</v>
-      </c>
-      <c r="AR33" s="28" t="s">
-        <v>241</v>
-      </c>
-      <c r="AS33" s="28"/>
-      <c r="AT33" s="28" t="s">
-        <v>575</v>
-      </c>
-      <c r="AU33" s="28" t="s">
-        <v>635</v>
-      </c>
-      <c r="AV33" s="28" t="s">
+      <c r="AH33" s="54" t="s">
+        <v>119</v>
+      </c>
+      <c r="AI33" s="54" t="s">
+        <v>149</v>
+      </c>
+      <c r="AJ33" s="54"/>
+      <c r="AK33" s="54"/>
+      <c r="AL33" s="54" t="s">
+        <v>502</v>
+      </c>
+      <c r="AM33" s="54" t="s">
+        <v>234</v>
+      </c>
+      <c r="AN33" s="54" t="s">
+        <v>162</v>
+      </c>
+      <c r="AO33" s="54" t="s">
+        <v>641</v>
+      </c>
+      <c r="AP33" s="54"/>
+      <c r="AQ33" s="54" t="s">
+        <v>167</v>
+      </c>
+      <c r="AR33" s="54" t="s">
+        <v>175</v>
+      </c>
+      <c r="AS33" s="54"/>
+      <c r="AT33" s="54" t="s">
+        <v>647</v>
+      </c>
+      <c r="AU33" s="54" t="s">
+        <v>642</v>
+      </c>
+      <c r="AV33" s="54" t="s">
         <v>201</v>
       </c>
-      <c r="AW33" s="28" t="s">
-        <v>211</v>
-      </c>
-      <c r="AX33" s="54" t="s">
-        <v>639</v>
+      <c r="AW33" s="54" t="s">
+        <v>209</v>
+      </c>
+      <c r="AX33" s="28" t="s">
+        <v>648</v>
       </c>
     </row>
     <row r="34" spans="1:50" s="10" customFormat="1" x14ac:dyDescent="0.35">
@@ -9219,7 +9233,7 @@
         <v>506</v>
       </c>
       <c r="Z34" s="28" t="s">
-        <v>613</v>
+        <v>610</v>
       </c>
       <c r="AA34" s="28">
         <v>2</v>
@@ -9241,24 +9255,22 @@
         <v>109</v>
       </c>
       <c r="AH34" s="28" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="AI34" s="28" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="AJ34" s="28"/>
-      <c r="AK34" s="28" t="s">
-        <v>143</v>
-      </c>
+      <c r="AK34" s="28"/>
       <c r="AL34" s="28" t="s">
-        <v>576</v>
+        <v>573</v>
       </c>
       <c r="AM34" s="28" t="s">
         <v>235</v>
       </c>
       <c r="AN34" s="28"/>
       <c r="AO34" s="28" t="s">
-        <v>643</v>
+        <v>640</v>
       </c>
       <c r="AP34" s="28"/>
       <c r="AQ34" s="28" t="s">
@@ -9269,19 +9281,19 @@
       </c>
       <c r="AS34" s="28"/>
       <c r="AT34" s="28" t="s">
-        <v>575</v>
+        <v>572</v>
       </c>
       <c r="AU34" s="28" t="s">
-        <v>636</v>
+        <v>630</v>
       </c>
       <c r="AV34" s="28" t="s">
-        <v>208</v>
+        <v>115</v>
       </c>
       <c r="AW34" s="28" t="s">
-        <v>211</v>
-      </c>
-      <c r="AX34" s="54" t="s">
-        <v>640</v>
+        <v>212</v>
+      </c>
+      <c r="AX34" s="28" t="s">
+        <v>631</v>
       </c>
     </row>
     <row r="35" spans="1:50" s="10" customFormat="1" x14ac:dyDescent="0.35">
@@ -9359,7 +9371,7 @@
         <v>506</v>
       </c>
       <c r="Z35" s="28" t="s">
-        <v>613</v>
+        <v>610</v>
       </c>
       <c r="AA35" s="28">
         <v>2</v>
@@ -9391,14 +9403,14 @@
         <v>143</v>
       </c>
       <c r="AL35" s="28" t="s">
-        <v>576</v>
+        <v>573</v>
       </c>
       <c r="AM35" s="28" t="s">
         <v>235</v>
       </c>
       <c r="AN35" s="28"/>
       <c r="AO35" s="28" t="s">
-        <v>643</v>
+        <v>640</v>
       </c>
       <c r="AP35" s="28"/>
       <c r="AQ35" s="28" t="s">
@@ -9409,19 +9421,19 @@
       </c>
       <c r="AS35" s="28"/>
       <c r="AT35" s="28" t="s">
-        <v>575</v>
+        <v>572</v>
       </c>
       <c r="AU35" s="28" t="s">
-        <v>637</v>
+        <v>632</v>
       </c>
       <c r="AV35" s="28" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
       <c r="AW35" s="28" t="s">
         <v>211</v>
       </c>
       <c r="AX35" s="54" t="s">
-        <v>641</v>
+        <v>636</v>
       </c>
     </row>
     <row r="36" spans="1:50" s="10" customFormat="1" x14ac:dyDescent="0.35">
@@ -9499,7 +9511,7 @@
         <v>506</v>
       </c>
       <c r="Z36" s="28" t="s">
-        <v>613</v>
+        <v>610</v>
       </c>
       <c r="AA36" s="28">
         <v>2</v>
@@ -9531,14 +9543,14 @@
         <v>143</v>
       </c>
       <c r="AL36" s="28" t="s">
-        <v>576</v>
+        <v>573</v>
       </c>
       <c r="AM36" s="28" t="s">
         <v>235</v>
       </c>
       <c r="AN36" s="28"/>
       <c r="AO36" s="28" t="s">
-        <v>643</v>
+        <v>640</v>
       </c>
       <c r="AP36" s="28"/>
       <c r="AQ36" s="28" t="s">
@@ -9549,475 +9561,467 @@
       </c>
       <c r="AS36" s="28"/>
       <c r="AT36" s="28" t="s">
-        <v>575</v>
+        <v>572</v>
       </c>
       <c r="AU36" s="28" t="s">
-        <v>638</v>
+        <v>633</v>
       </c>
       <c r="AV36" s="28" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="AW36" s="28" t="s">
         <v>211</v>
       </c>
       <c r="AX36" s="54" t="s">
-        <v>642</v>
+        <v>637</v>
       </c>
     </row>
     <row r="37" spans="1:50" s="10" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A37" s="44" t="s">
-        <v>418</v>
-      </c>
-      <c r="B37" s="44" t="s">
+      <c r="A37" s="29" t="s">
+        <v>409</v>
+      </c>
+      <c r="B37" s="29" t="s">
         <v>245</v>
       </c>
-      <c r="C37" s="44" t="s">
-        <v>419</v>
-      </c>
-      <c r="D37" s="44" t="s">
-        <v>420</v>
-      </c>
-      <c r="E37" s="45">
+      <c r="C37" s="29" t="s">
+        <v>410</v>
+      </c>
+      <c r="D37" s="29" t="s">
+        <v>411</v>
+      </c>
+      <c r="E37" s="30">
         <v>2000</v>
       </c>
-      <c r="F37" s="46" t="s">
+      <c r="F37" s="28" t="s">
         <v>412</v>
       </c>
-      <c r="G37" s="46" t="s">
+      <c r="G37" s="28" t="s">
         <v>413</v>
       </c>
-      <c r="H37" s="44" t="s">
+      <c r="H37" s="29" t="s">
         <v>371</v>
       </c>
-      <c r="I37" s="46" t="s">
-        <v>421</v>
-      </c>
-      <c r="J37" s="46" t="s">
-        <v>422</v>
-      </c>
-      <c r="K37" s="44" t="s">
-        <v>423</v>
-      </c>
-      <c r="L37" s="44" t="s">
+      <c r="I37" s="28" t="s">
+        <v>414</v>
+      </c>
+      <c r="J37" s="28" t="s">
+        <v>415</v>
+      </c>
+      <c r="K37" s="29" t="s">
+        <v>416</v>
+      </c>
+      <c r="L37" s="29" t="s">
         <v>254</v>
       </c>
-      <c r="M37" s="46" t="s">
-        <v>424</v>
-      </c>
-      <c r="N37" s="46" t="s">
+      <c r="M37" s="28" t="s">
+        <v>417</v>
+      </c>
+      <c r="N37" s="28" t="s">
         <v>256</v>
       </c>
-      <c r="O37" s="46" t="s">
+      <c r="O37" s="28" t="s">
         <v>318</v>
       </c>
-      <c r="P37" s="46" t="s">
+      <c r="P37" s="28" t="s">
         <v>258</v>
       </c>
-      <c r="Q37" s="46" t="s">
+      <c r="Q37" s="28" t="s">
         <v>21</v>
       </c>
-      <c r="R37" s="46" t="s">
-        <v>84</v>
-      </c>
-      <c r="S37" s="46"/>
-      <c r="T37" s="46"/>
-      <c r="U37" s="46"/>
-      <c r="V37" s="46"/>
-      <c r="W37" s="46"/>
-      <c r="X37" s="46"/>
-      <c r="Y37" s="46"/>
-      <c r="Z37" s="46"/>
-      <c r="AA37" s="46"/>
-      <c r="AB37" s="46"/>
-      <c r="AC37" s="46"/>
-      <c r="AD37" s="46"/>
-      <c r="AE37" s="46"/>
-      <c r="AF37" s="46" t="s">
-        <v>290</v>
-      </c>
-      <c r="AG37" s="46"/>
-      <c r="AH37" s="46"/>
-      <c r="AI37" s="46"/>
-      <c r="AJ37" s="46"/>
-      <c r="AK37" s="46"/>
-      <c r="AL37" s="46"/>
-      <c r="AM37" s="46"/>
-      <c r="AN37" s="46"/>
-      <c r="AO37" s="46"/>
-      <c r="AP37" s="46"/>
-      <c r="AQ37" s="46"/>
-      <c r="AR37" s="46"/>
-      <c r="AS37" s="46"/>
-      <c r="AT37" s="46"/>
-      <c r="AU37" s="46"/>
-      <c r="AV37" s="46"/>
-      <c r="AW37" s="46"/>
-      <c r="AX37" s="46"/>
+      <c r="R37" s="28"/>
+      <c r="S37" s="28" t="s">
+        <v>26</v>
+      </c>
+      <c r="T37" s="28" t="s">
+        <v>39</v>
+      </c>
+      <c r="U37" s="28" t="s">
+        <v>49</v>
+      </c>
+      <c r="V37" s="28" t="s">
+        <v>38</v>
+      </c>
+      <c r="W37" s="28" t="s">
+        <v>48</v>
+      </c>
+      <c r="X37" s="28" t="s">
+        <v>218</v>
+      </c>
+      <c r="Y37" s="28" t="s">
+        <v>506</v>
+      </c>
+      <c r="Z37" s="28" t="s">
+        <v>610</v>
+      </c>
+      <c r="AA37" s="28">
+        <v>2</v>
+      </c>
+      <c r="AB37" s="28">
+        <v>2</v>
+      </c>
+      <c r="AC37" s="28">
+        <v>3</v>
+      </c>
+      <c r="AD37" s="28" t="s">
+        <v>504</v>
+      </c>
+      <c r="AE37" s="28"/>
+      <c r="AF37" s="28" t="s">
+        <v>259</v>
+      </c>
+      <c r="AG37" s="28" t="s">
+        <v>109</v>
+      </c>
+      <c r="AH37" s="28" t="s">
+        <v>122</v>
+      </c>
+      <c r="AI37" s="28" t="s">
+        <v>142</v>
+      </c>
+      <c r="AJ37" s="28"/>
+      <c r="AK37" s="28" t="s">
+        <v>143</v>
+      </c>
+      <c r="AL37" s="28" t="s">
+        <v>573</v>
+      </c>
+      <c r="AM37" s="28" t="s">
+        <v>235</v>
+      </c>
+      <c r="AN37" s="28"/>
+      <c r="AO37" s="28" t="s">
+        <v>640</v>
+      </c>
+      <c r="AP37" s="28"/>
+      <c r="AQ37" s="28" t="s">
+        <v>166</v>
+      </c>
+      <c r="AR37" s="28" t="s">
+        <v>241</v>
+      </c>
+      <c r="AS37" s="28"/>
+      <c r="AT37" s="28" t="s">
+        <v>572</v>
+      </c>
+      <c r="AU37" s="28" t="s">
+        <v>634</v>
+      </c>
+      <c r="AV37" s="28" t="s">
+        <v>207</v>
+      </c>
+      <c r="AW37" s="28" t="s">
+        <v>211</v>
+      </c>
+      <c r="AX37" s="54" t="s">
+        <v>638</v>
+      </c>
     </row>
     <row r="38" spans="1:50" s="10" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A38" s="52" t="s">
-        <v>425</v>
-      </c>
-      <c r="B38" s="52" t="s">
+      <c r="A38" s="29" t="s">
+        <v>409</v>
+      </c>
+      <c r="B38" s="29" t="s">
         <v>245</v>
       </c>
-      <c r="C38" s="52" t="s">
-        <v>426</v>
-      </c>
-      <c r="D38" s="52" t="s">
-        <v>427</v>
-      </c>
-      <c r="E38" s="53">
-        <v>1999</v>
-      </c>
-      <c r="F38" s="54" t="s">
-        <v>342</v>
-      </c>
-      <c r="G38" s="54" t="s">
-        <v>249</v>
-      </c>
-      <c r="H38" s="52" t="s">
-        <v>388</v>
-      </c>
-      <c r="I38" s="54" t="s">
-        <v>428</v>
-      </c>
-      <c r="J38" s="54" t="s">
-        <v>429</v>
-      </c>
-      <c r="K38" s="52" t="s">
-        <v>430</v>
-      </c>
-      <c r="L38" s="52" t="s">
+      <c r="C38" s="29" t="s">
+        <v>410</v>
+      </c>
+      <c r="D38" s="29" t="s">
+        <v>411</v>
+      </c>
+      <c r="E38" s="30">
+        <v>2000</v>
+      </c>
+      <c r="F38" s="28" t="s">
+        <v>412</v>
+      </c>
+      <c r="G38" s="28" t="s">
+        <v>413</v>
+      </c>
+      <c r="H38" s="29" t="s">
+        <v>371</v>
+      </c>
+      <c r="I38" s="28" t="s">
+        <v>414</v>
+      </c>
+      <c r="J38" s="28" t="s">
+        <v>415</v>
+      </c>
+      <c r="K38" s="29" t="s">
+        <v>416</v>
+      </c>
+      <c r="L38" s="29" t="s">
         <v>254</v>
       </c>
-      <c r="M38" s="54" t="s">
-        <v>431</v>
-      </c>
-      <c r="N38" s="54" t="s">
+      <c r="M38" s="28" t="s">
+        <v>417</v>
+      </c>
+      <c r="N38" s="28" t="s">
         <v>256</v>
       </c>
-      <c r="O38" s="54" t="s">
+      <c r="O38" s="28" t="s">
         <v>318</v>
       </c>
-      <c r="P38" s="54" t="s">
-        <v>350</v>
-      </c>
-      <c r="Q38" s="54" t="s">
+      <c r="P38" s="28" t="s">
+        <v>258</v>
+      </c>
+      <c r="Q38" s="28" t="s">
         <v>21</v>
       </c>
-      <c r="R38" s="54"/>
-      <c r="S38" s="54" t="s">
-        <v>31</v>
-      </c>
-      <c r="T38" s="54" t="s">
-        <v>44</v>
-      </c>
-      <c r="U38" s="54" t="s">
-        <v>56</v>
-      </c>
-      <c r="V38" s="54" t="s">
-        <v>40</v>
-      </c>
-      <c r="W38" s="54" t="s">
-        <v>50</v>
-      </c>
-      <c r="X38" s="54" t="s">
+      <c r="R38" s="28"/>
+      <c r="S38" s="28" t="s">
+        <v>26</v>
+      </c>
+      <c r="T38" s="28" t="s">
+        <v>39</v>
+      </c>
+      <c r="U38" s="28" t="s">
+        <v>49</v>
+      </c>
+      <c r="V38" s="28" t="s">
+        <v>38</v>
+      </c>
+      <c r="W38" s="28" t="s">
+        <v>48</v>
+      </c>
+      <c r="X38" s="28" t="s">
         <v>218</v>
       </c>
-      <c r="Y38" s="54" t="s">
-        <v>508</v>
-      </c>
-      <c r="Z38" s="54" t="s">
-        <v>614</v>
-      </c>
-      <c r="AA38" s="54">
+      <c r="Y38" s="28" t="s">
+        <v>506</v>
+      </c>
+      <c r="Z38" s="28" t="s">
+        <v>610</v>
+      </c>
+      <c r="AA38" s="28">
         <v>2</v>
       </c>
-      <c r="AB38" s="54">
+      <c r="AB38" s="28">
         <v>2</v>
       </c>
-      <c r="AC38" s="54">
+      <c r="AC38" s="28">
         <v>3</v>
       </c>
-      <c r="AD38" s="54" t="s">
-        <v>507</v>
-      </c>
-      <c r="AE38" s="54"/>
-      <c r="AF38" s="54" t="s">
-        <v>290</v>
-      </c>
-      <c r="AG38" s="54" t="s">
+      <c r="AD38" s="28" t="s">
+        <v>504</v>
+      </c>
+      <c r="AE38" s="28"/>
+      <c r="AF38" s="28" t="s">
+        <v>259</v>
+      </c>
+      <c r="AG38" s="28" t="s">
         <v>109</v>
       </c>
-      <c r="AH38" s="54" t="s">
-        <v>119</v>
-      </c>
-      <c r="AI38" s="54" t="s">
-        <v>149</v>
-      </c>
-      <c r="AJ38" s="54"/>
-      <c r="AK38" s="54"/>
-      <c r="AL38" s="54" t="s">
-        <v>580</v>
-      </c>
-      <c r="AM38" s="54" t="s">
-        <v>234</v>
-      </c>
-      <c r="AN38" s="54" t="s">
-        <v>162</v>
-      </c>
-      <c r="AO38" s="54" t="s">
-        <v>579</v>
-      </c>
-      <c r="AP38" s="54" t="s">
-        <v>577</v>
-      </c>
-      <c r="AQ38" s="54" t="s">
+      <c r="AH38" s="28" t="s">
+        <v>122</v>
+      </c>
+      <c r="AI38" s="28" t="s">
+        <v>142</v>
+      </c>
+      <c r="AJ38" s="28"/>
+      <c r="AK38" s="28" t="s">
+        <v>143</v>
+      </c>
+      <c r="AL38" s="28" t="s">
+        <v>573</v>
+      </c>
+      <c r="AM38" s="28" t="s">
+        <v>235</v>
+      </c>
+      <c r="AN38" s="28"/>
+      <c r="AO38" s="28" t="s">
+        <v>640</v>
+      </c>
+      <c r="AP38" s="28"/>
+      <c r="AQ38" s="28" t="s">
         <v>166</v>
       </c>
-      <c r="AR38" s="54" t="s">
-        <v>171</v>
-      </c>
-      <c r="AS38" s="54" t="s">
-        <v>183</v>
-      </c>
-      <c r="AT38" s="54" t="s">
-        <v>578</v>
-      </c>
-      <c r="AU38" s="54" t="s">
-        <v>509</v>
-      </c>
-      <c r="AV38" s="54" t="s">
-        <v>208</v>
-      </c>
-      <c r="AW38" s="54" t="s">
-        <v>209</v>
+      <c r="AR38" s="28" t="s">
+        <v>241</v>
+      </c>
+      <c r="AS38" s="28"/>
+      <c r="AT38" s="28" t="s">
+        <v>572</v>
+      </c>
+      <c r="AU38" s="28" t="s">
+        <v>635</v>
+      </c>
+      <c r="AV38" s="28" t="s">
+        <v>207</v>
+      </c>
+      <c r="AW38" s="28" t="s">
+        <v>211</v>
       </c>
       <c r="AX38" s="54" t="s">
-        <v>510</v>
+        <v>639</v>
       </c>
     </row>
     <row r="39" spans="1:50" s="10" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A39" s="29" t="s">
+      <c r="A39" s="44" t="s">
+        <v>418</v>
+      </c>
+      <c r="B39" s="44" t="s">
+        <v>245</v>
+      </c>
+      <c r="C39" s="44" t="s">
+        <v>419</v>
+      </c>
+      <c r="D39" s="44" t="s">
+        <v>420</v>
+      </c>
+      <c r="E39" s="45">
+        <v>2000</v>
+      </c>
+      <c r="F39" s="46" t="s">
+        <v>412</v>
+      </c>
+      <c r="G39" s="46" t="s">
+        <v>413</v>
+      </c>
+      <c r="H39" s="44" t="s">
+        <v>371</v>
+      </c>
+      <c r="I39" s="46" t="s">
+        <v>421</v>
+      </c>
+      <c r="J39" s="46" t="s">
+        <v>422</v>
+      </c>
+      <c r="K39" s="44" t="s">
+        <v>423</v>
+      </c>
+      <c r="L39" s="44" t="s">
+        <v>254</v>
+      </c>
+      <c r="M39" s="46" t="s">
+        <v>424</v>
+      </c>
+      <c r="N39" s="46" t="s">
+        <v>256</v>
+      </c>
+      <c r="O39" s="46" t="s">
+        <v>318</v>
+      </c>
+      <c r="P39" s="46" t="s">
+        <v>258</v>
+      </c>
+      <c r="Q39" s="46" t="s">
+        <v>21</v>
+      </c>
+      <c r="R39" s="46" t="s">
+        <v>84</v>
+      </c>
+      <c r="S39" s="46"/>
+      <c r="T39" s="46"/>
+      <c r="U39" s="46"/>
+      <c r="V39" s="46"/>
+      <c r="W39" s="46"/>
+      <c r="X39" s="46"/>
+      <c r="Y39" s="46"/>
+      <c r="Z39" s="46"/>
+      <c r="AA39" s="46"/>
+      <c r="AB39" s="46"/>
+      <c r="AC39" s="46"/>
+      <c r="AD39" s="46"/>
+      <c r="AE39" s="46"/>
+      <c r="AF39" s="46" t="s">
+        <v>290</v>
+      </c>
+      <c r="AG39" s="46"/>
+      <c r="AH39" s="46"/>
+      <c r="AI39" s="46"/>
+      <c r="AJ39" s="46"/>
+      <c r="AK39" s="46"/>
+      <c r="AL39" s="46"/>
+      <c r="AM39" s="46"/>
+      <c r="AN39" s="46"/>
+      <c r="AO39" s="46"/>
+      <c r="AP39" s="46"/>
+      <c r="AQ39" s="46"/>
+      <c r="AR39" s="46"/>
+      <c r="AS39" s="46"/>
+      <c r="AT39" s="46"/>
+      <c r="AU39" s="46"/>
+      <c r="AV39" s="46"/>
+      <c r="AW39" s="46"/>
+      <c r="AX39" s="46"/>
+    </row>
+    <row r="40" spans="1:50" s="10" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A40" s="52" t="s">
         <v>425</v>
-      </c>
-      <c r="B39" s="29" t="s">
-        <v>245</v>
-      </c>
-      <c r="C39" s="29" t="s">
-        <v>426</v>
-      </c>
-      <c r="D39" s="29" t="s">
-        <v>427</v>
-      </c>
-      <c r="E39" s="30">
-        <v>1999</v>
-      </c>
-      <c r="F39" s="28" t="s">
-        <v>342</v>
-      </c>
-      <c r="G39" s="28" t="s">
-        <v>249</v>
-      </c>
-      <c r="H39" s="29" t="s">
-        <v>388</v>
-      </c>
-      <c r="I39" s="28" t="s">
-        <v>428</v>
-      </c>
-      <c r="J39" s="28" t="s">
-        <v>429</v>
-      </c>
-      <c r="K39" s="29" t="s">
-        <v>430</v>
-      </c>
-      <c r="L39" s="29" t="s">
-        <v>254</v>
-      </c>
-      <c r="M39" s="28" t="s">
-        <v>431</v>
-      </c>
-      <c r="N39" s="28" t="s">
-        <v>256</v>
-      </c>
-      <c r="O39" s="28" t="s">
-        <v>318</v>
-      </c>
-      <c r="P39" s="28" t="s">
-        <v>350</v>
-      </c>
-      <c r="Q39" s="28" t="s">
-        <v>21</v>
-      </c>
-      <c r="R39" s="28"/>
-      <c r="S39" s="28" t="s">
-        <v>31</v>
-      </c>
-      <c r="T39" s="28" t="s">
-        <v>44</v>
-      </c>
-      <c r="U39" s="28" t="s">
-        <v>56</v>
-      </c>
-      <c r="V39" s="28" t="s">
-        <v>40</v>
-      </c>
-      <c r="W39" s="28" t="s">
-        <v>50</v>
-      </c>
-      <c r="X39" s="28" t="s">
-        <v>218</v>
-      </c>
-      <c r="Y39" s="28" t="s">
-        <v>508</v>
-      </c>
-      <c r="Z39" s="28" t="s">
-        <v>614</v>
-      </c>
-      <c r="AA39" s="28">
-        <v>2</v>
-      </c>
-      <c r="AB39" s="28">
-        <v>2</v>
-      </c>
-      <c r="AC39" s="28">
-        <v>3</v>
-      </c>
-      <c r="AD39" s="28" t="s">
-        <v>507</v>
-      </c>
-      <c r="AE39" s="28"/>
-      <c r="AF39" s="28" t="s">
-        <v>290</v>
-      </c>
-      <c r="AG39" s="28" t="s">
-        <v>109</v>
-      </c>
-      <c r="AH39" s="28" t="s">
-        <v>119</v>
-      </c>
-      <c r="AI39" s="28" t="s">
-        <v>149</v>
-      </c>
-      <c r="AJ39" s="28"/>
-      <c r="AK39" s="28"/>
-      <c r="AL39" s="28" t="s">
-        <v>580</v>
-      </c>
-      <c r="AM39" s="28" t="s">
-        <v>234</v>
-      </c>
-      <c r="AN39" s="28" t="s">
-        <v>162</v>
-      </c>
-      <c r="AO39" s="28" t="s">
-        <v>579</v>
-      </c>
-      <c r="AP39" s="28" t="s">
-        <v>577</v>
-      </c>
-      <c r="AQ39" s="28" t="s">
-        <v>166</v>
-      </c>
-      <c r="AR39" s="28" t="s">
-        <v>171</v>
-      </c>
-      <c r="AS39" s="28" t="s">
-        <v>183</v>
-      </c>
-      <c r="AT39" s="28" t="s">
-        <v>578</v>
-      </c>
-      <c r="AU39" s="28" t="s">
-        <v>535</v>
-      </c>
-      <c r="AV39" s="28" t="s">
-        <v>201</v>
-      </c>
-      <c r="AW39" s="28" t="s">
-        <v>209</v>
-      </c>
-      <c r="AX39" s="28" t="s">
-        <v>510</v>
-      </c>
-    </row>
-    <row r="40" spans="1:50" s="10" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A40" s="52" t="s">
-        <v>432</v>
       </c>
       <c r="B40" s="52" t="s">
         <v>245</v>
       </c>
       <c r="C40" s="52" t="s">
-        <v>433</v>
+        <v>426</v>
       </c>
       <c r="D40" s="52" t="s">
-        <v>434</v>
+        <v>427</v>
       </c>
       <c r="E40" s="53">
         <v>1999</v>
       </c>
       <c r="F40" s="54" t="s">
-        <v>412</v>
+        <v>342</v>
       </c>
       <c r="G40" s="54" t="s">
-        <v>435</v>
+        <v>249</v>
       </c>
       <c r="H40" s="52" t="s">
-        <v>275</v>
+        <v>388</v>
       </c>
       <c r="I40" s="54" t="s">
-        <v>436</v>
+        <v>428</v>
       </c>
       <c r="J40" s="54" t="s">
-        <v>437</v>
+        <v>429</v>
       </c>
       <c r="K40" s="52" t="s">
-        <v>438</v>
+        <v>430</v>
       </c>
       <c r="L40" s="52" t="s">
         <v>254</v>
       </c>
       <c r="M40" s="54" t="s">
-        <v>439</v>
+        <v>431</v>
       </c>
       <c r="N40" s="54" t="s">
         <v>256</v>
       </c>
       <c r="O40" s="54" t="s">
-        <v>257</v>
+        <v>318</v>
       </c>
       <c r="P40" s="54" t="s">
-        <v>258</v>
+        <v>350</v>
       </c>
       <c r="Q40" s="54" t="s">
         <v>21</v>
       </c>
       <c r="R40" s="54"/>
       <c r="S40" s="54" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="T40" s="54" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="U40" s="54" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="V40" s="54" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="W40" s="54" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="X40" s="54" t="s">
         <v>218</v>
       </c>
       <c r="Y40" s="54" t="s">
-        <v>512</v>
+        <v>508</v>
       </c>
       <c r="Z40" s="54" t="s">
-        <v>511</v>
+        <v>611</v>
       </c>
       <c r="AA40" s="54">
         <v>2</v>
@@ -10028,25 +10032,27 @@
       <c r="AC40" s="54">
         <v>3</v>
       </c>
-      <c r="AD40" s="55" t="s">
-        <v>513</v>
+      <c r="AD40" s="54" t="s">
+        <v>507</v>
       </c>
       <c r="AE40" s="54"/>
       <c r="AF40" s="54" t="s">
-        <v>319</v>
+        <v>290</v>
       </c>
       <c r="AG40" s="54" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="AH40" s="54" t="s">
         <v>119</v>
       </c>
       <c r="AI40" s="54" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="AJ40" s="54"/>
       <c r="AK40" s="54"/>
-      <c r="AL40" s="54"/>
+      <c r="AL40" s="54" t="s">
+        <v>577</v>
+      </c>
       <c r="AM40" s="54" t="s">
         <v>234</v>
       </c>
@@ -10054,110 +10060,112 @@
         <v>162</v>
       </c>
       <c r="AO40" s="54" t="s">
-        <v>581</v>
-      </c>
-      <c r="AP40" s="54"/>
+        <v>576</v>
+      </c>
+      <c r="AP40" s="54" t="s">
+        <v>574</v>
+      </c>
       <c r="AQ40" s="54" t="s">
         <v>166</v>
       </c>
       <c r="AR40" s="54" t="s">
-        <v>241</v>
+        <v>171</v>
       </c>
       <c r="AS40" s="54" t="s">
-        <v>178</v>
+        <v>183</v>
       </c>
       <c r="AT40" s="54" t="s">
-        <v>583</v>
+        <v>575</v>
       </c>
       <c r="AU40" s="54" t="s">
-        <v>582</v>
+        <v>509</v>
       </c>
       <c r="AV40" s="54" t="s">
-        <v>201</v>
+        <v>208</v>
       </c>
       <c r="AW40" s="54" t="s">
-        <v>211</v>
-      </c>
-      <c r="AX40" s="55" t="s">
-        <v>584</v>
+        <v>209</v>
+      </c>
+      <c r="AX40" s="54" t="s">
+        <v>510</v>
       </c>
     </row>
-    <row r="41" spans="1:50" s="10" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:50" s="10" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A41" s="29" t="s">
-        <v>432</v>
+        <v>425</v>
       </c>
       <c r="B41" s="29" t="s">
         <v>245</v>
       </c>
       <c r="C41" s="29" t="s">
-        <v>433</v>
+        <v>426</v>
       </c>
       <c r="D41" s="29" t="s">
-        <v>434</v>
+        <v>427</v>
       </c>
       <c r="E41" s="30">
         <v>1999</v>
       </c>
       <c r="F41" s="28" t="s">
-        <v>412</v>
+        <v>342</v>
       </c>
       <c r="G41" s="28" t="s">
-        <v>435</v>
+        <v>249</v>
       </c>
       <c r="H41" s="29" t="s">
-        <v>275</v>
+        <v>388</v>
       </c>
       <c r="I41" s="28" t="s">
-        <v>436</v>
+        <v>428</v>
       </c>
       <c r="J41" s="28" t="s">
-        <v>437</v>
+        <v>429</v>
       </c>
       <c r="K41" s="29" t="s">
-        <v>438</v>
+        <v>430</v>
       </c>
       <c r="L41" s="29" t="s">
         <v>254</v>
       </c>
       <c r="M41" s="28" t="s">
-        <v>439</v>
+        <v>431</v>
       </c>
       <c r="N41" s="28" t="s">
         <v>256</v>
       </c>
       <c r="O41" s="28" t="s">
-        <v>257</v>
+        <v>318</v>
       </c>
       <c r="P41" s="28" t="s">
-        <v>258</v>
+        <v>350</v>
       </c>
       <c r="Q41" s="28" t="s">
         <v>21</v>
       </c>
       <c r="R41" s="28"/>
       <c r="S41" s="28" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="T41" s="28" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="U41" s="28" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="V41" s="28" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="W41" s="28" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="X41" s="28" t="s">
         <v>218</v>
       </c>
       <c r="Y41" s="28" t="s">
-        <v>512</v>
+        <v>508</v>
       </c>
       <c r="Z41" s="28" t="s">
-        <v>511</v>
+        <v>611</v>
       </c>
       <c r="AA41" s="28">
         <v>2</v>
@@ -10168,25 +10176,27 @@
       <c r="AC41" s="28">
         <v>3</v>
       </c>
-      <c r="AD41" s="31" t="s">
-        <v>513</v>
+      <c r="AD41" s="28" t="s">
+        <v>507</v>
       </c>
       <c r="AE41" s="28"/>
       <c r="AF41" s="28" t="s">
-        <v>319</v>
+        <v>290</v>
       </c>
       <c r="AG41" s="28" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="AH41" s="28" t="s">
         <v>119</v>
       </c>
       <c r="AI41" s="28" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="AJ41" s="28"/>
       <c r="AK41" s="28"/>
-      <c r="AL41" s="28"/>
+      <c r="AL41" s="28" t="s">
+        <v>577</v>
+      </c>
       <c r="AM41" s="28" t="s">
         <v>234</v>
       </c>
@@ -10194,172 +10204,174 @@
         <v>162</v>
       </c>
       <c r="AO41" s="28" t="s">
-        <v>581</v>
-      </c>
-      <c r="AP41" s="28"/>
+        <v>576</v>
+      </c>
+      <c r="AP41" s="28" t="s">
+        <v>574</v>
+      </c>
       <c r="AQ41" s="28" t="s">
         <v>166</v>
       </c>
       <c r="AR41" s="28" t="s">
-        <v>241</v>
+        <v>171</v>
       </c>
       <c r="AS41" s="28" t="s">
-        <v>178</v>
+        <v>183</v>
       </c>
       <c r="AT41" s="28" t="s">
-        <v>583</v>
+        <v>575</v>
       </c>
       <c r="AU41" s="28" t="s">
-        <v>587</v>
+        <v>535</v>
       </c>
       <c r="AV41" s="28" t="s">
         <v>201</v>
       </c>
       <c r="AW41" s="28" t="s">
-        <v>210</v>
-      </c>
-      <c r="AX41" s="31" t="s">
-        <v>585</v>
+        <v>209</v>
+      </c>
+      <c r="AX41" s="28" t="s">
+        <v>510</v>
       </c>
     </row>
     <row r="42" spans="1:50" s="10" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A42" s="29" t="s">
+      <c r="A42" s="52" t="s">
         <v>432</v>
       </c>
-      <c r="B42" s="29" t="s">
+      <c r="B42" s="52" t="s">
         <v>245</v>
       </c>
-      <c r="C42" s="29" t="s">
+      <c r="C42" s="52" t="s">
         <v>433</v>
       </c>
-      <c r="D42" s="29" t="s">
+      <c r="D42" s="52" t="s">
         <v>434</v>
       </c>
-      <c r="E42" s="30">
+      <c r="E42" s="53">
         <v>1999</v>
       </c>
-      <c r="F42" s="28" t="s">
+      <c r="F42" s="54" t="s">
         <v>412</v>
       </c>
-      <c r="G42" s="28" t="s">
+      <c r="G42" s="54" t="s">
         <v>435</v>
       </c>
-      <c r="H42" s="29" t="s">
+      <c r="H42" s="52" t="s">
         <v>275</v>
       </c>
-      <c r="I42" s="28" t="s">
+      <c r="I42" s="54" t="s">
         <v>436</v>
       </c>
-      <c r="J42" s="28" t="s">
+      <c r="J42" s="54" t="s">
         <v>437</v>
       </c>
-      <c r="K42" s="29" t="s">
+      <c r="K42" s="52" t="s">
         <v>438</v>
       </c>
-      <c r="L42" s="29" t="s">
+      <c r="L42" s="52" t="s">
         <v>254</v>
       </c>
-      <c r="M42" s="28" t="s">
+      <c r="M42" s="54" t="s">
         <v>439</v>
       </c>
-      <c r="N42" s="28" t="s">
+      <c r="N42" s="54" t="s">
         <v>256</v>
       </c>
-      <c r="O42" s="28" t="s">
+      <c r="O42" s="54" t="s">
         <v>257</v>
       </c>
-      <c r="P42" s="28" t="s">
+      <c r="P42" s="54" t="s">
         <v>258</v>
       </c>
-      <c r="Q42" s="28" t="s">
+      <c r="Q42" s="54" t="s">
         <v>21</v>
       </c>
-      <c r="R42" s="28"/>
-      <c r="S42" s="28" t="s">
+      <c r="R42" s="54"/>
+      <c r="S42" s="54" t="s">
         <v>26</v>
       </c>
-      <c r="T42" s="28" t="s">
+      <c r="T42" s="54" t="s">
         <v>45</v>
       </c>
-      <c r="U42" s="28" t="s">
+      <c r="U42" s="54" t="s">
         <v>53</v>
       </c>
-      <c r="V42" s="28" t="s">
+      <c r="V42" s="54" t="s">
         <v>44</v>
       </c>
-      <c r="W42" s="28" t="s">
+      <c r="W42" s="54" t="s">
         <v>48</v>
       </c>
-      <c r="X42" s="28" t="s">
+      <c r="X42" s="54" t="s">
         <v>218</v>
       </c>
-      <c r="Y42" s="28" t="s">
+      <c r="Y42" s="54" t="s">
         <v>512</v>
       </c>
-      <c r="Z42" s="28" t="s">
+      <c r="Z42" s="54" t="s">
         <v>511</v>
       </c>
-      <c r="AA42" s="28">
+      <c r="AA42" s="54">
         <v>2</v>
       </c>
-      <c r="AB42" s="28">
+      <c r="AB42" s="54">
         <v>2</v>
       </c>
-      <c r="AC42" s="28">
+      <c r="AC42" s="54">
         <v>3</v>
       </c>
-      <c r="AD42" s="31" t="s">
+      <c r="AD42" s="55" t="s">
         <v>513</v>
       </c>
-      <c r="AE42" s="28"/>
-      <c r="AF42" s="28" t="s">
+      <c r="AE42" s="54"/>
+      <c r="AF42" s="54" t="s">
         <v>319</v>
       </c>
-      <c r="AG42" s="28" t="s">
+      <c r="AG42" s="54" t="s">
         <v>112</v>
       </c>
-      <c r="AH42" s="28" t="s">
+      <c r="AH42" s="54" t="s">
         <v>119</v>
       </c>
-      <c r="AI42" s="28" t="s">
+      <c r="AI42" s="54" t="s">
         <v>146</v>
       </c>
-      <c r="AJ42" s="28"/>
-      <c r="AK42" s="28"/>
-      <c r="AL42" s="28"/>
-      <c r="AM42" s="28" t="s">
+      <c r="AJ42" s="54"/>
+      <c r="AK42" s="54"/>
+      <c r="AL42" s="54"/>
+      <c r="AM42" s="54" t="s">
         <v>234</v>
       </c>
-      <c r="AN42" s="28" t="s">
+      <c r="AN42" s="54" t="s">
         <v>162</v>
       </c>
-      <c r="AO42" s="28" t="s">
+      <c r="AO42" s="54" t="s">
+        <v>578</v>
+      </c>
+      <c r="AP42" s="54"/>
+      <c r="AQ42" s="54" t="s">
+        <v>166</v>
+      </c>
+      <c r="AR42" s="54" t="s">
+        <v>241</v>
+      </c>
+      <c r="AS42" s="54" t="s">
+        <v>178</v>
+      </c>
+      <c r="AT42" s="54" t="s">
+        <v>580</v>
+      </c>
+      <c r="AU42" s="54" t="s">
+        <v>579</v>
+      </c>
+      <c r="AV42" s="54" t="s">
+        <v>201</v>
+      </c>
+      <c r="AW42" s="54" t="s">
+        <v>211</v>
+      </c>
+      <c r="AX42" s="55" t="s">
         <v>581</v>
-      </c>
-      <c r="AP42" s="28"/>
-      <c r="AQ42" s="28" t="s">
-        <v>166</v>
-      </c>
-      <c r="AR42" s="28" t="s">
-        <v>241</v>
-      </c>
-      <c r="AS42" s="28" t="s">
-        <v>178</v>
-      </c>
-      <c r="AT42" s="28" t="s">
-        <v>583</v>
-      </c>
-      <c r="AU42" s="28" t="s">
-        <v>586</v>
-      </c>
-      <c r="AV42" s="28" t="s">
-        <v>201</v>
-      </c>
-      <c r="AW42" s="28" t="s">
-        <v>210</v>
-      </c>
-      <c r="AX42" s="31" t="s">
-        <v>590</v>
       </c>
     </row>
     <row r="43" spans="1:50" s="10" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -10474,7 +10486,7 @@
         <v>162</v>
       </c>
       <c r="AO43" s="28" t="s">
-        <v>581</v>
+        <v>578</v>
       </c>
       <c r="AP43" s="28"/>
       <c r="AQ43" s="28" t="s">
@@ -10487,19 +10499,19 @@
         <v>178</v>
       </c>
       <c r="AT43" s="28" t="s">
-        <v>583</v>
+        <v>580</v>
       </c>
       <c r="AU43" s="28" t="s">
-        <v>588</v>
+        <v>584</v>
       </c>
       <c r="AV43" s="28" t="s">
         <v>201</v>
       </c>
       <c r="AW43" s="28" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="AX43" s="31" t="s">
-        <v>589</v>
+        <v>582</v>
       </c>
     </row>
     <row r="44" spans="1:50" s="10" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -10614,7 +10626,7 @@
         <v>162</v>
       </c>
       <c r="AO44" s="28" t="s">
-        <v>581</v>
+        <v>578</v>
       </c>
       <c r="AP44" s="28"/>
       <c r="AQ44" s="28" t="s">
@@ -10627,171 +10639,173 @@
         <v>178</v>
       </c>
       <c r="AT44" s="28" t="s">
+        <v>580</v>
+      </c>
+      <c r="AU44" s="28" t="s">
         <v>583</v>
-      </c>
-      <c r="AU44" s="28" t="s">
-        <v>592</v>
       </c>
       <c r="AV44" s="28" t="s">
         <v>201</v>
       </c>
       <c r="AW44" s="28" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="AX44" s="31" t="s">
-        <v>591</v>
+        <v>587</v>
       </c>
     </row>
-    <row r="45" spans="1:50" s="10" customFormat="1" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A45" s="52" t="s">
-        <v>440</v>
-      </c>
-      <c r="B45" s="52" t="s">
+    <row r="45" spans="1:50" s="10" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A45" s="29" t="s">
+        <v>432</v>
+      </c>
+      <c r="B45" s="29" t="s">
         <v>245</v>
       </c>
-      <c r="C45" s="52" t="s">
-        <v>441</v>
-      </c>
-      <c r="D45" s="52" t="s">
-        <v>442</v>
-      </c>
-      <c r="E45" s="53">
+      <c r="C45" s="29" t="s">
+        <v>433</v>
+      </c>
+      <c r="D45" s="29" t="s">
+        <v>434</v>
+      </c>
+      <c r="E45" s="30">
         <v>1999</v>
       </c>
-      <c r="F45" s="54" t="s">
+      <c r="F45" s="28" t="s">
         <v>412</v>
       </c>
-      <c r="G45" s="54" t="s">
+      <c r="G45" s="28" t="s">
         <v>435</v>
       </c>
-      <c r="H45" s="52" t="s">
+      <c r="H45" s="29" t="s">
         <v>275</v>
       </c>
-      <c r="I45" s="54" t="s">
-        <v>443</v>
-      </c>
-      <c r="J45" s="54" t="s">
-        <v>444</v>
-      </c>
-      <c r="K45" s="52" t="s">
-        <v>445</v>
-      </c>
-      <c r="L45" s="52" t="s">
+      <c r="I45" s="28" t="s">
+        <v>436</v>
+      </c>
+      <c r="J45" s="28" t="s">
+        <v>437</v>
+      </c>
+      <c r="K45" s="29" t="s">
+        <v>438</v>
+      </c>
+      <c r="L45" s="29" t="s">
         <v>254</v>
       </c>
-      <c r="M45" s="54" t="s">
-        <v>446</v>
-      </c>
-      <c r="N45" s="54" t="s">
+      <c r="M45" s="28" t="s">
+        <v>439</v>
+      </c>
+      <c r="N45" s="28" t="s">
         <v>256</v>
       </c>
-      <c r="O45" s="54" t="s">
+      <c r="O45" s="28" t="s">
         <v>257</v>
       </c>
-      <c r="P45" s="54" t="s">
-        <v>308</v>
-      </c>
-      <c r="Q45" s="54" t="s">
+      <c r="P45" s="28" t="s">
+        <v>258</v>
+      </c>
+      <c r="Q45" s="28" t="s">
         <v>21</v>
       </c>
-      <c r="R45" s="54"/>
-      <c r="S45" s="54" t="s">
+      <c r="R45" s="28"/>
+      <c r="S45" s="28" t="s">
         <v>26</v>
       </c>
-      <c r="T45" s="54" t="s">
-        <v>41</v>
-      </c>
-      <c r="U45" s="54" t="s">
+      <c r="T45" s="28" t="s">
+        <v>45</v>
+      </c>
+      <c r="U45" s="28" t="s">
+        <v>53</v>
+      </c>
+      <c r="V45" s="28" t="s">
+        <v>44</v>
+      </c>
+      <c r="W45" s="28" t="s">
         <v>48</v>
       </c>
-      <c r="V45" s="54" t="s">
-        <v>42</v>
-      </c>
-      <c r="W45" s="54" t="s">
-        <v>47</v>
-      </c>
-      <c r="X45" s="54" t="s">
+      <c r="X45" s="28" t="s">
         <v>218</v>
       </c>
-      <c r="Y45" s="54" t="s">
-        <v>516</v>
-      </c>
-      <c r="Z45" s="54" t="s">
-        <v>615</v>
-      </c>
-      <c r="AA45" s="54">
+      <c r="Y45" s="28" t="s">
+        <v>512</v>
+      </c>
+      <c r="Z45" s="28" t="s">
+        <v>511</v>
+      </c>
+      <c r="AA45" s="28">
         <v>2</v>
       </c>
-      <c r="AB45" s="54">
+      <c r="AB45" s="28">
         <v>2</v>
       </c>
-      <c r="AC45" s="54">
+      <c r="AC45" s="28">
         <v>3</v>
       </c>
-      <c r="AD45" s="54" t="s">
-        <v>515</v>
-      </c>
-      <c r="AE45" s="54"/>
-      <c r="AF45" s="54" t="s">
-        <v>259</v>
-      </c>
-      <c r="AG45" s="54" t="s">
-        <v>109</v>
-      </c>
-      <c r="AH45" s="54" t="s">
-        <v>122</v>
-      </c>
-      <c r="AI45" s="54"/>
-      <c r="AJ45" s="54"/>
-      <c r="AK45" s="54" t="s">
-        <v>143</v>
-      </c>
-      <c r="AL45" s="54"/>
-      <c r="AM45" s="54" t="s">
-        <v>235</v>
-      </c>
-      <c r="AN45" s="54"/>
-      <c r="AO45" s="54" t="s">
-        <v>599</v>
-      </c>
-      <c r="AP45" s="54"/>
-      <c r="AQ45" s="54" t="s">
+      <c r="AD45" s="31" t="s">
+        <v>513</v>
+      </c>
+      <c r="AE45" s="28"/>
+      <c r="AF45" s="28" t="s">
+        <v>319</v>
+      </c>
+      <c r="AG45" s="28" t="s">
+        <v>112</v>
+      </c>
+      <c r="AH45" s="28" t="s">
+        <v>119</v>
+      </c>
+      <c r="AI45" s="28" t="s">
+        <v>146</v>
+      </c>
+      <c r="AJ45" s="28"/>
+      <c r="AK45" s="28"/>
+      <c r="AL45" s="28"/>
+      <c r="AM45" s="28" t="s">
+        <v>234</v>
+      </c>
+      <c r="AN45" s="28" t="s">
+        <v>162</v>
+      </c>
+      <c r="AO45" s="28" t="s">
+        <v>578</v>
+      </c>
+      <c r="AP45" s="28"/>
+      <c r="AQ45" s="28" t="s">
         <v>166</v>
       </c>
-      <c r="AR45" s="54" t="s">
+      <c r="AR45" s="28" t="s">
         <v>241</v>
       </c>
-      <c r="AS45" s="54" t="s">
+      <c r="AS45" s="28" t="s">
         <v>178</v>
       </c>
-      <c r="AT45" s="54" t="s">
-        <v>514</v>
-      </c>
-      <c r="AU45" s="54" t="s">
-        <v>597</v>
-      </c>
-      <c r="AV45" s="54" t="s">
+      <c r="AT45" s="28" t="s">
+        <v>580</v>
+      </c>
+      <c r="AU45" s="28" t="s">
+        <v>585</v>
+      </c>
+      <c r="AV45" s="28" t="s">
         <v>201</v>
       </c>
-      <c r="AW45" s="54" t="s">
-        <v>210</v>
-      </c>
-      <c r="AX45" s="55" t="s">
-        <v>596</v>
+      <c r="AW45" s="28" t="s">
+        <v>209</v>
+      </c>
+      <c r="AX45" s="31" t="s">
+        <v>586</v>
       </c>
     </row>
-    <row r="46" spans="1:50" s="10" customFormat="1" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:50" s="10" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A46" s="29" t="s">
-        <v>440</v>
+        <v>432</v>
       </c>
       <c r="B46" s="29" t="s">
         <v>245</v>
       </c>
       <c r="C46" s="29" t="s">
-        <v>441</v>
+        <v>433</v>
       </c>
       <c r="D46" s="29" t="s">
-        <v>442</v>
+        <v>434</v>
       </c>
       <c r="E46" s="30">
         <v>1999</v>
@@ -10806,19 +10820,19 @@
         <v>275</v>
       </c>
       <c r="I46" s="28" t="s">
-        <v>443</v>
+        <v>436</v>
       </c>
       <c r="J46" s="28" t="s">
-        <v>444</v>
+        <v>437</v>
       </c>
       <c r="K46" s="29" t="s">
-        <v>445</v>
+        <v>438</v>
       </c>
       <c r="L46" s="29" t="s">
         <v>254</v>
       </c>
       <c r="M46" s="28" t="s">
-        <v>446</v>
+        <v>439</v>
       </c>
       <c r="N46" s="28" t="s">
         <v>256</v>
@@ -10827,7 +10841,7 @@
         <v>257</v>
       </c>
       <c r="P46" s="28" t="s">
-        <v>308</v>
+        <v>258</v>
       </c>
       <c r="Q46" s="28" t="s">
         <v>21</v>
@@ -10837,25 +10851,25 @@
         <v>26</v>
       </c>
       <c r="T46" s="28" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="U46" s="28" t="s">
+        <v>53</v>
+      </c>
+      <c r="V46" s="28" t="s">
+        <v>44</v>
+      </c>
+      <c r="W46" s="28" t="s">
         <v>48</v>
-      </c>
-      <c r="V46" s="28" t="s">
-        <v>42</v>
-      </c>
-      <c r="W46" s="28" t="s">
-        <v>47</v>
       </c>
       <c r="X46" s="28" t="s">
         <v>218</v>
       </c>
       <c r="Y46" s="28" t="s">
-        <v>516</v>
+        <v>512</v>
       </c>
       <c r="Z46" s="28" t="s">
-        <v>615</v>
+        <v>511</v>
       </c>
       <c r="AA46" s="28">
         <v>2</v>
@@ -10866,31 +10880,33 @@
       <c r="AC46" s="28">
         <v>3</v>
       </c>
-      <c r="AD46" s="28" t="s">
-        <v>515</v>
+      <c r="AD46" s="31" t="s">
+        <v>513</v>
       </c>
       <c r="AE46" s="28"/>
       <c r="AF46" s="28" t="s">
-        <v>259</v>
+        <v>319</v>
       </c>
       <c r="AG46" s="28" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="AH46" s="28" t="s">
-        <v>122</v>
-      </c>
-      <c r="AI46" s="28"/>
+        <v>119</v>
+      </c>
+      <c r="AI46" s="28" t="s">
+        <v>146</v>
+      </c>
       <c r="AJ46" s="28"/>
-      <c r="AK46" s="28" t="s">
-        <v>143</v>
-      </c>
+      <c r="AK46" s="28"/>
       <c r="AL46" s="28"/>
       <c r="AM46" s="28" t="s">
-        <v>235</v>
-      </c>
-      <c r="AN46" s="28"/>
+        <v>234</v>
+      </c>
+      <c r="AN46" s="28" t="s">
+        <v>162</v>
+      </c>
       <c r="AO46" s="28" t="s">
-        <v>599</v>
+        <v>578</v>
       </c>
       <c r="AP46" s="28"/>
       <c r="AQ46" s="28" t="s">
@@ -10903,373 +10919,373 @@
         <v>178</v>
       </c>
       <c r="AT46" s="28" t="s">
-        <v>514</v>
+        <v>580</v>
       </c>
       <c r="AU46" s="28" t="s">
-        <v>593</v>
+        <v>589</v>
       </c>
       <c r="AV46" s="28" t="s">
         <v>201</v>
       </c>
       <c r="AW46" s="28" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="AX46" s="31" t="s">
-        <v>595</v>
+        <v>588</v>
       </c>
     </row>
     <row r="47" spans="1:50" s="10" customFormat="1" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A47" s="29" t="s">
+      <c r="A47" s="52" t="s">
         <v>440</v>
       </c>
-      <c r="B47" s="29" t="s">
+      <c r="B47" s="52" t="s">
         <v>245</v>
       </c>
-      <c r="C47" s="29" t="s">
+      <c r="C47" s="52" t="s">
         <v>441</v>
       </c>
-      <c r="D47" s="29" t="s">
+      <c r="D47" s="52" t="s">
         <v>442</v>
       </c>
-      <c r="E47" s="30">
+      <c r="E47" s="53">
         <v>1999</v>
       </c>
-      <c r="F47" s="28" t="s">
+      <c r="F47" s="54" t="s">
         <v>412</v>
       </c>
-      <c r="G47" s="28" t="s">
+      <c r="G47" s="54" t="s">
         <v>435</v>
       </c>
-      <c r="H47" s="29" t="s">
+      <c r="H47" s="52" t="s">
         <v>275</v>
       </c>
-      <c r="I47" s="28" t="s">
+      <c r="I47" s="54" t="s">
         <v>443</v>
       </c>
-      <c r="J47" s="28" t="s">
+      <c r="J47" s="54" t="s">
         <v>444</v>
       </c>
-      <c r="K47" s="29" t="s">
+      <c r="K47" s="52" t="s">
         <v>445</v>
       </c>
-      <c r="L47" s="29" t="s">
+      <c r="L47" s="52" t="s">
         <v>254</v>
       </c>
-      <c r="M47" s="28" t="s">
+      <c r="M47" s="54" t="s">
         <v>446</v>
       </c>
-      <c r="N47" s="28" t="s">
+      <c r="N47" s="54" t="s">
         <v>256</v>
       </c>
-      <c r="O47" s="28" t="s">
+      <c r="O47" s="54" t="s">
         <v>257</v>
       </c>
-      <c r="P47" s="28" t="s">
+      <c r="P47" s="54" t="s">
         <v>308</v>
       </c>
-      <c r="Q47" s="28" t="s">
+      <c r="Q47" s="54" t="s">
         <v>21</v>
       </c>
-      <c r="R47" s="28"/>
-      <c r="S47" s="28" t="s">
+      <c r="R47" s="54"/>
+      <c r="S47" s="54" t="s">
         <v>26</v>
       </c>
-      <c r="T47" s="28" t="s">
+      <c r="T47" s="54" t="s">
         <v>41</v>
       </c>
-      <c r="U47" s="28" t="s">
+      <c r="U47" s="54" t="s">
         <v>48</v>
       </c>
-      <c r="V47" s="28" t="s">
+      <c r="V47" s="54" t="s">
         <v>42</v>
       </c>
-      <c r="W47" s="28" t="s">
+      <c r="W47" s="54" t="s">
         <v>47</v>
       </c>
-      <c r="X47" s="28" t="s">
+      <c r="X47" s="54" t="s">
         <v>218</v>
       </c>
-      <c r="Y47" s="28" t="s">
+      <c r="Y47" s="54" t="s">
         <v>516</v>
       </c>
-      <c r="Z47" s="28" t="s">
-        <v>615</v>
-      </c>
-      <c r="AA47" s="28">
+      <c r="Z47" s="54" t="s">
+        <v>612</v>
+      </c>
+      <c r="AA47" s="54">
         <v>2</v>
       </c>
-      <c r="AB47" s="28">
+      <c r="AB47" s="54">
         <v>2</v>
       </c>
-      <c r="AC47" s="28">
+      <c r="AC47" s="54">
         <v>3</v>
       </c>
-      <c r="AD47" s="28" t="s">
+      <c r="AD47" s="54" t="s">
         <v>515</v>
       </c>
-      <c r="AE47" s="28"/>
-      <c r="AF47" s="28" t="s">
+      <c r="AE47" s="54"/>
+      <c r="AF47" s="54" t="s">
         <v>259</v>
       </c>
-      <c r="AG47" s="28" t="s">
+      <c r="AG47" s="54" t="s">
         <v>109</v>
       </c>
-      <c r="AH47" s="28" t="s">
+      <c r="AH47" s="54" t="s">
         <v>122</v>
       </c>
-      <c r="AI47" s="28"/>
-      <c r="AJ47" s="28"/>
-      <c r="AK47" s="28" t="s">
+      <c r="AI47" s="54"/>
+      <c r="AJ47" s="54"/>
+      <c r="AK47" s="54" t="s">
         <v>143</v>
       </c>
-      <c r="AL47" s="28"/>
-      <c r="AM47" s="28" t="s">
+      <c r="AL47" s="54"/>
+      <c r="AM47" s="54" t="s">
         <v>235</v>
       </c>
-      <c r="AN47" s="28"/>
-      <c r="AO47" s="28" t="s">
-        <v>599</v>
-      </c>
-      <c r="AP47" s="28"/>
-      <c r="AQ47" s="28" t="s">
+      <c r="AN47" s="54"/>
+      <c r="AO47" s="54" t="s">
+        <v>596</v>
+      </c>
+      <c r="AP47" s="54"/>
+      <c r="AQ47" s="54" t="s">
         <v>166</v>
       </c>
-      <c r="AR47" s="28" t="s">
+      <c r="AR47" s="54" t="s">
         <v>241</v>
       </c>
-      <c r="AS47" s="28" t="s">
+      <c r="AS47" s="54" t="s">
         <v>178</v>
       </c>
-      <c r="AT47" s="28" t="s">
+      <c r="AT47" s="54" t="s">
         <v>514</v>
       </c>
-      <c r="AU47" s="28" t="s">
+      <c r="AU47" s="54" t="s">
         <v>594</v>
       </c>
-      <c r="AV47" s="28" t="s">
+      <c r="AV47" s="54" t="s">
         <v>201</v>
       </c>
-      <c r="AW47" s="28" t="s">
-        <v>209</v>
-      </c>
-      <c r="AX47" s="31" t="s">
-        <v>598</v>
+      <c r="AW47" s="54" t="s">
+        <v>210</v>
+      </c>
+      <c r="AX47" s="55" t="s">
+        <v>593</v>
       </c>
     </row>
-    <row r="48" spans="1:50" s="10" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A48" s="52" t="s">
-        <v>447</v>
-      </c>
-      <c r="B48" s="52" t="s">
+    <row r="48" spans="1:50" s="10" customFormat="1" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A48" s="29" t="s">
+        <v>440</v>
+      </c>
+      <c r="B48" s="29" t="s">
         <v>245</v>
       </c>
-      <c r="C48" s="52" t="s">
-        <v>448</v>
-      </c>
-      <c r="D48" s="52" t="s">
-        <v>449</v>
-      </c>
-      <c r="E48" s="53">
-        <v>1998</v>
-      </c>
-      <c r="F48" s="54" t="s">
+      <c r="C48" s="29" t="s">
+        <v>441</v>
+      </c>
+      <c r="D48" s="29" t="s">
+        <v>442</v>
+      </c>
+      <c r="E48" s="30">
+        <v>1999</v>
+      </c>
+      <c r="F48" s="28" t="s">
         <v>412</v>
       </c>
-      <c r="G48" s="54" t="s">
-        <v>450</v>
-      </c>
-      <c r="H48" s="52" t="s">
-        <v>371</v>
-      </c>
-      <c r="I48" s="54" t="s">
-        <v>451</v>
-      </c>
-      <c r="J48" s="54" t="s">
-        <v>335</v>
-      </c>
-      <c r="K48" s="52" t="s">
-        <v>452</v>
-      </c>
-      <c r="L48" s="52" t="s">
+      <c r="G48" s="28" t="s">
+        <v>435</v>
+      </c>
+      <c r="H48" s="29" t="s">
+        <v>275</v>
+      </c>
+      <c r="I48" s="28" t="s">
+        <v>443</v>
+      </c>
+      <c r="J48" s="28" t="s">
+        <v>444</v>
+      </c>
+      <c r="K48" s="29" t="s">
+        <v>445</v>
+      </c>
+      <c r="L48" s="29" t="s">
         <v>254</v>
       </c>
-      <c r="M48" s="54" t="s">
-        <v>453</v>
-      </c>
-      <c r="N48" s="54" t="s">
+      <c r="M48" s="28" t="s">
+        <v>446</v>
+      </c>
+      <c r="N48" s="28" t="s">
         <v>256</v>
       </c>
-      <c r="O48" s="54" t="s">
-        <v>318</v>
-      </c>
-      <c r="P48" s="54" t="s">
-        <v>258</v>
-      </c>
-      <c r="Q48" s="54" t="s">
+      <c r="O48" s="28" t="s">
+        <v>257</v>
+      </c>
+      <c r="P48" s="28" t="s">
+        <v>308</v>
+      </c>
+      <c r="Q48" s="28" t="s">
         <v>21</v>
       </c>
-      <c r="R48" s="54"/>
-      <c r="S48" s="54" t="s">
-        <v>29</v>
-      </c>
-      <c r="T48" s="54" t="s">
-        <v>46</v>
-      </c>
-      <c r="U48" s="54" t="s">
-        <v>55</v>
-      </c>
-      <c r="V48" s="54" t="s">
+      <c r="R48" s="28"/>
+      <c r="S48" s="28" t="s">
+        <v>26</v>
+      </c>
+      <c r="T48" s="28" t="s">
         <v>41</v>
       </c>
-      <c r="W48" s="54" t="s">
-        <v>51</v>
-      </c>
-      <c r="X48" s="54" t="s">
-        <v>69</v>
-      </c>
-      <c r="Y48" s="54" t="s">
-        <v>517</v>
-      </c>
-      <c r="Z48" s="54" t="s">
-        <v>617</v>
-      </c>
-      <c r="AA48" s="54">
+      <c r="U48" s="28" t="s">
+        <v>48</v>
+      </c>
+      <c r="V48" s="28" t="s">
+        <v>42</v>
+      </c>
+      <c r="W48" s="28" t="s">
+        <v>47</v>
+      </c>
+      <c r="X48" s="28" t="s">
+        <v>218</v>
+      </c>
+      <c r="Y48" s="28" t="s">
+        <v>516</v>
+      </c>
+      <c r="Z48" s="28" t="s">
+        <v>612</v>
+      </c>
+      <c r="AA48" s="28">
         <v>2</v>
       </c>
-      <c r="AB48" s="54">
+      <c r="AB48" s="28">
         <v>2</v>
       </c>
-      <c r="AC48" s="54">
+      <c r="AC48" s="28">
         <v>3</v>
       </c>
-      <c r="AD48" s="54"/>
-      <c r="AE48" s="54"/>
-      <c r="AF48" s="54" t="s">
-        <v>290</v>
-      </c>
-      <c r="AG48" s="54" t="s">
-        <v>111</v>
-      </c>
-      <c r="AH48" s="54" t="s">
-        <v>222</v>
-      </c>
-      <c r="AI48" s="54" t="s">
-        <v>147</v>
-      </c>
-      <c r="AJ48" s="54"/>
-      <c r="AK48" s="54"/>
-      <c r="AL48" s="54" t="s">
-        <v>618</v>
-      </c>
-      <c r="AM48" s="54" t="s">
-        <v>161</v>
-      </c>
-      <c r="AN48" s="54"/>
-      <c r="AO48" s="54" t="s">
-        <v>600</v>
-      </c>
-      <c r="AP48" s="54"/>
-      <c r="AQ48" s="54" t="s">
+      <c r="AD48" s="28" t="s">
+        <v>515</v>
+      </c>
+      <c r="AE48" s="28"/>
+      <c r="AF48" s="28" t="s">
+        <v>259</v>
+      </c>
+      <c r="AG48" s="28" t="s">
+        <v>109</v>
+      </c>
+      <c r="AH48" s="28" t="s">
+        <v>122</v>
+      </c>
+      <c r="AI48" s="28"/>
+      <c r="AJ48" s="28"/>
+      <c r="AK48" s="28" t="s">
+        <v>143</v>
+      </c>
+      <c r="AL48" s="28"/>
+      <c r="AM48" s="28" t="s">
+        <v>235</v>
+      </c>
+      <c r="AN48" s="28"/>
+      <c r="AO48" s="28" t="s">
+        <v>596</v>
+      </c>
+      <c r="AP48" s="28"/>
+      <c r="AQ48" s="28" t="s">
         <v>166</v>
       </c>
-      <c r="AR48" s="54" t="s">
+      <c r="AR48" s="28" t="s">
         <v>241</v>
       </c>
-      <c r="AS48" s="54" t="s">
-        <v>177</v>
-      </c>
-      <c r="AT48" s="54" t="s">
-        <v>619</v>
-      </c>
-      <c r="AU48" s="54" t="s">
-        <v>601</v>
-      </c>
-      <c r="AV48" s="54" t="s">
-        <v>205</v>
-      </c>
-      <c r="AW48" s="54" t="s">
-        <v>209</v>
-      </c>
-      <c r="AX48" s="54" t="s">
-        <v>527</v>
+      <c r="AS48" s="28" t="s">
+        <v>178</v>
+      </c>
+      <c r="AT48" s="28" t="s">
+        <v>514</v>
+      </c>
+      <c r="AU48" s="28" t="s">
+        <v>590</v>
+      </c>
+      <c r="AV48" s="28" t="s">
+        <v>201</v>
+      </c>
+      <c r="AW48" s="28" t="s">
+        <v>210</v>
+      </c>
+      <c r="AX48" s="31" t="s">
+        <v>592</v>
       </c>
     </row>
-    <row r="49" spans="1:50" s="10" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:50" s="10" customFormat="1" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A49" s="29" t="s">
-        <v>447</v>
+        <v>440</v>
       </c>
       <c r="B49" s="29" t="s">
         <v>245</v>
       </c>
       <c r="C49" s="29" t="s">
-        <v>448</v>
+        <v>441</v>
       </c>
       <c r="D49" s="29" t="s">
-        <v>449</v>
+        <v>442</v>
       </c>
       <c r="E49" s="30">
-        <v>1998</v>
+        <v>1999</v>
       </c>
       <c r="F49" s="28" t="s">
         <v>412</v>
       </c>
       <c r="G49" s="28" t="s">
-        <v>450</v>
+        <v>435</v>
       </c>
       <c r="H49" s="29" t="s">
-        <v>371</v>
+        <v>275</v>
       </c>
       <c r="I49" s="28" t="s">
-        <v>451</v>
+        <v>443</v>
       </c>
       <c r="J49" s="28" t="s">
-        <v>335</v>
+        <v>444</v>
       </c>
       <c r="K49" s="29" t="s">
-        <v>452</v>
+        <v>445</v>
       </c>
       <c r="L49" s="29" t="s">
         <v>254</v>
       </c>
       <c r="M49" s="28" t="s">
-        <v>453</v>
+        <v>446</v>
       </c>
       <c r="N49" s="28" t="s">
         <v>256</v>
       </c>
       <c r="O49" s="28" t="s">
-        <v>318</v>
+        <v>257</v>
       </c>
       <c r="P49" s="28" t="s">
-        <v>258</v>
+        <v>308</v>
       </c>
       <c r="Q49" s="28" t="s">
         <v>21</v>
       </c>
       <c r="R49" s="28"/>
       <c r="S49" s="28" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="T49" s="28" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="U49" s="28" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="V49" s="28" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="W49" s="28" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="X49" s="28" t="s">
-        <v>69</v>
+        <v>218</v>
       </c>
       <c r="Y49" s="28" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="Z49" s="28" t="s">
-        <v>617</v>
+        <v>612</v>
       </c>
       <c r="AA49" s="28">
         <v>2</v>
@@ -11280,31 +11296,31 @@
       <c r="AC49" s="28">
         <v>3</v>
       </c>
-      <c r="AD49" s="28"/>
+      <c r="AD49" s="28" t="s">
+        <v>515</v>
+      </c>
       <c r="AE49" s="28"/>
       <c r="AF49" s="28" t="s">
-        <v>290</v>
+        <v>259</v>
       </c>
       <c r="AG49" s="28" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="AH49" s="28" t="s">
-        <v>222</v>
-      </c>
-      <c r="AI49" s="28" t="s">
-        <v>147</v>
-      </c>
+        <v>122</v>
+      </c>
+      <c r="AI49" s="28"/>
       <c r="AJ49" s="28"/>
-      <c r="AK49" s="28"/>
-      <c r="AL49" s="28" t="s">
-        <v>618</v>
-      </c>
+      <c r="AK49" s="28" t="s">
+        <v>143</v>
+      </c>
+      <c r="AL49" s="28"/>
       <c r="AM49" s="28" t="s">
-        <v>161</v>
+        <v>235</v>
       </c>
       <c r="AN49" s="28"/>
       <c r="AO49" s="28" t="s">
-        <v>600</v>
+        <v>596</v>
       </c>
       <c r="AP49" s="28"/>
       <c r="AQ49" s="28" t="s">
@@ -11314,79 +11330,79 @@
         <v>241</v>
       </c>
       <c r="AS49" s="28" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="AT49" s="28" t="s">
-        <v>619</v>
+        <v>514</v>
       </c>
       <c r="AU49" s="28" t="s">
-        <v>602</v>
+        <v>591</v>
       </c>
       <c r="AV49" s="28" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="AW49" s="28" t="s">
         <v>209</v>
       </c>
-      <c r="AX49" s="28" t="s">
-        <v>527</v>
+      <c r="AX49" s="31" t="s">
+        <v>595</v>
       </c>
     </row>
-    <row r="50" spans="1:50" s="10" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:50" s="10" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A50" s="52" t="s">
-        <v>454</v>
+        <v>447</v>
       </c>
       <c r="B50" s="52" t="s">
         <v>245</v>
       </c>
       <c r="C50" s="52" t="s">
-        <v>455</v>
+        <v>448</v>
       </c>
       <c r="D50" s="52" t="s">
-        <v>456</v>
+        <v>449</v>
       </c>
       <c r="E50" s="53">
-        <v>1997</v>
+        <v>1998</v>
       </c>
       <c r="F50" s="54" t="s">
-        <v>457</v>
+        <v>412</v>
       </c>
       <c r="G50" s="54" t="s">
-        <v>458</v>
+        <v>450</v>
       </c>
       <c r="H50" s="52" t="s">
-        <v>265</v>
+        <v>371</v>
       </c>
       <c r="I50" s="54" t="s">
-        <v>459</v>
+        <v>451</v>
       </c>
       <c r="J50" s="54" t="s">
-        <v>435</v>
+        <v>335</v>
       </c>
       <c r="K50" s="52" t="s">
-        <v>460</v>
+        <v>452</v>
       </c>
       <c r="L50" s="52" t="s">
         <v>254</v>
       </c>
       <c r="M50" s="54" t="s">
-        <v>461</v>
+        <v>453</v>
       </c>
       <c r="N50" s="54" t="s">
         <v>256</v>
       </c>
       <c r="O50" s="54" t="s">
-        <v>257</v>
+        <v>318</v>
       </c>
       <c r="P50" s="54" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="Q50" s="54" t="s">
         <v>21</v>
       </c>
       <c r="R50" s="54"/>
       <c r="S50" s="54" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="T50" s="54" t="s">
         <v>46</v>
@@ -11395,17 +11411,19 @@
         <v>55</v>
       </c>
       <c r="V50" s="54" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="W50" s="54" t="s">
         <v>51</v>
       </c>
       <c r="X50" s="54" t="s">
-        <v>80</v>
-      </c>
-      <c r="Y50" s="54"/>
+        <v>69</v>
+      </c>
+      <c r="Y50" s="54" t="s">
+        <v>517</v>
+      </c>
       <c r="Z50" s="54" t="s">
-        <v>519</v>
+        <v>614</v>
       </c>
       <c r="AA50" s="54">
         <v>2</v>
@@ -11419,28 +11437,28 @@
       <c r="AD50" s="54"/>
       <c r="AE50" s="54"/>
       <c r="AF50" s="54" t="s">
-        <v>319</v>
+        <v>290</v>
       </c>
       <c r="AG50" s="54" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="AH50" s="54" t="s">
-        <v>119</v>
+        <v>222</v>
       </c>
       <c r="AI50" s="54" t="s">
-        <v>132</v>
+        <v>147</v>
       </c>
       <c r="AJ50" s="54"/>
       <c r="AK50" s="54"/>
-      <c r="AL50" s="54"/>
+      <c r="AL50" s="54" t="s">
+        <v>615</v>
+      </c>
       <c r="AM50" s="54" t="s">
-        <v>234</v>
-      </c>
-      <c r="AN50" s="54" t="s">
-        <v>162</v>
-      </c>
+        <v>161</v>
+      </c>
+      <c r="AN50" s="54"/>
       <c r="AO50" s="54" t="s">
-        <v>604</v>
+        <v>597</v>
       </c>
       <c r="AP50" s="54"/>
       <c r="AQ50" s="54" t="s">
@@ -11453,76 +11471,76 @@
         <v>177</v>
       </c>
       <c r="AT50" s="54" t="s">
-        <v>518</v>
+        <v>616</v>
       </c>
       <c r="AU50" s="54" t="s">
-        <v>606</v>
+        <v>598</v>
       </c>
       <c r="AV50" s="54" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="AW50" s="54" t="s">
         <v>209</v>
       </c>
       <c r="AX50" s="54" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
     </row>
-    <row r="51" spans="1:50" s="10" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:50" s="10" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A51" s="29" t="s">
-        <v>454</v>
+        <v>447</v>
       </c>
       <c r="B51" s="29" t="s">
         <v>245</v>
       </c>
       <c r="C51" s="29" t="s">
-        <v>455</v>
+        <v>448</v>
       </c>
       <c r="D51" s="29" t="s">
-        <v>456</v>
+        <v>449</v>
       </c>
       <c r="E51" s="30">
-        <v>1997</v>
+        <v>1998</v>
       </c>
       <c r="F51" s="28" t="s">
-        <v>457</v>
+        <v>412</v>
       </c>
       <c r="G51" s="28" t="s">
-        <v>458</v>
+        <v>450</v>
       </c>
       <c r="H51" s="29" t="s">
-        <v>265</v>
+        <v>371</v>
       </c>
       <c r="I51" s="28" t="s">
-        <v>459</v>
+        <v>451</v>
       </c>
       <c r="J51" s="28" t="s">
-        <v>435</v>
+        <v>335</v>
       </c>
       <c r="K51" s="29" t="s">
-        <v>460</v>
+        <v>452</v>
       </c>
       <c r="L51" s="29" t="s">
         <v>254</v>
       </c>
       <c r="M51" s="28" t="s">
-        <v>461</v>
+        <v>453</v>
       </c>
       <c r="N51" s="28" t="s">
         <v>256</v>
       </c>
       <c r="O51" s="28" t="s">
-        <v>257</v>
+        <v>318</v>
       </c>
       <c r="P51" s="28" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="Q51" s="28" t="s">
         <v>21</v>
       </c>
       <c r="R51" s="28"/>
       <c r="S51" s="28" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="T51" s="28" t="s">
         <v>46</v>
@@ -11531,17 +11549,19 @@
         <v>55</v>
       </c>
       <c r="V51" s="28" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="W51" s="28" t="s">
         <v>51</v>
       </c>
       <c r="X51" s="28" t="s">
-        <v>80</v>
-      </c>
-      <c r="Y51" s="28"/>
+        <v>69</v>
+      </c>
+      <c r="Y51" s="28" t="s">
+        <v>517</v>
+      </c>
       <c r="Z51" s="28" t="s">
-        <v>519</v>
+        <v>614</v>
       </c>
       <c r="AA51" s="28">
         <v>2</v>
@@ -11555,28 +11575,28 @@
       <c r="AD51" s="28"/>
       <c r="AE51" s="28"/>
       <c r="AF51" s="28" t="s">
-        <v>319</v>
+        <v>290</v>
       </c>
       <c r="AG51" s="28" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="AH51" s="28" t="s">
-        <v>119</v>
+        <v>222</v>
       </c>
       <c r="AI51" s="28" t="s">
-        <v>132</v>
+        <v>147</v>
       </c>
       <c r="AJ51" s="28"/>
       <c r="AK51" s="28"/>
-      <c r="AL51" s="28"/>
+      <c r="AL51" s="28" t="s">
+        <v>615</v>
+      </c>
       <c r="AM51" s="28" t="s">
-        <v>234</v>
-      </c>
-      <c r="AN51" s="28" t="s">
-        <v>162</v>
-      </c>
+        <v>161</v>
+      </c>
+      <c r="AN51" s="28"/>
       <c r="AO51" s="28" t="s">
-        <v>603</v>
+        <v>597</v>
       </c>
       <c r="AP51" s="28"/>
       <c r="AQ51" s="28" t="s">
@@ -11589,514 +11609,788 @@
         <v>177</v>
       </c>
       <c r="AT51" s="28" t="s">
-        <v>518</v>
+        <v>616</v>
       </c>
       <c r="AU51" s="28" t="s">
-        <v>606</v>
+        <v>599</v>
       </c>
       <c r="AV51" s="28" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="AW51" s="28" t="s">
         <v>209</v>
       </c>
       <c r="AX51" s="28" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="52" spans="1:50" s="10" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A52" s="52" t="s">
+        <v>454</v>
+      </c>
+      <c r="B52" s="52" t="s">
+        <v>245</v>
+      </c>
+      <c r="C52" s="52" t="s">
+        <v>455</v>
+      </c>
+      <c r="D52" s="52" t="s">
+        <v>456</v>
+      </c>
+      <c r="E52" s="53">
+        <v>1997</v>
+      </c>
+      <c r="F52" s="54" t="s">
+        <v>457</v>
+      </c>
+      <c r="G52" s="54" t="s">
+        <v>458</v>
+      </c>
+      <c r="H52" s="52" t="s">
+        <v>265</v>
+      </c>
+      <c r="I52" s="54" t="s">
+        <v>459</v>
+      </c>
+      <c r="J52" s="54" t="s">
+        <v>435</v>
+      </c>
+      <c r="K52" s="52" t="s">
+        <v>460</v>
+      </c>
+      <c r="L52" s="52" t="s">
+        <v>254</v>
+      </c>
+      <c r="M52" s="54" t="s">
+        <v>461</v>
+      </c>
+      <c r="N52" s="54" t="s">
+        <v>256</v>
+      </c>
+      <c r="O52" s="54" t="s">
+        <v>257</v>
+      </c>
+      <c r="P52" s="54" t="s">
+        <v>254</v>
+      </c>
+      <c r="Q52" s="54" t="s">
+        <v>21</v>
+      </c>
+      <c r="R52" s="54"/>
+      <c r="S52" s="54" t="s">
+        <v>31</v>
+      </c>
+      <c r="T52" s="54" t="s">
+        <v>46</v>
+      </c>
+      <c r="U52" s="54" t="s">
+        <v>55</v>
+      </c>
+      <c r="V52" s="54" t="s">
+        <v>42</v>
+      </c>
+      <c r="W52" s="54" t="s">
+        <v>51</v>
+      </c>
+      <c r="X52" s="54" t="s">
+        <v>80</v>
+      </c>
+      <c r="Y52" s="54"/>
+      <c r="Z52" s="54" t="s">
+        <v>519</v>
+      </c>
+      <c r="AA52" s="54">
+        <v>2</v>
+      </c>
+      <c r="AB52" s="54">
+        <v>2</v>
+      </c>
+      <c r="AC52" s="54">
+        <v>3</v>
+      </c>
+      <c r="AD52" s="54"/>
+      <c r="AE52" s="54"/>
+      <c r="AF52" s="54" t="s">
+        <v>319</v>
+      </c>
+      <c r="AG52" s="54" t="s">
+        <v>113</v>
+      </c>
+      <c r="AH52" s="54" t="s">
+        <v>119</v>
+      </c>
+      <c r="AI52" s="54" t="s">
+        <v>132</v>
+      </c>
+      <c r="AJ52" s="54"/>
+      <c r="AK52" s="54"/>
+      <c r="AL52" s="54"/>
+      <c r="AM52" s="54" t="s">
+        <v>234</v>
+      </c>
+      <c r="AN52" s="54" t="s">
+        <v>162</v>
+      </c>
+      <c r="AO52" s="54" t="s">
+        <v>601</v>
+      </c>
+      <c r="AP52" s="54"/>
+      <c r="AQ52" s="54" t="s">
+        <v>166</v>
+      </c>
+      <c r="AR52" s="54" t="s">
+        <v>241</v>
+      </c>
+      <c r="AS52" s="54" t="s">
+        <v>177</v>
+      </c>
+      <c r="AT52" s="54" t="s">
+        <v>518</v>
+      </c>
+      <c r="AU52" s="54" t="s">
+        <v>603</v>
+      </c>
+      <c r="AV52" s="54" t="s">
+        <v>206</v>
+      </c>
+      <c r="AW52" s="54" t="s">
+        <v>209</v>
+      </c>
+      <c r="AX52" s="54" t="s">
         <v>528</v>
       </c>
     </row>
-    <row r="52" spans="1:50" s="10" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A52" s="29" t="s">
+    <row r="53" spans="1:50" s="10" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A53" s="29" t="s">
         <v>454</v>
       </c>
-      <c r="B52" s="29" t="s">
+      <c r="B53" s="29" t="s">
         <v>245</v>
       </c>
-      <c r="C52" s="29" t="s">
+      <c r="C53" s="29" t="s">
         <v>455</v>
       </c>
-      <c r="D52" s="29" t="s">
+      <c r="D53" s="29" t="s">
         <v>456</v>
       </c>
-      <c r="E52" s="30">
+      <c r="E53" s="30">
         <v>1997</v>
       </c>
-      <c r="F52" s="28" t="s">
+      <c r="F53" s="28" t="s">
         <v>457</v>
       </c>
-      <c r="G52" s="28" t="s">
+      <c r="G53" s="28" t="s">
         <v>458</v>
       </c>
-      <c r="H52" s="29" t="s">
+      <c r="H53" s="29" t="s">
         <v>265</v>
       </c>
-      <c r="I52" s="28" t="s">
+      <c r="I53" s="28" t="s">
         <v>459</v>
       </c>
-      <c r="J52" s="28" t="s">
+      <c r="J53" s="28" t="s">
         <v>435</v>
       </c>
-      <c r="K52" s="29" t="s">
+      <c r="K53" s="29" t="s">
         <v>460</v>
       </c>
-      <c r="L52" s="29" t="s">
+      <c r="L53" s="29" t="s">
         <v>254</v>
       </c>
-      <c r="M52" s="28" t="s">
+      <c r="M53" s="28" t="s">
         <v>461</v>
       </c>
-      <c r="N52" s="28" t="s">
+      <c r="N53" s="28" t="s">
         <v>256</v>
       </c>
-      <c r="O52" s="28" t="s">
+      <c r="O53" s="28" t="s">
         <v>257</v>
       </c>
-      <c r="P52" s="28" t="s">
+      <c r="P53" s="28" t="s">
         <v>254</v>
       </c>
-      <c r="Q52" s="28" t="s">
+      <c r="Q53" s="28" t="s">
         <v>21</v>
       </c>
-      <c r="R52" s="28"/>
-      <c r="S52" s="28" t="s">
+      <c r="R53" s="28"/>
+      <c r="S53" s="28" t="s">
         <v>31</v>
       </c>
-      <c r="T52" s="28" t="s">
+      <c r="T53" s="28" t="s">
         <v>46</v>
       </c>
-      <c r="U52" s="28" t="s">
+      <c r="U53" s="28" t="s">
         <v>55</v>
       </c>
-      <c r="V52" s="28" t="s">
+      <c r="V53" s="28" t="s">
         <v>42</v>
       </c>
-      <c r="W52" s="28" t="s">
+      <c r="W53" s="28" t="s">
         <v>51</v>
       </c>
-      <c r="X52" s="28" t="s">
+      <c r="X53" s="28" t="s">
         <v>80</v>
       </c>
-      <c r="Y52" s="28"/>
-      <c r="Z52" s="28" t="s">
+      <c r="Y53" s="28"/>
+      <c r="Z53" s="28" t="s">
         <v>519</v>
       </c>
-      <c r="AA52" s="28">
+      <c r="AA53" s="28">
         <v>2</v>
       </c>
-      <c r="AB52" s="28">
+      <c r="AB53" s="28">
         <v>2</v>
       </c>
-      <c r="AC52" s="28">
+      <c r="AC53" s="28">
         <v>3</v>
       </c>
-      <c r="AD52" s="28"/>
-      <c r="AE52" s="28"/>
-      <c r="AF52" s="28" t="s">
+      <c r="AD53" s="28"/>
+      <c r="AE53" s="28"/>
+      <c r="AF53" s="28" t="s">
         <v>319</v>
       </c>
-      <c r="AG52" s="28" t="s">
+      <c r="AG53" s="28" t="s">
         <v>113</v>
       </c>
-      <c r="AH52" s="28" t="s">
+      <c r="AH53" s="28" t="s">
         <v>119</v>
       </c>
-      <c r="AI52" s="28" t="s">
+      <c r="AI53" s="28" t="s">
         <v>132</v>
       </c>
-      <c r="AJ52" s="28"/>
-      <c r="AK52" s="28"/>
-      <c r="AL52" s="28"/>
-      <c r="AM52" s="28" t="s">
+      <c r="AJ53" s="28"/>
+      <c r="AK53" s="28"/>
+      <c r="AL53" s="28"/>
+      <c r="AM53" s="28" t="s">
         <v>234</v>
       </c>
-      <c r="AN52" s="28" t="s">
+      <c r="AN53" s="28" t="s">
         <v>162</v>
       </c>
-      <c r="AO52" s="28" t="s">
-        <v>605</v>
-      </c>
-      <c r="AP52" s="28"/>
-      <c r="AQ52" s="28" t="s">
+      <c r="AO53" s="28" t="s">
+        <v>600</v>
+      </c>
+      <c r="AP53" s="28"/>
+      <c r="AQ53" s="28" t="s">
         <v>166</v>
       </c>
-      <c r="AR52" s="28" t="s">
-        <v>172</v>
-      </c>
-      <c r="AS52" s="28" t="s">
-        <v>191</v>
-      </c>
-      <c r="AT52" s="28" t="s">
+      <c r="AR53" s="28" t="s">
+        <v>241</v>
+      </c>
+      <c r="AS53" s="28" t="s">
+        <v>177</v>
+      </c>
+      <c r="AT53" s="28" t="s">
         <v>518</v>
       </c>
-      <c r="AU52" s="28" t="s">
-        <v>606</v>
-      </c>
-      <c r="AV52" s="28" t="s">
+      <c r="AU53" s="28" t="s">
+        <v>603</v>
+      </c>
+      <c r="AV53" s="28" t="s">
         <v>206</v>
       </c>
-      <c r="AW52" s="28" t="s">
+      <c r="AW53" s="28" t="s">
         <v>209</v>
       </c>
-      <c r="AX52" s="28" t="s">
+      <c r="AX53" s="28" t="s">
         <v>528</v>
       </c>
-    </row>
-    <row r="53" spans="1:50" s="10" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A53" s="44" t="s">
-        <v>462</v>
-      </c>
-      <c r="B53" s="44" t="s">
-        <v>245</v>
-      </c>
-      <c r="C53" s="44" t="s">
-        <v>463</v>
-      </c>
-      <c r="D53" s="44" t="s">
-        <v>464</v>
-      </c>
-      <c r="E53" s="45">
-        <v>1984</v>
-      </c>
-      <c r="F53" s="46" t="s">
-        <v>465</v>
-      </c>
-      <c r="G53" s="46" t="s">
-        <v>406</v>
-      </c>
-      <c r="H53" s="44" t="s">
-        <v>388</v>
-      </c>
-      <c r="I53" s="46" t="s">
-        <v>466</v>
-      </c>
-      <c r="J53" s="46" t="s">
-        <v>467</v>
-      </c>
-      <c r="K53" s="44" t="s">
-        <v>468</v>
-      </c>
-      <c r="L53" s="44" t="s">
-        <v>254</v>
-      </c>
-      <c r="M53" s="46" t="s">
-        <v>469</v>
-      </c>
-      <c r="N53" s="46" t="s">
-        <v>256</v>
-      </c>
-      <c r="O53" s="46" t="s">
-        <v>257</v>
-      </c>
-      <c r="P53" s="46" t="s">
-        <v>254</v>
-      </c>
-      <c r="Q53" s="46" t="s">
-        <v>21</v>
-      </c>
-      <c r="R53" s="46" t="s">
-        <v>84</v>
-      </c>
-      <c r="S53" s="46"/>
-      <c r="T53" s="46"/>
-      <c r="U53" s="46"/>
-      <c r="V53" s="46"/>
-      <c r="W53" s="46"/>
-      <c r="X53" s="46"/>
-      <c r="Y53" s="46"/>
-      <c r="Z53" s="46"/>
-      <c r="AA53" s="46"/>
-      <c r="AB53" s="46"/>
-      <c r="AC53" s="46"/>
-      <c r="AD53" s="46"/>
-      <c r="AE53" s="46"/>
-      <c r="AF53" s="46" t="s">
-        <v>259</v>
-      </c>
-      <c r="AG53" s="46"/>
-      <c r="AH53" s="46"/>
-      <c r="AI53" s="46"/>
-      <c r="AJ53" s="46"/>
-      <c r="AK53" s="46"/>
-      <c r="AL53" s="46"/>
-      <c r="AM53" s="46"/>
-      <c r="AN53" s="46"/>
-      <c r="AO53" s="46"/>
-      <c r="AP53" s="46"/>
-      <c r="AQ53" s="46"/>
-      <c r="AR53" s="46"/>
-      <c r="AS53" s="46"/>
-      <c r="AT53" s="46"/>
-      <c r="AU53" s="46"/>
-      <c r="AV53" s="46"/>
-      <c r="AW53" s="46"/>
-      <c r="AX53" s="46"/>
     </row>
     <row r="54" spans="1:50" s="10" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A54" s="56" t="s">
+      <c r="A54" s="29" t="s">
+        <v>454</v>
+      </c>
+      <c r="B54" s="29" t="s">
+        <v>245</v>
+      </c>
+      <c r="C54" s="29" t="s">
+        <v>455</v>
+      </c>
+      <c r="D54" s="29" t="s">
+        <v>456</v>
+      </c>
+      <c r="E54" s="30">
+        <v>1997</v>
+      </c>
+      <c r="F54" s="28" t="s">
+        <v>457</v>
+      </c>
+      <c r="G54" s="28" t="s">
+        <v>458</v>
+      </c>
+      <c r="H54" s="29" t="s">
+        <v>265</v>
+      </c>
+      <c r="I54" s="28" t="s">
+        <v>459</v>
+      </c>
+      <c r="J54" s="28" t="s">
+        <v>435</v>
+      </c>
+      <c r="K54" s="29" t="s">
+        <v>460</v>
+      </c>
+      <c r="L54" s="29" t="s">
+        <v>254</v>
+      </c>
+      <c r="M54" s="28" t="s">
+        <v>461</v>
+      </c>
+      <c r="N54" s="28" t="s">
+        <v>256</v>
+      </c>
+      <c r="O54" s="28" t="s">
+        <v>257</v>
+      </c>
+      <c r="P54" s="28" t="s">
+        <v>254</v>
+      </c>
+      <c r="Q54" s="28" t="s">
+        <v>21</v>
+      </c>
+      <c r="R54" s="28"/>
+      <c r="S54" s="28" t="s">
+        <v>31</v>
+      </c>
+      <c r="T54" s="28" t="s">
+        <v>46</v>
+      </c>
+      <c r="U54" s="28" t="s">
+        <v>55</v>
+      </c>
+      <c r="V54" s="28" t="s">
+        <v>42</v>
+      </c>
+      <c r="W54" s="28" t="s">
+        <v>51</v>
+      </c>
+      <c r="X54" s="28" t="s">
+        <v>80</v>
+      </c>
+      <c r="Y54" s="28"/>
+      <c r="Z54" s="28" t="s">
+        <v>519</v>
+      </c>
+      <c r="AA54" s="28">
+        <v>2</v>
+      </c>
+      <c r="AB54" s="28">
+        <v>2</v>
+      </c>
+      <c r="AC54" s="28">
+        <v>3</v>
+      </c>
+      <c r="AD54" s="28"/>
+      <c r="AE54" s="28"/>
+      <c r="AF54" s="28" t="s">
+        <v>319</v>
+      </c>
+      <c r="AG54" s="28" t="s">
+        <v>113</v>
+      </c>
+      <c r="AH54" s="28" t="s">
+        <v>119</v>
+      </c>
+      <c r="AI54" s="28" t="s">
+        <v>132</v>
+      </c>
+      <c r="AJ54" s="28"/>
+      <c r="AK54" s="28"/>
+      <c r="AL54" s="28"/>
+      <c r="AM54" s="28" t="s">
+        <v>234</v>
+      </c>
+      <c r="AN54" s="28" t="s">
+        <v>162</v>
+      </c>
+      <c r="AO54" s="28" t="s">
+        <v>602</v>
+      </c>
+      <c r="AP54" s="28"/>
+      <c r="AQ54" s="28" t="s">
+        <v>166</v>
+      </c>
+      <c r="AR54" s="28" t="s">
+        <v>172</v>
+      </c>
+      <c r="AS54" s="28" t="s">
+        <v>191</v>
+      </c>
+      <c r="AT54" s="28" t="s">
+        <v>518</v>
+      </c>
+      <c r="AU54" s="28" t="s">
+        <v>603</v>
+      </c>
+      <c r="AV54" s="28" t="s">
+        <v>206</v>
+      </c>
+      <c r="AW54" s="28" t="s">
+        <v>209</v>
+      </c>
+      <c r="AX54" s="28" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="55" spans="1:50" s="10" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A55" s="44" t="s">
+        <v>462</v>
+      </c>
+      <c r="B55" s="44" t="s">
+        <v>245</v>
+      </c>
+      <c r="C55" s="44" t="s">
+        <v>463</v>
+      </c>
+      <c r="D55" s="44" t="s">
+        <v>464</v>
+      </c>
+      <c r="E55" s="45">
+        <v>1984</v>
+      </c>
+      <c r="F55" s="46" t="s">
+        <v>465</v>
+      </c>
+      <c r="G55" s="46" t="s">
+        <v>406</v>
+      </c>
+      <c r="H55" s="44" t="s">
+        <v>388</v>
+      </c>
+      <c r="I55" s="46" t="s">
+        <v>466</v>
+      </c>
+      <c r="J55" s="46" t="s">
+        <v>467</v>
+      </c>
+      <c r="K55" s="44" t="s">
+        <v>468</v>
+      </c>
+      <c r="L55" s="44" t="s">
+        <v>254</v>
+      </c>
+      <c r="M55" s="46" t="s">
+        <v>469</v>
+      </c>
+      <c r="N55" s="46" t="s">
+        <v>256</v>
+      </c>
+      <c r="O55" s="46" t="s">
+        <v>257</v>
+      </c>
+      <c r="P55" s="46" t="s">
+        <v>254</v>
+      </c>
+      <c r="Q55" s="46" t="s">
+        <v>21</v>
+      </c>
+      <c r="R55" s="46" t="s">
+        <v>84</v>
+      </c>
+      <c r="S55" s="46"/>
+      <c r="T55" s="46"/>
+      <c r="U55" s="46"/>
+      <c r="V55" s="46"/>
+      <c r="W55" s="46"/>
+      <c r="X55" s="46"/>
+      <c r="Y55" s="46"/>
+      <c r="Z55" s="46"/>
+      <c r="AA55" s="46"/>
+      <c r="AB55" s="46"/>
+      <c r="AC55" s="46"/>
+      <c r="AD55" s="46"/>
+      <c r="AE55" s="46"/>
+      <c r="AF55" s="46" t="s">
+        <v>259</v>
+      </c>
+      <c r="AG55" s="46"/>
+      <c r="AH55" s="46"/>
+      <c r="AI55" s="46"/>
+      <c r="AJ55" s="46"/>
+      <c r="AK55" s="46"/>
+      <c r="AL55" s="46"/>
+      <c r="AM55" s="46"/>
+      <c r="AN55" s="46"/>
+      <c r="AO55" s="46"/>
+      <c r="AP55" s="46"/>
+      <c r="AQ55" s="46"/>
+      <c r="AR55" s="46"/>
+      <c r="AS55" s="46"/>
+      <c r="AT55" s="46"/>
+      <c r="AU55" s="46"/>
+      <c r="AV55" s="46"/>
+      <c r="AW55" s="46"/>
+      <c r="AX55" s="46"/>
+    </row>
+    <row r="56" spans="1:50" s="10" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A56" s="56" t="s">
         <v>470</v>
       </c>
-      <c r="B54" s="56" t="s">
+      <c r="B56" s="56" t="s">
         <v>245</v>
       </c>
-      <c r="C54" s="56" t="s">
+      <c r="C56" s="56" t="s">
         <v>471</v>
       </c>
-      <c r="D54" s="56" t="s">
+      <c r="D56" s="56" t="s">
         <v>472</v>
       </c>
-      <c r="E54" s="57">
+      <c r="E56" s="57">
         <v>2020</v>
       </c>
-      <c r="F54" s="58" t="s">
+      <c r="F56" s="58" t="s">
         <v>473</v>
       </c>
-      <c r="G54" s="58" t="s">
+      <c r="G56" s="58" t="s">
         <v>474</v>
       </c>
-      <c r="H54" s="56"/>
-      <c r="I54" s="58"/>
-      <c r="J54" s="58"/>
-      <c r="K54" s="56" t="s">
+      <c r="H56" s="56"/>
+      <c r="I56" s="58"/>
+      <c r="J56" s="58"/>
+      <c r="K56" s="56" t="s">
         <v>475</v>
       </c>
-      <c r="L54" s="56" t="s">
+      <c r="L56" s="56" t="s">
         <v>254</v>
       </c>
-      <c r="M54" s="58" t="s">
+      <c r="M56" s="58" t="s">
         <v>476</v>
       </c>
-      <c r="N54" s="58" t="s">
+      <c r="N56" s="58" t="s">
         <v>256</v>
       </c>
-      <c r="O54" s="58" t="s">
+      <c r="O56" s="58" t="s">
         <v>257</v>
       </c>
-      <c r="P54" s="58"/>
-      <c r="Q54" s="58" t="s">
+      <c r="P56" s="58"/>
+      <c r="Q56" s="58" t="s">
         <v>22</v>
       </c>
-      <c r="R54" s="58" t="s">
+      <c r="R56" s="58" t="s">
         <v>84</v>
       </c>
-      <c r="S54" s="58"/>
-      <c r="T54" s="58"/>
-      <c r="U54" s="58"/>
-      <c r="V54" s="58"/>
-      <c r="W54" s="58"/>
-      <c r="X54" s="58"/>
-      <c r="Y54" s="58"/>
-      <c r="Z54" s="58"/>
-      <c r="AA54" s="58"/>
-      <c r="AB54" s="58"/>
-      <c r="AC54" s="58"/>
-      <c r="AD54" s="58"/>
-      <c r="AE54" s="58"/>
-      <c r="AF54" s="58"/>
-      <c r="AG54" s="58"/>
-      <c r="AH54" s="58"/>
-      <c r="AI54" s="58"/>
-      <c r="AJ54" s="58"/>
-      <c r="AK54" s="58"/>
-      <c r="AL54" s="58"/>
-      <c r="AM54" s="58"/>
-      <c r="AN54" s="58"/>
-      <c r="AO54" s="58"/>
-      <c r="AP54" s="58"/>
-      <c r="AQ54" s="58"/>
-      <c r="AR54" s="58"/>
-      <c r="AS54" s="58"/>
-      <c r="AT54" s="58"/>
-      <c r="AU54" s="58"/>
-      <c r="AV54" s="58"/>
-      <c r="AW54" s="58"/>
-      <c r="AX54" s="58"/>
+      <c r="S56" s="58"/>
+      <c r="T56" s="58"/>
+      <c r="U56" s="58"/>
+      <c r="V56" s="58"/>
+      <c r="W56" s="58"/>
+      <c r="X56" s="58"/>
+      <c r="Y56" s="58"/>
+      <c r="Z56" s="58"/>
+      <c r="AA56" s="58"/>
+      <c r="AB56" s="58"/>
+      <c r="AC56" s="58"/>
+      <c r="AD56" s="58"/>
+      <c r="AE56" s="58"/>
+      <c r="AF56" s="58"/>
+      <c r="AG56" s="58"/>
+      <c r="AH56" s="58"/>
+      <c r="AI56" s="58"/>
+      <c r="AJ56" s="58"/>
+      <c r="AK56" s="58"/>
+      <c r="AL56" s="58"/>
+      <c r="AM56" s="58"/>
+      <c r="AN56" s="58"/>
+      <c r="AO56" s="58"/>
+      <c r="AP56" s="58"/>
+      <c r="AQ56" s="58"/>
+      <c r="AR56" s="58"/>
+      <c r="AS56" s="58"/>
+      <c r="AT56" s="58"/>
+      <c r="AU56" s="58"/>
+      <c r="AV56" s="58"/>
+      <c r="AW56" s="58"/>
+      <c r="AX56" s="58"/>
     </row>
-    <row r="55" spans="1:50" s="16" customFormat="1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A55" s="41" t="s">
+    <row r="57" spans="1:50" s="16" customFormat="1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A57" s="41" t="s">
         <v>477</v>
       </c>
-      <c r="B55" s="41" t="s">
+      <c r="B57" s="41" t="s">
         <v>245</v>
       </c>
-      <c r="C55" s="41" t="s">
+      <c r="C57" s="41" t="s">
         <v>478</v>
       </c>
-      <c r="D55" s="41" t="s">
+      <c r="D57" s="41" t="s">
         <v>479</v>
       </c>
-      <c r="E55" s="42">
+      <c r="E57" s="42">
         <v>2018</v>
       </c>
-      <c r="F55" s="43" t="s">
+      <c r="F57" s="43" t="s">
         <v>480</v>
       </c>
-      <c r="G55" s="43" t="s">
+      <c r="G57" s="43" t="s">
         <v>380</v>
       </c>
-      <c r="H55" s="41" t="s">
+      <c r="H57" s="41" t="s">
         <v>334</v>
       </c>
-      <c r="I55" s="43" t="s">
+      <c r="I57" s="43" t="s">
         <v>481</v>
       </c>
-      <c r="J55" s="43" t="s">
+      <c r="J57" s="43" t="s">
         <v>482</v>
       </c>
-      <c r="K55" s="41" t="s">
+      <c r="K57" s="41" t="s">
         <v>483</v>
       </c>
-      <c r="L55" s="41" t="s">
+      <c r="L57" s="41" t="s">
         <v>254</v>
       </c>
-      <c r="M55" s="43" t="s">
+      <c r="M57" s="43" t="s">
         <v>484</v>
       </c>
-      <c r="N55" s="43" t="s">
+      <c r="N57" s="43" t="s">
         <v>256</v>
       </c>
-      <c r="O55" s="43" t="s">
+      <c r="O57" s="43" t="s">
         <v>257</v>
       </c>
-      <c r="P55" s="43"/>
-      <c r="Q55" s="43" t="s">
+      <c r="P57" s="43"/>
+      <c r="Q57" s="43" t="s">
         <v>22</v>
       </c>
-      <c r="R55" s="43"/>
-      <c r="S55" s="43" t="s">
+      <c r="R57" s="43"/>
+      <c r="S57" s="43" t="s">
         <v>35</v>
       </c>
-      <c r="T55" s="43"/>
-      <c r="U55" s="43" t="s">
+      <c r="T57" s="43"/>
+      <c r="U57" s="43" t="s">
         <v>53</v>
       </c>
-      <c r="V55" s="43"/>
-      <c r="W55" s="43" t="s">
+      <c r="V57" s="43"/>
+      <c r="W57" s="43" t="s">
         <v>48</v>
       </c>
-      <c r="X55" s="43" t="s">
+      <c r="X57" s="43" t="s">
         <v>69</v>
       </c>
-      <c r="Y55" s="43" t="s">
+      <c r="Y57" s="43" t="s">
         <v>522</v>
       </c>
-      <c r="Z55" s="43" t="s">
+      <c r="Z57" s="43" t="s">
         <v>523</v>
       </c>
-      <c r="AA55" s="43">
+      <c r="AA57" s="43">
         <v>2</v>
       </c>
-      <c r="AB55" s="43">
+      <c r="AB57" s="43">
         <v>2</v>
       </c>
-      <c r="AC55" s="43">
+      <c r="AC57" s="43">
         <v>3</v>
       </c>
-      <c r="AD55" s="43"/>
-      <c r="AE55" s="43"/>
-      <c r="AF55" s="43" t="s">
+      <c r="AD57" s="43"/>
+      <c r="AE57" s="43"/>
+      <c r="AF57" s="43" t="s">
         <v>280</v>
       </c>
-      <c r="AG55" s="43" t="s">
+      <c r="AG57" s="43" t="s">
         <v>109</v>
       </c>
-      <c r="AH55" s="43" t="s">
+      <c r="AH57" s="43" t="s">
         <v>117</v>
       </c>
-      <c r="AI55" s="43" t="s">
+      <c r="AI57" s="43" t="s">
         <v>131</v>
       </c>
-      <c r="AJ55" s="43" t="s">
+      <c r="AJ57" s="43" t="s">
         <v>157</v>
       </c>
-      <c r="AK55" s="43"/>
-      <c r="AL55" s="43" t="s">
-        <v>607</v>
-      </c>
-      <c r="AM55" s="43" t="s">
+      <c r="AK57" s="43"/>
+      <c r="AL57" s="43" t="s">
+        <v>604</v>
+      </c>
+      <c r="AM57" s="43" t="s">
         <v>234</v>
       </c>
-      <c r="AN55" s="43" t="s">
+      <c r="AN57" s="43" t="s">
         <v>164</v>
       </c>
-      <c r="AO55" s="43" t="s">
+      <c r="AO57" s="43" t="s">
         <v>521</v>
       </c>
-      <c r="AP55" s="43"/>
-      <c r="AQ55" s="43" t="s">
+      <c r="AP57" s="43"/>
+      <c r="AQ57" s="43" t="s">
         <v>166</v>
       </c>
-      <c r="AR55" s="43" t="s">
+      <c r="AR57" s="43" t="s">
         <v>172</v>
       </c>
-      <c r="AS55" s="43" t="s">
+      <c r="AS57" s="43" t="s">
         <v>190</v>
       </c>
-      <c r="AT55" s="43" t="s">
+      <c r="AT57" s="43" t="s">
         <v>520</v>
       </c>
-      <c r="AU55" s="43" t="s">
-        <v>608</v>
-      </c>
-      <c r="AV55" s="43" t="s">
+      <c r="AU57" s="43" t="s">
+        <v>605</v>
+      </c>
+      <c r="AV57" s="43" t="s">
         <v>214</v>
       </c>
-      <c r="AW55" s="43" t="s">
+      <c r="AW57" s="43" t="s">
         <v>212</v>
       </c>
-      <c r="AX55" s="43" t="s">
+      <c r="AX57" s="43" t="s">
         <v>529</v>
       </c>
     </row>
-    <row r="56" spans="1:50" x14ac:dyDescent="0.35">
-      <c r="A56" s="32"/>
-      <c r="B56" s="32"/>
-      <c r="C56" s="32"/>
-      <c r="D56" s="32"/>
-      <c r="E56" s="33"/>
-      <c r="F56" s="34"/>
-      <c r="G56" s="34"/>
-      <c r="H56" s="32"/>
-      <c r="I56" s="34"/>
-      <c r="J56" s="34"/>
-      <c r="K56" s="32"/>
-      <c r="L56" s="32"/>
-      <c r="M56" s="34"/>
-      <c r="N56" s="34"/>
-      <c r="O56" s="34"/>
-      <c r="P56" s="34"/>
-      <c r="Q56" s="34"/>
-      <c r="R56" s="34"/>
-      <c r="S56" s="34"/>
-      <c r="T56" s="34"/>
-      <c r="U56" s="34"/>
-      <c r="V56" s="34"/>
-      <c r="W56" s="34"/>
-      <c r="X56" s="34"/>
-      <c r="Y56" s="34"/>
-      <c r="Z56" s="34"/>
-      <c r="AA56" s="34"/>
-      <c r="AB56" s="34"/>
-      <c r="AC56" s="34"/>
-      <c r="AD56" s="34"/>
-      <c r="AE56" s="34"/>
-      <c r="AF56" s="34"/>
-      <c r="AG56" s="34"/>
-      <c r="AH56" s="34"/>
-      <c r="AI56" s="34"/>
-      <c r="AJ56" s="34"/>
-      <c r="AK56" s="34"/>
-      <c r="AL56" s="34"/>
-      <c r="AM56" s="34"/>
-      <c r="AN56" s="34"/>
-      <c r="AO56" s="34"/>
-      <c r="AP56" s="34"/>
-      <c r="AQ56" s="34"/>
-      <c r="AR56" s="34"/>
-      <c r="AS56" s="34"/>
-      <c r="AT56" s="34"/>
-      <c r="AU56" s="34"/>
-      <c r="AV56" s="34"/>
-      <c r="AW56" s="34"/>
-      <c r="AX56" s="34"/>
+    <row r="58" spans="1:50" x14ac:dyDescent="0.35">
+      <c r="A58" s="32"/>
+      <c r="B58" s="32"/>
+      <c r="C58" s="32"/>
+      <c r="D58" s="32"/>
+      <c r="E58" s="33"/>
+      <c r="F58" s="34"/>
+      <c r="G58" s="34"/>
+      <c r="H58" s="32"/>
+      <c r="I58" s="34"/>
+      <c r="J58" s="34"/>
+      <c r="K58" s="32"/>
+      <c r="L58" s="32"/>
+      <c r="M58" s="34"/>
+      <c r="N58" s="34"/>
+      <c r="O58" s="34"/>
+      <c r="P58" s="34"/>
+      <c r="Q58" s="34"/>
+      <c r="R58" s="34"/>
+      <c r="S58" s="34"/>
+      <c r="T58" s="34"/>
+      <c r="U58" s="34"/>
+      <c r="V58" s="34"/>
+      <c r="W58" s="34"/>
+      <c r="X58" s="34"/>
+      <c r="Y58" s="34"/>
+      <c r="Z58" s="34"/>
+      <c r="AA58" s="34"/>
+      <c r="AB58" s="34"/>
+      <c r="AC58" s="34"/>
+      <c r="AD58" s="34"/>
+      <c r="AE58" s="34"/>
+      <c r="AF58" s="34"/>
+      <c r="AG58" s="34"/>
+      <c r="AH58" s="34"/>
+      <c r="AI58" s="34"/>
+      <c r="AJ58" s="34"/>
+      <c r="AK58" s="34"/>
+      <c r="AL58" s="34"/>
+      <c r="AM58" s="34"/>
+      <c r="AN58" s="34"/>
+      <c r="AO58" s="34"/>
+      <c r="AP58" s="34"/>
+      <c r="AQ58" s="34"/>
+      <c r="AR58" s="34"/>
+      <c r="AS58" s="34"/>
+      <c r="AT58" s="34"/>
+      <c r="AU58" s="34"/>
+      <c r="AV58" s="34"/>
+      <c r="AW58" s="34"/>
+    </row>
+    <row r="59" spans="1:50" x14ac:dyDescent="0.35">
+      <c r="AX59" s="54"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -12110,14 +12404,14 @@
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
   <dataValidations count="4">
-    <dataValidation showInputMessage="1" showErrorMessage="1" sqref="P7:Q13 P57:P1048576 Q3:Q16 P14:P55" xr:uid="{00000000-0002-0000-0000-000000000000}"/>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AH57:AH1048576 AH3:AH55" xr:uid="{AF359FC3-11D6-40D8-822F-0719E91CF390}">
+    <dataValidation showInputMessage="1" showErrorMessage="1" sqref="P7:Q13 P59:P1048576 Q3:Q16 P14:P57" xr:uid="{00000000-0002-0000-0000-000000000000}"/>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AH59:AH1048576 AH3:AH57" xr:uid="{AF359FC3-11D6-40D8-822F-0719E91CF390}">
       <formula1>Ecosystem_component</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AQ57:AQ1048576 AQ3:AQ55" xr:uid="{5FFD7ACF-9A7A-47E4-8F02-C092CA18B67C}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AQ59:AQ1048576 AQ3:AQ57" xr:uid="{5FFD7ACF-9A7A-47E4-8F02-C092CA18B67C}">
       <formula1>Fishery_type</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AN3:AN55 AI3:AJ55 AR3:AS55 AR57:AS1048576 AN57:AO1048576 AI57:AJ1048576" xr:uid="{E3465DE4-B915-4C62-9316-EABEC40DC1E6}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AR59:AS1048576 AN59:AO1048576 AI59:AJ1048576 AN3:AN57 AI3:AJ57 AR3:AS57" xr:uid="{E3465DE4-B915-4C62-9316-EABEC40DC1E6}">
       <formula1>INDIRECT(AH3)</formula1>
     </dataValidation>
   </dataValidations>
@@ -12131,91 +12425,91 @@
           <x14:formula1>
             <xm:f>Validation!$R$3:$R$9</xm:f>
           </x14:formula1>
-          <xm:sqref>R57:R1048576 Q3:Q55</xm:sqref>
+          <xm:sqref>R59:R1048576 Q3:Q57</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000003000000}">
           <x14:formula1>
             <xm:f>Validation!$T$3:$T$13</xm:f>
           </x14:formula1>
-          <xm:sqref>T57:T1048576 T3:T55</xm:sqref>
+          <xm:sqref>T59:T1048576 T3:T57</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{29748323-CD5F-4931-861D-B58814ED75B7}">
           <x14:formula1>
             <xm:f>Validation!$AM$5:$AM$11</xm:f>
           </x14:formula1>
-          <xm:sqref>AM57:AM1048576 AM3:AM55</xm:sqref>
+          <xm:sqref>AM59:AM1048576 AM3:AM57</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000002000000}">
           <x14:formula1>
             <xm:f>Validation!$S$3:$S$16</xm:f>
           </x14:formula1>
-          <xm:sqref>S57:S1048576 S3:S55</xm:sqref>
+          <xm:sqref>S59:S1048576 S3:S57</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000004000000}">
           <x14:formula1>
             <xm:f>Validation!$U$3:$U$15</xm:f>
           </x14:formula1>
-          <xm:sqref>U57:U1048576 U3:U55</xm:sqref>
+          <xm:sqref>U59:U1048576 U3:U57</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000005000000}">
           <x14:formula1>
             <xm:f>Validation!$V$3:$V$13</xm:f>
           </x14:formula1>
-          <xm:sqref>V57:V1048576 V3:V55</xm:sqref>
+          <xm:sqref>V59:V1048576 V3:V57</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000006000000}">
           <x14:formula1>
             <xm:f>Validation!$W$3:$W$16</xm:f>
           </x14:formula1>
-          <xm:sqref>W57:W1048576 W3:W55</xm:sqref>
+          <xm:sqref>W59:W1048576 W3:W57</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000008000000}">
           <x14:formula1>
             <xm:f>Validation!$AA$3:$AA$5</xm:f>
           </x14:formula1>
-          <xm:sqref>AA57:AA1048576 AA3:AA55</xm:sqref>
+          <xm:sqref>AA59:AA1048576 AA3:AA57</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000009000000}">
           <x14:formula1>
             <xm:f>Validation!$AB$3:$AB$5</xm:f>
           </x14:formula1>
-          <xm:sqref>AB57:AB1048576 AB3:AB55</xm:sqref>
+          <xm:sqref>AB59:AB1048576 AB3:AB57</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-00000A000000}">
           <x14:formula1>
             <xm:f>Validation!$AC$3:$AC$5</xm:f>
           </x14:formula1>
-          <xm:sqref>AC57:AC1048576 AC3:AC55</xm:sqref>
+          <xm:sqref>AC59:AC1048576 AC3:AC57</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{6E0E886C-57EB-4CC0-93EF-80FA3E3ACE94}">
           <x14:formula1>
             <xm:f>Validation!$AG$3:$AG$9</xm:f>
           </x14:formula1>
-          <xm:sqref>AG57:AG1048576 AG3:AG55</xm:sqref>
+          <xm:sqref>AG59:AG1048576 AG3:AG57</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{FD092EEC-9635-4A23-B39A-38C3C681ED3E}">
           <x14:formula1>
             <xm:f>Validation!$AK$3:$AK$7</xm:f>
           </x14:formula1>
-          <xm:sqref>AK57:AK1048576 AK3:AK55</xm:sqref>
+          <xm:sqref>AK59:AK1048576 AK3:AK57</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{16FDFCD7-4CD9-4F70-9E07-7559EBA53348}">
           <x14:formula1>
             <xm:f>Validation!$X$3:$X$16</xm:f>
           </x14:formula1>
-          <xm:sqref>X57:X1048576 X3:X55</xm:sqref>
+          <xm:sqref>X59:X1048576 X3:X57</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{1AED246B-78BD-4B6C-B85A-7398E223C347}">
           <x14:formula1>
             <xm:f>Validation!$AV$3:$AV$6</xm:f>
           </x14:formula1>
-          <xm:sqref>AW57:AW1048576 AW3:AW55</xm:sqref>
+          <xm:sqref>AW59:AW1048576 AW3:AW57</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{6F97DC8F-A365-45BB-9124-070E7CE8EC23}">
           <x14:formula1>
             <xm:f>Validation!$AU$3:$AU$15</xm:f>
           </x14:formula1>
-          <xm:sqref>AV57:AV1048576 AV3:AV55</xm:sqref>
+          <xm:sqref>AV59:AV1048576 AV3:AV57</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -14184,15 +14478,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101006AB0F5ECCA53DA47AEBDEAEE6167985F" ma:contentTypeVersion="0" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="125e2131eddd38cce17ebc9527d7a9d7">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="553f2d8843fd2aa64b81f9e8c63a6619">
     <xsd:element name="properties">
@@ -14306,30 +14591,31 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{495201D0-9695-4A45-BC3A-28D949F46F55}">
   <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
     <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{66D459FE-C8DA-484C-BC8E-5EB6A351EBC9}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0A255394-17D8-4AFD-BEE7-8B5EDCA285C5}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -14343,4 +14629,12 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{66D459FE-C8DA-484C-BC8E-5EB6A351EBC9}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/Systematic Reviews/Analysis Task 4.1/Data_Extraction_Files/DataExtractionForm_WP4_Basurko.xlsx
+++ b/Systematic Reviews/Analysis Task 4.1/Data_Extraction_Files/DataExtractionForm_WP4_Basurko.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25831"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://dtudk-my.sharepoint.com/personal/estb_dtu_dk/Documents/Projects/SEAwise/SEAwise GitHub/Systematic Reviews/Analysis Task 4.1/Data_Extraction_Files/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://share.dtu.dk/sites/SEAwise_517900/Shared Documents/WP4 Ecological effects of fisheries/Task 4.1/Data extraction/Data extraction files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="5" documentId="13_ncr:1_{A58041C6-9DC6-4165-B9DE-F1DC87AD890F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9F2E8B57-BB73-4490-99D3-1EE73A337B2B}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCC0211F-AE6D-4C47-9781-E6FC8FB944CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3819,9 +3819,6 @@
     <t>Functional composition of benthic communities</t>
   </si>
   <si>
-    <t>Abundance</t>
-  </si>
-  <si>
     <t>The gain in the catch of cod by a total ban on the capelin fishery is about 10% of the corresponding loss in the capelin catch, provided tha the capelin is caught during winter and that at least 500,000 tonnes of capelin are allowed to spawn.</t>
   </si>
   <si>
@@ -4283,6 +4280,9 @@
   </si>
   <si>
     <t>Gadus morhua</t>
+  </si>
+  <si>
+    <t>Number of species</t>
   </si>
 </sst>
 </file>
@@ -4876,11 +4876,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AX58"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane xSplit="1" ySplit="2" topLeftCell="AQ3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="AV60" sqref="AV60"/>
+      <selection pane="bottomRight" activeCell="AX29" sqref="AX29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -5303,7 +5303,7 @@
         <v>485</v>
       </c>
       <c r="Z4" s="26" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="AA4" s="26">
         <v>2</v>
@@ -5335,14 +5335,14 @@
       </c>
       <c r="AK4" s="26"/>
       <c r="AL4" s="26" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="AM4" s="26" t="s">
         <v>233</v>
       </c>
       <c r="AN4" s="26"/>
       <c r="AO4" s="26" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="AP4" s="26"/>
       <c r="AQ4" s="26" t="s">
@@ -5356,7 +5356,7 @@
       </c>
       <c r="AT4" s="26"/>
       <c r="AU4" s="26" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="AV4" s="26" t="s">
         <v>214</v>
@@ -5365,7 +5365,7 @@
         <v>211</v>
       </c>
       <c r="AX4" s="26" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
     </row>
     <row r="5" spans="1:50" s="13" customFormat="1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -5443,7 +5443,7 @@
         <v>486</v>
       </c>
       <c r="Z5" s="29" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="AA5" s="29">
         <v>2</v>
@@ -5456,7 +5456,7 @@
       </c>
       <c r="AD5" s="29"/>
       <c r="AE5" s="29" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="AF5" s="29" t="s">
         <v>280</v>
@@ -5475,7 +5475,7 @@
       </c>
       <c r="AK5" s="29"/>
       <c r="AL5" s="29" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="AM5" s="29" t="s">
         <v>234</v>
@@ -5484,10 +5484,10 @@
         <v>164</v>
       </c>
       <c r="AO5" s="29" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="AP5" s="29" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="AQ5" s="29" t="s">
         <v>166</v>
@@ -5500,7 +5500,7 @@
       </c>
       <c r="AT5" s="29"/>
       <c r="AU5" s="29" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="AV5" s="29" t="s">
         <v>240</v>
@@ -5509,7 +5509,7 @@
         <v>209</v>
       </c>
       <c r="AX5" s="29" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="6" spans="1:50" s="13" customFormat="1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -5587,7 +5587,7 @@
         <v>486</v>
       </c>
       <c r="Z6" s="20" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="AA6" s="20">
         <v>2</v>
@@ -5600,7 +5600,7 @@
       </c>
       <c r="AD6" s="20"/>
       <c r="AE6" s="20" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="AF6" s="20" t="s">
         <v>280</v>
@@ -5619,17 +5619,17 @@
       </c>
       <c r="AK6" s="20"/>
       <c r="AL6" s="20" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="AM6" s="20" t="s">
         <v>161</v>
       </c>
       <c r="AN6" s="20"/>
       <c r="AO6" s="20" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="AP6" s="20" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="AQ6" s="20" t="s">
         <v>166</v>
@@ -5641,10 +5641,10 @@
         <v>192</v>
       </c>
       <c r="AT6" s="20" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="AU6" s="20" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="AV6" s="20" t="s">
         <v>205</v>
@@ -5653,7 +5653,7 @@
         <v>212</v>
       </c>
       <c r="AX6" s="20" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
     </row>
     <row r="7" spans="1:50" s="14" customFormat="1" ht="16.399999999999999" customHeight="1" x14ac:dyDescent="0.35">
@@ -5728,10 +5728,10 @@
         <v>75</v>
       </c>
       <c r="Y7" s="29" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="Z7" s="29" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="AA7" s="32">
         <v>2</v>
@@ -5759,14 +5759,14 @@
       <c r="AJ7" s="32"/>
       <c r="AK7" s="32"/>
       <c r="AL7" s="32" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="AM7" s="32" t="s">
         <v>235</v>
       </c>
       <c r="AN7" s="32"/>
       <c r="AO7" s="32" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="AP7" s="32"/>
       <c r="AQ7" s="32" t="s">
@@ -5779,10 +5779,10 @@
         <v>177</v>
       </c>
       <c r="AT7" s="32" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="AU7" s="32" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="AV7" s="32" t="s">
         <v>205</v>
@@ -5791,7 +5791,7 @@
         <v>212</v>
       </c>
       <c r="AX7" s="48" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
     </row>
     <row r="8" spans="1:50" s="14" customFormat="1" ht="16.399999999999999" customHeight="1" x14ac:dyDescent="0.35">
@@ -5866,10 +5866,10 @@
         <v>75</v>
       </c>
       <c r="Y8" s="29" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="Z8" s="29" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="AA8" s="32">
         <v>2</v>
@@ -5899,14 +5899,14 @@
       <c r="AJ8" s="32"/>
       <c r="AK8" s="32"/>
       <c r="AL8" s="32" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="AM8" s="32" t="s">
         <v>235</v>
       </c>
       <c r="AN8" s="32"/>
       <c r="AO8" s="32" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="AP8" s="32"/>
       <c r="AQ8" s="32" t="s">
@@ -5919,10 +5919,10 @@
         <v>177</v>
       </c>
       <c r="AT8" s="32" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="AU8" s="32" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="AV8" s="32" t="s">
         <v>205</v>
@@ -5931,7 +5931,7 @@
         <v>212</v>
       </c>
       <c r="AX8" s="48" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
     </row>
     <row r="9" spans="1:50" s="14" customFormat="1" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
@@ -6006,10 +6006,10 @@
         <v>75</v>
       </c>
       <c r="Y9" s="20" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="Z9" s="20" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="AA9" s="22">
         <v>2</v>
@@ -6041,14 +6041,14 @@
       </c>
       <c r="AK9" s="22"/>
       <c r="AL9" s="22" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="AM9" s="22" t="s">
         <v>235</v>
       </c>
       <c r="AN9" s="22"/>
       <c r="AO9" s="32" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="AP9" s="22"/>
       <c r="AQ9" s="22" t="s">
@@ -6061,10 +6061,10 @@
         <v>177</v>
       </c>
       <c r="AT9" s="22" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="AU9" s="32" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="AV9" s="32" t="s">
         <v>205</v>
@@ -6073,7 +6073,7 @@
         <v>212</v>
       </c>
       <c r="AX9" s="48" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
     </row>
     <row r="10" spans="1:50" s="14" customFormat="1" ht="16.399999999999999" customHeight="1" x14ac:dyDescent="0.35">
@@ -6148,10 +6148,10 @@
         <v>75</v>
       </c>
       <c r="Y10" s="29" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="Z10" s="29" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="AA10" s="32">
         <v>2</v>
@@ -6179,14 +6179,14 @@
       <c r="AJ10" s="32"/>
       <c r="AK10" s="32"/>
       <c r="AL10" s="32" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="AM10" s="32" t="s">
         <v>235</v>
       </c>
       <c r="AN10" s="32"/>
       <c r="AO10" s="32" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="AP10" s="32"/>
       <c r="AQ10" s="32" t="s">
@@ -6199,10 +6199,10 @@
         <v>177</v>
       </c>
       <c r="AT10" s="32" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="AU10" s="32" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="AV10" s="32" t="s">
         <v>205</v>
@@ -6211,7 +6211,7 @@
         <v>211</v>
       </c>
       <c r="AX10" s="48" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
     </row>
     <row r="11" spans="1:50" s="14" customFormat="1" ht="16.399999999999999" customHeight="1" x14ac:dyDescent="0.35">
@@ -6286,10 +6286,10 @@
         <v>75</v>
       </c>
       <c r="Y11" s="29" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="Z11" s="29" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="AA11" s="32">
         <v>2</v>
@@ -6319,14 +6319,14 @@
       <c r="AJ11" s="32"/>
       <c r="AK11" s="32"/>
       <c r="AL11" s="32" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="AM11" s="32" t="s">
         <v>235</v>
       </c>
       <c r="AN11" s="32"/>
       <c r="AO11" s="32" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="AP11" s="32"/>
       <c r="AQ11" s="32" t="s">
@@ -6339,10 +6339,10 @@
         <v>177</v>
       </c>
       <c r="AT11" s="32" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="AU11" s="32" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="AV11" s="32" t="s">
         <v>205</v>
@@ -6351,7 +6351,7 @@
         <v>211</v>
       </c>
       <c r="AX11" s="48" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
     </row>
     <row r="12" spans="1:50" s="14" customFormat="1" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
@@ -6426,10 +6426,10 @@
         <v>75</v>
       </c>
       <c r="Y12" s="20" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="Z12" s="20" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="AA12" s="22">
         <v>2</v>
@@ -6461,14 +6461,14 @@
       </c>
       <c r="AK12" s="22"/>
       <c r="AL12" s="22" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="AM12" s="22" t="s">
         <v>235</v>
       </c>
       <c r="AN12" s="22"/>
       <c r="AO12" s="32" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="AP12" s="22"/>
       <c r="AQ12" s="22" t="s">
@@ -6481,10 +6481,10 @@
         <v>177</v>
       </c>
       <c r="AT12" s="22" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="AU12" s="32" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="AV12" s="32" t="s">
         <v>205</v>
@@ -6493,7 +6493,7 @@
         <v>211</v>
       </c>
       <c r="AX12" s="48" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
     </row>
     <row r="13" spans="1:50" x14ac:dyDescent="0.35">
@@ -6661,7 +6661,7 @@
         <v>487</v>
       </c>
       <c r="Z14" s="29" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="AA14" s="32">
         <v>2</v>
@@ -6696,10 +6696,10 @@
       </c>
       <c r="AN14" s="32"/>
       <c r="AO14" s="32" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="AP14" s="32" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="AQ14" s="32" t="s">
         <v>166</v>
@@ -6723,7 +6723,7 @@
         <v>210</v>
       </c>
       <c r="AX14" s="29" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
     </row>
     <row r="15" spans="1:50" s="15" customFormat="1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -6801,7 +6801,7 @@
         <v>487</v>
       </c>
       <c r="Z15" s="20" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="AA15" s="22">
         <v>2</v>
@@ -6836,10 +6836,10 @@
       </c>
       <c r="AN15" s="22"/>
       <c r="AO15" s="22" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="AP15" s="22" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="AQ15" s="22" t="s">
         <v>166</v>
@@ -6854,7 +6854,7 @@
         <v>490</v>
       </c>
       <c r="AU15" s="22" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="AV15" s="22" t="s">
         <v>201</v>
@@ -6863,7 +6863,7 @@
         <v>210</v>
       </c>
       <c r="AX15" s="20" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
     </row>
     <row r="16" spans="1:50" s="14" customFormat="1" ht="17.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -6937,7 +6937,7 @@
         <v>492</v>
       </c>
       <c r="Z16" s="29" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="AA16" s="32">
         <v>2</v>
@@ -6971,7 +6971,7 @@
         <v>136</v>
       </c>
       <c r="AL16" s="32" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="AM16" s="32" t="s">
         <v>234</v>
@@ -6994,7 +6994,7 @@
       </c>
       <c r="AT16" s="29"/>
       <c r="AU16" s="29" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="AV16" s="32" t="s">
         <v>215</v>
@@ -7003,7 +7003,7 @@
         <v>210</v>
       </c>
       <c r="AX16" s="29" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
     </row>
     <row r="17" spans="1:50" s="14" customFormat="1" x14ac:dyDescent="0.35">
@@ -7437,7 +7437,7 @@
         <v>217</v>
       </c>
       <c r="Z21" s="7" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="AA21" s="7">
         <v>2</v>
@@ -7461,7 +7461,7 @@
         <v>146</v>
       </c>
       <c r="AL21" s="7" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="AM21" s="7" t="s">
         <v>234</v>
@@ -7470,7 +7470,7 @@
         <v>162</v>
       </c>
       <c r="AO21" s="7" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="AQ21" s="7" t="s">
         <v>166</v>
@@ -7482,10 +7482,10 @@
         <v>178</v>
       </c>
       <c r="AT21" s="7" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="AU21" s="7" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="AV21" s="7" t="s">
         <v>201</v>
@@ -7494,7 +7494,7 @@
         <v>209</v>
       </c>
       <c r="AX21" s="7" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
     </row>
     <row r="22" spans="1:50" x14ac:dyDescent="0.35">
@@ -7569,10 +7569,10 @@
         <v>75</v>
       </c>
       <c r="Y22" s="43" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="Z22" s="43" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="AA22" s="43">
         <v>1</v>
@@ -7584,7 +7584,7 @@
         <v>3</v>
       </c>
       <c r="AD22" s="43" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="AE22" s="43"/>
       <c r="AF22" s="43" t="s">
@@ -7602,14 +7602,14 @@
       <c r="AJ22" s="43"/>
       <c r="AK22" s="43"/>
       <c r="AL22" s="43" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="AM22" s="43" t="s">
         <v>161</v>
       </c>
       <c r="AN22" s="43"/>
       <c r="AO22" s="43" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="AP22" s="43"/>
       <c r="AQ22" s="43" t="s">
@@ -7622,10 +7622,10 @@
         <v>177</v>
       </c>
       <c r="AT22" s="43" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="AU22" s="43" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="AV22" s="43" t="s">
         <v>205</v>
@@ -7634,7 +7634,7 @@
         <v>209</v>
       </c>
       <c r="AX22" s="43" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="23" spans="1:50" x14ac:dyDescent="0.35">
@@ -7708,10 +7708,10 @@
         <v>75</v>
       </c>
       <c r="Y23" s="7" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="Z23" s="7" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="AA23" s="7">
         <v>1</v>
@@ -7723,7 +7723,7 @@
         <v>3</v>
       </c>
       <c r="AD23" s="7" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="AF23" s="7" t="s">
         <v>290</v>
@@ -7738,13 +7738,13 @@
         <v>146</v>
       </c>
       <c r="AL23" s="7" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="AM23" s="7" t="s">
         <v>234</v>
       </c>
       <c r="AO23" s="7" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="AQ23" s="7" t="s">
         <v>166</v>
@@ -7756,10 +7756,10 @@
         <v>177</v>
       </c>
       <c r="AT23" s="7" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="AU23" s="7" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="AV23" s="7" t="s">
         <v>208</v>
@@ -7768,7 +7768,7 @@
         <v>209</v>
       </c>
       <c r="AX23" s="7" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="24" spans="1:50" x14ac:dyDescent="0.35">
@@ -7933,10 +7933,10 @@
         <v>75</v>
       </c>
       <c r="Y25" s="43" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="Z25" s="43" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="AA25" s="43">
         <v>2</v>
@@ -7948,7 +7948,7 @@
         <v>3</v>
       </c>
       <c r="AD25" s="43" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="AE25" s="43"/>
       <c r="AF25" s="43" t="s">
@@ -7966,14 +7966,14 @@
       <c r="AJ25" s="43"/>
       <c r="AK25" s="43"/>
       <c r="AL25" s="43" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="AM25" s="43" t="s">
         <v>235</v>
       </c>
       <c r="AN25" s="43"/>
       <c r="AO25" s="43" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="AP25" s="43"/>
       <c r="AQ25" s="43" t="s">
@@ -7986,10 +7986,10 @@
         <v>178</v>
       </c>
       <c r="AT25" s="43" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="AU25" s="43" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="AV25" s="43" t="s">
         <v>205</v>
@@ -7998,7 +7998,7 @@
         <v>209</v>
       </c>
       <c r="AX25" s="43" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
     </row>
     <row r="26" spans="1:50" x14ac:dyDescent="0.35">
@@ -8072,10 +8072,10 @@
         <v>75</v>
       </c>
       <c r="Y26" s="7" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="Z26" s="7" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="AA26" s="7">
         <v>2</v>
@@ -8087,7 +8087,7 @@
         <v>3</v>
       </c>
       <c r="AD26" s="7" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="AF26" s="7" t="s">
         <v>290</v>
@@ -8102,7 +8102,7 @@
         <v>132</v>
       </c>
       <c r="AL26" s="7" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="AM26" s="7" t="s">
         <v>234</v>
@@ -8111,7 +8111,7 @@
         <v>162</v>
       </c>
       <c r="AO26" s="7" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="AQ26" s="7" t="s">
         <v>166</v>
@@ -8123,10 +8123,10 @@
         <v>178</v>
       </c>
       <c r="AT26" s="7" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="AU26" s="7" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="AV26" s="7" t="s">
         <v>205</v>
@@ -8135,7 +8135,7 @@
         <v>212</v>
       </c>
       <c r="AX26" s="7" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
     </row>
     <row r="27" spans="1:50" s="14" customFormat="1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -8211,7 +8211,7 @@
       </c>
       <c r="Y27" s="32"/>
       <c r="Z27" s="32" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="AA27" s="32">
         <v>2</v>
@@ -8241,17 +8241,17 @@
       </c>
       <c r="AK27" s="32"/>
       <c r="AL27" s="32" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="AM27" s="32" t="s">
         <v>235</v>
       </c>
       <c r="AN27" s="32"/>
       <c r="AO27" s="32" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="AP27" s="32" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="AQ27" s="32" t="s">
         <v>166</v>
@@ -8263,10 +8263,10 @@
         <v>178</v>
       </c>
       <c r="AT27" s="32" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="AU27" s="32" t="s">
-        <v>494</v>
+        <v>647</v>
       </c>
       <c r="AV27" s="32" t="s">
         <v>207</v>
@@ -8275,7 +8275,7 @@
         <v>210</v>
       </c>
       <c r="AX27" s="29" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
     </row>
     <row r="28" spans="1:50" s="14" customFormat="1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -8351,7 +8351,7 @@
       </c>
       <c r="Y28" s="32"/>
       <c r="Z28" s="32" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="AA28" s="32">
         <v>2</v>
@@ -8381,17 +8381,17 @@
       </c>
       <c r="AK28" s="32"/>
       <c r="AL28" s="32" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="AM28" s="32" t="s">
         <v>235</v>
       </c>
       <c r="AN28" s="32"/>
       <c r="AO28" s="32" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="AP28" s="32" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="AQ28" s="32" t="s">
         <v>166</v>
@@ -8403,10 +8403,10 @@
         <v>178</v>
       </c>
       <c r="AT28" s="32" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="AU28" s="32" t="s">
-        <v>494</v>
+        <v>647</v>
       </c>
       <c r="AV28" s="32" t="s">
         <v>207</v>
@@ -8415,7 +8415,7 @@
         <v>210</v>
       </c>
       <c r="AX28" s="29" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
     </row>
     <row r="29" spans="1:50" s="14" customFormat="1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -8491,7 +8491,7 @@
       </c>
       <c r="Y29" s="32"/>
       <c r="Z29" s="32" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="AA29" s="32">
         <v>2</v>
@@ -8521,17 +8521,17 @@
       </c>
       <c r="AK29" s="32"/>
       <c r="AL29" s="32" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="AM29" s="32" t="s">
         <v>235</v>
       </c>
       <c r="AN29" s="32"/>
       <c r="AO29" s="32" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="AP29" s="32" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="AQ29" s="32" t="s">
         <v>166</v>
@@ -8543,10 +8543,10 @@
         <v>178</v>
       </c>
       <c r="AT29" s="32" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="AU29" s="32" t="s">
-        <v>494</v>
+        <v>647</v>
       </c>
       <c r="AV29" s="32" t="s">
         <v>207</v>
@@ -8555,7 +8555,7 @@
         <v>212</v>
       </c>
       <c r="AX29" s="29" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
     </row>
     <row r="30" spans="1:50" x14ac:dyDescent="0.35">
@@ -8631,7 +8631,7 @@
       </c>
       <c r="Y30" s="43"/>
       <c r="Z30" s="43" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="AA30" s="43">
         <v>2</v>
@@ -8643,7 +8643,7 @@
         <v>3</v>
       </c>
       <c r="AD30" s="43" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="AE30" s="43"/>
       <c r="AF30" s="43" t="s">
@@ -8661,7 +8661,7 @@
       <c r="AJ30" s="43"/>
       <c r="AK30" s="43"/>
       <c r="AL30" s="43" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="AM30" s="43" t="s">
         <v>234</v>
@@ -8670,7 +8670,7 @@
         <v>162</v>
       </c>
       <c r="AO30" s="43" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="AP30" s="43"/>
       <c r="AQ30" s="43" t="s">
@@ -8681,10 +8681,10 @@
       </c>
       <c r="AS30" s="43"/>
       <c r="AT30" s="43" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="AU30" s="43" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="AV30" s="43" t="s">
         <v>201</v>
@@ -8693,7 +8693,7 @@
         <v>209</v>
       </c>
       <c r="AX30" s="7" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
     </row>
     <row r="31" spans="1:50" x14ac:dyDescent="0.35">
@@ -8769,7 +8769,7 @@
       </c>
       <c r="Y31" s="43"/>
       <c r="Z31" s="43" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="AA31" s="43">
         <v>2</v>
@@ -8781,7 +8781,7 @@
         <v>3</v>
       </c>
       <c r="AD31" s="43" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="AE31" s="43"/>
       <c r="AF31" s="43" t="s">
@@ -8799,7 +8799,7 @@
       <c r="AJ31" s="43"/>
       <c r="AK31" s="43"/>
       <c r="AL31" s="43" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="AM31" s="43" t="s">
         <v>234</v>
@@ -8808,7 +8808,7 @@
         <v>162</v>
       </c>
       <c r="AO31" s="43" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="AP31" s="43"/>
       <c r="AQ31" s="43" t="s">
@@ -8819,10 +8819,10 @@
       </c>
       <c r="AS31" s="43"/>
       <c r="AT31" s="43" t="s">
+        <v>641</v>
+      </c>
+      <c r="AU31" s="43" t="s">
         <v>642</v>
-      </c>
-      <c r="AU31" s="43" t="s">
-        <v>643</v>
       </c>
       <c r="AV31" s="43" t="s">
         <v>202</v>
@@ -8831,7 +8831,7 @@
         <v>209</v>
       </c>
       <c r="AX31" s="7" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
     </row>
     <row r="32" spans="1:50" x14ac:dyDescent="0.35">
@@ -8907,7 +8907,7 @@
       </c>
       <c r="Y32" s="43"/>
       <c r="Z32" s="43" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="AA32" s="43">
         <v>2</v>
@@ -8919,7 +8919,7 @@
         <v>3</v>
       </c>
       <c r="AD32" s="43" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="AE32" s="43"/>
       <c r="AF32" s="43" t="s">
@@ -8937,7 +8937,7 @@
       <c r="AJ32" s="43"/>
       <c r="AK32" s="43"/>
       <c r="AL32" s="43" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="AM32" s="43" t="s">
         <v>234</v>
@@ -8946,7 +8946,7 @@
         <v>162</v>
       </c>
       <c r="AO32" s="43" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="AP32" s="43"/>
       <c r="AQ32" s="43" t="s">
@@ -8957,10 +8957,10 @@
       </c>
       <c r="AS32" s="43"/>
       <c r="AT32" s="43" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="AU32" s="43" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="AV32" s="43" t="s">
         <v>201</v>
@@ -8969,7 +8969,7 @@
         <v>209</v>
       </c>
       <c r="AX32" s="7" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
     </row>
     <row r="33" spans="1:50" x14ac:dyDescent="0.35">
@@ -9043,10 +9043,10 @@
         <v>218</v>
       </c>
       <c r="Y33" s="7" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="Z33" s="7" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="AA33" s="7">
         <v>2</v>
@@ -9058,7 +9058,7 @@
         <v>3</v>
       </c>
       <c r="AD33" s="7" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="AF33" s="7" t="s">
         <v>259</v>
@@ -9073,13 +9073,13 @@
         <v>143</v>
       </c>
       <c r="AL33" s="7" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="AM33" s="7" t="s">
         <v>235</v>
       </c>
       <c r="AO33" s="7" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="AQ33" s="7" t="s">
         <v>166</v>
@@ -9088,10 +9088,10 @@
         <v>241</v>
       </c>
       <c r="AT33" s="7" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="AU33" s="7" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="AV33" s="7" t="s">
         <v>115</v>
@@ -9100,7 +9100,7 @@
         <v>212</v>
       </c>
       <c r="AX33" s="7" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
     </row>
     <row r="34" spans="1:50" x14ac:dyDescent="0.35">
@@ -9174,10 +9174,10 @@
         <v>218</v>
       </c>
       <c r="Y34" s="7" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="Z34" s="7" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="AA34" s="7">
         <v>2</v>
@@ -9189,7 +9189,7 @@
         <v>3</v>
       </c>
       <c r="AD34" s="7" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="AF34" s="7" t="s">
         <v>259</v>
@@ -9207,13 +9207,13 @@
         <v>143</v>
       </c>
       <c r="AL34" s="7" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="AM34" s="7" t="s">
         <v>235</v>
       </c>
       <c r="AO34" s="7" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="AQ34" s="7" t="s">
         <v>166</v>
@@ -9222,10 +9222,10 @@
         <v>241</v>
       </c>
       <c r="AT34" s="7" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="AU34" s="7" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="AV34" s="7" t="s">
         <v>201</v>
@@ -9234,7 +9234,7 @@
         <v>211</v>
       </c>
       <c r="AX34" s="43" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
     </row>
     <row r="35" spans="1:50" x14ac:dyDescent="0.35">
@@ -9308,10 +9308,10 @@
         <v>218</v>
       </c>
       <c r="Y35" s="7" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="Z35" s="7" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="AA35" s="7">
         <v>2</v>
@@ -9323,7 +9323,7 @@
         <v>3</v>
       </c>
       <c r="AD35" s="7" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="AF35" s="7" t="s">
         <v>259</v>
@@ -9341,13 +9341,13 @@
         <v>143</v>
       </c>
       <c r="AL35" s="7" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="AM35" s="7" t="s">
         <v>235</v>
       </c>
       <c r="AO35" s="7" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="AQ35" s="7" t="s">
         <v>166</v>
@@ -9356,10 +9356,10 @@
         <v>241</v>
       </c>
       <c r="AT35" s="7" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="AU35" s="7" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="AV35" s="7" t="s">
         <v>208</v>
@@ -9368,7 +9368,7 @@
         <v>211</v>
       </c>
       <c r="AX35" s="43" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
     </row>
     <row r="36" spans="1:50" x14ac:dyDescent="0.35">
@@ -9442,10 +9442,10 @@
         <v>218</v>
       </c>
       <c r="Y36" s="7" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="Z36" s="7" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="AA36" s="7">
         <v>2</v>
@@ -9457,7 +9457,7 @@
         <v>3</v>
       </c>
       <c r="AD36" s="7" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="AF36" s="7" t="s">
         <v>259</v>
@@ -9475,13 +9475,13 @@
         <v>143</v>
       </c>
       <c r="AL36" s="7" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="AM36" s="7" t="s">
         <v>235</v>
       </c>
       <c r="AO36" s="7" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="AQ36" s="7" t="s">
         <v>166</v>
@@ -9490,10 +9490,10 @@
         <v>241</v>
       </c>
       <c r="AT36" s="7" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="AU36" s="7" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="AV36" s="7" t="s">
         <v>207</v>
@@ -9502,7 +9502,7 @@
         <v>211</v>
       </c>
       <c r="AX36" s="43" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
     </row>
     <row r="37" spans="1:50" x14ac:dyDescent="0.35">
@@ -9576,10 +9576,10 @@
         <v>218</v>
       </c>
       <c r="Y37" s="7" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="Z37" s="7" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="AA37" s="7">
         <v>2</v>
@@ -9591,7 +9591,7 @@
         <v>3</v>
       </c>
       <c r="AD37" s="7" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="AF37" s="7" t="s">
         <v>259</v>
@@ -9609,13 +9609,13 @@
         <v>143</v>
       </c>
       <c r="AL37" s="7" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="AM37" s="7" t="s">
         <v>235</v>
       </c>
       <c r="AO37" s="7" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="AQ37" s="7" t="s">
         <v>166</v>
@@ -9624,10 +9624,10 @@
         <v>241</v>
       </c>
       <c r="AT37" s="7" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="AU37" s="7" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="AV37" s="7" t="s">
         <v>207</v>
@@ -9636,7 +9636,7 @@
         <v>211</v>
       </c>
       <c r="AX37" s="43" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
     </row>
     <row r="38" spans="1:50" x14ac:dyDescent="0.35">
@@ -9801,10 +9801,10 @@
         <v>218</v>
       </c>
       <c r="Y39" s="43" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="Z39" s="43" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="AA39" s="43">
         <v>2</v>
@@ -9816,7 +9816,7 @@
         <v>3</v>
       </c>
       <c r="AD39" s="43" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="AE39" s="43"/>
       <c r="AF39" s="43" t="s">
@@ -9834,7 +9834,7 @@
       <c r="AJ39" s="43"/>
       <c r="AK39" s="43"/>
       <c r="AL39" s="43" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="AM39" s="43" t="s">
         <v>234</v>
@@ -9843,10 +9843,10 @@
         <v>162</v>
       </c>
       <c r="AO39" s="43" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="AP39" s="43" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="AQ39" s="43" t="s">
         <v>166</v>
@@ -9858,10 +9858,10 @@
         <v>183</v>
       </c>
       <c r="AT39" s="43" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="AU39" s="43" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="AV39" s="43" t="s">
         <v>208</v>
@@ -9870,7 +9870,7 @@
         <v>209</v>
       </c>
       <c r="AX39" s="43" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
     </row>
     <row r="40" spans="1:50" x14ac:dyDescent="0.35">
@@ -9944,10 +9944,10 @@
         <v>218</v>
       </c>
       <c r="Y40" s="7" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="Z40" s="7" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="AA40" s="7">
         <v>2</v>
@@ -9959,7 +9959,7 @@
         <v>3</v>
       </c>
       <c r="AD40" s="7" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="AF40" s="7" t="s">
         <v>290</v>
@@ -9974,7 +9974,7 @@
         <v>149</v>
       </c>
       <c r="AL40" s="7" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="AM40" s="7" t="s">
         <v>234</v>
@@ -9983,10 +9983,10 @@
         <v>162</v>
       </c>
       <c r="AO40" s="7" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="AP40" s="7" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="AQ40" s="7" t="s">
         <v>166</v>
@@ -9998,10 +9998,10 @@
         <v>183</v>
       </c>
       <c r="AT40" s="7" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="AU40" s="7" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="AV40" s="7" t="s">
         <v>201</v>
@@ -10010,7 +10010,7 @@
         <v>209</v>
       </c>
       <c r="AX40" s="7" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
     </row>
     <row r="41" spans="1:50" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -10085,10 +10085,10 @@
         <v>218</v>
       </c>
       <c r="Y41" s="43" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="Z41" s="43" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="AA41" s="43">
         <v>2</v>
@@ -10100,7 +10100,7 @@
         <v>3</v>
       </c>
       <c r="AD41" s="44" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="AE41" s="43"/>
       <c r="AF41" s="43" t="s">
@@ -10125,7 +10125,7 @@
         <v>162</v>
       </c>
       <c r="AO41" s="43" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="AP41" s="43"/>
       <c r="AQ41" s="43" t="s">
@@ -10138,10 +10138,10 @@
         <v>178</v>
       </c>
       <c r="AT41" s="43" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="AU41" s="43" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="AV41" s="43" t="s">
         <v>201</v>
@@ -10150,7 +10150,7 @@
         <v>211</v>
       </c>
       <c r="AX41" s="44" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
     </row>
     <row r="42" spans="1:50" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -10224,10 +10224,10 @@
         <v>218</v>
       </c>
       <c r="Y42" s="7" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="Z42" s="7" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="AA42" s="7">
         <v>2</v>
@@ -10239,7 +10239,7 @@
         <v>3</v>
       </c>
       <c r="AD42" s="23" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="AF42" s="7" t="s">
         <v>319</v>
@@ -10260,7 +10260,7 @@
         <v>162</v>
       </c>
       <c r="AO42" s="7" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="AQ42" s="7" t="s">
         <v>166</v>
@@ -10272,10 +10272,10 @@
         <v>178</v>
       </c>
       <c r="AT42" s="7" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="AU42" s="7" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="AV42" s="7" t="s">
         <v>201</v>
@@ -10284,7 +10284,7 @@
         <v>210</v>
       </c>
       <c r="AX42" s="23" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
     </row>
     <row r="43" spans="1:50" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -10358,10 +10358,10 @@
         <v>218</v>
       </c>
       <c r="Y43" s="7" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="Z43" s="7" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="AA43" s="7">
         <v>2</v>
@@ -10373,7 +10373,7 @@
         <v>3</v>
       </c>
       <c r="AD43" s="23" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="AF43" s="7" t="s">
         <v>319</v>
@@ -10394,7 +10394,7 @@
         <v>162</v>
       </c>
       <c r="AO43" s="7" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="AQ43" s="7" t="s">
         <v>166</v>
@@ -10406,10 +10406,10 @@
         <v>178</v>
       </c>
       <c r="AT43" s="7" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="AU43" s="7" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="AV43" s="7" t="s">
         <v>201</v>
@@ -10418,7 +10418,7 @@
         <v>210</v>
       </c>
       <c r="AX43" s="23" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
     </row>
     <row r="44" spans="1:50" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -10492,10 +10492,10 @@
         <v>218</v>
       </c>
       <c r="Y44" s="7" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="Z44" s="7" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="AA44" s="7">
         <v>2</v>
@@ -10507,7 +10507,7 @@
         <v>3</v>
       </c>
       <c r="AD44" s="23" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="AF44" s="7" t="s">
         <v>319</v>
@@ -10528,7 +10528,7 @@
         <v>162</v>
       </c>
       <c r="AO44" s="7" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="AQ44" s="7" t="s">
         <v>166</v>
@@ -10540,10 +10540,10 @@
         <v>178</v>
       </c>
       <c r="AT44" s="7" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="AU44" s="7" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="AV44" s="7" t="s">
         <v>201</v>
@@ -10552,7 +10552,7 @@
         <v>209</v>
       </c>
       <c r="AX44" s="23" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
     </row>
     <row r="45" spans="1:50" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -10626,10 +10626,10 @@
         <v>218</v>
       </c>
       <c r="Y45" s="7" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="Z45" s="7" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="AA45" s="7">
         <v>2</v>
@@ -10641,7 +10641,7 @@
         <v>3</v>
       </c>
       <c r="AD45" s="23" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="AF45" s="7" t="s">
         <v>319</v>
@@ -10662,7 +10662,7 @@
         <v>162</v>
       </c>
       <c r="AO45" s="7" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="AQ45" s="7" t="s">
         <v>166</v>
@@ -10674,10 +10674,10 @@
         <v>178</v>
       </c>
       <c r="AT45" s="7" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="AU45" s="7" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="AV45" s="7" t="s">
         <v>201</v>
@@ -10686,7 +10686,7 @@
         <v>212</v>
       </c>
       <c r="AX45" s="23" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
     </row>
     <row r="46" spans="1:50" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -10761,10 +10761,10 @@
         <v>218</v>
       </c>
       <c r="Y46" s="43" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="Z46" s="43" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="AA46" s="43">
         <v>2</v>
@@ -10776,7 +10776,7 @@
         <v>3</v>
       </c>
       <c r="AD46" s="43" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="AE46" s="43"/>
       <c r="AF46" s="43" t="s">
@@ -10799,7 +10799,7 @@
       </c>
       <c r="AN46" s="43"/>
       <c r="AO46" s="43" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="AP46" s="43"/>
       <c r="AQ46" s="43" t="s">
@@ -10812,10 +10812,10 @@
         <v>178</v>
       </c>
       <c r="AT46" s="43" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="AU46" s="43" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="AV46" s="43" t="s">
         <v>201</v>
@@ -10824,7 +10824,7 @@
         <v>210</v>
       </c>
       <c r="AX46" s="44" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
     </row>
     <row r="47" spans="1:50" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -10898,10 +10898,10 @@
         <v>218</v>
       </c>
       <c r="Y47" s="7" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="Z47" s="7" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="AA47" s="7">
         <v>2</v>
@@ -10913,7 +10913,7 @@
         <v>3</v>
       </c>
       <c r="AD47" s="7" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="AF47" s="7" t="s">
         <v>259</v>
@@ -10931,7 +10931,7 @@
         <v>235</v>
       </c>
       <c r="AO47" s="7" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="AQ47" s="7" t="s">
         <v>166</v>
@@ -10943,10 +10943,10 @@
         <v>178</v>
       </c>
       <c r="AT47" s="7" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="AU47" s="7" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="AV47" s="7" t="s">
         <v>201</v>
@@ -10955,7 +10955,7 @@
         <v>210</v>
       </c>
       <c r="AX47" s="23" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
     </row>
     <row r="48" spans="1:50" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -11029,10 +11029,10 @@
         <v>218</v>
       </c>
       <c r="Y48" s="7" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="Z48" s="7" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="AA48" s="7">
         <v>2</v>
@@ -11044,7 +11044,7 @@
         <v>3</v>
       </c>
       <c r="AD48" s="7" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="AF48" s="7" t="s">
         <v>259</v>
@@ -11062,7 +11062,7 @@
         <v>235</v>
       </c>
       <c r="AO48" s="7" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="AQ48" s="7" t="s">
         <v>166</v>
@@ -11074,10 +11074,10 @@
         <v>178</v>
       </c>
       <c r="AT48" s="7" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="AU48" s="7" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="AV48" s="7" t="s">
         <v>201</v>
@@ -11086,7 +11086,7 @@
         <v>209</v>
       </c>
       <c r="AX48" s="23" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
     </row>
     <row r="49" spans="1:50" x14ac:dyDescent="0.35">
@@ -11161,10 +11161,10 @@
         <v>69</v>
       </c>
       <c r="Y49" s="43" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="Z49" s="43" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="AA49" s="43">
         <v>2</v>
@@ -11192,14 +11192,14 @@
       <c r="AJ49" s="43"/>
       <c r="AK49" s="43"/>
       <c r="AL49" s="43" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="AM49" s="43" t="s">
         <v>161</v>
       </c>
       <c r="AN49" s="43"/>
       <c r="AO49" s="43" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="AP49" s="43"/>
       <c r="AQ49" s="43" t="s">
@@ -11212,10 +11212,10 @@
         <v>177</v>
       </c>
       <c r="AT49" s="43" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="AU49" s="43" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="AV49" s="43" t="s">
         <v>205</v>
@@ -11224,7 +11224,7 @@
         <v>209</v>
       </c>
       <c r="AX49" s="43" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
     </row>
     <row r="50" spans="1:50" x14ac:dyDescent="0.35">
@@ -11298,10 +11298,10 @@
         <v>69</v>
       </c>
       <c r="Y50" s="7" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="Z50" s="7" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="AA50" s="7">
         <v>2</v>
@@ -11325,13 +11325,13 @@
         <v>147</v>
       </c>
       <c r="AL50" s="7" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="AM50" s="7" t="s">
         <v>161</v>
       </c>
       <c r="AO50" s="7" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="AQ50" s="7" t="s">
         <v>166</v>
@@ -11343,10 +11343,10 @@
         <v>177</v>
       </c>
       <c r="AT50" s="7" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="AU50" s="7" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="AV50" s="7" t="s">
         <v>205</v>
@@ -11355,7 +11355,7 @@
         <v>209</v>
       </c>
       <c r="AX50" s="7" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
     </row>
     <row r="51" spans="1:50" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -11431,7 +11431,7 @@
       </c>
       <c r="Y51" s="43"/>
       <c r="Z51" s="43" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="AA51" s="43">
         <v>2</v>
@@ -11466,7 +11466,7 @@
         <v>162</v>
       </c>
       <c r="AO51" s="43" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="AP51" s="43"/>
       <c r="AQ51" s="43" t="s">
@@ -11479,10 +11479,10 @@
         <v>177</v>
       </c>
       <c r="AT51" s="43" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="AU51" s="43" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="AV51" s="43" t="s">
         <v>206</v>
@@ -11491,7 +11491,7 @@
         <v>209</v>
       </c>
       <c r="AX51" s="43" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
     </row>
     <row r="52" spans="1:50" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -11565,7 +11565,7 @@
         <v>80</v>
       </c>
       <c r="Z52" s="7" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="AA52" s="7">
         <v>2</v>
@@ -11595,7 +11595,7 @@
         <v>162</v>
       </c>
       <c r="AO52" s="7" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="AQ52" s="7" t="s">
         <v>166</v>
@@ -11607,10 +11607,10 @@
         <v>177</v>
       </c>
       <c r="AT52" s="7" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="AU52" s="7" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="AV52" s="7" t="s">
         <v>206</v>
@@ -11619,7 +11619,7 @@
         <v>209</v>
       </c>
       <c r="AX52" s="7" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
     </row>
     <row r="53" spans="1:50" x14ac:dyDescent="0.35">
@@ -11693,7 +11693,7 @@
         <v>80</v>
       </c>
       <c r="Z53" s="7" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="AA53" s="7">
         <v>2</v>
@@ -11723,7 +11723,7 @@
         <v>162</v>
       </c>
       <c r="AO53" s="7" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="AQ53" s="7" t="s">
         <v>166</v>
@@ -11735,10 +11735,10 @@
         <v>191</v>
       </c>
       <c r="AT53" s="7" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="AU53" s="7" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="AV53" s="7" t="s">
         <v>206</v>
@@ -11747,7 +11747,7 @@
         <v>209</v>
       </c>
       <c r="AX53" s="7" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
     </row>
     <row r="54" spans="1:50" x14ac:dyDescent="0.35">
@@ -11986,10 +11986,10 @@
         <v>69</v>
       </c>
       <c r="Y56" s="32" t="s">
+        <v>521</v>
+      </c>
+      <c r="Z56" s="32" t="s">
         <v>522</v>
-      </c>
-      <c r="Z56" s="32" t="s">
-        <v>523</v>
       </c>
       <c r="AA56" s="32">
         <v>2</v>
@@ -12019,7 +12019,7 @@
       </c>
       <c r="AK56" s="32"/>
       <c r="AL56" s="32" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="AM56" s="32" t="s">
         <v>234</v>
@@ -12028,7 +12028,7 @@
         <v>164</v>
       </c>
       <c r="AO56" s="32" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="AP56" s="32"/>
       <c r="AQ56" s="32" t="s">
@@ -12041,10 +12041,10 @@
         <v>190</v>
       </c>
       <c r="AT56" s="32" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="AU56" s="32" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="AV56" s="32" t="s">
         <v>214</v>
@@ -12053,7 +12053,7 @@
         <v>212</v>
       </c>
       <c r="AX56" s="32" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
     </row>
     <row r="58" spans="1:50" x14ac:dyDescent="0.35">
@@ -14144,15 +14144,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101006AB0F5ECCA53DA47AEBDEAEE6167985F" ma:contentTypeVersion="0" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="125e2131eddd38cce17ebc9527d7a9d7">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="553f2d8843fd2aa64b81f9e8c63a6619">
     <xsd:element name="properties">
@@ -14266,30 +14257,31 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{495201D0-9695-4A45-BC3A-28D949F46F55}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
     <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{66D459FE-C8DA-484C-BC8E-5EB6A351EBC9}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0A255394-17D8-4AFD-BEE7-8B5EDCA285C5}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -14303,4 +14295,12 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{66D459FE-C8DA-484C-BC8E-5EB6A351EBC9}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/Systematic Reviews/Analysis Task 4.1/Data_Extraction_Files/DataExtractionForm_WP4_Basurko.xlsx
+++ b/Systematic Reviews/Analysis Task 4.1/Data_Extraction_Files/DataExtractionForm_WP4_Basurko.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25831"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27726"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://share.dtu.dk/sites/SEAwise_517900/Shared Documents/WP4 Ecological effects of fisheries/Task 4.1/Data extraction/Data extraction files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCC0211F-AE6D-4C47-9781-E6FC8FB944CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F97485C-F25F-43CB-9DA7-0FEB38C1579F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-4650" yWindow="-21720" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DataExtraction" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
     <sheet name="Drop-down overview" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">DataExtraction!$A$2:$AX$56</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">DataExtraction!$AQ$56:$AX$56</definedName>
     <definedName name="Benthic_epifauna">Validation!$AI$32:$AI$35</definedName>
     <definedName name="Benthos">Validation!$AN$24:$AN$25</definedName>
     <definedName name="Catch_and_bycatch">Validation!$AM$15:$AM$17</definedName>
@@ -2335,7 +2335,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2512" uniqueCount="648">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2485" uniqueCount="640">
   <si>
     <t>SearchID</t>
   </si>
@@ -3805,9 +3805,6 @@
   </si>
   <si>
     <t xml:space="preserve">Opportunistic organisms would benefit from fishing activities, increasing their feeding intensity and aggregating on trawled areas, whereas selective species are affected by trawling by alteration of prey availability and habitat. Furthermore, the vulnerability of the organisms to trawling would determine the resilience of their populations to chronically trawling disturbance </t>
-  </si>
-  <si>
-    <t>A. echinata _ N. nucleus, A. glaber, T. tergestina _ C. linguatula, L. cavillone, A. laterna _ G. rhomboides, L. suerii _ B. brandaris, L. depurator, P. excavatus _ A. irregularis _ T. flexuosa, A. tenuicornis, C. rotundirostre _ L. mediterraneus_ Ampharetidae, S. cantabra, Prionospio sp., P. paradoxa, Flabillegeridae _ A. chiajei _ Capitellidae, L. gracilis, Aricidea sp., Cirratulidae, L. digitata _ S. scutata _ A. spinosus, A. latreillei, M. bidentata, Nucula sp. _ Glycera sp., M. bellii, H. vitrea, Nemertini, Lumbrinereis sp.</t>
   </si>
   <si>
     <t>The severity and frequency of damage was mainly correlated with interspecific and intraspecific (sexual dimorphism) morphological and behavioural characteristics. For example, specimens with longer and thin appendages, like males of G. rhomboides, seemed to be particularly vulnerable to the fishing and sorting operations</t>
@@ -3877,9 +3874,6 @@
 the minimum legal landing size and hence discarded. Yet, the weight of discards, which according to recent estimates amounts to about 45% of the total Hellenic trawl catch, could be significantly reduced because 20 D and 20 S are both characterized by considerably higher commercial/ non-commercial ratios in terms of both weight and number.</t>
   </si>
   <si>
-    <t>Atrina fragilis and other benthic organisms (smaller bethic species: Algae, Porifera, Cnidaria, Polychaeta, Crustacea, P. jacobaeus, A. opercularis, Cephalopoda, other Mollusca, Echinodermata, Tunicata, and Pisce; and larger macrobethic species: Sepia officinalis)</t>
-  </si>
-  <si>
     <t>At 1 hour after trawling, sediment redistribution was extensive, with suspended fine particles reducing horizontal through-water camera visibility from &gt;20 m (pre-trawl) to near zero 1 m above the seabed. Disturbed sediment had settled 15 h after fishing.</t>
   </si>
   <si>
@@ -3889,15 +3883,6 @@
     <t>Discard sampling programme onboard commercial bottom-otter trawlers, and research vessels</t>
   </si>
   <si>
-    <t>Mullus barbatus</t>
-  </si>
-  <si>
-    <t>Relative and absolute growth _ linear regression _ modal progression _ software ELEFAN _ programme MIX _ mortality _ Yield per Recruit analysis _ sensitivity analysis _ Virtual population analysis (VPA) _ programme VIT _ programme MSFLA</t>
-  </si>
-  <si>
-    <t>Phocoena phocoena</t>
-  </si>
-  <si>
     <t>Pingers (Aquamark 100 and Aquamark 200) effectiveness to reduce by catch rate of harbour porpoises in turbot gillnet fishery</t>
   </si>
   <si>
@@ -3919,9 +3904,6 @@
     <t>Although bottom otter trawling fishing activity tends to have a negative impact on the majority of species, in this case, we find a certain benefit. Although the lesser spotted dogfish is indeed affected by fishing mortality because of the fishing activity, this effect is not as severe as it is for other species, since nearly all specimens caught are discarded, and their survival rate can be as high as 90% in half-hour hauls; meanwhile, they take advantage of the food provided by discards and prey killed or damaged by fishing.</t>
   </si>
   <si>
-    <t xml:space="preserve">Simulations incorporating modifications in the fishing effort of certain fisheries and mesh size show significant increases in landings. The exploitation level and pattern, i.e., an increase in mesh size and a decrease in trawling gear effort, showed the best advantage for the two gears. The increase for trawling (+73%) and that of the trammel net (+317%) was obtained with the minimum reduction of 10% in effort, which were the highest of all the simulation analyses. Therefore, the results clearly indicated most important advantages in the long term for the catches, above all for the trammel net, when the mesh size for trawling was increased (40 mni to 50 mm) and the effort of this gear was reduced. </t>
-  </si>
-  <si>
     <t>The acoustic signals clearly showed that these pinger types (Aquamark 100 and Aquamark 200) did not reduce by catch of harbour porpoise from the turbot gill net in the eastern Black Sea coasts, Turkey. The acoustic signals of both pinger types also did not affect the catch of target and non-target fish species.</t>
   </si>
   <si>
@@ -3979,9 +3961,6 @@
     <t>Palinurus elephas _ Sepia officinalis _ Mullus surmuletus _ Scorpaena scrofa _ Seriola dumerili _ Scorpaena porcus _ Sciaena umbra _ Symphodus tinca _ Dentex dentex _ Phycis phycis _ Uranoscopus scaber _ Octopus vulgaris _ Diplodus vulgaris _ Labrus viridis _ Pagrus pagrus _ Lophius piscatorius</t>
   </si>
   <si>
-    <t>Gastropoda _ Mangelia sp _ Bivalvia _ Crustacea _ Osteichthya _ Lesuerogobius suerii</t>
-  </si>
-  <si>
     <t xml:space="preserve">Trawling disturbance modified the functional components of the benthic community from the Sant Carles de la Ràpita fishing ground. The functional traits to trawling disturbance are sentive and benthic communities have potential for functional changes, even when species richness is low. The fished area had a higher abundance of burrowing epifaunal scavengers and motile burrowing infauna, while the undisturbed area was characterised by higher abundance of surface infauna, epifaunal suspension feeders and predatory fish. </t>
   </si>
   <si>
@@ -4009,12 +3988,6 @@
     <t>Stomach content (composition of prey groups in predactor stomachs)</t>
   </si>
   <si>
-    <t>Abundance indices of the catch</t>
-  </si>
-  <si>
-    <t>Crustaceans, other fishes, other invertebrates, Discards</t>
-  </si>
-  <si>
     <t>Effect of a fishery closure - Plaice box</t>
   </si>
   <si>
@@ -4033,13 +4006,7 @@
     <t>Stomach content nad weight</t>
   </si>
   <si>
-    <t>Annelida _ Gastropoda _ Bivalvia _ Echinodermata _ Pisces</t>
-  </si>
-  <si>
     <t>Environmental factors</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Multispecies (free-living fauna, sessile fauna) </t>
   </si>
   <si>
     <t>Fishing effort (trawling hours)</t>
@@ -4131,21 +4098,6 @@
     <t>Diet (% volume) in stomach content</t>
   </si>
   <si>
-    <t>Changes in trawling effort and mesh size changes ('French' trawl)</t>
-  </si>
-  <si>
-    <t>Changes in trawling effort and mesh size changes (traditional trawls)</t>
-  </si>
-  <si>
-    <t>Changes in fishing effort and mesh size changes (trammel net)</t>
-  </si>
-  <si>
-    <t>Yiel for recruit (Y/R)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Squalus acanthias _ Psetta maxima _ Trigla lucerna _ Raja clavata _ Phocoena phocoena </t>
-  </si>
-  <si>
     <t>CPUE (individuals / km × day)</t>
   </si>
   <si>
@@ -4269,10 +4221,6 @@
     <t>Mean size</t>
   </si>
   <si>
-    <t>The demographic structure of D. labrax also varied between the protected and unprotected areas, with the larger modal size distribution occurring inside the marine reserve (mode 350 mm) compared with the unprotected area (mode 200 mm). A chi-square test on the two size distributions showed
-a highly significant difference at the p=0.0001 level, with fish of this species being significantly larger within the area of the Cerbe`re/Banyuls-sur-Mer marine reserve.</t>
-  </si>
-  <si>
     <t>Sparus aurata</t>
   </si>
   <si>
@@ -4283,6 +4231,33 @@
   </si>
   <si>
     <t>Number of species</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Phocoena phocoena </t>
+  </si>
+  <si>
+    <t>Scophthalmus maximus</t>
+  </si>
+  <si>
+    <t>Closure</t>
+  </si>
+  <si>
+    <t>Biomass indices of bottom trawl survey</t>
+  </si>
+  <si>
+    <t>Raja montagui _ Leucoraja naevus _ Scyliorhinus canicula</t>
+  </si>
+  <si>
+    <t>The most noticable increases were in skates and Scyliorhinus canicula, and in Trachinus draco, Mullus surmuletus, Pagellus acarne and gurnards (Triglidae). In contrast, there was no increase in biomass of Lepidorhombus whiffiagonis and Merluccius merluccius, both of which actually decreased slightly. Apart from these two, there was a general increase in both biomass and the number of species once the trawl stopped operating in the area.</t>
+  </si>
+  <si>
+    <t>Pagellus bogaraveo _ Chelidonichthys cuculus _ Callionymus lyra _ Lepidorhombus wiffiagonis _ Merluccius merluccius _ Mullus surmuletus _ Pagellus acarne _  Trachinus draco _ Chelidonichthys lucerna</t>
+  </si>
+  <si>
+    <t>The demographic structure of D. labrax also varied between the protected and unprotected areas, with the larger modal size distribution occurring inside the marine reserve (mode 350 mm) compared with the unprotected area (mode 200 mm). A chi-square test on the two size distributions showed a highly significant difference at the p=0.0001 level, with fish of this species being significantly larger within the area of the Cerbe`re/Banyuls-sur-Mer marine reserve.</t>
+  </si>
+  <si>
+    <t>Pecten jacobaeus _ Aequipecten opercularis</t>
   </si>
 </sst>
 </file>
@@ -4543,13 +4518,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
@@ -4588,6 +4556,13 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -4876,11 +4851,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AX58"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="AQ3" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="AX29" sqref="AX29"/>
+      <selection pane="bottomRight" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4921,70 +4896,70 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:50" x14ac:dyDescent="0.35">
-      <c r="A1" s="51" t="s">
+      <c r="A1" s="48" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="51"/>
-      <c r="C1" s="51"/>
-      <c r="D1" s="51"/>
-      <c r="E1" s="51"/>
-      <c r="F1" s="51"/>
-      <c r="G1" s="51"/>
-      <c r="H1" s="51"/>
-      <c r="I1" s="51"/>
-      <c r="J1" s="51"/>
-      <c r="K1" s="51"/>
-      <c r="L1" s="51"/>
-      <c r="M1" s="51"/>
-      <c r="N1" s="51"/>
-      <c r="O1" s="51"/>
-      <c r="P1" s="51"/>
-      <c r="Q1" s="51"/>
-      <c r="R1" s="54" t="s">
+      <c r="B1" s="48"/>
+      <c r="C1" s="48"/>
+      <c r="D1" s="48"/>
+      <c r="E1" s="48"/>
+      <c r="F1" s="48"/>
+      <c r="G1" s="48"/>
+      <c r="H1" s="48"/>
+      <c r="I1" s="48"/>
+      <c r="J1" s="48"/>
+      <c r="K1" s="48"/>
+      <c r="L1" s="48"/>
+      <c r="M1" s="48"/>
+      <c r="N1" s="48"/>
+      <c r="O1" s="48"/>
+      <c r="P1" s="48"/>
+      <c r="Q1" s="48"/>
+      <c r="R1" s="51" t="s">
         <v>12</v>
       </c>
-      <c r="S1" s="54"/>
-      <c r="T1" s="54"/>
-      <c r="U1" s="54"/>
-      <c r="V1" s="54"/>
-      <c r="W1" s="54"/>
-      <c r="X1" s="54"/>
-      <c r="Y1" s="54"/>
-      <c r="Z1" s="54"/>
-      <c r="AA1" s="54"/>
-      <c r="AB1" s="54"/>
-      <c r="AC1" s="54"/>
-      <c r="AD1" s="54"/>
-      <c r="AE1" s="54"/>
-      <c r="AF1" s="52" t="s">
+      <c r="S1" s="51"/>
+      <c r="T1" s="51"/>
+      <c r="U1" s="51"/>
+      <c r="V1" s="51"/>
+      <c r="W1" s="51"/>
+      <c r="X1" s="51"/>
+      <c r="Y1" s="51"/>
+      <c r="Z1" s="51"/>
+      <c r="AA1" s="51"/>
+      <c r="AB1" s="51"/>
+      <c r="AC1" s="51"/>
+      <c r="AD1" s="51"/>
+      <c r="AE1" s="51"/>
+      <c r="AF1" s="49" t="s">
         <v>88</v>
       </c>
-      <c r="AG1" s="52"/>
-      <c r="AH1" s="53" t="s">
+      <c r="AG1" s="49"/>
+      <c r="AH1" s="50" t="s">
         <v>91</v>
       </c>
-      <c r="AI1" s="53"/>
-      <c r="AJ1" s="53"/>
-      <c r="AK1" s="53"/>
-      <c r="AL1" s="53"/>
-      <c r="AM1" s="55" t="s">
+      <c r="AI1" s="50"/>
+      <c r="AJ1" s="50"/>
+      <c r="AK1" s="50"/>
+      <c r="AL1" s="50"/>
+      <c r="AM1" s="52" t="s">
         <v>97</v>
       </c>
-      <c r="AN1" s="55"/>
-      <c r="AO1" s="55"/>
-      <c r="AP1" s="55"/>
-      <c r="AQ1" s="49" t="s">
+      <c r="AN1" s="52"/>
+      <c r="AO1" s="52"/>
+      <c r="AP1" s="52"/>
+      <c r="AQ1" s="46" t="s">
         <v>101</v>
       </c>
-      <c r="AR1" s="49"/>
-      <c r="AS1" s="49"/>
-      <c r="AT1" s="49"/>
-      <c r="AU1" s="50" t="s">
+      <c r="AR1" s="46"/>
+      <c r="AS1" s="46"/>
+      <c r="AT1" s="46"/>
+      <c r="AU1" s="47" t="s">
         <v>104</v>
       </c>
-      <c r="AV1" s="50"/>
-      <c r="AW1" s="50"/>
-      <c r="AX1" s="50"/>
+      <c r="AV1" s="47"/>
+      <c r="AW1" s="47"/>
+      <c r="AX1" s="47"/>
     </row>
     <row r="2" spans="1:50" s="2" customFormat="1" ht="58" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
@@ -5303,7 +5278,7 @@
         <v>485</v>
       </c>
       <c r="Z4" s="26" t="s">
-        <v>530</v>
+        <v>524</v>
       </c>
       <c r="AA4" s="26">
         <v>2</v>
@@ -5335,14 +5310,14 @@
       </c>
       <c r="AK4" s="26"/>
       <c r="AL4" s="26" t="s">
-        <v>539</v>
+        <v>533</v>
       </c>
       <c r="AM4" s="26" t="s">
         <v>233</v>
       </c>
       <c r="AN4" s="26"/>
       <c r="AO4" s="26" t="s">
-        <v>535</v>
+        <v>529</v>
       </c>
       <c r="AP4" s="26"/>
       <c r="AQ4" s="26" t="s">
@@ -5356,7 +5331,7 @@
       </c>
       <c r="AT4" s="26"/>
       <c r="AU4" s="26" t="s">
-        <v>536</v>
+        <v>530</v>
       </c>
       <c r="AV4" s="26" t="s">
         <v>214</v>
@@ -5365,7 +5340,7 @@
         <v>211</v>
       </c>
       <c r="AX4" s="26" t="s">
-        <v>523</v>
+        <v>518</v>
       </c>
     </row>
     <row r="5" spans="1:50" s="13" customFormat="1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -5443,7 +5418,7 @@
         <v>486</v>
       </c>
       <c r="Z5" s="29" t="s">
-        <v>531</v>
+        <v>525</v>
       </c>
       <c r="AA5" s="29">
         <v>2</v>
@@ -5456,7 +5431,7 @@
       </c>
       <c r="AD5" s="29"/>
       <c r="AE5" s="29" t="s">
-        <v>614</v>
+        <v>598</v>
       </c>
       <c r="AF5" s="29" t="s">
         <v>280</v>
@@ -5475,7 +5450,7 @@
       </c>
       <c r="AK5" s="29"/>
       <c r="AL5" s="29" t="s">
-        <v>538</v>
+        <v>532</v>
       </c>
       <c r="AM5" s="29" t="s">
         <v>234</v>
@@ -5484,10 +5459,10 @@
         <v>164</v>
       </c>
       <c r="AO5" s="29" t="s">
-        <v>541</v>
+        <v>535</v>
       </c>
       <c r="AP5" s="29" t="s">
-        <v>540</v>
+        <v>534</v>
       </c>
       <c r="AQ5" s="29" t="s">
         <v>166</v>
@@ -5500,7 +5475,7 @@
       </c>
       <c r="AT5" s="29"/>
       <c r="AU5" s="29" t="s">
-        <v>542</v>
+        <v>536</v>
       </c>
       <c r="AV5" s="29" t="s">
         <v>240</v>
@@ -5509,7 +5484,7 @@
         <v>209</v>
       </c>
       <c r="AX5" s="29" t="s">
-        <v>524</v>
+        <v>519</v>
       </c>
     </row>
     <row r="6" spans="1:50" s="13" customFormat="1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -5587,7 +5562,7 @@
         <v>486</v>
       </c>
       <c r="Z6" s="20" t="s">
-        <v>531</v>
+        <v>525</v>
       </c>
       <c r="AA6" s="20">
         <v>2</v>
@@ -5600,7 +5575,7 @@
       </c>
       <c r="AD6" s="20"/>
       <c r="AE6" s="20" t="s">
-        <v>537</v>
+        <v>531</v>
       </c>
       <c r="AF6" s="20" t="s">
         <v>280</v>
@@ -5619,17 +5594,17 @@
       </c>
       <c r="AK6" s="20"/>
       <c r="AL6" s="20" t="s">
-        <v>538</v>
+        <v>532</v>
       </c>
       <c r="AM6" s="20" t="s">
         <v>161</v>
       </c>
       <c r="AN6" s="20"/>
       <c r="AO6" s="20" t="s">
-        <v>615</v>
+        <v>599</v>
       </c>
       <c r="AP6" s="20" t="s">
-        <v>540</v>
+        <v>534</v>
       </c>
       <c r="AQ6" s="20" t="s">
         <v>166</v>
@@ -5641,10 +5616,10 @@
         <v>192</v>
       </c>
       <c r="AT6" s="20" t="s">
-        <v>546</v>
+        <v>540</v>
       </c>
       <c r="AU6" s="20" t="s">
-        <v>543</v>
+        <v>537</v>
       </c>
       <c r="AV6" s="20" t="s">
         <v>205</v>
@@ -5653,7 +5628,7 @@
         <v>212</v>
       </c>
       <c r="AX6" s="20" t="s">
-        <v>544</v>
+        <v>538</v>
       </c>
     </row>
     <row r="7" spans="1:50" s="14" customFormat="1" ht="16.399999999999999" customHeight="1" x14ac:dyDescent="0.35">
@@ -5728,10 +5703,10 @@
         <v>75</v>
       </c>
       <c r="Y7" s="29" t="s">
-        <v>529</v>
+        <v>523</v>
       </c>
       <c r="Z7" s="29" t="s">
-        <v>533</v>
+        <v>527</v>
       </c>
       <c r="AA7" s="32">
         <v>2</v>
@@ -5759,14 +5734,14 @@
       <c r="AJ7" s="32"/>
       <c r="AK7" s="32"/>
       <c r="AL7" s="32" t="s">
-        <v>545</v>
+        <v>539</v>
       </c>
       <c r="AM7" s="32" t="s">
         <v>235</v>
       </c>
       <c r="AN7" s="32"/>
       <c r="AO7" s="32" t="s">
-        <v>623</v>
+        <v>607</v>
       </c>
       <c r="AP7" s="32"/>
       <c r="AQ7" s="32" t="s">
@@ -5779,10 +5754,10 @@
         <v>177</v>
       </c>
       <c r="AT7" s="32" t="s">
-        <v>547</v>
+        <v>606</v>
       </c>
       <c r="AU7" s="32" t="s">
-        <v>620</v>
+        <v>604</v>
       </c>
       <c r="AV7" s="32" t="s">
         <v>205</v>
@@ -5790,8 +5765,8 @@
       <c r="AW7" s="32" t="s">
         <v>212</v>
       </c>
-      <c r="AX7" s="48" t="s">
-        <v>626</v>
+      <c r="AX7" s="45" t="s">
+        <v>610</v>
       </c>
     </row>
     <row r="8" spans="1:50" s="14" customFormat="1" ht="16.399999999999999" customHeight="1" x14ac:dyDescent="0.35">
@@ -5866,10 +5841,10 @@
         <v>75</v>
       </c>
       <c r="Y8" s="29" t="s">
-        <v>529</v>
+        <v>523</v>
       </c>
       <c r="Z8" s="29" t="s">
-        <v>533</v>
+        <v>527</v>
       </c>
       <c r="AA8" s="32">
         <v>2</v>
@@ -5899,14 +5874,14 @@
       <c r="AJ8" s="32"/>
       <c r="AK8" s="32"/>
       <c r="AL8" s="32" t="s">
-        <v>622</v>
+        <v>606</v>
       </c>
       <c r="AM8" s="32" t="s">
         <v>235</v>
       </c>
       <c r="AN8" s="32"/>
       <c r="AO8" s="32" t="s">
-        <v>623</v>
+        <v>607</v>
       </c>
       <c r="AP8" s="32"/>
       <c r="AQ8" s="32" t="s">
@@ -5919,10 +5894,10 @@
         <v>177</v>
       </c>
       <c r="AT8" s="32" t="s">
-        <v>547</v>
+        <v>606</v>
       </c>
       <c r="AU8" s="32" t="s">
-        <v>620</v>
+        <v>604</v>
       </c>
       <c r="AV8" s="32" t="s">
         <v>205</v>
@@ -5930,8 +5905,8 @@
       <c r="AW8" s="32" t="s">
         <v>212</v>
       </c>
-      <c r="AX8" s="48" t="s">
-        <v>626</v>
+      <c r="AX8" s="45" t="s">
+        <v>610</v>
       </c>
     </row>
     <row r="9" spans="1:50" s="14" customFormat="1" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
@@ -6006,10 +5981,10 @@
         <v>75</v>
       </c>
       <c r="Y9" s="20" t="s">
-        <v>529</v>
+        <v>523</v>
       </c>
       <c r="Z9" s="20" t="s">
-        <v>533</v>
+        <v>527</v>
       </c>
       <c r="AA9" s="22">
         <v>2</v>
@@ -6041,14 +6016,14 @@
       </c>
       <c r="AK9" s="22"/>
       <c r="AL9" s="22" t="s">
-        <v>621</v>
+        <v>605</v>
       </c>
       <c r="AM9" s="22" t="s">
         <v>235</v>
       </c>
       <c r="AN9" s="22"/>
       <c r="AO9" s="32" t="s">
-        <v>623</v>
+        <v>607</v>
       </c>
       <c r="AP9" s="22"/>
       <c r="AQ9" s="22" t="s">
@@ -6060,11 +6035,11 @@
       <c r="AS9" s="22" t="s">
         <v>177</v>
       </c>
-      <c r="AT9" s="22" t="s">
-        <v>547</v>
+      <c r="AT9" s="32" t="s">
+        <v>606</v>
       </c>
       <c r="AU9" s="32" t="s">
-        <v>620</v>
+        <v>604</v>
       </c>
       <c r="AV9" s="32" t="s">
         <v>205</v>
@@ -6072,8 +6047,8 @@
       <c r="AW9" s="32" t="s">
         <v>212</v>
       </c>
-      <c r="AX9" s="48" t="s">
-        <v>626</v>
+      <c r="AX9" s="45" t="s">
+        <v>610</v>
       </c>
     </row>
     <row r="10" spans="1:50" s="14" customFormat="1" ht="16.399999999999999" customHeight="1" x14ac:dyDescent="0.35">
@@ -6148,10 +6123,10 @@
         <v>75</v>
       </c>
       <c r="Y10" s="29" t="s">
-        <v>529</v>
+        <v>523</v>
       </c>
       <c r="Z10" s="29" t="s">
-        <v>533</v>
+        <v>527</v>
       </c>
       <c r="AA10" s="32">
         <v>2</v>
@@ -6179,14 +6154,14 @@
       <c r="AJ10" s="32"/>
       <c r="AK10" s="32"/>
       <c r="AL10" s="32" t="s">
-        <v>545</v>
+        <v>539</v>
       </c>
       <c r="AM10" s="32" t="s">
         <v>235</v>
       </c>
       <c r="AN10" s="32"/>
       <c r="AO10" s="32" t="s">
-        <v>623</v>
+        <v>607</v>
       </c>
       <c r="AP10" s="32"/>
       <c r="AQ10" s="32" t="s">
@@ -6199,10 +6174,10 @@
         <v>177</v>
       </c>
       <c r="AT10" s="32" t="s">
-        <v>547</v>
+        <v>606</v>
       </c>
       <c r="AU10" s="32" t="s">
-        <v>624</v>
+        <v>608</v>
       </c>
       <c r="AV10" s="32" t="s">
         <v>205</v>
@@ -6210,8 +6185,8 @@
       <c r="AW10" s="32" t="s">
         <v>211</v>
       </c>
-      <c r="AX10" s="48" t="s">
-        <v>625</v>
+      <c r="AX10" s="45" t="s">
+        <v>609</v>
       </c>
     </row>
     <row r="11" spans="1:50" s="14" customFormat="1" ht="16.399999999999999" customHeight="1" x14ac:dyDescent="0.35">
@@ -6286,10 +6261,10 @@
         <v>75</v>
       </c>
       <c r="Y11" s="29" t="s">
-        <v>529</v>
+        <v>523</v>
       </c>
       <c r="Z11" s="29" t="s">
-        <v>533</v>
+        <v>527</v>
       </c>
       <c r="AA11" s="32">
         <v>2</v>
@@ -6319,14 +6294,14 @@
       <c r="AJ11" s="32"/>
       <c r="AK11" s="32"/>
       <c r="AL11" s="32" t="s">
-        <v>622</v>
+        <v>606</v>
       </c>
       <c r="AM11" s="32" t="s">
         <v>235</v>
       </c>
       <c r="AN11" s="32"/>
       <c r="AO11" s="32" t="s">
-        <v>623</v>
+        <v>607</v>
       </c>
       <c r="AP11" s="32"/>
       <c r="AQ11" s="32" t="s">
@@ -6339,10 +6314,10 @@
         <v>177</v>
       </c>
       <c r="AT11" s="32" t="s">
-        <v>547</v>
+        <v>606</v>
       </c>
       <c r="AU11" s="32" t="s">
-        <v>624</v>
+        <v>608</v>
       </c>
       <c r="AV11" s="32" t="s">
         <v>205</v>
@@ -6350,8 +6325,8 @@
       <c r="AW11" s="32" t="s">
         <v>211</v>
       </c>
-      <c r="AX11" s="48" t="s">
-        <v>625</v>
+      <c r="AX11" s="45" t="s">
+        <v>609</v>
       </c>
     </row>
     <row r="12" spans="1:50" s="14" customFormat="1" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
@@ -6426,10 +6401,10 @@
         <v>75</v>
       </c>
       <c r="Y12" s="20" t="s">
-        <v>529</v>
+        <v>523</v>
       </c>
       <c r="Z12" s="20" t="s">
-        <v>533</v>
+        <v>527</v>
       </c>
       <c r="AA12" s="22">
         <v>2</v>
@@ -6461,14 +6436,14 @@
       </c>
       <c r="AK12" s="22"/>
       <c r="AL12" s="22" t="s">
-        <v>621</v>
+        <v>605</v>
       </c>
       <c r="AM12" s="22" t="s">
         <v>235</v>
       </c>
       <c r="AN12" s="22"/>
       <c r="AO12" s="32" t="s">
-        <v>623</v>
+        <v>607</v>
       </c>
       <c r="AP12" s="22"/>
       <c r="AQ12" s="22" t="s">
@@ -6480,11 +6455,11 @@
       <c r="AS12" s="22" t="s">
         <v>177</v>
       </c>
-      <c r="AT12" s="22" t="s">
-        <v>547</v>
+      <c r="AT12" s="32" t="s">
+        <v>606</v>
       </c>
       <c r="AU12" s="32" t="s">
-        <v>624</v>
+        <v>608</v>
       </c>
       <c r="AV12" s="32" t="s">
         <v>205</v>
@@ -6492,8 +6467,8 @@
       <c r="AW12" s="32" t="s">
         <v>211</v>
       </c>
-      <c r="AX12" s="48" t="s">
-        <v>625</v>
+      <c r="AX12" s="45" t="s">
+        <v>609</v>
       </c>
     </row>
     <row r="13" spans="1:50" x14ac:dyDescent="0.35">
@@ -6661,7 +6636,7 @@
         <v>487</v>
       </c>
       <c r="Z14" s="29" t="s">
-        <v>603</v>
+        <v>587</v>
       </c>
       <c r="AA14" s="32">
         <v>2</v>
@@ -6696,10 +6671,10 @@
       </c>
       <c r="AN14" s="32"/>
       <c r="AO14" s="32" t="s">
-        <v>534</v>
+        <v>528</v>
       </c>
       <c r="AP14" s="32" t="s">
-        <v>550</v>
+        <v>543</v>
       </c>
       <c r="AQ14" s="32" t="s">
         <v>166</v>
@@ -6710,11 +6685,9 @@
       <c r="AS14" s="32" t="s">
         <v>177</v>
       </c>
-      <c r="AT14" s="32" t="s">
-        <v>490</v>
-      </c>
+      <c r="AT14" s="32"/>
       <c r="AU14" s="32" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="AV14" s="32" t="s">
         <v>208</v>
@@ -6723,7 +6696,7 @@
         <v>210</v>
       </c>
       <c r="AX14" s="29" t="s">
-        <v>548</v>
+        <v>541</v>
       </c>
     </row>
     <row r="15" spans="1:50" s="15" customFormat="1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -6801,7 +6774,7 @@
         <v>487</v>
       </c>
       <c r="Z15" s="20" t="s">
-        <v>603</v>
+        <v>587</v>
       </c>
       <c r="AA15" s="22">
         <v>2</v>
@@ -6836,10 +6809,10 @@
       </c>
       <c r="AN15" s="22"/>
       <c r="AO15" s="22" t="s">
-        <v>534</v>
+        <v>528</v>
       </c>
       <c r="AP15" s="22" t="s">
-        <v>550</v>
+        <v>543</v>
       </c>
       <c r="AQ15" s="22" t="s">
         <v>166</v>
@@ -6850,11 +6823,9 @@
       <c r="AS15" s="22" t="s">
         <v>177</v>
       </c>
-      <c r="AT15" s="22" t="s">
-        <v>490</v>
-      </c>
+      <c r="AT15" s="22"/>
       <c r="AU15" s="22" t="s">
-        <v>549</v>
+        <v>542</v>
       </c>
       <c r="AV15" s="22" t="s">
         <v>201</v>
@@ -6863,7 +6834,7 @@
         <v>210</v>
       </c>
       <c r="AX15" s="20" t="s">
-        <v>548</v>
+        <v>541</v>
       </c>
     </row>
     <row r="16" spans="1:50" s="14" customFormat="1" ht="17.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -6934,10 +6905,10 @@
         <v>218</v>
       </c>
       <c r="Y16" s="32" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="Z16" s="29" t="s">
-        <v>532</v>
+        <v>526</v>
       </c>
       <c r="AA16" s="32">
         <v>2</v>
@@ -6949,7 +6920,7 @@
         <v>3</v>
       </c>
       <c r="AD16" s="32" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="AE16" s="32"/>
       <c r="AF16" s="32" t="s">
@@ -6971,7 +6942,7 @@
         <v>136</v>
       </c>
       <c r="AL16" s="32" t="s">
-        <v>551</v>
+        <v>544</v>
       </c>
       <c r="AM16" s="32" t="s">
         <v>234</v>
@@ -6994,7 +6965,7 @@
       </c>
       <c r="AT16" s="29"/>
       <c r="AU16" s="29" t="s">
-        <v>553</v>
+        <v>546</v>
       </c>
       <c r="AV16" s="32" t="s">
         <v>215</v>
@@ -7003,7 +6974,7 @@
         <v>210</v>
       </c>
       <c r="AX16" s="29" t="s">
-        <v>552</v>
+        <v>545</v>
       </c>
     </row>
     <row r="17" spans="1:50" s="14" customFormat="1" x14ac:dyDescent="0.35">
@@ -7437,7 +7408,7 @@
         <v>217</v>
       </c>
       <c r="Z21" s="7" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="AA21" s="7">
         <v>2</v>
@@ -7461,7 +7432,7 @@
         <v>146</v>
       </c>
       <c r="AL21" s="7" t="s">
-        <v>646</v>
+        <v>629</v>
       </c>
       <c r="AM21" s="7" t="s">
         <v>234</v>
@@ -7470,7 +7441,7 @@
         <v>162</v>
       </c>
       <c r="AO21" s="7" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="AQ21" s="7" t="s">
         <v>166</v>
@@ -7482,10 +7453,10 @@
         <v>178</v>
       </c>
       <c r="AT21" s="7" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="AU21" s="7" t="s">
-        <v>554</v>
+        <v>547</v>
       </c>
       <c r="AV21" s="7" t="s">
         <v>201</v>
@@ -7494,7 +7465,7 @@
         <v>209</v>
       </c>
       <c r="AX21" s="7" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
     </row>
     <row r="22" spans="1:50" x14ac:dyDescent="0.35">
@@ -7569,10 +7540,10 @@
         <v>75</v>
       </c>
       <c r="Y22" s="43" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="Z22" s="43" t="s">
-        <v>605</v>
+        <v>589</v>
       </c>
       <c r="AA22" s="43">
         <v>1</v>
@@ -7584,7 +7555,7 @@
         <v>3</v>
       </c>
       <c r="AD22" s="43" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="AE22" s="43"/>
       <c r="AF22" s="43" t="s">
@@ -7602,14 +7573,14 @@
       <c r="AJ22" s="43"/>
       <c r="AK22" s="43"/>
       <c r="AL22" s="43" t="s">
-        <v>555</v>
+        <v>548</v>
       </c>
       <c r="AM22" s="43" t="s">
         <v>161</v>
       </c>
       <c r="AN22" s="43"/>
       <c r="AO22" s="43" t="s">
-        <v>534</v>
+        <v>528</v>
       </c>
       <c r="AP22" s="43"/>
       <c r="AQ22" s="43" t="s">
@@ -7621,11 +7592,9 @@
       <c r="AS22" s="43" t="s">
         <v>177</v>
       </c>
-      <c r="AT22" s="43" t="s">
-        <v>558</v>
-      </c>
+      <c r="AT22" s="43"/>
       <c r="AU22" s="43" t="s">
-        <v>556</v>
+        <v>549</v>
       </c>
       <c r="AV22" s="43" t="s">
         <v>205</v>
@@ -7634,788 +7603,769 @@
         <v>209</v>
       </c>
       <c r="AX22" s="43" t="s">
-        <v>525</v>
+        <v>520</v>
       </c>
     </row>
     <row r="23" spans="1:50" x14ac:dyDescent="0.35">
-      <c r="A23" t="s">
+      <c r="A23" s="41" t="s">
         <v>367</v>
       </c>
-      <c r="B23" t="s">
+      <c r="B23" s="41" t="s">
         <v>245</v>
       </c>
-      <c r="C23" t="s">
+      <c r="C23" s="41" t="s">
         <v>368</v>
       </c>
-      <c r="D23" t="s">
+      <c r="D23" s="41" t="s">
         <v>369</v>
       </c>
-      <c r="E23" s="10">
+      <c r="E23" s="42">
         <v>2002</v>
       </c>
-      <c r="F23" s="7" t="s">
+      <c r="F23" s="43" t="s">
         <v>342</v>
       </c>
-      <c r="G23" s="7" t="s">
+      <c r="G23" s="43" t="s">
         <v>370</v>
       </c>
-      <c r="H23" t="s">
+      <c r="H23" s="41" t="s">
         <v>371</v>
       </c>
-      <c r="I23" s="7" t="s">
+      <c r="I23" s="43" t="s">
         <v>372</v>
       </c>
-      <c r="J23" s="7" t="s">
+      <c r="J23" s="43" t="s">
         <v>373</v>
       </c>
-      <c r="K23" t="s">
+      <c r="K23" s="41" t="s">
         <v>374</v>
       </c>
-      <c r="L23" t="s">
+      <c r="L23" s="41" t="s">
         <v>254</v>
       </c>
-      <c r="M23" s="7" t="s">
+      <c r="M23" s="43" t="s">
         <v>375</v>
       </c>
-      <c r="N23" s="7" t="s">
+      <c r="N23" s="43" t="s">
         <v>256</v>
       </c>
-      <c r="O23" s="7" t="s">
+      <c r="O23" s="43" t="s">
         <v>257</v>
       </c>
-      <c r="P23" s="7" t="s">
+      <c r="P23" s="43" t="s">
         <v>376</v>
       </c>
-      <c r="Q23" s="7" t="s">
+      <c r="Q23" s="43" t="s">
         <v>21</v>
       </c>
-      <c r="S23" s="7" t="s">
+      <c r="R23" s="43"/>
+      <c r="S23" s="43" t="s">
         <v>29</v>
       </c>
-      <c r="T23" s="7" t="s">
+      <c r="T23" s="43" t="s">
         <v>45</v>
       </c>
-      <c r="U23" s="7" t="s">
+      <c r="U23" s="43" t="s">
         <v>48</v>
       </c>
-      <c r="V23" s="7" t="s">
+      <c r="V23" s="43" t="s">
         <v>44</v>
       </c>
-      <c r="W23" s="7" t="s">
+      <c r="W23" s="43" t="s">
         <v>48</v>
       </c>
-      <c r="X23" s="7" t="s">
+      <c r="X23" s="43" t="s">
         <v>75</v>
       </c>
-      <c r="Y23" s="7" t="s">
-        <v>504</v>
-      </c>
-      <c r="Z23" s="7" t="s">
-        <v>605</v>
-      </c>
-      <c r="AA23" s="7">
+      <c r="Y23" s="43" t="s">
+        <v>503</v>
+      </c>
+      <c r="Z23" s="43" t="s">
+        <v>589</v>
+      </c>
+      <c r="AA23" s="43">
         <v>1</v>
       </c>
-      <c r="AB23" s="7">
+      <c r="AB23" s="43">
         <v>1</v>
       </c>
-      <c r="AC23" s="7">
+      <c r="AC23" s="43">
         <v>3</v>
       </c>
-      <c r="AD23" s="7" t="s">
-        <v>498</v>
-      </c>
-      <c r="AF23" s="7" t="s">
+      <c r="AD23" s="43" t="s">
+        <v>497</v>
+      </c>
+      <c r="AE23" s="43"/>
+      <c r="AF23" s="43" t="s">
         <v>290</v>
       </c>
-      <c r="AG23" s="7" t="s">
+      <c r="AG23" s="43" t="s">
         <v>109</v>
       </c>
-      <c r="AH23" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="AI23" s="7" t="s">
-        <v>146</v>
-      </c>
+      <c r="AH23" s="43" t="s">
+        <v>222</v>
+      </c>
+      <c r="AI23" s="43"/>
+      <c r="AJ23" s="43"/>
+      <c r="AK23" s="43"/>
       <c r="AL23" s="7" t="s">
-        <v>555</v>
-      </c>
-      <c r="AM23" s="7" t="s">
-        <v>234</v>
-      </c>
-      <c r="AO23" s="7" t="s">
-        <v>534</v>
-      </c>
-      <c r="AQ23" s="7" t="s">
+        <v>635</v>
+      </c>
+      <c r="AM23" s="43" t="s">
+        <v>161</v>
+      </c>
+      <c r="AN23" s="43"/>
+      <c r="AO23" s="43" t="s">
+        <v>528</v>
+      </c>
+      <c r="AP23" s="43"/>
+      <c r="AQ23" s="43" t="s">
         <v>166</v>
       </c>
-      <c r="AR23" s="7" t="s">
+      <c r="AR23" s="43" t="s">
         <v>241</v>
       </c>
-      <c r="AS23" s="7" t="s">
+      <c r="AS23" s="43" t="s">
         <v>177</v>
       </c>
-      <c r="AT23" s="7" t="s">
-        <v>558</v>
-      </c>
-      <c r="AU23" s="7" t="s">
-        <v>557</v>
-      </c>
-      <c r="AV23" s="7" t="s">
-        <v>208</v>
-      </c>
-      <c r="AW23" s="7" t="s">
+      <c r="AT23" s="43"/>
+      <c r="AU23" s="43" t="s">
+        <v>549</v>
+      </c>
+      <c r="AV23" s="43" t="s">
+        <v>205</v>
+      </c>
+      <c r="AW23" s="43" t="s">
         <v>209</v>
       </c>
-      <c r="AX23" s="7" t="s">
-        <v>525</v>
+      <c r="AX23" s="43" t="s">
+        <v>520</v>
       </c>
     </row>
     <row r="24" spans="1:50" x14ac:dyDescent="0.35">
-      <c r="A24" s="33" t="s">
-        <v>377</v>
-      </c>
-      <c r="B24" s="33" t="s">
+      <c r="A24" t="s">
+        <v>367</v>
+      </c>
+      <c r="B24" t="s">
         <v>245</v>
       </c>
-      <c r="C24" s="33" t="s">
-        <v>378</v>
-      </c>
-      <c r="D24" s="33" t="s">
-        <v>379</v>
-      </c>
-      <c r="E24" s="34">
+      <c r="C24" t="s">
+        <v>368</v>
+      </c>
+      <c r="D24" t="s">
+        <v>369</v>
+      </c>
+      <c r="E24" s="10">
         <v>2002</v>
       </c>
-      <c r="F24" s="35" t="s">
+      <c r="F24" s="7" t="s">
         <v>342</v>
       </c>
-      <c r="G24" s="35" t="s">
+      <c r="G24" s="7" t="s">
         <v>370</v>
       </c>
-      <c r="H24" s="33" t="s">
-        <v>275</v>
-      </c>
-      <c r="I24" s="35" t="s">
-        <v>380</v>
-      </c>
-      <c r="J24" s="35" t="s">
-        <v>343</v>
-      </c>
-      <c r="K24" s="33" t="s">
-        <v>381</v>
-      </c>
-      <c r="L24" s="33" t="s">
+      <c r="H24" t="s">
+        <v>371</v>
+      </c>
+      <c r="I24" s="7" t="s">
+        <v>372</v>
+      </c>
+      <c r="J24" s="7" t="s">
+        <v>373</v>
+      </c>
+      <c r="K24" t="s">
+        <v>374</v>
+      </c>
+      <c r="L24" t="s">
         <v>254</v>
       </c>
-      <c r="M24" s="35" t="s">
-        <v>382</v>
-      </c>
-      <c r="N24" s="35" t="s">
+      <c r="M24" s="7" t="s">
+        <v>375</v>
+      </c>
+      <c r="N24" s="7" t="s">
         <v>256</v>
       </c>
-      <c r="O24" s="35" t="s">
+      <c r="O24" s="7" t="s">
         <v>257</v>
       </c>
-      <c r="P24" s="35" t="s">
-        <v>350</v>
-      </c>
-      <c r="Q24" s="35" t="s">
+      <c r="P24" s="7" t="s">
+        <v>376</v>
+      </c>
+      <c r="Q24" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="R24" s="35" t="s">
-        <v>84</v>
-      </c>
-      <c r="S24" s="35"/>
-      <c r="T24" s="35"/>
-      <c r="U24" s="35"/>
-      <c r="V24" s="35"/>
-      <c r="W24" s="35"/>
-      <c r="X24" s="35"/>
-      <c r="Y24" s="35"/>
-      <c r="Z24" s="35"/>
-      <c r="AA24" s="35"/>
-      <c r="AB24" s="35"/>
-      <c r="AC24" s="35"/>
-      <c r="AD24" s="35"/>
-      <c r="AE24" s="35"/>
-      <c r="AF24" s="35" t="s">
-        <v>319</v>
-      </c>
-      <c r="AG24" s="35"/>
-      <c r="AH24" s="35"/>
-      <c r="AI24" s="35"/>
-      <c r="AJ24" s="35"/>
-      <c r="AK24" s="35"/>
-      <c r="AL24" s="35"/>
-      <c r="AM24" s="35"/>
-      <c r="AN24" s="35"/>
-      <c r="AO24" s="35"/>
-      <c r="AP24" s="35"/>
-      <c r="AQ24" s="35"/>
-      <c r="AR24" s="35"/>
-      <c r="AS24" s="35"/>
-      <c r="AT24" s="35"/>
-      <c r="AU24" s="35"/>
-      <c r="AV24" s="35"/>
-      <c r="AW24" s="35"/>
-      <c r="AX24" s="35"/>
+      <c r="S24" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="T24" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="U24" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="V24" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="W24" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="X24" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="Y24" s="7" t="s">
+        <v>503</v>
+      </c>
+      <c r="Z24" s="7" t="s">
+        <v>589</v>
+      </c>
+      <c r="AA24" s="7">
+        <v>1</v>
+      </c>
+      <c r="AB24" s="7">
+        <v>1</v>
+      </c>
+      <c r="AC24" s="7">
+        <v>3</v>
+      </c>
+      <c r="AD24" s="7" t="s">
+        <v>497</v>
+      </c>
+      <c r="AF24" s="7" t="s">
+        <v>290</v>
+      </c>
+      <c r="AG24" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="AH24" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="AI24" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="AL24" s="7" t="s">
+        <v>637</v>
+      </c>
+      <c r="AM24" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="AO24" s="7" t="s">
+        <v>633</v>
+      </c>
+      <c r="AQ24" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="AR24" s="7" t="s">
+        <v>241</v>
+      </c>
+      <c r="AS24" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="AU24" s="7" t="s">
+        <v>634</v>
+      </c>
+      <c r="AV24" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="AW24" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="AX24" s="7" t="s">
+        <v>636</v>
+      </c>
     </row>
     <row r="25" spans="1:50" x14ac:dyDescent="0.35">
-      <c r="A25" s="41" t="s">
-        <v>383</v>
-      </c>
-      <c r="B25" s="41" t="s">
+      <c r="A25" t="s">
+        <v>367</v>
+      </c>
+      <c r="B25" t="s">
         <v>245</v>
       </c>
-      <c r="C25" s="41" t="s">
-        <v>384</v>
-      </c>
-      <c r="D25" s="41" t="s">
-        <v>385</v>
-      </c>
-      <c r="E25" s="42">
-        <v>2001</v>
-      </c>
-      <c r="F25" s="43" t="s">
-        <v>386</v>
-      </c>
-      <c r="G25" s="43" t="s">
-        <v>387</v>
-      </c>
-      <c r="H25" s="41" t="s">
-        <v>388</v>
-      </c>
-      <c r="I25" s="43" t="s">
-        <v>389</v>
-      </c>
-      <c r="J25" s="43" t="s">
-        <v>390</v>
-      </c>
-      <c r="K25" s="41" t="s">
-        <v>391</v>
-      </c>
-      <c r="L25" s="41" t="s">
+      <c r="C25" t="s">
+        <v>368</v>
+      </c>
+      <c r="D25" t="s">
+        <v>369</v>
+      </c>
+      <c r="E25" s="10">
+        <v>2002</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>342</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>370</v>
+      </c>
+      <c r="H25" t="s">
+        <v>371</v>
+      </c>
+      <c r="I25" s="7" t="s">
+        <v>372</v>
+      </c>
+      <c r="J25" s="7" t="s">
+        <v>373</v>
+      </c>
+      <c r="K25" t="s">
+        <v>374</v>
+      </c>
+      <c r="L25" t="s">
         <v>254</v>
       </c>
-      <c r="M25" s="43" t="s">
-        <v>392</v>
-      </c>
-      <c r="N25" s="43" t="s">
+      <c r="M25" s="7" t="s">
+        <v>375</v>
+      </c>
+      <c r="N25" s="7" t="s">
         <v>256</v>
       </c>
-      <c r="O25" s="43" t="s">
-        <v>318</v>
-      </c>
-      <c r="P25" s="43" t="s">
-        <v>254</v>
-      </c>
-      <c r="Q25" s="43" t="s">
+      <c r="O25" s="7" t="s">
+        <v>257</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>376</v>
+      </c>
+      <c r="Q25" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="R25" s="43"/>
-      <c r="S25" s="43" t="s">
-        <v>24</v>
-      </c>
-      <c r="T25" s="43" t="s">
-        <v>46</v>
-      </c>
-      <c r="U25" s="43" t="s">
-        <v>52</v>
-      </c>
-      <c r="V25" s="43" t="s">
+      <c r="S25" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="T25" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="W25" s="43" t="s">
-        <v>51</v>
-      </c>
-      <c r="X25" s="43" t="s">
+      <c r="U25" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="V25" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="W25" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="X25" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="Y25" s="43" t="s">
-        <v>504</v>
-      </c>
-      <c r="Z25" s="43" t="s">
-        <v>610</v>
-      </c>
-      <c r="AA25" s="43">
-        <v>2</v>
-      </c>
-      <c r="AB25" s="43">
-        <v>2</v>
-      </c>
-      <c r="AC25" s="43">
+      <c r="Y25" s="7" t="s">
+        <v>503</v>
+      </c>
+      <c r="Z25" s="7" t="s">
+        <v>589</v>
+      </c>
+      <c r="AA25" s="7">
+        <v>1</v>
+      </c>
+      <c r="AB25" s="7">
+        <v>1</v>
+      </c>
+      <c r="AC25" s="7">
         <v>3</v>
       </c>
-      <c r="AD25" s="43" t="s">
-        <v>500</v>
-      </c>
-      <c r="AE25" s="43"/>
-      <c r="AF25" s="43" t="s">
+      <c r="AD25" s="7" t="s">
+        <v>497</v>
+      </c>
+      <c r="AF25" s="7" t="s">
         <v>290</v>
       </c>
-      <c r="AG25" s="43" t="s">
+      <c r="AG25" s="7" t="s">
         <v>109</v>
       </c>
-      <c r="AH25" s="43" t="s">
-        <v>119</v>
-      </c>
-      <c r="AI25" s="43" t="s">
-        <v>132</v>
-      </c>
-      <c r="AJ25" s="43"/>
-      <c r="AK25" s="43"/>
-      <c r="AL25" s="43" t="s">
-        <v>565</v>
-      </c>
-      <c r="AM25" s="43" t="s">
-        <v>235</v>
-      </c>
-      <c r="AN25" s="43"/>
-      <c r="AO25" s="43" t="s">
-        <v>562</v>
-      </c>
-      <c r="AP25" s="43"/>
-      <c r="AQ25" s="43" t="s">
+      <c r="AH25" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="AL25" s="7" t="s">
+        <v>635</v>
+      </c>
+      <c r="AM25" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="AO25" s="7" t="s">
+        <v>633</v>
+      </c>
+      <c r="AQ25" s="7" t="s">
         <v>166</v>
       </c>
-      <c r="AR25" s="43" t="s">
+      <c r="AR25" s="7" t="s">
         <v>241</v>
       </c>
-      <c r="AS25" s="43" t="s">
-        <v>178</v>
-      </c>
-      <c r="AT25" s="43" t="s">
-        <v>499</v>
-      </c>
-      <c r="AU25" s="43" t="s">
-        <v>563</v>
-      </c>
-      <c r="AV25" s="43" t="s">
-        <v>205</v>
-      </c>
-      <c r="AW25" s="43" t="s">
+      <c r="AS25" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="AU25" s="7" t="s">
+        <v>634</v>
+      </c>
+      <c r="AV25" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="AW25" s="7" t="s">
         <v>209</v>
       </c>
-      <c r="AX25" s="43" t="s">
-        <v>561</v>
+      <c r="AX25" s="7" t="s">
+        <v>636</v>
       </c>
     </row>
     <row r="26" spans="1:50" x14ac:dyDescent="0.35">
-      <c r="A26" t="s">
+      <c r="A26" s="33" t="s">
+        <v>377</v>
+      </c>
+      <c r="B26" s="33" t="s">
+        <v>245</v>
+      </c>
+      <c r="C26" s="33" t="s">
+        <v>378</v>
+      </c>
+      <c r="D26" s="33" t="s">
+        <v>379</v>
+      </c>
+      <c r="E26" s="34">
+        <v>2002</v>
+      </c>
+      <c r="F26" s="35" t="s">
+        <v>342</v>
+      </c>
+      <c r="G26" s="35" t="s">
+        <v>370</v>
+      </c>
+      <c r="H26" s="33" t="s">
+        <v>275</v>
+      </c>
+      <c r="I26" s="35" t="s">
+        <v>380</v>
+      </c>
+      <c r="J26" s="35" t="s">
+        <v>343</v>
+      </c>
+      <c r="K26" s="33" t="s">
+        <v>381</v>
+      </c>
+      <c r="L26" s="33" t="s">
+        <v>254</v>
+      </c>
+      <c r="M26" s="35" t="s">
+        <v>382</v>
+      </c>
+      <c r="N26" s="35" t="s">
+        <v>256</v>
+      </c>
+      <c r="O26" s="35" t="s">
+        <v>257</v>
+      </c>
+      <c r="P26" s="35" t="s">
+        <v>350</v>
+      </c>
+      <c r="Q26" s="35" t="s">
+        <v>21</v>
+      </c>
+      <c r="R26" s="35" t="s">
+        <v>84</v>
+      </c>
+      <c r="S26" s="35"/>
+      <c r="T26" s="35"/>
+      <c r="U26" s="35"/>
+      <c r="V26" s="35"/>
+      <c r="W26" s="35"/>
+      <c r="X26" s="35"/>
+      <c r="Y26" s="35"/>
+      <c r="Z26" s="35"/>
+      <c r="AA26" s="35"/>
+      <c r="AB26" s="35"/>
+      <c r="AC26" s="35"/>
+      <c r="AD26" s="35"/>
+      <c r="AE26" s="35"/>
+      <c r="AF26" s="35" t="s">
+        <v>319</v>
+      </c>
+      <c r="AG26" s="35"/>
+      <c r="AH26" s="35"/>
+      <c r="AI26" s="35"/>
+      <c r="AJ26" s="35"/>
+      <c r="AK26" s="35"/>
+      <c r="AL26" s="35"/>
+      <c r="AM26" s="35"/>
+      <c r="AN26" s="35"/>
+      <c r="AO26" s="35"/>
+      <c r="AP26" s="35"/>
+      <c r="AQ26" s="35"/>
+      <c r="AR26" s="35"/>
+      <c r="AS26" s="35"/>
+      <c r="AT26" s="35"/>
+      <c r="AU26" s="35"/>
+      <c r="AV26" s="35"/>
+      <c r="AW26" s="35"/>
+      <c r="AX26" s="35"/>
+    </row>
+    <row r="27" spans="1:50" x14ac:dyDescent="0.35">
+      <c r="A27" s="41" t="s">
         <v>383</v>
       </c>
-      <c r="B26" t="s">
+      <c r="B27" s="41" t="s">
         <v>245</v>
       </c>
-      <c r="C26" t="s">
+      <c r="C27" s="41" t="s">
         <v>384</v>
       </c>
-      <c r="D26" t="s">
+      <c r="D27" s="41" t="s">
         <v>385</v>
       </c>
-      <c r="E26" s="10">
+      <c r="E27" s="42">
         <v>2001</v>
       </c>
-      <c r="F26" s="7" t="s">
+      <c r="F27" s="43" t="s">
         <v>386</v>
       </c>
-      <c r="G26" s="7" t="s">
+      <c r="G27" s="43" t="s">
         <v>387</v>
       </c>
-      <c r="H26" t="s">
+      <c r="H27" s="41" t="s">
         <v>388</v>
       </c>
-      <c r="I26" s="7" t="s">
+      <c r="I27" s="43" t="s">
         <v>389</v>
       </c>
-      <c r="J26" s="7" t="s">
+      <c r="J27" s="43" t="s">
         <v>390</v>
       </c>
-      <c r="K26" t="s">
+      <c r="K27" s="41" t="s">
         <v>391</v>
       </c>
-      <c r="L26" t="s">
+      <c r="L27" s="41" t="s">
         <v>254</v>
       </c>
-      <c r="M26" s="7" t="s">
+      <c r="M27" s="43" t="s">
         <v>392</v>
       </c>
-      <c r="N26" s="7" t="s">
+      <c r="N27" s="43" t="s">
         <v>256</v>
       </c>
-      <c r="O26" s="7" t="s">
+      <c r="O27" s="43" t="s">
         <v>318</v>
       </c>
-      <c r="P26" s="7" t="s">
+      <c r="P27" s="43" t="s">
         <v>254</v>
       </c>
-      <c r="Q26" s="7" t="s">
+      <c r="Q27" s="43" t="s">
         <v>21</v>
       </c>
-      <c r="S26" s="7" t="s">
+      <c r="R27" s="43"/>
+      <c r="S27" s="43" t="s">
         <v>24</v>
       </c>
-      <c r="T26" s="7" t="s">
+      <c r="T27" s="43" t="s">
         <v>46</v>
       </c>
-      <c r="U26" s="7" t="s">
+      <c r="U27" s="43" t="s">
         <v>52</v>
       </c>
-      <c r="V26" s="7" t="s">
+      <c r="V27" s="43" t="s">
         <v>45</v>
       </c>
-      <c r="W26" s="7" t="s">
+      <c r="W27" s="43" t="s">
         <v>51</v>
       </c>
-      <c r="X26" s="7" t="s">
+      <c r="X27" s="43" t="s">
         <v>75</v>
       </c>
-      <c r="Y26" s="7" t="s">
-        <v>504</v>
-      </c>
-      <c r="Z26" s="7" t="s">
-        <v>610</v>
-      </c>
-      <c r="AA26" s="7">
+      <c r="Y27" s="43" t="s">
+        <v>503</v>
+      </c>
+      <c r="Z27" s="43" t="s">
+        <v>594</v>
+      </c>
+      <c r="AA27" s="43">
         <v>2</v>
       </c>
-      <c r="AB26" s="7">
+      <c r="AB27" s="43">
         <v>2</v>
       </c>
-      <c r="AC26" s="7">
+      <c r="AC27" s="43">
         <v>3</v>
       </c>
-      <c r="AD26" s="7" t="s">
-        <v>500</v>
-      </c>
-      <c r="AF26" s="7" t="s">
+      <c r="AD27" s="43" t="s">
+        <v>499</v>
+      </c>
+      <c r="AE27" s="43"/>
+      <c r="AF27" s="43" t="s">
         <v>290</v>
       </c>
-      <c r="AG26" s="7" t="s">
+      <c r="AG27" s="43" t="s">
         <v>109</v>
       </c>
-      <c r="AH26" s="7" t="s">
+      <c r="AH27" s="43" t="s">
         <v>119</v>
       </c>
-      <c r="AI26" s="7" t="s">
+      <c r="AI27" s="43" t="s">
         <v>132</v>
       </c>
-      <c r="AL26" s="7" t="s">
-        <v>565</v>
-      </c>
-      <c r="AM26" s="7" t="s">
+      <c r="AJ27" s="43"/>
+      <c r="AK27" s="43"/>
+      <c r="AL27" s="7" t="s">
+        <v>498</v>
+      </c>
+      <c r="AM27" s="43" t="s">
+        <v>235</v>
+      </c>
+      <c r="AN27" s="43"/>
+      <c r="AO27" s="43" t="s">
+        <v>553</v>
+      </c>
+      <c r="AP27" s="43"/>
+      <c r="AQ27" s="43" t="s">
+        <v>166</v>
+      </c>
+      <c r="AR27" s="43" t="s">
+        <v>241</v>
+      </c>
+      <c r="AS27" s="43" t="s">
+        <v>178</v>
+      </c>
+      <c r="AT27" s="43" t="s">
+        <v>498</v>
+      </c>
+      <c r="AU27" s="43" t="s">
+        <v>554</v>
+      </c>
+      <c r="AV27" s="43" t="s">
+        <v>205</v>
+      </c>
+      <c r="AW27" s="43" t="s">
+        <v>209</v>
+      </c>
+      <c r="AX27" s="43" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="28" spans="1:50" x14ac:dyDescent="0.35">
+      <c r="A28" t="s">
+        <v>383</v>
+      </c>
+      <c r="B28" t="s">
+        <v>245</v>
+      </c>
+      <c r="C28" t="s">
+        <v>384</v>
+      </c>
+      <c r="D28" t="s">
+        <v>385</v>
+      </c>
+      <c r="E28" s="10">
+        <v>2001</v>
+      </c>
+      <c r="F28" s="7" t="s">
+        <v>386</v>
+      </c>
+      <c r="G28" s="7" t="s">
+        <v>387</v>
+      </c>
+      <c r="H28" t="s">
+        <v>388</v>
+      </c>
+      <c r="I28" s="7" t="s">
+        <v>389</v>
+      </c>
+      <c r="J28" s="7" t="s">
+        <v>390</v>
+      </c>
+      <c r="K28" t="s">
+        <v>391</v>
+      </c>
+      <c r="L28" t="s">
+        <v>254</v>
+      </c>
+      <c r="M28" s="7" t="s">
+        <v>392</v>
+      </c>
+      <c r="N28" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="O28" s="7" t="s">
+        <v>318</v>
+      </c>
+      <c r="P28" s="7" t="s">
+        <v>254</v>
+      </c>
+      <c r="Q28" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="S28" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="T28" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="U28" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="V28" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="W28" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="X28" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="Y28" s="7" t="s">
+        <v>503</v>
+      </c>
+      <c r="Z28" s="7" t="s">
+        <v>594</v>
+      </c>
+      <c r="AA28" s="7">
+        <v>2</v>
+      </c>
+      <c r="AB28" s="7">
+        <v>2</v>
+      </c>
+      <c r="AC28" s="7">
+        <v>3</v>
+      </c>
+      <c r="AD28" s="7" t="s">
+        <v>499</v>
+      </c>
+      <c r="AF28" s="7" t="s">
+        <v>290</v>
+      </c>
+      <c r="AG28" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="AH28" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="AI28" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="AL28" s="7" t="s">
+        <v>498</v>
+      </c>
+      <c r="AM28" s="7" t="s">
         <v>234</v>
       </c>
-      <c r="AN26" s="7" t="s">
+      <c r="AN28" s="7" t="s">
         <v>162</v>
       </c>
-      <c r="AO26" s="7" t="s">
-        <v>559</v>
-      </c>
-      <c r="AQ26" s="7" t="s">
+      <c r="AO28" s="7" t="s">
+        <v>550</v>
+      </c>
+      <c r="AQ28" s="7" t="s">
         <v>166</v>
       </c>
-      <c r="AR26" s="7" t="s">
+      <c r="AR28" s="7" t="s">
         <v>241</v>
       </c>
-      <c r="AS26" s="7" t="s">
+      <c r="AS28" s="7" t="s">
         <v>178</v>
       </c>
-      <c r="AT26" s="7" t="s">
-        <v>499</v>
-      </c>
-      <c r="AU26" s="7" t="s">
-        <v>564</v>
-      </c>
-      <c r="AV26" s="7" t="s">
+      <c r="AT28" s="7" t="s">
+        <v>498</v>
+      </c>
+      <c r="AU28" s="7" t="s">
+        <v>555</v>
+      </c>
+      <c r="AV28" s="7" t="s">
         <v>205</v>
       </c>
-      <c r="AW26" s="7" t="s">
+      <c r="AW28" s="7" t="s">
         <v>212</v>
       </c>
-      <c r="AX26" s="7" t="s">
-        <v>560</v>
-      </c>
-    </row>
-    <row r="27" spans="1:50" s="14" customFormat="1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="30" t="s">
-        <v>393</v>
-      </c>
-      <c r="B27" s="30" t="s">
-        <v>245</v>
-      </c>
-      <c r="C27" s="30" t="s">
-        <v>394</v>
-      </c>
-      <c r="D27" s="30" t="s">
-        <v>395</v>
-      </c>
-      <c r="E27" s="31">
-        <v>2001</v>
-      </c>
-      <c r="F27" s="32" t="s">
-        <v>396</v>
-      </c>
-      <c r="G27" s="32" t="s">
-        <v>295</v>
-      </c>
-      <c r="H27" s="30" t="s">
-        <v>265</v>
-      </c>
-      <c r="I27" s="32" t="s">
-        <v>397</v>
-      </c>
-      <c r="J27" s="32" t="s">
-        <v>398</v>
-      </c>
-      <c r="K27" s="30" t="s">
-        <v>399</v>
-      </c>
-      <c r="L27" s="30" t="s">
-        <v>254</v>
-      </c>
-      <c r="M27" s="32" t="s">
-        <v>400</v>
-      </c>
-      <c r="N27" s="32" t="s">
-        <v>256</v>
-      </c>
-      <c r="O27" s="32" t="s">
-        <v>257</v>
-      </c>
-      <c r="P27" s="32" t="s">
-        <v>254</v>
-      </c>
-      <c r="Q27" s="32" t="s">
-        <v>21</v>
-      </c>
-      <c r="R27" s="32"/>
-      <c r="S27" s="32" t="s">
-        <v>24</v>
-      </c>
-      <c r="T27" s="32" t="s">
-        <v>46</v>
-      </c>
-      <c r="U27" s="32" t="s">
-        <v>55</v>
-      </c>
-      <c r="V27" s="32" t="s">
-        <v>45</v>
-      </c>
-      <c r="W27" s="32" t="s">
-        <v>55</v>
-      </c>
-      <c r="X27" s="32" t="s">
-        <v>218</v>
-      </c>
-      <c r="Y27" s="32"/>
-      <c r="Z27" s="32" t="s">
-        <v>604</v>
-      </c>
-      <c r="AA27" s="32">
-        <v>2</v>
-      </c>
-      <c r="AB27" s="32">
-        <v>2</v>
-      </c>
-      <c r="AC27" s="32">
-        <v>3</v>
-      </c>
-      <c r="AD27" s="32"/>
-      <c r="AE27" s="32"/>
-      <c r="AF27" s="32" t="s">
-        <v>290</v>
-      </c>
-      <c r="AG27" s="32" t="s">
-        <v>111</v>
-      </c>
-      <c r="AH27" s="32" t="s">
-        <v>122</v>
-      </c>
-      <c r="AI27" s="32" t="s">
-        <v>142</v>
-      </c>
-      <c r="AJ27" s="32" t="s">
-        <v>159</v>
-      </c>
-      <c r="AK27" s="32"/>
-      <c r="AL27" s="32" t="s">
-        <v>618</v>
-      </c>
-      <c r="AM27" s="32" t="s">
-        <v>235</v>
-      </c>
-      <c r="AN27" s="32"/>
-      <c r="AO27" s="32" t="s">
-        <v>568</v>
-      </c>
-      <c r="AP27" s="32" t="s">
-        <v>566</v>
-      </c>
-      <c r="AQ27" s="32" t="s">
-        <v>166</v>
-      </c>
-      <c r="AR27" s="32" t="s">
-        <v>241</v>
-      </c>
-      <c r="AS27" s="32" t="s">
-        <v>178</v>
-      </c>
-      <c r="AT27" s="32" t="s">
-        <v>567</v>
-      </c>
-      <c r="AU27" s="32" t="s">
-        <v>647</v>
-      </c>
-      <c r="AV27" s="32" t="s">
-        <v>207</v>
-      </c>
-      <c r="AW27" s="32" t="s">
-        <v>210</v>
-      </c>
-      <c r="AX27" s="29" t="s">
-        <v>617</v>
-      </c>
-    </row>
-    <row r="28" spans="1:50" s="14" customFormat="1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="30" t="s">
-        <v>393</v>
-      </c>
-      <c r="B28" s="30" t="s">
-        <v>245</v>
-      </c>
-      <c r="C28" s="30" t="s">
-        <v>394</v>
-      </c>
-      <c r="D28" s="30" t="s">
-        <v>395</v>
-      </c>
-      <c r="E28" s="31">
-        <v>2001</v>
-      </c>
-      <c r="F28" s="32" t="s">
-        <v>396</v>
-      </c>
-      <c r="G28" s="32" t="s">
-        <v>295</v>
-      </c>
-      <c r="H28" s="30" t="s">
-        <v>265</v>
-      </c>
-      <c r="I28" s="32" t="s">
-        <v>397</v>
-      </c>
-      <c r="J28" s="32" t="s">
-        <v>398</v>
-      </c>
-      <c r="K28" s="30" t="s">
-        <v>399</v>
-      </c>
-      <c r="L28" s="30" t="s">
-        <v>254</v>
-      </c>
-      <c r="M28" s="32" t="s">
-        <v>400</v>
-      </c>
-      <c r="N28" s="32" t="s">
-        <v>256</v>
-      </c>
-      <c r="O28" s="32" t="s">
-        <v>257</v>
-      </c>
-      <c r="P28" s="32" t="s">
-        <v>254</v>
-      </c>
-      <c r="Q28" s="32" t="s">
-        <v>21</v>
-      </c>
-      <c r="R28" s="32"/>
-      <c r="S28" s="32" t="s">
-        <v>24</v>
-      </c>
-      <c r="T28" s="32" t="s">
-        <v>46</v>
-      </c>
-      <c r="U28" s="32" t="s">
-        <v>55</v>
-      </c>
-      <c r="V28" s="32" t="s">
-        <v>45</v>
-      </c>
-      <c r="W28" s="32" t="s">
-        <v>55</v>
-      </c>
-      <c r="X28" s="32" t="s">
-        <v>218</v>
-      </c>
-      <c r="Y28" s="32"/>
-      <c r="Z28" s="32" t="s">
-        <v>604</v>
-      </c>
-      <c r="AA28" s="32">
-        <v>2</v>
-      </c>
-      <c r="AB28" s="32">
-        <v>2</v>
-      </c>
-      <c r="AC28" s="32">
-        <v>3</v>
-      </c>
-      <c r="AD28" s="32"/>
-      <c r="AE28" s="32"/>
-      <c r="AF28" s="32" t="s">
-        <v>290</v>
-      </c>
-      <c r="AG28" s="32" t="s">
-        <v>111</v>
-      </c>
-      <c r="AH28" s="32" t="s">
-        <v>122</v>
-      </c>
-      <c r="AI28" s="32" t="s">
-        <v>142</v>
-      </c>
-      <c r="AJ28" s="32" t="s">
-        <v>115</v>
-      </c>
-      <c r="AK28" s="32"/>
-      <c r="AL28" s="32" t="s">
-        <v>618</v>
-      </c>
-      <c r="AM28" s="32" t="s">
-        <v>235</v>
-      </c>
-      <c r="AN28" s="32"/>
-      <c r="AO28" s="32" t="s">
-        <v>568</v>
-      </c>
-      <c r="AP28" s="32" t="s">
-        <v>566</v>
-      </c>
-      <c r="AQ28" s="32" t="s">
-        <v>166</v>
-      </c>
-      <c r="AR28" s="32" t="s">
-        <v>241</v>
-      </c>
-      <c r="AS28" s="32" t="s">
-        <v>178</v>
-      </c>
-      <c r="AT28" s="32" t="s">
-        <v>567</v>
-      </c>
-      <c r="AU28" s="32" t="s">
-        <v>647</v>
-      </c>
-      <c r="AV28" s="32" t="s">
-        <v>207</v>
-      </c>
-      <c r="AW28" s="32" t="s">
-        <v>210</v>
-      </c>
-      <c r="AX28" s="29" t="s">
-        <v>617</v>
+      <c r="AX28" s="7" t="s">
+        <v>551</v>
       </c>
     </row>
     <row r="29" spans="1:50" s="14" customFormat="1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -8491,7 +8441,7 @@
       </c>
       <c r="Y29" s="32"/>
       <c r="Z29" s="32" t="s">
-        <v>604</v>
+        <v>588</v>
       </c>
       <c r="AA29" s="32">
         <v>2</v>
@@ -8517,21 +8467,21 @@
         <v>142</v>
       </c>
       <c r="AJ29" s="32" t="s">
-        <v>115</v>
+        <v>159</v>
       </c>
       <c r="AK29" s="32"/>
       <c r="AL29" s="32" t="s">
-        <v>619</v>
+        <v>602</v>
       </c>
       <c r="AM29" s="32" t="s">
         <v>235</v>
       </c>
       <c r="AN29" s="32"/>
       <c r="AO29" s="32" t="s">
-        <v>568</v>
+        <v>557</v>
       </c>
       <c r="AP29" s="32" t="s">
-        <v>566</v>
+        <v>556</v>
       </c>
       <c r="AQ29" s="32" t="s">
         <v>166</v>
@@ -8542,296 +8492,294 @@
       <c r="AS29" s="32" t="s">
         <v>178</v>
       </c>
-      <c r="AT29" s="32" t="s">
-        <v>567</v>
-      </c>
+      <c r="AT29" s="32"/>
       <c r="AU29" s="32" t="s">
-        <v>647</v>
+        <v>630</v>
       </c>
       <c r="AV29" s="32" t="s">
         <v>207</v>
       </c>
       <c r="AW29" s="32" t="s">
+        <v>210</v>
+      </c>
+      <c r="AX29" s="29" t="s">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="30" spans="1:50" s="14" customFormat="1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A30" s="30" t="s">
+        <v>393</v>
+      </c>
+      <c r="B30" s="30" t="s">
+        <v>245</v>
+      </c>
+      <c r="C30" s="30" t="s">
+        <v>394</v>
+      </c>
+      <c r="D30" s="30" t="s">
+        <v>395</v>
+      </c>
+      <c r="E30" s="31">
+        <v>2001</v>
+      </c>
+      <c r="F30" s="32" t="s">
+        <v>396</v>
+      </c>
+      <c r="G30" s="32" t="s">
+        <v>295</v>
+      </c>
+      <c r="H30" s="30" t="s">
+        <v>265</v>
+      </c>
+      <c r="I30" s="32" t="s">
+        <v>397</v>
+      </c>
+      <c r="J30" s="32" t="s">
+        <v>398</v>
+      </c>
+      <c r="K30" s="30" t="s">
+        <v>399</v>
+      </c>
+      <c r="L30" s="30" t="s">
+        <v>254</v>
+      </c>
+      <c r="M30" s="32" t="s">
+        <v>400</v>
+      </c>
+      <c r="N30" s="32" t="s">
+        <v>256</v>
+      </c>
+      <c r="O30" s="32" t="s">
+        <v>257</v>
+      </c>
+      <c r="P30" s="32" t="s">
+        <v>254</v>
+      </c>
+      <c r="Q30" s="32" t="s">
+        <v>21</v>
+      </c>
+      <c r="R30" s="32"/>
+      <c r="S30" s="32" t="s">
+        <v>24</v>
+      </c>
+      <c r="T30" s="32" t="s">
+        <v>46</v>
+      </c>
+      <c r="U30" s="32" t="s">
+        <v>55</v>
+      </c>
+      <c r="V30" s="32" t="s">
+        <v>45</v>
+      </c>
+      <c r="W30" s="32" t="s">
+        <v>55</v>
+      </c>
+      <c r="X30" s="32" t="s">
+        <v>218</v>
+      </c>
+      <c r="Y30" s="32"/>
+      <c r="Z30" s="32" t="s">
+        <v>588</v>
+      </c>
+      <c r="AA30" s="32">
+        <v>2</v>
+      </c>
+      <c r="AB30" s="32">
+        <v>2</v>
+      </c>
+      <c r="AC30" s="32">
+        <v>3</v>
+      </c>
+      <c r="AD30" s="32"/>
+      <c r="AE30" s="32"/>
+      <c r="AF30" s="32" t="s">
+        <v>290</v>
+      </c>
+      <c r="AG30" s="32" t="s">
+        <v>111</v>
+      </c>
+      <c r="AH30" s="32" t="s">
+        <v>122</v>
+      </c>
+      <c r="AI30" s="32" t="s">
+        <v>142</v>
+      </c>
+      <c r="AJ30" s="32" t="s">
+        <v>115</v>
+      </c>
+      <c r="AK30" s="32"/>
+      <c r="AL30" s="32" t="s">
+        <v>602</v>
+      </c>
+      <c r="AM30" s="32" t="s">
+        <v>235</v>
+      </c>
+      <c r="AN30" s="32"/>
+      <c r="AO30" s="32" t="s">
+        <v>557</v>
+      </c>
+      <c r="AP30" s="32" t="s">
+        <v>556</v>
+      </c>
+      <c r="AQ30" s="32" t="s">
+        <v>166</v>
+      </c>
+      <c r="AR30" s="32" t="s">
+        <v>241</v>
+      </c>
+      <c r="AS30" s="32" t="s">
+        <v>178</v>
+      </c>
+      <c r="AT30" s="32"/>
+      <c r="AU30" s="32" t="s">
+        <v>630</v>
+      </c>
+      <c r="AV30" s="32" t="s">
+        <v>207</v>
+      </c>
+      <c r="AW30" s="32" t="s">
+        <v>210</v>
+      </c>
+      <c r="AX30" s="29" t="s">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="31" spans="1:50" s="14" customFormat="1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A31" s="30" t="s">
+        <v>393</v>
+      </c>
+      <c r="B31" s="30" t="s">
+        <v>245</v>
+      </c>
+      <c r="C31" s="30" t="s">
+        <v>394</v>
+      </c>
+      <c r="D31" s="30" t="s">
+        <v>395</v>
+      </c>
+      <c r="E31" s="31">
+        <v>2001</v>
+      </c>
+      <c r="F31" s="32" t="s">
+        <v>396</v>
+      </c>
+      <c r="G31" s="32" t="s">
+        <v>295</v>
+      </c>
+      <c r="H31" s="30" t="s">
+        <v>265</v>
+      </c>
+      <c r="I31" s="32" t="s">
+        <v>397</v>
+      </c>
+      <c r="J31" s="32" t="s">
+        <v>398</v>
+      </c>
+      <c r="K31" s="30" t="s">
+        <v>399</v>
+      </c>
+      <c r="L31" s="30" t="s">
+        <v>254</v>
+      </c>
+      <c r="M31" s="32" t="s">
+        <v>400</v>
+      </c>
+      <c r="N31" s="32" t="s">
+        <v>256</v>
+      </c>
+      <c r="O31" s="32" t="s">
+        <v>257</v>
+      </c>
+      <c r="P31" s="32" t="s">
+        <v>254</v>
+      </c>
+      <c r="Q31" s="32" t="s">
+        <v>21</v>
+      </c>
+      <c r="R31" s="32"/>
+      <c r="S31" s="32" t="s">
+        <v>24</v>
+      </c>
+      <c r="T31" s="32" t="s">
+        <v>46</v>
+      </c>
+      <c r="U31" s="32" t="s">
+        <v>55</v>
+      </c>
+      <c r="V31" s="32" t="s">
+        <v>45</v>
+      </c>
+      <c r="W31" s="32" t="s">
+        <v>55</v>
+      </c>
+      <c r="X31" s="32" t="s">
+        <v>218</v>
+      </c>
+      <c r="Y31" s="32"/>
+      <c r="Z31" s="32" t="s">
+        <v>588</v>
+      </c>
+      <c r="AA31" s="32">
+        <v>2</v>
+      </c>
+      <c r="AB31" s="32">
+        <v>2</v>
+      </c>
+      <c r="AC31" s="32">
+        <v>3</v>
+      </c>
+      <c r="AD31" s="32"/>
+      <c r="AE31" s="32"/>
+      <c r="AF31" s="32" t="s">
+        <v>290</v>
+      </c>
+      <c r="AG31" s="32" t="s">
+        <v>111</v>
+      </c>
+      <c r="AH31" s="32" t="s">
+        <v>122</v>
+      </c>
+      <c r="AI31" s="32" t="s">
+        <v>142</v>
+      </c>
+      <c r="AJ31" s="32" t="s">
+        <v>115</v>
+      </c>
+      <c r="AK31" s="32"/>
+      <c r="AL31" s="32" t="s">
+        <v>603</v>
+      </c>
+      <c r="AM31" s="32" t="s">
+        <v>235</v>
+      </c>
+      <c r="AN31" s="32"/>
+      <c r="AO31" s="32" t="s">
+        <v>557</v>
+      </c>
+      <c r="AP31" s="32" t="s">
+        <v>556</v>
+      </c>
+      <c r="AQ31" s="32" t="s">
+        <v>166</v>
+      </c>
+      <c r="AR31" s="32" t="s">
+        <v>241</v>
+      </c>
+      <c r="AS31" s="32" t="s">
+        <v>178</v>
+      </c>
+      <c r="AT31" s="32"/>
+      <c r="AU31" s="32" t="s">
+        <v>630</v>
+      </c>
+      <c r="AV31" s="32" t="s">
+        <v>207</v>
+      </c>
+      <c r="AW31" s="32" t="s">
         <v>212</v>
       </c>
-      <c r="AX29" s="29" t="s">
-        <v>616</v>
-      </c>
-    </row>
-    <row r="30" spans="1:50" x14ac:dyDescent="0.35">
-      <c r="A30" s="41" t="s">
-        <v>401</v>
-      </c>
-      <c r="B30" s="41" t="s">
-        <v>245</v>
-      </c>
-      <c r="C30" s="41" t="s">
-        <v>402</v>
-      </c>
-      <c r="D30" s="41" t="s">
-        <v>403</v>
-      </c>
-      <c r="E30" s="42">
-        <v>2001</v>
-      </c>
-      <c r="F30" s="43" t="s">
-        <v>404</v>
-      </c>
-      <c r="G30" s="43" t="s">
-        <v>405</v>
-      </c>
-      <c r="H30" s="41" t="s">
-        <v>275</v>
-      </c>
-      <c r="I30" s="43" t="s">
-        <v>275</v>
-      </c>
-      <c r="J30" s="43" t="s">
-        <v>406</v>
-      </c>
-      <c r="K30" s="41" t="s">
-        <v>407</v>
-      </c>
-      <c r="L30" s="41" t="s">
-        <v>254</v>
-      </c>
-      <c r="M30" s="43" t="s">
-        <v>408</v>
-      </c>
-      <c r="N30" s="43" t="s">
-        <v>256</v>
-      </c>
-      <c r="O30" s="43" t="s">
-        <v>257</v>
-      </c>
-      <c r="P30" s="43" t="s">
-        <v>254</v>
-      </c>
-      <c r="Q30" s="43" t="s">
-        <v>21</v>
-      </c>
-      <c r="R30" s="43"/>
-      <c r="S30" s="43" t="s">
-        <v>31</v>
-      </c>
-      <c r="T30" s="43" t="s">
-        <v>41</v>
-      </c>
-      <c r="U30" s="43" t="s">
-        <v>49</v>
-      </c>
-      <c r="V30" s="43" t="s">
-        <v>40</v>
-      </c>
-      <c r="W30" s="43" t="s">
-        <v>48</v>
-      </c>
-      <c r="X30" s="43" t="s">
-        <v>72</v>
-      </c>
-      <c r="Y30" s="43"/>
-      <c r="Z30" s="43" t="s">
-        <v>606</v>
-      </c>
-      <c r="AA30" s="43">
-        <v>2</v>
-      </c>
-      <c r="AB30" s="43">
-        <v>2</v>
-      </c>
-      <c r="AC30" s="43">
-        <v>3</v>
-      </c>
-      <c r="AD30" s="43" t="s">
-        <v>502</v>
-      </c>
-      <c r="AE30" s="43"/>
-      <c r="AF30" s="43" t="s">
-        <v>319</v>
-      </c>
-      <c r="AG30" s="43" t="s">
-        <v>109</v>
-      </c>
-      <c r="AH30" s="43" t="s">
-        <v>119</v>
-      </c>
-      <c r="AI30" s="43" t="s">
-        <v>149</v>
-      </c>
-      <c r="AJ30" s="43"/>
-      <c r="AK30" s="43"/>
-      <c r="AL30" s="43" t="s">
-        <v>501</v>
-      </c>
-      <c r="AM30" s="43" t="s">
-        <v>234</v>
-      </c>
-      <c r="AN30" s="43" t="s">
-        <v>162</v>
-      </c>
-      <c r="AO30" s="43" t="s">
-        <v>638</v>
-      </c>
-      <c r="AP30" s="43"/>
-      <c r="AQ30" s="43" t="s">
-        <v>167</v>
-      </c>
-      <c r="AR30" s="43" t="s">
-        <v>175</v>
-      </c>
-      <c r="AS30" s="43"/>
-      <c r="AT30" s="43" t="s">
-        <v>641</v>
-      </c>
-      <c r="AU30" s="43" t="s">
-        <v>639</v>
-      </c>
-      <c r="AV30" s="43" t="s">
-        <v>201</v>
-      </c>
-      <c r="AW30" s="43" t="s">
-        <v>209</v>
-      </c>
-      <c r="AX30" s="7" t="s">
-        <v>640</v>
-      </c>
-    </row>
-    <row r="31" spans="1:50" x14ac:dyDescent="0.35">
-      <c r="A31" s="41" t="s">
-        <v>401</v>
-      </c>
-      <c r="B31" s="41" t="s">
-        <v>245</v>
-      </c>
-      <c r="C31" s="41" t="s">
-        <v>402</v>
-      </c>
-      <c r="D31" s="41" t="s">
-        <v>403</v>
-      </c>
-      <c r="E31" s="42">
-        <v>2001</v>
-      </c>
-      <c r="F31" s="43" t="s">
-        <v>404</v>
-      </c>
-      <c r="G31" s="43" t="s">
-        <v>405</v>
-      </c>
-      <c r="H31" s="41" t="s">
-        <v>275</v>
-      </c>
-      <c r="I31" s="43" t="s">
-        <v>275</v>
-      </c>
-      <c r="J31" s="43" t="s">
-        <v>406</v>
-      </c>
-      <c r="K31" s="41" t="s">
-        <v>407</v>
-      </c>
-      <c r="L31" s="41" t="s">
-        <v>254</v>
-      </c>
-      <c r="M31" s="43" t="s">
-        <v>408</v>
-      </c>
-      <c r="N31" s="43" t="s">
-        <v>256</v>
-      </c>
-      <c r="O31" s="43" t="s">
-        <v>257</v>
-      </c>
-      <c r="P31" s="43" t="s">
-        <v>254</v>
-      </c>
-      <c r="Q31" s="43" t="s">
-        <v>21</v>
-      </c>
-      <c r="R31" s="43"/>
-      <c r="S31" s="43" t="s">
-        <v>31</v>
-      </c>
-      <c r="T31" s="43" t="s">
-        <v>41</v>
-      </c>
-      <c r="U31" s="43" t="s">
-        <v>49</v>
-      </c>
-      <c r="V31" s="43" t="s">
-        <v>40</v>
-      </c>
-      <c r="W31" s="43" t="s">
-        <v>48</v>
-      </c>
-      <c r="X31" s="43" t="s">
-        <v>72</v>
-      </c>
-      <c r="Y31" s="43"/>
-      <c r="Z31" s="43" t="s">
-        <v>606</v>
-      </c>
-      <c r="AA31" s="43">
-        <v>2</v>
-      </c>
-      <c r="AB31" s="43">
-        <v>2</v>
-      </c>
-      <c r="AC31" s="43">
-        <v>3</v>
-      </c>
-      <c r="AD31" s="43" t="s">
-        <v>502</v>
-      </c>
-      <c r="AE31" s="43"/>
-      <c r="AF31" s="43" t="s">
-        <v>319</v>
-      </c>
-      <c r="AG31" s="43" t="s">
-        <v>109</v>
-      </c>
-      <c r="AH31" s="43" t="s">
-        <v>119</v>
-      </c>
-      <c r="AI31" s="43" t="s">
-        <v>149</v>
-      </c>
-      <c r="AJ31" s="43"/>
-      <c r="AK31" s="43"/>
-      <c r="AL31" s="43" t="s">
-        <v>501</v>
-      </c>
-      <c r="AM31" s="43" t="s">
-        <v>234</v>
-      </c>
-      <c r="AN31" s="43" t="s">
-        <v>162</v>
-      </c>
-      <c r="AO31" s="43" t="s">
-        <v>638</v>
-      </c>
-      <c r="AP31" s="43"/>
-      <c r="AQ31" s="43" t="s">
-        <v>167</v>
-      </c>
-      <c r="AR31" s="43" t="s">
-        <v>175</v>
-      </c>
-      <c r="AS31" s="43"/>
-      <c r="AT31" s="43" t="s">
-        <v>641</v>
-      </c>
-      <c r="AU31" s="43" t="s">
-        <v>642</v>
-      </c>
-      <c r="AV31" s="43" t="s">
-        <v>202</v>
-      </c>
-      <c r="AW31" s="43" t="s">
-        <v>209</v>
-      </c>
-      <c r="AX31" s="7" t="s">
-        <v>643</v>
+      <c r="AX31" s="29" t="s">
+        <v>600</v>
       </c>
     </row>
     <row r="32" spans="1:50" x14ac:dyDescent="0.35">
@@ -8907,7 +8855,7 @@
       </c>
       <c r="Y32" s="43"/>
       <c r="Z32" s="43" t="s">
-        <v>606</v>
+        <v>590</v>
       </c>
       <c r="AA32" s="43">
         <v>2</v>
@@ -8919,7 +8867,7 @@
         <v>3</v>
       </c>
       <c r="AD32" s="43" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="AE32" s="43"/>
       <c r="AF32" s="43" t="s">
@@ -8937,7 +8885,7 @@
       <c r="AJ32" s="43"/>
       <c r="AK32" s="43"/>
       <c r="AL32" s="43" t="s">
-        <v>501</v>
+        <v>625</v>
       </c>
       <c r="AM32" s="43" t="s">
         <v>234</v>
@@ -8946,7 +8894,7 @@
         <v>162</v>
       </c>
       <c r="AO32" s="43" t="s">
-        <v>638</v>
+        <v>622</v>
       </c>
       <c r="AP32" s="43"/>
       <c r="AQ32" s="43" t="s">
@@ -8957,10 +8905,10 @@
       </c>
       <c r="AS32" s="43"/>
       <c r="AT32" s="43" t="s">
-        <v>644</v>
+        <v>500</v>
       </c>
       <c r="AU32" s="43" t="s">
-        <v>639</v>
+        <v>623</v>
       </c>
       <c r="AV32" s="43" t="s">
         <v>201</v>
@@ -8969,272 +8917,283 @@
         <v>209</v>
       </c>
       <c r="AX32" s="7" t="s">
-        <v>645</v>
+        <v>624</v>
       </c>
     </row>
     <row r="33" spans="1:50" x14ac:dyDescent="0.35">
-      <c r="A33" t="s">
-        <v>409</v>
-      </c>
-      <c r="B33" t="s">
+      <c r="A33" s="41" t="s">
+        <v>401</v>
+      </c>
+      <c r="B33" s="41" t="s">
         <v>245</v>
       </c>
-      <c r="C33" t="s">
-        <v>410</v>
-      </c>
-      <c r="D33" t="s">
-        <v>411</v>
-      </c>
-      <c r="E33" s="10">
-        <v>2000</v>
-      </c>
-      <c r="F33" s="7" t="s">
-        <v>412</v>
-      </c>
-      <c r="G33" s="7" t="s">
-        <v>413</v>
-      </c>
-      <c r="H33" t="s">
-        <v>371</v>
-      </c>
-      <c r="I33" s="7" t="s">
-        <v>414</v>
-      </c>
-      <c r="J33" s="7" t="s">
-        <v>415</v>
-      </c>
-      <c r="K33" t="s">
-        <v>416</v>
-      </c>
-      <c r="L33" t="s">
+      <c r="C33" s="41" t="s">
+        <v>402</v>
+      </c>
+      <c r="D33" s="41" t="s">
+        <v>403</v>
+      </c>
+      <c r="E33" s="42">
+        <v>2001</v>
+      </c>
+      <c r="F33" s="43" t="s">
+        <v>404</v>
+      </c>
+      <c r="G33" s="43" t="s">
+        <v>405</v>
+      </c>
+      <c r="H33" s="41" t="s">
+        <v>275</v>
+      </c>
+      <c r="I33" s="43" t="s">
+        <v>275</v>
+      </c>
+      <c r="J33" s="43" t="s">
+        <v>406</v>
+      </c>
+      <c r="K33" s="41" t="s">
+        <v>407</v>
+      </c>
+      <c r="L33" s="41" t="s">
         <v>254</v>
       </c>
-      <c r="M33" s="7" t="s">
-        <v>417</v>
-      </c>
-      <c r="N33" s="7" t="s">
+      <c r="M33" s="43" t="s">
+        <v>408</v>
+      </c>
+      <c r="N33" s="43" t="s">
         <v>256</v>
       </c>
-      <c r="O33" s="7" t="s">
-        <v>318</v>
-      </c>
-      <c r="P33" s="7" t="s">
-        <v>258</v>
-      </c>
-      <c r="Q33" s="7" t="s">
+      <c r="O33" s="43" t="s">
+        <v>257</v>
+      </c>
+      <c r="P33" s="43" t="s">
+        <v>254</v>
+      </c>
+      <c r="Q33" s="43" t="s">
         <v>21</v>
       </c>
-      <c r="S33" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="T33" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="U33" s="7" t="s">
+      <c r="R33" s="43"/>
+      <c r="S33" s="43" t="s">
+        <v>31</v>
+      </c>
+      <c r="T33" s="43" t="s">
+        <v>41</v>
+      </c>
+      <c r="U33" s="43" t="s">
         <v>49</v>
       </c>
-      <c r="V33" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="W33" s="7" t="s">
+      <c r="V33" s="43" t="s">
+        <v>40</v>
+      </c>
+      <c r="W33" s="43" t="s">
         <v>48</v>
       </c>
-      <c r="X33" s="7" t="s">
-        <v>218</v>
-      </c>
-      <c r="Y33" s="7" t="s">
-        <v>505</v>
-      </c>
-      <c r="Z33" s="7" t="s">
-        <v>607</v>
-      </c>
-      <c r="AA33" s="7">
+      <c r="X33" s="43" t="s">
+        <v>72</v>
+      </c>
+      <c r="Y33" s="43"/>
+      <c r="Z33" s="43" t="s">
+        <v>590</v>
+      </c>
+      <c r="AA33" s="43">
         <v>2</v>
       </c>
-      <c r="AB33" s="7">
+      <c r="AB33" s="43">
         <v>2</v>
       </c>
-      <c r="AC33" s="7">
+      <c r="AC33" s="43">
         <v>3</v>
       </c>
-      <c r="AD33" s="7" t="s">
-        <v>503</v>
-      </c>
-      <c r="AF33" s="7" t="s">
-        <v>259</v>
-      </c>
-      <c r="AG33" s="7" t="s">
+      <c r="AD33" s="43" t="s">
+        <v>501</v>
+      </c>
+      <c r="AE33" s="43"/>
+      <c r="AF33" s="43" t="s">
+        <v>319</v>
+      </c>
+      <c r="AG33" s="43" t="s">
         <v>109</v>
       </c>
-      <c r="AH33" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="AI33" s="7" t="s">
-        <v>143</v>
-      </c>
-      <c r="AL33" s="7" t="s">
-        <v>570</v>
-      </c>
-      <c r="AM33" s="7" t="s">
-        <v>235</v>
-      </c>
-      <c r="AO33" s="7" t="s">
-        <v>637</v>
-      </c>
-      <c r="AQ33" s="7" t="s">
-        <v>166</v>
-      </c>
-      <c r="AR33" s="7" t="s">
-        <v>241</v>
-      </c>
-      <c r="AT33" s="7" t="s">
-        <v>569</v>
-      </c>
-      <c r="AU33" s="7" t="s">
-        <v>627</v>
-      </c>
-      <c r="AV33" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="AW33" s="7" t="s">
-        <v>212</v>
+      <c r="AH33" s="43" t="s">
+        <v>119</v>
+      </c>
+      <c r="AI33" s="43" t="s">
+        <v>149</v>
+      </c>
+      <c r="AJ33" s="43"/>
+      <c r="AK33" s="43"/>
+      <c r="AL33" s="43" t="s">
+        <v>625</v>
+      </c>
+      <c r="AM33" s="43" t="s">
+        <v>234</v>
+      </c>
+      <c r="AN33" s="43" t="s">
+        <v>162</v>
+      </c>
+      <c r="AO33" s="43" t="s">
+        <v>622</v>
+      </c>
+      <c r="AP33" s="43"/>
+      <c r="AQ33" s="43" t="s">
+        <v>167</v>
+      </c>
+      <c r="AR33" s="43" t="s">
+        <v>175</v>
+      </c>
+      <c r="AS33" s="43"/>
+      <c r="AT33" s="43" t="s">
+        <v>500</v>
+      </c>
+      <c r="AU33" s="43" t="s">
+        <v>626</v>
+      </c>
+      <c r="AV33" s="43" t="s">
+        <v>202</v>
+      </c>
+      <c r="AW33" s="43" t="s">
+        <v>209</v>
       </c>
       <c r="AX33" s="7" t="s">
-        <v>628</v>
+        <v>638</v>
       </c>
     </row>
     <row r="34" spans="1:50" x14ac:dyDescent="0.35">
-      <c r="A34" t="s">
-        <v>409</v>
-      </c>
-      <c r="B34" t="s">
+      <c r="A34" s="41" t="s">
+        <v>401</v>
+      </c>
+      <c r="B34" s="41" t="s">
         <v>245</v>
       </c>
-      <c r="C34" t="s">
-        <v>410</v>
-      </c>
-      <c r="D34" t="s">
-        <v>411</v>
-      </c>
-      <c r="E34" s="10">
-        <v>2000</v>
-      </c>
-      <c r="F34" s="7" t="s">
-        <v>412</v>
-      </c>
-      <c r="G34" s="7" t="s">
-        <v>413</v>
-      </c>
-      <c r="H34" t="s">
-        <v>371</v>
-      </c>
-      <c r="I34" s="7" t="s">
-        <v>414</v>
-      </c>
-      <c r="J34" s="7" t="s">
-        <v>415</v>
-      </c>
-      <c r="K34" t="s">
-        <v>416</v>
-      </c>
-      <c r="L34" t="s">
+      <c r="C34" s="41" t="s">
+        <v>402</v>
+      </c>
+      <c r="D34" s="41" t="s">
+        <v>403</v>
+      </c>
+      <c r="E34" s="42">
+        <v>2001</v>
+      </c>
+      <c r="F34" s="43" t="s">
+        <v>404</v>
+      </c>
+      <c r="G34" s="43" t="s">
+        <v>405</v>
+      </c>
+      <c r="H34" s="41" t="s">
+        <v>275</v>
+      </c>
+      <c r="I34" s="43" t="s">
+        <v>275</v>
+      </c>
+      <c r="J34" s="43" t="s">
+        <v>406</v>
+      </c>
+      <c r="K34" s="41" t="s">
+        <v>407</v>
+      </c>
+      <c r="L34" s="41" t="s">
         <v>254</v>
       </c>
-      <c r="M34" s="7" t="s">
-        <v>417</v>
-      </c>
-      <c r="N34" s="7" t="s">
+      <c r="M34" s="43" t="s">
+        <v>408</v>
+      </c>
+      <c r="N34" s="43" t="s">
         <v>256</v>
       </c>
-      <c r="O34" s="7" t="s">
-        <v>318</v>
-      </c>
-      <c r="P34" s="7" t="s">
-        <v>258</v>
-      </c>
-      <c r="Q34" s="7" t="s">
+      <c r="O34" s="43" t="s">
+        <v>257</v>
+      </c>
+      <c r="P34" s="43" t="s">
+        <v>254</v>
+      </c>
+      <c r="Q34" s="43" t="s">
         <v>21</v>
       </c>
-      <c r="S34" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="T34" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="U34" s="7" t="s">
+      <c r="R34" s="43"/>
+      <c r="S34" s="43" t="s">
+        <v>31</v>
+      </c>
+      <c r="T34" s="43" t="s">
+        <v>41</v>
+      </c>
+      <c r="U34" s="43" t="s">
         <v>49</v>
       </c>
-      <c r="V34" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="W34" s="7" t="s">
+      <c r="V34" s="43" t="s">
+        <v>40</v>
+      </c>
+      <c r="W34" s="43" t="s">
         <v>48</v>
       </c>
-      <c r="X34" s="7" t="s">
-        <v>218</v>
-      </c>
-      <c r="Y34" s="7" t="s">
-        <v>505</v>
-      </c>
-      <c r="Z34" s="7" t="s">
-        <v>607</v>
-      </c>
-      <c r="AA34" s="7">
+      <c r="X34" s="43" t="s">
+        <v>72</v>
+      </c>
+      <c r="Y34" s="43"/>
+      <c r="Z34" s="43" t="s">
+        <v>590</v>
+      </c>
+      <c r="AA34" s="43">
         <v>2</v>
       </c>
-      <c r="AB34" s="7">
+      <c r="AB34" s="43">
         <v>2</v>
       </c>
-      <c r="AC34" s="7">
+      <c r="AC34" s="43">
         <v>3</v>
       </c>
-      <c r="AD34" s="7" t="s">
-        <v>503</v>
-      </c>
-      <c r="AF34" s="7" t="s">
-        <v>259</v>
-      </c>
-      <c r="AG34" s="7" t="s">
+      <c r="AD34" s="43" t="s">
+        <v>501</v>
+      </c>
+      <c r="AE34" s="43"/>
+      <c r="AF34" s="43" t="s">
+        <v>319</v>
+      </c>
+      <c r="AG34" s="43" t="s">
         <v>109</v>
       </c>
-      <c r="AH34" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="AI34" s="7" t="s">
-        <v>142</v>
-      </c>
-      <c r="AK34" s="7" t="s">
-        <v>143</v>
-      </c>
-      <c r="AL34" s="7" t="s">
-        <v>570</v>
-      </c>
-      <c r="AM34" s="7" t="s">
-        <v>235</v>
-      </c>
-      <c r="AO34" s="7" t="s">
-        <v>637</v>
-      </c>
-      <c r="AQ34" s="7" t="s">
-        <v>166</v>
-      </c>
-      <c r="AR34" s="7" t="s">
-        <v>241</v>
-      </c>
-      <c r="AT34" s="7" t="s">
-        <v>569</v>
-      </c>
-      <c r="AU34" s="7" t="s">
-        <v>629</v>
-      </c>
-      <c r="AV34" s="7" t="s">
+      <c r="AH34" s="43" t="s">
+        <v>119</v>
+      </c>
+      <c r="AI34" s="43" t="s">
+        <v>149</v>
+      </c>
+      <c r="AJ34" s="43"/>
+      <c r="AK34" s="43"/>
+      <c r="AL34" s="43" t="s">
+        <v>627</v>
+      </c>
+      <c r="AM34" s="43" t="s">
+        <v>234</v>
+      </c>
+      <c r="AN34" s="43" t="s">
+        <v>162</v>
+      </c>
+      <c r="AO34" s="43" t="s">
+        <v>622</v>
+      </c>
+      <c r="AP34" s="43"/>
+      <c r="AQ34" s="43" t="s">
+        <v>167</v>
+      </c>
+      <c r="AR34" s="43" t="s">
+        <v>175</v>
+      </c>
+      <c r="AS34" s="43"/>
+      <c r="AT34" s="43" t="s">
+        <v>500</v>
+      </c>
+      <c r="AU34" s="43" t="s">
+        <v>623</v>
+      </c>
+      <c r="AV34" s="43" t="s">
         <v>201</v>
       </c>
-      <c r="AW34" s="7" t="s">
-        <v>211</v>
-      </c>
-      <c r="AX34" s="43" t="s">
-        <v>633</v>
+      <c r="AW34" s="43" t="s">
+        <v>209</v>
+      </c>
+      <c r="AX34" s="7" t="s">
+        <v>628</v>
       </c>
     </row>
     <row r="35" spans="1:50" x14ac:dyDescent="0.35">
@@ -9308,10 +9267,10 @@
         <v>218</v>
       </c>
       <c r="Y35" s="7" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="Z35" s="7" t="s">
-        <v>607</v>
+        <v>591</v>
       </c>
       <c r="AA35" s="7">
         <v>2</v>
@@ -9323,7 +9282,7 @@
         <v>3</v>
       </c>
       <c r="AD35" s="7" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="AF35" s="7" t="s">
         <v>259</v>
@@ -9332,22 +9291,19 @@
         <v>109</v>
       </c>
       <c r="AH35" s="7" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="AI35" s="7" t="s">
-        <v>142</v>
-      </c>
-      <c r="AK35" s="7" t="s">
         <v>143</v>
       </c>
       <c r="AL35" s="7" t="s">
-        <v>570</v>
+        <v>559</v>
       </c>
       <c r="AM35" s="7" t="s">
         <v>235</v>
       </c>
       <c r="AO35" s="7" t="s">
-        <v>637</v>
+        <v>621</v>
       </c>
       <c r="AQ35" s="7" t="s">
         <v>166</v>
@@ -9356,19 +9312,19 @@
         <v>241</v>
       </c>
       <c r="AT35" s="7" t="s">
-        <v>569</v>
+        <v>558</v>
       </c>
       <c r="AU35" s="7" t="s">
-        <v>630</v>
+        <v>611</v>
       </c>
       <c r="AV35" s="7" t="s">
-        <v>208</v>
+        <v>115</v>
       </c>
       <c r="AW35" s="7" t="s">
-        <v>211</v>
-      </c>
-      <c r="AX35" s="43" t="s">
-        <v>634</v>
+        <v>212</v>
+      </c>
+      <c r="AX35" s="7" t="s">
+        <v>612</v>
       </c>
     </row>
     <row r="36" spans="1:50" x14ac:dyDescent="0.35">
@@ -9442,10 +9398,10 @@
         <v>218</v>
       </c>
       <c r="Y36" s="7" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="Z36" s="7" t="s">
-        <v>607</v>
+        <v>591</v>
       </c>
       <c r="AA36" s="7">
         <v>2</v>
@@ -9457,7 +9413,7 @@
         <v>3</v>
       </c>
       <c r="AD36" s="7" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="AF36" s="7" t="s">
         <v>259</v>
@@ -9475,13 +9431,13 @@
         <v>143</v>
       </c>
       <c r="AL36" s="7" t="s">
-        <v>570</v>
+        <v>559</v>
       </c>
       <c r="AM36" s="7" t="s">
         <v>235</v>
       </c>
       <c r="AO36" s="7" t="s">
-        <v>637</v>
+        <v>621</v>
       </c>
       <c r="AQ36" s="7" t="s">
         <v>166</v>
@@ -9490,19 +9446,19 @@
         <v>241</v>
       </c>
       <c r="AT36" s="7" t="s">
-        <v>569</v>
+        <v>558</v>
       </c>
       <c r="AU36" s="7" t="s">
-        <v>631</v>
+        <v>613</v>
       </c>
       <c r="AV36" s="7" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
       <c r="AW36" s="7" t="s">
         <v>211</v>
       </c>
       <c r="AX36" s="43" t="s">
-        <v>635</v>
+        <v>617</v>
       </c>
     </row>
     <row r="37" spans="1:50" x14ac:dyDescent="0.35">
@@ -9576,10 +9532,10 @@
         <v>218</v>
       </c>
       <c r="Y37" s="7" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="Z37" s="7" t="s">
-        <v>607</v>
+        <v>591</v>
       </c>
       <c r="AA37" s="7">
         <v>2</v>
@@ -9591,7 +9547,7 @@
         <v>3</v>
       </c>
       <c r="AD37" s="7" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="AF37" s="7" t="s">
         <v>259</v>
@@ -9609,13 +9565,13 @@
         <v>143</v>
       </c>
       <c r="AL37" s="7" t="s">
-        <v>570</v>
+        <v>559</v>
       </c>
       <c r="AM37" s="7" t="s">
         <v>235</v>
       </c>
       <c r="AO37" s="7" t="s">
-        <v>637</v>
+        <v>621</v>
       </c>
       <c r="AQ37" s="7" t="s">
         <v>166</v>
@@ -9624,471 +9580,455 @@
         <v>241</v>
       </c>
       <c r="AT37" s="7" t="s">
-        <v>569</v>
+        <v>558</v>
       </c>
       <c r="AU37" s="7" t="s">
-        <v>632</v>
+        <v>614</v>
       </c>
       <c r="AV37" s="7" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="AW37" s="7" t="s">
         <v>211</v>
       </c>
       <c r="AX37" s="43" t="s">
-        <v>636</v>
+        <v>618</v>
       </c>
     </row>
     <row r="38" spans="1:50" x14ac:dyDescent="0.35">
-      <c r="A38" s="33" t="s">
-        <v>418</v>
-      </c>
-      <c r="B38" s="33" t="s">
+      <c r="A38" t="s">
+        <v>409</v>
+      </c>
+      <c r="B38" t="s">
         <v>245</v>
       </c>
-      <c r="C38" s="33" t="s">
-        <v>419</v>
-      </c>
-      <c r="D38" s="33" t="s">
-        <v>420</v>
-      </c>
-      <c r="E38" s="34">
+      <c r="C38" t="s">
+        <v>410</v>
+      </c>
+      <c r="D38" t="s">
+        <v>411</v>
+      </c>
+      <c r="E38" s="10">
         <v>2000</v>
       </c>
-      <c r="F38" s="35" t="s">
+      <c r="F38" s="7" t="s">
         <v>412</v>
       </c>
-      <c r="G38" s="35" t="s">
+      <c r="G38" s="7" t="s">
         <v>413</v>
       </c>
-      <c r="H38" s="33" t="s">
+      <c r="H38" t="s">
         <v>371</v>
       </c>
-      <c r="I38" s="35" t="s">
-        <v>421</v>
-      </c>
-      <c r="J38" s="35" t="s">
-        <v>422</v>
-      </c>
-      <c r="K38" s="33" t="s">
-        <v>423</v>
-      </c>
-      <c r="L38" s="33" t="s">
+      <c r="I38" s="7" t="s">
+        <v>414</v>
+      </c>
+      <c r="J38" s="7" t="s">
+        <v>415</v>
+      </c>
+      <c r="K38" t="s">
+        <v>416</v>
+      </c>
+      <c r="L38" t="s">
         <v>254</v>
       </c>
-      <c r="M38" s="35" t="s">
-        <v>424</v>
-      </c>
-      <c r="N38" s="35" t="s">
+      <c r="M38" s="7" t="s">
+        <v>417</v>
+      </c>
+      <c r="N38" s="7" t="s">
         <v>256</v>
       </c>
-      <c r="O38" s="35" t="s">
+      <c r="O38" s="7" t="s">
         <v>318</v>
       </c>
-      <c r="P38" s="35" t="s">
+      <c r="P38" s="7" t="s">
         <v>258</v>
       </c>
-      <c r="Q38" s="35" t="s">
+      <c r="Q38" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="R38" s="35" t="s">
-        <v>84</v>
-      </c>
-      <c r="S38" s="35"/>
-      <c r="T38" s="35"/>
-      <c r="U38" s="35"/>
-      <c r="V38" s="35"/>
-      <c r="W38" s="35"/>
-      <c r="X38" s="35"/>
-      <c r="Y38" s="35"/>
-      <c r="Z38" s="35"/>
-      <c r="AA38" s="35"/>
-      <c r="AB38" s="35"/>
-      <c r="AC38" s="35"/>
-      <c r="AD38" s="35"/>
-      <c r="AE38" s="35"/>
-      <c r="AF38" s="35" t="s">
-        <v>290</v>
-      </c>
-      <c r="AG38" s="35"/>
-      <c r="AH38" s="35"/>
-      <c r="AI38" s="35"/>
-      <c r="AJ38" s="35"/>
-      <c r="AK38" s="35"/>
-      <c r="AL38" s="35"/>
-      <c r="AM38" s="35"/>
-      <c r="AN38" s="35"/>
-      <c r="AO38" s="35"/>
-      <c r="AP38" s="35"/>
-      <c r="AQ38" s="35"/>
-      <c r="AR38" s="35"/>
-      <c r="AS38" s="35"/>
-      <c r="AT38" s="35"/>
-      <c r="AU38" s="35"/>
-      <c r="AV38" s="35"/>
-      <c r="AW38" s="35"/>
-      <c r="AX38" s="35"/>
+      <c r="S38" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="T38" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="U38" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="V38" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="W38" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="X38" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="Y38" s="7" t="s">
+        <v>504</v>
+      </c>
+      <c r="Z38" s="7" t="s">
+        <v>591</v>
+      </c>
+      <c r="AA38" s="7">
+        <v>2</v>
+      </c>
+      <c r="AB38" s="7">
+        <v>2</v>
+      </c>
+      <c r="AC38" s="7">
+        <v>3</v>
+      </c>
+      <c r="AD38" s="7" t="s">
+        <v>502</v>
+      </c>
+      <c r="AF38" s="7" t="s">
+        <v>259</v>
+      </c>
+      <c r="AG38" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="AH38" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="AI38" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="AK38" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="AL38" s="7" t="s">
+        <v>559</v>
+      </c>
+      <c r="AM38" s="7" t="s">
+        <v>235</v>
+      </c>
+      <c r="AO38" s="7" t="s">
+        <v>621</v>
+      </c>
+      <c r="AQ38" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="AR38" s="7" t="s">
+        <v>241</v>
+      </c>
+      <c r="AT38" s="7" t="s">
+        <v>558</v>
+      </c>
+      <c r="AU38" s="7" t="s">
+        <v>615</v>
+      </c>
+      <c r="AV38" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="AW38" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="AX38" s="43" t="s">
+        <v>619</v>
+      </c>
     </row>
     <row r="39" spans="1:50" x14ac:dyDescent="0.35">
-      <c r="A39" s="41" t="s">
-        <v>425</v>
-      </c>
-      <c r="B39" s="41" t="s">
+      <c r="A39" t="s">
+        <v>409</v>
+      </c>
+      <c r="B39" t="s">
         <v>245</v>
       </c>
-      <c r="C39" s="41" t="s">
-        <v>426</v>
-      </c>
-      <c r="D39" s="41" t="s">
-        <v>427</v>
-      </c>
-      <c r="E39" s="42">
-        <v>1999</v>
-      </c>
-      <c r="F39" s="43" t="s">
-        <v>342</v>
-      </c>
-      <c r="G39" s="43" t="s">
-        <v>249</v>
-      </c>
-      <c r="H39" s="41" t="s">
-        <v>388</v>
-      </c>
-      <c r="I39" s="43" t="s">
-        <v>428</v>
-      </c>
-      <c r="J39" s="43" t="s">
-        <v>429</v>
-      </c>
-      <c r="K39" s="41" t="s">
-        <v>430</v>
-      </c>
-      <c r="L39" s="41" t="s">
+      <c r="C39" t="s">
+        <v>410</v>
+      </c>
+      <c r="D39" t="s">
+        <v>411</v>
+      </c>
+      <c r="E39" s="10">
+        <v>2000</v>
+      </c>
+      <c r="F39" s="7" t="s">
+        <v>412</v>
+      </c>
+      <c r="G39" s="7" t="s">
+        <v>413</v>
+      </c>
+      <c r="H39" t="s">
+        <v>371</v>
+      </c>
+      <c r="I39" s="7" t="s">
+        <v>414</v>
+      </c>
+      <c r="J39" s="7" t="s">
+        <v>415</v>
+      </c>
+      <c r="K39" t="s">
+        <v>416</v>
+      </c>
+      <c r="L39" t="s">
         <v>254</v>
       </c>
-      <c r="M39" s="43" t="s">
-        <v>431</v>
-      </c>
-      <c r="N39" s="43" t="s">
+      <c r="M39" s="7" t="s">
+        <v>417</v>
+      </c>
+      <c r="N39" s="7" t="s">
         <v>256</v>
       </c>
-      <c r="O39" s="43" t="s">
+      <c r="O39" s="7" t="s">
         <v>318</v>
       </c>
-      <c r="P39" s="43" t="s">
-        <v>350</v>
-      </c>
-      <c r="Q39" s="43" t="s">
+      <c r="P39" s="7" t="s">
+        <v>258</v>
+      </c>
+      <c r="Q39" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="R39" s="43"/>
-      <c r="S39" s="43" t="s">
-        <v>31</v>
-      </c>
-      <c r="T39" s="43" t="s">
-        <v>44</v>
-      </c>
-      <c r="U39" s="43" t="s">
-        <v>56</v>
-      </c>
-      <c r="V39" s="43" t="s">
-        <v>40</v>
-      </c>
-      <c r="W39" s="43" t="s">
-        <v>50</v>
-      </c>
-      <c r="X39" s="43" t="s">
+      <c r="S39" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="T39" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="U39" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="V39" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="W39" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="X39" s="7" t="s">
         <v>218</v>
       </c>
-      <c r="Y39" s="43" t="s">
-        <v>507</v>
-      </c>
-      <c r="Z39" s="43" t="s">
-        <v>608</v>
-      </c>
-      <c r="AA39" s="43">
+      <c r="Y39" s="7" t="s">
+        <v>504</v>
+      </c>
+      <c r="Z39" s="7" t="s">
+        <v>591</v>
+      </c>
+      <c r="AA39" s="7">
         <v>2</v>
       </c>
-      <c r="AB39" s="43">
+      <c r="AB39" s="7">
         <v>2</v>
       </c>
-      <c r="AC39" s="43">
+      <c r="AC39" s="7">
         <v>3</v>
       </c>
-      <c r="AD39" s="43" t="s">
-        <v>506</v>
-      </c>
-      <c r="AE39" s="43"/>
-      <c r="AF39" s="43" t="s">
-        <v>290</v>
-      </c>
-      <c r="AG39" s="43" t="s">
+      <c r="AD39" s="7" t="s">
+        <v>502</v>
+      </c>
+      <c r="AF39" s="7" t="s">
+        <v>259</v>
+      </c>
+      <c r="AG39" s="7" t="s">
         <v>109</v>
       </c>
-      <c r="AH39" s="43" t="s">
-        <v>119</v>
-      </c>
-      <c r="AI39" s="43" t="s">
-        <v>149</v>
-      </c>
-      <c r="AJ39" s="43"/>
-      <c r="AK39" s="43"/>
-      <c r="AL39" s="43" t="s">
-        <v>574</v>
-      </c>
-      <c r="AM39" s="43" t="s">
-        <v>234</v>
-      </c>
-      <c r="AN39" s="43" t="s">
-        <v>162</v>
-      </c>
-      <c r="AO39" s="43" t="s">
-        <v>573</v>
-      </c>
-      <c r="AP39" s="43" t="s">
-        <v>571</v>
-      </c>
-      <c r="AQ39" s="43" t="s">
+      <c r="AH39" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="AI39" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="AK39" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="AL39" s="7" t="s">
+        <v>559</v>
+      </c>
+      <c r="AM39" s="7" t="s">
+        <v>235</v>
+      </c>
+      <c r="AO39" s="7" t="s">
+        <v>621</v>
+      </c>
+      <c r="AQ39" s="7" t="s">
         <v>166</v>
       </c>
-      <c r="AR39" s="43" t="s">
-        <v>171</v>
-      </c>
-      <c r="AS39" s="43" t="s">
-        <v>183</v>
-      </c>
-      <c r="AT39" s="43" t="s">
-        <v>572</v>
-      </c>
-      <c r="AU39" s="43" t="s">
-        <v>508</v>
-      </c>
-      <c r="AV39" s="43" t="s">
-        <v>208</v>
-      </c>
-      <c r="AW39" s="43" t="s">
-        <v>209</v>
+      <c r="AR39" s="7" t="s">
+        <v>241</v>
+      </c>
+      <c r="AT39" s="7" t="s">
+        <v>558</v>
+      </c>
+      <c r="AU39" s="7" t="s">
+        <v>616</v>
+      </c>
+      <c r="AV39" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="AW39" s="7" t="s">
+        <v>211</v>
       </c>
       <c r="AX39" s="43" t="s">
-        <v>509</v>
+        <v>620</v>
       </c>
     </row>
     <row r="40" spans="1:50" x14ac:dyDescent="0.35">
-      <c r="A40" t="s">
+      <c r="A40" s="33" t="s">
+        <v>418</v>
+      </c>
+      <c r="B40" s="33" t="s">
+        <v>245</v>
+      </c>
+      <c r="C40" s="33" t="s">
+        <v>419</v>
+      </c>
+      <c r="D40" s="33" t="s">
+        <v>420</v>
+      </c>
+      <c r="E40" s="34">
+        <v>2000</v>
+      </c>
+      <c r="F40" s="35" t="s">
+        <v>412</v>
+      </c>
+      <c r="G40" s="35" t="s">
+        <v>413</v>
+      </c>
+      <c r="H40" s="33" t="s">
+        <v>371</v>
+      </c>
+      <c r="I40" s="35" t="s">
+        <v>421</v>
+      </c>
+      <c r="J40" s="35" t="s">
+        <v>422</v>
+      </c>
+      <c r="K40" s="33" t="s">
+        <v>423</v>
+      </c>
+      <c r="L40" s="33" t="s">
+        <v>254</v>
+      </c>
+      <c r="M40" s="35" t="s">
+        <v>424</v>
+      </c>
+      <c r="N40" s="35" t="s">
+        <v>256</v>
+      </c>
+      <c r="O40" s="35" t="s">
+        <v>318</v>
+      </c>
+      <c r="P40" s="35" t="s">
+        <v>258</v>
+      </c>
+      <c r="Q40" s="35" t="s">
+        <v>21</v>
+      </c>
+      <c r="R40" s="35" t="s">
+        <v>84</v>
+      </c>
+      <c r="S40" s="35"/>
+      <c r="T40" s="35"/>
+      <c r="U40" s="35"/>
+      <c r="V40" s="35"/>
+      <c r="W40" s="35"/>
+      <c r="X40" s="35"/>
+      <c r="Y40" s="35"/>
+      <c r="Z40" s="35"/>
+      <c r="AA40" s="35"/>
+      <c r="AB40" s="35"/>
+      <c r="AC40" s="35"/>
+      <c r="AD40" s="35"/>
+      <c r="AE40" s="35"/>
+      <c r="AF40" s="35" t="s">
+        <v>290</v>
+      </c>
+      <c r="AG40" s="35"/>
+      <c r="AH40" s="35"/>
+      <c r="AI40" s="35"/>
+      <c r="AJ40" s="35"/>
+      <c r="AK40" s="35"/>
+      <c r="AL40" s="35"/>
+      <c r="AM40" s="35"/>
+      <c r="AN40" s="35"/>
+      <c r="AO40" s="35"/>
+      <c r="AP40" s="35"/>
+      <c r="AQ40" s="35"/>
+      <c r="AR40" s="35"/>
+      <c r="AS40" s="35"/>
+      <c r="AT40" s="35"/>
+      <c r="AU40" s="35"/>
+      <c r="AV40" s="35"/>
+      <c r="AW40" s="35"/>
+      <c r="AX40" s="35"/>
+    </row>
+    <row r="41" spans="1:50" x14ac:dyDescent="0.35">
+      <c r="A41" s="41" t="s">
         <v>425</v>
-      </c>
-      <c r="B40" t="s">
-        <v>245</v>
-      </c>
-      <c r="C40" t="s">
-        <v>426</v>
-      </c>
-      <c r="D40" t="s">
-        <v>427</v>
-      </c>
-      <c r="E40" s="10">
-        <v>1999</v>
-      </c>
-      <c r="F40" s="7" t="s">
-        <v>342</v>
-      </c>
-      <c r="G40" s="7" t="s">
-        <v>249</v>
-      </c>
-      <c r="H40" t="s">
-        <v>388</v>
-      </c>
-      <c r="I40" s="7" t="s">
-        <v>428</v>
-      </c>
-      <c r="J40" s="7" t="s">
-        <v>429</v>
-      </c>
-      <c r="K40" t="s">
-        <v>430</v>
-      </c>
-      <c r="L40" t="s">
-        <v>254</v>
-      </c>
-      <c r="M40" s="7" t="s">
-        <v>431</v>
-      </c>
-      <c r="N40" s="7" t="s">
-        <v>256</v>
-      </c>
-      <c r="O40" s="7" t="s">
-        <v>318</v>
-      </c>
-      <c r="P40" s="7" t="s">
-        <v>350</v>
-      </c>
-      <c r="Q40" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="S40" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="T40" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="U40" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="V40" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="W40" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="X40" s="7" t="s">
-        <v>218</v>
-      </c>
-      <c r="Y40" s="7" t="s">
-        <v>507</v>
-      </c>
-      <c r="Z40" s="7" t="s">
-        <v>608</v>
-      </c>
-      <c r="AA40" s="7">
-        <v>2</v>
-      </c>
-      <c r="AB40" s="7">
-        <v>2</v>
-      </c>
-      <c r="AC40" s="7">
-        <v>3</v>
-      </c>
-      <c r="AD40" s="7" t="s">
-        <v>506</v>
-      </c>
-      <c r="AF40" s="7" t="s">
-        <v>290</v>
-      </c>
-      <c r="AG40" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="AH40" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="AI40" s="7" t="s">
-        <v>149</v>
-      </c>
-      <c r="AL40" s="7" t="s">
-        <v>574</v>
-      </c>
-      <c r="AM40" s="7" t="s">
-        <v>234</v>
-      </c>
-      <c r="AN40" s="7" t="s">
-        <v>162</v>
-      </c>
-      <c r="AO40" s="7" t="s">
-        <v>573</v>
-      </c>
-      <c r="AP40" s="7" t="s">
-        <v>571</v>
-      </c>
-      <c r="AQ40" s="7" t="s">
-        <v>166</v>
-      </c>
-      <c r="AR40" s="7" t="s">
-        <v>171</v>
-      </c>
-      <c r="AS40" s="7" t="s">
-        <v>183</v>
-      </c>
-      <c r="AT40" s="7" t="s">
-        <v>572</v>
-      </c>
-      <c r="AU40" s="7" t="s">
-        <v>534</v>
-      </c>
-      <c r="AV40" s="7" t="s">
-        <v>201</v>
-      </c>
-      <c r="AW40" s="7" t="s">
-        <v>209</v>
-      </c>
-      <c r="AX40" s="7" t="s">
-        <v>509</v>
-      </c>
-    </row>
-    <row r="41" spans="1:50" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A41" s="41" t="s">
-        <v>432</v>
       </c>
       <c r="B41" s="41" t="s">
         <v>245</v>
       </c>
       <c r="C41" s="41" t="s">
-        <v>433</v>
+        <v>426</v>
       </c>
       <c r="D41" s="41" t="s">
-        <v>434</v>
+        <v>427</v>
       </c>
       <c r="E41" s="42">
         <v>1999</v>
       </c>
       <c r="F41" s="43" t="s">
-        <v>412</v>
+        <v>342</v>
       </c>
       <c r="G41" s="43" t="s">
-        <v>435</v>
+        <v>249</v>
       </c>
       <c r="H41" s="41" t="s">
-        <v>275</v>
+        <v>388</v>
       </c>
       <c r="I41" s="43" t="s">
-        <v>436</v>
+        <v>428</v>
       </c>
       <c r="J41" s="43" t="s">
-        <v>437</v>
+        <v>429</v>
       </c>
       <c r="K41" s="41" t="s">
-        <v>438</v>
+        <v>430</v>
       </c>
       <c r="L41" s="41" t="s">
         <v>254</v>
       </c>
       <c r="M41" s="43" t="s">
-        <v>439</v>
+        <v>431</v>
       </c>
       <c r="N41" s="43" t="s">
         <v>256</v>
       </c>
       <c r="O41" s="43" t="s">
-        <v>257</v>
+        <v>318</v>
       </c>
       <c r="P41" s="43" t="s">
-        <v>258</v>
+        <v>350</v>
       </c>
       <c r="Q41" s="43" t="s">
         <v>21</v>
       </c>
       <c r="R41" s="43"/>
       <c r="S41" s="43" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="T41" s="43" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="U41" s="43" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="V41" s="43" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="W41" s="43" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="X41" s="43" t="s">
         <v>218</v>
       </c>
       <c r="Y41" s="43" t="s">
-        <v>511</v>
+        <v>506</v>
       </c>
       <c r="Z41" s="43" t="s">
-        <v>510</v>
+        <v>592</v>
       </c>
       <c r="AA41" s="43">
         <v>2</v>
@@ -10099,25 +10039,27 @@
       <c r="AC41" s="43">
         <v>3</v>
       </c>
-      <c r="AD41" s="44" t="s">
-        <v>512</v>
+      <c r="AD41" s="43" t="s">
+        <v>505</v>
       </c>
       <c r="AE41" s="43"/>
       <c r="AF41" s="43" t="s">
-        <v>319</v>
+        <v>290</v>
       </c>
       <c r="AG41" s="43" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="AH41" s="43" t="s">
         <v>119</v>
       </c>
       <c r="AI41" s="43" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="AJ41" s="43"/>
       <c r="AK41" s="43"/>
-      <c r="AL41" s="43"/>
+      <c r="AL41" s="43" t="s">
+        <v>563</v>
+      </c>
       <c r="AM41" s="43" t="s">
         <v>234</v>
       </c>
@@ -10125,109 +10067,111 @@
         <v>162</v>
       </c>
       <c r="AO41" s="43" t="s">
-        <v>575</v>
-      </c>
-      <c r="AP41" s="43"/>
+        <v>562</v>
+      </c>
+      <c r="AP41" s="43" t="s">
+        <v>560</v>
+      </c>
       <c r="AQ41" s="43" t="s">
         <v>166</v>
       </c>
       <c r="AR41" s="43" t="s">
-        <v>241</v>
+        <v>171</v>
       </c>
       <c r="AS41" s="43" t="s">
-        <v>178</v>
+        <v>183</v>
       </c>
       <c r="AT41" s="43" t="s">
-        <v>577</v>
+        <v>561</v>
       </c>
       <c r="AU41" s="43" t="s">
-        <v>576</v>
+        <v>507</v>
       </c>
       <c r="AV41" s="43" t="s">
-        <v>201</v>
+        <v>208</v>
       </c>
       <c r="AW41" s="43" t="s">
-        <v>211</v>
-      </c>
-      <c r="AX41" s="44" t="s">
-        <v>578</v>
+        <v>209</v>
+      </c>
+      <c r="AX41" s="43" t="s">
+        <v>508</v>
       </c>
     </row>
-    <row r="42" spans="1:50" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
-        <v>432</v>
+        <v>425</v>
       </c>
       <c r="B42" t="s">
         <v>245</v>
       </c>
       <c r="C42" t="s">
-        <v>433</v>
+        <v>426</v>
       </c>
       <c r="D42" t="s">
-        <v>434</v>
+        <v>427</v>
       </c>
       <c r="E42" s="10">
         <v>1999</v>
       </c>
       <c r="F42" s="7" t="s">
-        <v>412</v>
+        <v>342</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>435</v>
+        <v>249</v>
       </c>
       <c r="H42" t="s">
-        <v>275</v>
+        <v>388</v>
       </c>
       <c r="I42" s="7" t="s">
-        <v>436</v>
+        <v>428</v>
       </c>
       <c r="J42" s="7" t="s">
-        <v>437</v>
+        <v>429</v>
       </c>
       <c r="K42" t="s">
-        <v>438</v>
+        <v>430</v>
       </c>
       <c r="L42" t="s">
         <v>254</v>
       </c>
       <c r="M42" s="7" t="s">
-        <v>439</v>
+        <v>431</v>
       </c>
       <c r="N42" s="7" t="s">
         <v>256</v>
       </c>
       <c r="O42" s="7" t="s">
-        <v>257</v>
+        <v>318</v>
       </c>
       <c r="P42" s="7" t="s">
-        <v>258</v>
+        <v>350</v>
       </c>
       <c r="Q42" s="7" t="s">
         <v>21</v>
       </c>
       <c r="S42" s="7" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="T42" s="7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="U42" s="7" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="V42" s="7" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="W42" s="7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="X42" s="7" t="s">
         <v>218</v>
       </c>
       <c r="Y42" s="7" t="s">
-        <v>511</v>
+        <v>506</v>
       </c>
       <c r="Z42" s="7" t="s">
-        <v>510</v>
+        <v>592</v>
       </c>
       <c r="AA42" s="7">
         <v>2</v>
@@ -10238,20 +10182,23 @@
       <c r="AC42" s="7">
         <v>3</v>
       </c>
-      <c r="AD42" s="23" t="s">
-        <v>512</v>
+      <c r="AD42" s="7" t="s">
+        <v>505</v>
       </c>
       <c r="AF42" s="7" t="s">
-        <v>319</v>
+        <v>290</v>
       </c>
       <c r="AG42" s="7" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="AH42" s="7" t="s">
         <v>119</v>
       </c>
       <c r="AI42" s="7" t="s">
-        <v>146</v>
+        <v>149</v>
+      </c>
+      <c r="AL42" s="7" t="s">
+        <v>563</v>
       </c>
       <c r="AM42" s="7" t="s">
         <v>234</v>
@@ -10260,165 +10207,173 @@
         <v>162</v>
       </c>
       <c r="AO42" s="7" t="s">
-        <v>575</v>
+        <v>562</v>
+      </c>
+      <c r="AP42" s="7" t="s">
+        <v>560</v>
       </c>
       <c r="AQ42" s="7" t="s">
         <v>166</v>
       </c>
       <c r="AR42" s="7" t="s">
-        <v>241</v>
+        <v>171</v>
       </c>
       <c r="AS42" s="7" t="s">
-        <v>178</v>
+        <v>183</v>
       </c>
       <c r="AT42" s="7" t="s">
-        <v>577</v>
+        <v>561</v>
       </c>
       <c r="AU42" s="7" t="s">
-        <v>581</v>
+        <v>528</v>
       </c>
       <c r="AV42" s="7" t="s">
         <v>201</v>
       </c>
       <c r="AW42" s="7" t="s">
-        <v>210</v>
-      </c>
-      <c r="AX42" s="23" t="s">
-        <v>579</v>
+        <v>209</v>
+      </c>
+      <c r="AX42" s="7" t="s">
+        <v>508</v>
       </c>
     </row>
     <row r="43" spans="1:50" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A43" t="s">
+      <c r="A43" s="41" t="s">
         <v>432</v>
       </c>
-      <c r="B43" t="s">
+      <c r="B43" s="41" t="s">
         <v>245</v>
       </c>
-      <c r="C43" t="s">
+      <c r="C43" s="41" t="s">
         <v>433</v>
       </c>
-      <c r="D43" t="s">
+      <c r="D43" s="41" t="s">
         <v>434</v>
       </c>
-      <c r="E43" s="10">
+      <c r="E43" s="42">
         <v>1999</v>
       </c>
-      <c r="F43" s="7" t="s">
+      <c r="F43" s="43" t="s">
         <v>412</v>
       </c>
-      <c r="G43" s="7" t="s">
+      <c r="G43" s="43" t="s">
         <v>435</v>
       </c>
-      <c r="H43" t="s">
+      <c r="H43" s="41" t="s">
         <v>275</v>
       </c>
-      <c r="I43" s="7" t="s">
+      <c r="I43" s="43" t="s">
         <v>436</v>
       </c>
-      <c r="J43" s="7" t="s">
+      <c r="J43" s="43" t="s">
         <v>437</v>
       </c>
-      <c r="K43" t="s">
+      <c r="K43" s="41" t="s">
         <v>438</v>
       </c>
-      <c r="L43" t="s">
+      <c r="L43" s="41" t="s">
         <v>254</v>
       </c>
-      <c r="M43" s="7" t="s">
+      <c r="M43" s="43" t="s">
         <v>439</v>
       </c>
-      <c r="N43" s="7" t="s">
+      <c r="N43" s="43" t="s">
         <v>256</v>
       </c>
-      <c r="O43" s="7" t="s">
+      <c r="O43" s="43" t="s">
         <v>257</v>
       </c>
-      <c r="P43" s="7" t="s">
+      <c r="P43" s="43" t="s">
         <v>258</v>
       </c>
-      <c r="Q43" s="7" t="s">
+      <c r="Q43" s="43" t="s">
         <v>21</v>
       </c>
-      <c r="S43" s="7" t="s">
+      <c r="R43" s="43"/>
+      <c r="S43" s="43" t="s">
         <v>26</v>
       </c>
-      <c r="T43" s="7" t="s">
+      <c r="T43" s="43" t="s">
         <v>45</v>
       </c>
-      <c r="U43" s="7" t="s">
+      <c r="U43" s="43" t="s">
         <v>53</v>
       </c>
-      <c r="V43" s="7" t="s">
+      <c r="V43" s="43" t="s">
         <v>44</v>
       </c>
-      <c r="W43" s="7" t="s">
+      <c r="W43" s="43" t="s">
         <v>48</v>
       </c>
-      <c r="X43" s="7" t="s">
+      <c r="X43" s="43" t="s">
         <v>218</v>
       </c>
-      <c r="Y43" s="7" t="s">
+      <c r="Y43" s="43" t="s">
+        <v>510</v>
+      </c>
+      <c r="Z43" s="43" t="s">
+        <v>509</v>
+      </c>
+      <c r="AA43" s="43">
+        <v>2</v>
+      </c>
+      <c r="AB43" s="43">
+        <v>2</v>
+      </c>
+      <c r="AC43" s="43">
+        <v>3</v>
+      </c>
+      <c r="AD43" s="44" t="s">
         <v>511</v>
       </c>
-      <c r="Z43" s="7" t="s">
-        <v>510</v>
-      </c>
-      <c r="AA43" s="7">
-        <v>2</v>
-      </c>
-      <c r="AB43" s="7">
-        <v>2</v>
-      </c>
-      <c r="AC43" s="7">
-        <v>3</v>
-      </c>
-      <c r="AD43" s="23" t="s">
-        <v>512</v>
-      </c>
-      <c r="AF43" s="7" t="s">
+      <c r="AE43" s="43"/>
+      <c r="AF43" s="43" t="s">
         <v>319</v>
       </c>
-      <c r="AG43" s="7" t="s">
+      <c r="AG43" s="43" t="s">
         <v>112</v>
       </c>
-      <c r="AH43" s="7" t="s">
+      <c r="AH43" s="43" t="s">
         <v>119</v>
       </c>
-      <c r="AI43" s="7" t="s">
+      <c r="AI43" s="43" t="s">
         <v>146</v>
       </c>
-      <c r="AM43" s="7" t="s">
+      <c r="AJ43" s="43"/>
+      <c r="AK43" s="43"/>
+      <c r="AL43" s="43" t="s">
+        <v>566</v>
+      </c>
+      <c r="AM43" s="43" t="s">
         <v>234</v>
       </c>
-      <c r="AN43" s="7" t="s">
+      <c r="AN43" s="43" t="s">
         <v>162</v>
       </c>
-      <c r="AO43" s="7" t="s">
-        <v>575</v>
-      </c>
-      <c r="AQ43" s="7" t="s">
+      <c r="AO43" s="43" t="s">
+        <v>564</v>
+      </c>
+      <c r="AP43" s="43"/>
+      <c r="AQ43" s="43" t="s">
         <v>166</v>
       </c>
-      <c r="AR43" s="7" t="s">
+      <c r="AR43" s="43" t="s">
         <v>241</v>
       </c>
-      <c r="AS43" s="7" t="s">
+      <c r="AS43" s="43" t="s">
         <v>178</v>
       </c>
-      <c r="AT43" s="7" t="s">
-        <v>577</v>
-      </c>
-      <c r="AU43" s="7" t="s">
-        <v>580</v>
-      </c>
-      <c r="AV43" s="7" t="s">
+      <c r="AU43" s="43" t="s">
+        <v>565</v>
+      </c>
+      <c r="AV43" s="43" t="s">
         <v>201</v>
       </c>
-      <c r="AW43" s="7" t="s">
-        <v>210</v>
-      </c>
-      <c r="AX43" s="23" t="s">
-        <v>584</v>
+      <c r="AW43" s="43" t="s">
+        <v>211</v>
+      </c>
+      <c r="AX43" s="44" t="s">
+        <v>567</v>
       </c>
     </row>
     <row r="44" spans="1:50" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -10492,10 +10447,10 @@
         <v>218</v>
       </c>
       <c r="Y44" s="7" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="Z44" s="7" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="AA44" s="7">
         <v>2</v>
@@ -10507,7 +10462,7 @@
         <v>3</v>
       </c>
       <c r="AD44" s="23" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="AF44" s="7" t="s">
         <v>319</v>
@@ -10521,6 +10476,9 @@
       <c r="AI44" s="7" t="s">
         <v>146</v>
       </c>
+      <c r="AL44" s="7" t="s">
+        <v>566</v>
+      </c>
       <c r="AM44" s="7" t="s">
         <v>234</v>
       </c>
@@ -10528,7 +10486,7 @@
         <v>162</v>
       </c>
       <c r="AO44" s="7" t="s">
-        <v>575</v>
+        <v>564</v>
       </c>
       <c r="AQ44" s="7" t="s">
         <v>166</v>
@@ -10539,20 +10497,17 @@
       <c r="AS44" s="7" t="s">
         <v>178</v>
       </c>
-      <c r="AT44" s="7" t="s">
-        <v>577</v>
-      </c>
       <c r="AU44" s="7" t="s">
-        <v>582</v>
+        <v>570</v>
       </c>
       <c r="AV44" s="7" t="s">
         <v>201</v>
       </c>
       <c r="AW44" s="7" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="AX44" s="23" t="s">
-        <v>583</v>
+        <v>568</v>
       </c>
     </row>
     <row r="45" spans="1:50" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -10626,10 +10581,10 @@
         <v>218</v>
       </c>
       <c r="Y45" s="7" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="Z45" s="7" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="AA45" s="7">
         <v>2</v>
@@ -10641,7 +10596,7 @@
         <v>3</v>
       </c>
       <c r="AD45" s="23" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="AF45" s="7" t="s">
         <v>319</v>
@@ -10655,6 +10610,9 @@
       <c r="AI45" s="7" t="s">
         <v>146</v>
       </c>
+      <c r="AL45" s="7" t="s">
+        <v>566</v>
+      </c>
       <c r="AM45" s="7" t="s">
         <v>234</v>
       </c>
@@ -10662,7 +10620,7 @@
         <v>162</v>
       </c>
       <c r="AO45" s="7" t="s">
-        <v>575</v>
+        <v>564</v>
       </c>
       <c r="AQ45" s="7" t="s">
         <v>166</v>
@@ -10673,172 +10631,165 @@
       <c r="AS45" s="7" t="s">
         <v>178</v>
       </c>
-      <c r="AT45" s="7" t="s">
-        <v>577</v>
-      </c>
       <c r="AU45" s="7" t="s">
-        <v>586</v>
+        <v>569</v>
       </c>
       <c r="AV45" s="7" t="s">
         <v>201</v>
       </c>
       <c r="AW45" s="7" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="AX45" s="23" t="s">
-        <v>585</v>
+        <v>573</v>
       </c>
     </row>
-    <row r="46" spans="1:50" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A46" s="41" t="s">
-        <v>440</v>
-      </c>
-      <c r="B46" s="41" t="s">
+    <row r="46" spans="1:50" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A46" t="s">
+        <v>432</v>
+      </c>
+      <c r="B46" t="s">
         <v>245</v>
       </c>
-      <c r="C46" s="41" t="s">
-        <v>441</v>
-      </c>
-      <c r="D46" s="41" t="s">
-        <v>442</v>
-      </c>
-      <c r="E46" s="42">
+      <c r="C46" t="s">
+        <v>433</v>
+      </c>
+      <c r="D46" t="s">
+        <v>434</v>
+      </c>
+      <c r="E46" s="10">
         <v>1999</v>
       </c>
-      <c r="F46" s="43" t="s">
+      <c r="F46" s="7" t="s">
         <v>412</v>
       </c>
-      <c r="G46" s="43" t="s">
+      <c r="G46" s="7" t="s">
         <v>435</v>
       </c>
-      <c r="H46" s="41" t="s">
+      <c r="H46" t="s">
         <v>275</v>
       </c>
-      <c r="I46" s="43" t="s">
-        <v>443</v>
-      </c>
-      <c r="J46" s="43" t="s">
-        <v>444</v>
-      </c>
-      <c r="K46" s="41" t="s">
-        <v>445</v>
-      </c>
-      <c r="L46" s="41" t="s">
+      <c r="I46" s="7" t="s">
+        <v>436</v>
+      </c>
+      <c r="J46" s="7" t="s">
+        <v>437</v>
+      </c>
+      <c r="K46" t="s">
+        <v>438</v>
+      </c>
+      <c r="L46" t="s">
         <v>254</v>
       </c>
-      <c r="M46" s="43" t="s">
-        <v>446</v>
-      </c>
-      <c r="N46" s="43" t="s">
+      <c r="M46" s="7" t="s">
+        <v>439</v>
+      </c>
+      <c r="N46" s="7" t="s">
         <v>256</v>
       </c>
-      <c r="O46" s="43" t="s">
+      <c r="O46" s="7" t="s">
         <v>257</v>
       </c>
-      <c r="P46" s="43" t="s">
-        <v>308</v>
-      </c>
-      <c r="Q46" s="43" t="s">
+      <c r="P46" s="7" t="s">
+        <v>258</v>
+      </c>
+      <c r="Q46" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="R46" s="43"/>
-      <c r="S46" s="43" t="s">
+      <c r="S46" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="T46" s="43" t="s">
-        <v>41</v>
-      </c>
-      <c r="U46" s="43" t="s">
+      <c r="T46" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="U46" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="V46" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="W46" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="V46" s="43" t="s">
-        <v>42</v>
-      </c>
-      <c r="W46" s="43" t="s">
-        <v>47</v>
-      </c>
-      <c r="X46" s="43" t="s">
+      <c r="X46" s="7" t="s">
         <v>218</v>
       </c>
-      <c r="Y46" s="43" t="s">
-        <v>515</v>
-      </c>
-      <c r="Z46" s="43" t="s">
-        <v>609</v>
-      </c>
-      <c r="AA46" s="43">
+      <c r="Y46" s="7" t="s">
+        <v>510</v>
+      </c>
+      <c r="Z46" s="7" t="s">
+        <v>509</v>
+      </c>
+      <c r="AA46" s="7">
         <v>2</v>
       </c>
-      <c r="AB46" s="43">
+      <c r="AB46" s="7">
         <v>2</v>
       </c>
-      <c r="AC46" s="43">
+      <c r="AC46" s="7">
         <v>3</v>
       </c>
-      <c r="AD46" s="43" t="s">
-        <v>514</v>
-      </c>
-      <c r="AE46" s="43"/>
-      <c r="AF46" s="43" t="s">
-        <v>259</v>
-      </c>
-      <c r="AG46" s="43" t="s">
-        <v>109</v>
-      </c>
-      <c r="AH46" s="43" t="s">
-        <v>122</v>
-      </c>
-      <c r="AI46" s="43"/>
-      <c r="AJ46" s="43"/>
-      <c r="AK46" s="43" t="s">
-        <v>143</v>
-      </c>
-      <c r="AL46" s="43"/>
-      <c r="AM46" s="43" t="s">
-        <v>235</v>
-      </c>
-      <c r="AN46" s="43"/>
-      <c r="AO46" s="43" t="s">
-        <v>593</v>
-      </c>
-      <c r="AP46" s="43"/>
-      <c r="AQ46" s="43" t="s">
+      <c r="AD46" s="23" t="s">
+        <v>511</v>
+      </c>
+      <c r="AF46" s="7" t="s">
+        <v>319</v>
+      </c>
+      <c r="AG46" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="AH46" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="AI46" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="AL46" s="7" t="s">
+        <v>566</v>
+      </c>
+      <c r="AM46" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="AN46" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="AO46" s="7" t="s">
+        <v>564</v>
+      </c>
+      <c r="AQ46" s="7" t="s">
         <v>166</v>
       </c>
-      <c r="AR46" s="43" t="s">
+      <c r="AR46" s="7" t="s">
         <v>241</v>
       </c>
-      <c r="AS46" s="43" t="s">
+      <c r="AS46" s="7" t="s">
         <v>178</v>
       </c>
-      <c r="AT46" s="43" t="s">
-        <v>513</v>
-      </c>
-      <c r="AU46" s="43" t="s">
-        <v>591</v>
-      </c>
-      <c r="AV46" s="43" t="s">
+      <c r="AU46" s="7" t="s">
+        <v>571</v>
+      </c>
+      <c r="AV46" s="7" t="s">
         <v>201</v>
       </c>
-      <c r="AW46" s="43" t="s">
-        <v>210</v>
-      </c>
-      <c r="AX46" s="44" t="s">
-        <v>590</v>
+      <c r="AW46" s="7" t="s">
+        <v>209</v>
+      </c>
+      <c r="AX46" s="23" t="s">
+        <v>572</v>
       </c>
     </row>
-    <row r="47" spans="1:50" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:50" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
-        <v>440</v>
+        <v>432</v>
       </c>
       <c r="B47" t="s">
         <v>245</v>
       </c>
       <c r="C47" t="s">
-        <v>441</v>
+        <v>433</v>
       </c>
       <c r="D47" t="s">
-        <v>442</v>
+        <v>434</v>
       </c>
       <c r="E47" s="10">
         <v>1999</v>
@@ -10853,19 +10804,19 @@
         <v>275</v>
       </c>
       <c r="I47" s="7" t="s">
-        <v>443</v>
+        <v>436</v>
       </c>
       <c r="J47" s="7" t="s">
-        <v>444</v>
+        <v>437</v>
       </c>
       <c r="K47" t="s">
-        <v>445</v>
+        <v>438</v>
       </c>
       <c r="L47" t="s">
         <v>254</v>
       </c>
       <c r="M47" s="7" t="s">
-        <v>446</v>
+        <v>439</v>
       </c>
       <c r="N47" s="7" t="s">
         <v>256</v>
@@ -10874,7 +10825,7 @@
         <v>257</v>
       </c>
       <c r="P47" s="7" t="s">
-        <v>308</v>
+        <v>258</v>
       </c>
       <c r="Q47" s="7" t="s">
         <v>21</v>
@@ -10883,25 +10834,25 @@
         <v>26</v>
       </c>
       <c r="T47" s="7" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="U47" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="V47" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="W47" s="7" t="s">
         <v>48</v>
-      </c>
-      <c r="V47" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="W47" s="7" t="s">
-        <v>47</v>
       </c>
       <c r="X47" s="7" t="s">
         <v>218</v>
       </c>
       <c r="Y47" s="7" t="s">
-        <v>515</v>
+        <v>510</v>
       </c>
       <c r="Z47" s="7" t="s">
-        <v>609</v>
+        <v>509</v>
       </c>
       <c r="AA47" s="7">
         <v>2</v>
@@ -10912,26 +10863,32 @@
       <c r="AC47" s="7">
         <v>3</v>
       </c>
-      <c r="AD47" s="7" t="s">
-        <v>514</v>
+      <c r="AD47" s="23" t="s">
+        <v>511</v>
       </c>
       <c r="AF47" s="7" t="s">
-        <v>259</v>
+        <v>319</v>
       </c>
       <c r="AG47" s="7" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="AH47" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="AK47" s="7" t="s">
-        <v>143</v>
+        <v>119</v>
+      </c>
+      <c r="AI47" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="AL47" s="7" t="s">
+        <v>566</v>
       </c>
       <c r="AM47" s="7" t="s">
-        <v>235</v>
+        <v>234</v>
+      </c>
+      <c r="AN47" s="7" t="s">
+        <v>162</v>
       </c>
       <c r="AO47" s="7" t="s">
-        <v>593</v>
+        <v>564</v>
       </c>
       <c r="AQ47" s="7" t="s">
         <v>166</v>
@@ -10942,366 +10899,363 @@
       <c r="AS47" s="7" t="s">
         <v>178</v>
       </c>
-      <c r="AT47" s="7" t="s">
-        <v>513</v>
-      </c>
       <c r="AU47" s="7" t="s">
-        <v>587</v>
+        <v>575</v>
       </c>
       <c r="AV47" s="7" t="s">
         <v>201</v>
       </c>
       <c r="AW47" s="7" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="AX47" s="23" t="s">
-        <v>589</v>
+        <v>574</v>
       </c>
     </row>
     <row r="48" spans="1:50" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A48" t="s">
+      <c r="A48" s="41" t="s">
         <v>440</v>
       </c>
-      <c r="B48" t="s">
+      <c r="B48" s="41" t="s">
         <v>245</v>
       </c>
-      <c r="C48" t="s">
+      <c r="C48" s="41" t="s">
         <v>441</v>
       </c>
-      <c r="D48" t="s">
+      <c r="D48" s="41" t="s">
         <v>442</v>
       </c>
-      <c r="E48" s="10">
+      <c r="E48" s="42">
         <v>1999</v>
       </c>
-      <c r="F48" s="7" t="s">
+      <c r="F48" s="43" t="s">
         <v>412</v>
       </c>
-      <c r="G48" s="7" t="s">
+      <c r="G48" s="43" t="s">
         <v>435</v>
       </c>
-      <c r="H48" t="s">
+      <c r="H48" s="41" t="s">
         <v>275</v>
       </c>
-      <c r="I48" s="7" t="s">
+      <c r="I48" s="43" t="s">
         <v>443</v>
       </c>
-      <c r="J48" s="7" t="s">
+      <c r="J48" s="43" t="s">
         <v>444</v>
       </c>
-      <c r="K48" t="s">
+      <c r="K48" s="41" t="s">
         <v>445</v>
       </c>
-      <c r="L48" t="s">
+      <c r="L48" s="41" t="s">
         <v>254</v>
       </c>
-      <c r="M48" s="7" t="s">
+      <c r="M48" s="43" t="s">
         <v>446</v>
       </c>
-      <c r="N48" s="7" t="s">
+      <c r="N48" s="43" t="s">
         <v>256</v>
       </c>
-      <c r="O48" s="7" t="s">
+      <c r="O48" s="43" t="s">
         <v>257</v>
       </c>
-      <c r="P48" s="7" t="s">
+      <c r="P48" s="43" t="s">
         <v>308</v>
       </c>
-      <c r="Q48" s="7" t="s">
+      <c r="Q48" s="43" t="s">
         <v>21</v>
       </c>
-      <c r="S48" s="7" t="s">
+      <c r="R48" s="43"/>
+      <c r="S48" s="43" t="s">
         <v>26</v>
       </c>
-      <c r="T48" s="7" t="s">
+      <c r="T48" s="43" t="s">
         <v>41</v>
       </c>
-      <c r="U48" s="7" t="s">
+      <c r="U48" s="43" t="s">
         <v>48</v>
       </c>
-      <c r="V48" s="7" t="s">
+      <c r="V48" s="43" t="s">
         <v>42</v>
       </c>
-      <c r="W48" s="7" t="s">
+      <c r="W48" s="43" t="s">
         <v>47</v>
       </c>
-      <c r="X48" s="7" t="s">
+      <c r="X48" s="43" t="s">
         <v>218</v>
       </c>
-      <c r="Y48" s="7" t="s">
-        <v>515</v>
-      </c>
-      <c r="Z48" s="7" t="s">
-        <v>609</v>
-      </c>
-      <c r="AA48" s="7">
+      <c r="Y48" s="43" t="s">
+        <v>513</v>
+      </c>
+      <c r="Z48" s="43" t="s">
+        <v>593</v>
+      </c>
+      <c r="AA48" s="43">
         <v>2</v>
       </c>
-      <c r="AB48" s="7">
+      <c r="AB48" s="43">
         <v>2</v>
       </c>
-      <c r="AC48" s="7">
+      <c r="AC48" s="43">
         <v>3</v>
       </c>
-      <c r="AD48" s="7" t="s">
-        <v>514</v>
-      </c>
-      <c r="AF48" s="7" t="s">
+      <c r="AD48" s="43" t="s">
+        <v>512</v>
+      </c>
+      <c r="AE48" s="43"/>
+      <c r="AF48" s="43" t="s">
         <v>259</v>
       </c>
-      <c r="AG48" s="7" t="s">
+      <c r="AG48" s="43" t="s">
         <v>109</v>
       </c>
-      <c r="AH48" s="7" t="s">
+      <c r="AH48" s="43" t="s">
         <v>122</v>
       </c>
-      <c r="AK48" s="7" t="s">
+      <c r="AI48" s="43"/>
+      <c r="AJ48" s="43"/>
+      <c r="AK48" s="43" t="s">
         <v>143</v>
       </c>
-      <c r="AM48" s="7" t="s">
+      <c r="AL48" s="43"/>
+      <c r="AM48" s="43" t="s">
         <v>235</v>
       </c>
-      <c r="AO48" s="7" t="s">
+      <c r="AN48" s="43"/>
+      <c r="AO48" s="43" t="s">
+        <v>582</v>
+      </c>
+      <c r="AP48" s="43"/>
+      <c r="AQ48" s="43" t="s">
+        <v>166</v>
+      </c>
+      <c r="AR48" s="43" t="s">
+        <v>241</v>
+      </c>
+      <c r="AS48" s="43" t="s">
+        <v>178</v>
+      </c>
+      <c r="AT48" s="43" t="s">
+        <v>639</v>
+      </c>
+      <c r="AU48" s="43" t="s">
+        <v>580</v>
+      </c>
+      <c r="AV48" s="43" t="s">
+        <v>201</v>
+      </c>
+      <c r="AW48" s="43" t="s">
+        <v>210</v>
+      </c>
+      <c r="AX48" s="44" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="49" spans="1:50" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A49" t="s">
+        <v>440</v>
+      </c>
+      <c r="B49" t="s">
+        <v>245</v>
+      </c>
+      <c r="C49" t="s">
+        <v>441</v>
+      </c>
+      <c r="D49" t="s">
+        <v>442</v>
+      </c>
+      <c r="E49" s="10">
+        <v>1999</v>
+      </c>
+      <c r="F49" s="7" t="s">
+        <v>412</v>
+      </c>
+      <c r="G49" s="7" t="s">
+        <v>435</v>
+      </c>
+      <c r="H49" t="s">
+        <v>275</v>
+      </c>
+      <c r="I49" s="7" t="s">
+        <v>443</v>
+      </c>
+      <c r="J49" s="7" t="s">
+        <v>444</v>
+      </c>
+      <c r="K49" t="s">
+        <v>445</v>
+      </c>
+      <c r="L49" t="s">
+        <v>254</v>
+      </c>
+      <c r="M49" s="7" t="s">
+        <v>446</v>
+      </c>
+      <c r="N49" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="O49" s="7" t="s">
+        <v>257</v>
+      </c>
+      <c r="P49" s="7" t="s">
+        <v>308</v>
+      </c>
+      <c r="Q49" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="S49" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="T49" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="U49" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="V49" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="W49" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="X49" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="Y49" s="7" t="s">
+        <v>513</v>
+      </c>
+      <c r="Z49" s="7" t="s">
         <v>593</v>
       </c>
-      <c r="AQ48" s="7" t="s">
+      <c r="AA49" s="7">
+        <v>2</v>
+      </c>
+      <c r="AB49" s="7">
+        <v>2</v>
+      </c>
+      <c r="AC49" s="7">
+        <v>3</v>
+      </c>
+      <c r="AD49" s="7" t="s">
+        <v>512</v>
+      </c>
+      <c r="AF49" s="7" t="s">
+        <v>259</v>
+      </c>
+      <c r="AG49" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="AH49" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="AK49" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="AM49" s="7" t="s">
+        <v>235</v>
+      </c>
+      <c r="AO49" s="7" t="s">
+        <v>582</v>
+      </c>
+      <c r="AQ49" s="7" t="s">
         <v>166</v>
       </c>
-      <c r="AR48" s="7" t="s">
+      <c r="AR49" s="7" t="s">
         <v>241</v>
       </c>
-      <c r="AS48" s="7" t="s">
+      <c r="AS49" s="7" t="s">
         <v>178</v>
       </c>
-      <c r="AT48" s="7" t="s">
-        <v>513</v>
-      </c>
-      <c r="AU48" s="7" t="s">
-        <v>588</v>
-      </c>
-      <c r="AV48" s="7" t="s">
+      <c r="AT49" s="43" t="s">
+        <v>639</v>
+      </c>
+      <c r="AU49" s="7" t="s">
+        <v>576</v>
+      </c>
+      <c r="AV49" s="7" t="s">
         <v>201</v>
       </c>
-      <c r="AW48" s="7" t="s">
-        <v>209</v>
-      </c>
-      <c r="AX48" s="23" t="s">
-        <v>592</v>
+      <c r="AW49" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="AX49" s="23" t="s">
+        <v>578</v>
       </c>
     </row>
-    <row r="49" spans="1:50" x14ac:dyDescent="0.35">
-      <c r="A49" s="41" t="s">
-        <v>447</v>
-      </c>
-      <c r="B49" s="41" t="s">
-        <v>245</v>
-      </c>
-      <c r="C49" s="41" t="s">
-        <v>448</v>
-      </c>
-      <c r="D49" s="41" t="s">
-        <v>449</v>
-      </c>
-      <c r="E49" s="42">
-        <v>1998</v>
-      </c>
-      <c r="F49" s="43" t="s">
-        <v>412</v>
-      </c>
-      <c r="G49" s="43" t="s">
-        <v>450</v>
-      </c>
-      <c r="H49" s="41" t="s">
-        <v>371</v>
-      </c>
-      <c r="I49" s="43" t="s">
-        <v>451</v>
-      </c>
-      <c r="J49" s="43" t="s">
-        <v>335</v>
-      </c>
-      <c r="K49" s="41" t="s">
-        <v>452</v>
-      </c>
-      <c r="L49" s="41" t="s">
-        <v>254</v>
-      </c>
-      <c r="M49" s="43" t="s">
-        <v>453</v>
-      </c>
-      <c r="N49" s="43" t="s">
-        <v>256</v>
-      </c>
-      <c r="O49" s="43" t="s">
-        <v>318</v>
-      </c>
-      <c r="P49" s="43" t="s">
-        <v>258</v>
-      </c>
-      <c r="Q49" s="43" t="s">
-        <v>21</v>
-      </c>
-      <c r="R49" s="43"/>
-      <c r="S49" s="43" t="s">
-        <v>29</v>
-      </c>
-      <c r="T49" s="43" t="s">
-        <v>46</v>
-      </c>
-      <c r="U49" s="43" t="s">
-        <v>55</v>
-      </c>
-      <c r="V49" s="43" t="s">
-        <v>41</v>
-      </c>
-      <c r="W49" s="43" t="s">
-        <v>51</v>
-      </c>
-      <c r="X49" s="43" t="s">
-        <v>69</v>
-      </c>
-      <c r="Y49" s="43" t="s">
-        <v>516</v>
-      </c>
-      <c r="Z49" s="43" t="s">
-        <v>611</v>
-      </c>
-      <c r="AA49" s="43">
-        <v>2</v>
-      </c>
-      <c r="AB49" s="43">
-        <v>2</v>
-      </c>
-      <c r="AC49" s="43">
-        <v>3</v>
-      </c>
-      <c r="AD49" s="43"/>
-      <c r="AE49" s="43"/>
-      <c r="AF49" s="43" t="s">
-        <v>290</v>
-      </c>
-      <c r="AG49" s="43" t="s">
-        <v>111</v>
-      </c>
-      <c r="AH49" s="43" t="s">
-        <v>222</v>
-      </c>
-      <c r="AI49" s="43" t="s">
-        <v>147</v>
-      </c>
-      <c r="AJ49" s="43"/>
-      <c r="AK49" s="43"/>
-      <c r="AL49" s="43" t="s">
-        <v>612</v>
-      </c>
-      <c r="AM49" s="43" t="s">
-        <v>161</v>
-      </c>
-      <c r="AN49" s="43"/>
-      <c r="AO49" s="43" t="s">
-        <v>594</v>
-      </c>
-      <c r="AP49" s="43"/>
-      <c r="AQ49" s="43" t="s">
-        <v>166</v>
-      </c>
-      <c r="AR49" s="43" t="s">
-        <v>241</v>
-      </c>
-      <c r="AS49" s="43" t="s">
-        <v>177</v>
-      </c>
-      <c r="AT49" s="43" t="s">
-        <v>613</v>
-      </c>
-      <c r="AU49" s="43" t="s">
-        <v>595</v>
-      </c>
-      <c r="AV49" s="43" t="s">
-        <v>205</v>
-      </c>
-      <c r="AW49" s="43" t="s">
-        <v>209</v>
-      </c>
-      <c r="AX49" s="43" t="s">
-        <v>526</v>
-      </c>
-    </row>
-    <row r="50" spans="1:50" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:50" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
-        <v>447</v>
+        <v>440</v>
       </c>
       <c r="B50" t="s">
         <v>245</v>
       </c>
       <c r="C50" t="s">
-        <v>448</v>
+        <v>441</v>
       </c>
       <c r="D50" t="s">
-        <v>449</v>
+        <v>442</v>
       </c>
       <c r="E50" s="10">
-        <v>1998</v>
+        <v>1999</v>
       </c>
       <c r="F50" s="7" t="s">
         <v>412</v>
       </c>
       <c r="G50" s="7" t="s">
-        <v>450</v>
+        <v>435</v>
       </c>
       <c r="H50" t="s">
-        <v>371</v>
+        <v>275</v>
       </c>
       <c r="I50" s="7" t="s">
-        <v>451</v>
+        <v>443</v>
       </c>
       <c r="J50" s="7" t="s">
-        <v>335</v>
+        <v>444</v>
       </c>
       <c r="K50" t="s">
-        <v>452</v>
+        <v>445</v>
       </c>
       <c r="L50" t="s">
         <v>254</v>
       </c>
       <c r="M50" s="7" t="s">
-        <v>453</v>
+        <v>446</v>
       </c>
       <c r="N50" s="7" t="s">
         <v>256</v>
       </c>
       <c r="O50" s="7" t="s">
-        <v>318</v>
+        <v>257</v>
       </c>
       <c r="P50" s="7" t="s">
-        <v>258</v>
+        <v>308</v>
       </c>
       <c r="Q50" s="7" t="s">
         <v>21</v>
       </c>
       <c r="S50" s="7" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="T50" s="7" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="U50" s="7" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="V50" s="7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="W50" s="7" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="X50" s="7" t="s">
-        <v>69</v>
+        <v>218</v>
       </c>
       <c r="Y50" s="7" t="s">
-        <v>516</v>
+        <v>513</v>
       </c>
       <c r="Z50" s="7" t="s">
-        <v>611</v>
+        <v>593</v>
       </c>
       <c r="AA50" s="7">
         <v>2</v>
@@ -11312,26 +11266,26 @@
       <c r="AC50" s="7">
         <v>3</v>
       </c>
+      <c r="AD50" s="7" t="s">
+        <v>512</v>
+      </c>
       <c r="AF50" s="7" t="s">
-        <v>290</v>
+        <v>259</v>
       </c>
       <c r="AG50" s="7" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="AH50" s="7" t="s">
-        <v>222</v>
-      </c>
-      <c r="AI50" s="7" t="s">
-        <v>147</v>
-      </c>
-      <c r="AL50" s="7" t="s">
-        <v>612</v>
+        <v>122</v>
+      </c>
+      <c r="AK50" s="7" t="s">
+        <v>143</v>
       </c>
       <c r="AM50" s="7" t="s">
-        <v>161</v>
+        <v>235</v>
       </c>
       <c r="AO50" s="7" t="s">
-        <v>594</v>
+        <v>582</v>
       </c>
       <c r="AQ50" s="7" t="s">
         <v>166</v>
@@ -11340,79 +11294,79 @@
         <v>241</v>
       </c>
       <c r="AS50" s="7" t="s">
-        <v>177</v>
-      </c>
-      <c r="AT50" s="7" t="s">
-        <v>613</v>
+        <v>178</v>
+      </c>
+      <c r="AT50" s="43" t="s">
+        <v>639</v>
       </c>
       <c r="AU50" s="7" t="s">
-        <v>596</v>
+        <v>577</v>
       </c>
       <c r="AV50" s="7" t="s">
-        <v>205</v>
+        <v>115</v>
       </c>
       <c r="AW50" s="7" t="s">
         <v>209</v>
       </c>
-      <c r="AX50" s="7" t="s">
-        <v>526</v>
+      <c r="AX50" s="23" t="s">
+        <v>581</v>
       </c>
     </row>
-    <row r="51" spans="1:50" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A51" s="41" t="s">
-        <v>454</v>
+        <v>447</v>
       </c>
       <c r="B51" s="41" t="s">
         <v>245</v>
       </c>
       <c r="C51" s="41" t="s">
-        <v>455</v>
+        <v>448</v>
       </c>
       <c r="D51" s="41" t="s">
-        <v>456</v>
+        <v>449</v>
       </c>
       <c r="E51" s="42">
-        <v>1997</v>
+        <v>1998</v>
       </c>
       <c r="F51" s="43" t="s">
-        <v>457</v>
+        <v>412</v>
       </c>
       <c r="G51" s="43" t="s">
-        <v>458</v>
+        <v>450</v>
       </c>
       <c r="H51" s="41" t="s">
-        <v>265</v>
+        <v>371</v>
       </c>
       <c r="I51" s="43" t="s">
-        <v>459</v>
+        <v>451</v>
       </c>
       <c r="J51" s="43" t="s">
-        <v>435</v>
+        <v>335</v>
       </c>
       <c r="K51" s="41" t="s">
-        <v>460</v>
+        <v>452</v>
       </c>
       <c r="L51" s="41" t="s">
         <v>254</v>
       </c>
       <c r="M51" s="43" t="s">
-        <v>461</v>
+        <v>453</v>
       </c>
       <c r="N51" s="43" t="s">
         <v>256</v>
       </c>
       <c r="O51" s="43" t="s">
-        <v>257</v>
+        <v>318</v>
       </c>
       <c r="P51" s="43" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="Q51" s="43" t="s">
         <v>21</v>
       </c>
       <c r="R51" s="43"/>
       <c r="S51" s="43" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="T51" s="43" t="s">
         <v>46</v>
@@ -11421,17 +11375,19 @@
         <v>55</v>
       </c>
       <c r="V51" s="43" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="W51" s="43" t="s">
         <v>51</v>
       </c>
       <c r="X51" s="43" t="s">
-        <v>80</v>
-      </c>
-      <c r="Y51" s="43"/>
+        <v>69</v>
+      </c>
+      <c r="Y51" s="43" t="s">
+        <v>514</v>
+      </c>
       <c r="Z51" s="43" t="s">
-        <v>518</v>
+        <v>595</v>
       </c>
       <c r="AA51" s="43">
         <v>2</v>
@@ -11445,28 +11401,28 @@
       <c r="AD51" s="43"/>
       <c r="AE51" s="43"/>
       <c r="AF51" s="43" t="s">
-        <v>319</v>
+        <v>290</v>
       </c>
       <c r="AG51" s="43" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="AH51" s="43" t="s">
-        <v>119</v>
+        <v>222</v>
       </c>
       <c r="AI51" s="43" t="s">
-        <v>132</v>
+        <v>147</v>
       </c>
       <c r="AJ51" s="43"/>
       <c r="AK51" s="43"/>
-      <c r="AL51" s="43"/>
+      <c r="AL51" s="43" t="s">
+        <v>596</v>
+      </c>
       <c r="AM51" s="43" t="s">
-        <v>234</v>
-      </c>
-      <c r="AN51" s="43" t="s">
-        <v>162</v>
-      </c>
+        <v>161</v>
+      </c>
+      <c r="AN51" s="43"/>
       <c r="AO51" s="43" t="s">
-        <v>598</v>
+        <v>583</v>
       </c>
       <c r="AP51" s="43"/>
       <c r="AQ51" s="43" t="s">
@@ -11479,75 +11435,75 @@
         <v>177</v>
       </c>
       <c r="AT51" s="43" t="s">
-        <v>517</v>
+        <v>597</v>
       </c>
       <c r="AU51" s="43" t="s">
-        <v>600</v>
+        <v>584</v>
       </c>
       <c r="AV51" s="43" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="AW51" s="43" t="s">
         <v>209</v>
       </c>
       <c r="AX51" s="43" t="s">
-        <v>527</v>
+        <v>521</v>
       </c>
     </row>
-    <row r="52" spans="1:50" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
-        <v>454</v>
+        <v>447</v>
       </c>
       <c r="B52" t="s">
         <v>245</v>
       </c>
       <c r="C52" t="s">
-        <v>455</v>
+        <v>448</v>
       </c>
       <c r="D52" t="s">
-        <v>456</v>
+        <v>449</v>
       </c>
       <c r="E52" s="10">
-        <v>1997</v>
+        <v>1998</v>
       </c>
       <c r="F52" s="7" t="s">
-        <v>457</v>
+        <v>412</v>
       </c>
       <c r="G52" s="7" t="s">
-        <v>458</v>
+        <v>450</v>
       </c>
       <c r="H52" t="s">
-        <v>265</v>
+        <v>371</v>
       </c>
       <c r="I52" s="7" t="s">
-        <v>459</v>
+        <v>451</v>
       </c>
       <c r="J52" s="7" t="s">
-        <v>435</v>
+        <v>335</v>
       </c>
       <c r="K52" t="s">
-        <v>460</v>
+        <v>452</v>
       </c>
       <c r="L52" t="s">
         <v>254</v>
       </c>
       <c r="M52" s="7" t="s">
-        <v>461</v>
+        <v>453</v>
       </c>
       <c r="N52" s="7" t="s">
         <v>256</v>
       </c>
       <c r="O52" s="7" t="s">
-        <v>257</v>
+        <v>318</v>
       </c>
       <c r="P52" s="7" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="Q52" s="7" t="s">
         <v>21</v>
       </c>
       <c r="S52" s="7" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="T52" s="7" t="s">
         <v>46</v>
@@ -11556,16 +11512,19 @@
         <v>55</v>
       </c>
       <c r="V52" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="W52" s="7" t="s">
         <v>51</v>
       </c>
       <c r="X52" s="7" t="s">
-        <v>80</v>
+        <v>69</v>
+      </c>
+      <c r="Y52" s="7" t="s">
+        <v>514</v>
       </c>
       <c r="Z52" s="7" t="s">
-        <v>518</v>
+        <v>595</v>
       </c>
       <c r="AA52" s="7">
         <v>2</v>
@@ -11577,25 +11536,25 @@
         <v>3</v>
       </c>
       <c r="AF52" s="7" t="s">
-        <v>319</v>
+        <v>290</v>
       </c>
       <c r="AG52" s="7" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="AH52" s="7" t="s">
-        <v>119</v>
+        <v>222</v>
       </c>
       <c r="AI52" s="7" t="s">
-        <v>132</v>
+        <v>147</v>
+      </c>
+      <c r="AL52" s="7" t="s">
+        <v>596</v>
       </c>
       <c r="AM52" s="7" t="s">
-        <v>234</v>
-      </c>
-      <c r="AN52" s="7" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="AO52" s="7" t="s">
-        <v>597</v>
+        <v>583</v>
       </c>
       <c r="AQ52" s="7" t="s">
         <v>166</v>
@@ -11607,148 +11566,110 @@
         <v>177</v>
       </c>
       <c r="AT52" s="7" t="s">
-        <v>517</v>
+        <v>597</v>
       </c>
       <c r="AU52" s="7" t="s">
-        <v>600</v>
+        <v>585</v>
       </c>
       <c r="AV52" s="7" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="AW52" s="7" t="s">
         <v>209</v>
       </c>
       <c r="AX52" s="7" t="s">
-        <v>527</v>
+        <v>521</v>
       </c>
     </row>
-    <row r="53" spans="1:50" x14ac:dyDescent="0.35">
-      <c r="A53" t="s">
+    <row r="53" spans="1:50" s="16" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A53" s="33" t="s">
         <v>454</v>
       </c>
-      <c r="B53" t="s">
+      <c r="B53" s="33" t="s">
         <v>245</v>
       </c>
-      <c r="C53" t="s">
+      <c r="C53" s="33" t="s">
         <v>455</v>
       </c>
-      <c r="D53" t="s">
+      <c r="D53" s="33" t="s">
         <v>456</v>
       </c>
-      <c r="E53" s="10">
+      <c r="E53" s="34">
         <v>1997</v>
       </c>
-      <c r="F53" s="7" t="s">
+      <c r="F53" s="35" t="s">
         <v>457</v>
       </c>
-      <c r="G53" s="7" t="s">
+      <c r="G53" s="35" t="s">
         <v>458</v>
       </c>
-      <c r="H53" t="s">
+      <c r="H53" s="33" t="s">
         <v>265</v>
       </c>
-      <c r="I53" s="7" t="s">
+      <c r="I53" s="35" t="s">
         <v>459</v>
       </c>
-      <c r="J53" s="7" t="s">
+      <c r="J53" s="35" t="s">
         <v>435</v>
       </c>
-      <c r="K53" t="s">
+      <c r="K53" s="33" t="s">
         <v>460</v>
       </c>
-      <c r="L53" t="s">
+      <c r="L53" s="33" t="s">
         <v>254</v>
       </c>
-      <c r="M53" s="7" t="s">
+      <c r="M53" s="35" t="s">
         <v>461</v>
       </c>
-      <c r="N53" s="7" t="s">
+      <c r="N53" s="35" t="s">
         <v>256</v>
       </c>
-      <c r="O53" s="7" t="s">
+      <c r="O53" s="35" t="s">
         <v>257</v>
       </c>
-      <c r="P53" s="7" t="s">
+      <c r="P53" s="35" t="s">
         <v>254</v>
       </c>
-      <c r="Q53" s="7" t="s">
+      <c r="Q53" s="35" t="s">
         <v>21</v>
       </c>
-      <c r="S53" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="T53" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="U53" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="V53" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="W53" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="X53" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="Z53" s="7" t="s">
-        <v>518</v>
-      </c>
-      <c r="AA53" s="7">
-        <v>2</v>
-      </c>
-      <c r="AB53" s="7">
-        <v>2</v>
-      </c>
-      <c r="AC53" s="7">
-        <v>3</v>
-      </c>
-      <c r="AF53" s="7" t="s">
+      <c r="R53" s="18" t="s">
+        <v>84</v>
+      </c>
+      <c r="S53" s="35"/>
+      <c r="T53" s="35"/>
+      <c r="U53" s="35"/>
+      <c r="V53" s="35"/>
+      <c r="W53" s="35"/>
+      <c r="X53" s="35"/>
+      <c r="Y53" s="35"/>
+      <c r="Z53" s="35"/>
+      <c r="AA53" s="35"/>
+      <c r="AB53" s="35"/>
+      <c r="AC53" s="35"/>
+      <c r="AD53" s="35"/>
+      <c r="AE53" s="35"/>
+      <c r="AF53" s="35" t="s">
         <v>319</v>
       </c>
-      <c r="AG53" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="AH53" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="AI53" s="7" t="s">
-        <v>132</v>
-      </c>
-      <c r="AM53" s="7" t="s">
-        <v>234</v>
-      </c>
-      <c r="AN53" s="7" t="s">
-        <v>162</v>
-      </c>
-      <c r="AO53" s="7" t="s">
-        <v>599</v>
-      </c>
-      <c r="AQ53" s="7" t="s">
-        <v>166</v>
-      </c>
-      <c r="AR53" s="7" t="s">
-        <v>172</v>
-      </c>
-      <c r="AS53" s="7" t="s">
-        <v>191</v>
-      </c>
-      <c r="AT53" s="7" t="s">
-        <v>517</v>
-      </c>
-      <c r="AU53" s="7" t="s">
-        <v>600</v>
-      </c>
-      <c r="AV53" s="7" t="s">
-        <v>206</v>
-      </c>
-      <c r="AW53" s="7" t="s">
-        <v>209</v>
-      </c>
-      <c r="AX53" s="7" t="s">
-        <v>527</v>
-      </c>
+      <c r="AG53" s="35"/>
+      <c r="AH53" s="35"/>
+      <c r="AI53" s="35"/>
+      <c r="AJ53" s="35"/>
+      <c r="AK53" s="35"/>
+      <c r="AL53" s="35"/>
+      <c r="AM53" s="35"/>
+      <c r="AN53" s="35"/>
+      <c r="AO53" s="35"/>
+      <c r="AP53" s="35"/>
+      <c r="AQ53" s="35"/>
+      <c r="AR53" s="35"/>
+      <c r="AS53" s="35"/>
+      <c r="AT53" s="35"/>
+      <c r="AU53" s="35"/>
+      <c r="AV53" s="35"/>
+      <c r="AW53" s="35"/>
+      <c r="AX53" s="35"/>
     </row>
     <row r="54" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A54" s="33" t="s">
@@ -11840,85 +11761,87 @@
       <c r="AW54" s="35"/>
       <c r="AX54" s="35"/>
     </row>
-    <row r="55" spans="1:50" x14ac:dyDescent="0.35">
-      <c r="A55" s="45" t="s">
+    <row r="55" spans="1:50" s="16" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A55" s="58" t="s">
         <v>470</v>
       </c>
-      <c r="B55" s="45" t="s">
+      <c r="B55" s="58" t="s">
         <v>245</v>
       </c>
-      <c r="C55" s="45" t="s">
+      <c r="C55" s="58" t="s">
         <v>471</v>
       </c>
-      <c r="D55" s="45" t="s">
+      <c r="D55" s="58" t="s">
         <v>472</v>
       </c>
-      <c r="E55" s="46">
+      <c r="E55" s="59">
         <v>2020</v>
       </c>
-      <c r="F55" s="47" t="s">
+      <c r="F55" s="60" t="s">
         <v>473</v>
       </c>
-      <c r="G55" s="47" t="s">
+      <c r="G55" s="60" t="s">
         <v>474</v>
       </c>
-      <c r="H55" s="45"/>
-      <c r="I55" s="47"/>
-      <c r="J55" s="47"/>
-      <c r="K55" s="45" t="s">
+      <c r="H55" s="58"/>
+      <c r="I55" s="60"/>
+      <c r="J55" s="60"/>
+      <c r="K55" s="58" t="s">
         <v>475</v>
       </c>
-      <c r="L55" s="45" t="s">
+      <c r="L55" s="58" t="s">
         <v>254</v>
       </c>
-      <c r="M55" s="47" t="s">
+      <c r="M55" s="60" t="s">
         <v>476</v>
       </c>
-      <c r="N55" s="47" t="s">
+      <c r="N55" s="60" t="s">
         <v>256</v>
       </c>
-      <c r="O55" s="47" t="s">
+      <c r="O55" s="60" t="s">
         <v>257</v>
       </c>
-      <c r="P55" s="47"/>
-      <c r="Q55" s="47" t="s">
+      <c r="P55" s="60"/>
+      <c r="Q55" s="60" t="s">
         <v>22</v>
       </c>
-      <c r="R55" s="47" t="s">
+      <c r="R55" s="60" t="s">
         <v>84</v>
       </c>
-      <c r="S55" s="47"/>
-      <c r="T55" s="47"/>
-      <c r="U55" s="47"/>
-      <c r="V55" s="47"/>
-      <c r="W55" s="47"/>
-      <c r="X55" s="47"/>
-      <c r="Y55" s="47"/>
-      <c r="Z55" s="47"/>
-      <c r="AA55" s="47"/>
-      <c r="AB55" s="47"/>
-      <c r="AC55" s="47"/>
-      <c r="AD55" s="47"/>
-      <c r="AE55" s="47"/>
-      <c r="AF55" s="47"/>
-      <c r="AG55" s="47"/>
-      <c r="AH55" s="47"/>
-      <c r="AI55" s="47"/>
-      <c r="AJ55" s="47"/>
-      <c r="AK55" s="47"/>
-      <c r="AL55" s="47"/>
-      <c r="AM55" s="47"/>
-      <c r="AN55" s="47"/>
-      <c r="AO55" s="47"/>
-      <c r="AP55" s="47"/>
-      <c r="AQ55" s="47"/>
-      <c r="AR55" s="47"/>
-      <c r="AS55" s="47"/>
-      <c r="AT55" s="47"/>
-      <c r="AU55" s="47"/>
-      <c r="AV55" s="47"/>
-      <c r="AW55" s="47"/>
-      <c r="AX55" s="47"/>
+      <c r="S55" s="60"/>
+      <c r="T55" s="60"/>
+      <c r="U55" s="60"/>
+      <c r="V55" s="60"/>
+      <c r="W55" s="60"/>
+      <c r="X55" s="60"/>
+      <c r="Y55" s="60"/>
+      <c r="Z55" s="60"/>
+      <c r="AA55" s="60"/>
+      <c r="AB55" s="60"/>
+      <c r="AC55" s="60"/>
+      <c r="AD55" s="60"/>
+      <c r="AE55" s="60"/>
+      <c r="AF55" s="60">
+        <v>4.5</v>
+      </c>
+      <c r="AG55" s="60"/>
+      <c r="AH55" s="60"/>
+      <c r="AI55" s="60"/>
+      <c r="AJ55" s="60"/>
+      <c r="AK55" s="60"/>
+      <c r="AL55" s="60"/>
+      <c r="AM55" s="60"/>
+      <c r="AN55" s="60"/>
+      <c r="AO55" s="60"/>
+      <c r="AP55" s="60"/>
+      <c r="AQ55" s="60"/>
+      <c r="AR55" s="60"/>
+      <c r="AS55" s="60"/>
+      <c r="AT55" s="60"/>
+      <c r="AU55" s="60"/>
+      <c r="AV55" s="60"/>
+      <c r="AW55" s="60"/>
+      <c r="AX55" s="60"/>
     </row>
     <row r="56" spans="1:50" s="14" customFormat="1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A56" s="30" t="s">
@@ -11986,10 +11909,10 @@
         <v>69</v>
       </c>
       <c r="Y56" s="32" t="s">
-        <v>521</v>
+        <v>516</v>
       </c>
       <c r="Z56" s="32" t="s">
-        <v>522</v>
+        <v>517</v>
       </c>
       <c r="AA56" s="32">
         <v>2</v>
@@ -12019,7 +11942,7 @@
       </c>
       <c r="AK56" s="32"/>
       <c r="AL56" s="32" t="s">
-        <v>601</v>
+        <v>631</v>
       </c>
       <c r="AM56" s="32" t="s">
         <v>234</v>
@@ -12028,7 +11951,7 @@
         <v>164</v>
       </c>
       <c r="AO56" s="32" t="s">
-        <v>520</v>
+        <v>515</v>
       </c>
       <c r="AP56" s="32"/>
       <c r="AQ56" s="32" t="s">
@@ -12041,10 +11964,10 @@
         <v>190</v>
       </c>
       <c r="AT56" s="32" t="s">
-        <v>519</v>
+        <v>632</v>
       </c>
       <c r="AU56" s="32" t="s">
-        <v>602</v>
+        <v>586</v>
       </c>
       <c r="AV56" s="32" t="s">
         <v>214</v>
@@ -12053,13 +11976,14 @@
         <v>212</v>
       </c>
       <c r="AX56" s="32" t="s">
-        <v>528</v>
+        <v>522</v>
       </c>
     </row>
     <row r="58" spans="1:50" x14ac:dyDescent="0.35">
       <c r="AX58" s="43"/>
     </row>
   </sheetData>
+  <autoFilter ref="AQ56:AX56" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <mergeCells count="7">
     <mergeCell ref="AQ1:AT1"/>
     <mergeCell ref="AU1:AX1"/>
@@ -12078,7 +12002,7 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AQ58:AQ1048576 AQ3:AQ56" xr:uid="{5FFD7ACF-9A7A-47E4-8F02-C092CA18B67C}">
       <formula1>Fishery_type</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AR3:AS56 AI3:AJ56 AN3:AN56 AI58:AJ1048576 AN58:AO1048576 AR58:AS1048576" xr:uid="{E3465DE4-B915-4C62-9316-EABEC40DC1E6}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AN3:AN56 AI3:AJ56 AR3:AS56 AR58:AS1048576 AN58:AO1048576 AI58:AJ1048576" xr:uid="{E3465DE4-B915-4C62-9316-EABEC40DC1E6}">
       <formula1>INDIRECT(AH3)</formula1>
     </dataValidation>
   </dataValidations>
@@ -12092,7 +12016,7 @@
           <x14:formula1>
             <xm:f>Validation!$R$3:$R$9</xm:f>
           </x14:formula1>
-          <xm:sqref>R58:R1048576 Q3:Q56</xm:sqref>
+          <xm:sqref>Q3:Q56 R53 R58:R66 R68:R1048576</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000003000000}">
           <x14:formula1>
@@ -12205,63 +12129,63 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:49" x14ac:dyDescent="0.35">
-      <c r="A1" s="51" t="s">
+      <c r="A1" s="48" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="51"/>
-      <c r="C1" s="51"/>
-      <c r="D1" s="51"/>
-      <c r="E1" s="51"/>
-      <c r="F1" s="51"/>
-      <c r="G1" s="51"/>
-      <c r="H1" s="51"/>
-      <c r="I1" s="51"/>
-      <c r="J1" s="51"/>
-      <c r="K1" s="51"/>
-      <c r="L1" s="51"/>
-      <c r="M1" s="51"/>
-      <c r="N1" s="51"/>
-      <c r="O1" s="51"/>
-      <c r="P1" s="51"/>
-      <c r="Q1" s="51"/>
-      <c r="R1" s="54" t="s">
+      <c r="B1" s="48"/>
+      <c r="C1" s="48"/>
+      <c r="D1" s="48"/>
+      <c r="E1" s="48"/>
+      <c r="F1" s="48"/>
+      <c r="G1" s="48"/>
+      <c r="H1" s="48"/>
+      <c r="I1" s="48"/>
+      <c r="J1" s="48"/>
+      <c r="K1" s="48"/>
+      <c r="L1" s="48"/>
+      <c r="M1" s="48"/>
+      <c r="N1" s="48"/>
+      <c r="O1" s="48"/>
+      <c r="P1" s="48"/>
+      <c r="Q1" s="48"/>
+      <c r="R1" s="51" t="s">
         <v>12</v>
       </c>
-      <c r="S1" s="54"/>
-      <c r="T1" s="54"/>
-      <c r="U1" s="54"/>
-      <c r="V1" s="54"/>
-      <c r="W1" s="54"/>
-      <c r="X1" s="54"/>
-      <c r="Y1" s="54"/>
-      <c r="Z1" s="54"/>
-      <c r="AA1" s="54"/>
-      <c r="AB1" s="54"/>
-      <c r="AC1" s="54"/>
-      <c r="AD1" s="54"/>
-      <c r="AE1" s="54"/>
-      <c r="AF1" s="58" t="s">
+      <c r="S1" s="51"/>
+      <c r="T1" s="51"/>
+      <c r="U1" s="51"/>
+      <c r="V1" s="51"/>
+      <c r="W1" s="51"/>
+      <c r="X1" s="51"/>
+      <c r="Y1" s="51"/>
+      <c r="Z1" s="51"/>
+      <c r="AA1" s="51"/>
+      <c r="AB1" s="51"/>
+      <c r="AC1" s="51"/>
+      <c r="AD1" s="51"/>
+      <c r="AE1" s="51"/>
+      <c r="AF1" s="55" t="s">
         <v>88</v>
       </c>
-      <c r="AG1" s="58"/>
-      <c r="AH1" s="59" t="s">
+      <c r="AG1" s="55"/>
+      <c r="AH1" s="56" t="s">
         <v>91</v>
       </c>
-      <c r="AI1" s="59"/>
-      <c r="AJ1" s="59"/>
-      <c r="AK1" s="59"/>
-      <c r="AL1" s="59"/>
-      <c r="AM1" s="57" t="s">
+      <c r="AI1" s="56"/>
+      <c r="AJ1" s="56"/>
+      <c r="AK1" s="56"/>
+      <c r="AL1" s="56"/>
+      <c r="AM1" s="54" t="s">
         <v>97</v>
       </c>
-      <c r="AN1" s="57"/>
-      <c r="AO1" s="57"/>
-      <c r="AP1" s="56" t="s">
+      <c r="AN1" s="54"/>
+      <c r="AO1" s="54"/>
+      <c r="AP1" s="53" t="s">
         <v>101</v>
       </c>
-      <c r="AQ1" s="56"/>
-      <c r="AR1" s="56"/>
-      <c r="AS1" s="56"/>
+      <c r="AQ1" s="53"/>
+      <c r="AR1" s="53"/>
+      <c r="AS1" s="53"/>
       <c r="AT1" s="8" t="s">
         <v>104</v>
       </c>
@@ -13295,51 +13219,51 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:33" x14ac:dyDescent="0.35">
-      <c r="A1" s="54" t="s">
+      <c r="A1" s="51" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="54"/>
-      <c r="C1" s="54"/>
-      <c r="D1" s="54"/>
-      <c r="E1" s="54"/>
-      <c r="F1" s="54"/>
-      <c r="G1" s="54"/>
-      <c r="H1" s="54"/>
-      <c r="I1" s="54"/>
-      <c r="J1" s="54"/>
-      <c r="K1" s="54"/>
-      <c r="L1" s="54"/>
-      <c r="M1" s="54"/>
-      <c r="N1" s="54"/>
-      <c r="O1" s="58" t="s">
+      <c r="B1" s="51"/>
+      <c r="C1" s="51"/>
+      <c r="D1" s="51"/>
+      <c r="E1" s="51"/>
+      <c r="F1" s="51"/>
+      <c r="G1" s="51"/>
+      <c r="H1" s="51"/>
+      <c r="I1" s="51"/>
+      <c r="J1" s="51"/>
+      <c r="K1" s="51"/>
+      <c r="L1" s="51"/>
+      <c r="M1" s="51"/>
+      <c r="N1" s="51"/>
+      <c r="O1" s="55" t="s">
         <v>88</v>
       </c>
-      <c r="P1" s="58"/>
-      <c r="Q1" s="59" t="s">
+      <c r="P1" s="55"/>
+      <c r="Q1" s="56" t="s">
         <v>91</v>
       </c>
-      <c r="R1" s="59"/>
-      <c r="S1" s="59"/>
-      <c r="T1" s="59"/>
-      <c r="U1" s="59"/>
-      <c r="V1" s="57" t="s">
+      <c r="R1" s="56"/>
+      <c r="S1" s="56"/>
+      <c r="T1" s="56"/>
+      <c r="U1" s="56"/>
+      <c r="V1" s="54" t="s">
         <v>97</v>
       </c>
-      <c r="W1" s="57"/>
-      <c r="X1" s="57"/>
-      <c r="Y1" s="57"/>
-      <c r="Z1" s="56" t="s">
+      <c r="W1" s="54"/>
+      <c r="X1" s="54"/>
+      <c r="Y1" s="54"/>
+      <c r="Z1" s="53" t="s">
         <v>101</v>
       </c>
-      <c r="AA1" s="56"/>
-      <c r="AB1" s="56"/>
-      <c r="AC1" s="56"/>
-      <c r="AD1" s="60" t="s">
+      <c r="AA1" s="53"/>
+      <c r="AB1" s="53"/>
+      <c r="AC1" s="53"/>
+      <c r="AD1" s="57" t="s">
         <v>104</v>
       </c>
-      <c r="AE1" s="60"/>
-      <c r="AF1" s="60"/>
-      <c r="AG1" s="60"/>
+      <c r="AE1" s="57"/>
+      <c r="AF1" s="57"/>
+      <c r="AG1" s="57"/>
     </row>
     <row r="2" spans="1:33" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
@@ -14269,14 +14193,14 @@
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{495201D0-9695-4A45-BC3A-28D949F46F55}">
   <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
     <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
